--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A63580-CE98-4A42-A252-C5CF4D407F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F2670-DA75-7940-8B0C-49671FEDBFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" activeTab="11" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2122,7 +2122,7 @@
     <t>gfegv</t>
   </si>
   <si>
-    <t>cbo new projections</t>
+    <t>federal nom purchases override growth rate</t>
   </si>
 </sst>
 </file>
@@ -4129,11 +4129,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T92" sqref="T92"/>
+      <selection pane="bottomRight" activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8527,51 +8527,51 @@
       </c>
       <c r="O70" s="116">
         <f>N70*(1+O86)</f>
-        <v>197741.49947361497</v>
+        <v>197738.804</v>
       </c>
       <c r="P70" s="116">
         <f t="shared" ref="P70:Z70" si="44">O70*(1+P86)</f>
-        <v>198648.63001710753</v>
+        <v>198529.75921600001</v>
       </c>
       <c r="Q70" s="116">
         <f t="shared" si="44"/>
-        <v>199711.26865377021</v>
+        <v>199323.878252864</v>
       </c>
       <c r="R70" s="116">
         <f t="shared" si="44"/>
-        <v>201244.08517867888</v>
+        <v>200121.17376587546</v>
       </c>
       <c r="S70" s="116">
         <f t="shared" si="44"/>
-        <v>202989.95960222601</v>
+        <v>200921.65846093895</v>
       </c>
       <c r="T70" s="116">
         <f t="shared" si="44"/>
-        <v>204757.79375261875</v>
+        <v>201725.34509478271</v>
       </c>
       <c r="U70" s="116">
         <f t="shared" si="44"/>
-        <v>206721.64407812891</v>
+        <v>202532.24647516184</v>
       </c>
       <c r="V70" s="116">
         <f t="shared" si="44"/>
-        <v>208528.49383340348</v>
+        <v>203342.37546106247</v>
       </c>
       <c r="W70" s="116">
         <f t="shared" si="44"/>
-        <v>210535.31291864807</v>
+        <v>204155.74496290673</v>
       </c>
       <c r="X70" s="116">
         <f t="shared" si="44"/>
-        <v>212376.56499844257</v>
+        <v>204972.36794275834</v>
       </c>
       <c r="Y70" s="116">
         <f t="shared" si="44"/>
-        <v>214419.66277456292</v>
+        <v>205792.25741452936</v>
       </c>
       <c r="Z70" s="116">
         <f t="shared" si="44"/>
-        <v>216486.27947886748</v>
+        <v>206615.42644418747</v>
       </c>
       <c r="AA70" s="44"/>
       <c r="AB70" s="44"/>
@@ -9319,51 +9319,51 @@
       </c>
       <c r="O82" s="144">
         <f t="shared" ref="O82:Z82" si="48">O70+O72</f>
-        <v>346741.49947361497</v>
+        <v>346738.804</v>
       </c>
       <c r="P82" s="144">
         <f t="shared" si="48"/>
-        <v>319648.63001710753</v>
+        <v>319529.75921599998</v>
       </c>
       <c r="Q82" s="144">
         <f t="shared" si="48"/>
-        <v>320711.26865377021</v>
+        <v>320323.878252864</v>
       </c>
       <c r="R82" s="144">
         <f t="shared" si="48"/>
-        <v>316244.08517867886</v>
+        <v>315121.17376587546</v>
       </c>
       <c r="S82" s="144">
         <f t="shared" si="48"/>
-        <v>311989.95960222604</v>
+        <v>309921.65846093895</v>
       </c>
       <c r="T82" s="144">
         <f t="shared" si="48"/>
-        <v>313757.79375261872</v>
+        <v>310725.34509478271</v>
       </c>
       <c r="U82" s="144">
         <f t="shared" si="48"/>
-        <v>315721.64407812891</v>
+        <v>311532.24647516187</v>
       </c>
       <c r="V82" s="144">
         <f t="shared" si="48"/>
-        <v>317528.49383340345</v>
+        <v>312342.37546106247</v>
       </c>
       <c r="W82" s="144">
         <f t="shared" si="48"/>
-        <v>319535.31291864807</v>
+        <v>313155.7449629067</v>
       </c>
       <c r="X82" s="144">
         <f t="shared" si="48"/>
-        <v>271376.56499844254</v>
+        <v>263972.36794275837</v>
       </c>
       <c r="Y82" s="144">
         <f t="shared" si="48"/>
-        <v>273419.66277456295</v>
+        <v>264792.25741452933</v>
       </c>
       <c r="Z82" s="144">
         <f t="shared" si="48"/>
-        <v>275486.27947886748</v>
+        <v>265615.42644418747</v>
       </c>
       <c r="AA82" s="44"/>
       <c r="AB82" s="44"/>
@@ -9547,74 +9547,76 @@
       <c r="AL85" s="44"/>
       <c r="AM85" s="235"/>
     </row>
-    <row r="86" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A86" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="F86" s="207"/>
-      <c r="G86" s="207"/>
-      <c r="H86" s="207"/>
-      <c r="I86" s="207"/>
-      <c r="J86" s="207"/>
-      <c r="K86" s="207"/>
-      <c r="L86" s="207"/>
+    <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="114" t="s">
+        <v>381</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="F86" s="197"/>
+      <c r="G86" s="197"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="197"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
+      <c r="L86" s="197"/>
       <c r="M86" s="302">
         <v>-1.1805555555555514E-2</v>
       </c>
       <c r="N86" s="311">
-        <f>N85/M85-1</f>
-        <v>4.3832189558417056E-3</v>
+        <f>N84/M84-1</f>
+        <v>-1.3676540090014067E-3</v>
       </c>
       <c r="O86" s="196">
-        <v>4.0136860113173497E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P86" s="196">
-        <v>4.58745658300019E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q86" s="196">
-        <v>5.3493378563505001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="R86" s="196">
-        <v>7.6751629251630097E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S86" s="196">
-        <v>8.6754073889774297E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T86" s="196">
-        <v>8.7089733593570494E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U86" s="196">
-        <v>9.5910894990538492E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V86" s="196">
-        <v>8.7404962520116793E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="W86" s="196">
-        <v>9.6237163965124904E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="X86" s="196">
-        <v>8.7455736250097206E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y86" s="196">
-        <v>9.6201658414398795E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Z86" s="196">
-        <v>9.6381865243271303E-3</v>
-      </c>
-      <c r="AA86" s="186"/>
-      <c r="AB86" s="186"/>
-      <c r="AE86" s="187"/>
-      <c r="AF86" s="187"/>
-      <c r="AG86" s="187"/>
-      <c r="AI86" s="187"/>
-      <c r="AJ86" s="187"/>
-      <c r="AK86" s="187"/>
-      <c r="AL86" s="187"/>
-      <c r="AM86" s="237"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="44"/>
+      <c r="AI86" s="44"/>
+      <c r="AJ86" s="44"/>
+      <c r="AK86" s="44"/>
+      <c r="AL86" s="44"/>
+      <c r="AM86" s="235"/>
     </row>
     <row r="87" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A87" s="169" t="s">
-        <v>381</v>
+        <v>202</v>
       </c>
       <c r="F87" s="207"/>
       <c r="G87" s="207"/>
@@ -9623,8 +9625,13 @@
       <c r="J87" s="207"/>
       <c r="K87" s="207"/>
       <c r="L87" s="207"/>
-      <c r="M87" s="302"/>
-      <c r="N87" s="311"/>
+      <c r="M87" s="302">
+        <v>-1.1805555555555514E-2</v>
+      </c>
+      <c r="N87" s="311">
+        <f>N85/M85-1</f>
+        <v>4.3832189558417056E-3</v>
+      </c>
       <c r="O87" s="196">
         <v>5.3394154743755307E-2</v>
       </c>
@@ -10086,11 +10093,11 @@
         <v>1328805</v>
       </c>
       <c r="N94" s="310">
-        <f>N92+N35</f>
+        <f t="shared" ref="N94:Z94" si="53">N92+N35</f>
         <v>1372787</v>
       </c>
       <c r="O94" s="143">
-        <f t="shared" ref="O94:Z94" si="53">O92+O35</f>
+        <f t="shared" si="53"/>
         <v>1390610.1625906522</v>
       </c>
       <c r="P94" s="143">
@@ -10945,11 +10952,11 @@
         <v>528408</v>
       </c>
       <c r="N110" s="306">
-        <f>N96+N46-N92</f>
+        <f t="shared" ref="N110:Y110" si="69">N96+N46-N92</f>
         <v>343247</v>
       </c>
       <c r="O110" s="215">
-        <f t="shared" ref="O110:Y110" si="69">O96+O46-O92</f>
+        <f t="shared" si="69"/>
         <v>383773.58690641256</v>
       </c>
       <c r="P110" s="215">
@@ -12640,8 +12647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87327C4-CC87-4828-867B-1480BE7C2A8D}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22011,10 +22018,10 @@
   <dimension ref="A1:AX73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26156,39 +26163,39 @@
       </c>
       <c r="H68" s="218">
         <f>main!O82/1000</f>
-        <v>346.74149947361497</v>
+        <v>346.73880400000002</v>
       </c>
       <c r="I68" s="218">
         <f>main!P82/1000</f>
-        <v>319.64863001710751</v>
+        <v>319.529759216</v>
       </c>
       <c r="J68" s="218">
         <f>main!Q82/1000</f>
-        <v>320.71126865377022</v>
+        <v>320.32387825286401</v>
       </c>
       <c r="K68" s="151">
         <f>main!R82/1000</f>
-        <v>316.24408517867886</v>
+        <v>315.12117376587548</v>
       </c>
       <c r="L68" s="218">
         <f>main!S82/1000</f>
-        <v>311.98995960222607</v>
+        <v>309.92165846093894</v>
       </c>
       <c r="M68" s="218">
         <f>main!T82/1000</f>
-        <v>313.75779375261874</v>
+        <v>310.72534509478271</v>
       </c>
       <c r="N68" s="218">
         <f>main!U82/1000</f>
-        <v>315.72164407812892</v>
+        <v>311.53224647516186</v>
       </c>
       <c r="O68" s="151">
         <f>main!V82/1000</f>
-        <v>317.52849383340345</v>
+        <v>312.34237546106249</v>
       </c>
       <c r="P68" s="248">
         <f>main!W82/1000</f>
-        <v>319.53531291864806</v>
+        <v>313.15574496290668</v>
       </c>
       <c r="Q68" s="248">
         <v>330.50545802602733</v>
@@ -26414,39 +26421,39 @@
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>89.587913196559953</v>
+        <v>89.585217722945004</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>91.189857921281316</v>
+        <v>91.070987120173811</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>108.66056724274401</v>
+        <v>108.2731768418378</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>99.041886971004146</v>
+        <v>97.918975558200771</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>88.930859906418476</v>
+        <v>86.862558765131354</v>
       </c>
       <c r="M71" s="217">
         <f t="shared" si="119"/>
-        <v>85.160216065161137</v>
+        <v>82.127767407325109</v>
       </c>
       <c r="N71" s="217">
         <f t="shared" si="119"/>
-        <v>81.542527324679924</v>
+        <v>77.353129721712861</v>
       </c>
       <c r="O71" s="150">
         <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>69.661088956544148</v>
+        <v>64.474970584203191</v>
       </c>
       <c r="P71" s="250">
         <f t="shared" si="120"/>
-        <v>57.978172785671859</v>
+        <v>51.59860482993048</v>
       </c>
       <c r="Q71" s="250">
         <f t="shared" si="120"/>
@@ -26551,8 +26558,8 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26807,7 +26814,7 @@
         <v>181.40020106674513</v>
       </c>
       <c r="I5">
-        <v>89.587913196559953</v>
+        <v>89.585217722945004</v>
       </c>
       <c r="K5" s="102">
         <f>main!O$40/1000</f>
@@ -26859,7 +26866,7 @@
         <v>178.52885638089663</v>
       </c>
       <c r="I6">
-        <v>91.189857921281316</v>
+        <v>91.070987120173811</v>
       </c>
       <c r="K6" s="323">
         <f>main!P$40/1000</f>
@@ -26910,7 +26917,7 @@
         <v>-474.40846011939709</v>
       </c>
       <c r="I7">
-        <v>108.66056724274401</v>
+        <v>108.2731768418378</v>
       </c>
       <c r="K7" s="102">
         <f>main!Q$40/1000</f>
@@ -26961,7 +26968,7 @@
         <v>-498.7387987375219</v>
       </c>
       <c r="I8">
-        <v>99.041886971004146</v>
+        <v>97.918975558200771</v>
       </c>
       <c r="K8" s="102">
         <f>main!R$40/1000</f>
@@ -27012,7 +27019,7 @@
         <v>-547.1903606870228</v>
       </c>
       <c r="I9">
-        <v>88.930859906418476</v>
+        <v>86.862558765131354</v>
       </c>
       <c r="K9" s="102">
         <f>main!S$40/1000</f>
@@ -27062,7 +27069,7 @@
         <v>-549.83002927139501</v>
       </c>
       <c r="I10">
-        <v>85.160216065161137</v>
+        <v>82.127767407325109</v>
       </c>
       <c r="K10" s="102">
         <f>main!T$40/1000</f>
@@ -27112,7 +27119,7 @@
         <v>-552.4284100259805</v>
       </c>
       <c r="I11">
-        <v>81.542527324679924</v>
+        <v>77.353129721712861</v>
       </c>
       <c r="K11" s="102">
         <f>main!U$40/1000</f>
@@ -27162,7 +27169,7 @@
         <v>-555.01027564865115</v>
       </c>
       <c r="I12">
-        <v>69.661088956544148</v>
+        <v>64.474970584203191</v>
       </c>
       <c r="K12" s="102">
         <f>main!V$40/1000</f>
@@ -27212,7 +27219,7 @@
         <v>-557.58663622735014</v>
       </c>
       <c r="I13">
-        <v>57.978172785671859</v>
+        <v>51.59860482993048</v>
       </c>
       <c r="K13" s="102">
         <v>44</v>
@@ -31187,7 +31194,7 @@
         <v>181.40020106674513</v>
       </c>
       <c r="I4" s="259">
-        <v>89.587913196559953</v>
+        <v>89.585217722945004</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -31216,7 +31223,7 @@
         <v>178.52885638089663</v>
       </c>
       <c r="I5" s="259">
-        <v>91.189857921281316</v>
+        <v>91.070987120173811</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -31245,7 +31252,7 @@
         <v>-474.40846011939709</v>
       </c>
       <c r="I6" s="259">
-        <v>108.66056724274401</v>
+        <v>108.2731768418378</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -31274,7 +31281,7 @@
         <v>-498.7387987375219</v>
       </c>
       <c r="I7" s="259">
-        <v>99.041886971004146</v>
+        <v>97.918975558200771</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -31303,7 +31310,7 @@
         <v>-547.1903606870228</v>
       </c>
       <c r="I8" s="259">
-        <v>88.930859906418476</v>
+        <v>86.862558765131354</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -31332,7 +31339,7 @@
         <v>-549.83002927139501</v>
       </c>
       <c r="I9" s="259">
-        <v>85.160216065161137</v>
+        <v>82.127767407325109</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -31361,7 +31368,7 @@
         <v>-552.4284100259805</v>
       </c>
       <c r="I10" s="259">
-        <v>81.542527324679924</v>
+        <v>77.353129721712861</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -31390,7 +31397,7 @@
         <v>-555.01027564865115</v>
       </c>
       <c r="I11" s="259">
-        <v>69.661088956544148</v>
+        <v>64.474970584203191</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -31419,7 +31426,7 @@
         <v>-557.58663622735014</v>
       </c>
       <c r="I12" s="259">
-        <v>57.978172785671859</v>
+        <v>51.59860482993048</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -32777,6 +32784,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32785,7 +32798,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33002,13 +33015,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -33016,7 +33040,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33033,21 +33057,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F2670-DA75-7940-8B0C-49671FEDBFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352006F7-A6EA-B64A-B9C2-877764618489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -3571,21 +3571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3607,14 +3592,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4130,10 +4130,10 @@
   <dimension ref="A1:AQ120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O82" sqref="O82"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14982,68 +14982,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="351" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
-      <c r="J2" s="356"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="351" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="362" t="s">
+      <c r="A4" s="352"/>
+      <c r="B4" s="352"/>
+      <c r="C4" s="352"/>
+      <c r="D4" s="352"/>
+      <c r="E4" s="352"/>
+      <c r="F4" s="352"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="357" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362"/>
-      <c r="N4" s="362"/>
+      <c r="L4" s="357"/>
+      <c r="M4" s="357"/>
+      <c r="N4" s="357"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="358" t="s">
+      <c r="C5" s="353" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="360"/>
+      <c r="D5" s="354"/>
+      <c r="E5" s="354"/>
+      <c r="F5" s="354"/>
+      <c r="G5" s="354"/>
+      <c r="H5" s="354"/>
+      <c r="I5" s="354"/>
+      <c r="J5" s="355"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="361" t="s">
+      <c r="L5" s="356" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="327"/>
@@ -15054,16 +15054,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="352">
+      <c r="C6" s="359">
         <v>2020</v>
       </c>
-      <c r="D6" s="353"/>
-      <c r="E6" s="353"/>
-      <c r="F6" s="353"/>
-      <c r="G6" s="353"/>
-      <c r="H6" s="353"/>
-      <c r="I6" s="353"/>
-      <c r="J6" s="354"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15535,12 +15535,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="355" t="s">
+      <c r="K23" s="362" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="355"/>
-      <c r="M23" s="355"/>
-      <c r="N23" s="355"/>
+      <c r="L23" s="362"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="362"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15709,7 +15709,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="351" t="s">
+      <c r="I28" s="358" t="s">
         <v>258</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15759,7 +15759,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="351"/>
+      <c r="I29" s="358"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15807,7 +15807,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="351"/>
+      <c r="I30" s="358"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15855,7 +15855,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="351"/>
+      <c r="I31" s="358"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15917,7 +15917,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="351" t="s">
+      <c r="I33" s="358" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15965,7 +15965,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="351"/>
+      <c r="I34" s="358"/>
       <c r="J34" t="s">
         <v>259</v>
       </c>
@@ -16202,12 +16202,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16215,6 +16209,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16321,22 +16321,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="364" t="s">
+      <c r="E6" s="366" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="364"/>
-      <c r="O6" s="364"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="364"/>
-      <c r="R6" s="364"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="366"/>
+      <c r="I6" s="366"/>
+      <c r="J6" s="366"/>
+      <c r="K6" s="366"/>
+      <c r="L6" s="366"/>
+      <c r="M6" s="366"/>
+      <c r="N6" s="366"/>
+      <c r="O6" s="366"/>
+      <c r="P6" s="366"/>
+      <c r="Q6" s="366"/>
+      <c r="R6" s="366"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="363" t="s">
@@ -17072,21 +17072,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="365" t="s">
+      <c r="H27" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="365"/>
-      <c r="J27" s="365"/>
-      <c r="K27" s="365"/>
-      <c r="L27" s="365"/>
-      <c r="M27" s="365"/>
-      <c r="N27" s="365"/>
-      <c r="O27" s="365"/>
-      <c r="P27" s="365"/>
-      <c r="Q27" s="365"/>
-      <c r="R27" s="365"/>
-      <c r="S27" s="365"/>
-      <c r="T27" s="365"/>
+      <c r="I27" s="364"/>
+      <c r="J27" s="364"/>
+      <c r="K27" s="364"/>
+      <c r="L27" s="364"/>
+      <c r="M27" s="364"/>
+      <c r="N27" s="364"/>
+      <c r="O27" s="364"/>
+      <c r="P27" s="364"/>
+      <c r="Q27" s="364"/>
+      <c r="R27" s="364"/>
+      <c r="S27" s="364"/>
+      <c r="T27" s="364"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -17402,21 +17402,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="366" t="s">
+      <c r="F37" s="365" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="366"/>
-      <c r="H37" s="366"/>
-      <c r="I37" s="366"/>
-      <c r="J37" s="366"/>
-      <c r="K37" s="366"/>
-      <c r="L37" s="366"/>
-      <c r="M37" s="366"/>
-      <c r="N37" s="366"/>
-      <c r="O37" s="366"/>
-      <c r="P37" s="366"/>
-      <c r="Q37" s="366"/>
-      <c r="R37" s="366"/>
+      <c r="G37" s="365"/>
+      <c r="H37" s="365"/>
+      <c r="I37" s="365"/>
+      <c r="J37" s="365"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="365"/>
+      <c r="M37" s="365"/>
+      <c r="N37" s="365"/>
+      <c r="O37" s="365"/>
+      <c r="P37" s="365"/>
+      <c r="Q37" s="365"/>
+      <c r="R37" s="365"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17732,21 +17732,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="365" t="s">
+      <c r="F48" s="364" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="365"/>
-      <c r="H48" s="365"/>
-      <c r="I48" s="365"/>
-      <c r="J48" s="365"/>
-      <c r="K48" s="365"/>
-      <c r="L48" s="365"/>
-      <c r="M48" s="365"/>
-      <c r="N48" s="365"/>
-      <c r="O48" s="365"/>
-      <c r="P48" s="365"/>
-      <c r="Q48" s="365"/>
-      <c r="R48" s="365"/>
+      <c r="G48" s="364"/>
+      <c r="H48" s="364"/>
+      <c r="I48" s="364"/>
+      <c r="J48" s="364"/>
+      <c r="K48" s="364"/>
+      <c r="L48" s="364"/>
+      <c r="M48" s="364"/>
+      <c r="N48" s="364"/>
+      <c r="O48" s="364"/>
+      <c r="P48" s="364"/>
+      <c r="Q48" s="364"/>
+      <c r="R48" s="364"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -18058,6 +18058,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18066,12 +18072,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32784,18 +32784,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33016,6 +33016,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -33028,14 +33036,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352006F7-A6EA-B64A-B9C2-877764618489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940158F6-1A3C-0145-B760-C46EB79B61AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -3571,6 +3571,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3592,29 +3607,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4130,10 +4130,10 @@
   <dimension ref="A1:AQ120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8642,14 +8642,14 @@
       <c r="K72" s="202"/>
       <c r="L72" s="206">
         <f>SUM(L74:L76)</f>
-        <v>87000</v>
+        <v>90400</v>
       </c>
       <c r="M72" s="301">
         <v>97000</v>
       </c>
       <c r="N72" s="308">
         <f>SUM(N74:N76)</f>
-        <v>107000</v>
+        <v>87200</v>
       </c>
       <c r="O72" s="116">
         <f t="shared" ref="O72:Z72" si="45">O73+O77</f>
@@ -8853,13 +8853,13 @@
       <c r="J75" s="202"/>
       <c r="K75" s="202"/>
       <c r="L75" s="202">
-        <v>25000</v>
+        <v>28400</v>
       </c>
       <c r="M75" s="301">
-        <v>25000</v>
+        <v>15800</v>
       </c>
       <c r="N75" s="308">
-        <v>35000</v>
+        <v>15200</v>
       </c>
       <c r="O75" s="116">
         <v>18000</v>
@@ -9308,14 +9308,14 @@
       </c>
       <c r="L82" s="206">
         <f>L70+L72</f>
-        <v>279250</v>
+        <v>282650</v>
       </c>
       <c r="M82" s="301">
         <v>300600</v>
       </c>
       <c r="N82" s="308">
         <f>N70+N72</f>
-        <v>303951</v>
+        <v>284151</v>
       </c>
       <c r="O82" s="144">
         <f t="shared" ref="O82:Z82" si="48">O70+O72</f>
@@ -14982,68 +14982,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="356" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="351"/>
-      <c r="I2" s="351"/>
-      <c r="J2" s="351"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
+      <c r="I2" s="356"/>
+      <c r="J2" s="356"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="356" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="352"/>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352"/>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="352"/>
-      <c r="I4" s="352"/>
-      <c r="J4" s="352"/>
-      <c r="K4" s="357" t="s">
+      <c r="A4" s="357"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="357"/>
+      <c r="H4" s="357"/>
+      <c r="I4" s="357"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="362" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="357"/>
-      <c r="M4" s="357"/>
-      <c r="N4" s="357"/>
+      <c r="L4" s="362"/>
+      <c r="M4" s="362"/>
+      <c r="N4" s="362"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="353" t="s">
+      <c r="C5" s="358" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="354"/>
-      <c r="E5" s="354"/>
-      <c r="F5" s="354"/>
-      <c r="G5" s="354"/>
-      <c r="H5" s="354"/>
-      <c r="I5" s="354"/>
-      <c r="J5" s="355"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="360"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="356" t="s">
+      <c r="L5" s="361" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="327"/>
@@ -15054,16 +15054,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="359">
+      <c r="C6" s="352">
         <v>2020</v>
       </c>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="361"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="353"/>
+      <c r="H6" s="353"/>
+      <c r="I6" s="353"/>
+      <c r="J6" s="354"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15535,12 +15535,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="362" t="s">
+      <c r="K23" s="355" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="362"/>
-      <c r="M23" s="362"/>
-      <c r="N23" s="362"/>
+      <c r="L23" s="355"/>
+      <c r="M23" s="355"/>
+      <c r="N23" s="355"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15709,7 +15709,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="358" t="s">
+      <c r="I28" s="351" t="s">
         <v>258</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15759,7 +15759,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="358"/>
+      <c r="I29" s="351"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15807,7 +15807,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="358"/>
+      <c r="I30" s="351"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15855,7 +15855,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="358"/>
+      <c r="I31" s="351"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15917,7 +15917,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="358" t="s">
+      <c r="I33" s="351" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15965,7 +15965,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="358"/>
+      <c r="I34" s="351"/>
       <c r="J34" t="s">
         <v>259</v>
       </c>
@@ -16202,6 +16202,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16209,12 +16215,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16321,22 +16321,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="366" t="s">
+      <c r="E6" s="364" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="366"/>
-      <c r="K6" s="366"/>
-      <c r="L6" s="366"/>
-      <c r="M6" s="366"/>
-      <c r="N6" s="366"/>
-      <c r="O6" s="366"/>
-      <c r="P6" s="366"/>
-      <c r="Q6" s="366"/>
-      <c r="R6" s="366"/>
+      <c r="F6" s="364"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="364"/>
+      <c r="J6" s="364"/>
+      <c r="K6" s="364"/>
+      <c r="L6" s="364"/>
+      <c r="M6" s="364"/>
+      <c r="N6" s="364"/>
+      <c r="O6" s="364"/>
+      <c r="P6" s="364"/>
+      <c r="Q6" s="364"/>
+      <c r="R6" s="364"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="363" t="s">
@@ -17072,21 +17072,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="364" t="s">
+      <c r="H27" s="365" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="364"/>
-      <c r="J27" s="364"/>
-      <c r="K27" s="364"/>
-      <c r="L27" s="364"/>
-      <c r="M27" s="364"/>
-      <c r="N27" s="364"/>
-      <c r="O27" s="364"/>
-      <c r="P27" s="364"/>
-      <c r="Q27" s="364"/>
-      <c r="R27" s="364"/>
-      <c r="S27" s="364"/>
-      <c r="T27" s="364"/>
+      <c r="I27" s="365"/>
+      <c r="J27" s="365"/>
+      <c r="K27" s="365"/>
+      <c r="L27" s="365"/>
+      <c r="M27" s="365"/>
+      <c r="N27" s="365"/>
+      <c r="O27" s="365"/>
+      <c r="P27" s="365"/>
+      <c r="Q27" s="365"/>
+      <c r="R27" s="365"/>
+      <c r="S27" s="365"/>
+      <c r="T27" s="365"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -17402,21 +17402,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="365" t="s">
+      <c r="F37" s="366" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="365"/>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="365"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="365"/>
-      <c r="M37" s="365"/>
-      <c r="N37" s="365"/>
-      <c r="O37" s="365"/>
-      <c r="P37" s="365"/>
-      <c r="Q37" s="365"/>
-      <c r="R37" s="365"/>
+      <c r="G37" s="366"/>
+      <c r="H37" s="366"/>
+      <c r="I37" s="366"/>
+      <c r="J37" s="366"/>
+      <c r="K37" s="366"/>
+      <c r="L37" s="366"/>
+      <c r="M37" s="366"/>
+      <c r="N37" s="366"/>
+      <c r="O37" s="366"/>
+      <c r="P37" s="366"/>
+      <c r="Q37" s="366"/>
+      <c r="R37" s="366"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17732,21 +17732,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="364" t="s">
+      <c r="F48" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="364"/>
-      <c r="H48" s="364"/>
-      <c r="I48" s="364"/>
-      <c r="J48" s="364"/>
-      <c r="K48" s="364"/>
-      <c r="L48" s="364"/>
-      <c r="M48" s="364"/>
-      <c r="N48" s="364"/>
-      <c r="O48" s="364"/>
-      <c r="P48" s="364"/>
-      <c r="Q48" s="364"/>
-      <c r="R48" s="364"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="365"/>
+      <c r="I48" s="365"/>
+      <c r="J48" s="365"/>
+      <c r="K48" s="365"/>
+      <c r="L48" s="365"/>
+      <c r="M48" s="365"/>
+      <c r="N48" s="365"/>
+      <c r="O48" s="365"/>
+      <c r="P48" s="365"/>
+      <c r="Q48" s="365"/>
+      <c r="R48" s="365"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -18058,12 +18058,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18072,6 +18066,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26151,7 +26151,7 @@
       <c r="D68" s="100"/>
       <c r="E68" s="218">
         <f>main!L82/1000</f>
-        <v>279.25</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="F68" s="218">
         <f>main!M82/1000</f>
@@ -26159,7 +26159,7 @@
       </c>
       <c r="G68" s="151">
         <f>main!N82/1000</f>
-        <v>303.95100000000002</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="H68" s="218">
         <f>main!O82/1000</f>
@@ -26417,7 +26417,7 @@
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>0</v>
+        <v>-19.800000000000011</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
@@ -26648,7 +26648,7 @@
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E68</f>
-        <v>279.25</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="K2" s="102">
         <f>main!L$40/1000</f>
@@ -26760,11 +26760,11 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-19.800000000000011</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
-        <v>303.95100000000002</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="K4" s="102">
         <f>main!N$40/1000</f>
@@ -31165,7 +31165,7 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I3" s="259">
-        <v>0</v>
+        <v>-19.800000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -32784,21 +32784,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33015,10 +33000,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33041,20 +33052,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940158F6-1A3C-0145-B760-C46EB79B61AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF34EB7-4C8F-F94D-A511-67B71E49E333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -517,7 +517,7 @@
     CRFB: estimates $16B. We divide evenly over the remaining 3 quarters of FY21. then annualize</t>
       </text>
     </comment>
-    <comment ref="L70" authorId="13" shapeId="0" xr:uid="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
+    <comment ref="L71" authorId="13" shapeId="0" xr:uid="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -525,7 +525,7 @@
     grow with nom purchases</t>
       </text>
     </comment>
-    <comment ref="L75" authorId="14" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+    <comment ref="L76" authorId="14" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -535,7 +535,7 @@
     we're comfortable leaving this as is</t>
       </text>
     </comment>
-    <comment ref="O78" authorId="15" shapeId="0" xr:uid="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
+    <comment ref="O79" authorId="15" shapeId="0" xr:uid="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -543,7 +543,7 @@
     CRFB estimates $29B ($45 minus $16B for airline which is inn subsidies). MPC is 100% over 12 quarters. And then annualized</t>
       </text>
     </comment>
-    <comment ref="O79" authorId="16" shapeId="0" xr:uid="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
+    <comment ref="O80" authorId="16" shapeId="0" xr:uid="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -551,7 +551,7 @@
     CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</t>
       </text>
     </comment>
-    <comment ref="O80" authorId="17" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
+    <comment ref="O81" authorId="17" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -559,7 +559,7 @@
     CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</t>
       </text>
     </comment>
-    <comment ref="O81" authorId="18" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+    <comment ref="O82" authorId="18" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -567,7 +567,7 @@
     CRFB: estimates $54B ($80B top line but net out$26B in SNAP which is in social benefits). MPC is 100% over 12 quarters. And then annualized</t>
       </text>
     </comment>
-    <comment ref="A92" authorId="0" shapeId="0" xr:uid="{BA08824F-AD84-4798-BBB7-EA418EA44348}">
+    <comment ref="A93" authorId="0" shapeId="0" xr:uid="{BA08824F-AD84-4798-BBB7-EA418EA44348}">
       <text>
         <r>
           <rPr>
@@ -592,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N97" authorId="19" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+    <comment ref="N98" authorId="19" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -600,7 +600,7 @@
     grow with S&amp;L nom purchases</t>
       </text>
     </comment>
-    <comment ref="A99" authorId="0" shapeId="0" xr:uid="{B3E091FA-BC7B-4A13-BB52-450D0FDAFA83}">
+    <comment ref="A100" authorId="0" shapeId="0" xr:uid="{B3E091FA-BC7B-4A13-BB52-450D0FDAFA83}">
       <text>
         <r>
           <rPr>
@@ -633,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O109" authorId="20" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+    <comment ref="O110" authorId="20" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -643,7 +643,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="P109" authorId="21" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+    <comment ref="P110" authorId="21" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3571,21 +3571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3607,14 +3592,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4060,40 +4060,40 @@
   <threadedComment ref="O64" dT="2020-12-21T21:06:48.42" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{A0B72D47-4ADC-4971-B431-B9EA6C91AE60}">
     <text>CRFB: estimates $16B. We divide evenly over the remaining 3 quarters of FY21. then annualize</text>
   </threadedComment>
-  <threadedComment ref="L70" dT="2020-09-10T19:09:05.64" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
+  <threadedComment ref="L71" dT="2020-09-10T19:09:05.64" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
     <text>grow with nom purchases</text>
   </threadedComment>
-  <threadedComment ref="L75" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+  <threadedComment ref="L76" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?</text>
   </threadedComment>
-  <threadedComment ref="L75" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+  <threadedComment ref="L76" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>we're comfortable leaving this as is</text>
   </threadedComment>
-  <threadedComment ref="O78" dT="2020-12-21T21:08:26.13" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
+  <threadedComment ref="O79" dT="2020-12-21T21:08:26.13" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
     <text>CRFB estimates $29B ($45 minus $16B for airline which is inn subsidies). MPC is 100% over 12 quarters. And then annualized</text>
   </threadedComment>
-  <threadedComment ref="O79" dT="2020-12-21T21:00:34.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
+  <threadedComment ref="O80" dT="2020-12-21T21:00:34.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
     <text>CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</text>
   </threadedComment>
-  <threadedComment ref="O80" dT="2020-12-21T21:03:38.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
+  <threadedComment ref="O81" dT="2020-12-21T21:03:38.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
     <text>CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</text>
   </threadedComment>
-  <threadedComment ref="O81" dT="2020-12-21T21:11:36.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+  <threadedComment ref="O82" dT="2020-12-21T21:11:36.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
     <text>CRFB: estimates $54B ($80B top line but net out$26B in SNAP which is in social benefits). MPC is 100% over 12 quarters. And then annualized</text>
   </threadedComment>
-  <threadedComment ref="N97" dT="2020-09-11T20:43:00.49" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+  <threadedComment ref="N98" dT="2020-09-11T20:43:00.49" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{11731043-8530-4DAC-9476-3C98D0D836BB}">
     <text>grow with S&amp;L nom purchases</text>
   </threadedComment>
-  <threadedComment ref="O109" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+  <threadedComment ref="O110" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
     <text>overide in the fim with 4%</text>
   </threadedComment>
-  <threadedComment ref="O109" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{37E79AF5-9147-493F-B326-FDE57ECB2DEB}" parentId="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+  <threadedComment ref="O110" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{37E79AF5-9147-493F-B326-FDE57ECB2DEB}" parentId="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
     <text>cbo proected it will be 2.3%. should we still ovverride with 4%?</text>
   </threadedComment>
-  <threadedComment ref="P109" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+  <threadedComment ref="P110" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3B711313-D2C6-42FC-83C8-BA827015079B}">
     <text>overide in the fim with 4%</text>
   </threadedComment>
-  <threadedComment ref="P109" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{F46C58D3-6BCD-41FA-BF7D-CDA2529CBD21}" parentId="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+  <threadedComment ref="P110" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{F46C58D3-6BCD-41FA-BF7D-CDA2529CBD21}" parentId="{3B711313-D2C6-42FC-83C8-BA827015079B}">
     <text>cbo proected it will be 2.3%. should we still ovverride with 4%?</text>
   </threadedComment>
 </ThreadedComments>
@@ -4127,13 +4127,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
-  <dimension ref="A1:AQ120"/>
+  <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N82" sqref="N82"/>
+      <selection pane="bottomRight" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8445,44 +8445,20 @@
       <c r="AM68" s="233"/>
     </row>
     <row r="69" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="F69" s="203">
-        <f t="shared" ref="F69:L69" si="43">F68-F92</f>
-        <v>196851</v>
-      </c>
-      <c r="G69" s="203">
-        <f t="shared" si="43"/>
-        <v>189684</v>
-      </c>
-      <c r="H69" s="203">
-        <f t="shared" si="43"/>
-        <v>192875</v>
-      </c>
-      <c r="I69" s="203">
-        <f t="shared" si="43"/>
-        <v>191507</v>
-      </c>
-      <c r="J69" s="203">
-        <f t="shared" si="43"/>
-        <v>203997</v>
-      </c>
-      <c r="K69" s="203">
-        <f t="shared" si="43"/>
-        <v>204376</v>
-      </c>
-      <c r="L69" s="203">
-        <f t="shared" si="43"/>
-        <v>884250</v>
-      </c>
-      <c r="M69" s="301">
-        <v>242100</v>
-      </c>
-      <c r="N69" s="308">
-        <f>N68-N92</f>
-        <v>225951</v>
-      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="F69" s="197"/>
+      <c r="G69" s="197"/>
+      <c r="H69" s="197"/>
+      <c r="I69" s="202"/>
+      <c r="J69" s="202"/>
+      <c r="K69" s="202"/>
+      <c r="L69" s="202">
+        <f>L72-L75-L76-L77</f>
+        <v>562900</v>
+      </c>
+      <c r="M69" s="301"/>
+      <c r="N69" s="308"/>
       <c r="O69" s="116"/>
       <c r="P69" s="116"/>
       <c r="Q69" s="116"/>
@@ -8501,78 +8477,59 @@
       <c r="AD69" s="44"/>
       <c r="AE69" s="44"/>
       <c r="AF69" s="44"/>
-      <c r="AG69" s="44"/>
       <c r="AM69" s="233"/>
     </row>
     <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="136" t="s">
-        <v>229</v>
-      </c>
-      <c r="F70" s="197"/>
-      <c r="G70" s="197"/>
-      <c r="H70" s="197"/>
-      <c r="I70" s="202"/>
-      <c r="J70" s="202"/>
-      <c r="K70" s="202"/>
-      <c r="L70" s="202">
-        <f>L69-L71</f>
-        <v>192250</v>
-      </c>
-      <c r="M70" s="303">
-        <v>203600</v>
+      <c r="A70" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="203">
+        <f t="shared" ref="F70:L70" si="43">F68-F93</f>
+        <v>196851</v>
+      </c>
+      <c r="G70" s="203">
+        <f t="shared" si="43"/>
+        <v>189684</v>
+      </c>
+      <c r="H70" s="203">
+        <f t="shared" si="43"/>
+        <v>192875</v>
+      </c>
+      <c r="I70" s="203">
+        <f t="shared" si="43"/>
+        <v>191507</v>
+      </c>
+      <c r="J70" s="203">
+        <f t="shared" si="43"/>
+        <v>203997</v>
+      </c>
+      <c r="K70" s="203">
+        <f t="shared" si="43"/>
+        <v>204376</v>
+      </c>
+      <c r="L70" s="203">
+        <f t="shared" si="43"/>
+        <v>884250</v>
+      </c>
+      <c r="M70" s="301">
+        <v>242100</v>
       </c>
       <c r="N70" s="308">
-        <f>N69-N71</f>
-        <v>196951</v>
-      </c>
-      <c r="O70" s="116">
-        <f>N70*(1+O86)</f>
-        <v>197738.804</v>
-      </c>
-      <c r="P70" s="116">
-        <f t="shared" ref="P70:Z70" si="44">O70*(1+P86)</f>
-        <v>198529.75921600001</v>
-      </c>
-      <c r="Q70" s="116">
-        <f t="shared" si="44"/>
-        <v>199323.878252864</v>
-      </c>
-      <c r="R70" s="116">
-        <f t="shared" si="44"/>
-        <v>200121.17376587546</v>
-      </c>
-      <c r="S70" s="116">
-        <f t="shared" si="44"/>
-        <v>200921.65846093895</v>
-      </c>
-      <c r="T70" s="116">
-        <f t="shared" si="44"/>
-        <v>201725.34509478271</v>
-      </c>
-      <c r="U70" s="116">
-        <f t="shared" si="44"/>
-        <v>202532.24647516184</v>
-      </c>
-      <c r="V70" s="116">
-        <f t="shared" si="44"/>
-        <v>203342.37546106247</v>
-      </c>
-      <c r="W70" s="116">
-        <f t="shared" si="44"/>
-        <v>204155.74496290673</v>
-      </c>
-      <c r="X70" s="116">
-        <f t="shared" si="44"/>
-        <v>204972.36794275834</v>
-      </c>
-      <c r="Y70" s="116">
-        <f t="shared" si="44"/>
-        <v>205792.25741452936</v>
-      </c>
-      <c r="Z70" s="116">
-        <f t="shared" si="44"/>
-        <v>206615.42644418747</v>
-      </c>
+        <f>N68-N93</f>
+        <v>225951</v>
+      </c>
+      <c r="O70" s="116"/>
+      <c r="P70" s="116"/>
+      <c r="Q70" s="116"/>
+      <c r="R70" s="116"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
       <c r="AA70" s="44"/>
       <c r="AB70" s="44"/>
       <c r="AC70" s="44"/>
@@ -8582,135 +8539,137 @@
       <c r="AG70" s="44"/>
       <c r="AM70" s="233"/>
     </row>
-    <row r="71" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="137" t="s">
+    <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="197"/>
+      <c r="G71" s="197"/>
+      <c r="H71" s="197"/>
+      <c r="I71" s="202"/>
+      <c r="J71" s="202"/>
+      <c r="K71" s="202"/>
+      <c r="L71" s="202">
+        <f>L70-L72</f>
+        <v>230950</v>
+      </c>
+      <c r="M71" s="303">
+        <v>203600</v>
+      </c>
+      <c r="N71" s="308">
+        <f>N70-N72</f>
+        <v>196951</v>
+      </c>
+      <c r="O71" s="116">
+        <f>N71*(1+O87)</f>
+        <v>197738.804</v>
+      </c>
+      <c r="P71" s="116">
+        <f t="shared" ref="P71:Z71" si="44">O71*(1+P87)</f>
+        <v>198529.75921600001</v>
+      </c>
+      <c r="Q71" s="116">
+        <f t="shared" si="44"/>
+        <v>199323.878252864</v>
+      </c>
+      <c r="R71" s="116">
+        <f t="shared" si="44"/>
+        <v>200121.17376587546</v>
+      </c>
+      <c r="S71" s="116">
+        <f t="shared" si="44"/>
+        <v>200921.65846093895</v>
+      </c>
+      <c r="T71" s="116">
+        <f t="shared" si="44"/>
+        <v>201725.34509478271</v>
+      </c>
+      <c r="U71" s="116">
+        <f t="shared" si="44"/>
+        <v>202532.24647516184</v>
+      </c>
+      <c r="V71" s="116">
+        <f t="shared" si="44"/>
+        <v>203342.37546106247</v>
+      </c>
+      <c r="W71" s="116">
+        <f t="shared" si="44"/>
+        <v>204155.74496290673</v>
+      </c>
+      <c r="X71" s="116">
+        <f t="shared" si="44"/>
+        <v>204972.36794275834</v>
+      </c>
+      <c r="Y71" s="116">
+        <f t="shared" si="44"/>
+        <v>205792.25741452936</v>
+      </c>
+      <c r="Z71" s="116">
+        <f t="shared" si="44"/>
+        <v>206615.42644418747</v>
+      </c>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="44"/>
+      <c r="AF71" s="44"/>
+      <c r="AG71" s="44"/>
+      <c r="AM71" s="233"/>
+    </row>
+    <row r="72" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="138" t="s">
+      <c r="B72" s="138" t="s">
         <v>281</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>314</v>
       </c>
-      <c r="D71"/>
-      <c r="F71" s="204"/>
-      <c r="G71" s="204"/>
-      <c r="H71" s="204"/>
-      <c r="I71" s="205"/>
-      <c r="J71" s="205"/>
-      <c r="K71" s="205"/>
-      <c r="L71" s="205">
-        <v>692000</v>
-      </c>
-      <c r="M71" s="205">
-        <v>38500</v>
-      </c>
-      <c r="N71" s="205">
-        <f>VLOOKUP($C$71,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="D72"/>
+      <c r="F72" s="204"/>
+      <c r="G72" s="204"/>
+      <c r="H72" s="204"/>
+      <c r="I72" s="205"/>
+      <c r="J72" s="205"/>
+      <c r="K72" s="205"/>
+      <c r="L72" s="205">
+        <f>597.9*1000 +L77+L76</f>
+        <v>653300</v>
+      </c>
+      <c r="M72" s="205">
+        <f>M75+M76+M77</f>
+        <v>87800</v>
+      </c>
+      <c r="N72" s="205">
+        <f>VLOOKUP($C$72,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>29000</v>
       </c>
-      <c r="O71" s="139"/>
-      <c r="P71" s="139"/>
-      <c r="Q71" s="139"/>
-      <c r="R71" s="139"/>
-      <c r="S71" s="140"/>
-      <c r="T71" s="140"/>
-      <c r="U71" s="140"/>
-      <c r="V71" s="140"/>
-      <c r="W71" s="140"/>
-      <c r="X71" s="140"/>
-      <c r="Y71" s="140"/>
-      <c r="Z71" s="140"/>
-      <c r="AA71" s="140"/>
-      <c r="AB71" s="140"/>
-      <c r="AC71" s="140"/>
-      <c r="AD71" s="140"/>
-      <c r="AE71" s="140"/>
-      <c r="AF71" s="140"/>
-      <c r="AG71" s="140"/>
-      <c r="AM71" s="236"/>
-    </row>
-    <row r="72" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="134" t="s">
+      <c r="O72" s="139"/>
+      <c r="P72" s="139"/>
+      <c r="Q72" s="139"/>
+      <c r="R72" s="139"/>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
+      <c r="U72" s="140"/>
+      <c r="V72" s="140"/>
+      <c r="W72" s="140"/>
+      <c r="X72" s="140"/>
+      <c r="Y72" s="140"/>
+      <c r="Z72" s="140"/>
+      <c r="AA72" s="140"/>
+      <c r="AB72" s="140"/>
+      <c r="AC72" s="140"/>
+      <c r="AD72" s="140"/>
+      <c r="AE72" s="140"/>
+      <c r="AF72" s="140"/>
+      <c r="AG72" s="140"/>
+      <c r="AM72" s="236"/>
+    </row>
+    <row r="73" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="134" t="s">
         <v>210</v>
-      </c>
-      <c r="F72" s="197"/>
-      <c r="G72" s="197"/>
-      <c r="H72" s="197"/>
-      <c r="I72" s="202"/>
-      <c r="J72" s="202"/>
-      <c r="K72" s="202"/>
-      <c r="L72" s="206">
-        <f>SUM(L74:L76)</f>
-        <v>90400</v>
-      </c>
-      <c r="M72" s="301">
-        <v>97000</v>
-      </c>
-      <c r="N72" s="308">
-        <f>SUM(N74:N76)</f>
-        <v>87200</v>
-      </c>
-      <c r="O72" s="116">
-        <f t="shared" ref="O72:Z72" si="45">O73+O77</f>
-        <v>149000</v>
-      </c>
-      <c r="P72" s="116">
-        <f t="shared" si="45"/>
-        <v>121000</v>
-      </c>
-      <c r="Q72" s="116">
-        <f t="shared" si="45"/>
-        <v>121000</v>
-      </c>
-      <c r="R72" s="116">
-        <f t="shared" si="45"/>
-        <v>115000</v>
-      </c>
-      <c r="S72" s="116">
-        <f t="shared" si="45"/>
-        <v>109000</v>
-      </c>
-      <c r="T72" s="116">
-        <f t="shared" si="45"/>
-        <v>109000</v>
-      </c>
-      <c r="U72" s="116">
-        <f t="shared" si="45"/>
-        <v>109000</v>
-      </c>
-      <c r="V72" s="116">
-        <f t="shared" si="45"/>
-        <v>109000</v>
-      </c>
-      <c r="W72" s="116">
-        <f t="shared" si="45"/>
-        <v>109000</v>
-      </c>
-      <c r="X72" s="116">
-        <f t="shared" si="45"/>
-        <v>59000</v>
-      </c>
-      <c r="Y72" s="116">
-        <f t="shared" si="45"/>
-        <v>59000</v>
-      </c>
-      <c r="Z72" s="116">
-        <f t="shared" si="45"/>
-        <v>59000</v>
-      </c>
-      <c r="AA72" s="116"/>
-      <c r="AB72" s="116"/>
-      <c r="AC72" s="44"/>
-      <c r="AD72" s="44"/>
-      <c r="AE72" s="44"/>
-      <c r="AF72" s="44"/>
-      <c r="AG72" s="44"/>
-      <c r="AM72" s="233"/>
-    </row>
-    <row r="73" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="219" t="s">
-        <v>341</v>
       </c>
       <c r="F73" s="197"/>
       <c r="G73" s="197"/>
@@ -8718,59 +8677,68 @@
       <c r="I73" s="202"/>
       <c r="J73" s="202"/>
       <c r="K73" s="202"/>
-      <c r="L73" s="206"/>
-      <c r="M73" s="301"/>
-      <c r="N73" s="308"/>
+      <c r="L73" s="206">
+        <f>SUM(L75:L77)</f>
+        <v>90400</v>
+      </c>
+      <c r="M73" s="206">
+        <f t="shared" ref="M73:N73" si="45">SUM(M75:M77)</f>
+        <v>87800</v>
+      </c>
+      <c r="N73" s="206">
+        <f t="shared" si="45"/>
+        <v>87200</v>
+      </c>
       <c r="O73" s="116">
-        <f>SUM(O74:O76)</f>
-        <v>90000</v>
+        <f t="shared" ref="O73:Z73" si="46">O74+O78</f>
+        <v>149000</v>
       </c>
       <c r="P73" s="116">
-        <f t="shared" ref="P73:Z73" si="46">SUM(P74:P76)</f>
-        <v>62000</v>
+        <f t="shared" si="46"/>
+        <v>121000</v>
       </c>
       <c r="Q73" s="116">
         <f t="shared" si="46"/>
-        <v>62000</v>
+        <v>121000</v>
       </c>
       <c r="R73" s="116">
         <f t="shared" si="46"/>
-        <v>56000</v>
+        <v>115000</v>
       </c>
       <c r="S73" s="116">
         <f t="shared" si="46"/>
-        <v>50000</v>
+        <v>109000</v>
       </c>
       <c r="T73" s="116">
         <f t="shared" si="46"/>
-        <v>50000</v>
+        <v>109000</v>
       </c>
       <c r="U73" s="116">
         <f t="shared" si="46"/>
-        <v>50000</v>
+        <v>109000</v>
       </c>
       <c r="V73" s="116">
         <f t="shared" si="46"/>
-        <v>50000</v>
+        <v>109000</v>
       </c>
       <c r="W73" s="116">
         <f t="shared" si="46"/>
-        <v>50000</v>
+        <v>109000</v>
       </c>
       <c r="X73" s="116">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>59000</v>
       </c>
       <c r="Y73" s="116">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>59000</v>
       </c>
       <c r="Z73" s="116">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="44"/>
-      <c r="AB73" s="44"/>
+        <v>59000</v>
+      </c>
+      <c r="AA73" s="116"/>
+      <c r="AB73" s="116"/>
       <c r="AC73" s="44"/>
       <c r="AD73" s="44"/>
       <c r="AE73" s="44"/>
@@ -8778,12 +8746,9 @@
       <c r="AG73" s="44"/>
       <c r="AM73" s="233"/>
     </row>
-    <row r="74" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="113" t="s">
-        <v>197</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>378</v>
+    <row r="74" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="219" t="s">
+        <v>341</v>
       </c>
       <c r="F74" s="197"/>
       <c r="G74" s="197"/>
@@ -8791,45 +8756,57 @@
       <c r="I74" s="202"/>
       <c r="J74" s="202"/>
       <c r="K74" s="202"/>
-      <c r="L74" s="206">
-        <v>35000</v>
-      </c>
-      <c r="M74" s="301">
-        <v>45000</v>
-      </c>
-      <c r="N74" s="308">
-        <v>60000</v>
-      </c>
+      <c r="L74" s="206"/>
+      <c r="M74" s="301"/>
+      <c r="N74" s="308"/>
       <c r="O74" s="116">
-        <v>60000</v>
+        <f>SUM(O75:O77)</f>
+        <v>90000</v>
       </c>
       <c r="P74" s="116">
+        <f t="shared" ref="P74:Z74" si="47">SUM(P75:P77)</f>
+        <v>62000</v>
+      </c>
+      <c r="Q74" s="116">
+        <f t="shared" si="47"/>
+        <v>62000</v>
+      </c>
+      <c r="R74" s="116">
+        <f t="shared" si="47"/>
+        <v>56000</v>
+      </c>
+      <c r="S74" s="116">
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
-      <c r="Q74" s="116">
+      <c r="T74" s="116">
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
-      <c r="R74" s="116">
+      <c r="U74" s="116">
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
-      <c r="S74" s="116">
+      <c r="V74" s="116">
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
-      <c r="T74" s="116">
+      <c r="W74" s="116">
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
-      <c r="U74" s="116">
-        <v>50000</v>
-      </c>
-      <c r="V74" s="116">
-        <v>50000</v>
-      </c>
-      <c r="W74" s="116">
-        <v>50000</v>
-      </c>
-      <c r="X74" s="44"/>
-      <c r="Y74" s="44"/>
-      <c r="Z74" s="44"/>
+      <c r="X74" s="116">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="116">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="116">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="AA74" s="44"/>
       <c r="AB74" s="44"/>
       <c r="AC74" s="44"/>
@@ -8841,10 +8818,10 @@
     </row>
     <row r="75" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
@@ -8852,32 +8829,42 @@
       <c r="I75" s="202"/>
       <c r="J75" s="202"/>
       <c r="K75" s="202"/>
-      <c r="L75" s="202">
-        <v>28400</v>
+      <c r="L75" s="206">
+        <v>35000</v>
       </c>
       <c r="M75" s="301">
-        <v>15800</v>
+        <v>45000</v>
       </c>
       <c r="N75" s="308">
-        <v>15200</v>
+        <v>60000</v>
       </c>
       <c r="O75" s="116">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="P75" s="116">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q75" s="116">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="R75" s="116">
-        <v>0</v>
-      </c>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
+        <v>50000</v>
+      </c>
+      <c r="S75" s="116">
+        <v>50000</v>
+      </c>
+      <c r="T75" s="116">
+        <v>50000</v>
+      </c>
+      <c r="U75" s="116">
+        <v>50000</v>
+      </c>
+      <c r="V75" s="116">
+        <v>50000</v>
+      </c>
+      <c r="W75" s="116">
+        <v>50000</v>
+      </c>
       <c r="X75" s="44"/>
       <c r="Y75" s="44"/>
       <c r="Z75" s="44"/>
@@ -8892,10 +8879,10 @@
     </row>
     <row r="76" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="113" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F76" s="197"/>
       <c r="G76" s="197"/>
@@ -8904,25 +8891,25 @@
       <c r="J76" s="202"/>
       <c r="K76" s="202"/>
       <c r="L76" s="202">
-        <v>27000</v>
+        <v>28400</v>
       </c>
       <c r="M76" s="301">
-        <v>27000</v>
+        <v>15800</v>
       </c>
       <c r="N76" s="308">
-        <v>12000</v>
+        <v>15200</v>
       </c>
       <c r="O76" s="116">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P76" s="116">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="116">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="R76" s="116">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
@@ -8942,8 +8929,11 @@
       <c r="AM76" s="233"/>
     </row>
     <row r="77" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="220" t="s">
-        <v>342</v>
+      <c r="A77" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>380</v>
       </c>
       <c r="F77" s="197"/>
       <c r="G77" s="197"/>
@@ -8951,58 +8941,36 @@
       <c r="I77" s="202"/>
       <c r="J77" s="202"/>
       <c r="K77" s="202"/>
-      <c r="L77" s="202"/>
-      <c r="M77" s="301"/>
-      <c r="N77" s="308"/>
+      <c r="L77" s="202">
+        <v>27000</v>
+      </c>
+      <c r="M77" s="301">
+        <v>27000</v>
+      </c>
+      <c r="N77" s="308">
+        <v>12000</v>
+      </c>
       <c r="O77" s="116">
-        <f>SUM(O78:O81)</f>
-        <v>59000</v>
+        <v>12000</v>
       </c>
       <c r="P77" s="116">
-        <f t="shared" ref="P77:Z77" si="47">SUM(P78:P81)</f>
-        <v>59000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
+        <v>12000</v>
       </c>
       <c r="R77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="S77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="T77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="U77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="V77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="W77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="X77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="Y77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="Z77" s="116">
-        <f t="shared" si="47"/>
-        <v>59000</v>
-      </c>
-      <c r="AA77" s="116"/>
+        <v>6000</v>
+      </c>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
+      <c r="AA77" s="44"/>
       <c r="AB77" s="44"/>
       <c r="AC77" s="44"/>
       <c r="AD77" s="44"/>
@@ -9011,9 +8979,9 @@
       <c r="AG77" s="44"/>
       <c r="AM77" s="233"/>
     </row>
-    <row r="78" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="282" t="s">
-        <v>343</v>
+    <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="220" t="s">
+        <v>342</v>
       </c>
       <c r="F78" s="197"/>
       <c r="G78" s="197"/>
@@ -9024,66 +8992,66 @@
       <c r="L78" s="202"/>
       <c r="M78" s="301"/>
       <c r="N78" s="308"/>
-      <c r="O78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="P78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="Q78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="R78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="S78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="T78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="U78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="V78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="W78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="X78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="Y78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="Z78" s="279">
-        <f>'Stimulus Round 2'!$C$13*4/12</f>
-        <v>9666.6666666666661</v>
-      </c>
-      <c r="AA78" s="276"/>
-      <c r="AB78" s="276"/>
-      <c r="AC78" s="276"/>
-      <c r="AD78" s="276"/>
-      <c r="AE78" s="276"/>
-      <c r="AF78" s="276"/>
-      <c r="AG78" s="276"/>
-      <c r="AM78" s="280"/>
+      <c r="O78" s="116">
+        <f>SUM(O79:O82)</f>
+        <v>59000</v>
+      </c>
+      <c r="P78" s="116">
+        <f t="shared" ref="P78:Z78" si="48">SUM(P79:P82)</f>
+        <v>59000</v>
+      </c>
+      <c r="Q78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="R78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="S78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="T78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="U78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="V78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="W78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="X78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="Y78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="Z78" s="116">
+        <f t="shared" si="48"/>
+        <v>59000</v>
+      </c>
+      <c r="AA78" s="116"/>
+      <c r="AB78" s="44"/>
+      <c r="AC78" s="44"/>
+      <c r="AD78" s="44"/>
+      <c r="AE78" s="44"/>
+      <c r="AF78" s="44"/>
+      <c r="AG78" s="44"/>
+      <c r="AM78" s="233"/>
     </row>
     <row r="79" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="282" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F79" s="197"/>
       <c r="G79" s="197"/>
@@ -9095,52 +9063,52 @@
       <c r="M79" s="301"/>
       <c r="N79" s="308"/>
       <c r="O79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="P79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="Q79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="R79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="S79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="T79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="U79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="V79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="W79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="X79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="Y79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="Z79" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$13*4/12</f>
+        <v>9666.6666666666661</v>
       </c>
       <c r="AA79" s="276"/>
       <c r="AB79" s="276"/>
@@ -9153,7 +9121,7 @@
     </row>
     <row r="80" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="282" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F80" s="197"/>
       <c r="G80" s="197"/>
@@ -9165,52 +9133,52 @@
       <c r="M80" s="301"/>
       <c r="N80" s="308"/>
       <c r="O80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="P80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="Q80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="R80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="S80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="T80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="U80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="V80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="W80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="X80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="Y80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="Z80" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$5*4/12</f>
+        <v>27333.333333333332</v>
       </c>
       <c r="AA80" s="276"/>
       <c r="AB80" s="276"/>
@@ -9223,7 +9191,7 @@
     </row>
     <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="282" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F81" s="197"/>
       <c r="G81" s="197"/>
@@ -9235,52 +9203,52 @@
       <c r="M81" s="301"/>
       <c r="N81" s="308"/>
       <c r="O81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="P81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="Q81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="R81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="S81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="T81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="U81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="V81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="W81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="X81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="Y81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="Z81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="AA81" s="276"/>
       <c r="AB81" s="276"/>
@@ -9291,111 +9259,151 @@
       <c r="AG81" s="276"/>
       <c r="AM81" s="280"/>
     </row>
-    <row r="82" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="145" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82" s="141"/>
-      <c r="E82" s="141"/>
+    <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="282" t="s">
+        <v>350</v>
+      </c>
       <c r="F82" s="197"/>
       <c r="G82" s="197"/>
       <c r="H82" s="197"/>
       <c r="I82" s="202"/>
       <c r="J82" s="202"/>
-      <c r="K82" s="202">
-        <f>K68-K92</f>
-        <v>204376</v>
-      </c>
-      <c r="L82" s="206">
-        <f>L70+L72</f>
-        <v>282650</v>
-      </c>
-      <c r="M82" s="301">
-        <v>300600</v>
-      </c>
-      <c r="N82" s="308">
-        <f>N70+N72</f>
-        <v>284151</v>
-      </c>
-      <c r="O82" s="144">
-        <f t="shared" ref="O82:Z82" si="48">O70+O72</f>
-        <v>346738.804</v>
-      </c>
-      <c r="P82" s="144">
-        <f t="shared" si="48"/>
-        <v>319529.75921599998</v>
-      </c>
-      <c r="Q82" s="144">
-        <f t="shared" si="48"/>
-        <v>320323.878252864</v>
-      </c>
-      <c r="R82" s="144">
-        <f t="shared" si="48"/>
-        <v>315121.17376587546</v>
-      </c>
-      <c r="S82" s="144">
-        <f t="shared" si="48"/>
-        <v>309921.65846093895</v>
-      </c>
-      <c r="T82" s="144">
-        <f t="shared" si="48"/>
-        <v>310725.34509478271</v>
-      </c>
-      <c r="U82" s="144">
-        <f t="shared" si="48"/>
-        <v>311532.24647516187</v>
-      </c>
-      <c r="V82" s="144">
-        <f t="shared" si="48"/>
-        <v>312342.37546106247</v>
-      </c>
-      <c r="W82" s="144">
-        <f t="shared" si="48"/>
-        <v>313155.7449629067</v>
-      </c>
-      <c r="X82" s="144">
-        <f t="shared" si="48"/>
-        <v>263972.36794275837</v>
-      </c>
-      <c r="Y82" s="144">
-        <f t="shared" si="48"/>
-        <v>264792.25741452933</v>
-      </c>
-      <c r="Z82" s="144">
-        <f t="shared" si="48"/>
-        <v>265615.42644418747</v>
-      </c>
-      <c r="AA82" s="44"/>
-      <c r="AB82" s="44"/>
-      <c r="AC82" s="44"/>
-      <c r="AD82" s="44"/>
-      <c r="AE82" s="44"/>
-      <c r="AF82" s="44"/>
-      <c r="AG82" s="44"/>
-      <c r="AM82" s="233"/>
+      <c r="K82" s="202"/>
+      <c r="L82" s="202"/>
+      <c r="M82" s="301"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="P82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="Q82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="R82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="S82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="T82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="U82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="V82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="W82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="X82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="Y82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="Z82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="AA82" s="276"/>
+      <c r="AB82" s="276"/>
+      <c r="AC82" s="276"/>
+      <c r="AD82" s="276"/>
+      <c r="AE82" s="276"/>
+      <c r="AF82" s="276"/>
+      <c r="AG82" s="276"/>
+      <c r="AM82" s="280"/>
     </row>
     <row r="83" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="145" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="141"/>
+      <c r="E83" s="141"/>
       <c r="F83" s="197"/>
       <c r="G83" s="197"/>
       <c r="H83" s="197"/>
-      <c r="I83" s="197"/>
-      <c r="J83" s="197"/>
-      <c r="K83" s="197"/>
-      <c r="L83" s="203"/>
-      <c r="M83" s="301"/>
-      <c r="N83" s="310"/>
-      <c r="O83" s="135"/>
-      <c r="P83" s="135"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="44"/>
-      <c r="W83" s="44"/>
-      <c r="X83" s="44"/>
-      <c r="Y83" s="44"/>
-      <c r="Z83" s="44"/>
+      <c r="I83" s="202"/>
+      <c r="J83" s="202"/>
+      <c r="K83" s="202">
+        <f>K68-K93</f>
+        <v>204376</v>
+      </c>
+      <c r="L83" s="206">
+        <f>L71+L73</f>
+        <v>321350</v>
+      </c>
+      <c r="M83" s="206">
+        <f>M71+M73</f>
+        <v>291400</v>
+      </c>
+      <c r="N83" s="308">
+        <f>N71+N73</f>
+        <v>284151</v>
+      </c>
+      <c r="O83" s="144">
+        <f t="shared" ref="O83:Z83" si="49">O71+O73</f>
+        <v>346738.804</v>
+      </c>
+      <c r="P83" s="144">
+        <f t="shared" si="49"/>
+        <v>319529.75921599998</v>
+      </c>
+      <c r="Q83" s="144">
+        <f t="shared" si="49"/>
+        <v>320323.878252864</v>
+      </c>
+      <c r="R83" s="144">
+        <f t="shared" si="49"/>
+        <v>315121.17376587546</v>
+      </c>
+      <c r="S83" s="144">
+        <f t="shared" si="49"/>
+        <v>309921.65846093895</v>
+      </c>
+      <c r="T83" s="144">
+        <f t="shared" si="49"/>
+        <v>310725.34509478271</v>
+      </c>
+      <c r="U83" s="144">
+        <f t="shared" si="49"/>
+        <v>311532.24647516187</v>
+      </c>
+      <c r="V83" s="144">
+        <f t="shared" si="49"/>
+        <v>312342.37546106247</v>
+      </c>
+      <c r="W83" s="144">
+        <f t="shared" si="49"/>
+        <v>313155.7449629067</v>
+      </c>
+      <c r="X83" s="144">
+        <f t="shared" si="49"/>
+        <v>263972.36794275837</v>
+      </c>
+      <c r="Y83" s="144">
+        <f t="shared" si="49"/>
+        <v>264792.25741452933</v>
+      </c>
+      <c r="Z83" s="144">
+        <f t="shared" si="49"/>
+        <v>265615.42644418747</v>
+      </c>
       <c r="AA83" s="44"/>
       <c r="AB83" s="44"/>
       <c r="AC83" s="44"/>
@@ -9406,51 +9414,22 @@
       <c r="AM83" s="233"/>
     </row>
     <row r="84" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C84" t="s">
-        <v>315</v>
-      </c>
-      <c r="D84"/>
-      <c r="F84" s="206">
-        <v>1241.5999999999999</v>
-      </c>
-      <c r="G84" s="206">
-        <v>1245.8</v>
-      </c>
-      <c r="H84" s="206">
-        <v>1473.6</v>
-      </c>
-      <c r="I84" s="206">
-        <v>1288.5</v>
-      </c>
-      <c r="J84" s="206">
-        <v>1301.0999999999999</v>
-      </c>
-      <c r="K84" s="206">
-        <v>1306.0999999999999</v>
-      </c>
-      <c r="L84" s="206">
-        <v>1360.1</v>
-      </c>
-      <c r="M84" s="301">
-        <v>1335.133</v>
-      </c>
-      <c r="N84" s="308">
-        <f>VLOOKUP($C$84,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>1333.307</v>
-      </c>
-      <c r="O84" s="116"/>
-      <c r="P84" s="116"/>
-      <c r="Q84" s="116"/>
-      <c r="R84" s="116"/>
-      <c r="S84" s="116"/>
-      <c r="T84" s="116"/>
-      <c r="U84" s="116"/>
+      <c r="F84" s="197"/>
+      <c r="G84" s="197"/>
+      <c r="H84" s="197"/>
+      <c r="I84" s="197"/>
+      <c r="J84" s="197"/>
+      <c r="K84" s="197"/>
+      <c r="L84" s="203"/>
+      <c r="M84" s="301"/>
+      <c r="N84" s="310"/>
+      <c r="O84" s="135"/>
+      <c r="P84" s="135"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
       <c r="V84" s="44"/>
       <c r="W84" s="44"/>
       <c r="X84" s="44"/>
@@ -9463,81 +9442,63 @@
       <c r="AE84" s="44"/>
       <c r="AF84" s="44"/>
       <c r="AG84" s="44"/>
-      <c r="AI84" s="44"/>
-      <c r="AJ84" s="44"/>
-      <c r="AK84" s="44"/>
-      <c r="AL84" s="44"/>
-      <c r="AM84" s="235"/>
+      <c r="AM84" s="233"/>
     </row>
     <row r="85" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="114" t="s">
-        <v>203</v>
+      <c r="A85" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>281</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D85"/>
-      <c r="F85" s="197"/>
-      <c r="G85" s="197"/>
-      <c r="H85" s="197"/>
-      <c r="I85" s="197"/>
-      <c r="J85" s="197">
-        <v>1447.9</v>
-      </c>
-      <c r="K85" s="197">
-        <v>1452.6</v>
-      </c>
-      <c r="L85" s="197">
-        <v>1504.8</v>
+      <c r="F85" s="206">
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="G85" s="206">
+        <v>1245.8</v>
+      </c>
+      <c r="H85" s="206">
+        <v>1473.6</v>
+      </c>
+      <c r="I85" s="206">
+        <v>1288.5</v>
+      </c>
+      <c r="J85" s="206">
+        <v>1301.0999999999999</v>
+      </c>
+      <c r="K85" s="206">
+        <v>1306.0999999999999</v>
+      </c>
+      <c r="L85" s="206">
+        <v>1360.1</v>
       </c>
       <c r="M85" s="301">
-        <v>1487.0350000000001</v>
-      </c>
-      <c r="N85" s="301">
+        <v>1335.133</v>
+      </c>
+      <c r="N85" s="308">
         <f>VLOOKUP($C$85,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>1493.5530000000001</v>
-      </c>
-      <c r="O85">
-        <v>1504.3514552807801</v>
-      </c>
-      <c r="P85">
-        <v>1511.252602267454</v>
-      </c>
-      <c r="Q85">
-        <v>1519.3368030232709</v>
-      </c>
-      <c r="R85">
-        <v>1530.997960524671</v>
-      </c>
-      <c r="S85">
-        <v>1544.2799915439159</v>
-      </c>
-      <c r="T85">
-        <v>1557.72908484966</v>
-      </c>
-      <c r="U85">
-        <v>1572.6694039177321</v>
-      </c>
-      <c r="V85">
-        <v>1586.4153149483291</v>
-      </c>
-      <c r="W85">
-        <v>1601.682526026475</v>
-      </c>
-      <c r="X85">
-        <v>1615.690158481731</v>
-      </c>
-      <c r="Y85">
-        <v>1631.2333657547081</v>
-      </c>
-      <c r="Z85">
-        <v>1646.9554971985581</v>
-      </c>
-      <c r="AA85"/>
-      <c r="AB85"/>
+        <v>1333.307</v>
+      </c>
+      <c r="O85" s="116"/>
+      <c r="P85" s="116"/>
+      <c r="Q85" s="116"/>
+      <c r="R85" s="116"/>
+      <c r="S85" s="116"/>
+      <c r="T85" s="116"/>
+      <c r="U85" s="116"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="44"/>
+      <c r="Z85" s="44"/>
+      <c r="AA85" s="44"/>
+      <c r="AB85" s="44"/>
+      <c r="AC85" s="44"/>
+      <c r="AD85" s="44"/>
       <c r="AE85" s="44"/>
       <c r="AF85" s="44"/>
       <c r="AG85" s="44"/>
@@ -9549,59 +9510,70 @@
     </row>
     <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="114" t="s">
-        <v>381</v>
-      </c>
-      <c r="C86"/>
+        <v>203</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" t="s">
+        <v>316</v>
+      </c>
       <c r="D86"/>
       <c r="F86" s="197"/>
       <c r="G86" s="197"/>
       <c r="H86" s="197"/>
       <c r="I86" s="197"/>
-      <c r="J86" s="197"/>
-      <c r="K86" s="197"/>
-      <c r="L86" s="197"/>
-      <c r="M86" s="302">
-        <v>-1.1805555555555514E-2</v>
-      </c>
-      <c r="N86" s="311">
-        <f>N84/M84-1</f>
-        <v>-1.3676540090014067E-3</v>
-      </c>
-      <c r="O86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="V86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="W86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="X86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Y86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Z86" s="196">
-        <v>4.0000000000000001E-3</v>
+      <c r="J86" s="197">
+        <v>1447.9</v>
+      </c>
+      <c r="K86" s="197">
+        <v>1452.6</v>
+      </c>
+      <c r="L86" s="197">
+        <v>1504.8</v>
+      </c>
+      <c r="M86" s="301">
+        <v>1487.0350000000001</v>
+      </c>
+      <c r="N86" s="301">
+        <f>VLOOKUP($C$86,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+        <v>1493.5530000000001</v>
+      </c>
+      <c r="O86">
+        <v>1504.3514552807801</v>
+      </c>
+      <c r="P86">
+        <v>1511.252602267454</v>
+      </c>
+      <c r="Q86">
+        <v>1519.3368030232709</v>
+      </c>
+      <c r="R86">
+        <v>1530.997960524671</v>
+      </c>
+      <c r="S86">
+        <v>1544.2799915439159</v>
+      </c>
+      <c r="T86">
+        <v>1557.72908484966</v>
+      </c>
+      <c r="U86">
+        <v>1572.6694039177321</v>
+      </c>
+      <c r="V86">
+        <v>1586.4153149483291</v>
+      </c>
+      <c r="W86">
+        <v>1601.682526026475</v>
+      </c>
+      <c r="X86">
+        <v>1615.690158481731</v>
+      </c>
+      <c r="Y86">
+        <v>1631.2333657547081</v>
+      </c>
+      <c r="Z86">
+        <v>1646.9554971985581</v>
       </c>
       <c r="AA86"/>
       <c r="AB86"/>
@@ -9614,74 +9586,76 @@
       <c r="AL86" s="44"/>
       <c r="AM86" s="235"/>
     </row>
-    <row r="87" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A87" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="F87" s="207"/>
-      <c r="G87" s="207"/>
-      <c r="H87" s="207"/>
-      <c r="I87" s="207"/>
-      <c r="J87" s="207"/>
-      <c r="K87" s="207"/>
-      <c r="L87" s="207"/>
+    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="114" t="s">
+        <v>381</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="F87" s="197"/>
+      <c r="G87" s="197"/>
+      <c r="H87" s="197"/>
+      <c r="I87" s="197"/>
+      <c r="J87" s="197"/>
+      <c r="K87" s="197"/>
+      <c r="L87" s="197"/>
       <c r="M87" s="302">
         <v>-1.1805555555555514E-2</v>
       </c>
       <c r="N87" s="311">
         <f>N85/M85-1</f>
-        <v>4.3832189558417056E-3</v>
+        <v>-1.3676540090014067E-3</v>
       </c>
       <c r="O87" s="196">
-        <v>5.3394154743755307E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P87" s="196">
-        <v>-1.9703807284052632E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q87" s="196">
-        <v>-4.084808403034379E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="R87" s="196">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S87" s="196">
-        <v>2.4739583333333037E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T87" s="196">
-        <v>1.6235874788934623E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U87" s="196">
-        <v>3.9551319457953316E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V87" s="196">
-        <v>3.8749677086025169E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="W87" s="196">
-        <v>3.9243437982501295E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="X87" s="196">
-        <v>3.0118551746236566E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y87" s="196">
-        <v>3.9611551239457921E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Z87" s="196">
-        <v>5.027364133893153E-3</v>
-      </c>
-      <c r="AA87" s="186"/>
-      <c r="AB87" s="186"/>
-      <c r="AE87" s="187"/>
-      <c r="AF87" s="187"/>
-      <c r="AG87" s="187"/>
-      <c r="AI87" s="187"/>
-      <c r="AJ87" s="187"/>
-      <c r="AK87" s="187"/>
-      <c r="AL87" s="187"/>
-      <c r="AM87" s="237"/>
-    </row>
-    <row r="88" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
-        <v>357</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AE87" s="44"/>
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="44"/>
+      <c r="AI87" s="44"/>
+      <c r="AJ87" s="44"/>
+      <c r="AK87" s="44"/>
+      <c r="AL87" s="44"/>
+      <c r="AM87" s="235"/>
+    </row>
+    <row r="88" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A88" s="169" t="s">
+        <v>202</v>
       </c>
       <c r="F88" s="207"/>
       <c r="G88" s="207"/>
@@ -9690,32 +9664,49 @@
       <c r="J88" s="207"/>
       <c r="K88" s="207"/>
       <c r="L88" s="207"/>
-      <c r="M88" s="302"/>
-      <c r="N88" s="311"/>
-      <c r="O88" s="102">
-        <f>SUM(O89:O91)</f>
-        <v>71400</v>
-      </c>
-      <c r="P88" s="102">
-        <f t="shared" ref="P88:R88" si="49">SUM(P89:P91)</f>
-        <v>71400</v>
-      </c>
-      <c r="Q88" s="102">
-        <f t="shared" si="49"/>
-        <v>30600</v>
-      </c>
-      <c r="R88" s="102">
-        <f t="shared" si="49"/>
-        <v>30600</v>
-      </c>
-      <c r="S88" s="186"/>
-      <c r="T88" s="186"/>
-      <c r="U88" s="186"/>
-      <c r="V88" s="186"/>
-      <c r="W88" s="186"/>
-      <c r="X88" s="186"/>
-      <c r="Y88" s="186"/>
-      <c r="Z88" s="186"/>
+      <c r="M88" s="302">
+        <v>-1.1805555555555514E-2</v>
+      </c>
+      <c r="N88" s="311">
+        <f>N86/M86-1</f>
+        <v>4.3832189558417056E-3</v>
+      </c>
+      <c r="O88" s="196">
+        <v>5.3394154743755307E-2</v>
+      </c>
+      <c r="P88" s="196">
+        <v>-1.9703807284052632E-2</v>
+      </c>
+      <c r="Q88" s="196">
+        <v>-4.084808403034379E-3</v>
+      </c>
+      <c r="R88" s="196">
+        <v>0</v>
+      </c>
+      <c r="S88" s="196">
+        <v>2.4739583333333037E-3</v>
+      </c>
+      <c r="T88" s="196">
+        <v>1.6235874788934623E-3</v>
+      </c>
+      <c r="U88" s="196">
+        <v>3.9551319457953316E-3</v>
+      </c>
+      <c r="V88" s="196">
+        <v>3.8749677086025169E-3</v>
+      </c>
+      <c r="W88" s="196">
+        <v>3.9243437982501295E-3</v>
+      </c>
+      <c r="X88" s="196">
+        <v>3.0118551746236566E-3</v>
+      </c>
+      <c r="Y88" s="196">
+        <v>3.9611551239457921E-3</v>
+      </c>
+      <c r="Z88" s="196">
+        <v>5.027364133893153E-3</v>
+      </c>
       <c r="AA88" s="186"/>
       <c r="AB88" s="186"/>
       <c r="AE88" s="187"/>
@@ -9727,57 +9718,57 @@
       <c r="AL88" s="187"/>
       <c r="AM88" s="237"/>
     </row>
-    <row r="89" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="284" t="s">
-        <v>353</v>
-      </c>
-      <c r="F89" s="300"/>
-      <c r="G89" s="300"/>
-      <c r="H89" s="300"/>
-      <c r="I89" s="300"/>
-      <c r="J89" s="300"/>
-      <c r="K89" s="300"/>
-      <c r="L89" s="300"/>
-      <c r="M89" s="305"/>
-      <c r="N89" s="312"/>
-      <c r="O89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
-        <v>30799.999999999996</v>
-      </c>
-      <c r="P89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
-        <v>30799.999999999996</v>
-      </c>
-      <c r="Q89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
-        <v>13200</v>
-      </c>
-      <c r="R89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
-        <v>13200</v>
-      </c>
-      <c r="S89" s="286"/>
-      <c r="T89" s="286"/>
-      <c r="U89" s="286"/>
-      <c r="V89" s="286"/>
-      <c r="W89" s="286"/>
-      <c r="X89" s="286"/>
-      <c r="Y89" s="286"/>
-      <c r="Z89" s="286"/>
-      <c r="AA89" s="286"/>
-      <c r="AB89" s="286"/>
-      <c r="AE89" s="287"/>
-      <c r="AF89" s="287"/>
-      <c r="AG89" s="287"/>
-      <c r="AI89" s="287"/>
-      <c r="AJ89" s="287"/>
-      <c r="AK89" s="287"/>
-      <c r="AL89" s="287"/>
-      <c r="AM89" s="288"/>
+    <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="F89" s="207"/>
+      <c r="G89" s="207"/>
+      <c r="H89" s="207"/>
+      <c r="I89" s="207"/>
+      <c r="J89" s="207"/>
+      <c r="K89" s="207"/>
+      <c r="L89" s="207"/>
+      <c r="M89" s="302"/>
+      <c r="N89" s="311"/>
+      <c r="O89" s="102">
+        <f>SUM(O90:O92)</f>
+        <v>71400</v>
+      </c>
+      <c r="P89" s="102">
+        <f t="shared" ref="P89:R89" si="50">SUM(P90:P92)</f>
+        <v>71400</v>
+      </c>
+      <c r="Q89" s="102">
+        <f t="shared" si="50"/>
+        <v>30600</v>
+      </c>
+      <c r="R89" s="102">
+        <f t="shared" si="50"/>
+        <v>30600</v>
+      </c>
+      <c r="S89" s="186"/>
+      <c r="T89" s="186"/>
+      <c r="U89" s="186"/>
+      <c r="V89" s="186"/>
+      <c r="W89" s="186"/>
+      <c r="X89" s="186"/>
+      <c r="Y89" s="186"/>
+      <c r="Z89" s="186"/>
+      <c r="AA89" s="186"/>
+      <c r="AB89" s="186"/>
+      <c r="AE89" s="187"/>
+      <c r="AF89" s="187"/>
+      <c r="AG89" s="187"/>
+      <c r="AI89" s="187"/>
+      <c r="AJ89" s="187"/>
+      <c r="AK89" s="187"/>
+      <c r="AL89" s="187"/>
+      <c r="AM89" s="237"/>
     </row>
     <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="284" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F90" s="300"/>
       <c r="G90" s="300"/>
@@ -9789,20 +9780,20 @@
       <c r="M90" s="305"/>
       <c r="N90" s="312"/>
       <c r="O90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
-        <v>28000</v>
+        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
+        <v>30799.999999999996</v>
       </c>
       <c r="P90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
-        <v>28000</v>
+        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
+        <v>30799.999999999996</v>
       </c>
       <c r="Q90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
-        <v>12000</v>
+        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
+        <v>13200</v>
       </c>
       <c r="R90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
-        <v>12000</v>
+        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
+        <v>13200</v>
       </c>
       <c r="S90" s="286"/>
       <c r="T90" s="286"/>
@@ -9825,7 +9816,7 @@
     </row>
     <row r="91" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="284" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F91" s="300"/>
       <c r="G91" s="300"/>
@@ -9837,20 +9828,20 @@
       <c r="M91" s="305"/>
       <c r="N91" s="312"/>
       <c r="O91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
-        <v>12600</v>
+        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
+        <v>28000</v>
       </c>
       <c r="P91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
-        <v>12600</v>
+        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
+        <v>28000</v>
       </c>
       <c r="Q91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
-        <v>5400</v>
+        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
+        <v>12000</v>
       </c>
       <c r="R91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
-        <v>5400</v>
+        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
+        <v>12000</v>
       </c>
       <c r="S91" s="286"/>
       <c r="T91" s="286"/>
@@ -9871,1021 +9862,1018 @@
       <c r="AL91" s="287"/>
       <c r="AM91" s="288"/>
     </row>
-    <row r="92" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="35" t="s">
+    <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="284" t="s">
+        <v>355</v>
+      </c>
+      <c r="F92" s="300"/>
+      <c r="G92" s="300"/>
+      <c r="H92" s="300"/>
+      <c r="I92" s="300"/>
+      <c r="J92" s="300"/>
+      <c r="K92" s="300"/>
+      <c r="L92" s="300"/>
+      <c r="M92" s="305"/>
+      <c r="N92" s="312"/>
+      <c r="O92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
+        <v>12600</v>
+      </c>
+      <c r="P92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
+        <v>12600</v>
+      </c>
+      <c r="Q92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
+        <v>5400</v>
+      </c>
+      <c r="R92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
+        <v>5400</v>
+      </c>
+      <c r="S92" s="286"/>
+      <c r="T92" s="286"/>
+      <c r="U92" s="286"/>
+      <c r="V92" s="286"/>
+      <c r="W92" s="286"/>
+      <c r="X92" s="286"/>
+      <c r="Y92" s="286"/>
+      <c r="Z92" s="286"/>
+      <c r="AA92" s="286"/>
+      <c r="AB92" s="286"/>
+      <c r="AE92" s="287"/>
+      <c r="AF92" s="287"/>
+      <c r="AG92" s="287"/>
+      <c r="AI92" s="287"/>
+      <c r="AJ92" s="287"/>
+      <c r="AK92" s="287"/>
+      <c r="AL92" s="287"/>
+      <c r="AM92" s="288"/>
+    </row>
+    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B93" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>317</v>
       </c>
-      <c r="D92"/>
-      <c r="F92" s="206">
+      <c r="D93"/>
+      <c r="F93" s="206">
         <v>389624</v>
       </c>
-      <c r="G92" s="206">
+      <c r="G93" s="206">
         <v>404529</v>
       </c>
-      <c r="H92" s="206">
+      <c r="H93" s="206">
         <v>419672</v>
       </c>
-      <c r="I92" s="206">
+      <c r="I93" s="206">
         <v>418824</v>
       </c>
-      <c r="J92" s="206">
+      <c r="J93" s="206">
         <v>411409</v>
       </c>
-      <c r="K92" s="206">
+      <c r="K93" s="206">
         <v>423429</v>
       </c>
-      <c r="L92" s="206">
+      <c r="L93" s="206">
         <v>512640</v>
       </c>
-      <c r="M92" s="301">
+      <c r="M93" s="301">
         <v>486072</v>
       </c>
-      <c r="N92" s="308">
-        <f>VLOOKUP($C$92,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="N93" s="308">
+        <f>VLOOKUP($C$93,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>512193</v>
       </c>
-      <c r="O92" s="116">
-        <f t="shared" ref="O92:S92" si="50">O99*0.74</f>
+      <c r="O93" s="116">
+        <f t="shared" ref="O93:S93" si="51">O100*0.74</f>
         <v>507477.24811825115</v>
       </c>
-      <c r="P92" s="116">
-        <f t="shared" si="50"/>
+      <c r="P93" s="116">
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="Q92" s="116">
-        <f t="shared" si="50"/>
+      <c r="Q93" s="116">
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="R92" s="116">
-        <f t="shared" si="50"/>
+      <c r="R93" s="116">
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="S92" s="116">
-        <f t="shared" si="50"/>
+      <c r="S93" s="116">
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="T92" s="116">
-        <f>T99*0.68</f>
+      <c r="T93" s="116">
+        <f>T100*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="U92" s="116">
-        <f>U99*0.68</f>
+      <c r="U93" s="116">
+        <f>U100*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="V92" s="116">
-        <f>V99*0.68</f>
+      <c r="V93" s="116">
+        <f>V100*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="W92" s="116"/>
-      <c r="X92" s="116"/>
-      <c r="Y92" s="116"/>
-      <c r="Z92" s="116"/>
-      <c r="AA92" s="116"/>
-      <c r="AB92" s="116"/>
-      <c r="AC92" s="44">
-        <f>AVERAGE(F92:I92)/1000</f>
+      <c r="W93" s="116"/>
+      <c r="X93" s="116"/>
+      <c r="Y93" s="116"/>
+      <c r="Z93" s="116"/>
+      <c r="AA93" s="116"/>
+      <c r="AB93" s="116"/>
+      <c r="AC93" s="44">
+        <f>AVERAGE(F93:I93)/1000</f>
         <v>408.16224999999997</v>
       </c>
-      <c r="AD92" s="45">
-        <f>AVERAGE(J92:M92)</f>
+      <c r="AD93" s="45">
+        <f>AVERAGE(J93:M93)</f>
         <v>458387.5</v>
       </c>
-      <c r="AE92" s="45">
-        <f>AVERAGE(N92:Q92)</f>
+      <c r="AE93" s="45">
+        <f>AVERAGE(N93:Q93)</f>
         <v>511188.22022116883</v>
       </c>
-      <c r="AF92" s="45">
-        <f>AVERAGE(R92:U92)</f>
+      <c r="AF93" s="45">
+        <f>AVERAGE(R93:U93)</f>
         <v>491762.61436767643</v>
       </c>
-      <c r="AH92" s="35">
+      <c r="AH93" s="35">
         <v>409.42</v>
       </c>
-      <c r="AI92" s="84">
+      <c r="AI93" s="84">
         <f>'figuring out Medicaid'!G11</f>
         <v>466.24400000000003</v>
       </c>
-      <c r="AJ92" s="84">
+      <c r="AJ93" s="84">
         <f>'figuring out Medicaid'!H11</f>
         <v>537.41499999999996</v>
       </c>
-      <c r="AK92" s="84">
+      <c r="AK93" s="84">
         <f>'figuring out Medicaid'!I11</f>
         <v>516.01800000000003</v>
       </c>
-      <c r="AL92" s="84"/>
-      <c r="AM92" s="233"/>
-    </row>
-    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="141" t="s">
+      <c r="AL93" s="84"/>
+      <c r="AM93" s="233"/>
+    </row>
+    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="B93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="201">
-        <f t="shared" ref="F93:L93" si="51">F50+F47+F36+F42</f>
+      <c r="B94" s="141"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="201">
+        <f t="shared" ref="F94:L94" si="52">F50+F47+F36+F42</f>
         <v>1440187</v>
       </c>
-      <c r="G93" s="201">
-        <f t="shared" si="51"/>
+      <c r="G94" s="201">
+        <f t="shared" si="52"/>
         <v>1503410</v>
       </c>
-      <c r="H93" s="201">
-        <f t="shared" si="51"/>
+      <c r="H94" s="201">
+        <f t="shared" si="52"/>
         <v>1508652</v>
       </c>
-      <c r="I93" s="201">
-        <f t="shared" si="51"/>
+      <c r="I94" s="201">
+        <f t="shared" si="52"/>
         <v>1513957</v>
       </c>
-      <c r="J93" s="201">
-        <f t="shared" si="51"/>
+      <c r="J94" s="201">
+        <f t="shared" si="52"/>
         <v>1521941</v>
       </c>
-      <c r="K93" s="201">
-        <f t="shared" si="51"/>
+      <c r="K94" s="201">
+        <f t="shared" si="52"/>
         <v>1574462</v>
       </c>
-      <c r="L93" s="201">
-        <f t="shared" si="51"/>
+      <c r="L94" s="201">
+        <f t="shared" si="52"/>
         <v>3729557.333333333</v>
       </c>
-      <c r="M93" s="301">
+      <c r="M94" s="301">
         <v>2466001</v>
       </c>
-      <c r="N93" s="306">
+      <c r="N94" s="306">
         <f>N50+N47+N36+N42+N37</f>
         <v>2027793</v>
       </c>
-      <c r="O93" s="142">
-        <f t="shared" ref="O93:Z93" si="52">O50+O47+O36+O42+O37+O38+O39</f>
+      <c r="O94" s="142">
+        <f t="shared" ref="O94:Z94" si="53">O50+O47+O36+O42+O37+O38+O39</f>
         <v>3107701.3980484894</v>
       </c>
-      <c r="P93" s="142">
-        <f t="shared" si="52"/>
+      <c r="P94" s="142">
+        <f t="shared" si="53"/>
         <v>1874848.87398125</v>
       </c>
-      <c r="Q93" s="142">
-        <f t="shared" si="52"/>
+      <c r="Q94" s="142">
+        <f t="shared" si="53"/>
         <v>1686467.5074263907</v>
       </c>
-      <c r="R93" s="142">
-        <f t="shared" si="52"/>
+      <c r="R94" s="142">
+        <f t="shared" si="53"/>
         <v>1683044.5200377863</v>
       </c>
-      <c r="S93" s="142">
-        <f t="shared" si="52"/>
+      <c r="S94" s="142">
+        <f t="shared" si="53"/>
         <v>1687990.187838353</v>
       </c>
-      <c r="T93" s="142">
-        <f t="shared" si="52"/>
+      <c r="T94" s="142">
+        <f t="shared" si="53"/>
         <v>1713310.0406559282</v>
       </c>
-      <c r="U93" s="142">
-        <f t="shared" si="52"/>
+      <c r="U94" s="142">
+        <f t="shared" si="53"/>
         <v>1739009.691265767</v>
       </c>
-      <c r="V93" s="142">
-        <f t="shared" si="52"/>
+      <c r="V94" s="142">
+        <f t="shared" si="53"/>
         <v>1756399.7881784246</v>
       </c>
-      <c r="W93" s="142">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="X93" s="142">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="142">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="142">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AM93" s="233"/>
-    </row>
-    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="B94" s="141"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="197"/>
-      <c r="G94" s="197"/>
-      <c r="H94" s="197"/>
-      <c r="I94" s="197"/>
-      <c r="J94" s="197"/>
-      <c r="K94" s="197"/>
-      <c r="L94" s="203">
-        <f>L92+L35</f>
-        <v>1336698</v>
-      </c>
-      <c r="M94" s="301">
-        <v>1328805</v>
-      </c>
-      <c r="N94" s="310">
-        <f t="shared" ref="N94:Z94" si="53">N92+N35</f>
-        <v>1372787</v>
-      </c>
-      <c r="O94" s="143">
-        <f t="shared" si="53"/>
-        <v>1390610.1625906522</v>
-      </c>
-      <c r="P94" s="143">
-        <f t="shared" si="53"/>
-        <v>1418489.158978964</v>
-      </c>
-      <c r="Q94" s="143">
-        <f t="shared" si="53"/>
-        <v>1441583.4808422038</v>
-      </c>
-      <c r="R94" s="143">
-        <f t="shared" si="53"/>
-        <v>1483962.7404801806</v>
-      </c>
-      <c r="S94" s="143">
-        <f t="shared" si="53"/>
-        <v>1515727.7827888038</v>
-      </c>
-      <c r="T94" s="143">
-        <f t="shared" si="53"/>
-        <v>1506974.123618965</v>
-      </c>
-      <c r="U94" s="143">
-        <f t="shared" si="53"/>
-        <v>1540850.5361376633</v>
-      </c>
-      <c r="V94" s="143">
-        <f t="shared" si="53"/>
-        <v>1551631.6801380017</v>
-      </c>
-      <c r="W94" s="143">
-        <f t="shared" si="53"/>
-        <v>1091537.5543621723</v>
-      </c>
-      <c r="X94" s="143">
-        <f t="shared" si="53"/>
-        <v>1102537.0783156503</v>
-      </c>
-      <c r="Y94" s="143">
-        <f t="shared" si="53"/>
-        <v>1113647.4454798999</v>
-      </c>
-      <c r="Z94" s="143">
+      <c r="W94" s="142">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
+      <c r="X94" s="142">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="142">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="142">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="AM94" s="233"/>
     </row>
     <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" s="141"/>
+      <c r="E95" s="141"/>
       <c r="F95" s="197"/>
       <c r="G95" s="197"/>
       <c r="H95" s="197"/>
       <c r="I95" s="197"/>
       <c r="J95" s="197"/>
       <c r="K95" s="197"/>
-      <c r="L95" s="197"/>
-      <c r="M95" s="301"/>
-      <c r="N95" s="301"/>
+      <c r="L95" s="203">
+        <f>L93+L35</f>
+        <v>1336698</v>
+      </c>
+      <c r="M95" s="301">
+        <v>1328805</v>
+      </c>
+      <c r="N95" s="310">
+        <f t="shared" ref="N95:Z95" si="54">N93+N35</f>
+        <v>1372787</v>
+      </c>
+      <c r="O95" s="143">
+        <f t="shared" si="54"/>
+        <v>1390610.1625906522</v>
+      </c>
+      <c r="P95" s="143">
+        <f t="shared" si="54"/>
+        <v>1418489.158978964</v>
+      </c>
+      <c r="Q95" s="143">
+        <f t="shared" si="54"/>
+        <v>1441583.4808422038</v>
+      </c>
+      <c r="R95" s="143">
+        <f t="shared" si="54"/>
+        <v>1483962.7404801806</v>
+      </c>
+      <c r="S95" s="143">
+        <f t="shared" si="54"/>
+        <v>1515727.7827888038</v>
+      </c>
+      <c r="T95" s="143">
+        <f t="shared" si="54"/>
+        <v>1506974.123618965</v>
+      </c>
+      <c r="U95" s="143">
+        <f t="shared" si="54"/>
+        <v>1540850.5361376633</v>
+      </c>
+      <c r="V95" s="143">
+        <f t="shared" si="54"/>
+        <v>1551631.6801380017</v>
+      </c>
+      <c r="W95" s="143">
+        <f t="shared" si="54"/>
+        <v>1091537.5543621723</v>
+      </c>
+      <c r="X95" s="143">
+        <f t="shared" si="54"/>
+        <v>1102537.0783156503</v>
+      </c>
+      <c r="Y95" s="143">
+        <f t="shared" si="54"/>
+        <v>1113647.4454798999</v>
+      </c>
+      <c r="Z95" s="143">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AM95" s="233"/>
     </row>
     <row r="96" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" t="s">
-        <v>318</v>
-      </c>
-      <c r="D96"/>
-      <c r="F96" s="197">
-        <v>728844</v>
-      </c>
-      <c r="G96" s="197">
-        <v>738714</v>
-      </c>
-      <c r="H96" s="197">
-        <v>755204</v>
-      </c>
-      <c r="I96" s="197">
-        <v>763370</v>
-      </c>
-      <c r="J96" s="197">
-        <v>760967</v>
-      </c>
-      <c r="K96" s="197">
-        <v>767087</v>
-      </c>
-      <c r="L96" s="197">
-        <v>812158</v>
-      </c>
-      <c r="M96" s="301">
-        <v>828480</v>
-      </c>
-      <c r="N96" s="303">
-        <f>VLOOKUP($C$96,'Haver NA'!$A$1:$J$34,10,0)</f>
-        <v>818740</v>
-      </c>
-      <c r="O96" s="133">
-        <f t="shared" ref="O96:U96" si="54">O97+O99</f>
-        <v>831250.83502466371</v>
-      </c>
-      <c r="P96" s="133">
-        <f t="shared" si="54"/>
-        <v>838457.84744285408</v>
-      </c>
-      <c r="Q96" s="133">
-        <f t="shared" si="54"/>
-        <v>839187.01967747905</v>
-      </c>
-      <c r="R96" s="133">
-        <f t="shared" si="54"/>
-        <v>840286.24682117626</v>
-      </c>
-      <c r="S96" s="133">
-        <f t="shared" si="54"/>
-        <v>841762.8752842095</v>
-      </c>
-      <c r="T96" s="133">
-        <f t="shared" si="54"/>
-        <v>843107.97501111636</v>
-      </c>
-      <c r="U96" s="133">
-        <f t="shared" si="54"/>
-        <v>844539.45728929248</v>
-      </c>
-      <c r="V96" s="133">
-        <f t="shared" ref="V96" si="55">V97+V99</f>
-        <v>846032.64138980373</v>
-      </c>
+      <c r="F96" s="197"/>
+      <c r="G96" s="197"/>
+      <c r="H96" s="197"/>
+      <c r="I96" s="197"/>
+      <c r="J96" s="197"/>
+      <c r="K96" s="197"/>
+      <c r="L96" s="197"/>
+      <c r="M96" s="301"/>
+      <c r="N96" s="301"/>
       <c r="AM96" s="233"/>
     </row>
     <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97"/>
+      <c r="F97" s="197">
+        <v>728844</v>
+      </c>
+      <c r="G97" s="197">
+        <v>738714</v>
+      </c>
+      <c r="H97" s="197">
+        <v>755204</v>
+      </c>
+      <c r="I97" s="197">
+        <v>763370</v>
+      </c>
+      <c r="J97" s="197">
+        <v>760967</v>
+      </c>
+      <c r="K97" s="197">
+        <v>767087</v>
+      </c>
+      <c r="L97" s="197">
+        <v>812158</v>
+      </c>
+      <c r="M97" s="301">
+        <v>828480</v>
+      </c>
+      <c r="N97" s="303">
+        <f>VLOOKUP($C$97,'Haver NA'!$A$1:$J$34,10,0)</f>
+        <v>818740</v>
+      </c>
+      <c r="O97" s="133">
+        <f t="shared" ref="O97:U97" si="55">O98+O100</f>
+        <v>831250.83502466371</v>
+      </c>
+      <c r="P97" s="133">
+        <f t="shared" si="55"/>
+        <v>838457.84744285408</v>
+      </c>
+      <c r="Q97" s="133">
+        <f t="shared" si="55"/>
+        <v>839187.01967747905</v>
+      </c>
+      <c r="R97" s="133">
+        <f t="shared" si="55"/>
+        <v>840286.24682117626</v>
+      </c>
+      <c r="S97" s="133">
+        <f t="shared" si="55"/>
+        <v>841762.8752842095</v>
+      </c>
+      <c r="T97" s="133">
+        <f t="shared" si="55"/>
+        <v>843107.97501111636</v>
+      </c>
+      <c r="U97" s="133">
+        <f t="shared" si="55"/>
+        <v>844539.45728929248</v>
+      </c>
+      <c r="V97" s="133">
+        <f t="shared" ref="V97" si="56">V98+V100</f>
+        <v>846032.64138980373</v>
+      </c>
+      <c r="AM97" s="233"/>
+    </row>
+    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F97" s="203">
-        <f t="shared" ref="F97:K97" si="56">F96-F99</f>
+      <c r="F98" s="203">
+        <f t="shared" ref="F98:K98" si="57">F97-F100</f>
         <v>139025</v>
       </c>
-      <c r="G97" s="203">
-        <f t="shared" si="56"/>
+      <c r="G98" s="203">
+        <f t="shared" si="57"/>
         <v>139342</v>
       </c>
-      <c r="H97" s="203">
-        <f t="shared" si="56"/>
+      <c r="H98" s="203">
+        <f t="shared" si="57"/>
         <v>140228</v>
       </c>
-      <c r="I97" s="203">
-        <f t="shared" si="56"/>
+      <c r="I98" s="203">
+        <f t="shared" si="57"/>
         <v>141105</v>
       </c>
-      <c r="J97" s="203">
-        <f t="shared" si="56"/>
+      <c r="J98" s="203">
+        <f t="shared" si="57"/>
         <v>141335</v>
       </c>
-      <c r="K97" s="203">
-        <f t="shared" si="56"/>
+      <c r="K98" s="203">
+        <f t="shared" si="57"/>
         <v>142991</v>
       </c>
-      <c r="L97" s="203">
-        <f>L96-L99</f>
+      <c r="L98" s="203">
+        <f>L97-L100</f>
         <v>143335</v>
       </c>
-      <c r="M97" s="301">
+      <c r="M98" s="301">
         <v>144777</v>
       </c>
-      <c r="N97" s="303">
-        <f>N96-N99</f>
+      <c r="N98" s="303">
+        <f>N97-N100</f>
         <v>145108</v>
       </c>
-      <c r="O97" s="133">
-        <f>N97*(1+O109)</f>
+      <c r="O98" s="133">
+        <f>N98*(1+O110)</f>
         <v>145470.76999999999</v>
       </c>
-      <c r="P97" s="133">
-        <f t="shared" ref="P97:S97" si="57">O97*(1+P109)</f>
+      <c r="P98" s="133">
+        <f t="shared" ref="P98:S98" si="58">O98*(1+P110)</f>
         <v>145834.44692499997</v>
       </c>
-      <c r="Q97" s="133">
-        <f t="shared" si="57"/>
+      <c r="Q98" s="133">
+        <f t="shared" si="58"/>
         <v>146563.61915962494</v>
       </c>
-      <c r="R97" s="133">
-        <f t="shared" si="57"/>
+      <c r="R98" s="133">
+        <f t="shared" si="58"/>
         <v>147662.84630332215</v>
       </c>
-      <c r="S97" s="133">
-        <f t="shared" si="57"/>
+      <c r="S98" s="133">
+        <f t="shared" si="58"/>
         <v>149139.47476635536</v>
       </c>
-      <c r="T97" s="133">
-        <f t="shared" ref="T97:V97" si="58">S97*(1+T108)</f>
+      <c r="T98" s="133">
+        <f t="shared" ref="T98:V98" si="59">S98*(1+T109)</f>
         <v>150484.57449326222</v>
       </c>
-      <c r="U97" s="133">
-        <f t="shared" si="58"/>
+      <c r="U98" s="133">
+        <f t="shared" si="59"/>
         <v>151916.05677143831</v>
       </c>
-      <c r="V97" s="133">
-        <f t="shared" si="58"/>
+      <c r="V98" s="133">
+        <f t="shared" si="59"/>
         <v>153409.24087194959</v>
       </c>
-      <c r="AM97" s="233"/>
-    </row>
-    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F98" s="203"/>
-      <c r="G98" s="197"/>
-      <c r="H98" s="197"/>
-      <c r="I98" s="197"/>
-      <c r="J98" s="197"/>
-      <c r="K98" s="197"/>
-      <c r="L98" s="197"/>
-      <c r="M98" s="301"/>
-      <c r="N98" s="301"/>
       <c r="AM98" s="233"/>
     </row>
     <row r="99" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="35" t="s">
+      <c r="F99" s="203"/>
+      <c r="G99" s="197"/>
+      <c r="H99" s="197"/>
+      <c r="I99" s="197"/>
+      <c r="J99" s="197"/>
+      <c r="K99" s="197"/>
+      <c r="L99" s="197"/>
+      <c r="M99" s="301"/>
+      <c r="N99" s="301"/>
+      <c r="AM99" s="233"/>
+    </row>
+    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B100" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>319</v>
       </c>
-      <c r="D99"/>
-      <c r="F99" s="197">
+      <c r="D100"/>
+      <c r="F100" s="197">
         <v>589819</v>
       </c>
-      <c r="G99" s="197">
+      <c r="G100" s="197">
         <v>599372</v>
       </c>
-      <c r="H99" s="197">
+      <c r="H100" s="197">
         <v>614976</v>
       </c>
-      <c r="I99" s="197">
+      <c r="I100" s="197">
         <v>622265</v>
       </c>
-      <c r="J99" s="197">
+      <c r="J100" s="197">
         <v>619632</v>
       </c>
-      <c r="K99" s="197">
+      <c r="K100" s="197">
         <v>624096</v>
       </c>
-      <c r="L99" s="197">
+      <c r="L100" s="197">
         <v>668823</v>
       </c>
-      <c r="M99" s="301">
+      <c r="M100" s="301">
         <v>683703</v>
       </c>
-      <c r="N99" s="310">
-        <f>VLOOKUP($C$99,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="N100" s="310">
+        <f>VLOOKUP($C$100,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>673632</v>
       </c>
-      <c r="O99" s="135">
-        <f>N99*(($AJ$99/$AI$99)^0.18)</f>
+      <c r="O100" s="135">
+        <f>N100*(($AJ$100/$AI$100)^0.18)</f>
         <v>685780.06502466369</v>
       </c>
-      <c r="P99" s="135">
-        <f>O99*(($AJ$99/$AI$99)^0.1)</f>
+      <c r="P100" s="135">
+        <f>O100*(($AJ$100/$AI$100)^0.1)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="Q99" s="135">
-        <f>P99*(1+Q100)</f>
+      <c r="Q100" s="135">
+        <f>P100*(1+Q101)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="R99" s="135">
-        <f t="shared" ref="R99:V99" si="59">Q99*(1+R100)</f>
+      <c r="R100" s="135">
+        <f t="shared" ref="R100:V100" si="60">Q100*(1+R101)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="S99" s="135">
-        <f t="shared" si="59"/>
+      <c r="S100" s="135">
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="T99" s="135">
-        <f t="shared" si="59"/>
+      <c r="T100" s="135">
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="U99" s="135">
-        <f t="shared" si="59"/>
+      <c r="U100" s="135">
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="V99" s="135">
-        <f t="shared" si="59"/>
+      <c r="V100" s="135">
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="AD99" s="45">
-        <f>AVERAGE(J99:M99)/1000</f>
+      <c r="AD100" s="45">
+        <f>AVERAGE(J100:M100)/1000</f>
         <v>649.06349999999998</v>
       </c>
-      <c r="AE99" s="45">
-        <f>AVERAGE(N99:Q99)/1000</f>
+      <c r="AE100" s="45">
+        <f>AVERAGE(N100:Q100)/1000</f>
         <v>686.16471651509301</v>
       </c>
-      <c r="AF99" s="45">
-        <f>AVERAGE(R99:U99)/1000</f>
+      <c r="AF100" s="45">
+        <f>AVERAGE(R100:U100)/1000</f>
         <v>692.62340051785418</v>
       </c>
-      <c r="AH99" s="84"/>
-      <c r="AI99" s="84">
+      <c r="AH100" s="84"/>
+      <c r="AI100" s="84">
         <f>'figuring out Medicaid'!G13</f>
         <v>657.17435271149407</v>
       </c>
-      <c r="AJ99" s="84">
+      <c r="AJ100" s="84">
         <f>'figuring out Medicaid'!H13</f>
         <v>725.7777402928042</v>
       </c>
-      <c r="AK99" s="84">
+      <c r="AK100" s="84">
         <f>'figuring out Medicaid'!I13</f>
         <v>727.33117238501666</v>
       </c>
-      <c r="AL99" s="84"/>
-      <c r="AM99" s="233"/>
-    </row>
-    <row r="100" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="169" t="s">
+      <c r="AL100" s="84"/>
+      <c r="AM100" s="233"/>
+    </row>
+    <row r="101" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="169" t="s">
         <v>269</v>
       </c>
-      <c r="F100" s="207"/>
-      <c r="G100" s="207"/>
-      <c r="H100" s="207"/>
-      <c r="I100" s="207"/>
-      <c r="J100" s="200"/>
-      <c r="K100" s="200"/>
-      <c r="L100" s="200"/>
-      <c r="M100" s="301"/>
-      <c r="N100" s="302"/>
-      <c r="O100" s="175"/>
-      <c r="P100" s="175"/>
-      <c r="Q100" s="175">
+      <c r="F101" s="207"/>
+      <c r="G101" s="207"/>
+      <c r="H101" s="207"/>
+      <c r="I101" s="207"/>
+      <c r="J101" s="200"/>
+      <c r="K101" s="200"/>
+      <c r="L101" s="200"/>
+      <c r="M101" s="301"/>
+      <c r="N101" s="302"/>
+      <c r="O101" s="175"/>
+      <c r="P101" s="175"/>
+      <c r="Q101" s="175">
         <v>0</v>
       </c>
-      <c r="R100" s="175">
+      <c r="R101" s="175">
         <v>0</v>
       </c>
-      <c r="S100" s="175">
+      <c r="S101" s="175">
         <v>0</v>
       </c>
-      <c r="T100" s="175">
+      <c r="T101" s="175">
         <v>0</v>
       </c>
-      <c r="U100" s="175">
+      <c r="U101" s="175">
         <v>0</v>
       </c>
-      <c r="V100" s="175">
+      <c r="V101" s="175">
         <v>0</v>
       </c>
-      <c r="W100" s="175"/>
-      <c r="AM100" s="234"/>
-    </row>
-    <row r="101" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A101" s="153" t="s">
+      <c r="W101" s="175"/>
+      <c r="AM101" s="234"/>
+    </row>
+    <row r="102" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A102" s="153" t="s">
         <v>222</v>
       </c>
-      <c r="F101" s="208">
-        <f t="shared" ref="F101:L101" si="60">F92/F99</f>
+      <c r="F102" s="208">
+        <f t="shared" ref="F102:L102" si="61">F93/F100</f>
         <v>0.66058231423538405</v>
       </c>
-      <c r="G101" s="208">
-        <f t="shared" si="60"/>
+      <c r="G102" s="208">
+        <f t="shared" si="61"/>
         <v>0.6749214177505789</v>
       </c>
-      <c r="H101" s="208">
-        <f t="shared" si="60"/>
+      <c r="H102" s="208">
+        <f t="shared" si="61"/>
         <v>0.68242012696430432</v>
       </c>
-      <c r="I101" s="208">
-        <f t="shared" si="60"/>
+      <c r="I102" s="208">
+        <f t="shared" si="61"/>
         <v>0.6730637268687778</v>
       </c>
-      <c r="J101" s="208">
-        <f t="shared" si="60"/>
+      <c r="J102" s="208">
+        <f t="shared" si="61"/>
         <v>0.66395699382859508</v>
       </c>
-      <c r="K101" s="208">
-        <f t="shared" si="60"/>
+      <c r="K102" s="208">
+        <f t="shared" si="61"/>
         <v>0.67846773573296415</v>
       </c>
-      <c r="L101" s="208">
-        <f t="shared" si="60"/>
+      <c r="L102" s="208">
+        <f t="shared" si="61"/>
         <v>0.76648081779484256</v>
       </c>
-      <c r="M101" s="208">
+      <c r="M102" s="208">
         <v>0.71094027669909299</v>
       </c>
-      <c r="N101" s="208">
-        <f t="shared" ref="N101" si="61">N92/N99</f>
+      <c r="N102" s="208">
+        <f t="shared" ref="N102" si="62">N93/N100</f>
         <v>0.76034541114436371</v>
       </c>
-      <c r="AD101" s="154"/>
-      <c r="AE101" s="154"/>
-      <c r="AF101" s="154"/>
-      <c r="AH101" s="155"/>
-      <c r="AI101" s="155"/>
-      <c r="AJ101" s="155"/>
-      <c r="AM101" s="238"/>
-    </row>
-    <row r="102" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="35" t="s">
+      <c r="AD102" s="154"/>
+      <c r="AE102" s="154"/>
+      <c r="AF102" s="154"/>
+      <c r="AH102" s="155"/>
+      <c r="AI102" s="155"/>
+      <c r="AJ102" s="155"/>
+      <c r="AM102" s="238"/>
+    </row>
+    <row r="103" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B103" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>320</v>
       </c>
-      <c r="D102"/>
-      <c r="F102" s="197">
+      <c r="D103"/>
+      <c r="F103" s="197">
         <v>1997.1</v>
       </c>
-      <c r="G102" s="197">
+      <c r="G103" s="197">
         <v>2012.7</v>
       </c>
-      <c r="H102" s="197">
+      <c r="H103" s="197">
         <v>2025.5</v>
       </c>
-      <c r="I102" s="197">
+      <c r="I103" s="197">
         <v>2028.3</v>
       </c>
-      <c r="J102" s="197">
+      <c r="J103" s="197">
         <v>2035.6</v>
       </c>
-      <c r="K102" s="197">
+      <c r="K103" s="197">
         <v>2041</v>
       </c>
-      <c r="L102" s="197">
+      <c r="L103" s="197">
         <v>2013.1</v>
       </c>
-      <c r="M102" s="301">
+      <c r="M103" s="301">
         <v>1993.0509999999999</v>
       </c>
-      <c r="N102" s="301">
-        <f>VLOOKUP($C$102,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+      <c r="N103" s="301">
+        <f>VLOOKUP($C$103,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
         <v>1984.547</v>
       </c>
-      <c r="O102" s="35">
-        <f>N102*(1+O104)</f>
+      <c r="O103" s="35">
+        <f>N103*(1+O105)</f>
         <v>2009.5840333646127</v>
       </c>
-      <c r="P102" s="35">
-        <f t="shared" ref="P102:V102" si="62">O102*(1+P104)</f>
+      <c r="P103" s="35">
+        <f t="shared" ref="P103:V103" si="63">O103*(1+P105)</f>
         <v>2031.5173022625379</v>
       </c>
-      <c r="Q102" s="35">
-        <f t="shared" si="62"/>
+      <c r="Q103" s="35">
+        <f t="shared" si="63"/>
         <v>2046.001536440413</v>
       </c>
-      <c r="R102" s="35">
-        <f t="shared" si="62"/>
+      <c r="R103" s="35">
+        <f t="shared" si="63"/>
         <v>2056.0370415493694</v>
       </c>
-      <c r="S102" s="35">
-        <f t="shared" si="62"/>
+      <c r="S103" s="35">
+        <f t="shared" si="63"/>
         <v>2065.9690878427696</v>
       </c>
-      <c r="T102" s="35">
-        <f t="shared" si="62"/>
+      <c r="T103" s="35">
+        <f t="shared" si="63"/>
         <v>2073.2112049317075</v>
       </c>
-      <c r="U102" s="35">
-        <f t="shared" si="62"/>
+      <c r="U103" s="35">
+        <f t="shared" si="63"/>
         <v>2077.6599340006264</v>
       </c>
-      <c r="V102" s="35">
-        <f t="shared" si="62"/>
+      <c r="V103" s="35">
+        <f t="shared" si="63"/>
         <v>2079.3152750495265</v>
       </c>
-      <c r="AM102" s="233"/>
-    </row>
-    <row r="103" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="169" t="s">
-        <v>285</v>
-      </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="F103" s="200"/>
-      <c r="G103" s="200">
-        <f t="shared" ref="G103:L103" si="63">(G102/F102)-1</f>
-        <v>7.8113264233139468E-3</v>
-      </c>
-      <c r="H103" s="200">
-        <f t="shared" si="63"/>
-        <v>6.3596164356336526E-3</v>
-      </c>
-      <c r="I103" s="200">
-        <f t="shared" si="63"/>
-        <v>1.3823747222907468E-3</v>
-      </c>
-      <c r="J103" s="200">
-        <f t="shared" si="63"/>
-        <v>3.5990731154167399E-3</v>
-      </c>
-      <c r="K103" s="200">
-        <f t="shared" si="63"/>
-        <v>2.6527805069758159E-3</v>
-      </c>
-      <c r="L103" s="200">
-        <f t="shared" si="63"/>
-        <v>-1.36697697207252E-2</v>
-      </c>
-      <c r="M103" s="302">
-        <v>-9.9592668024439668E-3</v>
-      </c>
-      <c r="N103" s="324">
-        <f>(N102/M102)-1</f>
-        <v>-4.2668250837534227E-3</v>
-      </c>
-      <c r="O103" s="252"/>
-      <c r="P103" s="252"/>
-      <c r="Q103" s="252"/>
-      <c r="R103" s="252"/>
-      <c r="S103" s="252"/>
-      <c r="T103" s="252"/>
-      <c r="U103" s="252"/>
-      <c r="V103" s="252"/>
-      <c r="W103" s="252"/>
-      <c r="X103" s="252"/>
-      <c r="Y103" s="252"/>
-      <c r="AM103" s="234"/>
+      <c r="AM103" s="233"/>
     </row>
     <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="169" t="s">
-        <v>286</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>281</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B104" s="35"/>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
-      <c r="F104" s="207"/>
-      <c r="G104" s="207"/>
-      <c r="H104" s="207"/>
-      <c r="I104" s="207"/>
-      <c r="J104" s="200"/>
-      <c r="K104" s="200"/>
-      <c r="L104" s="200"/>
-      <c r="M104" s="301"/>
-      <c r="N104" s="302"/>
-      <c r="O104" s="196">
-        <v>1.26159941611927E-2</v>
-      </c>
-      <c r="P104" s="196">
-        <v>1.0914332784184499E-2</v>
-      </c>
-      <c r="Q104" s="196">
-        <v>7.1297616622529904E-3</v>
-      </c>
-      <c r="R104" s="196">
-        <v>4.9049352750809598E-3</v>
-      </c>
-      <c r="S104" s="196">
-        <v>4.8306747848840797E-3</v>
-      </c>
-      <c r="T104" s="196">
-        <v>3.5054334218038701E-3</v>
-      </c>
-      <c r="U104" s="196">
-        <v>2.14581565946403E-3</v>
-      </c>
-      <c r="V104" s="196">
-        <v>7.9673339308827796E-4</v>
-      </c>
-      <c r="W104" s="196">
-        <v>3.9804955716982198E-4</v>
-      </c>
-      <c r="X104" s="196">
-        <v>1.1439371331942701E-3</v>
-      </c>
-      <c r="Y104" s="196">
-        <v>8.9423220229512001E-4</v>
-      </c>
-      <c r="Z104" s="185">
-        <v>8.4379808408208102E-4</v>
-      </c>
+      <c r="F104" s="200"/>
+      <c r="G104" s="200">
+        <f t="shared" ref="G104:L104" si="64">(G103/F103)-1</f>
+        <v>7.8113264233139468E-3</v>
+      </c>
+      <c r="H104" s="200">
+        <f t="shared" si="64"/>
+        <v>6.3596164356336526E-3</v>
+      </c>
+      <c r="I104" s="200">
+        <f t="shared" si="64"/>
+        <v>1.3823747222907468E-3</v>
+      </c>
+      <c r="J104" s="200">
+        <f t="shared" si="64"/>
+        <v>3.5990731154167399E-3</v>
+      </c>
+      <c r="K104" s="200">
+        <f t="shared" si="64"/>
+        <v>2.6527805069758159E-3</v>
+      </c>
+      <c r="L104" s="200">
+        <f t="shared" si="64"/>
+        <v>-1.36697697207252E-2</v>
+      </c>
+      <c r="M104" s="302">
+        <v>-9.9592668024439668E-3</v>
+      </c>
+      <c r="N104" s="324">
+        <f>(N103/M103)-1</f>
+        <v>-4.2668250837534227E-3</v>
+      </c>
+      <c r="O104" s="252"/>
+      <c r="P104" s="252"/>
+      <c r="Q104" s="252"/>
+      <c r="R104" s="252"/>
+      <c r="S104" s="252"/>
+      <c r="T104" s="252"/>
+      <c r="U104" s="252"/>
+      <c r="V104" s="252"/>
+      <c r="W104" s="252"/>
+      <c r="X104" s="252"/>
+      <c r="Y104" s="252"/>
       <c r="AM104" s="234"/>
     </row>
-    <row r="105" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="35" t="s">
-        <v>216</v>
+    <row r="105" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="169" t="s">
+        <v>286</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="F105" s="207"/>
+      <c r="G105" s="207"/>
+      <c r="H105" s="207"/>
+      <c r="I105" s="207"/>
+      <c r="J105" s="200"/>
+      <c r="K105" s="200"/>
+      <c r="L105" s="200"/>
+      <c r="M105" s="301"/>
+      <c r="N105" s="302"/>
+      <c r="O105" s="196">
+        <v>1.26159941611927E-2</v>
+      </c>
+      <c r="P105" s="196">
+        <v>1.0914332784184499E-2</v>
+      </c>
+      <c r="Q105" s="196">
+        <v>7.1297616622529904E-3</v>
+      </c>
+      <c r="R105" s="196">
+        <v>4.9049352750809598E-3</v>
+      </c>
+      <c r="S105" s="196">
+        <v>4.8306747848840797E-3</v>
+      </c>
+      <c r="T105" s="196">
+        <v>3.5054334218038701E-3</v>
+      </c>
+      <c r="U105" s="196">
+        <v>2.14581565946403E-3</v>
+      </c>
+      <c r="V105" s="196">
+        <v>7.9673339308827796E-4</v>
+      </c>
+      <c r="W105" s="196">
+        <v>3.9804955716982198E-4</v>
+      </c>
+      <c r="X105" s="196">
+        <v>1.1439371331942701E-3</v>
+      </c>
+      <c r="Y105" s="196">
+        <v>8.9423220229512001E-4</v>
+      </c>
+      <c r="Z105" s="185">
+        <v>8.4379808408208102E-4</v>
+      </c>
+      <c r="AM105" s="234"/>
+    </row>
+    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" t="s">
         <v>321</v>
       </c>
-      <c r="D105"/>
-      <c r="F105" s="197"/>
-      <c r="G105" s="197"/>
-      <c r="H105" s="197"/>
-      <c r="I105" s="197"/>
-      <c r="J105" s="197">
-        <v>2357.4</v>
-      </c>
-      <c r="K105" s="197">
-        <v>2381.6</v>
-      </c>
-      <c r="L105" s="197">
-        <v>2334.5</v>
-      </c>
-      <c r="M105" s="301">
-        <v>2329.605</v>
-      </c>
-      <c r="N105" s="301">
-        <f>VLOOKUP($C$105,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>2337.201</v>
-      </c>
-      <c r="O105">
-        <v>2469.9411956560398</v>
-      </c>
-      <c r="P105">
-        <v>2511.3882460388099</v>
-      </c>
-      <c r="Q105">
-        <v>2543.4204311910298</v>
-      </c>
-      <c r="R105">
-        <v>2569.93355741499</v>
-      </c>
-      <c r="S105">
-        <v>2599.1521046822099</v>
-      </c>
-      <c r="T105">
-        <v>2626.53096564002</v>
-      </c>
-      <c r="U105">
-        <v>2651.2044055545698</v>
-      </c>
-      <c r="V105">
-        <v>2672.95599074239</v>
-      </c>
-      <c r="W105">
-        <v>2693.9500580381</v>
-      </c>
-      <c r="X105">
-        <v>2717.3248958518798</v>
-      </c>
-      <c r="Y105">
-        <v>2740.4832999822002</v>
-      </c>
-      <c r="AM105" s="233"/>
-    </row>
-    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D106"/>
       <c r="F106" s="197"/>
       <c r="G106" s="197"/>
       <c r="H106" s="197"/>
       <c r="I106" s="197"/>
-      <c r="J106" s="197"/>
-      <c r="K106" s="197"/>
-      <c r="L106" s="197"/>
-      <c r="M106" s="301"/>
-      <c r="N106" s="301"/>
+      <c r="J106" s="197">
+        <v>2357.4</v>
+      </c>
+      <c r="K106" s="197">
+        <v>2381.6</v>
+      </c>
+      <c r="L106" s="197">
+        <v>2334.5</v>
+      </c>
+      <c r="M106" s="301">
+        <v>2329.605</v>
+      </c>
+      <c r="N106" s="301">
+        <f>VLOOKUP($C$106,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+        <v>2337.201</v>
+      </c>
       <c r="O106">
-        <f>N106*(1+O109)</f>
+        <v>2469.9411956560398</v>
+      </c>
+      <c r="P106">
+        <v>2511.3882460388099</v>
+      </c>
+      <c r="Q106">
+        <v>2543.4204311910298</v>
+      </c>
+      <c r="R106">
+        <v>2569.93355741499</v>
+      </c>
+      <c r="S106">
+        <v>2599.1521046822099</v>
+      </c>
+      <c r="T106">
+        <v>2626.53096564002</v>
+      </c>
+      <c r="U106">
+        <v>2651.2044055545698</v>
+      </c>
+      <c r="V106">
+        <v>2672.95599074239</v>
+      </c>
+      <c r="W106">
+        <v>2693.9500580381</v>
+      </c>
+      <c r="X106">
+        <v>2717.3248958518798</v>
+      </c>
+      <c r="Y106">
+        <v>2740.4832999822002</v>
+      </c>
+      <c r="AM106" s="233"/>
+    </row>
+    <row r="107" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="197"/>
+      <c r="G107" s="197"/>
+      <c r="H107" s="197"/>
+      <c r="I107" s="197"/>
+      <c r="J107" s="197"/>
+      <c r="K107" s="197"/>
+      <c r="L107" s="197"/>
+      <c r="M107" s="301"/>
+      <c r="N107" s="301"/>
+      <c r="O107">
+        <f>N107*(1+O110)</f>
         <v>0</v>
       </c>
-      <c r="P106">
-        <f t="shared" ref="P106:S106" si="64">O106*(1+P109)</f>
+      <c r="P107">
+        <f t="shared" ref="P107:S107" si="65">O107*(1+P110)</f>
         <v>0</v>
       </c>
-      <c r="Q106">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <f>S106*(1+T108)</f>
-        <v>0</v>
-      </c>
-      <c r="U106">
-        <f t="shared" ref="U106:V106" si="65">T106*(1+U108)</f>
-        <v>0</v>
-      </c>
-      <c r="V106">
+      <c r="Q107">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
-      <c r="AM106" s="233"/>
-    </row>
-    <row r="107" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="169" t="s">
-        <v>285</v>
-      </c>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="F107" s="200"/>
-      <c r="G107" s="200"/>
-      <c r="H107" s="200"/>
-      <c r="I107" s="200"/>
-      <c r="J107" s="200"/>
-      <c r="K107" s="200">
-        <f t="shared" ref="K107" si="66">(K105/J105)-1</f>
-        <v>1.0265546788835067E-2</v>
-      </c>
-      <c r="L107" s="200">
-        <f t="shared" ref="L107" si="67">(L105/K105)-1</f>
-        <v>-1.9776620759153429E-2</v>
-      </c>
-      <c r="M107" s="302">
-        <v>-8.3608921686818549E-3</v>
-      </c>
-      <c r="N107" s="324">
-        <f>(((N105/M105))^4)-1</f>
-        <v>1.3106483787577172E-2</v>
-      </c>
-      <c r="O107" s="252"/>
-      <c r="P107" s="252"/>
-      <c r="Q107" s="252"/>
-      <c r="R107" s="252"/>
-      <c r="S107" s="252"/>
-      <c r="T107" s="252"/>
-      <c r="U107" s="252"/>
-      <c r="V107" s="252"/>
-      <c r="W107" s="252"/>
-      <c r="X107" s="252"/>
-      <c r="Y107" s="252"/>
-      <c r="AM107" s="234"/>
+      <c r="R107">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <f>S107*(1+T109)</f>
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <f t="shared" ref="U107:V107" si="66">T107*(1+U109)</f>
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="AM107" s="233"/>
     </row>
     <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="169" t="s">
-        <v>286</v>
-      </c>
-      <c r="F108" s="207"/>
-      <c r="G108" s="207"/>
-      <c r="H108" s="207"/>
-      <c r="I108" s="207"/>
-      <c r="J108" s="207"/>
-      <c r="K108" s="200"/>
-      <c r="L108" s="200"/>
-      <c r="M108" s="301"/>
-      <c r="N108" s="302"/>
-      <c r="O108" s="175">
-        <v>9.408690138332787E-4</v>
-      </c>
-      <c r="P108" s="175">
-        <v>9.1903906984696082E-3</v>
-      </c>
-      <c r="Q108" s="175">
-        <v>7.4547841924690328E-3</v>
-      </c>
-      <c r="R108" s="175">
-        <v>7.6518814378809807E-3</v>
-      </c>
-      <c r="S108" s="175">
-        <v>8.511703592439579E-3</v>
-      </c>
-      <c r="T108" s="175">
-        <v>9.0190724421828072E-3</v>
-      </c>
-      <c r="U108" s="175">
-        <v>9.512485136741855E-3</v>
-      </c>
-      <c r="V108" s="175">
-        <v>9.8290077576053125E-3</v>
-      </c>
-      <c r="W108" s="175">
-        <v>1.0779069299762689E-2</v>
-      </c>
-      <c r="X108" s="175">
-        <v>1.1818073295929432E-2</v>
-      </c>
-      <c r="Y108" s="175">
-        <v>1.2112631744533475E-2</v>
-      </c>
-      <c r="Z108" s="175">
-        <v>1.2395088591855785E-2</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="F108" s="200"/>
+      <c r="G108" s="200"/>
+      <c r="H108" s="200"/>
+      <c r="I108" s="200"/>
+      <c r="J108" s="200"/>
+      <c r="K108" s="200">
+        <f t="shared" ref="K108" si="67">(K106/J106)-1</f>
+        <v>1.0265546788835067E-2</v>
+      </c>
+      <c r="L108" s="200">
+        <f t="shared" ref="L108" si="68">(L106/K106)-1</f>
+        <v>-1.9776620759153429E-2</v>
+      </c>
+      <c r="M108" s="302">
+        <v>-8.3608921686818549E-3</v>
+      </c>
+      <c r="N108" s="324">
+        <f>(((N106/M106))^4)-1</f>
+        <v>1.3106483787577172E-2</v>
+      </c>
+      <c r="O108" s="252"/>
+      <c r="P108" s="252"/>
+      <c r="Q108" s="252"/>
+      <c r="R108" s="252"/>
+      <c r="S108" s="252"/>
+      <c r="T108" s="252"/>
+      <c r="U108" s="252"/>
+      <c r="V108" s="252"/>
+      <c r="W108" s="252"/>
+      <c r="X108" s="252"/>
+      <c r="Y108" s="252"/>
       <c r="AM108" s="234"/>
     </row>
     <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="169" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="F109" s="207"/>
       <c r="G109" s="207"/>
@@ -10897,354 +10885,380 @@
       <c r="M109" s="301"/>
       <c r="N109" s="302"/>
       <c r="O109" s="175">
+        <v>9.408690138332787E-4</v>
+      </c>
+      <c r="P109" s="175">
+        <v>9.1903906984696082E-3</v>
+      </c>
+      <c r="Q109" s="175">
+        <v>7.4547841924690328E-3</v>
+      </c>
+      <c r="R109" s="175">
+        <v>7.6518814378809807E-3</v>
+      </c>
+      <c r="S109" s="175">
+        <v>8.511703592439579E-3</v>
+      </c>
+      <c r="T109" s="175">
+        <v>9.0190724421828072E-3</v>
+      </c>
+      <c r="U109" s="175">
+        <v>9.512485136741855E-3</v>
+      </c>
+      <c r="V109" s="175">
+        <v>9.8290077576053125E-3</v>
+      </c>
+      <c r="W109" s="175">
+        <v>1.0779069299762689E-2</v>
+      </c>
+      <c r="X109" s="175">
+        <v>1.1818073295929432E-2</v>
+      </c>
+      <c r="Y109" s="175">
+        <v>1.2112631744533475E-2</v>
+      </c>
+      <c r="Z109" s="175">
+        <v>1.2395088591855785E-2</v>
+      </c>
+      <c r="AM109" s="234"/>
+    </row>
+    <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="169" t="s">
+        <v>373</v>
+      </c>
+      <c r="F110" s="207"/>
+      <c r="G110" s="207"/>
+      <c r="H110" s="207"/>
+      <c r="I110" s="207"/>
+      <c r="J110" s="207"/>
+      <c r="K110" s="200"/>
+      <c r="L110" s="200"/>
+      <c r="M110" s="301"/>
+      <c r="N110" s="302"/>
+      <c r="O110" s="175">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="P109" s="175">
+      <c r="P110" s="175">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q109" s="175">
+      <c r="Q110" s="175">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R109" s="175">
+      <c r="R110" s="175">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="S109" s="175">
+      <c r="S110" s="175">
         <v>0.01</v>
       </c>
-      <c r="T109" s="175"/>
-      <c r="U109" s="175"/>
-      <c r="V109" s="175"/>
-      <c r="AM109" s="234"/>
-    </row>
-    <row r="110" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="35" t="s">
+      <c r="T110" s="175"/>
+      <c r="U110" s="175"/>
+      <c r="V110" s="175"/>
+      <c r="AM110" s="234"/>
+    </row>
+    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F110" s="201">
-        <f t="shared" ref="F110:L110" si="68">F96+F46-F92</f>
+      <c r="F111" s="201">
+        <f t="shared" ref="F111:L111" si="69">F97+F46-F93</f>
         <v>339220</v>
       </c>
-      <c r="G110" s="201">
-        <f t="shared" si="68"/>
+      <c r="G111" s="201">
+        <f t="shared" si="69"/>
         <v>334185</v>
       </c>
-      <c r="H110" s="201">
-        <f t="shared" si="68"/>
+      <c r="H111" s="201">
+        <f t="shared" si="69"/>
         <v>335532</v>
       </c>
-      <c r="I110" s="201">
-        <f t="shared" si="68"/>
+      <c r="I111" s="201">
+        <f t="shared" si="69"/>
         <v>344546</v>
       </c>
-      <c r="J110" s="201">
-        <f t="shared" si="68"/>
+      <c r="J111" s="201">
+        <f t="shared" si="69"/>
         <v>349558</v>
       </c>
-      <c r="K110" s="201">
-        <f t="shared" si="68"/>
+      <c r="K111" s="201">
+        <f t="shared" si="69"/>
         <v>343658</v>
       </c>
-      <c r="L110" s="201">
-        <f t="shared" si="68"/>
+      <c r="L111" s="201">
+        <f t="shared" si="69"/>
         <v>560584.66666666674</v>
       </c>
-      <c r="M110" s="301">
+      <c r="M111" s="301">
         <v>528408</v>
       </c>
-      <c r="N110" s="306">
-        <f t="shared" ref="N110:Y110" si="69">N96+N46-N92</f>
+      <c r="N111" s="306">
+        <f t="shared" ref="N111:Y111" si="70">N97+N46-N93</f>
         <v>343247</v>
       </c>
-      <c r="O110" s="215">
-        <f t="shared" si="69"/>
+      <c r="O111" s="215">
+        <f t="shared" si="70"/>
         <v>383773.58690641256</v>
       </c>
-      <c r="P110" s="215">
-        <f t="shared" si="69"/>
+      <c r="P111" s="215">
+        <f t="shared" si="70"/>
         <v>369916.53105964203</v>
       </c>
-      <c r="Q110" s="215">
-        <f t="shared" si="69"/>
+      <c r="Q111" s="215">
+        <f t="shared" si="70"/>
         <v>370645.703294267</v>
       </c>
-      <c r="R110" s="215">
-        <f t="shared" si="69"/>
+      <c r="R111" s="215">
+        <f t="shared" si="70"/>
         <v>371744.93043796421</v>
       </c>
-      <c r="S110" s="215">
-        <f t="shared" si="69"/>
+      <c r="S111" s="215">
+        <f t="shared" si="70"/>
         <v>373221.55890099745</v>
       </c>
-      <c r="T110" s="215">
-        <f t="shared" si="69"/>
+      <c r="T111" s="215">
+        <f t="shared" si="70"/>
         <v>416124.06265897548</v>
       </c>
-      <c r="U110" s="215">
-        <f t="shared" si="69"/>
+      <c r="U111" s="215">
+        <f t="shared" si="70"/>
         <v>417555.5449371516</v>
       </c>
-      <c r="V110" s="215">
-        <f t="shared" si="69"/>
+      <c r="V111" s="215">
+        <f t="shared" si="70"/>
         <v>419048.72903766285</v>
       </c>
-      <c r="W110" s="215">
-        <f t="shared" si="69"/>
+      <c r="W111" s="215">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X110" s="215">
-        <f t="shared" si="69"/>
+      <c r="X111" s="215">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="Y110" s="215">
-        <f t="shared" si="69"/>
+      <c r="Y111" s="215">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AM110" s="233"/>
-    </row>
-    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="141" t="s">
+      <c r="AM111" s="233"/>
+    </row>
+    <row r="112" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="B111" s="141"/>
-      <c r="E111" s="141"/>
-      <c r="F111" s="201">
-        <f t="shared" ref="F111:L111" si="70">F99-F92</f>
+      <c r="B112" s="141"/>
+      <c r="E112" s="141"/>
+      <c r="F112" s="201">
+        <f t="shared" ref="F112:L112" si="71">F100-F93</f>
         <v>200195</v>
       </c>
-      <c r="G111" s="201">
-        <f t="shared" si="70"/>
+      <c r="G112" s="201">
+        <f t="shared" si="71"/>
         <v>194843</v>
       </c>
-      <c r="H111" s="201">
-        <f t="shared" si="70"/>
+      <c r="H112" s="201">
+        <f t="shared" si="71"/>
         <v>195304</v>
       </c>
-      <c r="I111" s="201">
-        <f t="shared" si="70"/>
+      <c r="I112" s="201">
+        <f t="shared" si="71"/>
         <v>203441</v>
       </c>
-      <c r="J111" s="201">
-        <f t="shared" si="70"/>
+      <c r="J112" s="201">
+        <f t="shared" si="71"/>
         <v>208223</v>
       </c>
-      <c r="K111" s="201">
-        <f t="shared" si="70"/>
+      <c r="K112" s="201">
+        <f t="shared" si="71"/>
         <v>200667</v>
       </c>
-      <c r="L111" s="201">
-        <f t="shared" si="70"/>
+      <c r="L112" s="201">
+        <f t="shared" si="71"/>
         <v>156183</v>
       </c>
-      <c r="M111" s="301">
+      <c r="M112" s="301">
         <v>197631</v>
       </c>
-      <c r="N111" s="306">
-        <f>N99-N92</f>
+      <c r="N112" s="306">
+        <f>N100-N93</f>
         <v>161439</v>
       </c>
-      <c r="O111" s="142">
-        <f t="shared" ref="O111:Y111" si="71">O99-O92</f>
+      <c r="O112" s="142">
+        <f t="shared" ref="O112:Y112" si="72">O100-O93</f>
         <v>178302.81690641254</v>
       </c>
-      <c r="P111" s="142">
-        <f t="shared" si="71"/>
+      <c r="P112" s="142">
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="Q111" s="142">
-        <f t="shared" si="71"/>
+      <c r="Q112" s="142">
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="R111" s="142">
-        <f t="shared" si="71"/>
+      <c r="R112" s="142">
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="S111" s="142">
-        <f t="shared" si="71"/>
+      <c r="S112" s="142">
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="T111" s="142">
-        <f t="shared" si="71"/>
+      <c r="T112" s="142">
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="U111" s="142">
-        <f t="shared" si="71"/>
+      <c r="U112" s="142">
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="V111" s="142">
-        <f t="shared" si="71"/>
+      <c r="V112" s="142">
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="W111" s="142">
-        <f t="shared" si="71"/>
+      <c r="W112" s="142">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="X111" s="142">
-        <f t="shared" si="71"/>
+      <c r="X112" s="142">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="Y111" s="142">
-        <f t="shared" si="71"/>
+      <c r="Y112" s="142">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AM111" s="233"/>
-    </row>
-    <row r="112" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="141" t="s">
+      <c r="AM112" s="233"/>
+    </row>
+    <row r="113" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="F112" s="201">
-        <f t="shared" ref="F112:K112" si="72">F110-F111</f>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="F113" s="201">
+        <f t="shared" ref="F113:K113" si="73">F111-F112</f>
         <v>139025</v>
       </c>
-      <c r="G112" s="201">
-        <f t="shared" si="72"/>
+      <c r="G113" s="201">
+        <f t="shared" si="73"/>
         <v>139342</v>
       </c>
-      <c r="H112" s="201">
-        <f t="shared" si="72"/>
+      <c r="H113" s="201">
+        <f t="shared" si="73"/>
         <v>140228</v>
       </c>
-      <c r="I112" s="201">
-        <f t="shared" si="72"/>
+      <c r="I113" s="201">
+        <f t="shared" si="73"/>
         <v>141105</v>
       </c>
-      <c r="J112" s="201">
-        <f t="shared" si="72"/>
+      <c r="J113" s="201">
+        <f t="shared" si="73"/>
         <v>141335</v>
       </c>
-      <c r="K112" s="201">
-        <f t="shared" si="72"/>
+      <c r="K113" s="201">
+        <f t="shared" si="73"/>
         <v>142991</v>
       </c>
-      <c r="L112" s="201">
-        <f>L110-L111</f>
+      <c r="L113" s="201">
+        <f>L111-L112</f>
         <v>404401.66666666674</v>
       </c>
-      <c r="M112" s="306">
+      <c r="M113" s="306">
         <v>330777</v>
       </c>
-      <c r="N112" s="306">
-        <f>N110-N111</f>
+      <c r="N113" s="306">
+        <f>N111-N112</f>
         <v>181808</v>
       </c>
-      <c r="O112" s="142">
-        <f t="shared" ref="O112:Y112" si="73">O110-O111</f>
+      <c r="O113" s="142">
+        <f t="shared" ref="O113:Y113" si="74">O111-O112</f>
         <v>205470.77000000002</v>
       </c>
-      <c r="P112" s="142">
-        <f t="shared" si="73"/>
+      <c r="P113" s="142">
+        <f t="shared" si="74"/>
         <v>189834.44692499994</v>
       </c>
-      <c r="Q112" s="142">
-        <f t="shared" si="73"/>
+      <c r="Q113" s="142">
+        <f t="shared" si="74"/>
         <v>190563.61915962491</v>
       </c>
-      <c r="R112" s="142">
-        <f t="shared" si="73"/>
+      <c r="R113" s="142">
+        <f t="shared" si="74"/>
         <v>191662.84630332212</v>
       </c>
-      <c r="S112" s="142">
-        <f t="shared" si="73"/>
+      <c r="S113" s="142">
+        <f t="shared" si="74"/>
         <v>193139.47476635536</v>
       </c>
-      <c r="T112" s="142">
-        <f t="shared" si="73"/>
+      <c r="T113" s="142">
+        <f t="shared" si="74"/>
         <v>194484.57449326222</v>
       </c>
-      <c r="U112" s="142">
-        <f t="shared" si="73"/>
+      <c r="U113" s="142">
+        <f t="shared" si="74"/>
         <v>195916.05677143834</v>
       </c>
-      <c r="V112" s="142">
-        <f t="shared" si="73"/>
+      <c r="V113" s="142">
+        <f t="shared" si="74"/>
         <v>197409.24087194959</v>
       </c>
-      <c r="W112" s="142">
-        <f t="shared" si="73"/>
+      <c r="W113" s="142">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="X112" s="142">
-        <f t="shared" si="73"/>
+      <c r="X113" s="142">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="Y112" s="142">
-        <f t="shared" si="73"/>
+      <c r="Y113" s="142">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="AM112" s="256"/>
-    </row>
-    <row r="113" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113"/>
-      <c r="F113" s="213"/>
-      <c r="G113" s="213"/>
-      <c r="H113" s="213"/>
-      <c r="I113" s="213"/>
-      <c r="J113" s="213"/>
-      <c r="K113" s="213"/>
-      <c r="L113" s="135"/>
-      <c r="M113" s="135"/>
-      <c r="N113" s="94"/>
-      <c r="O113" s="94"/>
-      <c r="P113" s="94"/>
-      <c r="Q113" s="94"/>
-      <c r="R113" s="94"/>
-      <c r="S113" s="94"/>
-      <c r="T113" s="94"/>
-      <c r="U113" s="94"/>
-      <c r="V113"/>
-      <c r="AM113" s="233"/>
-    </row>
-    <row r="114" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="169"/>
-      <c r="F114" s="193"/>
-      <c r="G114" s="193"/>
-      <c r="H114" s="193"/>
-      <c r="I114" s="193"/>
-      <c r="J114" s="193"/>
-      <c r="K114" s="193"/>
-      <c r="L114" s="193"/>
-      <c r="M114" s="214"/>
-      <c r="N114" s="193"/>
-      <c r="O114" s="193"/>
-      <c r="P114" s="193"/>
-      <c r="Q114" s="193"/>
-      <c r="R114" s="193"/>
-      <c r="S114" s="193"/>
-      <c r="T114" s="193"/>
-      <c r="U114" s="193"/>
-      <c r="AM114" s="234"/>
-    </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="AM113" s="256"/>
+    </row>
+    <row r="114" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+      <c r="F114" s="213"/>
+      <c r="G114" s="213"/>
+      <c r="H114" s="213"/>
+      <c r="I114" s="213"/>
+      <c r="J114" s="213"/>
+      <c r="K114" s="213"/>
+      <c r="L114" s="135"/>
+      <c r="M114" s="135"/>
+      <c r="N114" s="94"/>
+      <c r="O114" s="94"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="94"/>
+      <c r="R114" s="94"/>
+      <c r="S114" s="94"/>
+      <c r="T114" s="94"/>
+      <c r="U114" s="94"/>
+      <c r="V114"/>
+      <c r="AM114" s="233"/>
+    </row>
+    <row r="115" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="169"/>
+      <c r="F115" s="193"/>
+      <c r="G115" s="193"/>
+      <c r="H115" s="193"/>
+      <c r="I115" s="193"/>
+      <c r="J115" s="193"/>
+      <c r="K115" s="193"/>
+      <c r="L115" s="193"/>
+      <c r="M115" s="214"/>
+      <c r="N115" s="193"/>
+      <c r="O115" s="193"/>
+      <c r="P115" s="193"/>
+      <c r="Q115" s="193"/>
+      <c r="R115" s="193"/>
+      <c r="S115" s="193"/>
+      <c r="T115" s="193"/>
+      <c r="U115" s="193"/>
+      <c r="AM115" s="234"/>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>158</v>
       </c>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="35"/>
-      <c r="U115" s="35"/>
-      <c r="V115" s="35"/>
-      <c r="X115" s="35"/>
-      <c r="Y115" s="35"/>
-      <c r="Z115" s="35"/>
-      <c r="AA115" s="35"/>
-      <c r="AB115" s="35"/>
-      <c r="AC115" s="35"/>
-      <c r="AD115" s="35"/>
-      <c r="AE115" s="35"/>
-      <c r="AF115" s="35"/>
-      <c r="AG115" s="35"/>
-      <c r="AH115" s="35"/>
-      <c r="AI115" s="35"/>
-    </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L116" s="35"/>
       <c r="M116" s="35"/>
       <c r="N116" s="35"/>
@@ -11368,6 +11382,31 @@
       <c r="AG120" s="35"/>
       <c r="AH120" s="35"/>
       <c r="AI120" s="35"/>
+    </row>
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
+      <c r="N121" s="35"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="35"/>
+      <c r="Q121" s="35"/>
+      <c r="R121" s="35"/>
+      <c r="S121" s="35"/>
+      <c r="T121" s="35"/>
+      <c r="U121" s="35"/>
+      <c r="V121" s="35"/>
+      <c r="X121" s="35"/>
+      <c r="Y121" s="35"/>
+      <c r="Z121" s="35"/>
+      <c r="AA121" s="35"/>
+      <c r="AB121" s="35"/>
+      <c r="AC121" s="35"/>
+      <c r="AD121" s="35"/>
+      <c r="AE121" s="35"/>
+      <c r="AF121" s="35"/>
+      <c r="AG121" s="35"/>
+      <c r="AH121" s="35"/>
+      <c r="AI121" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12959,7 +12998,7 @@
         <v>223</v>
       </c>
       <c r="F15" s="94">
-        <f>main!K101</f>
+        <f>main!K102</f>
         <v>0.67846773573296415</v>
       </c>
       <c r="G15" s="94">
@@ -14982,68 +15021,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="351" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
-      <c r="J2" s="356"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="351" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="362" t="s">
+      <c r="A4" s="352"/>
+      <c r="B4" s="352"/>
+      <c r="C4" s="352"/>
+      <c r="D4" s="352"/>
+      <c r="E4" s="352"/>
+      <c r="F4" s="352"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="357" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362"/>
-      <c r="N4" s="362"/>
+      <c r="L4" s="357"/>
+      <c r="M4" s="357"/>
+      <c r="N4" s="357"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="358" t="s">
+      <c r="C5" s="353" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="360"/>
+      <c r="D5" s="354"/>
+      <c r="E5" s="354"/>
+      <c r="F5" s="354"/>
+      <c r="G5" s="354"/>
+      <c r="H5" s="354"/>
+      <c r="I5" s="354"/>
+      <c r="J5" s="355"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="361" t="s">
+      <c r="L5" s="356" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="327"/>
@@ -15054,16 +15093,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="352">
+      <c r="C6" s="359">
         <v>2020</v>
       </c>
-      <c r="D6" s="353"/>
-      <c r="E6" s="353"/>
-      <c r="F6" s="353"/>
-      <c r="G6" s="353"/>
-      <c r="H6" s="353"/>
-      <c r="I6" s="353"/>
-      <c r="J6" s="354"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15535,12 +15574,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="355" t="s">
+      <c r="K23" s="362" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="355"/>
-      <c r="M23" s="355"/>
-      <c r="N23" s="355"/>
+      <c r="L23" s="362"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="362"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15709,7 +15748,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="351" t="s">
+      <c r="I28" s="358" t="s">
         <v>258</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15759,7 +15798,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="351"/>
+      <c r="I29" s="358"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15807,7 +15846,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="351"/>
+      <c r="I30" s="358"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15855,7 +15894,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="351"/>
+      <c r="I31" s="358"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15917,7 +15956,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="351" t="s">
+      <c r="I33" s="358" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15965,7 +16004,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="351"/>
+      <c r="I34" s="358"/>
       <c r="J34" t="s">
         <v>259</v>
       </c>
@@ -16202,12 +16241,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16215,6 +16248,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16321,22 +16360,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="364" t="s">
+      <c r="E6" s="366" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="364"/>
-      <c r="O6" s="364"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="364"/>
-      <c r="R6" s="364"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="366"/>
+      <c r="I6" s="366"/>
+      <c r="J6" s="366"/>
+      <c r="K6" s="366"/>
+      <c r="L6" s="366"/>
+      <c r="M6" s="366"/>
+      <c r="N6" s="366"/>
+      <c r="O6" s="366"/>
+      <c r="P6" s="366"/>
+      <c r="Q6" s="366"/>
+      <c r="R6" s="366"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="363" t="s">
@@ -17072,21 +17111,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="365" t="s">
+      <c r="H27" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="365"/>
-      <c r="J27" s="365"/>
-      <c r="K27" s="365"/>
-      <c r="L27" s="365"/>
-      <c r="M27" s="365"/>
-      <c r="N27" s="365"/>
-      <c r="O27" s="365"/>
-      <c r="P27" s="365"/>
-      <c r="Q27" s="365"/>
-      <c r="R27" s="365"/>
-      <c r="S27" s="365"/>
-      <c r="T27" s="365"/>
+      <c r="I27" s="364"/>
+      <c r="J27" s="364"/>
+      <c r="K27" s="364"/>
+      <c r="L27" s="364"/>
+      <c r="M27" s="364"/>
+      <c r="N27" s="364"/>
+      <c r="O27" s="364"/>
+      <c r="P27" s="364"/>
+      <c r="Q27" s="364"/>
+      <c r="R27" s="364"/>
+      <c r="S27" s="364"/>
+      <c r="T27" s="364"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -17402,21 +17441,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="366" t="s">
+      <c r="F37" s="365" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="366"/>
-      <c r="H37" s="366"/>
-      <c r="I37" s="366"/>
-      <c r="J37" s="366"/>
-      <c r="K37" s="366"/>
-      <c r="L37" s="366"/>
-      <c r="M37" s="366"/>
-      <c r="N37" s="366"/>
-      <c r="O37" s="366"/>
-      <c r="P37" s="366"/>
-      <c r="Q37" s="366"/>
-      <c r="R37" s="366"/>
+      <c r="G37" s="365"/>
+      <c r="H37" s="365"/>
+      <c r="I37" s="365"/>
+      <c r="J37" s="365"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="365"/>
+      <c r="M37" s="365"/>
+      <c r="N37" s="365"/>
+      <c r="O37" s="365"/>
+      <c r="P37" s="365"/>
+      <c r="Q37" s="365"/>
+      <c r="R37" s="365"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17732,21 +17771,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="365" t="s">
+      <c r="F48" s="364" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="365"/>
-      <c r="H48" s="365"/>
-      <c r="I48" s="365"/>
-      <c r="J48" s="365"/>
-      <c r="K48" s="365"/>
-      <c r="L48" s="365"/>
-      <c r="M48" s="365"/>
-      <c r="N48" s="365"/>
-      <c r="O48" s="365"/>
-      <c r="P48" s="365"/>
-      <c r="Q48" s="365"/>
-      <c r="R48" s="365"/>
+      <c r="G48" s="364"/>
+      <c r="H48" s="364"/>
+      <c r="I48" s="364"/>
+      <c r="J48" s="364"/>
+      <c r="K48" s="364"/>
+      <c r="L48" s="364"/>
+      <c r="M48" s="364"/>
+      <c r="N48" s="364"/>
+      <c r="O48" s="364"/>
+      <c r="P48" s="364"/>
+      <c r="Q48" s="364"/>
+      <c r="R48" s="364"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -18058,6 +18097,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18066,12 +18111,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23386,43 +23425,43 @@
         <v>184</v>
       </c>
       <c r="D21" s="102">
-        <f>main!L111/1000</f>
+        <f>main!L112/1000</f>
         <v>156.18299999999999</v>
       </c>
       <c r="E21" s="104">
-        <f>main!M111/1000</f>
+        <f>main!M112/1000</f>
         <v>197.631</v>
       </c>
       <c r="F21" s="104">
-        <f>main!N111/1000</f>
+        <f>main!N112/1000</f>
         <v>161.43899999999999</v>
       </c>
       <c r="G21" s="149">
-        <f>main!O111/1000</f>
+        <f>main!O112/1000</f>
         <v>178.30281690641254</v>
       </c>
       <c r="H21" s="104">
-        <f>main!P111/1000</f>
+        <f>main!P112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="I21" s="104">
-        <f>main!Q111/1000</f>
+        <f>main!Q112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="J21" s="104">
-        <f>main!R111/1000</f>
+        <f>main!R112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="K21" s="149">
-        <f>main!S111/1000</f>
+        <f>main!S112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="L21" s="104">
-        <f>main!T111/1000</f>
+        <f>main!T112/1000</f>
         <v>221.63948816571326</v>
       </c>
       <c r="M21" s="223">
-        <f>main!U111/1000</f>
+        <f>main!U112/1000</f>
         <v>221.63948816571326</v>
       </c>
       <c r="N21" s="104">
@@ -23832,35 +23871,35 @@
       </c>
       <c r="D28" s="102"/>
       <c r="E28" s="104">
-        <f>main!L112/1000</f>
+        <f>main!L113/1000</f>
         <v>404.40166666666676</v>
       </c>
       <c r="F28" s="104">
-        <f>main!M112/1000</f>
+        <f>main!M113/1000</f>
         <v>330.77699999999999</v>
       </c>
       <c r="G28" s="104">
-        <f>main!N112/1000</f>
+        <f>main!N113/1000</f>
         <v>181.80799999999999</v>
       </c>
       <c r="H28" s="104">
-        <f>main!O112/1000</f>
+        <f>main!O113/1000</f>
         <v>205.47077000000002</v>
       </c>
       <c r="I28" s="104">
-        <f>main!P112/1000</f>
+        <f>main!P113/1000</f>
         <v>189.83444692499995</v>
       </c>
       <c r="J28" s="104">
-        <f>main!Q112/1000</f>
+        <f>main!Q113/1000</f>
         <v>190.56361915962492</v>
       </c>
       <c r="K28" s="104">
-        <f>main!R112/1000</f>
+        <f>main!R113/1000</f>
         <v>191.66284630332211</v>
       </c>
       <c r="L28" s="104">
-        <f>main!S112/1000</f>
+        <f>main!S113/1000</f>
         <v>193.13947476635536</v>
       </c>
       <c r="M28" s="104">
@@ -24789,27 +24828,27 @@
       </c>
       <c r="D47" s="102"/>
       <c r="E47" s="104">
-        <f>main!L94/1000</f>
+        <f>main!L95/1000</f>
         <v>1336.6980000000001</v>
       </c>
       <c r="F47" s="104">
-        <f>main!M94/1000</f>
+        <f>main!M95/1000</f>
         <v>1328.8050000000001</v>
       </c>
       <c r="G47" s="149">
-        <f>main!N94/1000</f>
+        <f>main!N95/1000</f>
         <v>1372.787</v>
       </c>
       <c r="H47" s="104">
-        <f>main!O94/1000</f>
+        <f>main!O95/1000</f>
         <v>1390.6101625906522</v>
       </c>
       <c r="I47" s="104">
-        <f>main!P94/1000</f>
+        <f>main!P95/1000</f>
         <v>1418.489158978964</v>
       </c>
       <c r="J47" s="223">
-        <f>main!Q94/1000</f>
+        <f>main!Q95/1000</f>
         <v>1441.5834808422039</v>
       </c>
       <c r="K47" s="149">
@@ -25239,35 +25278,35 @@
         <v>189</v>
       </c>
       <c r="D54" s="102">
-        <f>main!K93/1000</f>
+        <f>main!K94/1000</f>
         <v>1574.462</v>
       </c>
       <c r="E54" s="104">
-        <f>main!L93/1000</f>
+        <f>main!L94/1000</f>
         <v>3729.5573333333332</v>
       </c>
       <c r="F54" s="104">
-        <f>main!M93/1000</f>
+        <f>main!M94/1000</f>
         <v>2466.0010000000002</v>
       </c>
       <c r="G54" s="149">
-        <f>main!N93/1000</f>
+        <f>main!N94/1000</f>
         <v>2027.7929999999999</v>
       </c>
       <c r="H54" s="104">
-        <f>main!O93/1000</f>
+        <f>main!O94/1000</f>
         <v>3107.7013980484894</v>
       </c>
       <c r="I54" s="104">
-        <f>main!P93/1000</f>
+        <f>main!P94/1000</f>
         <v>1874.8488739812499</v>
       </c>
       <c r="J54" s="104">
-        <f>main!Q93/1000</f>
+        <f>main!Q94/1000</f>
         <v>1686.4675074263907</v>
       </c>
       <c r="K54" s="263">
-        <f>main!R93/1000</f>
+        <f>main!R94/1000</f>
         <v>1683.0445200377862</v>
       </c>
       <c r="L54" s="104">
@@ -26150,51 +26189,51 @@
       </c>
       <c r="D68" s="100"/>
       <c r="E68" s="218">
-        <f>main!L82/1000</f>
-        <v>282.64999999999998</v>
+        <f>main!L83/1000</f>
+        <v>321.35000000000002</v>
       </c>
       <c r="F68" s="218">
-        <f>main!M82/1000</f>
-        <v>300.60000000000002</v>
+        <f>main!M83/1000</f>
+        <v>291.39999999999998</v>
       </c>
       <c r="G68" s="151">
-        <f>main!N82/1000</f>
+        <f>main!N83/1000</f>
         <v>284.15100000000001</v>
       </c>
       <c r="H68" s="218">
-        <f>main!O82/1000</f>
+        <f>main!O83/1000</f>
         <v>346.73880400000002</v>
       </c>
       <c r="I68" s="218">
-        <f>main!P82/1000</f>
+        <f>main!P83/1000</f>
         <v>319.529759216</v>
       </c>
       <c r="J68" s="218">
-        <f>main!Q82/1000</f>
+        <f>main!Q83/1000</f>
         <v>320.32387825286401</v>
       </c>
       <c r="K68" s="151">
-        <f>main!R82/1000</f>
+        <f>main!R83/1000</f>
         <v>315.12117376587548</v>
       </c>
       <c r="L68" s="218">
-        <f>main!S82/1000</f>
+        <f>main!S83/1000</f>
         <v>309.92165846093894</v>
       </c>
       <c r="M68" s="218">
-        <f>main!T82/1000</f>
+        <f>main!T83/1000</f>
         <v>310.72534509478271</v>
       </c>
       <c r="N68" s="218">
-        <f>main!U82/1000</f>
+        <f>main!U83/1000</f>
         <v>311.53224647516186</v>
       </c>
       <c r="O68" s="151">
-        <f>main!V82/1000</f>
+        <f>main!V83/1000</f>
         <v>312.34237546106249</v>
       </c>
       <c r="P68" s="248">
-        <f>main!W82/1000</f>
+        <f>main!W83/1000</f>
         <v>313.15574496290668</v>
       </c>
       <c r="Q68" s="248">
@@ -26413,7 +26452,7 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>0</v>
+        <v>-9.2000000000000455</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
@@ -26648,7 +26687,7 @@
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E68</f>
-        <v>282.64999999999998</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="K2" s="102">
         <f>main!L$40/1000</f>
@@ -26706,11 +26745,11 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>0</v>
+        <v>-9.2000000000000455</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
-        <v>300.60000000000002</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="K3" s="102">
         <f>main!M$40/1000</f>
@@ -27972,71 +28011,71 @@
         <v>15</v>
       </c>
       <c r="D5" s="197">
-        <f>main!F96</f>
+        <f>main!F97</f>
         <v>728844</v>
       </c>
       <c r="E5" s="197">
-        <f>main!G96</f>
+        <f>main!G97</f>
         <v>738714</v>
       </c>
       <c r="F5" s="197">
-        <f>main!H96</f>
+        <f>main!H97</f>
         <v>755204</v>
       </c>
       <c r="G5" s="197">
-        <f>main!I96</f>
+        <f>main!I97</f>
         <v>763370</v>
       </c>
       <c r="H5" s="197">
-        <f>main!J96</f>
+        <f>main!J97</f>
         <v>760967</v>
       </c>
       <c r="I5" s="197">
-        <f>main!K96</f>
+        <f>main!K97</f>
         <v>767087</v>
       </c>
       <c r="J5" s="197">
-        <f>main!L96</f>
+        <f>main!L97</f>
         <v>812158</v>
       </c>
       <c r="K5" s="197">
-        <f>main!M96</f>
+        <f>main!M97</f>
         <v>828480</v>
       </c>
       <c r="L5" s="262">
-        <f>main!N96</f>
+        <f>main!N97</f>
         <v>818740</v>
       </c>
       <c r="M5" s="262">
-        <f>main!O96</f>
+        <f>main!O97</f>
         <v>831250.83502466371</v>
       </c>
       <c r="N5" s="262">
-        <f>main!P96</f>
+        <f>main!P97</f>
         <v>838457.84744285408</v>
       </c>
       <c r="O5" s="262">
-        <f>main!Q96</f>
+        <f>main!Q97</f>
         <v>839187.01967747905</v>
       </c>
       <c r="P5" s="262">
-        <f>main!R96</f>
+        <f>main!R97</f>
         <v>840286.24682117626</v>
       </c>
       <c r="Q5" s="262">
-        <f>main!S96</f>
+        <f>main!S97</f>
         <v>841762.8752842095</v>
       </c>
       <c r="R5" s="262">
-        <f>main!T96</f>
+        <f>main!T97</f>
         <v>843107.97501111636</v>
       </c>
       <c r="S5" s="262">
-        <f>main!U96</f>
+        <f>main!U97</f>
         <v>844539.45728929248</v>
       </c>
       <c r="T5" s="262">
-        <f>main!V96</f>
+        <f>main!V97</f>
         <v>846032.64138980373</v>
       </c>
       <c r="U5" s="262"/>
@@ -28049,71 +28088,71 @@
         <v>213</v>
       </c>
       <c r="D6" s="197">
-        <f>main!F99</f>
+        <f>main!F100</f>
         <v>589819</v>
       </c>
       <c r="E6" s="197">
-        <f>main!G99</f>
+        <f>main!G100</f>
         <v>599372</v>
       </c>
       <c r="F6" s="197">
-        <f>main!H99</f>
+        <f>main!H100</f>
         <v>614976</v>
       </c>
       <c r="G6" s="197">
-        <f>main!I99</f>
+        <f>main!I100</f>
         <v>622265</v>
       </c>
       <c r="H6" s="197">
-        <f>main!J99</f>
+        <f>main!J100</f>
         <v>619632</v>
       </c>
       <c r="I6" s="197">
-        <f>main!K99</f>
+        <f>main!K100</f>
         <v>624096</v>
       </c>
       <c r="J6" s="197">
-        <f>main!L99</f>
+        <f>main!L100</f>
         <v>668823</v>
       </c>
       <c r="K6" s="197">
-        <f>main!M99</f>
+        <f>main!M100</f>
         <v>683703</v>
       </c>
       <c r="L6" s="35">
-        <f>main!N99</f>
+        <f>main!N100</f>
         <v>673632</v>
       </c>
       <c r="M6" s="35">
-        <f>main!O99</f>
+        <f>main!O100</f>
         <v>685780.06502466369</v>
       </c>
       <c r="N6" s="35">
-        <f>main!P99</f>
+        <f>main!P100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="O6" s="35">
-        <f>main!Q99</f>
+        <f>main!Q100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="P6" s="35">
-        <f>main!R99</f>
+        <f>main!R100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="Q6" s="35">
-        <f>main!S99</f>
+        <f>main!S100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="R6" s="35">
-        <f>main!T99</f>
+        <f>main!T100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="S6" s="35">
-        <f>main!U99</f>
+        <f>main!U100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="T6" s="35">
-        <f>main!V99</f>
+        <f>main!V100</f>
         <v>692623.40051785414</v>
       </c>
     </row>
@@ -31136,7 +31175,7 @@
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>0</v>
+        <v>-9.2000000000000455</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -32784,6 +32823,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33000,12 +33045,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -33016,6 +33055,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33034,23 +33090,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>

--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B775C5-0FD8-44C8-8CCC-16CBE5B8397E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7B7A5D-7AA1-4240-A65A-FEE53BA76D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4143,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L69" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
@@ -22071,11 +22071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22291,145 +22291,145 @@
         <v>170</v>
       </c>
       <c r="D10">
-        <v>200.67099999999999</v>
+        <v>156.16</v>
       </c>
       <c r="E10">
-        <v>156.16</v>
+        <v>197.62799999999999</v>
       </c>
       <c r="F10">
-        <v>197.62799999999999</v>
+        <v>170.20699999999999</v>
       </c>
       <c r="G10">
-        <v>161.40700000000001</v>
+        <v>164.13699999999989</v>
       </c>
       <c r="H10">
-        <v>165.59009035050261</v>
+        <v>168.2833827902208</v>
       </c>
       <c r="I10">
-        <v>169.77318070100509</v>
+        <v>172.42976558044171</v>
       </c>
       <c r="J10">
-        <v>173.95627105150791</v>
+        <v>173.0148583315212</v>
       </c>
       <c r="K10">
-        <v>174.54654357698769</v>
+        <v>173.59995108260071</v>
       </c>
       <c r="L10">
-        <v>175.13681610246749</v>
+        <v>174.1850438336802</v>
       </c>
       <c r="M10">
-        <v>175.72708862794721</v>
+        <v>174.77013658475971</v>
       </c>
       <c r="N10">
-        <v>176.31736115342699</v>
+        <v>172.87701948733081</v>
       </c>
       <c r="O10">
-        <v>174.4074844576952</v>
+        <v>170.98390238990191</v>
       </c>
       <c r="P10">
-        <v>172.49760776196339</v>
+        <v>169.09078529247299</v>
       </c>
       <c r="Q10">
-        <v>170.58773106623161</v>
+        <v>167.19766819504409</v>
       </c>
       <c r="R10">
-        <v>168.67785437049989</v>
+        <v>168.18650468764571</v>
       </c>
       <c r="S10">
-        <v>169.67544494515229</v>
+        <v>169.1753411802471</v>
       </c>
       <c r="T10">
-        <v>170.6730355198049</v>
+        <v>170.1641776728485</v>
       </c>
       <c r="U10">
-        <v>171.6706260944575</v>
+        <v>171.15301416545</v>
       </c>
       <c r="V10">
-        <v>172.66821666911011</v>
+        <v>173.69648926200901</v>
       </c>
       <c r="W10">
-        <v>175.2342089258436</v>
+        <v>176.23996435856819</v>
       </c>
       <c r="X10">
-        <v>177.8002011825771</v>
+        <v>178.78343945512711</v>
       </c>
       <c r="Y10">
-        <v>180.36619343931071</v>
+        <v>181.3269145516862</v>
       </c>
       <c r="Z10">
-        <v>182.93218569604429</v>
+        <v>183.85985203007041</v>
       </c>
       <c r="AA10">
-        <v>185.48754704600071</v>
+        <v>186.3927895084546</v>
       </c>
       <c r="AB10">
-        <v>188.04290839595731</v>
+        <v>188.9257269868389</v>
       </c>
       <c r="AC10">
-        <v>190.59826974591391</v>
+        <v>191.45866446522299</v>
       </c>
       <c r="AD10">
-        <v>193.1536310958704</v>
+        <v>194.36254309952051</v>
       </c>
       <c r="AE10">
-        <v>196.08321751100041</v>
+        <v>197.26642173381791</v>
       </c>
       <c r="AF10">
-        <v>199.01280392613029</v>
+        <v>200.17030036811531</v>
       </c>
       <c r="AG10">
-        <v>201.94239034126039</v>
+        <v>203.07417900241259</v>
       </c>
       <c r="AH10">
-        <v>204.87197675639041</v>
+        <v>206.00159731602</v>
       </c>
       <c r="AI10">
-        <v>207.82531124553029</v>
+        <v>208.92901562962729</v>
       </c>
       <c r="AJ10">
-        <v>210.77864573467019</v>
+        <v>211.85643394323469</v>
       </c>
       <c r="AK10">
-        <v>213.7319802238101</v>
+        <v>214.7838522568419</v>
       </c>
       <c r="AL10">
-        <v>216.68531471295</v>
+        <v>217.8087435385666</v>
       </c>
       <c r="AM10">
-        <v>219.73698508977679</v>
+        <v>220.83363482029131</v>
       </c>
       <c r="AN10">
-        <v>222.7886554666039</v>
+        <v>223.85852610201621</v>
       </c>
       <c r="AO10">
-        <v>225.8403258434308</v>
+        <v>226.88341738374069</v>
       </c>
       <c r="AP10">
-        <v>228.89199622025771</v>
+        <v>230.0749559980533</v>
       </c>
       <c r="AQ10">
-        <v>232.11178924377541</v>
+        <v>233.2664946123657</v>
       </c>
       <c r="AR10">
-        <v>235.3315822672931</v>
+        <v>236.45803322667831</v>
       </c>
       <c r="AS10">
-        <v>238.55137529081071</v>
+        <v>239.6495718409908</v>
       </c>
       <c r="AT10">
-        <v>241.77116831432841</v>
+        <v>242.96586225756681</v>
       </c>
       <c r="AU10">
-        <v>245.1168175567866</v>
+        <v>246.28215267414279</v>
       </c>
       <c r="AV10">
-        <v>248.46246679924459</v>
+        <v>249.59844309071909</v>
       </c>
       <c r="AW10">
-        <v>251.80811604170259</v>
+        <v>252.91473350729501</v>
       </c>
       <c r="AX10">
-        <v>255.15376528416061</v>
+        <v>252.91473350729501</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -22437,133 +22437,145 @@
         <v>171</v>
       </c>
       <c r="D11">
-        <v>186.4</v>
+        <v>440</v>
       </c>
       <c r="E11">
-        <v>393.066666666667</v>
+        <v>363.8</v>
       </c>
       <c r="F11">
-        <v>224.8</v>
+        <v>243.1</v>
       </c>
       <c r="G11">
-        <v>145.9</v>
+        <v>216.8</v>
       </c>
       <c r="H11">
-        <v>123.187827611359</v>
+        <v>201.69787045292151</v>
       </c>
       <c r="I11">
-        <v>100.480777097718</v>
+        <v>188.86729215584299</v>
       </c>
       <c r="J11">
-        <v>79.837867818451997</v>
+        <v>193.24899108297839</v>
       </c>
       <c r="K11">
-        <v>93.489948668704102</v>
+        <v>199.97623704208269</v>
       </c>
       <c r="L11">
-        <v>109.273410154041</v>
+        <v>205.88603266163159</v>
       </c>
       <c r="M11">
-        <v>125.589838709288</v>
+        <v>212.3326953411578</v>
       </c>
       <c r="N11">
-        <v>141.02956247526899</v>
+        <v>229.53998058883141</v>
       </c>
       <c r="O11">
-        <v>155.44938450061099</v>
+        <v>247.744304662177</v>
       </c>
       <c r="P11">
-        <v>169.623729184957</v>
+        <v>267.06071050261841</v>
       </c>
       <c r="Q11">
-        <v>184.56957408385901</v>
+        <v>286.79894046161343</v>
       </c>
       <c r="R11">
-        <v>199.44528259961899</v>
+        <v>294.89122979125102</v>
       </c>
       <c r="S11">
-        <v>199.260283817746</v>
+        <v>303.40534323944189</v>
       </c>
       <c r="T11">
-        <v>199.496103334721</v>
+        <v>312.30293315904561</v>
       </c>
       <c r="U11">
-        <v>200.117672958973</v>
+        <v>320.66365601867182</v>
       </c>
       <c r="V11">
-        <v>201.300333648356</v>
+        <v>321.93933937542943</v>
       </c>
       <c r="W11">
-        <v>200.51814947922099</v>
+        <v>323.17667508504508</v>
       </c>
       <c r="X11">
-        <v>199.66582892694501</v>
+        <v>324.3756631475203</v>
       </c>
       <c r="Y11">
-        <v>199.09405390723401</v>
+        <v>325.57465120999512</v>
       </c>
       <c r="Z11">
-        <v>198.83789261165899</v>
+        <v>326.81776402783669</v>
       </c>
       <c r="AA11">
-        <v>198.46322698311701</v>
+        <v>328.06087684567802</v>
       </c>
       <c r="AB11">
-        <v>197.98335677986299</v>
+        <v>329.34233731066053</v>
       </c>
       <c r="AC11">
-        <v>198.029509450169</v>
+        <v>330.62379777564308</v>
       </c>
       <c r="AD11">
-        <v>198.25100307832901</v>
+        <v>330.39034332990889</v>
       </c>
       <c r="AE11">
-        <v>198.216850774449</v>
+        <v>330.15688888417498</v>
       </c>
       <c r="AF11">
-        <v>198.077493895857</v>
+        <v>329.96178208558229</v>
       </c>
       <c r="AG11">
-        <v>198.113477975119</v>
+        <v>329.80502293413088</v>
       </c>
       <c r="AH11">
-        <v>198.11439386281</v>
+        <v>329.54969477270748</v>
       </c>
       <c r="AI11">
-        <v>197.81902910740601</v>
+        <v>329.2943666112842</v>
       </c>
       <c r="AJ11">
-        <v>197.66393711828599</v>
+        <v>329.07738609700209</v>
       </c>
       <c r="AK11">
-        <v>197.508845129165</v>
+        <v>328.86040558272009</v>
       </c>
       <c r="AL11">
-        <v>197.31868494847399</v>
+        <v>328.27361872844011</v>
       </c>
       <c r="AM11">
-        <v>196.515441346898</v>
+        <v>327.68683187415991</v>
       </c>
       <c r="AN11">
-        <v>195.71219774532199</v>
+        <v>327.1000450198793</v>
       </c>
       <c r="AO11">
-        <v>194.979090526888</v>
+        <v>326.551605812741</v>
       </c>
       <c r="AP11">
-        <v>194.10571054217101</v>
+        <v>325.38205024445301</v>
       </c>
       <c r="AQ11">
-        <v>192.16216718659399</v>
+        <v>324.25084232330607</v>
       </c>
       <c r="AR11">
-        <v>190.3588965973</v>
+        <v>323.19632969644169</v>
       </c>
       <c r="AS11">
-        <v>188.38028505015299</v>
+        <v>322.21851236385947</v>
       </c>
       <c r="AT11">
-        <v>186.47180988614599</v>
+        <v>320.79501015719001</v>
+      </c>
+      <c r="AU11">
+        <v>319.44820324480298</v>
+      </c>
+      <c r="AV11">
+        <v>318.21643927383991</v>
+      </c>
+      <c r="AW11">
+        <v>317.02302295001772</v>
+      </c>
+      <c r="AX11">
+        <v>317.02302295001772</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
@@ -22571,133 +22583,145 @@
         <v>172</v>
       </c>
       <c r="D12">
-        <v>1862.4</v>
+        <v>1779.8</v>
       </c>
       <c r="E12">
-        <v>1779.8</v>
+        <v>1871.3</v>
       </c>
       <c r="F12">
-        <v>1871.3</v>
+        <v>1907.1</v>
       </c>
       <c r="G12">
-        <v>1890.6</v>
+        <v>1958.3</v>
       </c>
       <c r="H12">
-        <v>1921.95543744052</v>
+        <v>1978.3751090344099</v>
       </c>
       <c r="I12">
-        <v>1952.51729994875</v>
+        <v>2007.0179878174349</v>
       </c>
       <c r="J12">
-        <v>1985.18305878908</v>
+        <v>2033.6981662082569</v>
       </c>
       <c r="K12">
-        <v>2007.0617351197</v>
+        <v>2058.944408239478</v>
       </c>
       <c r="L12">
-        <v>2027.0856607365099</v>
+        <v>2079.7902580671739</v>
       </c>
       <c r="M12">
-        <v>2046.9065788124999</v>
+        <v>2102.1686273791929</v>
       </c>
       <c r="N12">
-        <v>2067.6318032066802</v>
+        <v>2124.2512473170441</v>
       </c>
       <c r="O12">
-        <v>2088.6615389120698</v>
+        <v>2144.5772952143848</v>
       </c>
       <c r="P12">
-        <v>2109.80200600337</v>
+        <v>2167.3231107185511</v>
       </c>
       <c r="Q12">
-        <v>2130.0658496229598</v>
+        <v>2191.2429616171412</v>
       </c>
       <c r="R12">
-        <v>2151.7784288747298</v>
+        <v>2215.8977049000259</v>
       </c>
       <c r="S12">
-        <v>2174.7275086023901</v>
+        <v>2239.1633223345489</v>
       </c>
       <c r="T12">
-        <v>2198.8484954974701</v>
+        <v>2263.8359898219292</v>
       </c>
       <c r="U12">
-        <v>2222.5450120799501</v>
+        <v>2288.696861456508</v>
       </c>
       <c r="V12">
-        <v>2246.0385211215998</v>
+        <v>2314.5704506450529</v>
       </c>
       <c r="W12">
-        <v>2269.9657280913698</v>
+        <v>2339.8704652897591</v>
       </c>
       <c r="X12">
-        <v>2295.0463869975802</v>
+        <v>2365.3049114681771</v>
       </c>
       <c r="Y12">
-        <v>2320.4223295995298</v>
+        <v>2390.1837073072502</v>
       </c>
       <c r="Z12">
-        <v>2346.0474178197501</v>
+        <v>2414.937033714858</v>
       </c>
       <c r="AA12">
-        <v>2371.8939688117698</v>
+        <v>2439.8964884741581</v>
       </c>
       <c r="AB12">
-        <v>2397.9527549600998</v>
+        <v>2464.336141303103</v>
       </c>
       <c r="AC12">
-        <v>2424.1776381872801</v>
+        <v>2488.5158931668711</v>
       </c>
       <c r="AD12">
-        <v>2450.6055289552701</v>
+        <v>2512.2565020205111</v>
       </c>
       <c r="AE12">
-        <v>2477.2825653415298</v>
+        <v>2535.665513090993</v>
       </c>
       <c r="AF12">
-        <v>2504.2179749615598</v>
+        <v>2559.083486263723</v>
       </c>
       <c r="AG12">
-        <v>2531.3933025843799</v>
+        <v>2582.8330572196101</v>
       </c>
       <c r="AH12">
-        <v>2558.8915967493999</v>
+        <v>2607.0934680036062</v>
       </c>
       <c r="AI12">
-        <v>2586.43602899187</v>
+        <v>2631.766135490986</v>
       </c>
       <c r="AJ12">
-        <v>2613.4268043048501</v>
+        <v>2656.7704007615239</v>
       </c>
       <c r="AK12">
-        <v>2639.6885979939998</v>
+        <v>2681.7298555208249</v>
       </c>
       <c r="AL12">
-        <v>2665.71970129585</v>
+        <v>2706.7878934048481</v>
       </c>
       <c r="AM12">
-        <v>2691.7508045977002</v>
+        <v>2731.9265902090979</v>
       </c>
       <c r="AN12">
-        <v>2717.4958518193098</v>
+        <v>2757.0204765021122</v>
       </c>
       <c r="AO12">
-        <v>2743.4623618127198</v>
+        <v>2782.0157796704029</v>
       </c>
       <c r="AP12">
-        <v>2769.5949688849801</v>
+        <v>2807.2440974971282</v>
       </c>
       <c r="AQ12">
-        <v>2795.9029006515798</v>
+        <v>2832.5441121418339</v>
       </c>
       <c r="AR12">
-        <v>2822.44152280548</v>
+        <v>2858.1488382629541</v>
       </c>
       <c r="AS12">
-        <v>2849.1277868072302</v>
+        <v>2884.2464800076882</v>
       </c>
       <c r="AT12">
-        <v>2875.95246504137</v>
+        <v>2910.8011889670452</v>
+      </c>
+      <c r="AU12">
+        <v>2937.8756998567569</v>
+      </c>
+      <c r="AV12">
+        <v>2965.0487938711908</v>
+      </c>
+      <c r="AW12">
+        <v>2992.3742436238322</v>
+      </c>
+      <c r="AX12">
+        <v>2992.3742436238322</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -22705,133 +22729,145 @@
         <v>173</v>
       </c>
       <c r="D13">
-        <v>62.7</v>
+        <v>54.2</v>
       </c>
       <c r="E13">
-        <v>54.2</v>
+        <v>90.2</v>
       </c>
       <c r="F13">
-        <v>90.2</v>
+        <v>95.9</v>
       </c>
       <c r="G13">
-        <v>69.033333333333303</v>
+        <v>95.9</v>
       </c>
       <c r="H13">
-        <v>70.178245194458697</v>
+        <v>96.883099094316492</v>
       </c>
       <c r="I13">
-        <v>71.2941804752259</v>
+        <v>98.285770837814454</v>
       </c>
       <c r="J13">
-        <v>72.486937387640197</v>
+        <v>99.592327089502035</v>
       </c>
       <c r="K13">
-        <v>73.285814969373106</v>
+        <v>100.82866197730991</v>
       </c>
       <c r="L13">
-        <v>74.016968217943401</v>
+        <v>101.8495050547117</v>
       </c>
       <c r="M13">
-        <v>74.740708852933807</v>
+        <v>102.94539721476001</v>
       </c>
       <c r="N13">
-        <v>75.497469312053099</v>
+        <v>104.0268062185081</v>
       </c>
       <c r="O13">
-        <v>76.2653486915424</v>
+        <v>105.0221940515036</v>
       </c>
       <c r="P13">
-        <v>77.037271314802595</v>
+        <v>106.1360804360461</v>
       </c>
       <c r="Q13">
-        <v>77.777184924876593</v>
+        <v>107.30746056226521</v>
       </c>
       <c r="R13">
-        <v>78.569997640953105</v>
+        <v>108.5148291374726</v>
       </c>
       <c r="S13">
-        <v>79.407959912471199</v>
+        <v>109.6541707664215</v>
       </c>
       <c r="T13">
-        <v>80.288713180564699</v>
+        <v>110.8624171086775</v>
       </c>
       <c r="U13">
-        <v>81.153967347536394</v>
+        <v>112.07988000494259</v>
       </c>
       <c r="V13">
-        <v>82.011808900928202</v>
+        <v>113.3469367394478</v>
       </c>
       <c r="W13">
-        <v>82.885486492422601</v>
+        <v>114.58590492840121</v>
       </c>
       <c r="X13">
-        <v>83.801281206530504</v>
+        <v>115.83145637021821</v>
       </c>
       <c r="Y13">
-        <v>84.727857904027502</v>
+        <v>117.0497970335318</v>
       </c>
       <c r="Z13">
-        <v>85.663531900009005</v>
+        <v>118.261993327506</v>
       </c>
       <c r="AA13">
-        <v>86.607292383532197</v>
+        <v>119.4842839425379</v>
       </c>
       <c r="AB13">
-        <v>87.558802417616405</v>
+        <v>120.68111931316329</v>
       </c>
       <c r="AC13">
-        <v>88.516377317356898</v>
+        <v>121.8652270615856</v>
       </c>
       <c r="AD13">
-        <v>89.481364830677407</v>
+        <v>123.0278295173197</v>
       </c>
       <c r="AE13">
-        <v>90.455449642482407</v>
+        <v>124.1741932826566</v>
       </c>
       <c r="AF13">
-        <v>91.438968689752798</v>
+        <v>125.3209959315177</v>
       </c>
       <c r="AG13">
-        <v>92.431248098526794</v>
+        <v>126.4840372707761</v>
       </c>
       <c r="AH13">
-        <v>93.435320301632601</v>
+        <v>127.6720949709166</v>
       </c>
       <c r="AI13">
-        <v>94.441077189642996</v>
+        <v>128.88034131317249</v>
       </c>
       <c r="AJ13">
-        <v>95.426617858798807</v>
+        <v>130.10482634582559</v>
       </c>
       <c r="AK13">
-        <v>96.385540506463002</v>
+        <v>131.3271169608575</v>
       </c>
       <c r="AL13">
-        <v>97.336039729604394</v>
+        <v>132.55423529465611</v>
       </c>
       <c r="AM13">
-        <v>98.286538952745801</v>
+        <v>133.78530358017301</v>
       </c>
       <c r="AN13">
-        <v>99.226593129479099</v>
+        <v>135.01417744806861</v>
       </c>
       <c r="AO13">
-        <v>100.174733793754</v>
+        <v>136.23822359719739</v>
       </c>
       <c r="AP13">
-        <v>101.128939323686</v>
+        <v>137.47368071795671</v>
       </c>
       <c r="AQ13">
-        <v>102.089546656254</v>
+        <v>138.71264890691</v>
       </c>
       <c r="AR13">
-        <v>103.058577413346</v>
+        <v>139.96653913568781</v>
       </c>
       <c r="AS13">
-        <v>104.032999162132</v>
+        <v>141.24456795829931</v>
       </c>
       <c r="AT13">
-        <v>105.012474965631</v>
+        <v>142.54497984064739</v>
+      </c>
+      <c r="AU13">
+        <v>143.8708469674018</v>
+      </c>
+      <c r="AV13">
+        <v>145.2015418129231</v>
+      </c>
+      <c r="AW13">
+        <v>146.53969767835659</v>
+      </c>
+      <c r="AX13">
+        <v>146.53969767835659</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
@@ -22839,145 +22875,145 @@
         <v>175</v>
       </c>
       <c r="D14">
-        <v>1228.1289999999999</v>
+        <v>1336.74</v>
       </c>
       <c r="E14">
-        <v>1336.74</v>
+        <v>1328.7719999999999</v>
       </c>
       <c r="F14">
-        <v>1328.7719999999999</v>
+        <v>1372.7929999999999</v>
       </c>
       <c r="G14">
-        <v>1372.7929999999999</v>
+        <v>1403.2629999999999</v>
       </c>
       <c r="H14">
-        <v>1365.228724966064</v>
+        <v>1394.63952711825</v>
       </c>
       <c r="I14">
-        <v>1357.664449932128</v>
+        <v>1386.0160542364999</v>
       </c>
       <c r="J14">
-        <v>1350.1001748981921</v>
+        <v>1416.247429866125</v>
       </c>
       <c r="K14">
-        <v>1379.0396158890269</v>
+        <v>1446.4788054957489</v>
       </c>
       <c r="L14">
-        <v>1407.979056879863</v>
+        <v>1476.710181125374</v>
       </c>
       <c r="M14">
-        <v>1436.918497870698</v>
+        <v>1506.9415567549979</v>
       </c>
       <c r="N14">
-        <v>1465.857938861534</v>
+        <v>1519.7601557667949</v>
       </c>
       <c r="O14">
-        <v>1477.7858704800731</v>
+        <v>1532.578754778594</v>
       </c>
       <c r="P14">
-        <v>1489.7138020986119</v>
+        <v>1545.397353790391</v>
       </c>
       <c r="Q14">
-        <v>1501.6417337171511</v>
+        <v>1558.2159528021889</v>
       </c>
       <c r="R14">
-        <v>1513.569665335689</v>
+        <v>1568.782547736397</v>
       </c>
       <c r="S14">
-        <v>1523.810291133271</v>
+        <v>1579.349142670605</v>
       </c>
       <c r="T14">
-        <v>1534.0509169308521</v>
+        <v>1589.9157376048131</v>
       </c>
       <c r="U14">
-        <v>1544.2915427284329</v>
+        <v>1600.4823325390209</v>
       </c>
       <c r="V14">
-        <v>1554.5321685260139</v>
+        <v>1639.9186754518039</v>
       </c>
       <c r="W14">
-        <v>1592.5682674016571</v>
+        <v>1679.3550183645871</v>
       </c>
       <c r="X14">
-        <v>1630.6043662772991</v>
+        <v>1718.7913612773691</v>
       </c>
       <c r="Y14">
-        <v>1668.640465152941</v>
+        <v>1758.2277041901521</v>
       </c>
       <c r="Z14">
-        <v>1706.6765640285839</v>
+        <v>1787.619695599499</v>
       </c>
       <c r="AA14">
-        <v>1735.126996577955</v>
+        <v>1817.0116870088459</v>
       </c>
       <c r="AB14">
-        <v>1763.577429127326</v>
+        <v>1846.403678418194</v>
       </c>
       <c r="AC14">
-        <v>1792.027861676698</v>
+        <v>1875.7956698275409</v>
       </c>
       <c r="AD14">
-        <v>1820.478294226069</v>
+        <v>1908.214872793631</v>
       </c>
       <c r="AE14">
-        <v>1851.8765870702759</v>
+        <v>1940.63407575972</v>
       </c>
       <c r="AF14">
-        <v>1883.2748799144831</v>
+        <v>1973.0532787258101</v>
       </c>
       <c r="AG14">
-        <v>1914.67317275869</v>
+        <v>2005.472481691899</v>
       </c>
       <c r="AH14">
-        <v>1946.071465602897</v>
+        <v>2057.1759873287519</v>
       </c>
       <c r="AI14">
-        <v>1995.873954252166</v>
+        <v>2108.879492965606</v>
       </c>
       <c r="AJ14">
-        <v>2045.6764429014349</v>
+        <v>2160.5829986024601</v>
       </c>
       <c r="AK14">
-        <v>2095.4789315507051</v>
+        <v>2212.2865042393132</v>
       </c>
       <c r="AL14">
-        <v>2145.281420199974</v>
+        <v>2211.5343138466092</v>
       </c>
       <c r="AM14">
-        <v>2145.0480738955612</v>
+        <v>2210.7821234539051</v>
       </c>
       <c r="AN14">
-        <v>2144.8147275911479</v>
+        <v>2210.0299330612011</v>
       </c>
       <c r="AO14">
-        <v>2144.581381286735</v>
+        <v>2209.2777426684961</v>
       </c>
       <c r="AP14">
-        <v>2144.3480349823212</v>
+        <v>2261.6493087725662</v>
       </c>
       <c r="AQ14">
-        <v>2194.8302571509271</v>
+        <v>2314.0208748766349</v>
       </c>
       <c r="AR14">
-        <v>2245.312479319532</v>
+        <v>2366.392440980705</v>
       </c>
       <c r="AS14">
-        <v>2295.794701488137</v>
+        <v>2418.7640070847742</v>
       </c>
       <c r="AT14">
-        <v>2346.2769236567419</v>
+        <v>2464.3652051309859</v>
       </c>
       <c r="AU14">
-        <v>2390.3190668283441</v>
+        <v>2509.9664031771981</v>
       </c>
       <c r="AV14">
-        <v>2434.3612099999468</v>
+        <v>2555.5676012234089</v>
       </c>
       <c r="AW14">
-        <v>2478.403353171549</v>
+        <v>2601.1687992696211</v>
       </c>
       <c r="AX14">
-        <v>2522.4454963431522</v>
+        <v>2601.1687992696211</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
@@ -22985,133 +23021,145 @@
         <v>166</v>
       </c>
       <c r="D15">
-        <v>1574.4</v>
+        <v>1828.5000000000009</v>
       </c>
       <c r="E15">
-        <v>3741.5333333333301</v>
+        <v>1861.4</v>
       </c>
       <c r="F15">
-        <v>2572.1999999999998</v>
+        <v>1756.1999999999989</v>
       </c>
       <c r="G15">
-        <v>2063.6999999999998</v>
+        <v>1808.7</v>
       </c>
       <c r="H15">
-        <v>1819.81390083411</v>
+        <v>1629.356357104331</v>
       </c>
       <c r="I15">
-        <v>1623.62521731378</v>
+        <v>1501.6652887165669</v>
       </c>
       <c r="J15">
-        <v>1487.1097724132001</v>
+        <v>1514.272945247701</v>
       </c>
       <c r="K15">
-        <v>1525.56477563047</v>
+        <v>1515.6150242949509</v>
       </c>
       <c r="L15">
-        <v>1537.45597233026</v>
+        <v>1509.926416318757</v>
       </c>
       <c r="M15">
-        <v>1532.4524351376299</v>
+        <v>1493.7178340556329</v>
       </c>
       <c r="N15">
-        <v>1504.0551108309301</v>
+        <v>1512.9609535468801</v>
       </c>
       <c r="O15">
-        <v>1504.76699307077</v>
+        <v>1522.99399388232</v>
       </c>
       <c r="P15">
-        <v>1506.4554877129101</v>
+        <v>1526.525817874995</v>
       </c>
       <c r="Q15">
-        <v>1508.8118867247699</v>
+        <v>1522.5832732221379</v>
       </c>
       <c r="R15">
-        <v>1513.08196729581</v>
+        <v>1530.285602569978</v>
       </c>
       <c r="S15">
-        <v>1528.86684944985</v>
+        <v>1538.937335064132</v>
       </c>
       <c r="T15">
-        <v>1544.00925390971</v>
+        <v>1547.192951576636</v>
       </c>
       <c r="U15">
-        <v>1556.1560335270599</v>
+        <v>1555.9808389633261</v>
       </c>
       <c r="V15">
-        <v>1566.4665870005299</v>
+        <v>1592.1555871790999</v>
       </c>
       <c r="W15">
-        <v>1601.9073637173799</v>
+        <v>1622.7235946783901</v>
       </c>
       <c r="X15">
-        <v>1631.30402307299</v>
+        <v>1646.2517581859961</v>
       </c>
       <c r="Y15">
-        <v>1655.34640968285</v>
+        <v>1663.4196210501891</v>
       </c>
       <c r="Z15">
-        <v>1673.4583263601301</v>
+        <v>1671.430699166094</v>
       </c>
       <c r="AA15">
-        <v>1682.7628887994099</v>
+        <v>1682.1431104472849</v>
       </c>
       <c r="AB15">
-        <v>1693.56588941872</v>
+        <v>1694.6607802102719</v>
       </c>
       <c r="AC15">
-        <v>1707.07457155099</v>
+        <v>1709.3896382183029</v>
       </c>
       <c r="AD15">
-        <v>1722.68635045423</v>
+        <v>1722.372615576626</v>
       </c>
       <c r="AE15">
-        <v>1735.8137825215699</v>
+        <v>1735.0429474429729</v>
       </c>
       <c r="AF15">
-        <v>1749.2248374552801</v>
+        <v>1746.4953393081139</v>
       </c>
       <c r="AG15">
-        <v>1761.02815510048</v>
+        <v>1757.1882121565191</v>
       </c>
       <c r="AH15">
-        <v>1772.41066492001</v>
+        <v>1788.9509959744839</v>
       </c>
       <c r="AI15">
-        <v>1805.0361022818399</v>
+        <v>1816.7189541257289</v>
       </c>
       <c r="AJ15">
-        <v>1833.15435247449</v>
+        <v>1839.6922791598031</v>
       </c>
       <c r="AK15">
-        <v>1857.5703695928801</v>
+        <v>1858.259733230635</v>
       </c>
       <c r="AL15">
-        <v>1877.6331160100301</v>
+        <v>1832.4294189532291</v>
       </c>
       <c r="AM15">
-        <v>1853.42810148629</v>
+        <v>1818.576749321116</v>
       </c>
       <c r="AN15">
-        <v>1839.9120282056999</v>
+        <v>1816.4404652627579</v>
       </c>
       <c r="AO15">
-        <v>1838.3860538377</v>
+        <v>1826.107622074454</v>
       </c>
       <c r="AP15">
-        <v>1848.20267890064</v>
+        <v>1883.521840106393</v>
       </c>
       <c r="AQ15">
-        <v>1906.4392549448801</v>
+        <v>1928.497184954686</v>
       </c>
       <c r="AR15">
-        <v>1955.0223742324899</v>
+        <v>1962.138859372219</v>
       </c>
       <c r="AS15">
-        <v>1988.91857610285</v>
+        <v>1983.801049724259</v>
       </c>
       <c r="AT15">
-        <v>2011.1030125773</v>
+        <v>1944.7885028241169</v>
+      </c>
+      <c r="AU15">
+        <v>1906.4485972733521</v>
+      </c>
+      <c r="AV15">
+        <v>1870.239333659976</v>
+      </c>
+      <c r="AW15">
+        <v>1835.4218257479581</v>
+      </c>
+      <c r="AX15">
+        <v>1835.4218257479581</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
@@ -23119,285 +23167,294 @@
         <v>169</v>
       </c>
       <c r="D16">
-        <v>74.5</v>
+        <v>1085.9000000000001</v>
       </c>
       <c r="E16">
-        <v>1085.9000000000001</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="F16">
-        <v>1212.9000000000001</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="G16">
-        <v>609.9</v>
+        <v>402.3</v>
       </c>
       <c r="H16">
-        <v>612.6833822665883</v>
+        <v>404.18538158623392</v>
       </c>
       <c r="I16">
-        <v>615.55472695243679</v>
+        <v>406.11408156777497</v>
       </c>
       <c r="J16">
-        <v>618.4920434527304</v>
+        <v>408.08197438316557</v>
       </c>
       <c r="K16">
-        <v>621.4890487375219</v>
+        <v>410.07255778657441</v>
       </c>
       <c r="L16">
-        <v>624.52061068702278</v>
+        <v>412.05076450560961</v>
       </c>
       <c r="M16">
-        <v>627.53332354668225</v>
+        <v>413.998029513711</v>
       </c>
       <c r="N16">
-        <v>630.49891368173814</v>
+        <v>415.93291783743882</v>
       </c>
       <c r="O16">
-        <v>633.44565472695251</v>
+        <v>417.86368059970891</v>
       </c>
       <c r="P16">
-        <v>636.38611274221967</v>
+        <v>419.80063170416571</v>
       </c>
       <c r="Q16">
-        <v>639.3359953024077</v>
+        <v>421.75614783518279</v>
       </c>
       <c r="R16">
-        <v>642.31415149735767</v>
+        <v>423.7302289927602</v>
       </c>
       <c r="S16">
-        <v>645.32058132706993</v>
+        <v>425.71668683471103</v>
       </c>
       <c r="T16">
-        <v>648.34586024662372</v>
+        <v>427.69901911520401</v>
       </c>
       <c r="U16">
-        <v>651.36485613623017</v>
+        <v>429.68753973788392</v>
       </c>
       <c r="V16">
-        <v>654.39327657075751</v>
+        <v>431.68018592202162</v>
       </c>
       <c r="W16">
-        <v>657.42798003523194</v>
+        <v>433.67076932543029</v>
       </c>
       <c r="X16">
-        <v>660.45954198473294</v>
+        <v>435.63659936009208</v>
       </c>
       <c r="Y16">
-        <v>663.45340575455089</v>
+        <v>437.58798992965131</v>
       </c>
       <c r="Z16">
-        <v>666.42527891955376</v>
+        <v>439.52494103410811</v>
       </c>
       <c r="AA16">
-        <v>669.37516147974168</v>
+        <v>441.44951545419133</v>
       </c>
       <c r="AB16">
-        <v>672.30619495008807</v>
+        <v>443.35552484771432</v>
       </c>
       <c r="AC16">
-        <v>675.20895478567229</v>
+        <v>445.25947146050851</v>
       </c>
       <c r="AD16">
-        <v>678.10857310628319</v>
+        <v>447.16548085403139</v>
       </c>
       <c r="AE16">
-        <v>681.01133294186729</v>
+        <v>449.0735530282833</v>
       </c>
       <c r="AF16">
-        <v>683.91723429242518</v>
+        <v>450.98368798326419</v>
       </c>
       <c r="AG16">
-        <v>686.82627715795672</v>
+        <v>452.90619962261849</v>
       </c>
       <c r="AH16">
-        <v>689.75416911332968</v>
+        <v>454.83283682343068</v>
       </c>
       <c r="AI16">
-        <v>692.68834409864951</v>
+        <v>456.76772514715861</v>
       </c>
       <c r="AJ16">
-        <v>695.63508514386388</v>
+        <v>458.72736683963342</v>
       </c>
       <c r="AK16">
-        <v>698.61952436876106</v>
+        <v>460.70763633939748</v>
       </c>
       <c r="AL16">
-        <v>701.63537874339409</v>
+        <v>462.71059642718001</v>
       </c>
       <c r="AM16">
-        <v>704.68578978273661</v>
+        <v>464.73212154152247</v>
       </c>
       <c r="AN16">
-        <v>707.76447445684096</v>
+        <v>466.76808612096738</v>
       </c>
       <c r="AO16">
-        <v>710.8651497357605</v>
+        <v>468.80198791968348</v>
       </c>
       <c r="AP16">
-        <v>713.9626834997066</v>
+        <v>470.83176415694169</v>
       </c>
       <c r="AQ16">
-        <v>717.05393423370526</v>
+        <v>472.86360317492881</v>
       </c>
       <c r="AR16">
-        <v>720.14832648267759</v>
+        <v>474.89544219291588</v>
       </c>
       <c r="AS16">
-        <v>723.2427187316498</v>
+        <v>476.92728121090312</v>
       </c>
       <c r="AT16">
-        <v>726.33711098062236</v>
+        <v>478.96530857107712</v>
       </c>
       <c r="AU16">
-        <v>729.44092777451556</v>
+        <v>481.00539871197992</v>
       </c>
       <c r="AV16">
-        <v>732.5478860833822</v>
+        <v>483.04961441434068</v>
       </c>
       <c r="AW16">
-        <v>735.66112742219616</v>
+        <v>485.09176733597252</v>
       </c>
       <c r="AX16">
-        <v>738.77122724603657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+        <v>485.09176733597252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>195</v>
       </c>
       <c r="D17">
-        <v>204.37100000000001</v>
+        <v>884.2600000000001</v>
       </c>
       <c r="E17">
-        <v>279.25</v>
+        <v>242.12799999999999</v>
       </c>
       <c r="F17">
-        <v>300.60000000000002</v>
+        <v>225.90700000000001</v>
       </c>
       <c r="G17">
-        <v>303.95100000000002</v>
+        <v>260.73700000000002</v>
       </c>
       <c r="H17">
-        <v>257.15358627705501</v>
+        <v>232.07518871317359</v>
       </c>
       <c r="I17">
-        <v>228.45877209582619</v>
+        <v>215.720203842161</v>
       </c>
       <c r="J17">
-        <v>212.05070141102621</v>
+        <v>220.89139620745101</v>
       </c>
       <c r="K17">
-        <v>217.20219820767471</v>
+        <v>226.76914626180869</v>
       </c>
       <c r="L17">
-        <v>223.05909969580759</v>
+        <v>232.32795235033251</v>
       </c>
       <c r="M17">
-        <v>228.5975776874576</v>
+        <v>237.9298898973548</v>
       </c>
       <c r="N17">
-        <v>234.17911675344899</v>
+        <v>251.6040694504666</v>
       </c>
       <c r="O17">
-        <v>247.8674048768593</v>
+        <v>265.27969850165113</v>
       </c>
       <c r="P17">
-        <v>261.5571401329762</v>
+        <v>279.09879389494898</v>
       </c>
       <c r="Q17">
-        <v>275.39010761536798</v>
+        <v>293.05961551598227</v>
       </c>
       <c r="R17">
-        <v>289.36457004926609</v>
+        <v>298.02592203707633</v>
       </c>
       <c r="S17">
-        <v>294.30374747872452</v>
+        <v>303.15281641427401</v>
       </c>
       <c r="T17">
-        <v>299.40325070867152</v>
+        <v>308.34003676535349</v>
       </c>
       <c r="U17">
-        <v>304.56298146943863</v>
+        <v>313.62925193845189</v>
       </c>
       <c r="V17">
-        <v>309.82454061176958</v>
+        <v>314.05502117082477</v>
       </c>
       <c r="W17">
-        <v>310.20067961913003</v>
+        <v>314.5186220365847</v>
       </c>
       <c r="X17">
-        <v>310.61458852425028</v>
+        <v>315.03063898617683</v>
       </c>
       <c r="Y17">
-        <v>311.07683450531948</v>
+        <v>315.58362470772079</v>
       </c>
       <c r="Z17">
-        <v>311.57998240336798</v>
+        <v>316.2395853229205</v>
       </c>
       <c r="AA17">
-        <v>312.18613989479883</v>
+        <v>316.95514017513671</v>
       </c>
       <c r="AB17">
-        <v>312.85179437427092</v>
+        <v>317.71048621778692</v>
       </c>
       <c r="AC17">
-        <v>313.5571751108431</v>
+        <v>318.55415230022101</v>
       </c>
       <c r="AD17">
-        <v>314.35073176196499</v>
+        <v>318.29850133827199</v>
       </c>
       <c r="AE17">
-        <v>314.03962853354523</v>
+        <v>318.13366691457782</v>
       </c>
       <c r="AF17">
-        <v>313.81919364422993</v>
+        <v>318.04565082439819</v>
       </c>
       <c r="AG17">
-        <v>313.67545173227802</v>
+        <v>318.06410134177349</v>
       </c>
       <c r="AH17">
-        <v>313.63800269013319</v>
+        <v>318.09729229239042</v>
       </c>
       <c r="AI17">
-        <v>313.61481713311082</v>
+        <v>318.17786928038868</v>
       </c>
       <c r="AJ17">
-        <v>313.63894028646979</v>
+        <v>318.36379279589238</v>
       </c>
       <c r="AK17">
-        <v>313.76823805739161</v>
+        <v>318.64707655433722</v>
       </c>
       <c r="AL17">
-        <v>313.99473719374708</v>
+        <v>318.72234084172197</v>
       </c>
       <c r="AM17">
-        <v>314.01168097553119</v>
+        <v>318.86952061123691</v>
       </c>
       <c r="AN17">
-        <v>314.10042288402173</v>
+        <v>319.10267892127462</v>
       </c>
       <c r="AO17">
-        <v>314.27500302878121</v>
+        <v>319.38590629755907</v>
       </c>
       <c r="AP17">
-        <v>314.49957053448128</v>
+        <v>319.19110945656053</v>
       </c>
       <c r="AQ17">
-        <v>314.24368766036622</v>
+        <v>319.05567634036208</v>
       </c>
       <c r="AR17">
-        <v>314.0470716382373</v>
+        <v>318.97514203538952</v>
       </c>
       <c r="AS17">
-        <v>313.90526484059939</v>
+        <v>318.9496051242694</v>
       </c>
       <c r="AT17">
-        <v>313.81836568920642</v>
+        <v>318.60334826748328</v>
       </c>
       <c r="AU17">
-        <v>313.40886978539112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+        <v>318.31720335346819</v>
+      </c>
+      <c r="AV17">
+        <v>318.11173048290601</v>
+      </c>
+      <c r="AW17">
+        <v>317.95738112604761</v>
+      </c>
+      <c r="AX17">
+        <v>317.95738112604761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
       <c r="L19" s="95"/>
@@ -23414,7 +23471,7 @@
       <c r="Z19" s="95"/>
       <c r="AB19" s="95"/>
     </row>
-    <row r="20" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="110" t="s">
         <v>184</v>
       </c>
@@ -23435,7 +23492,7 @@
       <c r="Z20" s="95"/>
       <c r="AB20" s="95"/>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -23481,165 +23538,165 @@
       </c>
       <c r="N21" s="104">
         <f>M21*(1+N23)</f>
-        <v>222.38398180893643</v>
+        <v>219.23868038063489</v>
       </c>
       <c r="O21" s="149">
         <f t="shared" ref="O21:AA21" si="0">N21*(1+O23)</f>
-        <v>219.97510963898975</v>
+        <v>216.83787259555652</v>
       </c>
       <c r="P21" s="104">
         <f t="shared" si="0"/>
-        <v>217.56623746904302</v>
+        <v>214.43706481047812</v>
       </c>
       <c r="Q21" s="104">
         <f t="shared" si="0"/>
-        <v>215.15736529909634</v>
+        <v>212.03625702539975</v>
       </c>
       <c r="R21" s="104">
         <f t="shared" si="0"/>
-        <v>212.74849312914972</v>
+        <v>213.29027683898224</v>
       </c>
       <c r="S21" s="149">
         <f t="shared" si="0"/>
-        <v>214.00672523264191</v>
+        <v>214.54429665256438</v>
       </c>
       <c r="T21" s="104">
         <f t="shared" si="0"/>
-        <v>215.26495733613436</v>
+        <v>215.79831646614656</v>
       </c>
       <c r="U21" s="104">
         <f t="shared" si="0"/>
-        <v>216.5231894396268</v>
+        <v>217.05233627972888</v>
       </c>
       <c r="V21" s="104">
         <f t="shared" si="0"/>
-        <v>217.78142154311925</v>
+        <v>220.27791319795816</v>
       </c>
       <c r="W21" s="149">
         <f t="shared" si="0"/>
-        <v>221.01783327030444</v>
+        <v>223.50349011618766</v>
       </c>
       <c r="X21" s="104">
         <f t="shared" si="0"/>
-        <v>224.25424499748959</v>
+        <v>226.72906703441683</v>
       </c>
       <c r="Y21" s="104">
         <f t="shared" si="0"/>
-        <v>227.49065672467492</v>
+        <v>229.95464395264619</v>
       </c>
       <c r="Z21" s="104">
         <f t="shared" si="0"/>
-        <v>230.72706845186019</v>
+        <v>233.16685730462561</v>
       </c>
       <c r="AA21" s="149">
         <f t="shared" si="0"/>
-        <v>233.9500717241782</v>
+        <v>236.37907065660497</v>
       </c>
       <c r="AB21" s="95"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="102">
         <f t="shared" ref="D22:AA22" si="1">D10</f>
-        <v>200.67099999999999</v>
+        <v>156.16</v>
       </c>
       <c r="E22" s="104">
         <f t="shared" si="1"/>
-        <v>156.16</v>
+        <v>197.62799999999999</v>
       </c>
       <c r="F22" s="104">
         <f t="shared" si="1"/>
-        <v>197.62799999999999</v>
+        <v>170.20699999999999</v>
       </c>
       <c r="G22" s="149">
         <f t="shared" si="1"/>
-        <v>161.40700000000001</v>
+        <v>164.13699999999989</v>
       </c>
       <c r="H22" s="104">
         <f t="shared" si="1"/>
-        <v>165.59009035050261</v>
+        <v>168.2833827902208</v>
       </c>
       <c r="I22" s="104">
         <f t="shared" si="1"/>
-        <v>169.77318070100509</v>
+        <v>172.42976558044171</v>
       </c>
       <c r="J22" s="104">
         <f t="shared" si="1"/>
-        <v>173.95627105150791</v>
+        <v>173.0148583315212</v>
       </c>
       <c r="K22" s="149">
         <f t="shared" si="1"/>
-        <v>174.54654357698769</v>
+        <v>173.59995108260071</v>
       </c>
       <c r="L22" s="104">
         <f t="shared" si="1"/>
-        <v>175.13681610246749</v>
+        <v>174.1850438336802</v>
       </c>
       <c r="M22" s="223">
         <f t="shared" si="1"/>
-        <v>175.72708862794721</v>
+        <v>174.77013658475971</v>
       </c>
       <c r="N22" s="104">
         <f t="shared" si="1"/>
-        <v>176.31736115342699</v>
+        <v>172.87701948733081</v>
       </c>
       <c r="O22" s="149">
         <f t="shared" si="1"/>
-        <v>174.4074844576952</v>
+        <v>170.98390238990191</v>
       </c>
       <c r="P22" s="104">
         <f t="shared" si="1"/>
-        <v>172.49760776196339</v>
+        <v>169.09078529247299</v>
       </c>
       <c r="Q22" s="104">
         <f t="shared" si="1"/>
-        <v>170.58773106623161</v>
+        <v>167.19766819504409</v>
       </c>
       <c r="R22" s="104">
         <f t="shared" si="1"/>
-        <v>168.67785437049989</v>
+        <v>168.18650468764571</v>
       </c>
       <c r="S22" s="149">
         <f t="shared" si="1"/>
-        <v>169.67544494515229</v>
+        <v>169.1753411802471</v>
       </c>
       <c r="T22" s="104">
         <f t="shared" si="1"/>
-        <v>170.6730355198049</v>
+        <v>170.1641776728485</v>
       </c>
       <c r="U22" s="104">
         <f t="shared" si="1"/>
-        <v>171.6706260944575</v>
+        <v>171.15301416545</v>
       </c>
       <c r="V22" s="104">
         <f t="shared" si="1"/>
-        <v>172.66821666911011</v>
+        <v>173.69648926200901</v>
       </c>
       <c r="W22" s="149">
         <f t="shared" si="1"/>
-        <v>175.2342089258436</v>
+        <v>176.23996435856819</v>
       </c>
       <c r="X22" s="104">
         <f t="shared" si="1"/>
-        <v>177.8002011825771</v>
+        <v>178.78343945512711</v>
       </c>
       <c r="Y22" s="104">
         <f t="shared" si="1"/>
-        <v>180.36619343931071</v>
+        <v>181.3269145516862</v>
       </c>
       <c r="Z22" s="104">
         <f t="shared" si="1"/>
-        <v>182.93218569604429</v>
+        <v>183.85985203007041</v>
       </c>
       <c r="AA22" s="149">
         <f t="shared" si="1"/>
-        <v>185.48754704600071</v>
+        <v>186.3927895084546</v>
       </c>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B23" s="210" t="s">
         <v>277</v>
       </c>
@@ -23655,63 +23712,63 @@
       <c r="M23" s="230"/>
       <c r="N23" s="230">
         <f t="shared" ref="N23" si="2">(N22/M22)-1</f>
-        <v>3.3590297892518439E-3</v>
+        <v>-1.0832039926402248E-2</v>
       </c>
       <c r="O23" s="246">
         <f t="shared" ref="O23" si="3">(O22/N22)-1</f>
-        <v>-1.0832039926402137E-2</v>
+        <v>-1.0950657889885917E-2</v>
       </c>
       <c r="P23" s="230">
         <f t="shared" ref="P23" si="4">(P22/O22)-1</f>
-        <v>-1.0950657889885917E-2</v>
+        <v>-1.1071902506424092E-2</v>
       </c>
       <c r="Q23" s="230">
         <f t="shared" ref="Q23" si="5">(Q22/P22)-1</f>
-        <v>-1.1071902506423759E-2</v>
+        <v>-1.1195861998951728E-2</v>
       </c>
       <c r="R23" s="230">
         <f t="shared" ref="R23" si="6">(R22/Q22)-1</f>
-        <v>-1.1195861998951173E-2</v>
+        <v>5.9141763355701205E-3</v>
       </c>
       <c r="S23" s="246">
         <f t="shared" ref="S23" si="7">(S22/R22)-1</f>
-        <v>5.9141763355681221E-3</v>
+        <v>5.8794045006038687E-3</v>
       </c>
       <c r="T23" s="230">
         <f t="shared" ref="T23" si="8">(T22/S22)-1</f>
-        <v>5.8794045006045348E-3</v>
+        <v>5.8450391511126742E-3</v>
       </c>
       <c r="U23" s="230">
         <f t="shared" ref="U23" si="9">(U22/T22)-1</f>
-        <v>5.8450391511133404E-3</v>
+        <v>5.8110732007450316E-3</v>
       </c>
       <c r="V23" s="230">
         <f t="shared" ref="V23" si="10">(V22/U22)-1</f>
-        <v>5.8110732007450316E-3</v>
+        <v>1.4860825612456274E-2</v>
       </c>
       <c r="W23" s="246">
         <f t="shared" ref="W23" si="11">(W22/V22)-1</f>
-        <v>1.4860825612456496E-2</v>
+        <v>1.4643215342841742E-2</v>
       </c>
       <c r="X23" s="230">
         <f t="shared" ref="X23" si="12">(X22/W22)-1</f>
-        <v>1.4643215342840854E-2</v>
+        <v>1.4431886126486715E-2</v>
       </c>
       <c r="Y23" s="230">
         <f t="shared" ref="Y23" si="13">(Y22/X22)-1</f>
-        <v>1.4431886126488047E-2</v>
+        <v>1.4226569889866481E-2</v>
       </c>
       <c r="Z23" s="230">
         <f t="shared" ref="Z23" si="14">(Z22/Y22)-1</f>
-        <v>1.4226569889866703E-2</v>
+        <v>1.3968899678498792E-2</v>
       </c>
       <c r="AA23" s="246">
         <f t="shared" ref="AA23" si="15">(AA22/Z22)-1</f>
-        <v>1.3968899678498126E-2</v>
+        <v>1.3776457722645796E-2</v>
       </c>
       <c r="AB23" s="243"/>
     </row>
-    <row r="24" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="99" t="s">
         <v>178</v>
       </c>
@@ -23719,95 +23776,95 @@
       <c r="E24" s="217"/>
       <c r="F24" s="217">
         <f t="shared" ref="F24" si="16">F21-F22</f>
-        <v>-36.188999999999993</v>
+        <v>-8.7680000000000007</v>
       </c>
       <c r="G24" s="150">
         <f t="shared" ref="G24" si="17">G21-G22</f>
-        <v>16.895816906412534</v>
+        <v>14.165816906412658</v>
       </c>
       <c r="H24" s="217">
         <f t="shared" ref="H24" si="18">H21-H22</f>
-        <v>14.491993784139481</v>
+        <v>11.798701344421289</v>
       </c>
       <c r="I24" s="217">
         <f t="shared" ref="I24" si="19">I21-I22</f>
-        <v>10.308903433636999</v>
+        <v>7.6523185542003773</v>
       </c>
       <c r="J24" s="217">
         <f t="shared" ref="J24" si="20">J21-J22</f>
-        <v>6.1258130831341759</v>
+        <v>7.0672258031208912</v>
       </c>
       <c r="K24" s="150">
         <f t="shared" ref="K24:AA24" si="21">K21-K22</f>
-        <v>5.5355405576544001</v>
+        <v>6.4821330520413767</v>
       </c>
       <c r="L24" s="217">
         <f t="shared" si="21"/>
-        <v>46.502672063245768</v>
+        <v>47.454444332033063</v>
       </c>
       <c r="M24" s="239">
         <f t="shared" si="21"/>
-        <v>45.912399537766049</v>
+        <v>46.869351580953548</v>
       </c>
       <c r="N24" s="217">
         <f t="shared" si="21"/>
-        <v>46.066620655509439</v>
+        <v>46.361660893304077</v>
       </c>
       <c r="O24" s="150">
         <f t="shared" si="21"/>
-        <v>45.567625181294545</v>
+        <v>45.853970205654605</v>
       </c>
       <c r="P24" s="217">
         <f t="shared" si="21"/>
-        <v>45.068629707079623</v>
+        <v>45.346279518005133</v>
       </c>
       <c r="Q24" s="217">
         <f t="shared" si="21"/>
-        <v>44.569634232864729</v>
+        <v>44.838588830355661</v>
       </c>
       <c r="R24" s="217">
         <f t="shared" si="21"/>
-        <v>44.070638758649835</v>
+        <v>45.103772151336528</v>
       </c>
       <c r="S24" s="150">
         <f t="shared" si="21"/>
-        <v>44.331280287489619</v>
+        <v>45.368955472317282</v>
       </c>
       <c r="T24" s="217">
         <f t="shared" si="21"/>
-        <v>44.59192181632946</v>
+        <v>45.634138793298064</v>
       </c>
       <c r="U24" s="217">
         <f t="shared" si="21"/>
-        <v>44.852563345169301</v>
+        <v>45.899322114278874</v>
       </c>
       <c r="V24" s="217">
         <f t="shared" si="21"/>
-        <v>45.113204874009142</v>
+        <v>46.581423935949147</v>
       </c>
       <c r="W24" s="150">
         <f t="shared" si="21"/>
-        <v>45.783624344460833</v>
+        <v>47.263525757619476</v>
       </c>
       <c r="X24" s="217">
         <f t="shared" si="21"/>
-        <v>46.454043814912495</v>
+        <v>47.94562757928972</v>
       </c>
       <c r="Y24" s="217">
         <f t="shared" si="21"/>
-        <v>47.124463285364214</v>
+        <v>48.627729400959993</v>
       </c>
       <c r="Z24" s="217">
         <f t="shared" si="21"/>
-        <v>47.794882755815905</v>
+        <v>49.307005274555195</v>
       </c>
       <c r="AA24" s="150">
         <f t="shared" si="21"/>
-        <v>48.462524678177488</v>
+        <v>49.986281148150368</v>
       </c>
       <c r="AB24" s="244"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="D25" s="102"/>
       <c r="E25" s="104"/>
       <c r="F25" s="104"/>
@@ -23830,7 +23887,7 @@
       <c r="Z25" s="95"/>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="D26" s="102"/>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -23853,7 +23910,7 @@
       <c r="Z26" s="95"/>
       <c r="AB26" s="95"/>
     </row>
-    <row r="27" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="110" t="s">
         <v>187</v>
       </c>
@@ -23880,7 +23937,7 @@
       <c r="Z27" s="95"/>
       <c r="AB27" s="95"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>187</v>
       </c>
@@ -23919,169 +23976,169 @@
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>221.97857145768003</v>
+        <v>199.18701974948621</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>249.26810268486034</v>
+        <v>215.32898912898497</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>274.75496951067691</v>
+        <v>232.40626991655981</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>299.80795800653038</v>
+        <v>250.52678265929654</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>326.22456411083431</v>
+        <v>269.04300407468099</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>352.51720497800534</v>
+        <v>276.63429373419979</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>352.19022179414571</v>
+        <v>284.62129206636587</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>352.607030033076</v>
+        <v>292.96802555548481</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>353.70564707622975</v>
+        <v>300.81112982487019</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>355.79598601643715</v>
+        <v>302.00783467321349</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>354.4134846431906</v>
+        <v>303.1685660058609</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>352.90701803281308</v>
+        <v>304.29332382281382</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>351.89641237096151</v>
+        <v>305.41808163976634</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>351.44365027620228</v>
+        <v>306.58423241555909</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>350.7814331585376</v>
+        <v>307.7503831913516</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>177</v>
       </c>
       <c r="D29" s="102">
         <f t="shared" ref="D29:AA29" si="23">D11</f>
-        <v>186.4</v>
+        <v>440</v>
       </c>
       <c r="E29" s="104">
         <f t="shared" si="23"/>
-        <v>393.066666666667</v>
+        <v>363.8</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" si="23"/>
-        <v>224.8</v>
+        <v>243.1</v>
       </c>
       <c r="G29" s="149">
         <f t="shared" si="23"/>
-        <v>145.9</v>
+        <v>216.8</v>
       </c>
       <c r="H29" s="104">
         <f t="shared" si="23"/>
-        <v>123.187827611359</v>
+        <v>201.69787045292151</v>
       </c>
       <c r="I29" s="104">
         <f t="shared" si="23"/>
-        <v>100.480777097718</v>
+        <v>188.86729215584299</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" si="23"/>
-        <v>79.837867818451997</v>
+        <v>193.24899108297839</v>
       </c>
       <c r="K29" s="149">
         <f t="shared" si="23"/>
-        <v>93.489948668704102</v>
+        <v>199.97623704208269</v>
       </c>
       <c r="L29" s="223">
         <f t="shared" si="23"/>
-        <v>109.273410154041</v>
+        <v>205.88603266163159</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" si="23"/>
-        <v>125.589838709288</v>
+        <v>212.3326953411578</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" si="23"/>
-        <v>141.02956247526899</v>
+        <v>229.53998058883141</v>
       </c>
       <c r="O29" s="149">
         <f t="shared" si="23"/>
-        <v>155.44938450061099</v>
+        <v>247.744304662177</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" si="23"/>
-        <v>169.623729184957</v>
+        <v>267.06071050261841</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="23"/>
-        <v>184.56957408385901</v>
+        <v>286.79894046161343</v>
       </c>
       <c r="R29" s="104">
         <f t="shared" si="23"/>
-        <v>199.44528259961899</v>
+        <v>294.89122979125102</v>
       </c>
       <c r="S29" s="149">
         <f t="shared" si="23"/>
-        <v>199.260283817746</v>
+        <v>303.40534323944189</v>
       </c>
       <c r="T29" s="104">
         <f t="shared" si="23"/>
-        <v>199.496103334721</v>
+        <v>312.30293315904561</v>
       </c>
       <c r="U29" s="104">
         <f t="shared" si="23"/>
-        <v>200.117672958973</v>
+        <v>320.66365601867182</v>
       </c>
       <c r="V29" s="104">
         <f t="shared" si="23"/>
-        <v>201.300333648356</v>
+        <v>321.93933937542943</v>
       </c>
       <c r="W29" s="149">
         <f t="shared" si="23"/>
-        <v>200.51814947922099</v>
+        <v>323.17667508504508</v>
       </c>
       <c r="X29" s="104">
         <f t="shared" si="23"/>
-        <v>199.66582892694501</v>
+        <v>324.3756631475203</v>
       </c>
       <c r="Y29" s="104">
         <f t="shared" si="23"/>
-        <v>199.09405390723401</v>
+        <v>325.57465120999512</v>
       </c>
       <c r="Z29" s="104">
         <f t="shared" si="23"/>
-        <v>198.83789261165899</v>
+        <v>326.81776402783669</v>
       </c>
       <c r="AA29" s="149">
         <f t="shared" si="23"/>
-        <v>198.46322698311701</v>
+        <v>328.06087684567802</v>
       </c>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B30" s="210" t="s">
         <v>277</v>
       </c>
@@ -24096,67 +24153,67 @@
       <c r="L30" s="230"/>
       <c r="M30" s="230">
         <f t="shared" ref="M30" si="24">(M29/L29)-1</f>
-        <v>0.14931746462607864</v>
+        <v>3.1311801952690788E-2</v>
       </c>
       <c r="N30" s="230">
         <f t="shared" ref="N30" si="25">(N29/M29)-1</f>
-        <v>0.12293768289423834</v>
+        <v>8.1039263501207159E-2</v>
       </c>
       <c r="O30" s="246">
         <f t="shared" ref="O30" si="26">(O29/N29)-1</f>
-        <v>0.10224680394843211</v>
+        <v>7.9307857509818724E-2</v>
       </c>
       <c r="P30" s="230">
         <f t="shared" ref="P30" si="27">(P29/O29)-1</f>
-        <v>9.1183022241495548E-2</v>
+        <v>7.7969121699007937E-2</v>
       </c>
       <c r="Q30" s="230">
         <f t="shared" ref="Q30" si="28">(Q29/P29)-1</f>
-        <v>8.811175753956646E-2</v>
+        <v>7.390914942840876E-2</v>
       </c>
       <c r="R30" s="230">
         <f t="shared" ref="R30" si="29">(R29/Q29)-1</f>
-        <v>8.0596753769400786E-2</v>
+        <v>2.8215896880974478E-2</v>
       </c>
       <c r="S30" s="246">
         <f t="shared" ref="S30" si="30">(S29/R29)-1</f>
-        <v>-9.2756659601911373E-4</v>
+        <v>2.8872047006002433E-2</v>
       </c>
       <c r="T30" s="230">
         <f t="shared" ref="T30" si="31">(T29/S29)-1</f>
-        <v>1.1834747620389496E-3</v>
+        <v>2.9325752225074941E-2</v>
       </c>
       <c r="U30" s="230">
         <f t="shared" ref="U30" si="32">(U29/T29)-1</f>
-        <v>3.1156980705990822E-3</v>
+        <v>2.6771195438527462E-2</v>
       </c>
       <c r="V30" s="230">
         <f t="shared" ref="V30" si="33">(V29/U29)-1</f>
-        <v>5.909826313168498E-3</v>
+        <v>3.9782598770199407E-3</v>
       </c>
       <c r="W30" s="246">
         <f t="shared" ref="W30" si="34">(W29/V29)-1</f>
-        <v>-3.8856575891293987E-3</v>
+        <v>3.8433815265201954E-3</v>
       </c>
       <c r="X30" s="230">
         <f t="shared" ref="X30" si="35">(X29/W29)-1</f>
-        <v>-4.2505905549676815E-3</v>
+        <v>3.7100080386671674E-3</v>
       </c>
       <c r="Y30" s="230">
         <f t="shared" ref="Y30" si="36">(Y29/X29)-1</f>
-        <v>-2.8636598599963703E-3</v>
+        <v>3.6962947554100012E-3</v>
       </c>
       <c r="Z30" s="230">
         <f t="shared" ref="Z30" si="37">(Z29/Y29)-1</f>
-        <v>-1.2866345857540651E-3</v>
+        <v>3.8182113171942866E-3</v>
       </c>
       <c r="AA30" s="246">
         <f t="shared" ref="AA30" si="38">(AA29/Z29)-1</f>
-        <v>-1.8842768026802181E-3</v>
+        <v>3.8036880325007516E-3</v>
       </c>
       <c r="AB30" s="243"/>
     </row>
-    <row r="31" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="99" t="s">
         <v>178</v>
       </c>
@@ -24164,95 +24221,95 @@
       <c r="E31" s="217"/>
       <c r="F31" s="217">
         <f t="shared" ref="F31" si="39">F28-F29</f>
-        <v>105.97699999999998</v>
+        <v>87.676999999999992</v>
       </c>
       <c r="G31" s="150">
         <f t="shared" ref="G31" si="40">G28-G29</f>
-        <v>35.907999999999987</v>
+        <v>-34.992000000000019</v>
       </c>
       <c r="H31" s="217">
         <f t="shared" ref="H31" si="41">H28-H29</f>
-        <v>82.282942388641018</v>
+        <v>3.7728995470785094</v>
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="42">I28-I29</f>
-        <v>89.353669827281948</v>
+        <v>0.96715476915696286</v>
       </c>
       <c r="J31" s="217">
         <f t="shared" ref="J31" si="43">J28-J29</f>
-        <v>110.72575134117292</v>
+        <v>-2.6853719233534719</v>
       </c>
       <c r="K31" s="150">
         <f t="shared" ref="K31:N31" si="44">K28-K29</f>
-        <v>98.17289763461801</v>
+        <v>-8.3133907387605745</v>
       </c>
       <c r="L31" s="239">
         <f t="shared" si="44"/>
-        <v>83.866064612314361</v>
+        <v>-12.746557895276226</v>
       </c>
       <c r="M31" s="217">
         <f t="shared" si="44"/>
-        <v>96.38873274839203</v>
+        <v>-13.145675591671591</v>
       </c>
       <c r="N31" s="217">
         <f t="shared" si="44"/>
-        <v>108.23854020959135</v>
+        <v>-14.21099145984644</v>
       </c>
       <c r="O31" s="150">
         <f t="shared" ref="O31:AA31" si="45">O28-O29</f>
-        <v>119.30558501006593</v>
+        <v>-15.338034745617193</v>
       </c>
       <c r="P31" s="150">
         <f t="shared" si="45"/>
-        <v>130.18422882157338</v>
+        <v>-16.533927843321862</v>
       </c>
       <c r="Q31" s="150">
         <f t="shared" si="45"/>
-        <v>141.6549900269753</v>
+        <v>-17.755936386932433</v>
       </c>
       <c r="R31" s="150">
         <f t="shared" si="45"/>
-        <v>153.07192237838635</v>
+        <v>-18.256936057051234</v>
       </c>
       <c r="S31" s="150">
         <f t="shared" si="45"/>
-        <v>152.92993797639971</v>
+        <v>-18.784051173076023</v>
       </c>
       <c r="T31" s="150">
         <f t="shared" si="45"/>
-        <v>153.110926698355</v>
+        <v>-19.334907603560794</v>
       </c>
       <c r="U31" s="150">
         <f t="shared" si="45"/>
-        <v>153.58797411725675</v>
+        <v>-19.852526193801623</v>
       </c>
       <c r="V31" s="150">
         <f t="shared" si="45"/>
-        <v>154.49565236808115</v>
+        <v>-19.931504702215932</v>
       </c>
       <c r="W31" s="150">
         <f t="shared" si="45"/>
-        <v>153.89533516396961</v>
+        <v>-20.00810907918418</v>
       </c>
       <c r="X31" s="150">
         <f t="shared" si="45"/>
-        <v>153.24118910586807</v>
+        <v>-20.082339324706481</v>
       </c>
       <c r="Y31" s="150">
         <f t="shared" si="45"/>
-        <v>152.8023584637275</v>
+        <v>-20.156569570228783</v>
       </c>
       <c r="Z31" s="150">
         <f t="shared" si="45"/>
-        <v>152.60575766454329</v>
+        <v>-20.233531612277602</v>
       </c>
       <c r="AA31" s="150">
         <f t="shared" si="45"/>
-        <v>152.31820617542058</v>
+        <v>-20.310493654326422</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
-    <row r="32" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="99"/>
       <c r="D32" s="103"/>
       <c r="E32" s="217"/>
@@ -24388,35 +24445,35 @@
       </c>
       <c r="D36" s="102">
         <f t="shared" ref="D36:K36" si="46">D12</f>
-        <v>1862.4</v>
+        <v>1779.8</v>
       </c>
       <c r="E36" s="104">
         <f t="shared" si="46"/>
-        <v>1779.8</v>
+        <v>1871.3</v>
       </c>
       <c r="F36" s="104">
         <f t="shared" si="46"/>
-        <v>1871.3</v>
+        <v>1907.1</v>
       </c>
       <c r="G36" s="149">
         <f t="shared" si="46"/>
-        <v>1890.6</v>
+        <v>1958.3</v>
       </c>
       <c r="H36" s="104">
         <f t="shared" si="46"/>
-        <v>1921.95543744052</v>
+        <v>1978.3751090344099</v>
       </c>
       <c r="I36" s="104">
         <f t="shared" si="46"/>
-        <v>1952.51729994875</v>
+        <v>2007.0179878174349</v>
       </c>
       <c r="J36" s="104">
         <f t="shared" si="46"/>
-        <v>1985.18305878908</v>
+        <v>2033.6981662082569</v>
       </c>
       <c r="K36" s="149">
         <f t="shared" si="46"/>
-        <v>2007.0617351197</v>
+        <v>2058.944408239478</v>
       </c>
       <c r="L36" s="104"/>
       <c r="M36" s="104"/>
@@ -24440,27 +24497,27 @@
       <c r="E37" s="217"/>
       <c r="F37" s="217">
         <f>F35-F36</f>
-        <v>4.8999999999978172E-2</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="G37" s="150">
         <f t="shared" ref="G37:K37" si="47">G35-G36</f>
-        <v>-19.250999999999976</v>
+        <v>-86.951000000000022</v>
       </c>
       <c r="H37" s="217">
         <f t="shared" si="47"/>
-        <v>-18.249119132365195</v>
+        <v>-74.668790726255111</v>
       </c>
       <c r="I37" s="217">
         <f t="shared" si="47"/>
-        <v>-29.295528487588854</v>
+        <v>-83.796216356273817</v>
       </c>
       <c r="J37" s="217">
         <f t="shared" si="47"/>
-        <v>-34.116917561397258</v>
+        <v>-82.632024980574215</v>
       </c>
       <c r="K37" s="150">
         <f t="shared" si="47"/>
-        <v>-30.059208161437255</v>
+        <v>-81.941881281215274</v>
       </c>
       <c r="L37" s="217">
         <v>0</v>
@@ -24638,35 +24695,35 @@
       </c>
       <c r="D42" s="102">
         <f t="shared" ref="D42:K42" si="48">D13</f>
-        <v>62.7</v>
+        <v>54.2</v>
       </c>
       <c r="E42" s="104">
         <f t="shared" si="48"/>
-        <v>54.2</v>
+        <v>90.2</v>
       </c>
       <c r="F42" s="104">
         <f t="shared" si="48"/>
-        <v>90.2</v>
+        <v>95.9</v>
       </c>
       <c r="G42" s="149">
         <f t="shared" si="48"/>
-        <v>69.033333333333303</v>
+        <v>95.9</v>
       </c>
       <c r="H42" s="104">
         <f t="shared" si="48"/>
-        <v>70.178245194458697</v>
+        <v>96.883099094316492</v>
       </c>
       <c r="I42" s="104">
         <f t="shared" si="48"/>
-        <v>71.2941804752259</v>
+        <v>98.285770837814454</v>
       </c>
       <c r="J42" s="104">
         <f t="shared" si="48"/>
-        <v>72.486937387640197</v>
+        <v>99.592327089502035</v>
       </c>
       <c r="K42" s="149">
         <f t="shared" si="48"/>
-        <v>73.285814969373106</v>
+        <v>100.82866197730991</v>
       </c>
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
@@ -24692,27 +24749,27 @@
       <c r="E43" s="217"/>
       <c r="F43" s="217">
         <f>F41-F42</f>
-        <v>0</v>
+        <v>-5.7000000000000028</v>
       </c>
       <c r="G43" s="150">
         <f t="shared" ref="G43:K43" si="49">G41-G42</f>
-        <v>22.484070765805583</v>
+        <v>-4.3825959008611193</v>
       </c>
       <c r="H43" s="217">
         <f t="shared" si="49"/>
-        <v>22.921577670592825</v>
+        <v>-3.7832762292649704</v>
       </c>
       <c r="I43" s="217">
         <f t="shared" si="49"/>
-        <v>22.760036045087944</v>
+        <v>-4.2315543175006098</v>
       </c>
       <c r="J43" s="217">
         <f t="shared" si="49"/>
-        <v>22.928994365806858</v>
+        <v>-4.1763953360549806</v>
       </c>
       <c r="K43" s="150">
         <f t="shared" si="49"/>
-        <v>23.39852299466142</v>
+        <v>-4.14432401327538</v>
       </c>
       <c r="L43" s="217">
         <v>0</v>
@@ -24868,71 +24925,71 @@
       </c>
       <c r="K47" s="149">
         <f>J47*(1+K49)</f>
-        <v>1472.4838694599159</v>
+        <v>1472.355682642366</v>
       </c>
       <c r="L47" s="104">
         <f t="shared" ref="L47:AA47" si="50">K47*(1+L49)</f>
-        <v>1503.3842580776295</v>
+        <v>1503.1278844425292</v>
       </c>
       <c r="M47" s="104">
         <f t="shared" si="50"/>
-        <v>1534.2846466953417</v>
+        <v>1533.9000862426915</v>
       </c>
       <c r="N47" s="104">
         <f t="shared" si="50"/>
-        <v>1565.1850353130551</v>
+        <v>1546.9480044194563</v>
       </c>
       <c r="O47" s="149">
         <f t="shared" si="50"/>
-        <v>1577.9212081553392</v>
+        <v>1559.9959225962232</v>
       </c>
       <c r="P47" s="104">
         <f t="shared" si="50"/>
-        <v>1590.6573809976228</v>
+        <v>1573.043840772988</v>
       </c>
       <c r="Q47" s="104">
         <f t="shared" si="50"/>
-        <v>1603.3935538399071</v>
+        <v>1586.0917589497537</v>
       </c>
       <c r="R47" s="104">
         <f t="shared" si="50"/>
-        <v>1616.1297266821898</v>
+        <v>1596.847385674771</v>
       </c>
       <c r="S47" s="149">
         <f t="shared" si="50"/>
-        <v>1627.0642612135953</v>
+        <v>1607.6030123997884</v>
       </c>
       <c r="T47" s="104">
         <f t="shared" si="50"/>
-        <v>1637.9987957449996</v>
+        <v>1618.3586391248059</v>
       </c>
       <c r="U47" s="104">
         <f t="shared" si="50"/>
-        <v>1648.9333302764039</v>
+        <v>1629.1142658498229</v>
       </c>
       <c r="V47" s="104">
         <f t="shared" si="50"/>
-        <v>1659.8678648078082</v>
+        <v>1669.2561077970809</v>
       </c>
       <c r="W47" s="149">
         <f t="shared" si="50"/>
-        <v>1700.4813043393915</v>
+        <v>1709.397949744339</v>
       </c>
       <c r="X47" s="104">
         <f t="shared" si="50"/>
-        <v>1741.0947438709736</v>
+        <v>1749.5397916915961</v>
       </c>
       <c r="Y47" s="104">
         <f t="shared" si="50"/>
-        <v>1781.7081834025557</v>
+        <v>1789.681633638854</v>
       </c>
       <c r="Z47" s="104">
         <f t="shared" si="50"/>
-        <v>1822.3216229341388</v>
+        <v>1819.5994349998603</v>
       </c>
       <c r="AA47" s="149">
         <f t="shared" si="50"/>
-        <v>1852.6998677107395</v>
+        <v>1849.5172363608665</v>
       </c>
       <c r="AB47" s="95"/>
     </row>
@@ -24942,99 +24999,99 @@
       </c>
       <c r="D48" s="102">
         <f t="shared" ref="D48:AA48" si="51">D14</f>
-        <v>1228.1289999999999</v>
+        <v>1336.74</v>
       </c>
       <c r="E48" s="104">
         <f t="shared" si="51"/>
-        <v>1336.74</v>
+        <v>1328.7719999999999</v>
       </c>
       <c r="F48" s="104">
         <f t="shared" si="51"/>
-        <v>1328.7719999999999</v>
+        <v>1372.7929999999999</v>
       </c>
       <c r="G48" s="149">
         <f t="shared" si="51"/>
-        <v>1372.7929999999999</v>
+        <v>1403.2629999999999</v>
       </c>
       <c r="H48" s="104">
         <f t="shared" si="51"/>
-        <v>1365.228724966064</v>
+        <v>1394.63952711825</v>
       </c>
       <c r="I48" s="104">
         <f t="shared" si="51"/>
-        <v>1357.664449932128</v>
+        <v>1386.0160542364999</v>
       </c>
       <c r="J48" s="223">
         <f t="shared" si="51"/>
-        <v>1350.1001748981921</v>
+        <v>1416.247429866125</v>
       </c>
       <c r="K48" s="149">
         <f t="shared" si="51"/>
-        <v>1379.0396158890269</v>
+        <v>1446.4788054957489</v>
       </c>
       <c r="L48" s="104">
         <f t="shared" si="51"/>
-        <v>1407.979056879863</v>
+        <v>1476.710181125374</v>
       </c>
       <c r="M48" s="104">
         <f t="shared" si="51"/>
-        <v>1436.918497870698</v>
+        <v>1506.9415567549979</v>
       </c>
       <c r="N48" s="104">
         <f t="shared" si="51"/>
-        <v>1465.857938861534</v>
+        <v>1519.7601557667949</v>
       </c>
       <c r="O48" s="149">
         <f t="shared" si="51"/>
-        <v>1477.7858704800731</v>
+        <v>1532.578754778594</v>
       </c>
       <c r="P48" s="104">
         <f t="shared" si="51"/>
-        <v>1489.7138020986119</v>
+        <v>1545.397353790391</v>
       </c>
       <c r="Q48" s="104">
         <f t="shared" si="51"/>
-        <v>1501.6417337171511</v>
+        <v>1558.2159528021889</v>
       </c>
       <c r="R48" s="104">
         <f t="shared" si="51"/>
-        <v>1513.569665335689</v>
+        <v>1568.782547736397</v>
       </c>
       <c r="S48" s="149">
         <f t="shared" si="51"/>
-        <v>1523.810291133271</v>
+        <v>1579.349142670605</v>
       </c>
       <c r="T48" s="104">
         <f t="shared" si="51"/>
-        <v>1534.0509169308521</v>
+        <v>1589.9157376048131</v>
       </c>
       <c r="U48" s="104">
         <f t="shared" si="51"/>
-        <v>1544.2915427284329</v>
+        <v>1600.4823325390209</v>
       </c>
       <c r="V48" s="104">
         <f t="shared" si="51"/>
-        <v>1554.5321685260139</v>
+        <v>1639.9186754518039</v>
       </c>
       <c r="W48" s="149">
         <f t="shared" si="51"/>
-        <v>1592.5682674016571</v>
+        <v>1679.3550183645871</v>
       </c>
       <c r="X48" s="104">
         <f t="shared" si="51"/>
-        <v>1630.6043662772991</v>
+        <v>1718.7913612773691</v>
       </c>
       <c r="Y48" s="104">
         <f t="shared" si="51"/>
-        <v>1668.640465152941</v>
+        <v>1758.2277041901521</v>
       </c>
       <c r="Z48" s="104">
         <f t="shared" si="51"/>
-        <v>1706.6765640285839</v>
+        <v>1787.619695599499</v>
       </c>
       <c r="AA48" s="149">
         <f t="shared" si="51"/>
-        <v>1735.126996577955</v>
+        <v>1817.0116870088459</v>
       </c>
       <c r="AB48" s="95"/>
     </row>
@@ -25051,71 +25108,71 @@
       <c r="J49" s="242"/>
       <c r="K49" s="246">
         <f t="shared" ref="K49" si="52">(K48/J48)-1</f>
-        <v>2.1435032398997356E-2</v>
+        <v>2.1346111556567182E-2</v>
       </c>
       <c r="L49" s="230">
         <f t="shared" ref="L49" si="53">(L48/K48)-1</f>
-        <v>2.0985213664206359E-2</v>
+        <v>2.0899978288491994E-2</v>
       </c>
       <c r="M49" s="230">
         <f t="shared" ref="M49" si="54">(M48/L48)-1</f>
-        <v>2.0553885975382213E-2</v>
+        <v>2.047211160052087E-2</v>
       </c>
       <c r="N49" s="230">
         <f t="shared" ref="N49" si="55">(N48/M48)-1</f>
-        <v>2.0139932107297698E-2</v>
+        <v>8.5063677183341291E-3</v>
       </c>
       <c r="O49" s="246">
         <f t="shared" ref="O49" si="56">(O48/N48)-1</f>
-        <v>8.1371675264814147E-3</v>
+        <v>8.4346197412521473E-3</v>
       </c>
       <c r="P49" s="230">
         <f t="shared" ref="P49" si="57">(P48/O48)-1</f>
-        <v>8.071488472591648E-3</v>
+        <v>8.364071974656051E-3</v>
       </c>
       <c r="Q49" s="230">
         <f t="shared" ref="Q49" si="58">(Q48/P48)-1</f>
-        <v>8.0068611848369553E-3</v>
+        <v>8.294694552412496E-3</v>
       </c>
       <c r="R49" s="230">
         <f t="shared" ref="R49" si="59">(R48/Q48)-1</f>
-        <v>7.9432605998579486E-3</v>
+        <v>6.7812134224436438E-3</v>
       </c>
       <c r="S49" s="246">
         <f t="shared" ref="S49" si="60">(S48/R48)-1</f>
-        <v>6.7658767429847888E-3</v>
+        <v>6.7355382997182911E-3</v>
       </c>
       <c r="T49" s="230">
         <f t="shared" ref="T49" si="61">(T48/S48)-1</f>
-        <v>6.7204072955597827E-3</v>
+        <v>6.6904743534672573E-3</v>
       </c>
       <c r="U49" s="230">
         <f t="shared" ref="U49" si="62">(U48/T48)-1</f>
-        <v>6.6755449148123702E-3</v>
+        <v>6.6460093980365009E-3</v>
       </c>
       <c r="V49" s="230">
         <f t="shared" ref="V49" si="63">(V48/U48)-1</f>
-        <v>6.6312775238592803E-3</v>
+        <v>2.464028631307702E-2</v>
       </c>
       <c r="W49" s="246">
         <f t="shared" ref="W49" si="64">(W48/V48)-1</f>
-        <v>2.4467875059612565E-2</v>
+        <v>2.4047743039403047E-2</v>
       </c>
       <c r="X49" s="230">
         <f t="shared" ref="X49" si="65">(X48/W48)-1</f>
-        <v>2.3883496647650437E-2</v>
+        <v>2.3483029187709503E-2</v>
       </c>
       <c r="Y49" s="230">
         <f t="shared" ref="Y49" si="66">(Y48/X48)-1</f>
-        <v>2.3326381102780402E-2</v>
+        <v>2.2944229184090448E-2</v>
       </c>
       <c r="Z49" s="230">
         <f t="shared" ref="Z49" si="67">(Z48/Y48)-1</f>
-        <v>2.2794664081310367E-2</v>
+        <v>1.6716828735721112E-2</v>
       </c>
       <c r="AA49" s="246">
         <f t="shared" ref="AA49" si="68">(AA48/Z48)-1</f>
-        <v>1.667007864818526E-2</v>
+        <v>1.6441971120423338E-2</v>
       </c>
       <c r="AB49" s="243"/>
     </row>
@@ -25127,91 +25184,91 @@
       <c r="E50" s="217"/>
       <c r="F50" s="217">
         <f t="shared" ref="F50" si="69">F47-F48</f>
-        <v>3.3000000000129148E-2</v>
+        <v>-43.987999999999829</v>
       </c>
       <c r="G50" s="150">
         <f t="shared" ref="G50" si="70">G47-G48</f>
-        <v>-5.9999999998581188E-3</v>
+        <v>-30.475999999999885</v>
       </c>
       <c r="H50" s="217">
         <f t="shared" ref="H50" si="71">H47-H48</f>
-        <v>25.381437624588216</v>
+        <v>-4.0293645275978633</v>
       </c>
       <c r="I50" s="217">
         <f t="shared" ref="I50" si="72">I47-I48</f>
-        <v>60.824709046836006</v>
+        <v>32.473104742464102</v>
       </c>
       <c r="J50" s="239">
         <f t="shared" ref="J50" si="73">J47-J48</f>
-        <v>91.483305944011818</v>
+        <v>25.336050976078923</v>
       </c>
       <c r="K50" s="150">
         <f t="shared" ref="K50:AA50" si="74">K47-K48</f>
-        <v>93.444253570889032</v>
+        <v>25.876877146617062</v>
       </c>
       <c r="L50" s="217">
         <f t="shared" si="74"/>
-        <v>95.405201197766473</v>
+        <v>26.417703317155201</v>
       </c>
       <c r="M50" s="217">
         <f t="shared" si="74"/>
-        <v>97.366148824643687</v>
+        <v>26.958529487693568</v>
       </c>
       <c r="N50" s="217">
         <f t="shared" si="74"/>
-        <v>99.327096451521129</v>
+        <v>27.187848652661387</v>
       </c>
       <c r="O50" s="150">
         <f t="shared" si="74"/>
-        <v>100.1353376752661</v>
+        <v>27.417167817629206</v>
       </c>
       <c r="P50" s="217">
         <f t="shared" si="74"/>
-        <v>100.94357889901084</v>
+        <v>27.646486982597025</v>
       </c>
       <c r="Q50" s="217">
         <f t="shared" si="74"/>
-        <v>101.75182012275604</v>
+        <v>27.875806147564845</v>
       </c>
       <c r="R50" s="217">
         <f t="shared" si="74"/>
-        <v>102.56006134650079</v>
+        <v>28.064837938374012</v>
       </c>
       <c r="S50" s="150">
         <f t="shared" si="74"/>
-        <v>103.25397008032428</v>
+        <v>28.253869729183407</v>
       </c>
       <c r="T50" s="217">
         <f t="shared" si="74"/>
-        <v>103.94787881414754</v>
+        <v>28.442901519992802</v>
       </c>
       <c r="U50" s="217">
         <f t="shared" si="74"/>
-        <v>104.64178754797103</v>
+        <v>28.631933310801969</v>
       </c>
       <c r="V50" s="217">
         <f t="shared" si="74"/>
-        <v>105.3356962817943</v>
+        <v>29.337432345276966</v>
       </c>
       <c r="W50" s="150">
         <f t="shared" si="74"/>
-        <v>107.91303693773443</v>
+        <v>30.042931379751963</v>
       </c>
       <c r="X50" s="217">
         <f t="shared" si="74"/>
-        <v>110.49037759367457</v>
+        <v>30.748430414226959</v>
       </c>
       <c r="Y50" s="217">
         <f t="shared" si="74"/>
-        <v>113.0677182496147</v>
+        <v>31.453929448701956</v>
       </c>
       <c r="Z50" s="217">
         <f t="shared" si="74"/>
-        <v>115.64505890555483</v>
+        <v>31.979739400361268</v>
       </c>
       <c r="AA50" s="150">
         <f t="shared" si="74"/>
-        <v>117.57287113278448</v>
+        <v>32.50554935202058</v>
       </c>
       <c r="AB50" s="244"/>
     </row>
@@ -25326,67 +25383,67 @@
       </c>
       <c r="L54" s="104">
         <f>K54*(1+L56)</f>
-        <v>1696.1632113985002</v>
+        <v>1676.7274934000816</v>
       </c>
       <c r="M54" s="104">
         <f t="shared" ref="M54:AA54" si="75">L54*(1+M56)</f>
-        <v>1690.6431731887944</v>
+        <v>1658.728354358673</v>
       </c>
       <c r="N54" s="104">
         <f t="shared" si="75"/>
-        <v>1659.3144732728074</v>
+        <v>1680.0972549627311</v>
       </c>
       <c r="O54" s="104">
         <f t="shared" si="75"/>
-        <v>1660.0998411062906</v>
+        <v>1691.2386419806749</v>
       </c>
       <c r="P54" s="104">
         <f t="shared" si="75"/>
-        <v>1661.9626342829306</v>
+        <v>1695.1606254140172</v>
       </c>
       <c r="Q54" s="104">
         <f t="shared" si="75"/>
-        <v>1664.5622777115709</v>
+        <v>1690.7825491435724</v>
       </c>
       <c r="R54" s="104">
         <f t="shared" si="75"/>
-        <v>1669.27314664353</v>
+        <v>1699.3357522938504</v>
       </c>
       <c r="S54" s="104">
         <f t="shared" si="75"/>
-        <v>1686.6874576142454</v>
+        <v>1708.9432388453199</v>
       </c>
       <c r="T54" s="104">
         <f t="shared" si="75"/>
-        <v>1703.3929697324252</v>
+        <v>1718.1108506122771</v>
       </c>
       <c r="U54" s="104">
         <f t="shared" si="75"/>
-        <v>1716.7936271136491</v>
+        <v>1727.8695330427036</v>
       </c>
       <c r="V54" s="104">
         <f t="shared" si="75"/>
-        <v>1728.1685099106835</v>
+        <v>1768.0404938555441</v>
       </c>
       <c r="W54" s="104">
         <f t="shared" si="75"/>
-        <v>1767.2677379421684</v>
+        <v>1801.9853391397789</v>
       </c>
       <c r="X54" s="104">
         <f t="shared" si="75"/>
-        <v>1799.6989314425757</v>
+        <v>1828.1126511703853</v>
       </c>
       <c r="Y54" s="104">
         <f t="shared" si="75"/>
-        <v>1826.2231457392986</v>
+        <v>1847.1770422269346</v>
       </c>
       <c r="Z54" s="104">
         <f t="shared" si="75"/>
-        <v>1846.2047044367848</v>
+        <v>1856.0731015206463</v>
       </c>
       <c r="AA54" s="104">
         <f t="shared" si="75"/>
-        <v>1856.4697505855511</v>
+        <v>1867.9689093703914</v>
       </c>
       <c r="AB54" s="95"/>
     </row>
@@ -25396,99 +25453,99 @@
       </c>
       <c r="D55" s="102">
         <f t="shared" ref="D55:AA55" si="76">D15</f>
-        <v>1574.4</v>
+        <v>1828.5000000000009</v>
       </c>
       <c r="E55" s="104">
         <f t="shared" si="76"/>
-        <v>3741.5333333333301</v>
+        <v>1861.4</v>
       </c>
       <c r="F55" s="104">
         <f t="shared" si="76"/>
-        <v>2572.1999999999998</v>
+        <v>1756.1999999999989</v>
       </c>
       <c r="G55" s="149">
         <f t="shared" si="76"/>
-        <v>2063.6999999999998</v>
+        <v>1808.7</v>
       </c>
       <c r="H55" s="104">
         <f t="shared" si="76"/>
-        <v>1819.81390083411</v>
+        <v>1629.356357104331</v>
       </c>
       <c r="I55" s="104">
         <f t="shared" si="76"/>
-        <v>1623.62521731378</v>
+        <v>1501.6652887165669</v>
       </c>
       <c r="J55" s="104">
         <f t="shared" si="76"/>
-        <v>1487.1097724132001</v>
+        <v>1514.272945247701</v>
       </c>
       <c r="K55" s="263">
         <f t="shared" si="76"/>
-        <v>1525.56477563047</v>
+        <v>1515.6150242949509</v>
       </c>
       <c r="L55" s="104">
         <f t="shared" si="76"/>
-        <v>1537.45597233026</v>
+        <v>1509.926416318757</v>
       </c>
       <c r="M55" s="104">
         <f t="shared" si="76"/>
-        <v>1532.4524351376299</v>
+        <v>1493.7178340556329</v>
       </c>
       <c r="N55" s="104">
         <f t="shared" si="76"/>
-        <v>1504.0551108309301</v>
+        <v>1512.9609535468801</v>
       </c>
       <c r="O55" s="149">
         <f t="shared" si="76"/>
-        <v>1504.76699307077</v>
+        <v>1522.99399388232</v>
       </c>
       <c r="P55" s="104">
         <f t="shared" si="76"/>
-        <v>1506.4554877129101</v>
+        <v>1526.525817874995</v>
       </c>
       <c r="Q55" s="104">
         <f t="shared" si="76"/>
-        <v>1508.8118867247699</v>
+        <v>1522.5832732221379</v>
       </c>
       <c r="R55" s="104">
         <f t="shared" si="76"/>
-        <v>1513.08196729581</v>
+        <v>1530.285602569978</v>
       </c>
       <c r="S55" s="149">
         <f t="shared" si="76"/>
-        <v>1528.86684944985</v>
+        <v>1538.937335064132</v>
       </c>
       <c r="T55" s="104">
         <f t="shared" si="76"/>
-        <v>1544.00925390971</v>
+        <v>1547.192951576636</v>
       </c>
       <c r="U55" s="104">
         <f t="shared" si="76"/>
-        <v>1556.1560335270599</v>
+        <v>1555.9808389633261</v>
       </c>
       <c r="V55" s="104">
         <f t="shared" si="76"/>
-        <v>1566.4665870005299</v>
+        <v>1592.1555871790999</v>
       </c>
       <c r="W55" s="149">
         <f t="shared" si="76"/>
-        <v>1601.9073637173799</v>
+        <v>1622.7235946783901</v>
       </c>
       <c r="X55" s="104">
         <f t="shared" si="76"/>
-        <v>1631.30402307299</v>
+        <v>1646.2517581859961</v>
       </c>
       <c r="Y55" s="104">
         <f t="shared" si="76"/>
-        <v>1655.34640968285</v>
+        <v>1663.4196210501891</v>
       </c>
       <c r="Z55" s="104">
         <f t="shared" si="76"/>
-        <v>1673.4583263601301</v>
+        <v>1671.430699166094</v>
       </c>
       <c r="AA55" s="149">
         <f t="shared" si="76"/>
-        <v>1682.7628887994099</v>
+        <v>1682.1431104472849</v>
       </c>
       <c r="AB55" s="95"/>
     </row>
@@ -25506,67 +25563,67 @@
       <c r="K56" s="246"/>
       <c r="L56" s="230">
         <f t="shared" ref="L56" si="77">(L55/K55)-1</f>
-        <v>7.7946193368785277E-3</v>
+        <v>-3.7533330595216352E-3</v>
       </c>
       <c r="M56" s="230">
         <f t="shared" ref="M56" si="78">(M55/L55)-1</f>
-        <v>-3.2544263267887397E-3</v>
+        <v>-1.0734683550103763E-2</v>
       </c>
       <c r="N56" s="230">
         <f t="shared" ref="N56" si="79">(N55/M55)-1</f>
-        <v>-1.8530639943907579E-2</v>
+        <v>1.2882700502409916E-2</v>
       </c>
       <c r="O56" s="246">
         <f t="shared" ref="O56" si="80">(O55/N55)-1</f>
-        <v>4.7330861396877033E-4</v>
+        <v>6.6313940964035645E-3</v>
       </c>
       <c r="P56" s="230">
         <f t="shared" ref="P56" si="81">(P55/O55)-1</f>
-        <v>1.1220970754377557E-3</v>
+        <v>2.3190006046391876E-3</v>
       </c>
       <c r="Q56" s="230">
         <f t="shared" ref="Q56" si="82">(Q55/P55)-1</f>
-        <v>1.5642008881637803E-3</v>
+        <v>-2.5826911059685376E-3</v>
       </c>
       <c r="R56" s="230">
         <f t="shared" ref="R56" si="83">(R55/Q55)-1</f>
-        <v>2.8300947312320801E-3</v>
+        <v>5.0587245264688274E-3</v>
       </c>
       <c r="S56" s="246">
         <f t="shared" ref="S56" si="84">(S55/R55)-1</f>
-        <v>1.0432271678084026E-2</v>
+        <v>5.6536717588038243E-3</v>
       </c>
       <c r="T56" s="230">
         <f t="shared" ref="T56" si="85">(T55/S55)-1</f>
-        <v>9.9043317377891515E-3</v>
+        <v>5.3644916686357291E-3</v>
       </c>
       <c r="U56" s="230">
         <f t="shared" ref="U56" si="86">(U55/T55)-1</f>
-        <v>7.8670380935814688E-3</v>
+        <v>5.6798910425068794E-3</v>
       </c>
       <c r="V56" s="230">
         <f t="shared" ref="V56" si="87">(V55/U55)-1</f>
-        <v>6.6256553014809594E-3</v>
+        <v>2.3248839130869614E-2</v>
       </c>
       <c r="W56" s="246">
         <f t="shared" ref="W56" si="88">(W55/V55)-1</f>
-        <v>2.2624661777632893E-2</v>
+        <v>1.9199133392138412E-2</v>
       </c>
       <c r="X56" s="230">
         <f t="shared" ref="X56" si="89">(X55/W55)-1</f>
-        <v>1.8351035784861081E-2</v>
+        <v>1.4499181243660342E-2</v>
       </c>
       <c r="Y56" s="230">
         <f t="shared" ref="Y56" si="90">(Y55/X55)-1</f>
-        <v>1.4738139715103404E-2</v>
+        <v>1.0428455294778427E-2</v>
       </c>
       <c r="Z56" s="230">
         <f t="shared" ref="Z56" si="91">(Z55/Y55)-1</f>
-        <v>1.0941466131400457E-2</v>
+        <v>4.8160295902046624E-3</v>
       </c>
       <c r="AA56" s="246">
         <f t="shared" ref="AA56" si="92">(AA55/Z55)-1</f>
-        <v>5.5600801601780603E-3</v>
+        <v>6.4091267957060438E-3</v>
       </c>
       <c r="AB56" s="243"/>
     </row>
@@ -25578,91 +25635,91 @@
       <c r="E57" s="217"/>
       <c r="F57" s="217">
         <f t="shared" ref="F57" si="93">F54-F55</f>
-        <v>-106.19899999999961</v>
+        <v>709.8010000000013</v>
       </c>
       <c r="G57" s="150">
         <f t="shared" ref="G57" si="94">G54-G55</f>
-        <v>-35.906999999999925</v>
+        <v>219.09299999999985</v>
       </c>
       <c r="H57" s="217">
         <f t="shared" ref="H57" si="95">H54-H55</f>
-        <v>1298.3099016658903</v>
+        <v>1488.7674453956693</v>
       </c>
       <c r="I57" s="217">
         <f t="shared" ref="I57" si="96">I54-I55</f>
-        <v>251.22365666746987</v>
+        <v>373.18358526468296</v>
       </c>
       <c r="J57" s="217">
         <f t="shared" ref="J57" si="97">J54-J55</f>
-        <v>199.35773501319068</v>
+        <v>172.19456217868969</v>
       </c>
       <c r="K57" s="264">
         <f t="shared" ref="K57" si="98">K54-K55</f>
-        <v>157.47974440731628</v>
+        <v>167.42949574283534</v>
       </c>
       <c r="L57" s="217">
         <f t="shared" ref="L57:AA57" si="99">L54-L55</f>
-        <v>158.70723906824014</v>
+        <v>166.80107708132459</v>
       </c>
       <c r="M57" s="217">
         <f t="shared" si="99"/>
-        <v>158.19073805116454</v>
+        <v>165.01052030304004</v>
       </c>
       <c r="N57" s="217">
         <f t="shared" si="99"/>
-        <v>155.25936244187733</v>
+        <v>167.13630141585099</v>
       </c>
       <c r="O57" s="150">
         <f t="shared" si="99"/>
-        <v>155.33284803552056</v>
+        <v>168.2446480983549</v>
       </c>
       <c r="P57" s="217">
         <f t="shared" si="99"/>
-        <v>155.5071465700205</v>
+        <v>168.63480753902218</v>
       </c>
       <c r="Q57" s="217">
         <f t="shared" si="99"/>
-        <v>155.75039098680099</v>
+        <v>168.19927592143449</v>
       </c>
       <c r="R57" s="217">
         <f t="shared" si="99"/>
-        <v>156.19117934771998</v>
+        <v>169.05014972387244</v>
       </c>
       <c r="S57" s="150">
         <f t="shared" si="99"/>
-        <v>157.82060816439548</v>
+        <v>170.00590378118795</v>
       </c>
       <c r="T57" s="217">
         <f t="shared" si="99"/>
-        <v>159.3837158227152</v>
+        <v>170.91789903564108</v>
       </c>
       <c r="U57" s="217">
         <f t="shared" si="99"/>
-        <v>160.63759358658922</v>
+        <v>171.8886940793775</v>
       </c>
       <c r="V57" s="217">
         <f t="shared" si="99"/>
-        <v>161.7019229101536</v>
+        <v>175.88490667644419</v>
       </c>
       <c r="W57" s="150">
         <f t="shared" si="99"/>
-        <v>165.36037422478853</v>
+        <v>179.26174446138884</v>
       </c>
       <c r="X57" s="217">
         <f t="shared" si="99"/>
-        <v>168.39490836958566</v>
+        <v>181.86089298438924</v>
       </c>
       <c r="Y57" s="217">
         <f t="shared" si="99"/>
-        <v>170.87673605644864</v>
+        <v>183.75742117674554</v>
       </c>
       <c r="Z57" s="217">
         <f t="shared" si="99"/>
-        <v>172.74637807665476</v>
+        <v>184.64240235455236</v>
       </c>
       <c r="AA57" s="150">
         <f t="shared" si="99"/>
-        <v>173.70686178614119</v>
+        <v>185.8257989231065</v>
       </c>
       <c r="AB57" s="244"/>
     </row>
@@ -25788,63 +25845,63 @@
       </c>
       <c r="M61" s="231">
         <f>L61*(1+M63)</f>
-        <v>77.703294275287249</v>
+        <v>77.695696451903586</v>
       </c>
       <c r="N61" s="231">
         <f>M61*(1+N63)</f>
-        <v>78.07050365575769</v>
+        <v>78.058820150934892</v>
       </c>
       <c r="O61" s="247">
         <f>N61*(1+O63)</f>
-        <v>78.435379078301409</v>
+        <v>78.421169599008806</v>
       </c>
       <c r="P61" s="231">
         <f>O61*(1+P63)</f>
-        <v>78.799476514869554</v>
+        <v>78.784680423518822</v>
       </c>
       <c r="Q61" s="231">
         <f t="shared" ref="Q61:AA61" si="100">P61*(1+Q63)</f>
-        <v>79.164740930401067</v>
+        <v>79.151675377337256</v>
       </c>
       <c r="R61" s="231">
         <f t="shared" si="100"/>
-        <v>79.533506282822628</v>
+        <v>79.522154460464094</v>
       </c>
       <c r="S61" s="247">
         <f t="shared" si="100"/>
-        <v>79.905772572134296</v>
+        <v>79.894956296463178</v>
       </c>
       <c r="T61" s="231">
         <f t="shared" si="100"/>
-        <v>80.280372819372687</v>
+        <v>80.266983881504842</v>
       </c>
       <c r="U61" s="231">
         <f t="shared" si="100"/>
-        <v>80.654195080635475</v>
+        <v>80.640172842982665</v>
       </c>
       <c r="V61" s="231">
         <f t="shared" si="100"/>
-        <v>81.029184320861646</v>
+        <v>81.014136055417907</v>
       </c>
       <c r="W61" s="247">
         <f t="shared" si="100"/>
-        <v>81.404951547063376</v>
+        <v>81.387712142374426</v>
       </c>
       <c r="X61" s="231">
         <f t="shared" si="100"/>
-        <v>81.780329780277327</v>
+        <v>81.756642723586438</v>
       </c>
       <c r="Y61" s="231">
         <f t="shared" si="100"/>
-        <v>82.151040097637846</v>
+        <v>82.122863426447452</v>
       </c>
       <c r="Z61" s="231">
         <f t="shared" si="100"/>
-        <v>82.519027464083834</v>
+        <v>82.486374250957482</v>
       </c>
       <c r="AA61" s="247">
         <f t="shared" si="100"/>
-        <v>82.884291879615333</v>
+        <v>82.847562322595238</v>
       </c>
       <c r="AB61" s="95"/>
     </row>
@@ -25854,99 +25911,99 @@
       </c>
       <c r="D62" s="102">
         <f t="shared" ref="D62:AA62" si="101">D16</f>
-        <v>74.5</v>
+        <v>1085.9000000000001</v>
       </c>
       <c r="E62" s="104">
         <f t="shared" si="101"/>
-        <v>1085.9000000000001</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="F62" s="104">
         <f t="shared" si="101"/>
-        <v>1212.9000000000001</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="G62" s="149">
         <f t="shared" si="101"/>
-        <v>609.9</v>
+        <v>402.3</v>
       </c>
       <c r="H62" s="104">
         <f t="shared" si="101"/>
-        <v>612.6833822665883</v>
+        <v>404.18538158623392</v>
       </c>
       <c r="I62" s="104">
         <f t="shared" si="101"/>
-        <v>615.55472695243679</v>
+        <v>406.11408156777497</v>
       </c>
       <c r="J62" s="104">
         <f t="shared" si="101"/>
-        <v>618.4920434527304</v>
+        <v>408.08197438316557</v>
       </c>
       <c r="K62" s="149">
         <f t="shared" si="101"/>
-        <v>621.4890487375219</v>
+        <v>410.07255778657441</v>
       </c>
       <c r="L62" s="223">
         <f t="shared" si="101"/>
-        <v>624.52061068702278</v>
+        <v>412.05076450560961</v>
       </c>
       <c r="M62" s="104">
         <f t="shared" si="101"/>
-        <v>627.53332354668225</v>
+        <v>413.998029513711</v>
       </c>
       <c r="N62" s="104">
         <f t="shared" si="101"/>
-        <v>630.49891368173814</v>
+        <v>415.93291783743882</v>
       </c>
       <c r="O62" s="149">
         <f t="shared" si="101"/>
-        <v>633.44565472695251</v>
+        <v>417.86368059970891</v>
       </c>
       <c r="P62" s="104">
         <f t="shared" si="101"/>
-        <v>636.38611274221967</v>
+        <v>419.80063170416571</v>
       </c>
       <c r="Q62" s="104">
         <f t="shared" si="101"/>
-        <v>639.3359953024077</v>
+        <v>421.75614783518279</v>
       </c>
       <c r="R62" s="104">
         <f t="shared" si="101"/>
-        <v>642.31415149735767</v>
+        <v>423.7302289927602</v>
       </c>
       <c r="S62" s="149">
         <f t="shared" si="101"/>
-        <v>645.32058132706993</v>
+        <v>425.71668683471103</v>
       </c>
       <c r="T62" s="104">
         <f t="shared" si="101"/>
-        <v>648.34586024662372</v>
+        <v>427.69901911520401</v>
       </c>
       <c r="U62" s="104">
         <f t="shared" si="101"/>
-        <v>651.36485613623017</v>
+        <v>429.68753973788392</v>
       </c>
       <c r="V62" s="104">
         <f t="shared" si="101"/>
-        <v>654.39327657075751</v>
+        <v>431.68018592202162</v>
       </c>
       <c r="W62" s="149">
         <f t="shared" si="101"/>
-        <v>657.42798003523194</v>
+        <v>433.67076932543029</v>
       </c>
       <c r="X62" s="104">
         <f t="shared" si="101"/>
-        <v>660.45954198473294</v>
+        <v>435.63659936009208</v>
       </c>
       <c r="Y62" s="104">
         <f t="shared" si="101"/>
-        <v>663.45340575455089</v>
+        <v>437.58798992965131</v>
       </c>
       <c r="Z62" s="104">
         <f t="shared" si="101"/>
-        <v>666.42527891955376</v>
+        <v>439.52494103410811</v>
       </c>
       <c r="AA62" s="149">
         <f t="shared" si="101"/>
-        <v>669.37516147974168</v>
+        <v>441.44951545419133</v>
       </c>
       <c r="AB62" s="95"/>
     </row>
@@ -25965,63 +26022,63 @@
       <c r="L63" s="230"/>
       <c r="M63" s="230">
         <f t="shared" ref="M63:AA63" si="102">(M62/L62)-1</f>
-        <v>4.8240407251656237E-3</v>
+        <v>4.7257890916372336E-3</v>
       </c>
       <c r="N63" s="230">
         <f t="shared" si="102"/>
-        <v>4.7257890916374556E-3</v>
+        <v>4.6736655389412185E-3</v>
       </c>
       <c r="O63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6736655389414405E-3</v>
+        <v>4.6420051875402102E-3</v>
       </c>
       <c r="P63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6420051875399881E-3</v>
+        <v>4.6353660162015142E-3</v>
       </c>
       <c r="Q63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6353660162017363E-3</v>
+        <v>4.6582019733480973E-3</v>
       </c>
       <c r="R63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6582019733478752E-3</v>
+        <v>4.6806221265773829E-3</v>
       </c>
       <c r="S63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6806221265773829E-3</v>
+        <v>4.6880248470182462E-3</v>
       </c>
       <c r="T63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6880248470186903E-3</v>
+        <v>4.6564589592013039E-3</v>
       </c>
       <c r="U63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6564589592013039E-3</v>
+        <v>4.6493457637419855E-3</v>
       </c>
       <c r="V63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6493457637419855E-3</v>
+        <v>4.6374306905740958E-3</v>
       </c>
       <c r="W63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6374306905738738E-3</v>
+        <v>4.6112457053293365E-3</v>
       </c>
       <c r="X63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6112457053295586E-3</v>
+        <v>4.5330010083908245E-3</v>
       </c>
       <c r="Y63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5330010083906025E-3</v>
+        <v>4.4793999687484654E-3</v>
       </c>
       <c r="Z63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4793999687482433E-3</v>
+        <v>4.4264265679874182E-3</v>
       </c>
       <c r="AA63" s="246">
         <f t="shared" si="102"/>
-        <v>4.4264265679874182E-3</v>
+        <v>4.3787604306484429E-3</v>
       </c>
       <c r="AB63" s="243"/>
     </row>
@@ -26033,91 +26090,91 @@
       <c r="E64" s="217"/>
       <c r="F64" s="217">
         <f>F61-F62</f>
-        <v>0.57999999999992724</v>
+        <v>603.68000000000006</v>
       </c>
       <c r="G64" s="150">
         <f t="shared" ref="G64:AA64" si="103">G61-G62</f>
-        <v>0.63599999999996726</v>
+        <v>208.23599999999993</v>
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>181.40020106674513</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>178.52885638089663</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
-        <v>-474.40846011939709</v>
+        <v>-263.99839104983226</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="103"/>
-        <v>-498.7387987375219</v>
+        <v>-287.32230778657441</v>
       </c>
       <c r="L64" s="217">
         <f t="shared" si="103"/>
-        <v>-547.1903606870228</v>
+        <v>-334.72051450560957</v>
       </c>
       <c r="M64" s="217">
         <f t="shared" si="103"/>
-        <v>-549.83002927139501</v>
+        <v>-336.30233306180742</v>
       </c>
       <c r="N64" s="217">
         <f t="shared" si="103"/>
-        <v>-552.4284100259805</v>
+        <v>-337.87409768650394</v>
       </c>
       <c r="O64" s="150">
         <f t="shared" si="103"/>
-        <v>-555.01027564865115</v>
+        <v>-339.44251100070011</v>
       </c>
       <c r="P64" s="217">
         <f t="shared" si="103"/>
-        <v>-557.58663622735014</v>
+        <v>-341.0159512806469</v>
       </c>
       <c r="Q64" s="217">
         <f t="shared" si="103"/>
-        <v>-560.17125437200662</v>
+        <v>-342.60447245784553</v>
       </c>
       <c r="R64" s="217">
         <f t="shared" si="103"/>
-        <v>-562.78064521453507</v>
+        <v>-344.20807453229611</v>
       </c>
       <c r="S64" s="150">
         <f t="shared" si="103"/>
-        <v>-565.41480875493562</v>
+        <v>-345.82173053824783</v>
       </c>
       <c r="T64" s="217">
         <f t="shared" si="103"/>
-        <v>-568.06548742725101</v>
+        <v>-347.43203523369914</v>
       </c>
       <c r="U64" s="217">
         <f t="shared" si="103"/>
-        <v>-570.71066105559476</v>
+        <v>-349.04736689490124</v>
       </c>
       <c r="V64" s="217">
         <f t="shared" si="103"/>
-        <v>-573.36409224989586</v>
+        <v>-350.66604986660371</v>
       </c>
       <c r="W64" s="150">
         <f t="shared" si="103"/>
-        <v>-576.02302848816862</v>
+        <v>-352.28305718305586</v>
       </c>
       <c r="X64" s="217">
         <f t="shared" si="103"/>
-        <v>-578.67921220445555</v>
+        <v>-353.87995663650565</v>
       </c>
       <c r="Y64" s="217">
         <f t="shared" si="103"/>
-        <v>-581.30236565691303</v>
+        <v>-355.46512650320386</v>
       </c>
       <c r="Z64" s="217">
         <f t="shared" si="103"/>
-        <v>-583.90625145546994</v>
+        <v>-357.0385667831506</v>
       </c>
       <c r="AA64" s="150">
         <f t="shared" si="103"/>
-        <v>-586.4908696001263</v>
+        <v>-358.60195313159608</v>
       </c>
       <c r="AB64" s="217"/>
       <c r="AC64" s="217"/>
@@ -26262,35 +26319,35 @@
       </c>
       <c r="T68" s="248">
         <f t="shared" ref="T68:AA68" si="104">S68*(1+T70)</f>
-        <v>336.23224086572151</v>
+        <v>336.16070694732593</v>
       </c>
       <c r="U68" s="248">
         <f t="shared" si="104"/>
-        <v>342.02665970336</v>
+        <v>341.92715340182366</v>
       </c>
       <c r="V68" s="248">
         <f t="shared" si="104"/>
-        <v>347.93543262645312</v>
+        <v>342.39133861647292</v>
       </c>
       <c r="W68" s="249">
         <f t="shared" si="104"/>
-        <v>348.35783973466744</v>
+        <v>342.89676890833556</v>
       </c>
       <c r="X68" s="248">
         <f t="shared" si="104"/>
-        <v>348.8226627396063</v>
+        <v>343.45498373359641</v>
       </c>
       <c r="Y68" s="248">
         <f t="shared" si="104"/>
-        <v>349.34176866674034</v>
+        <v>344.05786382998645</v>
       </c>
       <c r="Z68" s="248">
         <f t="shared" si="104"/>
-        <v>349.90680777318727</v>
+        <v>344.77300996037025</v>
       </c>
       <c r="AA68" s="249">
         <f t="shared" si="104"/>
-        <v>350.58752747539137</v>
+        <v>345.55312735123522</v>
       </c>
       <c r="AB68" s="95"/>
     </row>
@@ -26300,99 +26357,99 @@
       </c>
       <c r="D69" s="102">
         <f t="shared" ref="D69:O69" si="105">D17</f>
-        <v>204.37100000000001</v>
+        <v>884.2600000000001</v>
       </c>
       <c r="E69" s="104">
         <f t="shared" si="105"/>
-        <v>279.25</v>
+        <v>242.12799999999999</v>
       </c>
       <c r="F69" s="104">
         <f t="shared" si="105"/>
-        <v>300.60000000000002</v>
+        <v>225.90700000000001</v>
       </c>
       <c r="G69" s="149">
         <f t="shared" si="105"/>
-        <v>303.95100000000002</v>
+        <v>260.73700000000002</v>
       </c>
       <c r="H69" s="104">
         <f t="shared" si="105"/>
-        <v>257.15358627705501</v>
+        <v>232.07518871317359</v>
       </c>
       <c r="I69" s="104">
         <f t="shared" si="105"/>
-        <v>228.45877209582619</v>
+        <v>215.720203842161</v>
       </c>
       <c r="J69" s="104">
         <f t="shared" si="105"/>
-        <v>212.05070141102621</v>
+        <v>220.89139620745101</v>
       </c>
       <c r="K69" s="149">
         <f t="shared" si="105"/>
-        <v>217.20219820767471</v>
+        <v>226.76914626180869</v>
       </c>
       <c r="L69" s="104">
         <f t="shared" si="105"/>
-        <v>223.05909969580759</v>
+        <v>232.32795235033251</v>
       </c>
       <c r="M69" s="104">
         <f t="shared" si="105"/>
-        <v>228.5975776874576</v>
+        <v>237.9298898973548</v>
       </c>
       <c r="N69" s="104">
         <f t="shared" si="105"/>
-        <v>234.17911675344899</v>
+        <v>251.6040694504666</v>
       </c>
       <c r="O69" s="149">
         <f t="shared" si="105"/>
-        <v>247.8674048768593</v>
+        <v>265.27969850165113</v>
       </c>
       <c r="P69" s="231">
         <f t="shared" ref="P69:AA69" si="106">P17</f>
-        <v>261.5571401329762</v>
+        <v>279.09879389494898</v>
       </c>
       <c r="Q69" s="231">
         <f t="shared" si="106"/>
-        <v>275.39010761536798</v>
+        <v>293.05961551598227</v>
       </c>
       <c r="R69" s="231">
         <f t="shared" si="106"/>
-        <v>289.36457004926609</v>
+        <v>298.02592203707633</v>
       </c>
       <c r="S69" s="245">
         <f t="shared" si="106"/>
-        <v>294.30374747872452</v>
+        <v>303.15281641427401</v>
       </c>
       <c r="T69" s="231">
         <f t="shared" si="106"/>
-        <v>299.40325070867152</v>
+        <v>308.34003676535349</v>
       </c>
       <c r="U69" s="231">
         <f t="shared" si="106"/>
-        <v>304.56298146943863</v>
+        <v>313.62925193845189</v>
       </c>
       <c r="V69" s="231">
         <f t="shared" si="106"/>
-        <v>309.82454061176958</v>
+        <v>314.05502117082477</v>
       </c>
       <c r="W69" s="247">
         <f t="shared" si="106"/>
-        <v>310.20067961913003</v>
+        <v>314.5186220365847</v>
       </c>
       <c r="X69" s="231">
         <f t="shared" si="106"/>
-        <v>310.61458852425028</v>
+        <v>315.03063898617683</v>
       </c>
       <c r="Y69" s="231">
         <f t="shared" si="106"/>
-        <v>311.07683450531948</v>
+        <v>315.58362470772079</v>
       </c>
       <c r="Z69" s="231">
         <f t="shared" si="106"/>
-        <v>311.57998240336798</v>
+        <v>316.2395853229205</v>
       </c>
       <c r="AA69" s="247">
         <f t="shared" si="106"/>
-        <v>312.18613989479883</v>
+        <v>316.95514017513671</v>
       </c>
       <c r="AB69" s="95"/>
     </row>
@@ -26415,47 +26472,47 @@
       <c r="P70" s="230"/>
       <c r="Q70" s="230">
         <f t="shared" ref="Q70" si="107">(Q69/P69)-1</f>
-        <v>5.2886980930281879E-2</v>
+        <v>5.002107471051298E-2</v>
       </c>
       <c r="R70" s="230">
         <f t="shared" ref="R70" si="108">(R69/Q69)-1</f>
-        <v>5.0744242612432489E-2</v>
+        <v>1.6946403592149606E-2</v>
       </c>
       <c r="S70" s="246">
         <f t="shared" ref="S70" si="109">(S69/R69)-1</f>
-        <v>1.7069046941778243E-2</v>
+        <v>1.7202847128713339E-2</v>
       </c>
       <c r="T70" s="230">
         <f t="shared" ref="T70" si="110">(T69/S69)-1</f>
-        <v>1.7327347251382408E-2</v>
+        <v>1.7110909317731293E-2</v>
       </c>
       <c r="U70" s="230">
         <f t="shared" ref="U70" si="111">(U69/T69)-1</f>
-        <v>1.723338256533391E-2</v>
+        <v>1.7153838433000779E-2</v>
       </c>
       <c r="V70" s="230">
         <f t="shared" ref="V70" si="112">(V69/U69)-1</f>
-        <v>1.7275767123585695E-2</v>
+        <v>1.3575558712757285E-3</v>
       </c>
       <c r="W70" s="246">
         <f t="shared" ref="W70" si="113">(W69/V69)-1</f>
-        <v>1.2140387802004327E-3</v>
+        <v>1.4761772126157258E-3</v>
       </c>
       <c r="X70" s="230">
         <f t="shared" ref="X70" si="114">(X69/W69)-1</f>
-        <v>1.3343262356113605E-3</v>
+        <v>1.6279384230946103E-3</v>
       </c>
       <c r="Y70" s="230">
         <f t="shared" ref="Y70" si="115">(Y69/X69)-1</f>
-        <v>1.4881657145124905E-3</v>
+        <v>1.7553394911795639E-3</v>
       </c>
       <c r="Z70" s="230">
         <f t="shared" ref="Z70" si="116">(Z69/Y69)-1</f>
-        <v>1.6174393019288136E-3</v>
+        <v>2.0785635370252908E-3</v>
       </c>
       <c r="AA70" s="246">
         <f t="shared" ref="AA70" si="117">(AA69/Z69)-1</f>
-        <v>1.9454314322611133E-3</v>
+        <v>2.2626985533311661E-3</v>
       </c>
       <c r="AB70" s="243"/>
     </row>
@@ -26467,91 +26524,91 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>-12.800000000000011</v>
+        <v>61.893000000000001</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>-18</v>
+        <v>25.213999999999999</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>105.585217722945</v>
+        <v>130.66361528682643</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>79.070987120173811</v>
+        <v>91.809555373839004</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>96.273176841837795</v>
+        <v>87.432482045412996</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>91.918975558200771</v>
+        <v>82.352027504066797</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>86.862558765131354</v>
+        <v>77.593706110606433</v>
       </c>
       <c r="M71" s="217">
         <f t="shared" si="119"/>
-        <v>82.127767407325109</v>
+        <v>72.795455197427913</v>
       </c>
       <c r="N71" s="217">
         <f t="shared" si="119"/>
-        <v>77.353129721712861</v>
+        <v>59.928177024695259</v>
       </c>
       <c r="O71" s="150">
         <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>64.474970584203191</v>
+        <v>47.062676959411363</v>
       </c>
       <c r="P71" s="250">
         <f t="shared" si="120"/>
-        <v>51.59860482993048</v>
+        <v>34.056951067957698</v>
       </c>
       <c r="Q71" s="250">
         <f t="shared" si="120"/>
-        <v>55.115350410659346</v>
+        <v>37.445842510045054</v>
       </c>
       <c r="R71" s="250">
         <f t="shared" si="120"/>
-        <v>41.140887976761235</v>
+        <v>32.479535988951</v>
       </c>
       <c r="S71" s="239">
         <f t="shared" si="120"/>
-        <v>36.20171054730281</v>
+        <v>27.352641611753313</v>
       </c>
       <c r="T71" s="250">
         <f t="shared" si="120"/>
-        <v>36.828990157049986</v>
+        <v>27.820670181972446</v>
       </c>
       <c r="U71" s="250">
         <f t="shared" si="120"/>
-        <v>37.463678233921371</v>
+        <v>28.297901463371772</v>
       </c>
       <c r="V71" s="250">
         <f t="shared" si="120"/>
-        <v>38.110892014683543</v>
+        <v>28.336317445648149</v>
       </c>
       <c r="W71" s="251">
         <f t="shared" si="120"/>
-        <v>38.157160115537408</v>
+        <v>28.378146871750857</v>
       </c>
       <c r="X71" s="250">
         <f t="shared" si="120"/>
-        <v>38.208074215356021</v>
+        <v>28.424344747419582</v>
       </c>
       <c r="Y71" s="250">
         <f t="shared" si="120"/>
-        <v>38.264934161420854</v>
+        <v>28.474239122265658</v>
       </c>
       <c r="Z71" s="250">
         <f t="shared" si="120"/>
-        <v>38.326825369819289</v>
+        <v>28.533424637449741</v>
       </c>
       <c r="AA71" s="251">
         <f t="shared" si="120"/>
-        <v>38.401387580592541</v>
+        <v>28.597987176098513</v>
       </c>
       <c r="AB71" s="244"/>
     </row>
@@ -26730,35 +26787,35 @@
       </c>
       <c r="B3" s="102">
         <f t="array" ref="B3:B24">TRANSPOSE('add-ons calculations'!F24:AA24)</f>
-        <v>-36.188999999999993</v>
+        <v>-8.7680000000000007</v>
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F31:AA31)</f>
-        <v>105.97699999999998</v>
+        <v>87.676999999999992</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
-        <v>4.8999999999978172E-2</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="E3">
         <f t="array" ref="E3:E24">TRANSPOSE('add-ons calculations'!F43:AA43)</f>
-        <v>0</v>
+        <v>-5.7000000000000028</v>
       </c>
       <c r="F3">
         <f t="array" ref="F3:F24">TRANSPOSE('add-ons calculations'!F50:AA50)</f>
-        <v>3.3000000000129148E-2</v>
+        <v>-43.987999999999829</v>
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F57:AA57)</f>
-        <v>-106.19899999999961</v>
+        <v>709.8010000000013</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F64:AA64)</f>
-        <v>0.57999999999992724</v>
+        <v>603.68000000000006</v>
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>-12.800000000000011</v>
+        <v>61.893000000000001</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
@@ -26789,28 +26846,28 @@
         <v>44196</v>
       </c>
       <c r="B4">
-        <v>16.895816906412534</v>
+        <v>14.165816906412658</v>
       </c>
       <c r="C4">
-        <v>35.907999999999987</v>
+        <v>-34.992000000000019</v>
       </c>
       <c r="D4">
-        <v>-19.250999999999976</v>
+        <v>-86.951000000000022</v>
       </c>
       <c r="E4">
-        <v>22.484070765805583</v>
+        <v>-4.3825959008611193</v>
       </c>
       <c r="F4">
-        <v>-5.9999999998581188E-3</v>
+        <v>-30.475999999999885</v>
       </c>
       <c r="G4">
-        <v>-35.906999999999925</v>
+        <v>219.09299999999985</v>
       </c>
       <c r="H4">
-        <v>0.63599999999996726</v>
+        <v>208.23599999999993</v>
       </c>
       <c r="I4">
-        <v>-18</v>
+        <v>25.213999999999999</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
@@ -26841,28 +26898,28 @@
         <v>44286</v>
       </c>
       <c r="B5">
-        <v>14.491993784139481</v>
+        <v>11.798701344421289</v>
       </c>
       <c r="C5">
-        <v>82.282942388641018</v>
+        <v>3.7728995470785094</v>
       </c>
       <c r="D5">
-        <v>-18.249119132365195</v>
+        <v>-74.668790726255111</v>
       </c>
       <c r="E5">
-        <v>22.921577670592825</v>
+        <v>-3.7832762292649704</v>
       </c>
       <c r="F5">
-        <v>25.381437624588216</v>
+        <v>-4.0293645275978633</v>
       </c>
       <c r="G5">
-        <v>1298.3099016658903</v>
+        <v>1488.7674453956693</v>
       </c>
       <c r="H5">
-        <v>181.40020106674513</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I5">
-        <v>105.585217722945</v>
+        <v>130.66361528682643</v>
       </c>
       <c r="K5" s="102">
         <v>544.4</v>
@@ -26891,28 +26948,28 @@
         <v>44377</v>
       </c>
       <c r="B6">
-        <v>10.308903433636999</v>
+        <v>7.6523185542003773</v>
       </c>
       <c r="C6">
-        <v>89.353669827281948</v>
+        <v>0.96715476915696286</v>
       </c>
       <c r="D6">
-        <v>-29.295528487588854</v>
+        <v>-83.796216356273817</v>
       </c>
       <c r="E6">
-        <v>22.760036045087944</v>
+        <v>-4.2315543175006098</v>
       </c>
       <c r="F6">
-        <v>60.824709046836006</v>
+        <v>32.473104742464102</v>
       </c>
       <c r="G6">
-        <v>251.22365666746987</v>
+        <v>373.18358526468296</v>
       </c>
       <c r="H6">
-        <v>178.52885638089663</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="I6">
-        <v>79.070987120173811</v>
+        <v>91.809555373839004</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -26942,28 +26999,28 @@
         <v>44469</v>
       </c>
       <c r="B7">
-        <v>6.1258130831341759</v>
+        <v>7.0672258031208912</v>
       </c>
       <c r="C7">
-        <v>110.72575134117292</v>
+        <v>-2.6853719233534719</v>
       </c>
       <c r="D7">
-        <v>-34.116917561397258</v>
+        <v>-82.632024980574215</v>
       </c>
       <c r="E7">
-        <v>22.928994365806858</v>
+        <v>-4.1763953360549806</v>
       </c>
       <c r="F7">
-        <v>91.483305944011818</v>
+        <v>25.336050976078923</v>
       </c>
       <c r="G7">
-        <v>199.35773501319068</v>
+        <v>172.19456217868969</v>
       </c>
       <c r="H7">
-        <v>-474.40846011939709</v>
+        <v>-263.99839104983226</v>
       </c>
       <c r="I7">
-        <v>96.273176841837795</v>
+        <v>87.432482045412996</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -26993,28 +27050,28 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>5.5355405576544001</v>
+        <v>6.4821330520413767</v>
       </c>
       <c r="C8">
-        <v>98.17289763461801</v>
+        <v>-8.3133907387605745</v>
       </c>
       <c r="D8">
-        <v>-30.059208161437255</v>
+        <v>-81.941881281215274</v>
       </c>
       <c r="E8">
-        <v>23.39852299466142</v>
+        <v>-4.14432401327538</v>
       </c>
       <c r="F8">
-        <v>93.444253570889032</v>
+        <v>25.876877146617062</v>
       </c>
       <c r="G8">
-        <v>157.47974440731628</v>
+        <v>167.42949574283534</v>
       </c>
       <c r="H8">
-        <v>-498.7387987375219</v>
+        <v>-287.32230778657441</v>
       </c>
       <c r="I8">
-        <v>91.918975558200771</v>
+        <v>82.352027504066797</v>
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
@@ -27044,10 +27101,10 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>46.502672063245768</v>
+        <v>47.454444332033063</v>
       </c>
       <c r="C9">
-        <v>83.866064612314361</v>
+        <v>-12.746557895276226</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -27056,16 +27113,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>95.405201197766473</v>
+        <v>26.417703317155201</v>
       </c>
       <c r="G9">
-        <v>158.70723906824014</v>
+        <v>166.80107708132459</v>
       </c>
       <c r="H9">
-        <v>-547.1903606870228</v>
+        <v>-334.72051450560957</v>
       </c>
       <c r="I9">
-        <v>86.862558765131354</v>
+        <v>77.593706110606433</v>
       </c>
       <c r="K9" s="102">
         <f t="shared" si="1"/>
@@ -27094,10 +27151,10 @@
         <v>44742</v>
       </c>
       <c r="B10">
-        <v>45.912399537766049</v>
+        <v>46.869351580953548</v>
       </c>
       <c r="C10">
-        <v>96.38873274839203</v>
+        <v>-13.145675591671591</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -27106,16 +27163,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>97.366148824643687</v>
+        <v>26.958529487693568</v>
       </c>
       <c r="G10">
-        <v>158.19073805116454</v>
+        <v>165.01052030304004</v>
       </c>
       <c r="H10">
-        <v>-549.83002927139501</v>
+        <v>-336.30233306180742</v>
       </c>
       <c r="I10">
-        <v>82.127767407325109</v>
+        <v>72.795455197427913</v>
       </c>
       <c r="K10" s="102">
         <f t="shared" si="1"/>
@@ -27144,10 +27201,10 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>46.066620655509439</v>
+        <v>46.361660893304077</v>
       </c>
       <c r="C11">
-        <v>108.23854020959135</v>
+        <v>-14.21099145984644</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -27156,16 +27213,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>99.327096451521129</v>
+        <v>27.187848652661387</v>
       </c>
       <c r="G11">
-        <v>155.25936244187733</v>
+        <v>167.13630141585099</v>
       </c>
       <c r="H11">
-        <v>-552.4284100259805</v>
+        <v>-337.87409768650394</v>
       </c>
       <c r="I11">
-        <v>77.353129721712861</v>
+        <v>59.928177024695259</v>
       </c>
       <c r="K11" s="102">
         <f t="shared" si="1"/>
@@ -27194,10 +27251,10 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>45.567625181294545</v>
+        <v>45.853970205654605</v>
       </c>
       <c r="C12">
-        <v>119.30558501006593</v>
+        <v>-15.338034745617193</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -27206,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>100.1353376752661</v>
+        <v>27.417167817629206</v>
       </c>
       <c r="G12">
-        <v>155.33284803552056</v>
+        <v>168.2446480983549</v>
       </c>
       <c r="H12">
-        <v>-555.01027564865115</v>
+        <v>-339.44251100070011</v>
       </c>
       <c r="I12">
-        <v>64.474970584203191</v>
+        <v>47.062676959411363</v>
       </c>
       <c r="K12" s="102">
         <f t="shared" si="1"/>
@@ -27244,10 +27301,10 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>45.068629707079623</v>
+        <v>45.346279518005133</v>
       </c>
       <c r="C13">
-        <v>130.18422882157338</v>
+        <v>-16.533927843321862</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -27256,16 +27313,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>100.94357889901084</v>
+        <v>27.646486982597025</v>
       </c>
       <c r="G13">
-        <v>155.5071465700205</v>
+        <v>168.63480753902218</v>
       </c>
       <c r="H13">
-        <v>-557.58663622735014</v>
+        <v>-341.0159512806469</v>
       </c>
       <c r="I13">
-        <v>51.59860482993048</v>
+        <v>34.056951067957698</v>
       </c>
       <c r="K13" s="102">
         <f t="shared" si="1"/>
@@ -27292,10 +27349,10 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>44.569634232864729</v>
+        <v>44.838588830355661</v>
       </c>
       <c r="C14">
-        <v>141.6549900269753</v>
+        <v>-17.755936386932433</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -27304,16 +27361,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>101.75182012275604</v>
+        <v>27.875806147564845</v>
       </c>
       <c r="G14">
-        <v>155.75039098680099</v>
+        <v>168.19927592143449</v>
       </c>
       <c r="H14">
-        <v>-560.17125437200662</v>
+        <v>-342.60447245784553</v>
       </c>
       <c r="I14">
-        <v>55.115350410659346</v>
+        <v>37.445842510045054</v>
       </c>
       <c r="K14" s="102">
         <f t="shared" si="1"/>
@@ -27334,10 +27391,10 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>44.070638758649835</v>
+        <v>45.103772151336528</v>
       </c>
       <c r="C15">
-        <v>153.07192237838635</v>
+        <v>-18.256936057051234</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -27346,16 +27403,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>102.56006134650079</v>
+        <v>28.064837938374012</v>
       </c>
       <c r="G15">
-        <v>156.19117934771998</v>
+        <v>169.05014972387244</v>
       </c>
       <c r="H15">
-        <v>-562.78064521453507</v>
+        <v>-344.20807453229611</v>
       </c>
       <c r="I15">
-        <v>41.140887976761235</v>
+        <v>32.479535988951</v>
       </c>
       <c r="K15" s="102">
         <f t="shared" si="1"/>
@@ -27376,10 +27433,10 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>44.331280287489619</v>
+        <v>45.368955472317282</v>
       </c>
       <c r="C16">
-        <v>152.92993797639971</v>
+        <v>-18.784051173076023</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -27388,16 +27445,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>103.25397008032428</v>
+        <v>28.253869729183407</v>
       </c>
       <c r="G16">
-        <v>157.82060816439548</v>
+        <v>170.00590378118795</v>
       </c>
       <c r="H16">
-        <v>-565.41480875493562</v>
+        <v>-345.82173053824783</v>
       </c>
       <c r="I16">
-        <v>36.20171054730281</v>
+        <v>27.352641611753313</v>
       </c>
       <c r="K16" s="102">
         <f t="shared" si="1"/>
@@ -27418,10 +27475,10 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>44.59192181632946</v>
+        <v>45.634138793298064</v>
       </c>
       <c r="C17">
-        <v>153.110926698355</v>
+        <v>-19.334907603560794</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -27430,16 +27487,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>103.94787881414754</v>
+        <v>28.442901519992802</v>
       </c>
       <c r="G17">
-        <v>159.3837158227152</v>
+        <v>170.91789903564108</v>
       </c>
       <c r="H17">
-        <v>-568.06548742725101</v>
+        <v>-347.43203523369914</v>
       </c>
       <c r="I17">
-        <v>36.828990157049986</v>
+        <v>27.820670181972446</v>
       </c>
       <c r="K17" s="102">
         <f t="shared" si="1"/>
@@ -27460,10 +27517,10 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>44.852563345169301</v>
+        <v>45.899322114278874</v>
       </c>
       <c r="C18">
-        <v>153.58797411725675</v>
+        <v>-19.852526193801623</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -27472,16 +27529,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>104.64178754797103</v>
+        <v>28.631933310801969</v>
       </c>
       <c r="G18">
-        <v>160.63759358658922</v>
+        <v>171.8886940793775</v>
       </c>
       <c r="H18">
-        <v>-570.71066105559476</v>
+        <v>-349.04736689490124</v>
       </c>
       <c r="I18">
-        <v>37.463678233921371</v>
+        <v>28.297901463371772</v>
       </c>
       <c r="K18" s="102">
         <f t="shared" si="1"/>
@@ -27502,10 +27559,10 @@
         <v>45565</v>
       </c>
       <c r="B19">
-        <v>45.113204874009142</v>
+        <v>46.581423935949147</v>
       </c>
       <c r="C19">
-        <v>154.49565236808115</v>
+        <v>-19.931504702215932</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -27514,16 +27571,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>105.3356962817943</v>
+        <v>29.337432345276966</v>
       </c>
       <c r="G19">
-        <v>161.7019229101536</v>
+        <v>175.88490667644419</v>
       </c>
       <c r="H19">
-        <v>-573.36409224989586</v>
+        <v>-350.66604986660371</v>
       </c>
       <c r="I19">
-        <v>38.110892014683543</v>
+        <v>28.336317445648149</v>
       </c>
       <c r="K19" s="102">
         <f t="shared" si="1"/>
@@ -27544,10 +27601,10 @@
         <v>45657</v>
       </c>
       <c r="B20">
-        <v>45.783624344460833</v>
+        <v>47.263525757619476</v>
       </c>
       <c r="C20">
-        <v>153.89533516396961</v>
+        <v>-20.00810907918418</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -27556,16 +27613,16 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>107.91303693773443</v>
+        <v>30.042931379751963</v>
       </c>
       <c r="G20">
-        <v>165.36037422478853</v>
+        <v>179.26174446138884</v>
       </c>
       <c r="H20">
-        <v>-576.02302848816862</v>
+        <v>-352.28305718305586</v>
       </c>
       <c r="I20">
-        <v>38.157160115537408</v>
+        <v>28.378146871750857</v>
       </c>
       <c r="K20" s="102">
         <f t="shared" si="1"/>
@@ -27586,10 +27643,10 @@
         <v>45747</v>
       </c>
       <c r="B21">
-        <v>46.454043814912495</v>
+        <v>47.94562757928972</v>
       </c>
       <c r="C21">
-        <v>153.24118910586807</v>
+        <v>-20.082339324706481</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -27598,16 +27655,16 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>110.49037759367457</v>
+        <v>30.748430414226959</v>
       </c>
       <c r="G21">
-        <v>168.39490836958566</v>
+        <v>181.86089298438924</v>
       </c>
       <c r="H21">
-        <v>-578.67921220445555</v>
+        <v>-353.87995663650565</v>
       </c>
       <c r="I21">
-        <v>38.208074215356021</v>
+        <v>28.424344747419582</v>
       </c>
       <c r="K21" s="102">
         <f t="shared" si="1"/>
@@ -27628,10 +27685,10 @@
         <v>45838</v>
       </c>
       <c r="B22">
-        <v>47.124463285364214</v>
+        <v>48.627729400959993</v>
       </c>
       <c r="C22">
-        <v>152.8023584637275</v>
+        <v>-20.156569570228783</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -27640,16 +27697,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>113.0677182496147</v>
+        <v>31.453929448701956</v>
       </c>
       <c r="G22">
-        <v>170.87673605644864</v>
+        <v>183.75742117674554</v>
       </c>
       <c r="H22">
-        <v>-581.30236565691303</v>
+        <v>-355.46512650320386</v>
       </c>
       <c r="I22">
-        <v>38.264934161420854</v>
+        <v>28.474239122265658</v>
       </c>
       <c r="K22" s="102">
         <f t="shared" si="1"/>
@@ -27670,10 +27727,10 @@
         <v>45930</v>
       </c>
       <c r="B23">
-        <v>47.794882755815905</v>
+        <v>49.307005274555195</v>
       </c>
       <c r="C23">
-        <v>152.60575766454329</v>
+        <v>-20.233531612277602</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -27682,16 +27739,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>115.64505890555483</v>
+        <v>31.979739400361268</v>
       </c>
       <c r="G23">
-        <v>172.74637807665476</v>
+        <v>184.64240235455236</v>
       </c>
       <c r="H23">
-        <v>-583.90625145546994</v>
+        <v>-357.0385667831506</v>
       </c>
       <c r="I23">
-        <v>38.326825369819289</v>
+        <v>28.533424637449741</v>
       </c>
       <c r="K23" s="102">
         <f t="shared" si="1"/>
@@ -27712,10 +27769,10 @@
         <v>46022</v>
       </c>
       <c r="B24">
-        <v>48.462524678177488</v>
+        <v>49.986281148150368</v>
       </c>
       <c r="C24">
-        <v>152.31820617542058</v>
+        <v>-20.310493654326422</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -27724,16 +27781,16 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>117.57287113278448</v>
+        <v>32.50554935202058</v>
       </c>
       <c r="G24">
-        <v>173.70686178614119</v>
+        <v>185.8257989231065</v>
       </c>
       <c r="H24">
-        <v>-586.4908696001263</v>
+        <v>-358.60195313159608</v>
       </c>
       <c r="I24">
-        <v>38.401387580592541</v>
+        <v>28.597987176098513</v>
       </c>
       <c r="K24" s="102">
         <f t="shared" si="1"/>
@@ -31174,11 +31231,11 @@
       </c>
       <c r="D2" s="259">
         <f t="array" ref="D2:D23">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
-        <v>4.8999999999978172E-2</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="E2" s="259">
         <f t="array" ref="E2:E23">TRANSPOSE('add-ons calculations'!F43:AA43)</f>
-        <v>0</v>
+        <v>-5.7000000000000028</v>
       </c>
       <c r="F2" s="259">
         <f t="array" ref="F2:F23">TRANSPOSE('add-ons calculations nipas'!F41:AA41)</f>
@@ -31190,11 +31247,11 @@
       </c>
       <c r="H2" s="259">
         <f t="array" ref="H2:H23">TRANSPOSE('add-ons calculations'!F64:AA64)</f>
-        <v>0.57999999999992724</v>
+        <v>603.68000000000006</v>
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>-12.800000000000011</v>
+        <v>61.893000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31208,10 +31265,10 @@
         <v>698.70615775001932</v>
       </c>
       <c r="D3" s="259">
-        <v>-19.250999999999976</v>
+        <v>-86.951000000000022</v>
       </c>
       <c r="E3" s="259">
-        <v>22.484070765805583</v>
+        <v>-4.3825959008611193</v>
       </c>
       <c r="F3" s="259">
         <v>30.68379862957454</v>
@@ -31220,10 +31277,10 @@
         <v>591.06441309996126</v>
       </c>
       <c r="H3" s="259">
-        <v>0.63599999999996726</v>
+        <v>208.23599999999993</v>
       </c>
       <c r="I3" s="259">
-        <v>-18</v>
+        <v>25.213999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31237,10 +31294,10 @@
         <v>735.77787802470243</v>
       </c>
       <c r="D4" s="259">
-        <v>-18.249119132365195</v>
+        <v>-74.668790726255111</v>
       </c>
       <c r="E4" s="259">
-        <v>22.921577670592825</v>
+        <v>-3.7832762292649704</v>
       </c>
       <c r="F4" s="259">
         <v>66.012511731550148</v>
@@ -31249,10 +31306,10 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>181.40020106674513</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I4" s="259">
-        <v>105.585217722945</v>
+        <v>130.66361528682643</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31266,10 +31323,10 @@
         <v>767.5404900116622</v>
       </c>
       <c r="D5" s="259">
-        <v>-29.295528487588854</v>
+        <v>-83.796216356273817</v>
       </c>
       <c r="E5" s="259">
-        <v>22.760036045087944</v>
+        <v>-4.2315543175006098</v>
       </c>
       <c r="F5" s="259">
         <v>101.61723848447548</v>
@@ -31278,10 +31335,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>178.52885638089663</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="I5" s="259">
-        <v>79.070987120173811</v>
+        <v>91.809555373839004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31295,10 +31352,10 @@
         <v>790.69510584290015</v>
       </c>
       <c r="D6" s="259">
-        <v>-34.116917561397258</v>
+        <v>-82.632024980574215</v>
       </c>
       <c r="E6" s="259">
-        <v>22.928994365806858</v>
+        <v>-4.1763953360549806</v>
       </c>
       <c r="F6" s="259">
         <v>137.50135897728978</v>
@@ -31307,10 +31364,10 @@
         <v>906.03001879956446</v>
       </c>
       <c r="H6" s="259">
-        <v>-474.40846011939709</v>
+        <v>-263.99839104983226</v>
       </c>
       <c r="I6" s="259">
-        <v>96.273176841837795</v>
+        <v>87.432482045412996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31324,10 +31381,10 @@
         <v>777.3682130439189</v>
       </c>
       <c r="D7" s="259">
-        <v>-30.059208161437255</v>
+        <v>-81.941881281215274</v>
       </c>
       <c r="E7" s="259">
-        <v>23.39852299466142</v>
+        <v>-4.14432401327538</v>
       </c>
       <c r="F7" s="259">
         <v>144.44402858127864</v>
@@ -31336,10 +31393,10 @@
         <v>926.50683572140088</v>
       </c>
       <c r="H7" s="259">
-        <v>-498.7387987375219</v>
+        <v>-287.32230778657441</v>
       </c>
       <c r="I7" s="259">
-        <v>91.918975558200771</v>
+        <v>82.352027504066797</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -31365,10 +31422,10 @@
         <v>935.88801570004148</v>
       </c>
       <c r="H8" s="259">
-        <v>-547.1903606870228</v>
+        <v>-334.72051450560957</v>
       </c>
       <c r="I8" s="259">
-        <v>86.862558765131354</v>
+        <v>77.593706110606433</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -31394,10 +31451,10 @@
         <v>935.60252133929384</v>
       </c>
       <c r="H9" s="259">
-        <v>-549.83002927139501</v>
+        <v>-336.30233306180742</v>
       </c>
       <c r="I9" s="259">
-        <v>82.127767407325109</v>
+        <v>72.795455197427913</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -31423,10 +31480,10 @@
         <v>921.93178379942924</v>
       </c>
       <c r="H10" s="259">
-        <v>-552.4284100259805</v>
+        <v>-337.87409768650394</v>
       </c>
       <c r="I10" s="259">
-        <v>77.353129721712861</v>
+        <v>59.928177024695259</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -31452,10 +31509,10 @@
         <v>922.96679357866992</v>
       </c>
       <c r="H11" s="259">
-        <v>-555.01027564865115</v>
+        <v>-339.44251100070011</v>
       </c>
       <c r="I11" s="259">
-        <v>64.474970584203191</v>
+        <v>47.062676959411363</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -31481,10 +31538,10 @@
         <v>924.56059251132388</v>
       </c>
       <c r="H12" s="259">
-        <v>-557.58663622735014</v>
+        <v>-341.0159512806469</v>
       </c>
       <c r="I12" s="259">
-        <v>51.59860482993048</v>
+        <v>34.056951067957698</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -31510,10 +31567,10 @@
         <v>926.53654685838478</v>
       </c>
       <c r="H13" s="259">
-        <v>-560.17125437200662</v>
+        <v>-342.60447245784553</v>
       </c>
       <c r="I13" s="259">
-        <v>55.115350410659346</v>
+        <v>37.445842510045054</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -31539,10 +31596,10 @@
         <v>929.6074540197169</v>
       </c>
       <c r="H14" s="259">
-        <v>-562.78064521453507</v>
+        <v>-344.20807453229611</v>
       </c>
       <c r="I14" s="259">
-        <v>41.140887976761235</v>
+        <v>32.479535988951</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -31568,10 +31625,10 @@
         <v>939.00391731648051</v>
       </c>
       <c r="H15" s="259">
-        <v>-565.41480875493562</v>
+        <v>-345.82173053824783</v>
       </c>
       <c r="I15" s="259">
-        <v>36.20171054730281</v>
+        <v>27.352641611753313</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -31597,10 +31654,10 @@
         <v>948.03277360151947</v>
       </c>
       <c r="H16" s="259">
-        <v>-568.06548742725101</v>
+        <v>-347.43203523369914</v>
       </c>
       <c r="I16" s="259">
-        <v>36.828990157049986</v>
+        <v>27.820670181972446</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -31626,10 +31683,10 @@
         <v>955.34762065860946</v>
       </c>
       <c r="H17" s="259">
-        <v>-570.71066105559476</v>
+        <v>-349.04736689490124</v>
       </c>
       <c r="I17" s="259">
-        <v>37.463678233921371</v>
+        <v>28.297901463371772</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -31655,10 +31712,10 @@
         <v>961.61183263262797</v>
       </c>
       <c r="H18" s="259">
-        <v>-573.36409224989586</v>
+        <v>-350.66604986660371</v>
       </c>
       <c r="I18" s="259">
-        <v>38.110892014683543</v>
+        <v>28.336317445648149</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -31684,10 +31741,10 @@
         <v>983.80559967852105</v>
       </c>
       <c r="H19" s="259">
-        <v>-576.02302848816862</v>
+        <v>-352.28305718305586</v>
       </c>
       <c r="I19" s="259">
-        <v>38.157160115537408</v>
+        <v>28.378146871750857</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -31713,10 +31770,10 @@
         <v>1002.5410989249847</v>
       </c>
       <c r="H20" s="259">
-        <v>-578.67921220445555</v>
+        <v>-353.87995663650565</v>
       </c>
       <c r="I20" s="259">
-        <v>38.208074215356021</v>
+        <v>28.424344747419582</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -31742,10 +31799,10 @@
         <v>1018.2130393556045</v>
       </c>
       <c r="H21" s="259">
-        <v>-581.30236565691303</v>
+        <v>-355.46512650320386</v>
       </c>
       <c r="I21" s="259">
-        <v>38.264934161420854</v>
+        <v>28.474239122265658</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -31771,10 +31828,10 @@
         <v>1030.4917377332347</v>
       </c>
       <c r="H22" s="259">
-        <v>-583.90625145546994</v>
+        <v>-357.0385667831506</v>
       </c>
       <c r="I22" s="259">
-        <v>38.326825369819289</v>
+        <v>28.533424637449741</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -31800,10 +31857,10 @@
         <v>1037.1068216073324</v>
       </c>
       <c r="H23" s="259">
-        <v>-586.4908696001263</v>
+        <v>-358.60195313159608</v>
       </c>
       <c r="I23" s="259">
-        <v>38.401387580592541</v>
+        <v>28.597987176098513</v>
       </c>
     </row>
   </sheetData>
@@ -32842,21 +32899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33073,32 +33115,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33115,4 +33147,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7B7A5D-7AA1-4240-A65A-FEE53BA76D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E4DD52-535C-48C4-AA20-C4E033B210B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,9 @@
     <author>tc={C5311C2D-4764-4363-AE1C-A82227666FB7}</author>
     <author>tc={A0B72D47-4ADC-4971-B431-B9EA6C91AE60}</author>
     <author>tc={2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}</author>
-    <author>tc={33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}</author>
+    <author>tc={1805251D-64DC-4249-AE91-ACD2C3F47E9D}</author>
     <author>tc={8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}</author>
     <author>tc={DA48DE65-66E5-4DD8-819A-2F757A61D389}</author>
-    <author>tc={1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}</author>
     <author>tc={99D44059-B7C8-4B13-A311-FD754252DDFC}</author>
     <author>tc={11731043-8530-4DAC-9476-3C98D0D836BB}</author>
     <author>tc={D84F0053-F219-4B69-8181-0F12AE7D3FC2}</author>
@@ -522,7 +521,7 @@
     grow with nom purchases</t>
       </text>
     </comment>
-    <comment ref="L76" authorId="14" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+    <comment ref="L76" authorId="14" shapeId="0" xr:uid="{1805251D-64DC-4249-AE91-ACD2C3F47E9D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -548,15 +547,7 @@
     CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</t>
       </text>
     </comment>
-    <comment ref="O81" authorId="17" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</t>
-      </text>
-    </comment>
-    <comment ref="O82" authorId="18" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+    <comment ref="O81" authorId="17" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -564,7 +555,7 @@
     CRFB: estimates $54B ($80B top line but net out$26B in SNAP which is in social benefits). MPC is 100% over 12 quarters. And then annualized</t>
       </text>
     </comment>
-    <comment ref="A93" authorId="0" shapeId="0" xr:uid="{BA08824F-AD84-4798-BBB7-EA418EA44348}">
+    <comment ref="A92" authorId="0" shapeId="0" xr:uid="{BA08824F-AD84-4798-BBB7-EA418EA44348}">
       <text>
         <r>
           <rPr>
@@ -589,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N98" authorId="19" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+    <comment ref="N97" authorId="18" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -597,7 +588,7 @@
     grow with S&amp;L nom purchases</t>
       </text>
     </comment>
-    <comment ref="A100" authorId="0" shapeId="0" xr:uid="{B3E091FA-BC7B-4A13-BB52-450D0FDAFA83}">
+    <comment ref="A99" authorId="0" shapeId="0" xr:uid="{B3E091FA-BC7B-4A13-BB52-450D0FDAFA83}">
       <text>
         <r>
           <rPr>
@@ -630,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O110" authorId="20" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+    <comment ref="O109" authorId="19" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -640,7 +631,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="P110" authorId="21" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+    <comment ref="P109" authorId="20" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -719,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="382">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -2015,9 +2006,6 @@
   </si>
   <si>
     <t>SNAP</t>
-  </si>
-  <si>
-    <t>health care</t>
   </si>
   <si>
     <t>Payroll for Airline Workers</t>
@@ -2913,7 +2901,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3509,7 +3497,6 @@
     <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4077,10 +4064,10 @@
   <threadedComment ref="L71" dT="2020-09-10T19:09:05.64" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
     <text>grow with nom purchases</text>
   </threadedComment>
-  <threadedComment ref="L76" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+  <threadedComment ref="L76" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1805251D-64DC-4249-AE91-ACD2C3F47E9D}">
     <text>CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?</text>
   </threadedComment>
-  <threadedComment ref="L76" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+  <threadedComment ref="L76" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{10A5E196-7EEF-45EC-9341-3FF725295F40}" parentId="{1805251D-64DC-4249-AE91-ACD2C3F47E9D}">
     <text>we're comfortable leaving this as is</text>
   </threadedComment>
   <threadedComment ref="O79" dT="2020-12-21T21:08:26.13" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
@@ -4089,25 +4076,22 @@
   <threadedComment ref="O80" dT="2020-12-21T21:00:34.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
     <text>CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</text>
   </threadedComment>
-  <threadedComment ref="O81" dT="2020-12-21T21:03:38.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
-    <text>CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</text>
-  </threadedComment>
-  <threadedComment ref="O82" dT="2020-12-21T21:11:36.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+  <threadedComment ref="O81" dT="2020-12-21T21:11:36.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
     <text>CRFB: estimates $54B ($80B top line but net out$26B in SNAP which is in social benefits). MPC is 100% over 12 quarters. And then annualized</text>
   </threadedComment>
-  <threadedComment ref="N98" dT="2020-09-11T20:43:00.49" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+  <threadedComment ref="N97" dT="2020-09-11T20:43:00.49" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{11731043-8530-4DAC-9476-3C98D0D836BB}">
     <text>grow with S&amp;L nom purchases</text>
   </threadedComment>
-  <threadedComment ref="O110" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+  <threadedComment ref="O109" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
     <text>overide in the fim with 4%</text>
   </threadedComment>
-  <threadedComment ref="O110" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{37E79AF5-9147-493F-B326-FDE57ECB2DEB}" parentId="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+  <threadedComment ref="O109" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{37E79AF5-9147-493F-B326-FDE57ECB2DEB}" parentId="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
     <text>cbo proected it will be 2.3%. should we still ovverride with 4%?</text>
   </threadedComment>
-  <threadedComment ref="P110" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+  <threadedComment ref="P109" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3B711313-D2C6-42FC-83C8-BA827015079B}">
     <text>overide in the fim with 4%</text>
   </threadedComment>
-  <threadedComment ref="P110" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{F46C58D3-6BCD-41FA-BF7D-CDA2529CBD21}" parentId="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+  <threadedComment ref="P109" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{F46C58D3-6BCD-41FA-BF7D-CDA2529CBD21}" parentId="{3B711313-D2C6-42FC-83C8-BA827015079B}">
     <text>cbo proected it will be 2.3%. should we still ovverride with 4%?</text>
   </threadedComment>
 </ThreadedComments>
@@ -4141,13 +4125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
-  <dimension ref="A1:AQ121"/>
+  <dimension ref="A1:AQ120"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4170,86 +4154,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="342" t="s">
-        <v>371</v>
-      </c>
-      <c r="B1" s="342"/>
+      <c r="A1" s="341" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="341"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC1" s="348" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC1" s="347" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="348"/>
-      <c r="AE1" s="346" t="s">
+      <c r="AD1" s="347"/>
+      <c r="AE1" s="345" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="347"/>
+      <c r="AF1" s="346"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="344" t="s">
+      <c r="AI1" s="343" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="344"/>
-      <c r="AK1" s="344"/>
-      <c r="AL1" s="344"/>
-      <c r="AM1" s="343" t="s">
+      <c r="AJ1" s="343"/>
+      <c r="AK1" s="343"/>
+      <c r="AL1" s="343"/>
+      <c r="AM1" s="342" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" s="343"/>
-      <c r="AO1" s="343"/>
-      <c r="AP1" s="343"/>
+      <c r="AN1" s="342"/>
+      <c r="AO1" s="342"/>
+      <c r="AP1" s="342"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="341" t="s">
+      <c r="F2" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341" t="s">
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341" t="s">
+      <c r="K2" s="340"/>
+      <c r="L2" s="340"/>
+      <c r="M2" s="340"/>
+      <c r="N2" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="341"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="341" t="s">
+      <c r="O2" s="340"/>
+      <c r="P2" s="340"/>
+      <c r="Q2" s="340"/>
+      <c r="R2" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="341"/>
-      <c r="T2" s="341"/>
-      <c r="U2" s="341"/>
-      <c r="V2" s="341" t="s">
+      <c r="S2" s="340"/>
+      <c r="T2" s="340"/>
+      <c r="U2" s="340"/>
+      <c r="V2" s="340" t="s">
         <v>265</v>
       </c>
-      <c r="W2" s="341"/>
-      <c r="X2" s="341"/>
-      <c r="Y2" s="341"/>
+      <c r="W2" s="340"/>
+      <c r="X2" s="340"/>
+      <c r="Y2" s="340"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="341" t="s">
+      <c r="AC2" s="340" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="341"/>
-      <c r="AE2" s="341"/>
-      <c r="AF2" s="341"/>
-      <c r="AG2" s="341"/>
-      <c r="AH2" s="341"/>
-      <c r="AI2" s="341"/>
-      <c r="AJ2" s="341"/>
-      <c r="AK2" s="341"/>
-      <c r="AL2" s="345"/>
+      <c r="AD2" s="340"/>
+      <c r="AE2" s="340"/>
+      <c r="AF2" s="340"/>
+      <c r="AG2" s="340"/>
+      <c r="AH2" s="340"/>
+      <c r="AI2" s="340"/>
+      <c r="AJ2" s="340"/>
+      <c r="AK2" s="340"/>
+      <c r="AL2" s="344"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
@@ -4356,10 +4340,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="339" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="340"/>
+      <c r="B4" s="339"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -4982,7 +4966,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5045,7 +5029,7 @@
     </row>
     <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="212" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14" s="269"/>
       <c r="D14" s="269"/>
@@ -5211,7 +5195,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -5449,7 +5433,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -5681,7 +5665,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -6712,7 +6696,7 @@
     </row>
     <row r="39" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="281" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F39" s="202"/>
       <c r="G39" s="202"/>
@@ -7344,7 +7328,7 @@
     </row>
     <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="333" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="107" t="s">
         <v>280</v>
@@ -7715,11 +7699,11 @@
       </c>
       <c r="O54" s="144">
         <f t="shared" ref="O54:Z54" si="39">O55+AVERAGE($H$54:$K$54)</f>
-        <v>794083.58333333337</v>
+        <v>144269.18333333335</v>
       </c>
       <c r="P54" s="144">
         <f t="shared" si="39"/>
-        <v>794083.58333333337</v>
+        <v>145197.98333333334</v>
       </c>
       <c r="Q54" s="144">
         <f t="shared" si="39"/>
@@ -7792,11 +7776,11 @@
       </c>
       <c r="O55" s="116">
         <f>O57+O58+SUM(O63:O66)</f>
-        <v>719253.33333333337</v>
+        <v>69438.933333333334</v>
       </c>
       <c r="P55" s="116">
         <f t="shared" ref="P55:V55" si="41">P57+P58+SUM(P63:P66)</f>
-        <v>719253.33333333337</v>
+        <v>70367.733333333337</v>
       </c>
       <c r="Q55" s="116">
         <f t="shared" si="41"/>
@@ -8189,12 +8173,12 @@
       <c r="M63" s="301"/>
       <c r="N63" s="308"/>
       <c r="O63" s="279">
-        <f>'Stimulus Round 2'!$C$2*4/2</f>
-        <v>650000</v>
+        <f>185.6</f>
+        <v>185.6</v>
       </c>
       <c r="P63" s="279">
-        <f>'Stimulus Round 2'!$C$2*4/2</f>
-        <v>650000</v>
+        <f>1300-O63</f>
+        <v>1114.4000000000001</v>
       </c>
       <c r="Q63" s="279"/>
       <c r="R63" s="279"/>
@@ -8217,7 +8201,7 @@
     </row>
     <row r="64" spans="1:41" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="273" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F64" s="197"/>
       <c r="G64" s="197"/>
@@ -8306,7 +8290,7 @@
     </row>
     <row r="66" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="273" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F66" s="197"/>
       <c r="G66" s="197"/>
@@ -8496,7 +8480,7 @@
         <v>227</v>
       </c>
       <c r="F70" s="203">
-        <f t="shared" ref="F70:L70" si="42">F68-F93</f>
+        <f t="shared" ref="F70:L70" si="42">F68-F92</f>
         <v>196851</v>
       </c>
       <c r="G70" s="203">
@@ -8527,7 +8511,7 @@
         <v>242100</v>
       </c>
       <c r="N70" s="308">
-        <f>N68-N93</f>
+        <f>N68-N92</f>
         <v>225951</v>
       </c>
       <c r="O70" s="116"/>
@@ -8563,7 +8547,7 @@
       <c r="K71" s="202"/>
       <c r="L71" s="202">
         <f>L70-L72</f>
-        <v>193550</v>
+        <v>230950</v>
       </c>
       <c r="M71" s="303">
         <v>203600</v>
@@ -8573,7 +8557,7 @@
         <v>196951</v>
       </c>
       <c r="O71" s="116">
-        <f t="shared" ref="O71:Z71" si="43">N71*(1+O87)</f>
+        <f t="shared" ref="O71:Z71" si="43">N71*(1+O86)</f>
         <v>197738.804</v>
       </c>
       <c r="P71" s="116">
@@ -8648,11 +8632,11 @@
       <c r="K72" s="205"/>
       <c r="L72" s="205">
         <f>597.9*1000 +L77+L76</f>
-        <v>690700</v>
+        <v>653300</v>
       </c>
       <c r="M72" s="205">
         <f>M75+M76+M77</f>
-        <v>84200</v>
+        <v>87800</v>
       </c>
       <c r="N72" s="205">
         <f>VLOOKUP($C$72,'Haver NA'!$A$1:$J$34,10,0)</f>
@@ -8691,63 +8675,63 @@
       <c r="K73" s="202"/>
       <c r="L73" s="206">
         <f>SUM(L75:L77)</f>
-        <v>127800</v>
+        <v>90400</v>
       </c>
       <c r="M73" s="206">
         <f>SUM(M75:M77)</f>
-        <v>84200</v>
+        <v>87800</v>
       </c>
       <c r="N73" s="206">
         <f>SUM(N75:N77)</f>
-        <v>89000</v>
+        <v>87200</v>
       </c>
       <c r="O73" s="116">
         <f t="shared" ref="O73:Z73" si="44">O74+O78</f>
-        <v>165000</v>
+        <v>145000</v>
       </c>
       <c r="P73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>117000</v>
       </c>
       <c r="Q73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>117000</v>
       </c>
       <c r="R73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>111000</v>
       </c>
       <c r="S73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="T73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="U73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="V73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="W73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="X73" s="116">
         <f t="shared" si="44"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="Y73" s="116">
         <f t="shared" si="44"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="Z73" s="116">
         <f t="shared" si="44"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="AA73" s="116"/>
       <c r="AB73" s="116"/>
@@ -8773,19 +8757,19 @@
       <c r="N74" s="308"/>
       <c r="O74" s="116">
         <f t="shared" ref="O74:Z74" si="45">SUM(O75:O77)</f>
-        <v>106000</v>
+        <v>90000</v>
       </c>
       <c r="P74" s="116">
         <f t="shared" si="45"/>
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="Q74" s="116">
         <f t="shared" si="45"/>
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="R74" s="116">
         <f t="shared" si="45"/>
-        <v>50000</v>
+        <v>56000</v>
       </c>
       <c r="S74" s="116">
         <f t="shared" si="45"/>
@@ -8836,7 +8820,7 @@
         <v>280</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
@@ -8894,13 +8878,13 @@
     </row>
     <row r="76" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="334" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B76" s="107" t="s">
         <v>280</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F76" s="335"/>
       <c r="G76" s="335"/>
@@ -8918,17 +8902,11 @@
         <v>15200</v>
       </c>
       <c r="O76" s="337">
-        <v>28900</v>
-      </c>
-      <c r="P76" s="337">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="337">
-        <v>0</v>
-      </c>
-      <c r="R76" s="337">
-        <v>0</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="P76" s="337"/>
+      <c r="Q76" s="337"/>
+      <c r="R76" s="337"/>
       <c r="S76" s="330"/>
       <c r="T76" s="330"/>
       <c r="U76" s="330"/>
@@ -8954,7 +8932,7 @@
         <v>280</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F77" s="335"/>
       <c r="G77" s="335"/>
@@ -8963,20 +8941,26 @@
       <c r="J77" s="326"/>
       <c r="K77" s="326"/>
       <c r="L77" s="326">
-        <v>64400</v>
-      </c>
-      <c r="M77" s="339">
-        <v>23400</v>
+        <v>27000</v>
+      </c>
+      <c r="M77" s="327">
+        <v>27000</v>
       </c>
       <c r="N77" s="336">
-        <v>13800</v>
+        <v>12000</v>
       </c>
       <c r="O77" s="337">
-        <v>17100</v>
-      </c>
-      <c r="P77" s="337"/>
-      <c r="Q77" s="337"/>
-      <c r="R77" s="337"/>
+        <v>12000</v>
+      </c>
+      <c r="P77" s="337">
+        <v>12000</v>
+      </c>
+      <c r="Q77" s="337">
+        <v>12000</v>
+      </c>
+      <c r="R77" s="337">
+        <v>6000</v>
+      </c>
       <c r="S77" s="330"/>
       <c r="T77" s="330"/>
       <c r="U77" s="330"/>
@@ -9008,52 +8992,52 @@
       <c r="M78" s="301"/>
       <c r="N78" s="308"/>
       <c r="O78" s="116">
-        <f>SUM(O79:O82)</f>
-        <v>59000</v>
+        <f t="shared" ref="O78:Z78" si="46">SUM(O79:O81)</f>
+        <v>55000</v>
       </c>
       <c r="P78" s="116">
-        <f t="shared" ref="P78:Z78" si="46">SUM(P79:P82)</f>
-        <v>59000</v>
+        <f t="shared" si="46"/>
+        <v>55000</v>
       </c>
       <c r="Q78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="R78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="S78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="T78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="U78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="V78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="W78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="X78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="Y78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="Z78" s="116">
         <f t="shared" si="46"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="AA78" s="116"/>
       <c r="AB78" s="44"/>
@@ -9206,7 +9190,7 @@
     </row>
     <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="282" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F81" s="197"/>
       <c r="G81" s="197"/>
@@ -9218,52 +9202,52 @@
       <c r="M81" s="301"/>
       <c r="N81" s="308"/>
       <c r="O81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="P81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="Q81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="R81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="S81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="T81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="U81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="V81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="W81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="X81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="Y81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="Z81" s="279">
-        <f>'Stimulus Round 2'!$C$10*4/12</f>
-        <v>4000</v>
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
       </c>
       <c r="AA81" s="276"/>
       <c r="AB81" s="276"/>
@@ -9274,151 +9258,112 @@
       <c r="AG81" s="276"/>
       <c r="AM81" s="280"/>
     </row>
-    <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="282" t="s">
-        <v>349</v>
-      </c>
+    <row r="82" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="141"/>
+      <c r="E82" s="141"/>
       <c r="F82" s="197"/>
       <c r="G82" s="197"/>
       <c r="H82" s="197"/>
       <c r="I82" s="202"/>
       <c r="J82" s="202"/>
-      <c r="K82" s="202"/>
-      <c r="L82" s="202"/>
-      <c r="M82" s="301"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="P82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="Q82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="R82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="S82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="T82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="U82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="V82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="W82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="X82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="Y82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="Z82" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
-      </c>
-      <c r="AA82" s="276"/>
-      <c r="AB82" s="276"/>
-      <c r="AC82" s="276"/>
-      <c r="AD82" s="276"/>
-      <c r="AE82" s="276"/>
-      <c r="AF82" s="276"/>
-      <c r="AG82" s="276"/>
-      <c r="AM82" s="280"/>
+      <c r="K82" s="202">
+        <f>K68-K92</f>
+        <v>204376</v>
+      </c>
+      <c r="L82" s="206">
+        <f t="shared" ref="L82:Z82" si="47">L71+L73</f>
+        <v>321350</v>
+      </c>
+      <c r="M82" s="206">
+        <f t="shared" si="47"/>
+        <v>291400</v>
+      </c>
+      <c r="N82" s="308">
+        <f t="shared" si="47"/>
+        <v>284151</v>
+      </c>
+      <c r="O82" s="144">
+        <f t="shared" si="47"/>
+        <v>342738.804</v>
+      </c>
+      <c r="P82" s="144">
+        <f t="shared" si="47"/>
+        <v>315529.75921599998</v>
+      </c>
+      <c r="Q82" s="144">
+        <f t="shared" si="47"/>
+        <v>316323.878252864</v>
+      </c>
+      <c r="R82" s="144">
+        <f t="shared" si="47"/>
+        <v>311121.17376587546</v>
+      </c>
+      <c r="S82" s="144">
+        <f t="shared" si="47"/>
+        <v>305921.65846093895</v>
+      </c>
+      <c r="T82" s="144">
+        <f t="shared" si="47"/>
+        <v>306725.34509478271</v>
+      </c>
+      <c r="U82" s="144">
+        <f t="shared" si="47"/>
+        <v>307532.24647516187</v>
+      </c>
+      <c r="V82" s="144">
+        <f t="shared" si="47"/>
+        <v>308342.37546106247</v>
+      </c>
+      <c r="W82" s="144">
+        <f t="shared" si="47"/>
+        <v>309155.7449629067</v>
+      </c>
+      <c r="X82" s="144">
+        <f t="shared" si="47"/>
+        <v>259972.36794275834</v>
+      </c>
+      <c r="Y82" s="144">
+        <f t="shared" si="47"/>
+        <v>260792.25741452936</v>
+      </c>
+      <c r="Z82" s="144">
+        <f t="shared" si="47"/>
+        <v>261615.42644418747</v>
+      </c>
+      <c r="AA82" s="44"/>
+      <c r="AB82" s="44"/>
+      <c r="AC82" s="44"/>
+      <c r="AD82" s="44"/>
+      <c r="AE82" s="44"/>
+      <c r="AF82" s="44"/>
+      <c r="AG82" s="44"/>
+      <c r="AM82" s="233"/>
     </row>
     <row r="83" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="145" t="s">
-        <v>216</v>
-      </c>
-      <c r="B83" s="141"/>
-      <c r="E83" s="141"/>
       <c r="F83" s="197"/>
       <c r="G83" s="197"/>
       <c r="H83" s="197"/>
-      <c r="I83" s="202"/>
-      <c r="J83" s="202"/>
-      <c r="K83" s="202">
-        <f>K68-K93</f>
-        <v>204376</v>
-      </c>
-      <c r="L83" s="206">
-        <f t="shared" ref="L83:Z83" si="47">L71+L73</f>
-        <v>321350</v>
-      </c>
-      <c r="M83" s="206">
-        <f t="shared" si="47"/>
-        <v>287800</v>
-      </c>
-      <c r="N83" s="308">
-        <f t="shared" si="47"/>
-        <v>285951</v>
-      </c>
-      <c r="O83" s="144">
-        <f t="shared" si="47"/>
-        <v>362738.804</v>
-      </c>
-      <c r="P83" s="144">
-        <f t="shared" si="47"/>
-        <v>307529.75921599998</v>
-      </c>
-      <c r="Q83" s="144">
-        <f t="shared" si="47"/>
-        <v>308323.878252864</v>
-      </c>
-      <c r="R83" s="144">
-        <f t="shared" si="47"/>
-        <v>309121.17376587546</v>
-      </c>
-      <c r="S83" s="144">
-        <f t="shared" si="47"/>
-        <v>309921.65846093895</v>
-      </c>
-      <c r="T83" s="144">
-        <f t="shared" si="47"/>
-        <v>310725.34509478271</v>
-      </c>
-      <c r="U83" s="144">
-        <f t="shared" si="47"/>
-        <v>311532.24647516187</v>
-      </c>
-      <c r="V83" s="144">
-        <f t="shared" si="47"/>
-        <v>312342.37546106247</v>
-      </c>
-      <c r="W83" s="144">
-        <f t="shared" si="47"/>
-        <v>313155.7449629067</v>
-      </c>
-      <c r="X83" s="144">
-        <f t="shared" si="47"/>
-        <v>263972.36794275837</v>
-      </c>
-      <c r="Y83" s="144">
-        <f t="shared" si="47"/>
-        <v>264792.25741452933</v>
-      </c>
-      <c r="Z83" s="144">
-        <f t="shared" si="47"/>
-        <v>265615.42644418747</v>
-      </c>
+      <c r="I83" s="197"/>
+      <c r="J83" s="197"/>
+      <c r="K83" s="197"/>
+      <c r="L83" s="203"/>
+      <c r="M83" s="301"/>
+      <c r="N83" s="310"/>
+      <c r="O83" s="135"/>
+      <c r="P83" s="135"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="44"/>
+      <c r="V83" s="44"/>
+      <c r="W83" s="44"/>
+      <c r="X83" s="44"/>
+      <c r="Y83" s="44"/>
+      <c r="Z83" s="44"/>
       <c r="AA83" s="44"/>
       <c r="AB83" s="44"/>
       <c r="AC83" s="44"/>
@@ -9429,22 +9374,51 @@
       <c r="AM83" s="233"/>
     </row>
     <row r="84" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F84" s="197"/>
-      <c r="G84" s="197"/>
-      <c r="H84" s="197"/>
-      <c r="I84" s="197"/>
-      <c r="J84" s="197"/>
-      <c r="K84" s="197"/>
-      <c r="L84" s="203"/>
-      <c r="M84" s="301"/>
-      <c r="N84" s="310"/>
-      <c r="O84" s="135"/>
-      <c r="P84" s="135"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
-      <c r="S84" s="44"/>
-      <c r="T84" s="44"/>
-      <c r="U84" s="44"/>
+      <c r="A84" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84"/>
+      <c r="F84" s="206">
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="G84" s="206">
+        <v>1245.8</v>
+      </c>
+      <c r="H84" s="206">
+        <v>1473.6</v>
+      </c>
+      <c r="I84" s="206">
+        <v>1288.5</v>
+      </c>
+      <c r="J84" s="206">
+        <v>1301.0999999999999</v>
+      </c>
+      <c r="K84" s="206">
+        <v>1306.0999999999999</v>
+      </c>
+      <c r="L84" s="206">
+        <v>1360.1</v>
+      </c>
+      <c r="M84" s="301">
+        <v>1335.133</v>
+      </c>
+      <c r="N84" s="308">
+        <f>VLOOKUP($C$84,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+        <v>1333.307</v>
+      </c>
+      <c r="O84" s="116"/>
+      <c r="P84" s="116"/>
+      <c r="Q84" s="116"/>
+      <c r="R84" s="116"/>
+      <c r="S84" s="116"/>
+      <c r="T84" s="116"/>
+      <c r="U84" s="116"/>
       <c r="V84" s="44"/>
       <c r="W84" s="44"/>
       <c r="X84" s="44"/>
@@ -9457,63 +9431,81 @@
       <c r="AE84" s="44"/>
       <c r="AF84" s="44"/>
       <c r="AG84" s="44"/>
-      <c r="AM84" s="233"/>
+      <c r="AI84" s="44"/>
+      <c r="AJ84" s="44"/>
+      <c r="AK84" s="44"/>
+      <c r="AL84" s="44"/>
+      <c r="AM84" s="235"/>
     </row>
     <row r="85" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
-        <v>17</v>
+      <c r="A85" s="114" t="s">
+        <v>203</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D85"/>
-      <c r="F85" s="206">
-        <v>1241.5999999999999</v>
-      </c>
-      <c r="G85" s="206">
-        <v>1245.8</v>
-      </c>
-      <c r="H85" s="206">
-        <v>1473.6</v>
-      </c>
-      <c r="I85" s="206">
-        <v>1288.5</v>
-      </c>
-      <c r="J85" s="206">
-        <v>1301.0999999999999</v>
-      </c>
-      <c r="K85" s="206">
-        <v>1306.0999999999999</v>
-      </c>
-      <c r="L85" s="206">
-        <v>1360.1</v>
+      <c r="F85" s="197"/>
+      <c r="G85" s="197"/>
+      <c r="H85" s="197"/>
+      <c r="I85" s="197"/>
+      <c r="J85" s="197">
+        <v>1447.9</v>
+      </c>
+      <c r="K85" s="197">
+        <v>1452.6</v>
+      </c>
+      <c r="L85" s="197">
+        <v>1504.8</v>
       </c>
       <c r="M85" s="301">
-        <v>1335.133</v>
-      </c>
-      <c r="N85" s="308">
+        <v>1487.0350000000001</v>
+      </c>
+      <c r="N85" s="301">
         <f>VLOOKUP($C$85,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>1333.307</v>
-      </c>
-      <c r="O85" s="116"/>
-      <c r="P85" s="116"/>
-      <c r="Q85" s="116"/>
-      <c r="R85" s="116"/>
-      <c r="S85" s="116"/>
-      <c r="T85" s="116"/>
-      <c r="U85" s="116"/>
-      <c r="V85" s="44"/>
-      <c r="W85" s="44"/>
-      <c r="X85" s="44"/>
-      <c r="Y85" s="44"/>
-      <c r="Z85" s="44"/>
-      <c r="AA85" s="44"/>
-      <c r="AB85" s="44"/>
-      <c r="AC85" s="44"/>
-      <c r="AD85" s="44"/>
+        <v>1493.5530000000001</v>
+      </c>
+      <c r="O85">
+        <v>1504.3514552807801</v>
+      </c>
+      <c r="P85">
+        <v>1511.252602267454</v>
+      </c>
+      <c r="Q85">
+        <v>1519.3368030232709</v>
+      </c>
+      <c r="R85">
+        <v>1530.997960524671</v>
+      </c>
+      <c r="S85">
+        <v>1544.2799915439159</v>
+      </c>
+      <c r="T85">
+        <v>1557.72908484966</v>
+      </c>
+      <c r="U85">
+        <v>1572.6694039177321</v>
+      </c>
+      <c r="V85">
+        <v>1586.4153149483291</v>
+      </c>
+      <c r="W85">
+        <v>1601.682526026475</v>
+      </c>
+      <c r="X85">
+        <v>1615.690158481731</v>
+      </c>
+      <c r="Y85">
+        <v>1631.2333657547081</v>
+      </c>
+      <c r="Z85">
+        <v>1646.9554971985581</v>
+      </c>
+      <c r="AA85"/>
+      <c r="AB85"/>
       <c r="AE85" s="44"/>
       <c r="AF85" s="44"/>
       <c r="AG85" s="44"/>
@@ -9525,70 +9517,59 @@
     </row>
     <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" t="s">
-        <v>315</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C86"/>
       <c r="D86"/>
       <c r="F86" s="197"/>
       <c r="G86" s="197"/>
       <c r="H86" s="197"/>
       <c r="I86" s="197"/>
-      <c r="J86" s="197">
-        <v>1447.9</v>
-      </c>
-      <c r="K86" s="197">
-        <v>1452.6</v>
-      </c>
-      <c r="L86" s="197">
-        <v>1504.8</v>
-      </c>
-      <c r="M86" s="301">
-        <v>1487.0350000000001</v>
-      </c>
-      <c r="N86" s="301">
-        <f>VLOOKUP($C$86,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>1493.5530000000001</v>
-      </c>
-      <c r="O86">
-        <v>1504.3514552807801</v>
-      </c>
-      <c r="P86">
-        <v>1511.252602267454</v>
-      </c>
-      <c r="Q86">
-        <v>1519.3368030232709</v>
-      </c>
-      <c r="R86">
-        <v>1530.997960524671</v>
-      </c>
-      <c r="S86">
-        <v>1544.2799915439159</v>
-      </c>
-      <c r="T86">
-        <v>1557.72908484966</v>
-      </c>
-      <c r="U86">
-        <v>1572.6694039177321</v>
-      </c>
-      <c r="V86">
-        <v>1586.4153149483291</v>
-      </c>
-      <c r="W86">
-        <v>1601.682526026475</v>
-      </c>
-      <c r="X86">
-        <v>1615.690158481731</v>
-      </c>
-      <c r="Y86">
-        <v>1631.2333657547081</v>
-      </c>
-      <c r="Z86">
-        <v>1646.9554971985581</v>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
+      <c r="L86" s="197"/>
+      <c r="M86" s="302">
+        <v>-1.1805555555555514E-2</v>
+      </c>
+      <c r="N86" s="311">
+        <f>N84/M84-1</f>
+        <v>-1.3676540090014067E-3</v>
+      </c>
+      <c r="O86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="X86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y86" s="196">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Z86" s="196">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA86"/>
       <c r="AB86"/>
@@ -9601,76 +9582,74 @@
       <c r="AL86" s="44"/>
       <c r="AM86" s="235"/>
     </row>
-    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="114" t="s">
-        <v>380</v>
-      </c>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="F87" s="197"/>
-      <c r="G87" s="197"/>
-      <c r="H87" s="197"/>
-      <c r="I87" s="197"/>
-      <c r="J87" s="197"/>
-      <c r="K87" s="197"/>
-      <c r="L87" s="197"/>
+    <row r="87" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A87" s="169" t="s">
+        <v>202</v>
+      </c>
+      <c r="F87" s="207"/>
+      <c r="G87" s="207"/>
+      <c r="H87" s="207"/>
+      <c r="I87" s="207"/>
+      <c r="J87" s="207"/>
+      <c r="K87" s="207"/>
+      <c r="L87" s="207"/>
       <c r="M87" s="302">
         <v>-1.1805555555555514E-2</v>
       </c>
       <c r="N87" s="311">
         <f>N85/M85-1</f>
-        <v>-1.3676540090014067E-3</v>
+        <v>4.3832189558417056E-3</v>
       </c>
       <c r="O87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>5.3394154743755307E-2</v>
       </c>
       <c r="P87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>-1.9703807284052632E-2</v>
       </c>
       <c r="Q87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>-4.084808403034379E-3</v>
       </c>
       <c r="R87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="S87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>2.4739583333333037E-3</v>
       </c>
       <c r="T87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>1.6235874788934623E-3</v>
       </c>
       <c r="U87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>3.9551319457953316E-3</v>
       </c>
       <c r="V87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8749677086025169E-3</v>
       </c>
       <c r="W87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>3.9243437982501295E-3</v>
       </c>
       <c r="X87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0118551746236566E-3</v>
       </c>
       <c r="Y87" s="196">
-        <v>4.0000000000000001E-3</v>
+        <v>3.9611551239457921E-3</v>
       </c>
       <c r="Z87" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AA87"/>
-      <c r="AB87"/>
-      <c r="AE87" s="44"/>
-      <c r="AF87" s="44"/>
-      <c r="AG87" s="44"/>
-      <c r="AI87" s="44"/>
-      <c r="AJ87" s="44"/>
-      <c r="AK87" s="44"/>
-      <c r="AL87" s="44"/>
-      <c r="AM87" s="235"/>
-    </row>
-    <row r="88" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A88" s="169" t="s">
-        <v>202</v>
+        <v>5.027364133893153E-3</v>
+      </c>
+      <c r="AA87" s="186"/>
+      <c r="AB87" s="186"/>
+      <c r="AE87" s="187"/>
+      <c r="AF87" s="187"/>
+      <c r="AG87" s="187"/>
+      <c r="AI87" s="187"/>
+      <c r="AJ87" s="187"/>
+      <c r="AK87" s="187"/>
+      <c r="AL87" s="187"/>
+      <c r="AM87" s="237"/>
+    </row>
+    <row r="88" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="114" t="s">
+        <v>355</v>
       </c>
       <c r="F88" s="207"/>
       <c r="G88" s="207"/>
@@ -9679,49 +9658,32 @@
       <c r="J88" s="207"/>
       <c r="K88" s="207"/>
       <c r="L88" s="207"/>
-      <c r="M88" s="302">
-        <v>-1.1805555555555514E-2</v>
-      </c>
-      <c r="N88" s="311">
-        <f>N86/M86-1</f>
-        <v>4.3832189558417056E-3</v>
-      </c>
-      <c r="O88" s="196">
-        <v>5.3394154743755307E-2</v>
-      </c>
-      <c r="P88" s="196">
-        <v>-1.9703807284052632E-2</v>
-      </c>
-      <c r="Q88" s="196">
-        <v>-4.084808403034379E-3</v>
-      </c>
-      <c r="R88" s="196">
-        <v>0</v>
-      </c>
-      <c r="S88" s="196">
-        <v>2.4739583333333037E-3</v>
-      </c>
-      <c r="T88" s="196">
-        <v>1.6235874788934623E-3</v>
-      </c>
-      <c r="U88" s="196">
-        <v>3.9551319457953316E-3</v>
-      </c>
-      <c r="V88" s="196">
-        <v>3.8749677086025169E-3</v>
-      </c>
-      <c r="W88" s="196">
-        <v>3.9243437982501295E-3</v>
-      </c>
-      <c r="X88" s="196">
-        <v>3.0118551746236566E-3</v>
-      </c>
-      <c r="Y88" s="196">
-        <v>3.9611551239457921E-3</v>
-      </c>
-      <c r="Z88" s="196">
-        <v>5.027364133893153E-3</v>
-      </c>
+      <c r="M88" s="302"/>
+      <c r="N88" s="311"/>
+      <c r="O88" s="102">
+        <f>SUM(O89:O91)</f>
+        <v>71400</v>
+      </c>
+      <c r="P88" s="102">
+        <f t="shared" ref="P88:R88" si="48">SUM(P89:P91)</f>
+        <v>71400</v>
+      </c>
+      <c r="Q88" s="102">
+        <f t="shared" si="48"/>
+        <v>30600</v>
+      </c>
+      <c r="R88" s="102">
+        <f t="shared" si="48"/>
+        <v>30600</v>
+      </c>
+      <c r="S88" s="186"/>
+      <c r="T88" s="186"/>
+      <c r="U88" s="186"/>
+      <c r="V88" s="186"/>
+      <c r="W88" s="186"/>
+      <c r="X88" s="186"/>
+      <c r="Y88" s="186"/>
+      <c r="Z88" s="186"/>
       <c r="AA88" s="186"/>
       <c r="AB88" s="186"/>
       <c r="AE88" s="187"/>
@@ -9733,53 +9695,53 @@
       <c r="AL88" s="187"/>
       <c r="AM88" s="237"/>
     </row>
-    <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="114" t="s">
-        <v>356</v>
-      </c>
-      <c r="F89" s="207"/>
-      <c r="G89" s="207"/>
-      <c r="H89" s="207"/>
-      <c r="I89" s="207"/>
-      <c r="J89" s="207"/>
-      <c r="K89" s="207"/>
-      <c r="L89" s="207"/>
-      <c r="M89" s="302"/>
-      <c r="N89" s="311"/>
-      <c r="O89" s="102">
-        <f>SUM(O90:O92)</f>
-        <v>71400</v>
-      </c>
-      <c r="P89" s="102">
-        <f t="shared" ref="P89:R89" si="48">SUM(P90:P92)</f>
-        <v>71400</v>
-      </c>
-      <c r="Q89" s="102">
-        <f t="shared" si="48"/>
-        <v>30600</v>
-      </c>
-      <c r="R89" s="102">
-        <f t="shared" si="48"/>
-        <v>30600</v>
-      </c>
-      <c r="S89" s="186"/>
-      <c r="T89" s="186"/>
-      <c r="U89" s="186"/>
-      <c r="V89" s="186"/>
-      <c r="W89" s="186"/>
-      <c r="X89" s="186"/>
-      <c r="Y89" s="186"/>
-      <c r="Z89" s="186"/>
-      <c r="AA89" s="186"/>
-      <c r="AB89" s="186"/>
-      <c r="AE89" s="187"/>
-      <c r="AF89" s="187"/>
-      <c r="AG89" s="187"/>
-      <c r="AI89" s="187"/>
-      <c r="AJ89" s="187"/>
-      <c r="AK89" s="187"/>
-      <c r="AL89" s="187"/>
-      <c r="AM89" s="237"/>
+    <row r="89" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="284" t="s">
+        <v>351</v>
+      </c>
+      <c r="F89" s="300"/>
+      <c r="G89" s="300"/>
+      <c r="H89" s="300"/>
+      <c r="I89" s="300"/>
+      <c r="J89" s="300"/>
+      <c r="K89" s="300"/>
+      <c r="L89" s="300"/>
+      <c r="M89" s="305"/>
+      <c r="N89" s="312"/>
+      <c r="O89" s="279">
+        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
+        <v>30799.999999999996</v>
+      </c>
+      <c r="P89" s="279">
+        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
+        <v>30799.999999999996</v>
+      </c>
+      <c r="Q89" s="279">
+        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
+        <v>13200</v>
+      </c>
+      <c r="R89" s="279">
+        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
+        <v>13200</v>
+      </c>
+      <c r="S89" s="286"/>
+      <c r="T89" s="286"/>
+      <c r="U89" s="286"/>
+      <c r="V89" s="286"/>
+      <c r="W89" s="286"/>
+      <c r="X89" s="286"/>
+      <c r="Y89" s="286"/>
+      <c r="Z89" s="286"/>
+      <c r="AA89" s="286"/>
+      <c r="AB89" s="286"/>
+      <c r="AE89" s="287"/>
+      <c r="AF89" s="287"/>
+      <c r="AG89" s="287"/>
+      <c r="AI89" s="287"/>
+      <c r="AJ89" s="287"/>
+      <c r="AK89" s="287"/>
+      <c r="AL89" s="287"/>
+      <c r="AM89" s="288"/>
     </row>
     <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="284" t="s">
@@ -9795,20 +9757,20 @@
       <c r="M90" s="305"/>
       <c r="N90" s="312"/>
       <c r="O90" s="279">
-        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
-        <v>30799.999999999996</v>
+        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
+        <v>28000</v>
       </c>
       <c r="P90" s="279">
-        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
-        <v>30799.999999999996</v>
+        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
+        <v>28000</v>
       </c>
       <c r="Q90" s="279">
-        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
-        <v>13200</v>
+        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
+        <v>12000</v>
       </c>
       <c r="R90" s="279">
-        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
-        <v>13200</v>
+        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
+        <v>12000</v>
       </c>
       <c r="S90" s="286"/>
       <c r="T90" s="286"/>
@@ -9843,20 +9805,20 @@
       <c r="M91" s="305"/>
       <c r="N91" s="312"/>
       <c r="O91" s="279">
-        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
-        <v>28000</v>
+        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
+        <v>12600</v>
       </c>
       <c r="P91" s="279">
-        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
-        <v>28000</v>
+        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
+        <v>12600</v>
       </c>
       <c r="Q91" s="279">
-        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
-        <v>12000</v>
+        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
+        <v>5400</v>
       </c>
       <c r="R91" s="279">
-        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
-        <v>12000</v>
+        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
+        <v>5400</v>
       </c>
       <c r="S91" s="286"/>
       <c r="T91" s="286"/>
@@ -9877,1018 +9839,1021 @@
       <c r="AL91" s="287"/>
       <c r="AM91" s="288"/>
     </row>
-    <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="284" t="s">
-        <v>354</v>
-      </c>
-      <c r="F92" s="300"/>
-      <c r="G92" s="300"/>
-      <c r="H92" s="300"/>
-      <c r="I92" s="300"/>
-      <c r="J92" s="300"/>
-      <c r="K92" s="300"/>
-      <c r="L92" s="300"/>
-      <c r="M92" s="305"/>
-      <c r="N92" s="312"/>
-      <c r="O92" s="279">
-        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
-        <v>12600</v>
-      </c>
-      <c r="P92" s="279">
-        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
-        <v>12600</v>
-      </c>
-      <c r="Q92" s="279">
-        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
-        <v>5400</v>
-      </c>
-      <c r="R92" s="279">
-        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
-        <v>5400</v>
-      </c>
-      <c r="S92" s="286"/>
-      <c r="T92" s="286"/>
-      <c r="U92" s="286"/>
-      <c r="V92" s="286"/>
-      <c r="W92" s="286"/>
-      <c r="X92" s="286"/>
-      <c r="Y92" s="286"/>
-      <c r="Z92" s="286"/>
-      <c r="AA92" s="286"/>
-      <c r="AB92" s="286"/>
-      <c r="AE92" s="287"/>
-      <c r="AF92" s="287"/>
-      <c r="AG92" s="287"/>
-      <c r="AI92" s="287"/>
-      <c r="AJ92" s="287"/>
-      <c r="AK92" s="287"/>
-      <c r="AL92" s="287"/>
-      <c r="AM92" s="288"/>
-    </row>
-    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
+    <row r="92" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B92" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C92" t="s">
         <v>316</v>
       </c>
-      <c r="D93"/>
-      <c r="F93" s="206">
+      <c r="D92"/>
+      <c r="F92" s="206">
         <v>389624</v>
       </c>
-      <c r="G93" s="206">
+      <c r="G92" s="206">
         <v>404529</v>
       </c>
-      <c r="H93" s="206">
+      <c r="H92" s="206">
         <v>419672</v>
       </c>
-      <c r="I93" s="206">
+      <c r="I92" s="206">
         <v>418824</v>
       </c>
-      <c r="J93" s="206">
+      <c r="J92" s="206">
         <v>411409</v>
       </c>
-      <c r="K93" s="206">
+      <c r="K92" s="206">
         <v>423429</v>
       </c>
-      <c r="L93" s="206">
+      <c r="L92" s="206">
         <v>512640</v>
       </c>
-      <c r="M93" s="301">
+      <c r="M92" s="301">
         <v>486072</v>
       </c>
-      <c r="N93" s="308">
-        <f>VLOOKUP($C$93,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="N92" s="308">
+        <f>VLOOKUP($C$92,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>512193</v>
       </c>
-      <c r="O93" s="116">
-        <f t="shared" ref="O93:S93" si="49">O100*0.74</f>
+      <c r="O92" s="116">
+        <f t="shared" ref="O92:S92" si="49">O99*0.74</f>
         <v>507477.24811825115</v>
       </c>
-      <c r="P93" s="116">
+      <c r="P92" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="Q93" s="116">
+      <c r="Q92" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="R93" s="116">
+      <c r="R92" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="S93" s="116">
+      <c r="S92" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="T93" s="116">
-        <f>T100*0.68</f>
+      <c r="T92" s="116">
+        <f>T99*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="U93" s="116">
-        <f>U100*0.68</f>
+      <c r="U92" s="116">
+        <f>U99*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="V93" s="116">
-        <f>V100*0.68</f>
+      <c r="V92" s="116">
+        <f>V99*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="W93" s="116"/>
-      <c r="X93" s="116"/>
-      <c r="Y93" s="116"/>
-      <c r="Z93" s="116"/>
-      <c r="AA93" s="116"/>
-      <c r="AB93" s="116"/>
-      <c r="AC93" s="44">
-        <f>AVERAGE(F93:I93)/1000</f>
+      <c r="W92" s="116"/>
+      <c r="X92" s="116"/>
+      <c r="Y92" s="116"/>
+      <c r="Z92" s="116"/>
+      <c r="AA92" s="116"/>
+      <c r="AB92" s="116"/>
+      <c r="AC92" s="44">
+        <f>AVERAGE(F92:I92)/1000</f>
         <v>408.16224999999997</v>
       </c>
-      <c r="AD93" s="45">
-        <f>AVERAGE(J93:M93)</f>
+      <c r="AD92" s="45">
+        <f>AVERAGE(J92:M92)</f>
         <v>458387.5</v>
       </c>
-      <c r="AE93" s="45">
-        <f>AVERAGE(N93:Q93)</f>
+      <c r="AE92" s="45">
+        <f>AVERAGE(N92:Q92)</f>
         <v>511188.22022116883</v>
       </c>
-      <c r="AF93" s="45">
-        <f>AVERAGE(R93:U93)</f>
+      <c r="AF92" s="45">
+        <f>AVERAGE(R92:U92)</f>
         <v>491762.61436767643</v>
       </c>
-      <c r="AH93" s="35">
+      <c r="AH92" s="35">
         <v>409.42</v>
       </c>
-      <c r="AI93" s="84">
+      <c r="AI92" s="84">
         <f>'figuring out Medicaid'!G11</f>
         <v>466.24400000000003</v>
       </c>
-      <c r="AJ93" s="84">
+      <c r="AJ92" s="84">
         <f>'figuring out Medicaid'!H11</f>
         <v>537.41499999999996</v>
       </c>
-      <c r="AK93" s="84">
+      <c r="AK92" s="84">
         <f>'figuring out Medicaid'!I11</f>
         <v>516.01800000000003</v>
       </c>
-      <c r="AL93" s="84"/>
+      <c r="AL92" s="84"/>
+      <c r="AM92" s="233"/>
+    </row>
+    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="141"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="201">
+        <f t="shared" ref="F93:L93" si="50">F50+F47+F36+F42</f>
+        <v>1440187</v>
+      </c>
+      <c r="G93" s="201">
+        <f t="shared" si="50"/>
+        <v>1503410</v>
+      </c>
+      <c r="H93" s="201">
+        <f t="shared" si="50"/>
+        <v>1508652</v>
+      </c>
+      <c r="I93" s="201">
+        <f t="shared" si="50"/>
+        <v>1513957</v>
+      </c>
+      <c r="J93" s="201">
+        <f t="shared" si="50"/>
+        <v>1521941</v>
+      </c>
+      <c r="K93" s="201">
+        <f t="shared" si="50"/>
+        <v>1574462</v>
+      </c>
+      <c r="L93" s="201">
+        <f t="shared" si="50"/>
+        <v>3729557.333333333</v>
+      </c>
+      <c r="M93" s="301">
+        <v>2466001</v>
+      </c>
+      <c r="N93" s="306">
+        <f>N50+N47+N36+N42+N37</f>
+        <v>2027793</v>
+      </c>
+      <c r="O93" s="142">
+        <f t="shared" ref="O93:Z93" si="51">O50+O47+O36+O42+O37+O38+O39</f>
+        <v>3118123.8025000002</v>
+      </c>
+      <c r="P93" s="142">
+        <f t="shared" si="51"/>
+        <v>1874848.87398125</v>
+      </c>
+      <c r="Q93" s="142">
+        <f t="shared" si="51"/>
+        <v>1686467.5074263907</v>
+      </c>
+      <c r="R93" s="142">
+        <f t="shared" si="51"/>
+        <v>1683044.5200377863</v>
+      </c>
+      <c r="S93" s="142">
+        <f t="shared" si="51"/>
+        <v>1687990.187838353</v>
+      </c>
+      <c r="T93" s="142">
+        <f t="shared" si="51"/>
+        <v>1713310.0406559282</v>
+      </c>
+      <c r="U93" s="142">
+        <f t="shared" si="51"/>
+        <v>1739009.691265767</v>
+      </c>
+      <c r="V93" s="142">
+        <f t="shared" si="51"/>
+        <v>1756399.7881784246</v>
+      </c>
+      <c r="W93" s="142">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="X93" s="142">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="142">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="142">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
       <c r="AM93" s="233"/>
     </row>
     <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="141" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="B94" s="141"/>
       <c r="E94" s="141"/>
-      <c r="F94" s="201">
-        <f t="shared" ref="F94:L94" si="50">F50+F47+F36+F42</f>
-        <v>1440187</v>
-      </c>
-      <c r="G94" s="201">
-        <f t="shared" si="50"/>
-        <v>1503410</v>
-      </c>
-      <c r="H94" s="201">
-        <f t="shared" si="50"/>
-        <v>1508652</v>
-      </c>
-      <c r="I94" s="201">
-        <f t="shared" si="50"/>
-        <v>1513957</v>
-      </c>
-      <c r="J94" s="201">
-        <f t="shared" si="50"/>
-        <v>1521941</v>
-      </c>
-      <c r="K94" s="201">
-        <f t="shared" si="50"/>
-        <v>1574462</v>
-      </c>
-      <c r="L94" s="201">
-        <f t="shared" si="50"/>
-        <v>3729557.333333333</v>
+      <c r="F94" s="197"/>
+      <c r="G94" s="197"/>
+      <c r="H94" s="197"/>
+      <c r="I94" s="197"/>
+      <c r="J94" s="197"/>
+      <c r="K94" s="197"/>
+      <c r="L94" s="203">
+        <f>L92+L35</f>
+        <v>1336698</v>
       </c>
       <c r="M94" s="301">
-        <v>2466001</v>
-      </c>
-      <c r="N94" s="306">
-        <f>N50+N47+N36+N42+N37</f>
-        <v>2027793</v>
-      </c>
-      <c r="O94" s="142">
-        <f t="shared" ref="O94:Z94" si="51">O50+O47+O36+O42+O37+O38+O39</f>
-        <v>3118123.8025000002</v>
-      </c>
-      <c r="P94" s="142">
-        <f t="shared" si="51"/>
-        <v>1874848.87398125</v>
-      </c>
-      <c r="Q94" s="142">
-        <f t="shared" si="51"/>
-        <v>1686467.5074263907</v>
-      </c>
-      <c r="R94" s="142">
-        <f t="shared" si="51"/>
-        <v>1683044.5200377863</v>
-      </c>
-      <c r="S94" s="142">
-        <f t="shared" si="51"/>
-        <v>1687990.187838353</v>
-      </c>
-      <c r="T94" s="142">
-        <f t="shared" si="51"/>
-        <v>1713310.0406559282</v>
-      </c>
-      <c r="U94" s="142">
-        <f t="shared" si="51"/>
-        <v>1739009.691265767</v>
-      </c>
-      <c r="V94" s="142">
-        <f t="shared" si="51"/>
-        <v>1756399.7881784246</v>
-      </c>
-      <c r="W94" s="142">
-        <f t="shared" si="51"/>
+        <v>1328805</v>
+      </c>
+      <c r="N94" s="310">
+        <f t="shared" ref="N94:Z94" si="52">N92+N35</f>
+        <v>1372787</v>
+      </c>
+      <c r="O94" s="143">
+        <f t="shared" si="52"/>
+        <v>1390610.1625906522</v>
+      </c>
+      <c r="P94" s="143">
+        <f t="shared" si="52"/>
+        <v>1418489.158978964</v>
+      </c>
+      <c r="Q94" s="143">
+        <f t="shared" si="52"/>
+        <v>1441583.4808422038</v>
+      </c>
+      <c r="R94" s="143">
+        <f t="shared" si="52"/>
+        <v>1483962.7404801806</v>
+      </c>
+      <c r="S94" s="143">
+        <f t="shared" si="52"/>
+        <v>1515727.7827888038</v>
+      </c>
+      <c r="T94" s="143">
+        <f t="shared" si="52"/>
+        <v>1506974.123618965</v>
+      </c>
+      <c r="U94" s="143">
+        <f t="shared" si="52"/>
+        <v>1540850.5361376633</v>
+      </c>
+      <c r="V94" s="143">
+        <f t="shared" si="52"/>
+        <v>1551631.6801380017</v>
+      </c>
+      <c r="W94" s="143">
+        <f t="shared" si="52"/>
+        <v>1091537.5543621723</v>
+      </c>
+      <c r="X94" s="143">
+        <f t="shared" si="52"/>
+        <v>1102537.0783156503</v>
+      </c>
+      <c r="Y94" s="143">
+        <f t="shared" si="52"/>
+        <v>1113647.4454798999</v>
+      </c>
+      <c r="Z94" s="143">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X94" s="142">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Y94" s="142">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="142">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
       <c r="AM94" s="233"/>
     </row>
     <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" s="141"/>
-      <c r="E95" s="141"/>
       <c r="F95" s="197"/>
       <c r="G95" s="197"/>
       <c r="H95" s="197"/>
       <c r="I95" s="197"/>
       <c r="J95" s="197"/>
       <c r="K95" s="197"/>
-      <c r="L95" s="203">
-        <f>L93+L35</f>
-        <v>1336698</v>
-      </c>
-      <c r="M95" s="301">
-        <v>1328805</v>
-      </c>
-      <c r="N95" s="310">
-        <f t="shared" ref="N95:Z95" si="52">N93+N35</f>
-        <v>1372787</v>
-      </c>
-      <c r="O95" s="143">
-        <f t="shared" si="52"/>
-        <v>1390610.1625906522</v>
-      </c>
-      <c r="P95" s="143">
-        <f t="shared" si="52"/>
-        <v>1418489.158978964</v>
-      </c>
-      <c r="Q95" s="143">
-        <f t="shared" si="52"/>
-        <v>1441583.4808422038</v>
-      </c>
-      <c r="R95" s="143">
-        <f t="shared" si="52"/>
-        <v>1483962.7404801806</v>
-      </c>
-      <c r="S95" s="143">
-        <f t="shared" si="52"/>
-        <v>1515727.7827888038</v>
-      </c>
-      <c r="T95" s="143">
-        <f t="shared" si="52"/>
-        <v>1506974.123618965</v>
-      </c>
-      <c r="U95" s="143">
-        <f t="shared" si="52"/>
-        <v>1540850.5361376633</v>
-      </c>
-      <c r="V95" s="143">
-        <f t="shared" si="52"/>
-        <v>1551631.6801380017</v>
-      </c>
-      <c r="W95" s="143">
-        <f t="shared" si="52"/>
-        <v>1091537.5543621723</v>
-      </c>
-      <c r="X95" s="143">
-        <f t="shared" si="52"/>
-        <v>1102537.0783156503</v>
-      </c>
-      <c r="Y95" s="143">
-        <f t="shared" si="52"/>
-        <v>1113647.4454798999</v>
-      </c>
-      <c r="Z95" s="143">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="L95" s="197"/>
+      <c r="M95" s="301"/>
+      <c r="N95" s="301"/>
       <c r="AM95" s="233"/>
     </row>
     <row r="96" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F96" s="197"/>
-      <c r="G96" s="197"/>
-      <c r="H96" s="197"/>
-      <c r="I96" s="197"/>
-      <c r="J96" s="197"/>
-      <c r="K96" s="197"/>
-      <c r="L96" s="197"/>
-      <c r="M96" s="301"/>
-      <c r="N96" s="301"/>
+      <c r="A96" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" t="s">
+        <v>317</v>
+      </c>
+      <c r="D96"/>
+      <c r="F96" s="197">
+        <v>728844</v>
+      </c>
+      <c r="G96" s="197">
+        <v>738714</v>
+      </c>
+      <c r="H96" s="197">
+        <v>755204</v>
+      </c>
+      <c r="I96" s="197">
+        <v>763370</v>
+      </c>
+      <c r="J96" s="197">
+        <v>760967</v>
+      </c>
+      <c r="K96" s="197">
+        <v>767087</v>
+      </c>
+      <c r="L96" s="197">
+        <v>812158</v>
+      </c>
+      <c r="M96" s="301">
+        <v>828480</v>
+      </c>
+      <c r="N96" s="303">
+        <f>VLOOKUP($C$96,'Haver NA'!$A$1:$J$34,10,0)</f>
+        <v>818740</v>
+      </c>
+      <c r="O96" s="133">
+        <f t="shared" ref="O96:U96" si="53">O97+O99</f>
+        <v>831250.83502466371</v>
+      </c>
+      <c r="P96" s="133">
+        <f t="shared" si="53"/>
+        <v>838457.84744285408</v>
+      </c>
+      <c r="Q96" s="133">
+        <f t="shared" si="53"/>
+        <v>839187.01967747905</v>
+      </c>
+      <c r="R96" s="133">
+        <f t="shared" si="53"/>
+        <v>840286.24682117626</v>
+      </c>
+      <c r="S96" s="133">
+        <f t="shared" si="53"/>
+        <v>841762.8752842095</v>
+      </c>
+      <c r="T96" s="133">
+        <f t="shared" si="53"/>
+        <v>843107.97501111636</v>
+      </c>
+      <c r="U96" s="133">
+        <f t="shared" si="53"/>
+        <v>844539.45728929248</v>
+      </c>
+      <c r="V96" s="133">
+        <f t="shared" ref="V96" si="54">V97+V99</f>
+        <v>846032.64138980373</v>
+      </c>
       <c r="AM96" s="233"/>
     </row>
     <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" t="s">
-        <v>317</v>
-      </c>
-      <c r="D97"/>
-      <c r="F97" s="197">
-        <v>728844</v>
-      </c>
-      <c r="G97" s="197">
-        <v>738714</v>
-      </c>
-      <c r="H97" s="197">
-        <v>755204</v>
-      </c>
-      <c r="I97" s="197">
-        <v>763370</v>
-      </c>
-      <c r="J97" s="197">
-        <v>760967</v>
-      </c>
-      <c r="K97" s="197">
-        <v>767087</v>
-      </c>
-      <c r="L97" s="197">
-        <v>812158</v>
-      </c>
-      <c r="M97" s="301">
-        <v>828480</v>
-      </c>
-      <c r="N97" s="303">
-        <f>VLOOKUP($C$97,'Haver NA'!$A$1:$J$34,10,0)</f>
-        <v>818740</v>
-      </c>
-      <c r="O97" s="133">
-        <f t="shared" ref="O97:U97" si="53">O98+O100</f>
-        <v>831250.83502466371</v>
-      </c>
-      <c r="P97" s="133">
-        <f t="shared" si="53"/>
-        <v>838457.84744285408</v>
-      </c>
-      <c r="Q97" s="133">
-        <f t="shared" si="53"/>
-        <v>839187.01967747905</v>
-      </c>
-      <c r="R97" s="133">
-        <f t="shared" si="53"/>
-        <v>840286.24682117626</v>
-      </c>
-      <c r="S97" s="133">
-        <f t="shared" si="53"/>
-        <v>841762.8752842095</v>
-      </c>
-      <c r="T97" s="133">
-        <f t="shared" si="53"/>
-        <v>843107.97501111636</v>
-      </c>
-      <c r="U97" s="133">
-        <f t="shared" si="53"/>
-        <v>844539.45728929248</v>
-      </c>
-      <c r="V97" s="133">
-        <f t="shared" ref="V97" si="54">V98+V100</f>
-        <v>846032.64138980373</v>
-      </c>
-      <c r="AM97" s="233"/>
-    </row>
-    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F98" s="203">
-        <f t="shared" ref="F98:K98" si="55">F97-F100</f>
+      <c r="F97" s="203">
+        <f t="shared" ref="F97:K97" si="55">F96-F99</f>
         <v>139025</v>
       </c>
-      <c r="G98" s="203">
+      <c r="G97" s="203">
         <f t="shared" si="55"/>
         <v>139342</v>
       </c>
-      <c r="H98" s="203">
+      <c r="H97" s="203">
         <f t="shared" si="55"/>
         <v>140228</v>
       </c>
-      <c r="I98" s="203">
+      <c r="I97" s="203">
         <f t="shared" si="55"/>
         <v>141105</v>
       </c>
-      <c r="J98" s="203">
+      <c r="J97" s="203">
         <f t="shared" si="55"/>
         <v>141335</v>
       </c>
-      <c r="K98" s="203">
+      <c r="K97" s="203">
         <f t="shared" si="55"/>
         <v>142991</v>
       </c>
-      <c r="L98" s="203">
-        <f>L97-L100</f>
+      <c r="L97" s="203">
+        <f>L96-L99</f>
         <v>143335</v>
       </c>
-      <c r="M98" s="301">
+      <c r="M97" s="301">
         <v>144777</v>
       </c>
-      <c r="N98" s="303">
-        <f>N97-N100</f>
+      <c r="N97" s="303">
+        <f>N96-N99</f>
         <v>145108</v>
       </c>
-      <c r="O98" s="133">
-        <f>N98*(1+O110)</f>
+      <c r="O97" s="133">
+        <f>N97*(1+O109)</f>
         <v>145470.76999999999</v>
       </c>
-      <c r="P98" s="133">
-        <f t="shared" ref="P98:S98" si="56">O98*(1+P110)</f>
+      <c r="P97" s="133">
+        <f t="shared" ref="P97:S97" si="56">O97*(1+P109)</f>
         <v>145834.44692499997</v>
       </c>
-      <c r="Q98" s="133">
+      <c r="Q97" s="133">
         <f t="shared" si="56"/>
         <v>146563.61915962494</v>
       </c>
-      <c r="R98" s="133">
+      <c r="R97" s="133">
         <f t="shared" si="56"/>
         <v>147662.84630332215</v>
       </c>
-      <c r="S98" s="133">
+      <c r="S97" s="133">
         <f t="shared" si="56"/>
         <v>149139.47476635536</v>
       </c>
-      <c r="T98" s="133">
-        <f t="shared" ref="T98:V98" si="57">S98*(1+T109)</f>
+      <c r="T97" s="133">
+        <f t="shared" ref="T97:V97" si="57">S97*(1+T108)</f>
         <v>150484.57449326222</v>
       </c>
-      <c r="U98" s="133">
+      <c r="U97" s="133">
         <f t="shared" si="57"/>
         <v>151916.05677143831</v>
       </c>
-      <c r="V98" s="133">
+      <c r="V97" s="133">
         <f t="shared" si="57"/>
         <v>153409.24087194959</v>
       </c>
+      <c r="AM97" s="233"/>
+    </row>
+    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F98" s="203"/>
+      <c r="G98" s="197"/>
+      <c r="H98" s="197"/>
+      <c r="I98" s="197"/>
+      <c r="J98" s="197"/>
+      <c r="K98" s="197"/>
+      <c r="L98" s="197"/>
+      <c r="M98" s="301"/>
+      <c r="N98" s="301"/>
       <c r="AM98" s="233"/>
     </row>
     <row r="99" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F99" s="203"/>
-      <c r="G99" s="197"/>
-      <c r="H99" s="197"/>
-      <c r="I99" s="197"/>
-      <c r="J99" s="197"/>
-      <c r="K99" s="197"/>
-      <c r="L99" s="197"/>
-      <c r="M99" s="301"/>
-      <c r="N99" s="301"/>
-      <c r="AM99" s="233"/>
-    </row>
-    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="35" t="s">
+      <c r="A99" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B99" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C99" t="s">
         <v>318</v>
       </c>
-      <c r="D100"/>
-      <c r="F100" s="197">
+      <c r="D99"/>
+      <c r="F99" s="197">
         <v>589819</v>
       </c>
-      <c r="G100" s="197">
+      <c r="G99" s="197">
         <v>599372</v>
       </c>
-      <c r="H100" s="197">
+      <c r="H99" s="197">
         <v>614976</v>
       </c>
-      <c r="I100" s="197">
+      <c r="I99" s="197">
         <v>622265</v>
       </c>
-      <c r="J100" s="197">
+      <c r="J99" s="197">
         <v>619632</v>
       </c>
-      <c r="K100" s="197">
+      <c r="K99" s="197">
         <v>624096</v>
       </c>
-      <c r="L100" s="197">
+      <c r="L99" s="197">
         <v>668823</v>
       </c>
-      <c r="M100" s="301">
+      <c r="M99" s="301">
         <v>683703</v>
       </c>
-      <c r="N100" s="310">
-        <f>VLOOKUP($C$100,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="N99" s="310">
+        <f>VLOOKUP($C$99,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>673632</v>
       </c>
-      <c r="O100" s="135">
-        <f>N100*(($AJ$100/$AI$100)^0.18)</f>
+      <c r="O99" s="135">
+        <f>N99*(($AJ$99/$AI$99)^0.18)</f>
         <v>685780.06502466369</v>
       </c>
-      <c r="P100" s="135">
-        <f>O100*(($AJ$100/$AI$100)^0.1)</f>
+      <c r="P99" s="135">
+        <f>O99*(($AJ$99/$AI$99)^0.1)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="Q100" s="135">
-        <f>P100*(1+Q101)</f>
+      <c r="Q99" s="135">
+        <f>P99*(1+Q100)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="R100" s="135">
-        <f t="shared" ref="R100:V100" si="58">Q100*(1+R101)</f>
+      <c r="R99" s="135">
+        <f t="shared" ref="R99:V99" si="58">Q99*(1+R100)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="S100" s="135">
+      <c r="S99" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="T100" s="135">
+      <c r="T99" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="U100" s="135">
+      <c r="U99" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="V100" s="135">
+      <c r="V99" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="AD100" s="45">
-        <f>AVERAGE(J100:M100)/1000</f>
+      <c r="AD99" s="45">
+        <f>AVERAGE(J99:M99)/1000</f>
         <v>649.06349999999998</v>
       </c>
-      <c r="AE100" s="45">
-        <f>AVERAGE(N100:Q100)/1000</f>
+      <c r="AE99" s="45">
+        <f>AVERAGE(N99:Q99)/1000</f>
         <v>686.16471651509301</v>
       </c>
-      <c r="AF100" s="45">
-        <f>AVERAGE(R100:U100)/1000</f>
+      <c r="AF99" s="45">
+        <f>AVERAGE(R99:U99)/1000</f>
         <v>692.62340051785418</v>
       </c>
-      <c r="AH100" s="84"/>
-      <c r="AI100" s="84">
+      <c r="AH99" s="84"/>
+      <c r="AI99" s="84">
         <f>'figuring out Medicaid'!G13</f>
         <v>657.17435271149407</v>
       </c>
-      <c r="AJ100" s="84">
+      <c r="AJ99" s="84">
         <f>'figuring out Medicaid'!H13</f>
         <v>725.7777402928042</v>
       </c>
-      <c r="AK100" s="84">
+      <c r="AK99" s="84">
         <f>'figuring out Medicaid'!I13</f>
         <v>727.33117238501666</v>
       </c>
-      <c r="AL100" s="84"/>
-      <c r="AM100" s="233"/>
-    </row>
-    <row r="101" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="169" t="s">
+      <c r="AL99" s="84"/>
+      <c r="AM99" s="233"/>
+    </row>
+    <row r="100" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="F101" s="207"/>
-      <c r="G101" s="207"/>
-      <c r="H101" s="207"/>
-      <c r="I101" s="207"/>
-      <c r="J101" s="200"/>
-      <c r="K101" s="200"/>
-      <c r="L101" s="200"/>
-      <c r="M101" s="301"/>
-      <c r="N101" s="302"/>
-      <c r="O101" s="175"/>
-      <c r="P101" s="175"/>
-      <c r="Q101" s="175">
+      <c r="F100" s="207"/>
+      <c r="G100" s="207"/>
+      <c r="H100" s="207"/>
+      <c r="I100" s="207"/>
+      <c r="J100" s="200"/>
+      <c r="K100" s="200"/>
+      <c r="L100" s="200"/>
+      <c r="M100" s="301"/>
+      <c r="N100" s="302"/>
+      <c r="O100" s="175"/>
+      <c r="P100" s="175"/>
+      <c r="Q100" s="175">
         <v>0</v>
       </c>
-      <c r="R101" s="175">
+      <c r="R100" s="175">
         <v>0</v>
       </c>
-      <c r="S101" s="175">
+      <c r="S100" s="175">
         <v>0</v>
       </c>
-      <c r="T101" s="175">
+      <c r="T100" s="175">
         <v>0</v>
       </c>
-      <c r="U101" s="175">
+      <c r="U100" s="175">
         <v>0</v>
       </c>
-      <c r="V101" s="175">
+      <c r="V100" s="175">
         <v>0</v>
       </c>
-      <c r="W101" s="175"/>
-      <c r="AM101" s="234"/>
-    </row>
-    <row r="102" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A102" s="153" t="s">
+      <c r="W100" s="175"/>
+      <c r="AM100" s="234"/>
+    </row>
+    <row r="101" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A101" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="F102" s="208">
-        <f t="shared" ref="F102:L102" si="59">F93/F100</f>
+      <c r="F101" s="208">
+        <f t="shared" ref="F101:L101" si="59">F92/F99</f>
         <v>0.66058231423538405</v>
       </c>
-      <c r="G102" s="208">
+      <c r="G101" s="208">
         <f t="shared" si="59"/>
         <v>0.6749214177505789</v>
       </c>
-      <c r="H102" s="208">
+      <c r="H101" s="208">
         <f t="shared" si="59"/>
         <v>0.68242012696430432</v>
       </c>
-      <c r="I102" s="208">
+      <c r="I101" s="208">
         <f t="shared" si="59"/>
         <v>0.6730637268687778</v>
       </c>
-      <c r="J102" s="208">
+      <c r="J101" s="208">
         <f t="shared" si="59"/>
         <v>0.66395699382859508</v>
       </c>
-      <c r="K102" s="208">
+      <c r="K101" s="208">
         <f t="shared" si="59"/>
         <v>0.67846773573296415</v>
       </c>
-      <c r="L102" s="208">
+      <c r="L101" s="208">
         <f t="shared" si="59"/>
         <v>0.76648081779484256</v>
       </c>
-      <c r="M102" s="208">
+      <c r="M101" s="208">
         <v>0.71094027669909299</v>
       </c>
-      <c r="N102" s="208">
-        <f t="shared" ref="N102" si="60">N93/N100</f>
+      <c r="N101" s="208">
+        <f t="shared" ref="N101" si="60">N92/N99</f>
         <v>0.76034541114436371</v>
       </c>
-      <c r="AD102" s="154"/>
-      <c r="AE102" s="154"/>
-      <c r="AF102" s="154"/>
-      <c r="AH102" s="155"/>
-      <c r="AI102" s="155"/>
-      <c r="AJ102" s="155"/>
-      <c r="AM102" s="238"/>
-    </row>
-    <row r="103" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="35" t="s">
+      <c r="AD101" s="154"/>
+      <c r="AE101" s="154"/>
+      <c r="AF101" s="154"/>
+      <c r="AH101" s="155"/>
+      <c r="AI101" s="155"/>
+      <c r="AJ101" s="155"/>
+      <c r="AM101" s="238"/>
+    </row>
+    <row r="102" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B102" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C102" t="s">
         <v>319</v>
       </c>
-      <c r="D103"/>
-      <c r="F103" s="197">
+      <c r="D102"/>
+      <c r="F102" s="197">
         <v>1997.1</v>
       </c>
-      <c r="G103" s="197">
+      <c r="G102" s="197">
         <v>2012.7</v>
       </c>
-      <c r="H103" s="197">
+      <c r="H102" s="197">
         <v>2025.5</v>
       </c>
-      <c r="I103" s="197">
+      <c r="I102" s="197">
         <v>2028.3</v>
       </c>
-      <c r="J103" s="197">
+      <c r="J102" s="197">
         <v>2035.6</v>
       </c>
-      <c r="K103" s="197">
+      <c r="K102" s="197">
         <v>2041</v>
       </c>
-      <c r="L103" s="197">
+      <c r="L102" s="197">
         <v>2013.1</v>
       </c>
-      <c r="M103" s="301">
+      <c r="M102" s="301">
         <v>1993.0509999999999</v>
       </c>
-      <c r="N103" s="301">
-        <f>VLOOKUP($C$103,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+      <c r="N102" s="301">
+        <f>VLOOKUP($C$102,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
         <v>1984.547</v>
       </c>
-      <c r="O103" s="35">
-        <f>N103*(1+O105)</f>
+      <c r="O102" s="35">
+        <f>N102*(1+O104)</f>
         <v>2009.5840333646127</v>
       </c>
-      <c r="P103" s="35">
-        <f t="shared" ref="P103:V103" si="61">O103*(1+P105)</f>
+      <c r="P102" s="35">
+        <f t="shared" ref="P102:V102" si="61">O102*(1+P104)</f>
         <v>2031.5173022625379</v>
       </c>
-      <c r="Q103" s="35">
+      <c r="Q102" s="35">
         <f t="shared" si="61"/>
         <v>2046.001536440413</v>
       </c>
-      <c r="R103" s="35">
+      <c r="R102" s="35">
         <f t="shared" si="61"/>
         <v>2056.0370415493694</v>
       </c>
-      <c r="S103" s="35">
+      <c r="S102" s="35">
         <f t="shared" si="61"/>
         <v>2065.9690878427696</v>
       </c>
-      <c r="T103" s="35">
+      <c r="T102" s="35">
         <f t="shared" si="61"/>
         <v>2073.2112049317075</v>
       </c>
-      <c r="U103" s="35">
+      <c r="U102" s="35">
         <f t="shared" si="61"/>
         <v>2077.6599340006264</v>
       </c>
-      <c r="V103" s="35">
+      <c r="V102" s="35">
         <f t="shared" si="61"/>
         <v>2079.3152750495265</v>
       </c>
-      <c r="AM103" s="233"/>
+      <c r="AM102" s="233"/>
+    </row>
+    <row r="103" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="F103" s="200"/>
+      <c r="G103" s="200">
+        <f t="shared" ref="G103:L103" si="62">(G102/F102)-1</f>
+        <v>7.8113264233139468E-3</v>
+      </c>
+      <c r="H103" s="200">
+        <f t="shared" si="62"/>
+        <v>6.3596164356336526E-3</v>
+      </c>
+      <c r="I103" s="200">
+        <f t="shared" si="62"/>
+        <v>1.3823747222907468E-3</v>
+      </c>
+      <c r="J103" s="200">
+        <f t="shared" si="62"/>
+        <v>3.5990731154167399E-3</v>
+      </c>
+      <c r="K103" s="200">
+        <f t="shared" si="62"/>
+        <v>2.6527805069758159E-3</v>
+      </c>
+      <c r="L103" s="200">
+        <f t="shared" si="62"/>
+        <v>-1.36697697207252E-2</v>
+      </c>
+      <c r="M103" s="302">
+        <v>-9.9592668024439668E-3</v>
+      </c>
+      <c r="N103" s="323">
+        <f>(N102/M102)-1</f>
+        <v>-4.2668250837534227E-3</v>
+      </c>
+      <c r="O103" s="252"/>
+      <c r="P103" s="252"/>
+      <c r="Q103" s="252"/>
+      <c r="R103" s="252"/>
+      <c r="S103" s="252"/>
+      <c r="T103" s="252"/>
+      <c r="U103" s="252"/>
+      <c r="V103" s="252"/>
+      <c r="W103" s="252"/>
+      <c r="X103" s="252"/>
+      <c r="Y103" s="252"/>
+      <c r="AM103" s="234"/>
     </row>
     <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="169" t="s">
-        <v>284</v>
-      </c>
-      <c r="B104" s="35"/>
+        <v>285</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>280</v>
+      </c>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
-      <c r="F104" s="200"/>
-      <c r="G104" s="200">
-        <f t="shared" ref="G104:L104" si="62">(G103/F103)-1</f>
-        <v>7.8113264233139468E-3</v>
-      </c>
-      <c r="H104" s="200">
-        <f t="shared" si="62"/>
-        <v>6.3596164356336526E-3</v>
-      </c>
-      <c r="I104" s="200">
-        <f t="shared" si="62"/>
-        <v>1.3823747222907468E-3</v>
-      </c>
-      <c r="J104" s="200">
-        <f t="shared" si="62"/>
-        <v>3.5990731154167399E-3</v>
-      </c>
-      <c r="K104" s="200">
-        <f t="shared" si="62"/>
-        <v>2.6527805069758159E-3</v>
-      </c>
-      <c r="L104" s="200">
-        <f t="shared" si="62"/>
-        <v>-1.36697697207252E-2</v>
-      </c>
-      <c r="M104" s="302">
-        <v>-9.9592668024439668E-3</v>
-      </c>
-      <c r="N104" s="323">
-        <f>(N103/M103)-1</f>
-        <v>-4.2668250837534227E-3</v>
-      </c>
-      <c r="O104" s="252"/>
-      <c r="P104" s="252"/>
-      <c r="Q104" s="252"/>
-      <c r="R104" s="252"/>
-      <c r="S104" s="252"/>
-      <c r="T104" s="252"/>
-      <c r="U104" s="252"/>
-      <c r="V104" s="252"/>
-      <c r="W104" s="252"/>
-      <c r="X104" s="252"/>
-      <c r="Y104" s="252"/>
+      <c r="F104" s="207"/>
+      <c r="G104" s="207"/>
+      <c r="H104" s="207"/>
+      <c r="I104" s="207"/>
+      <c r="J104" s="200"/>
+      <c r="K104" s="200"/>
+      <c r="L104" s="200"/>
+      <c r="M104" s="301"/>
+      <c r="N104" s="302"/>
+      <c r="O104" s="196">
+        <v>1.26159941611927E-2</v>
+      </c>
+      <c r="P104" s="196">
+        <v>1.0914332784184499E-2</v>
+      </c>
+      <c r="Q104" s="196">
+        <v>7.1297616622529904E-3</v>
+      </c>
+      <c r="R104" s="196">
+        <v>4.9049352750809598E-3</v>
+      </c>
+      <c r="S104" s="196">
+        <v>4.8306747848840797E-3</v>
+      </c>
+      <c r="T104" s="196">
+        <v>3.5054334218038701E-3</v>
+      </c>
+      <c r="U104" s="196">
+        <v>2.14581565946403E-3</v>
+      </c>
+      <c r="V104" s="196">
+        <v>7.9673339308827796E-4</v>
+      </c>
+      <c r="W104" s="196">
+        <v>3.9804955716982198E-4</v>
+      </c>
+      <c r="X104" s="196">
+        <v>1.1439371331942701E-3</v>
+      </c>
+      <c r="Y104" s="196">
+        <v>8.9423220229512001E-4</v>
+      </c>
+      <c r="Z104" s="185">
+        <v>8.4379808408208102E-4</v>
+      </c>
       <c r="AM104" s="234"/>
     </row>
-    <row r="105" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="169" t="s">
-        <v>285</v>
+    <row r="105" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="F105" s="207"/>
-      <c r="G105" s="207"/>
-      <c r="H105" s="207"/>
-      <c r="I105" s="207"/>
-      <c r="J105" s="200"/>
-      <c r="K105" s="200"/>
-      <c r="L105" s="200"/>
-      <c r="M105" s="301"/>
-      <c r="N105" s="302"/>
-      <c r="O105" s="196">
-        <v>1.26159941611927E-2</v>
-      </c>
-      <c r="P105" s="196">
-        <v>1.0914332784184499E-2</v>
-      </c>
-      <c r="Q105" s="196">
-        <v>7.1297616622529904E-3</v>
-      </c>
-      <c r="R105" s="196">
-        <v>4.9049352750809598E-3</v>
-      </c>
-      <c r="S105" s="196">
-        <v>4.8306747848840797E-3</v>
-      </c>
-      <c r="T105" s="196">
-        <v>3.5054334218038701E-3</v>
-      </c>
-      <c r="U105" s="196">
-        <v>2.14581565946403E-3</v>
-      </c>
-      <c r="V105" s="196">
-        <v>7.9673339308827796E-4</v>
-      </c>
-      <c r="W105" s="196">
-        <v>3.9804955716982198E-4</v>
-      </c>
-      <c r="X105" s="196">
-        <v>1.1439371331942701E-3</v>
-      </c>
-      <c r="Y105" s="196">
-        <v>8.9423220229512001E-4</v>
-      </c>
-      <c r="Z105" s="185">
-        <v>8.4379808408208102E-4</v>
-      </c>
-      <c r="AM105" s="234"/>
+      <c r="C105" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105"/>
+      <c r="F105" s="197"/>
+      <c r="G105" s="197"/>
+      <c r="H105" s="197"/>
+      <c r="I105" s="197"/>
+      <c r="J105" s="197">
+        <v>2357.4</v>
+      </c>
+      <c r="K105" s="197">
+        <v>2381.6</v>
+      </c>
+      <c r="L105" s="197">
+        <v>2334.5</v>
+      </c>
+      <c r="M105" s="301">
+        <v>2329.605</v>
+      </c>
+      <c r="N105" s="301">
+        <f>VLOOKUP($C$105,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+        <v>2337.201</v>
+      </c>
+      <c r="O105">
+        <v>2469.9411956560398</v>
+      </c>
+      <c r="P105">
+        <v>2511.3882460388099</v>
+      </c>
+      <c r="Q105">
+        <v>2543.4204311910298</v>
+      </c>
+      <c r="R105">
+        <v>2569.93355741499</v>
+      </c>
+      <c r="S105">
+        <v>2599.1521046822099</v>
+      </c>
+      <c r="T105">
+        <v>2626.53096564002</v>
+      </c>
+      <c r="U105">
+        <v>2651.2044055545698</v>
+      </c>
+      <c r="V105">
+        <v>2672.95599074239</v>
+      </c>
+      <c r="W105">
+        <v>2693.9500580381</v>
+      </c>
+      <c r="X105">
+        <v>2717.3248958518798</v>
+      </c>
+      <c r="Y105">
+        <v>2740.4832999822002</v>
+      </c>
+      <c r="AM105" s="233"/>
     </row>
     <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C106" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106"/>
       <c r="F106" s="197"/>
       <c r="G106" s="197"/>
       <c r="H106" s="197"/>
       <c r="I106" s="197"/>
-      <c r="J106" s="197">
-        <v>2357.4</v>
-      </c>
-      <c r="K106" s="197">
-        <v>2381.6</v>
-      </c>
-      <c r="L106" s="197">
-        <v>2334.5</v>
-      </c>
-      <c r="M106" s="301">
-        <v>2329.605</v>
-      </c>
-      <c r="N106" s="301">
-        <f>VLOOKUP($C$106,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>2337.201</v>
-      </c>
+      <c r="J106" s="197"/>
+      <c r="K106" s="197"/>
+      <c r="L106" s="197"/>
+      <c r="M106" s="301"/>
+      <c r="N106" s="301"/>
       <c r="O106">
-        <v>2469.9411956560398</v>
+        <f>N106*(1+O109)</f>
+        <v>0</v>
       </c>
       <c r="P106">
-        <v>2511.3882460388099</v>
+        <f t="shared" ref="P106:S106" si="63">O106*(1+P109)</f>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>2543.4204311910298</v>
-      </c>
-      <c r="R106">
-        <v>2569.93355741499</v>
-      </c>
-      <c r="S106">
-        <v>2599.1521046822099</v>
-      </c>
-      <c r="T106">
-        <v>2626.53096564002</v>
-      </c>
-      <c r="U106">
-        <v>2651.2044055545698</v>
-      </c>
-      <c r="V106">
-        <v>2672.95599074239</v>
-      </c>
-      <c r="W106">
-        <v>2693.9500580381</v>
-      </c>
-      <c r="X106">
-        <v>2717.3248958518798</v>
-      </c>
-      <c r="Y106">
-        <v>2740.4832999822002</v>
-      </c>
-      <c r="AM106" s="233"/>
-    </row>
-    <row r="107" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F107" s="197"/>
-      <c r="G107" s="197"/>
-      <c r="H107" s="197"/>
-      <c r="I107" s="197"/>
-      <c r="J107" s="197"/>
-      <c r="K107" s="197"/>
-      <c r="L107" s="197"/>
-      <c r="M107" s="301"/>
-      <c r="N107" s="301"/>
-      <c r="O107">
-        <f>N107*(1+O110)</f>
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <f t="shared" ref="P107:S107" si="63">O107*(1+P110)</f>
-        <v>0</v>
-      </c>
-      <c r="Q107">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="R107">
+      <c r="R106">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="S107">
+      <c r="S106">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="T107">
-        <f>S107*(1+T109)</f>
+      <c r="T106">
+        <f>S106*(1+T108)</f>
         <v>0</v>
       </c>
-      <c r="U107">
-        <f t="shared" ref="U107:V107" si="64">T107*(1+U109)</f>
+      <c r="U106">
+        <f t="shared" ref="U106:V106" si="64">T106*(1+U108)</f>
         <v>0</v>
       </c>
-      <c r="V107">
+      <c r="V106">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="AM107" s="233"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="AM106" s="233"/>
+    </row>
+    <row r="107" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="F107" s="200"/>
+      <c r="G107" s="200"/>
+      <c r="H107" s="200"/>
+      <c r="I107" s="200"/>
+      <c r="J107" s="200"/>
+      <c r="K107" s="200">
+        <f t="shared" ref="K107" si="65">(K105/J105)-1</f>
+        <v>1.0265546788835067E-2</v>
+      </c>
+      <c r="L107" s="200">
+        <f t="shared" ref="L107" si="66">(L105/K105)-1</f>
+        <v>-1.9776620759153429E-2</v>
+      </c>
+      <c r="M107" s="302">
+        <v>-8.3608921686818549E-3</v>
+      </c>
+      <c r="N107" s="323">
+        <f>(((N105/M105))^4)-1</f>
+        <v>1.3106483787577172E-2</v>
+      </c>
+      <c r="O107" s="252"/>
+      <c r="P107" s="252"/>
+      <c r="Q107" s="252"/>
+      <c r="R107" s="252"/>
+      <c r="S107" s="252"/>
+      <c r="T107" s="252"/>
+      <c r="U107" s="252"/>
+      <c r="V107" s="252"/>
+      <c r="W107" s="252"/>
+      <c r="X107" s="252"/>
+      <c r="Y107" s="252"/>
+      <c r="AM107" s="234"/>
     </row>
     <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="169" t="s">
-        <v>284</v>
-      </c>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="F108" s="200"/>
-      <c r="G108" s="200"/>
-      <c r="H108" s="200"/>
-      <c r="I108" s="200"/>
-      <c r="J108" s="200"/>
-      <c r="K108" s="200">
-        <f t="shared" ref="K108" si="65">(K106/J106)-1</f>
-        <v>1.0265546788835067E-2</v>
-      </c>
-      <c r="L108" s="200">
-        <f t="shared" ref="L108" si="66">(L106/K106)-1</f>
-        <v>-1.9776620759153429E-2</v>
-      </c>
-      <c r="M108" s="302">
-        <v>-8.3608921686818549E-3</v>
-      </c>
-      <c r="N108" s="323">
-        <f>(((N106/M106))^4)-1</f>
-        <v>1.3106483787577172E-2</v>
-      </c>
-      <c r="O108" s="252"/>
-      <c r="P108" s="252"/>
-      <c r="Q108" s="252"/>
-      <c r="R108" s="252"/>
-      <c r="S108" s="252"/>
-      <c r="T108" s="252"/>
-      <c r="U108" s="252"/>
-      <c r="V108" s="252"/>
-      <c r="W108" s="252"/>
-      <c r="X108" s="252"/>
-      <c r="Y108" s="252"/>
+        <v>285</v>
+      </c>
+      <c r="F108" s="207"/>
+      <c r="G108" s="207"/>
+      <c r="H108" s="207"/>
+      <c r="I108" s="207"/>
+      <c r="J108" s="207"/>
+      <c r="K108" s="200"/>
+      <c r="L108" s="200"/>
+      <c r="M108" s="301"/>
+      <c r="N108" s="302"/>
+      <c r="O108" s="175">
+        <v>9.408690138332787E-4</v>
+      </c>
+      <c r="P108" s="175">
+        <v>9.1903906984696082E-3</v>
+      </c>
+      <c r="Q108" s="175">
+        <v>7.4547841924690328E-3</v>
+      </c>
+      <c r="R108" s="175">
+        <v>7.6518814378809807E-3</v>
+      </c>
+      <c r="S108" s="175">
+        <v>8.511703592439579E-3</v>
+      </c>
+      <c r="T108" s="175">
+        <v>9.0190724421828072E-3</v>
+      </c>
+      <c r="U108" s="175">
+        <v>9.512485136741855E-3</v>
+      </c>
+      <c r="V108" s="175">
+        <v>9.8290077576053125E-3</v>
+      </c>
+      <c r="W108" s="175">
+        <v>1.0779069299762689E-2</v>
+      </c>
+      <c r="X108" s="175">
+        <v>1.1818073295929432E-2</v>
+      </c>
+      <c r="Y108" s="175">
+        <v>1.2112631744533475E-2</v>
+      </c>
+      <c r="Z108" s="175">
+        <v>1.2395088591855785E-2</v>
+      </c>
       <c r="AM108" s="234"/>
     </row>
     <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="169" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="F109" s="207"/>
       <c r="G109" s="207"/>
@@ -10900,380 +10865,354 @@
       <c r="M109" s="301"/>
       <c r="N109" s="302"/>
       <c r="O109" s="175">
-        <v>9.408690138332787E-4</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P109" s="175">
-        <v>9.1903906984696082E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q109" s="175">
-        <v>7.4547841924690328E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R109" s="175">
-        <v>7.6518814378809807E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="S109" s="175">
-        <v>8.511703592439579E-3</v>
-      </c>
-      <c r="T109" s="175">
-        <v>9.0190724421828072E-3</v>
-      </c>
-      <c r="U109" s="175">
-        <v>9.512485136741855E-3</v>
-      </c>
-      <c r="V109" s="175">
-        <v>9.8290077576053125E-3</v>
-      </c>
-      <c r="W109" s="175">
-        <v>1.0779069299762689E-2</v>
-      </c>
-      <c r="X109" s="175">
-        <v>1.1818073295929432E-2</v>
-      </c>
-      <c r="Y109" s="175">
-        <v>1.2112631744533475E-2</v>
-      </c>
-      <c r="Z109" s="175">
-        <v>1.2395088591855785E-2</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="T109" s="175"/>
+      <c r="U109" s="175"/>
+      <c r="V109" s="175"/>
       <c r="AM109" s="234"/>
     </row>
-    <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="169" t="s">
-        <v>372</v>
-      </c>
-      <c r="F110" s="207"/>
-      <c r="G110" s="207"/>
-      <c r="H110" s="207"/>
-      <c r="I110" s="207"/>
-      <c r="J110" s="207"/>
-      <c r="K110" s="200"/>
-      <c r="L110" s="200"/>
-      <c r="M110" s="301"/>
-      <c r="N110" s="302"/>
-      <c r="O110" s="175">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="P110" s="175">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="Q110" s="175">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R110" s="175">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="S110" s="175">
-        <v>0.01</v>
-      </c>
-      <c r="T110" s="175"/>
-      <c r="U110" s="175"/>
-      <c r="V110" s="175"/>
-      <c r="AM110" s="234"/>
-    </row>
-    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="35" t="s">
+    <row r="110" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F111" s="201">
-        <f t="shared" ref="F111:L111" si="67">F97+F46-F93</f>
+      <c r="F110" s="201">
+        <f t="shared" ref="F110:L110" si="67">F96+F46-F92</f>
         <v>339220</v>
       </c>
-      <c r="G111" s="201">
+      <c r="G110" s="201">
         <f t="shared" si="67"/>
         <v>334185</v>
       </c>
-      <c r="H111" s="201">
+      <c r="H110" s="201">
         <f t="shared" si="67"/>
         <v>335532</v>
       </c>
-      <c r="I111" s="201">
+      <c r="I110" s="201">
         <f t="shared" si="67"/>
         <v>344546</v>
       </c>
-      <c r="J111" s="201">
+      <c r="J110" s="201">
         <f t="shared" si="67"/>
         <v>349558</v>
       </c>
-      <c r="K111" s="201">
+      <c r="K110" s="201">
         <f t="shared" si="67"/>
         <v>343658</v>
       </c>
-      <c r="L111" s="201">
+      <c r="L110" s="201">
         <f t="shared" si="67"/>
         <v>560584.66666666674</v>
       </c>
-      <c r="M111" s="301">
+      <c r="M110" s="301">
         <v>528408</v>
       </c>
-      <c r="N111" s="306">
-        <f t="shared" ref="N111:Y111" si="68">N97+N46-N93</f>
+      <c r="N110" s="306">
+        <f t="shared" ref="N110:Y110" si="68">N96+N46-N92</f>
         <v>343247</v>
       </c>
-      <c r="O111" s="215">
+      <c r="O110" s="215">
         <f t="shared" si="68"/>
         <v>383773.58690641256</v>
       </c>
-      <c r="P111" s="215">
+      <c r="P110" s="215">
         <f t="shared" si="68"/>
         <v>369916.53105964203</v>
       </c>
-      <c r="Q111" s="215">
+      <c r="Q110" s="215">
         <f t="shared" si="68"/>
         <v>370645.703294267</v>
       </c>
-      <c r="R111" s="215">
+      <c r="R110" s="215">
         <f t="shared" si="68"/>
         <v>371744.93043796421</v>
       </c>
-      <c r="S111" s="215">
+      <c r="S110" s="215">
         <f t="shared" si="68"/>
         <v>373221.55890099745</v>
       </c>
-      <c r="T111" s="215">
+      <c r="T110" s="215">
         <f t="shared" si="68"/>
         <v>416124.06265897548</v>
       </c>
-      <c r="U111" s="215">
+      <c r="U110" s="215">
         <f t="shared" si="68"/>
         <v>417555.5449371516</v>
       </c>
-      <c r="V111" s="215">
+      <c r="V110" s="215">
         <f t="shared" si="68"/>
         <v>419048.72903766285</v>
       </c>
-      <c r="W111" s="215">
+      <c r="W110" s="215">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="X111" s="215">
+      <c r="X110" s="215">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="Y111" s="215">
+      <c r="Y110" s="215">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="AM111" s="233"/>
-    </row>
-    <row r="112" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="141" t="s">
+      <c r="AM110" s="233"/>
+    </row>
+    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="141"/>
-      <c r="E112" s="141"/>
-      <c r="F112" s="201">
-        <f t="shared" ref="F112:L112" si="69">F100-F93</f>
+      <c r="B111" s="141"/>
+      <c r="E111" s="141"/>
+      <c r="F111" s="201">
+        <f t="shared" ref="F111:L111" si="69">F99-F92</f>
         <v>200195</v>
       </c>
-      <c r="G112" s="201">
+      <c r="G111" s="201">
         <f t="shared" si="69"/>
         <v>194843</v>
       </c>
-      <c r="H112" s="201">
+      <c r="H111" s="201">
         <f t="shared" si="69"/>
         <v>195304</v>
       </c>
-      <c r="I112" s="201">
+      <c r="I111" s="201">
         <f t="shared" si="69"/>
         <v>203441</v>
       </c>
-      <c r="J112" s="201">
+      <c r="J111" s="201">
         <f t="shared" si="69"/>
         <v>208223</v>
       </c>
-      <c r="K112" s="201">
+      <c r="K111" s="201">
         <f t="shared" si="69"/>
         <v>200667</v>
       </c>
-      <c r="L112" s="201">
+      <c r="L111" s="201">
         <f t="shared" si="69"/>
         <v>156183</v>
       </c>
-      <c r="M112" s="301">
+      <c r="M111" s="301">
         <v>197631</v>
       </c>
-      <c r="N112" s="306">
-        <f>N100-N93</f>
+      <c r="N111" s="306">
+        <f>N99-N92</f>
         <v>161439</v>
       </c>
-      <c r="O112" s="142">
-        <f t="shared" ref="O112:Y112" si="70">O100-O93</f>
+      <c r="O111" s="142">
+        <f t="shared" ref="O111:Y111" si="70">O99-O92</f>
         <v>178302.81690641254</v>
       </c>
-      <c r="P112" s="142">
+      <c r="P111" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="Q112" s="142">
+      <c r="Q111" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="R112" s="142">
+      <c r="R111" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="S112" s="142">
+      <c r="S111" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="T112" s="142">
+      <c r="T111" s="142">
         <f t="shared" si="70"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="U112" s="142">
+      <c r="U111" s="142">
         <f t="shared" si="70"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="V112" s="142">
+      <c r="V111" s="142">
         <f t="shared" si="70"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="W112" s="142">
+      <c r="W111" s="142">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X112" s="142">
+      <c r="X111" s="142">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="Y112" s="142">
+      <c r="Y111" s="142">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AM112" s="233"/>
-    </row>
-    <row r="113" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="141" t="s">
+      <c r="AM111" s="233"/>
+    </row>
+    <row r="112" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="141" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="F113" s="201">
-        <f t="shared" ref="F113:K113" si="71">F111-F112</f>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="F112" s="201">
+        <f t="shared" ref="F112:K112" si="71">F110-F111</f>
         <v>139025</v>
       </c>
-      <c r="G113" s="201">
+      <c r="G112" s="201">
         <f t="shared" si="71"/>
         <v>139342</v>
       </c>
-      <c r="H113" s="201">
+      <c r="H112" s="201">
         <f t="shared" si="71"/>
         <v>140228</v>
       </c>
-      <c r="I113" s="201">
+      <c r="I112" s="201">
         <f t="shared" si="71"/>
         <v>141105</v>
       </c>
-      <c r="J113" s="201">
+      <c r="J112" s="201">
         <f t="shared" si="71"/>
         <v>141335</v>
       </c>
-      <c r="K113" s="201">
+      <c r="K112" s="201">
         <f t="shared" si="71"/>
         <v>142991</v>
       </c>
-      <c r="L113" s="201">
-        <f>L111-L112</f>
+      <c r="L112" s="201">
+        <f>L110-L111</f>
         <v>404401.66666666674</v>
       </c>
-      <c r="M113" s="306">
+      <c r="M112" s="306">
         <v>330777</v>
       </c>
-      <c r="N113" s="306">
-        <f>N111-N112</f>
+      <c r="N112" s="306">
+        <f>N110-N111</f>
         <v>181808</v>
       </c>
-      <c r="O113" s="142">
-        <f t="shared" ref="O113:Y113" si="72">O111-O112</f>
+      <c r="O112" s="142">
+        <f t="shared" ref="O112:Y112" si="72">O110-O111</f>
         <v>205470.77000000002</v>
       </c>
-      <c r="P113" s="142">
+      <c r="P112" s="142">
         <f t="shared" si="72"/>
         <v>189834.44692499994</v>
       </c>
-      <c r="Q113" s="142">
+      <c r="Q112" s="142">
         <f t="shared" si="72"/>
         <v>190563.61915962491</v>
       </c>
-      <c r="R113" s="142">
+      <c r="R112" s="142">
         <f t="shared" si="72"/>
         <v>191662.84630332212</v>
       </c>
-      <c r="S113" s="142">
+      <c r="S112" s="142">
         <f t="shared" si="72"/>
         <v>193139.47476635536</v>
       </c>
-      <c r="T113" s="142">
+      <c r="T112" s="142">
         <f t="shared" si="72"/>
         <v>194484.57449326222</v>
       </c>
-      <c r="U113" s="142">
+      <c r="U112" s="142">
         <f t="shared" si="72"/>
         <v>195916.05677143834</v>
       </c>
-      <c r="V113" s="142">
+      <c r="V112" s="142">
         <f t="shared" si="72"/>
         <v>197409.24087194959</v>
       </c>
-      <c r="W113" s="142">
+      <c r="W112" s="142">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="X113" s="142">
+      <c r="X112" s="142">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="Y113" s="142">
+      <c r="Y112" s="142">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AM113" s="256"/>
-    </row>
-    <row r="114" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114"/>
-      <c r="F114" s="213"/>
-      <c r="G114" s="213"/>
-      <c r="H114" s="213"/>
-      <c r="I114" s="213"/>
-      <c r="J114" s="213"/>
-      <c r="K114" s="213"/>
-      <c r="L114" s="135"/>
-      <c r="M114" s="135"/>
-      <c r="N114" s="94"/>
-      <c r="O114" s="94"/>
-      <c r="P114" s="94"/>
-      <c r="Q114" s="94"/>
-      <c r="R114" s="94"/>
-      <c r="S114" s="94"/>
-      <c r="T114" s="94"/>
-      <c r="U114" s="94"/>
-      <c r="V114"/>
-      <c r="AM114" s="233"/>
-    </row>
-    <row r="115" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="169"/>
-      <c r="F115" s="193"/>
-      <c r="G115" s="193"/>
-      <c r="H115" s="193"/>
-      <c r="I115" s="193"/>
-      <c r="J115" s="193"/>
-      <c r="K115" s="193"/>
-      <c r="L115" s="193"/>
-      <c r="M115" s="214"/>
-      <c r="N115" s="193"/>
-      <c r="O115" s="193"/>
-      <c r="P115" s="193"/>
-      <c r="Q115" s="193"/>
-      <c r="R115" s="193"/>
-      <c r="S115" s="193"/>
-      <c r="T115" s="193"/>
-      <c r="U115" s="193"/>
-      <c r="AM115" s="234"/>
+      <c r="AM112" s="256"/>
+    </row>
+    <row r="113" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113"/>
+      <c r="F113" s="213"/>
+      <c r="G113" s="213"/>
+      <c r="H113" s="213"/>
+      <c r="I113" s="213"/>
+      <c r="J113" s="213"/>
+      <c r="K113" s="213"/>
+      <c r="L113" s="135"/>
+      <c r="M113" s="135"/>
+      <c r="N113" s="94"/>
+      <c r="O113" s="94"/>
+      <c r="P113" s="94"/>
+      <c r="Q113" s="94"/>
+      <c r="R113" s="94"/>
+      <c r="S113" s="94"/>
+      <c r="T113" s="94"/>
+      <c r="U113" s="94"/>
+      <c r="V113"/>
+      <c r="AM113" s="233"/>
+    </row>
+    <row r="114" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="169"/>
+      <c r="F114" s="193"/>
+      <c r="G114" s="193"/>
+      <c r="H114" s="193"/>
+      <c r="I114" s="193"/>
+      <c r="J114" s="193"/>
+      <c r="K114" s="193"/>
+      <c r="L114" s="193"/>
+      <c r="M114" s="214"/>
+      <c r="N114" s="193"/>
+      <c r="O114" s="193"/>
+      <c r="P114" s="193"/>
+      <c r="Q114" s="193"/>
+      <c r="R114" s="193"/>
+      <c r="S114" s="193"/>
+      <c r="T114" s="193"/>
+      <c r="U114" s="193"/>
+      <c r="AM114" s="234"/>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="L115" s="35"/>
+      <c r="M115" s="35"/>
+      <c r="N115" s="35"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="35"/>
+      <c r="Q115" s="35"/>
+      <c r="R115" s="35"/>
+      <c r="S115" s="35"/>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="35"/>
+      <c r="X115" s="35"/>
+      <c r="Y115" s="35"/>
+      <c r="Z115" s="35"/>
+      <c r="AA115" s="35"/>
+      <c r="AB115" s="35"/>
+      <c r="AC115" s="35"/>
+      <c r="AD115" s="35"/>
+      <c r="AE115" s="35"/>
+      <c r="AF115" s="35"/>
+      <c r="AG115" s="35"/>
+      <c r="AH115" s="35"/>
+      <c r="AI115" s="35"/>
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>158</v>
-      </c>
       <c r="L116" s="35"/>
       <c r="M116" s="35"/>
       <c r="N116" s="35"/>
@@ -11397,31 +11336,6 @@
       <c r="AG120" s="35"/>
       <c r="AH120" s="35"/>
       <c r="AI120" s="35"/>
-    </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="L121" s="35"/>
-      <c r="M121" s="35"/>
-      <c r="N121" s="35"/>
-      <c r="O121" s="35"/>
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35"/>
-      <c r="R121" s="35"/>
-      <c r="S121" s="35"/>
-      <c r="T121" s="35"/>
-      <c r="U121" s="35"/>
-      <c r="V121" s="35"/>
-      <c r="X121" s="35"/>
-      <c r="Y121" s="35"/>
-      <c r="Z121" s="35"/>
-      <c r="AA121" s="35"/>
-      <c r="AB121" s="35"/>
-      <c r="AC121" s="35"/>
-      <c r="AD121" s="35"/>
-      <c r="AE121" s="35"/>
-      <c r="AF121" s="35"/>
-      <c r="AG121" s="35"/>
-      <c r="AH121" s="35"/>
-      <c r="AI121" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12728,50 +12642,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="357" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
+      <c r="B5" s="358"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="358"/>
+      <c r="P5" s="358"/>
+      <c r="Q5" s="358"/>
+      <c r="R5" s="358"/>
+      <c r="S5" s="358"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="360"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="360"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="360"/>
-      <c r="R6" s="360"/>
-      <c r="S6" s="360"/>
+      <c r="B6" s="359"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="359"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="359"/>
+      <c r="K6" s="359"/>
+      <c r="L6" s="359"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="359"/>
+      <c r="P6" s="359"/>
+      <c r="Q6" s="359"/>
+      <c r="R6" s="359"/>
+      <c r="S6" s="359"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12812,8 +12726,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="361"/>
-      <c r="S8" s="362"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="361"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -13013,7 +12927,7 @@
         <v>222</v>
       </c>
       <c r="F15" s="94">
-        <f>main!K102</f>
+        <f>main!K101</f>
         <v>0.67846773573296415</v>
       </c>
       <c r="G15" s="94">
@@ -13085,10 +12999,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="341" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="342"/>
+      <c r="B1" s="341"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13096,18 +13010,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="363" t="s">
+      <c r="Z1" s="362" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="363"/>
-      <c r="AB1" s="363"/>
-      <c r="AC1" s="341"/>
-      <c r="AD1" s="341"/>
-      <c r="AE1" s="341"/>
-      <c r="AF1" s="341"/>
+      <c r="AA1" s="362"/>
+      <c r="AB1" s="362"/>
+      <c r="AC1" s="340"/>
+      <c r="AD1" s="340"/>
+      <c r="AE1" s="340"/>
+      <c r="AF1" s="340"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="363" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="107"/>
@@ -13116,45 +13030,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="364"/>
+      <c r="A3" s="363"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="364"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="364"/>
+      <c r="A5" s="363"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="353" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="355"/>
+      <c r="G7" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="354"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="355"/>
+      <c r="K7" s="353" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="356"/>
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="355"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -14672,11 +14586,11 @@
       </c>
       <c r="H70" s="102">
         <f>main!O54/1000</f>
-        <v>794.08358333333342</v>
+        <v>144.26918333333336</v>
       </c>
       <c r="I70" s="102">
         <f>main!P54/1000</f>
-        <v>794.08358333333342</v>
+        <v>145.19798333333333</v>
       </c>
       <c r="J70" s="102">
         <f>main!Q54/1000</f>
@@ -14740,11 +14654,11 @@
       </c>
       <c r="H72" s="103">
         <f t="shared" si="23"/>
-        <v>-303.00454818230662</v>
+        <v>-952.81894818230671</v>
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
-        <v>-306.96952490565661</v>
+        <v>-955.85512490565668</v>
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
@@ -15036,88 +14950,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="364" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="365"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="365"/>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
-      <c r="F3" s="365"/>
-      <c r="G3" s="365"/>
-      <c r="H3" s="365"/>
-      <c r="I3" s="365"/>
-      <c r="J3" s="365"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="366"/>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
-      <c r="J4" s="366"/>
-      <c r="K4" s="371" t="s">
+      <c r="A4" s="365"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="370" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="371"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="371"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="367" t="s">
+      <c r="C5" s="366" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-      <c r="H5" s="368"/>
-      <c r="I5" s="368"/>
-      <c r="J5" s="369"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="368"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="370" t="s">
+      <c r="L5" s="369" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="341"/>
-      <c r="N5" s="341"/>
+      <c r="M5" s="340"/>
+      <c r="N5" s="340"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="373">
+      <c r="C6" s="372">
         <v>2020</v>
       </c>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="374"/>
-      <c r="I6" s="374"/>
-      <c r="J6" s="375"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="374"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15555,24 +15469,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="341" t="s">
+      <c r="K22" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="341"/>
-      <c r="M22" s="341"/>
-      <c r="N22" s="341"/>
-      <c r="O22" s="341" t="s">
+      <c r="L22" s="340"/>
+      <c r="M22" s="340"/>
+      <c r="N22" s="340"/>
+      <c r="O22" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="341"/>
-      <c r="Q22" s="341"/>
-      <c r="R22" s="341"/>
-      <c r="S22" s="341" t="s">
+      <c r="P22" s="340"/>
+      <c r="Q22" s="340"/>
+      <c r="R22" s="340"/>
+      <c r="S22" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="341"/>
-      <c r="U22" s="341"/>
-      <c r="V22" s="341"/>
+      <c r="T22" s="340"/>
+      <c r="U22" s="340"/>
+      <c r="V22" s="340"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15589,12 +15503,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="376" t="s">
+      <c r="K23" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="376"/>
-      <c r="M23" s="376"/>
-      <c r="N23" s="376"/>
+      <c r="L23" s="375"/>
+      <c r="M23" s="375"/>
+      <c r="N23" s="375"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15763,7 +15677,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="372" t="s">
+      <c r="I28" s="371" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15813,7 +15727,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="372"/>
+      <c r="I29" s="371"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15861,7 +15775,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="372"/>
+      <c r="I30" s="371"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15909,7 +15823,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="372"/>
+      <c r="I31" s="371"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15971,7 +15885,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="372" t="s">
+      <c r="I33" s="371" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16019,7 +15933,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="372"/>
+      <c r="I34" s="371"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16187,7 +16101,7 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.35">
@@ -16375,30 +16289,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="380" t="s">
+      <c r="E6" s="379" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="380"/>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
-      <c r="K6" s="380"/>
-      <c r="L6" s="380"/>
-      <c r="M6" s="380"/>
-      <c r="N6" s="380"/>
-      <c r="O6" s="380"/>
-      <c r="P6" s="380"/>
-      <c r="Q6" s="380"/>
-      <c r="R6" s="380"/>
+      <c r="F6" s="379"/>
+      <c r="G6" s="379"/>
+      <c r="H6" s="379"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="379"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="379"/>
+      <c r="M6" s="379"/>
+      <c r="N6" s="379"/>
+      <c r="O6" s="379"/>
+      <c r="P6" s="379"/>
+      <c r="Q6" s="379"/>
+      <c r="R6" s="379"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="377" t="s">
+      <c r="A7" s="376" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="377"/>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
+      <c r="B7" s="376"/>
+      <c r="C7" s="376"/>
+      <c r="D7" s="376"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16416,11 +16330,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="377" t="s">
+      <c r="B8" s="376" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="377"/>
-      <c r="D8" s="377"/>
+      <c r="C8" s="376"/>
+      <c r="D8" s="376"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16466,11 +16380,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="376" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
+      <c r="C9" s="376"/>
+      <c r="D9" s="376"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16516,11 +16430,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="377" t="s">
+      <c r="B10" s="376" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="376"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16566,11 +16480,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="377" t="s">
+      <c r="B11" s="376" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
+      <c r="C11" s="376"/>
+      <c r="D11" s="376"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16665,10 +16579,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="377" t="s">
+      <c r="C13" s="376" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="377"/>
+      <c r="D13" s="376"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16819,11 +16733,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="377" t="s">
+      <c r="B19" s="376" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="377"/>
-      <c r="D19" s="377"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16882,11 +16796,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="377" t="s">
+      <c r="B20" s="376" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="377"/>
-      <c r="D20" s="377"/>
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16946,11 +16860,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="376" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="377"/>
-      <c r="D21" s="377"/>
+      <c r="C21" s="376"/>
+      <c r="D21" s="376"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17009,11 +16923,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="377" t="s">
+      <c r="B22" s="376" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="377"/>
-      <c r="D22" s="377"/>
+      <c r="C22" s="376"/>
+      <c r="D22" s="376"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17126,21 +17040,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="378" t="s">
+      <c r="H27" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
-      <c r="K27" s="378"/>
-      <c r="L27" s="378"/>
-      <c r="M27" s="378"/>
-      <c r="N27" s="378"/>
-      <c r="O27" s="378"/>
-      <c r="P27" s="378"/>
-      <c r="Q27" s="378"/>
-      <c r="R27" s="378"/>
-      <c r="S27" s="378"/>
-      <c r="T27" s="378"/>
+      <c r="I27" s="377"/>
+      <c r="J27" s="377"/>
+      <c r="K27" s="377"/>
+      <c r="L27" s="377"/>
+      <c r="M27" s="377"/>
+      <c r="N27" s="377"/>
+      <c r="O27" s="377"/>
+      <c r="P27" s="377"/>
+      <c r="Q27" s="377"/>
+      <c r="R27" s="377"/>
+      <c r="S27" s="377"/>
+      <c r="T27" s="377"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17456,21 +17370,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="379" t="s">
+      <c r="F37" s="378" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="379"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="379"/>
-      <c r="J37" s="379"/>
-      <c r="K37" s="379"/>
-      <c r="L37" s="379"/>
-      <c r="M37" s="379"/>
-      <c r="N37" s="379"/>
-      <c r="O37" s="379"/>
-      <c r="P37" s="379"/>
-      <c r="Q37" s="379"/>
-      <c r="R37" s="379"/>
+      <c r="G37" s="378"/>
+      <c r="H37" s="378"/>
+      <c r="I37" s="378"/>
+      <c r="J37" s="378"/>
+      <c r="K37" s="378"/>
+      <c r="L37" s="378"/>
+      <c r="M37" s="378"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17786,21 +17700,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="378" t="s">
+      <c r="F48" s="377" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="378"/>
-      <c r="H48" s="378"/>
-      <c r="I48" s="378"/>
-      <c r="J48" s="378"/>
-      <c r="K48" s="378"/>
-      <c r="L48" s="378"/>
-      <c r="M48" s="378"/>
-      <c r="N48" s="378"/>
-      <c r="O48" s="378"/>
-      <c r="P48" s="378"/>
-      <c r="Q48" s="378"/>
-      <c r="R48" s="378"/>
+      <c r="G48" s="377"/>
+      <c r="H48" s="377"/>
+      <c r="I48" s="377"/>
+      <c r="J48" s="377"/>
+      <c r="K48" s="377"/>
+      <c r="L48" s="377"/>
+      <c r="M48" s="377"/>
+      <c r="N48" s="377"/>
+      <c r="O48" s="377"/>
+      <c r="P48" s="377"/>
+      <c r="Q48" s="377"/>
+      <c r="R48" s="377"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18164,50 +18078,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="357" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
+      <c r="B5" s="358"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="358"/>
+      <c r="P5" s="358"/>
+      <c r="Q5" s="358"/>
+      <c r="R5" s="358"/>
+      <c r="S5" s="358"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="360"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="360"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="360"/>
-      <c r="R6" s="360"/>
-      <c r="S6" s="360"/>
+      <c r="B6" s="359"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="359"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="359"/>
+      <c r="K6" s="359"/>
+      <c r="L6" s="359"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="359"/>
+      <c r="P6" s="359"/>
+      <c r="Q6" s="359"/>
+      <c r="R6" s="359"/>
+      <c r="S6" s="359"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18247,10 +18161,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="361" t="s">
+      <c r="R8" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="362"/>
+      <c r="S8" s="361"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21121,10 +21035,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="381" t="s">
+      <c r="D75" s="380" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="382"/>
+      <c r="E75" s="381"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -21812,18 +21726,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>357</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="289" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" s="289">
         <v>325</v>
@@ -21835,7 +21749,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="289" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B3" s="289">
         <v>120</v>
@@ -21871,7 +21785,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="289" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" s="289">
         <v>63</v>
@@ -21883,7 +21797,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="291" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -21895,7 +21809,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="176" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -21907,7 +21821,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -21932,7 +21846,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="292" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="289">
         <v>45</v>
@@ -21944,7 +21858,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="291" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="289">
         <v>16</v>
@@ -21969,7 +21883,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B14" s="289">
         <v>80</v>
@@ -22006,7 +21920,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="292" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -22018,7 +21932,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="291" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -22030,7 +21944,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="291" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -22042,7 +21956,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="293" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="294">
         <v>5</v>
@@ -22072,10 +21986,10 @@
   <dimension ref="A1:AX73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22094,23 +22008,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="348" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="350"/>
+      <c r="B1" s="349"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="357" t="s">
+      <c r="J1" s="356" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="341"/>
+      <c r="V1" s="340"/>
+      <c r="W1" s="340"/>
+      <c r="X1" s="340"/>
+      <c r="Y1" s="340"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="350" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -22118,68 +22032,68 @@
         <v>192</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="357"/>
+      <c r="J2" s="356"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="352"/>
+      <c r="A3" s="351"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="357"/>
+      <c r="J3" s="356"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="352"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="353"/>
+      <c r="A5" s="352"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="353" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="355"/>
+      <c r="G7" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="354"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="355"/>
+      <c r="K7" s="353" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="355"/>
-      <c r="O7" s="354" t="s">
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="354"/>
+      <c r="O7" s="353" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="355"/>
-      <c r="Q7" s="355"/>
-      <c r="R7" s="355"/>
-      <c r="S7" s="354" t="s">
+      <c r="P7" s="354"/>
+      <c r="Q7" s="354"/>
+      <c r="R7" s="354"/>
+      <c r="S7" s="353" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="355"/>
-      <c r="U7" s="355"/>
-      <c r="V7" s="355"/>
-      <c r="W7" s="354" t="s">
+      <c r="T7" s="354"/>
+      <c r="U7" s="354"/>
+      <c r="V7" s="354"/>
+      <c r="W7" s="353" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="355"/>
-      <c r="Y7" s="355"/>
-      <c r="Z7" s="355"/>
+      <c r="X7" s="354"/>
+      <c r="Y7" s="354"/>
+      <c r="Z7" s="354"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -23497,43 +23411,43 @@
         <v>184</v>
       </c>
       <c r="D21" s="102">
-        <f>main!L112/1000</f>
+        <f>main!L111/1000</f>
         <v>156.18299999999999</v>
       </c>
       <c r="E21" s="104">
-        <f>main!M112/1000</f>
+        <f>main!M111/1000</f>
         <v>197.631</v>
       </c>
       <c r="F21" s="104">
-        <f>main!N112/1000</f>
+        <f>main!N111/1000</f>
         <v>161.43899999999999</v>
       </c>
       <c r="G21" s="149">
-        <f>main!O112/1000</f>
+        <f>main!O111/1000</f>
         <v>178.30281690641254</v>
       </c>
       <c r="H21" s="104">
-        <f>main!P112/1000</f>
+        <f>main!P111/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="I21" s="104">
-        <f>main!Q112/1000</f>
+        <f>main!Q111/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="J21" s="104">
-        <f>main!R112/1000</f>
+        <f>main!R111/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="K21" s="149">
-        <f>main!S112/1000</f>
+        <f>main!S111/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="L21" s="104">
-        <f>main!T112/1000</f>
+        <f>main!T111/1000</f>
         <v>221.63948816571326</v>
       </c>
       <c r="M21" s="223">
-        <f>main!U112/1000</f>
+        <f>main!U111/1000</f>
         <v>221.63948816571326</v>
       </c>
       <c r="N21" s="104">
@@ -23943,35 +23857,35 @@
       </c>
       <c r="D28" s="102"/>
       <c r="E28" s="104">
-        <f>main!L113/1000</f>
+        <f>main!L112/1000</f>
         <v>404.40166666666676</v>
       </c>
       <c r="F28" s="104">
-        <f>main!M113/1000</f>
+        <f>main!M112/1000</f>
         <v>330.77699999999999</v>
       </c>
       <c r="G28" s="104">
-        <f>main!N113/1000</f>
+        <f>main!N112/1000</f>
         <v>181.80799999999999</v>
       </c>
       <c r="H28" s="104">
-        <f>main!O113/1000</f>
+        <f>main!O112/1000</f>
         <v>205.47077000000002</v>
       </c>
       <c r="I28" s="104">
-        <f>main!P113/1000</f>
+        <f>main!P112/1000</f>
         <v>189.83444692499995</v>
       </c>
       <c r="J28" s="104">
-        <f>main!Q113/1000</f>
+        <f>main!Q112/1000</f>
         <v>190.56361915962492</v>
       </c>
       <c r="K28" s="104">
-        <f>main!R113/1000</f>
+        <f>main!R112/1000</f>
         <v>191.66284630332211</v>
       </c>
       <c r="L28" s="104">
-        <f>main!S113/1000</f>
+        <f>main!S112/1000</f>
         <v>193.13947476635536</v>
       </c>
       <c r="M28" s="104">
@@ -24900,27 +24814,27 @@
       </c>
       <c r="D47" s="102"/>
       <c r="E47" s="104">
-        <f>main!L95/1000</f>
+        <f>main!L94/1000</f>
         <v>1336.6980000000001</v>
       </c>
       <c r="F47" s="104">
-        <f>main!M95/1000</f>
+        <f>main!M94/1000</f>
         <v>1328.8050000000001</v>
       </c>
       <c r="G47" s="149">
-        <f>main!N95/1000</f>
+        <f>main!N94/1000</f>
         <v>1372.787</v>
       </c>
       <c r="H47" s="104">
-        <f>main!O95/1000</f>
+        <f>main!O94/1000</f>
         <v>1390.6101625906522</v>
       </c>
       <c r="I47" s="104">
-        <f>main!P95/1000</f>
+        <f>main!P94/1000</f>
         <v>1418.489158978964</v>
       </c>
       <c r="J47" s="223">
-        <f>main!Q95/1000</f>
+        <f>main!Q94/1000</f>
         <v>1441.5834808422039</v>
       </c>
       <c r="K47" s="149">
@@ -25350,35 +25264,35 @@
         <v>189</v>
       </c>
       <c r="D54" s="102">
-        <f>main!K94/1000</f>
+        <f>main!K93/1000</f>
         <v>1574.462</v>
       </c>
       <c r="E54" s="104">
-        <f>main!L94/1000</f>
+        <f>main!L93/1000</f>
         <v>3729.5573333333332</v>
       </c>
       <c r="F54" s="104">
-        <f>main!M94/1000</f>
+        <f>main!M93/1000</f>
         <v>2466.0010000000002</v>
       </c>
       <c r="G54" s="149">
-        <f>main!N94/1000</f>
+        <f>main!N93/1000</f>
         <v>2027.7929999999999</v>
       </c>
       <c r="H54" s="104">
-        <f>main!O94/1000</f>
+        <f>main!O93/1000</f>
         <v>3118.1238025000002</v>
       </c>
       <c r="I54" s="104">
-        <f>main!P94/1000</f>
+        <f>main!P93/1000</f>
         <v>1874.8488739812499</v>
       </c>
       <c r="J54" s="104">
-        <f>main!Q94/1000</f>
+        <f>main!Q93/1000</f>
         <v>1686.4675074263907</v>
       </c>
       <c r="K54" s="263">
-        <f>main!R94/1000</f>
+        <f>main!R93/1000</f>
         <v>1683.0445200377862</v>
       </c>
       <c r="L54" s="104">
@@ -25825,11 +25739,11 @@
       </c>
       <c r="H61" s="104">
         <f>main!O54/1000</f>
-        <v>794.08358333333342</v>
+        <v>144.26918333333336</v>
       </c>
       <c r="I61" s="104">
         <f>main!P54/1000</f>
-        <v>794.08358333333342</v>
+        <v>145.19798333333333</v>
       </c>
       <c r="J61" s="104">
         <f>main!Q54/1000</f>
@@ -26098,11 +26012,11 @@
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>389.89820174709951</v>
+        <v>-259.91619825290059</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>387.96950176555845</v>
+        <v>-260.91609823444162</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
@@ -26261,52 +26175,52 @@
       </c>
       <c r="D68" s="100"/>
       <c r="E68" s="218">
-        <f>main!L83/1000</f>
+        <f>main!L82/1000</f>
         <v>321.35000000000002</v>
       </c>
       <c r="F68" s="218">
-        <f>main!M83/1000</f>
-        <v>287.8</v>
+        <f>main!M82/1000</f>
+        <v>291.39999999999998</v>
       </c>
       <c r="G68" s="151">
-        <f>main!N83/1000</f>
-        <v>285.95100000000002</v>
+        <f>main!N82/1000</f>
+        <v>284.15100000000001</v>
       </c>
       <c r="H68" s="218">
-        <f>main!O83/1000</f>
-        <v>362.73880400000002</v>
+        <f>main!O82/1000</f>
+        <v>342.73880400000002</v>
       </c>
       <c r="I68" s="218">
-        <f>main!P83/1000</f>
-        <v>307.529759216</v>
+        <f>main!P82/1000</f>
+        <v>315.529759216</v>
       </c>
       <c r="J68" s="218">
-        <f>main!Q83/1000</f>
-        <v>308.32387825286401</v>
+        <f>main!Q82/1000</f>
+        <v>316.32387825286401</v>
       </c>
       <c r="K68" s="151">
-        <f>main!R83/1000</f>
-        <v>309.12117376587548</v>
+        <f>main!R82/1000</f>
+        <v>311.12117376587548</v>
       </c>
       <c r="L68" s="218">
-        <f>main!S83/1000</f>
-        <v>309.92165846093894</v>
+        <f>main!S82/1000</f>
+        <v>305.92165846093894</v>
       </c>
       <c r="M68" s="218">
-        <f>main!T83/1000</f>
-        <v>310.72534509478271</v>
+        <f>main!T82/1000</f>
+        <v>306.72534509478271</v>
       </c>
       <c r="N68" s="218">
-        <f>main!U83/1000</f>
-        <v>311.53224647516186</v>
+        <f>main!U82/1000</f>
+        <v>307.53224647516186</v>
       </c>
       <c r="O68" s="151">
-        <f>main!V83/1000</f>
-        <v>312.34237546106249</v>
+        <f>main!V82/1000</f>
+        <v>308.34237546106249</v>
       </c>
       <c r="P68" s="248">
-        <f>main!W83/1000</f>
-        <v>313.15574496290668</v>
+        <f>main!W82/1000</f>
+        <v>309.15574496290668</v>
       </c>
       <c r="Q68" s="248">
         <v>330.50545802602733</v>
@@ -26524,47 +26438,47 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>61.893000000000001</v>
+        <v>65.492999999999967</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>25.213999999999999</v>
+        <v>23.413999999999987</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>130.66361528682643</v>
+        <v>110.66361528682643</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>91.809555373839004</v>
+        <v>99.809555373839004</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>87.432482045412996</v>
+        <v>95.432482045412996</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>82.352027504066797</v>
+        <v>84.352027504066797</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>77.593706110606433</v>
+        <v>73.593706110606433</v>
       </c>
       <c r="M71" s="217">
         <f t="shared" si="119"/>
-        <v>72.795455197427913</v>
+        <v>68.795455197427913</v>
       </c>
       <c r="N71" s="217">
         <f t="shared" si="119"/>
-        <v>59.928177024695259</v>
+        <v>55.928177024695259</v>
       </c>
       <c r="O71" s="150">
         <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>47.062676959411363</v>
+        <v>43.062676959411363</v>
       </c>
       <c r="P71" s="250">
         <f t="shared" si="120"/>
-        <v>34.056951067957698</v>
+        <v>30.056951067957698</v>
       </c>
       <c r="Q71" s="250">
         <f t="shared" si="120"/>
@@ -26668,9 +26582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26723,10 +26637,10 @@
         <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -26815,11 +26729,11 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>61.893000000000001</v>
+        <v>65.492999999999967</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
-        <v>287.8</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="K3" s="102">
         <v>775.2</v>
@@ -26867,11 +26781,11 @@
         <v>208.23599999999993</v>
       </c>
       <c r="I4">
-        <v>25.213999999999999</v>
+        <v>23.413999999999987</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
-        <v>285.95100000000002</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="K4" s="102">
         <v>296.39999999999998</v>
@@ -26916,10 +26830,14 @@
         <v>1488.7674453956693</v>
       </c>
       <c r="H5">
-        <v>389.89820174709951</v>
+        <v>-259.91619825290059</v>
       </c>
       <c r="I5">
-        <v>130.66361528682643</v>
+        <v>110.66361528682643</v>
+      </c>
+      <c r="J5" s="151">
+        <f>'add-ons calculations'!H68</f>
+        <v>342.73880400000002</v>
       </c>
       <c r="K5" s="102">
         <v>544.4</v>
@@ -26966,10 +26884,10 @@
         <v>373.18358526468296</v>
       </c>
       <c r="H6">
-        <v>387.96950176555845</v>
+        <v>-260.91609823444162</v>
       </c>
       <c r="I6">
-        <v>91.809555373839004</v>
+        <v>99.809555373839004</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -27020,7 +26938,7 @@
         <v>-263.99839104983226</v>
       </c>
       <c r="I7">
-        <v>87.432482045412996</v>
+        <v>95.432482045412996</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -27071,7 +26989,7 @@
         <v>-287.32230778657441</v>
       </c>
       <c r="I8">
-        <v>82.352027504066797</v>
+        <v>84.352027504066797</v>
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
@@ -27122,7 +27040,7 @@
         <v>-334.72051450560957</v>
       </c>
       <c r="I9">
-        <v>77.593706110606433</v>
+        <v>73.593706110606433</v>
       </c>
       <c r="K9" s="102">
         <f t="shared" si="1"/>
@@ -27172,7 +27090,7 @@
         <v>-336.30233306180742</v>
       </c>
       <c r="I10">
-        <v>72.795455197427913</v>
+        <v>68.795455197427913</v>
       </c>
       <c r="K10" s="102">
         <f t="shared" si="1"/>
@@ -27222,7 +27140,7 @@
         <v>-337.87409768650394</v>
       </c>
       <c r="I11">
-        <v>59.928177024695259</v>
+        <v>55.928177024695259</v>
       </c>
       <c r="K11" s="102">
         <f t="shared" si="1"/>
@@ -27272,7 +27190,7 @@
         <v>-339.44251100070011</v>
       </c>
       <c r="I12">
-        <v>47.062676959411363</v>
+        <v>43.062676959411363</v>
       </c>
       <c r="K12" s="102">
         <f t="shared" si="1"/>
@@ -27322,7 +27240,7 @@
         <v>-341.0159512806469</v>
       </c>
       <c r="I13">
-        <v>34.056951067957698</v>
+        <v>30.056951067957698</v>
       </c>
       <c r="K13" s="102">
         <f t="shared" si="1"/>
@@ -27826,36 +27744,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="341" t="s">
+      <c r="D1" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341" t="s">
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341" t="s">
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="341"/>
-      <c r="P1" s="341" t="s">
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="340"/>
+      <c r="P1" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="341"/>
-      <c r="R1" s="341"/>
-      <c r="S1" s="341"/>
-      <c r="T1" s="341" t="s">
+      <c r="Q1" s="340"/>
+      <c r="R1" s="340"/>
+      <c r="S1" s="340"/>
+      <c r="T1" s="340" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="341"/>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
+      <c r="U1" s="340"/>
+      <c r="V1" s="340"/>
+      <c r="W1" s="340"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
@@ -28087,71 +28005,71 @@
         <v>15</v>
       </c>
       <c r="D5" s="197">
-        <f>main!F97</f>
+        <f>main!F96</f>
         <v>728844</v>
       </c>
       <c r="E5" s="197">
-        <f>main!G97</f>
+        <f>main!G96</f>
         <v>738714</v>
       </c>
       <c r="F5" s="197">
-        <f>main!H97</f>
+        <f>main!H96</f>
         <v>755204</v>
       </c>
       <c r="G5" s="197">
-        <f>main!I97</f>
+        <f>main!I96</f>
         <v>763370</v>
       </c>
       <c r="H5" s="197">
-        <f>main!J97</f>
+        <f>main!J96</f>
         <v>760967</v>
       </c>
       <c r="I5" s="197">
-        <f>main!K97</f>
+        <f>main!K96</f>
         <v>767087</v>
       </c>
       <c r="J5" s="197">
-        <f>main!L97</f>
+        <f>main!L96</f>
         <v>812158</v>
       </c>
       <c r="K5" s="197">
-        <f>main!M97</f>
+        <f>main!M96</f>
         <v>828480</v>
       </c>
       <c r="L5" s="262">
-        <f>main!N97</f>
+        <f>main!N96</f>
         <v>818740</v>
       </c>
       <c r="M5" s="262">
-        <f>main!O97</f>
+        <f>main!O96</f>
         <v>831250.83502466371</v>
       </c>
       <c r="N5" s="262">
-        <f>main!P97</f>
+        <f>main!P96</f>
         <v>838457.84744285408</v>
       </c>
       <c r="O5" s="262">
-        <f>main!Q97</f>
+        <f>main!Q96</f>
         <v>839187.01967747905</v>
       </c>
       <c r="P5" s="262">
-        <f>main!R97</f>
+        <f>main!R96</f>
         <v>840286.24682117626</v>
       </c>
       <c r="Q5" s="262">
-        <f>main!S97</f>
+        <f>main!S96</f>
         <v>841762.8752842095</v>
       </c>
       <c r="R5" s="262">
-        <f>main!T97</f>
+        <f>main!T96</f>
         <v>843107.97501111636</v>
       </c>
       <c r="S5" s="262">
-        <f>main!U97</f>
+        <f>main!U96</f>
         <v>844539.45728929248</v>
       </c>
       <c r="T5" s="262">
-        <f>main!V97</f>
+        <f>main!V96</f>
         <v>846032.64138980373</v>
       </c>
       <c r="U5" s="262"/>
@@ -28164,71 +28082,71 @@
         <v>212</v>
       </c>
       <c r="D6" s="197">
-        <f>main!F100</f>
+        <f>main!F99</f>
         <v>589819</v>
       </c>
       <c r="E6" s="197">
-        <f>main!G100</f>
+        <f>main!G99</f>
         <v>599372</v>
       </c>
       <c r="F6" s="197">
-        <f>main!H100</f>
+        <f>main!H99</f>
         <v>614976</v>
       </c>
       <c r="G6" s="197">
-        <f>main!I100</f>
+        <f>main!I99</f>
         <v>622265</v>
       </c>
       <c r="H6" s="197">
-        <f>main!J100</f>
+        <f>main!J99</f>
         <v>619632</v>
       </c>
       <c r="I6" s="197">
-        <f>main!K100</f>
+        <f>main!K99</f>
         <v>624096</v>
       </c>
       <c r="J6" s="197">
-        <f>main!L100</f>
+        <f>main!L99</f>
         <v>668823</v>
       </c>
       <c r="K6" s="197">
-        <f>main!M100</f>
+        <f>main!M99</f>
         <v>683703</v>
       </c>
       <c r="L6" s="35">
-        <f>main!N100</f>
+        <f>main!N99</f>
         <v>673632</v>
       </c>
       <c r="M6" s="35">
-        <f>main!O100</f>
+        <f>main!O99</f>
         <v>685780.06502466369</v>
       </c>
       <c r="N6" s="35">
-        <f>main!P100</f>
+        <f>main!P99</f>
         <v>692623.40051785414</v>
       </c>
       <c r="O6" s="35">
-        <f>main!Q100</f>
+        <f>main!Q99</f>
         <v>692623.40051785414</v>
       </c>
       <c r="P6" s="35">
-        <f>main!R100</f>
+        <f>main!R99</f>
         <v>692623.40051785414</v>
       </c>
       <c r="Q6" s="35">
-        <f>main!S100</f>
+        <f>main!S99</f>
         <v>692623.40051785414</v>
       </c>
       <c r="R6" s="35">
-        <f>main!T100</f>
+        <f>main!T99</f>
         <v>692623.40051785414</v>
       </c>
       <c r="S6" s="35">
-        <f>main!U100</f>
+        <f>main!U99</f>
         <v>692623.40051785414</v>
       </c>
       <c r="T6" s="35">
-        <f>main!V100</f>
+        <f>main!V99</f>
         <v>692623.40051785414</v>
       </c>
     </row>
@@ -28265,22 +28183,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="348" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="350"/>
+      <c r="B1" s="349"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="357" t="s">
+      <c r="J1" s="356" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="341"/>
+      <c r="V1" s="340"/>
+      <c r="W1" s="340"/>
+      <c r="X1" s="340"/>
+      <c r="Y1" s="340"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="350" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -28289,20 +28207,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="357"/>
+      <c r="J2" s="356"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="352"/>
+      <c r="A3" s="351"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="357"/>
+      <c r="J3" s="356"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="352"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
@@ -28312,7 +28230,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="353"/>
+      <c r="A5" s="352"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
@@ -28327,42 +28245,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="353" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="355"/>
+      <c r="G7" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="354"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="355"/>
+      <c r="K7" s="353" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="355"/>
-      <c r="O7" s="354" t="s">
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="354"/>
+      <c r="O7" s="353" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="355"/>
-      <c r="Q7" s="355"/>
-      <c r="R7" s="355"/>
-      <c r="S7" s="354" t="s">
+      <c r="P7" s="354"/>
+      <c r="Q7" s="354"/>
+      <c r="R7" s="354"/>
+      <c r="S7" s="353" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="355"/>
-      <c r="U7" s="355"/>
-      <c r="V7" s="355"/>
-      <c r="W7" s="354" t="s">
+      <c r="T7" s="354"/>
+      <c r="U7" s="354"/>
+      <c r="V7" s="354"/>
+      <c r="W7" s="353" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="355"/>
-      <c r="Y7" s="355"/>
-      <c r="Z7" s="355"/>
+      <c r="X7" s="354"/>
+      <c r="Y7" s="354"/>
+      <c r="Z7" s="354"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -31251,7 +31169,7 @@
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>61.893000000000001</v>
+        <v>65.492999999999967</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31280,7 +31198,7 @@
         <v>208.23599999999993</v>
       </c>
       <c r="I3" s="259">
-        <v>25.213999999999999</v>
+        <v>23.413999999999987</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31306,10 +31224,10 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>389.89820174709951</v>
+        <v>-259.91619825290059</v>
       </c>
       <c r="I4" s="259">
-        <v>130.66361528682643</v>
+        <v>110.66361528682643</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31335,10 +31253,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>387.96950176555845</v>
+        <v>-260.91609823444162</v>
       </c>
       <c r="I5" s="259">
-        <v>91.809555373839004</v>
+        <v>99.809555373839004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31367,7 +31285,7 @@
         <v>-263.99839104983226</v>
       </c>
       <c r="I6" s="259">
-        <v>87.432482045412996</v>
+        <v>95.432482045412996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31396,7 +31314,7 @@
         <v>-287.32230778657441</v>
       </c>
       <c r="I7" s="259">
-        <v>82.352027504066797</v>
+        <v>84.352027504066797</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -31425,7 +31343,7 @@
         <v>-334.72051450560957</v>
       </c>
       <c r="I8" s="259">
-        <v>77.593706110606433</v>
+        <v>73.593706110606433</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -31454,7 +31372,7 @@
         <v>-336.30233306180742</v>
       </c>
       <c r="I9" s="259">
-        <v>72.795455197427913</v>
+        <v>68.795455197427913</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -31483,7 +31401,7 @@
         <v>-337.87409768650394</v>
       </c>
       <c r="I10" s="259">
-        <v>59.928177024695259</v>
+        <v>55.928177024695259</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -31512,7 +31430,7 @@
         <v>-339.44251100070011</v>
       </c>
       <c r="I11" s="259">
-        <v>47.062676959411363</v>
+        <v>43.062676959411363</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -31541,7 +31459,7 @@
         <v>-341.0159512806469</v>
       </c>
       <c r="I12" s="259">
-        <v>34.056951067957698</v>
+        <v>30.056951067957698</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -31907,7 +31825,7 @@
         <v>329</v>
       </c>
       <c r="J1" s="297" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -33160,16 +33078,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E4DD52-535C-48C4-AA20-C4E033B210B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7B7A5D-7AA1-4240-A65A-FEE53BA76D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,10 @@
     <author>tc={C5311C2D-4764-4363-AE1C-A82227666FB7}</author>
     <author>tc={A0B72D47-4ADC-4971-B431-B9EA6C91AE60}</author>
     <author>tc={2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}</author>
-    <author>tc={1805251D-64DC-4249-AE91-ACD2C3F47E9D}</author>
+    <author>tc={33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}</author>
     <author>tc={8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}</author>
     <author>tc={DA48DE65-66E5-4DD8-819A-2F757A61D389}</author>
+    <author>tc={1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}</author>
     <author>tc={99D44059-B7C8-4B13-A311-FD754252DDFC}</author>
     <author>tc={11731043-8530-4DAC-9476-3C98D0D836BB}</author>
     <author>tc={D84F0053-F219-4B69-8181-0F12AE7D3FC2}</author>
@@ -521,7 +522,7 @@
     grow with nom purchases</t>
       </text>
     </comment>
-    <comment ref="L76" authorId="14" shapeId="0" xr:uid="{1805251D-64DC-4249-AE91-ACD2C3F47E9D}">
+    <comment ref="L76" authorId="14" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -547,7 +548,15 @@
     CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</t>
       </text>
     </comment>
-    <comment ref="O81" authorId="17" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+    <comment ref="O81" authorId="17" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</t>
+      </text>
+    </comment>
+    <comment ref="O82" authorId="18" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -555,7 +564,7 @@
     CRFB: estimates $54B ($80B top line but net out$26B in SNAP which is in social benefits). MPC is 100% over 12 quarters. And then annualized</t>
       </text>
     </comment>
-    <comment ref="A92" authorId="0" shapeId="0" xr:uid="{BA08824F-AD84-4798-BBB7-EA418EA44348}">
+    <comment ref="A93" authorId="0" shapeId="0" xr:uid="{BA08824F-AD84-4798-BBB7-EA418EA44348}">
       <text>
         <r>
           <rPr>
@@ -580,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N97" authorId="18" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+    <comment ref="N98" authorId="19" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -588,7 +597,7 @@
     grow with S&amp;L nom purchases</t>
       </text>
     </comment>
-    <comment ref="A99" authorId="0" shapeId="0" xr:uid="{B3E091FA-BC7B-4A13-BB52-450D0FDAFA83}">
+    <comment ref="A100" authorId="0" shapeId="0" xr:uid="{B3E091FA-BC7B-4A13-BB52-450D0FDAFA83}">
       <text>
         <r>
           <rPr>
@@ -621,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O109" authorId="19" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+    <comment ref="O110" authorId="20" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -631,7 +640,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="P109" authorId="20" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+    <comment ref="P110" authorId="21" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -710,7 +719,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="383">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -2006,6 +2015,9 @@
   </si>
   <si>
     <t>SNAP</t>
+  </si>
+  <si>
+    <t>health care</t>
   </si>
   <si>
     <t>Payroll for Airline Workers</t>
@@ -2901,7 +2913,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3497,6 +3509,7 @@
     <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4064,10 +4077,10 @@
   <threadedComment ref="L71" dT="2020-09-10T19:09:05.64" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
     <text>grow with nom purchases</text>
   </threadedComment>
-  <threadedComment ref="L76" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1805251D-64DC-4249-AE91-ACD2C3F47E9D}">
+  <threadedComment ref="L76" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?</text>
   </threadedComment>
-  <threadedComment ref="L76" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{10A5E196-7EEF-45EC-9341-3FF725295F40}" parentId="{1805251D-64DC-4249-AE91-ACD2C3F47E9D}">
+  <threadedComment ref="L76" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>we're comfortable leaving this as is</text>
   </threadedComment>
   <threadedComment ref="O79" dT="2020-12-21T21:08:26.13" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
@@ -4076,22 +4089,25 @@
   <threadedComment ref="O80" dT="2020-12-21T21:00:34.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
     <text>CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</text>
   </threadedComment>
-  <threadedComment ref="O81" dT="2020-12-21T21:11:36.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+  <threadedComment ref="O81" dT="2020-12-21T21:03:38.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
+    <text>CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</text>
+  </threadedComment>
+  <threadedComment ref="O82" dT="2020-12-21T21:11:36.65" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
     <text>CRFB: estimates $54B ($80B top line but net out$26B in SNAP which is in social benefits). MPC is 100% over 12 quarters. And then annualized</text>
   </threadedComment>
-  <threadedComment ref="N97" dT="2020-09-11T20:43:00.49" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+  <threadedComment ref="N98" dT="2020-09-11T20:43:00.49" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{11731043-8530-4DAC-9476-3C98D0D836BB}">
     <text>grow with S&amp;L nom purchases</text>
   </threadedComment>
-  <threadedComment ref="O109" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+  <threadedComment ref="O110" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
     <text>overide in the fim with 4%</text>
   </threadedComment>
-  <threadedComment ref="O109" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{37E79AF5-9147-493F-B326-FDE57ECB2DEB}" parentId="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+  <threadedComment ref="O110" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{37E79AF5-9147-493F-B326-FDE57ECB2DEB}" parentId="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
     <text>cbo proected it will be 2.3%. should we still ovverride with 4%?</text>
   </threadedComment>
-  <threadedComment ref="P109" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+  <threadedComment ref="P110" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3B711313-D2C6-42FC-83C8-BA827015079B}">
     <text>overide in the fim with 4%</text>
   </threadedComment>
-  <threadedComment ref="P109" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{F46C58D3-6BCD-41FA-BF7D-CDA2529CBD21}" parentId="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+  <threadedComment ref="P110" dT="2020-10-29T16:57:45.80" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{F46C58D3-6BCD-41FA-BF7D-CDA2529CBD21}" parentId="{3B711313-D2C6-42FC-83C8-BA827015079B}">
     <text>cbo proected it will be 2.3%. should we still ovverride with 4%?</text>
   </threadedComment>
 </ThreadedComments>
@@ -4125,13 +4141,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
-  <dimension ref="A1:AQ120"/>
+  <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4154,86 +4170,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="341" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1" s="341"/>
+      <c r="A1" s="342" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="342"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC1" s="347" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC1" s="348" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="347"/>
-      <c r="AE1" s="345" t="s">
+      <c r="AD1" s="348"/>
+      <c r="AE1" s="346" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="346"/>
+      <c r="AF1" s="347"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="343" t="s">
+      <c r="AI1" s="344" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="343"/>
-      <c r="AK1" s="343"/>
-      <c r="AL1" s="343"/>
-      <c r="AM1" s="342" t="s">
+      <c r="AJ1" s="344"/>
+      <c r="AK1" s="344"/>
+      <c r="AL1" s="344"/>
+      <c r="AM1" s="343" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="342"/>
-      <c r="AP1" s="342"/>
+      <c r="AN1" s="343"/>
+      <c r="AO1" s="343"/>
+      <c r="AP1" s="343"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="340" t="s">
+      <c r="F2" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340" t="s">
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="340"/>
-      <c r="N2" s="340" t="s">
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="340"/>
-      <c r="P2" s="340"/>
-      <c r="Q2" s="340"/>
-      <c r="R2" s="340" t="s">
+      <c r="O2" s="341"/>
+      <c r="P2" s="341"/>
+      <c r="Q2" s="341"/>
+      <c r="R2" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="340"/>
-      <c r="T2" s="340"/>
-      <c r="U2" s="340"/>
-      <c r="V2" s="340" t="s">
+      <c r="S2" s="341"/>
+      <c r="T2" s="341"/>
+      <c r="U2" s="341"/>
+      <c r="V2" s="341" t="s">
         <v>265</v>
       </c>
-      <c r="W2" s="340"/>
-      <c r="X2" s="340"/>
-      <c r="Y2" s="340"/>
+      <c r="W2" s="341"/>
+      <c r="X2" s="341"/>
+      <c r="Y2" s="341"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="340" t="s">
+      <c r="AC2" s="341" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="340"/>
-      <c r="AE2" s="340"/>
-      <c r="AF2" s="340"/>
-      <c r="AG2" s="340"/>
-      <c r="AH2" s="340"/>
-      <c r="AI2" s="340"/>
-      <c r="AJ2" s="340"/>
-      <c r="AK2" s="340"/>
-      <c r="AL2" s="344"/>
+      <c r="AD2" s="341"/>
+      <c r="AE2" s="341"/>
+      <c r="AF2" s="341"/>
+      <c r="AG2" s="341"/>
+      <c r="AH2" s="341"/>
+      <c r="AI2" s="341"/>
+      <c r="AJ2" s="341"/>
+      <c r="AK2" s="341"/>
+      <c r="AL2" s="345"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
@@ -4340,10 +4356,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="340" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="339"/>
+      <c r="B4" s="340"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -4966,7 +4982,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5029,7 +5045,7 @@
     </row>
     <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="212" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C14" s="269"/>
       <c r="D14" s="269"/>
@@ -5195,7 +5211,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -5433,7 +5449,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -5665,7 +5681,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -6696,7 +6712,7 @@
     </row>
     <row r="39" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="281" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F39" s="202"/>
       <c r="G39" s="202"/>
@@ -7328,7 +7344,7 @@
     </row>
     <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="333" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" s="107" t="s">
         <v>280</v>
@@ -7699,11 +7715,11 @@
       </c>
       <c r="O54" s="144">
         <f t="shared" ref="O54:Z54" si="39">O55+AVERAGE($H$54:$K$54)</f>
-        <v>144269.18333333335</v>
+        <v>794083.58333333337</v>
       </c>
       <c r="P54" s="144">
         <f t="shared" si="39"/>
-        <v>145197.98333333334</v>
+        <v>794083.58333333337</v>
       </c>
       <c r="Q54" s="144">
         <f t="shared" si="39"/>
@@ -7776,11 +7792,11 @@
       </c>
       <c r="O55" s="116">
         <f>O57+O58+SUM(O63:O66)</f>
-        <v>69438.933333333334</v>
+        <v>719253.33333333337</v>
       </c>
       <c r="P55" s="116">
         <f t="shared" ref="P55:V55" si="41">P57+P58+SUM(P63:P66)</f>
-        <v>70367.733333333337</v>
+        <v>719253.33333333337</v>
       </c>
       <c r="Q55" s="116">
         <f t="shared" si="41"/>
@@ -8173,12 +8189,12 @@
       <c r="M63" s="301"/>
       <c r="N63" s="308"/>
       <c r="O63" s="279">
-        <f>185.6</f>
-        <v>185.6</v>
+        <f>'Stimulus Round 2'!$C$2*4/2</f>
+        <v>650000</v>
       </c>
       <c r="P63" s="279">
-        <f>1300-O63</f>
-        <v>1114.4000000000001</v>
+        <f>'Stimulus Round 2'!$C$2*4/2</f>
+        <v>650000</v>
       </c>
       <c r="Q63" s="279"/>
       <c r="R63" s="279"/>
@@ -8201,7 +8217,7 @@
     </row>
     <row r="64" spans="1:41" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="273" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F64" s="197"/>
       <c r="G64" s="197"/>
@@ -8290,7 +8306,7 @@
     </row>
     <row r="66" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="273" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F66" s="197"/>
       <c r="G66" s="197"/>
@@ -8480,7 +8496,7 @@
         <v>227</v>
       </c>
       <c r="F70" s="203">
-        <f t="shared" ref="F70:L70" si="42">F68-F92</f>
+        <f t="shared" ref="F70:L70" si="42">F68-F93</f>
         <v>196851</v>
       </c>
       <c r="G70" s="203">
@@ -8511,7 +8527,7 @@
         <v>242100</v>
       </c>
       <c r="N70" s="308">
-        <f>N68-N92</f>
+        <f>N68-N93</f>
         <v>225951</v>
       </c>
       <c r="O70" s="116"/>
@@ -8547,7 +8563,7 @@
       <c r="K71" s="202"/>
       <c r="L71" s="202">
         <f>L70-L72</f>
-        <v>230950</v>
+        <v>193550</v>
       </c>
       <c r="M71" s="303">
         <v>203600</v>
@@ -8557,7 +8573,7 @@
         <v>196951</v>
       </c>
       <c r="O71" s="116">
-        <f t="shared" ref="O71:Z71" si="43">N71*(1+O86)</f>
+        <f t="shared" ref="O71:Z71" si="43">N71*(1+O87)</f>
         <v>197738.804</v>
       </c>
       <c r="P71" s="116">
@@ -8632,11 +8648,11 @@
       <c r="K72" s="205"/>
       <c r="L72" s="205">
         <f>597.9*1000 +L77+L76</f>
-        <v>653300</v>
+        <v>690700</v>
       </c>
       <c r="M72" s="205">
         <f>M75+M76+M77</f>
-        <v>87800</v>
+        <v>84200</v>
       </c>
       <c r="N72" s="205">
         <f>VLOOKUP($C$72,'Haver NA'!$A$1:$J$34,10,0)</f>
@@ -8675,63 +8691,63 @@
       <c r="K73" s="202"/>
       <c r="L73" s="206">
         <f>SUM(L75:L77)</f>
-        <v>90400</v>
+        <v>127800</v>
       </c>
       <c r="M73" s="206">
         <f>SUM(M75:M77)</f>
-        <v>87800</v>
+        <v>84200</v>
       </c>
       <c r="N73" s="206">
         <f>SUM(N75:N77)</f>
-        <v>87200</v>
+        <v>89000</v>
       </c>
       <c r="O73" s="116">
         <f t="shared" ref="O73:Z73" si="44">O74+O78</f>
-        <v>145000</v>
+        <v>165000</v>
       </c>
       <c r="P73" s="116">
         <f t="shared" si="44"/>
-        <v>117000</v>
+        <v>109000</v>
       </c>
       <c r="Q73" s="116">
         <f t="shared" si="44"/>
-        <v>117000</v>
+        <v>109000</v>
       </c>
       <c r="R73" s="116">
         <f t="shared" si="44"/>
-        <v>111000</v>
+        <v>109000</v>
       </c>
       <c r="S73" s="116">
         <f t="shared" si="44"/>
-        <v>105000</v>
+        <v>109000</v>
       </c>
       <c r="T73" s="116">
         <f t="shared" si="44"/>
-        <v>105000</v>
+        <v>109000</v>
       </c>
       <c r="U73" s="116">
         <f t="shared" si="44"/>
-        <v>105000</v>
+        <v>109000</v>
       </c>
       <c r="V73" s="116">
         <f t="shared" si="44"/>
-        <v>105000</v>
+        <v>109000</v>
       </c>
       <c r="W73" s="116">
         <f t="shared" si="44"/>
-        <v>105000</v>
+        <v>109000</v>
       </c>
       <c r="X73" s="116">
         <f t="shared" si="44"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="Y73" s="116">
         <f t="shared" si="44"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="Z73" s="116">
         <f t="shared" si="44"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="AA73" s="116"/>
       <c r="AB73" s="116"/>
@@ -8757,19 +8773,19 @@
       <c r="N74" s="308"/>
       <c r="O74" s="116">
         <f t="shared" ref="O74:Z74" si="45">SUM(O75:O77)</f>
-        <v>90000</v>
+        <v>106000</v>
       </c>
       <c r="P74" s="116">
         <f t="shared" si="45"/>
-        <v>62000</v>
+        <v>50000</v>
       </c>
       <c r="Q74" s="116">
         <f t="shared" si="45"/>
-        <v>62000</v>
+        <v>50000</v>
       </c>
       <c r="R74" s="116">
         <f t="shared" si="45"/>
-        <v>56000</v>
+        <v>50000</v>
       </c>
       <c r="S74" s="116">
         <f t="shared" si="45"/>
@@ -8820,7 +8836,7 @@
         <v>280</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
@@ -8878,13 +8894,13 @@
     </row>
     <row r="76" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="334" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B76" s="107" t="s">
         <v>280</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F76" s="335"/>
       <c r="G76" s="335"/>
@@ -8902,11 +8918,17 @@
         <v>15200</v>
       </c>
       <c r="O76" s="337">
-        <v>18000</v>
-      </c>
-      <c r="P76" s="337"/>
-      <c r="Q76" s="337"/>
-      <c r="R76" s="337"/>
+        <v>28900</v>
+      </c>
+      <c r="P76" s="337">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="337">
+        <v>0</v>
+      </c>
+      <c r="R76" s="337">
+        <v>0</v>
+      </c>
       <c r="S76" s="330"/>
       <c r="T76" s="330"/>
       <c r="U76" s="330"/>
@@ -8932,7 +8954,7 @@
         <v>280</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F77" s="335"/>
       <c r="G77" s="335"/>
@@ -8941,26 +8963,20 @@
       <c r="J77" s="326"/>
       <c r="K77" s="326"/>
       <c r="L77" s="326">
-        <v>27000</v>
-      </c>
-      <c r="M77" s="327">
-        <v>27000</v>
+        <v>64400</v>
+      </c>
+      <c r="M77" s="339">
+        <v>23400</v>
       </c>
       <c r="N77" s="336">
-        <v>12000</v>
+        <v>13800</v>
       </c>
       <c r="O77" s="337">
-        <v>12000</v>
-      </c>
-      <c r="P77" s="337">
-        <v>12000</v>
-      </c>
-      <c r="Q77" s="337">
-        <v>12000</v>
-      </c>
-      <c r="R77" s="337">
-        <v>6000</v>
-      </c>
+        <v>17100</v>
+      </c>
+      <c r="P77" s="337"/>
+      <c r="Q77" s="337"/>
+      <c r="R77" s="337"/>
       <c r="S77" s="330"/>
       <c r="T77" s="330"/>
       <c r="U77" s="330"/>
@@ -8992,52 +9008,52 @@
       <c r="M78" s="301"/>
       <c r="N78" s="308"/>
       <c r="O78" s="116">
-        <f t="shared" ref="O78:Z78" si="46">SUM(O79:O81)</f>
-        <v>55000</v>
+        <f>SUM(O79:O82)</f>
+        <v>59000</v>
       </c>
       <c r="P78" s="116">
-        <f t="shared" si="46"/>
-        <v>55000</v>
+        <f t="shared" ref="P78:Z78" si="46">SUM(P79:P82)</f>
+        <v>59000</v>
       </c>
       <c r="Q78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="R78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="S78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="T78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="U78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="V78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="W78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="X78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="Y78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="Z78" s="116">
         <f t="shared" si="46"/>
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="AA78" s="116"/>
       <c r="AB78" s="44"/>
@@ -9190,7 +9206,7 @@
     </row>
     <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="282" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F81" s="197"/>
       <c r="G81" s="197"/>
@@ -9202,52 +9218,52 @@
       <c r="M81" s="301"/>
       <c r="N81" s="308"/>
       <c r="O81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="P81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="Q81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="R81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="S81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="T81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="U81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="V81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="W81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="X81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="Y81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="Z81" s="279">
-        <f>'Stimulus Round 2'!$C$16*4/12</f>
-        <v>18000</v>
+        <f>'Stimulus Round 2'!$C$10*4/12</f>
+        <v>4000</v>
       </c>
       <c r="AA81" s="276"/>
       <c r="AB81" s="276"/>
@@ -9258,112 +9274,151 @@
       <c r="AG81" s="276"/>
       <c r="AM81" s="280"/>
     </row>
-    <row r="82" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="145" t="s">
-        <v>216</v>
-      </c>
-      <c r="B82" s="141"/>
-      <c r="E82" s="141"/>
+    <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="282" t="s">
+        <v>349</v>
+      </c>
       <c r="F82" s="197"/>
       <c r="G82" s="197"/>
       <c r="H82" s="197"/>
       <c r="I82" s="202"/>
       <c r="J82" s="202"/>
-      <c r="K82" s="202">
-        <f>K68-K92</f>
-        <v>204376</v>
-      </c>
-      <c r="L82" s="206">
-        <f t="shared" ref="L82:Z82" si="47">L71+L73</f>
-        <v>321350</v>
-      </c>
-      <c r="M82" s="206">
-        <f t="shared" si="47"/>
-        <v>291400</v>
-      </c>
-      <c r="N82" s="308">
-        <f t="shared" si="47"/>
-        <v>284151</v>
-      </c>
-      <c r="O82" s="144">
-        <f t="shared" si="47"/>
-        <v>342738.804</v>
-      </c>
-      <c r="P82" s="144">
-        <f t="shared" si="47"/>
-        <v>315529.75921599998</v>
-      </c>
-      <c r="Q82" s="144">
-        <f t="shared" si="47"/>
-        <v>316323.878252864</v>
-      </c>
-      <c r="R82" s="144">
-        <f t="shared" si="47"/>
-        <v>311121.17376587546</v>
-      </c>
-      <c r="S82" s="144">
-        <f t="shared" si="47"/>
-        <v>305921.65846093895</v>
-      </c>
-      <c r="T82" s="144">
-        <f t="shared" si="47"/>
-        <v>306725.34509478271</v>
-      </c>
-      <c r="U82" s="144">
-        <f t="shared" si="47"/>
-        <v>307532.24647516187</v>
-      </c>
-      <c r="V82" s="144">
-        <f t="shared" si="47"/>
-        <v>308342.37546106247</v>
-      </c>
-      <c r="W82" s="144">
-        <f t="shared" si="47"/>
-        <v>309155.7449629067</v>
-      </c>
-      <c r="X82" s="144">
-        <f t="shared" si="47"/>
-        <v>259972.36794275834</v>
-      </c>
-      <c r="Y82" s="144">
-        <f t="shared" si="47"/>
-        <v>260792.25741452936</v>
-      </c>
-      <c r="Z82" s="144">
-        <f t="shared" si="47"/>
-        <v>261615.42644418747</v>
-      </c>
-      <c r="AA82" s="44"/>
-      <c r="AB82" s="44"/>
-      <c r="AC82" s="44"/>
-      <c r="AD82" s="44"/>
-      <c r="AE82" s="44"/>
-      <c r="AF82" s="44"/>
-      <c r="AG82" s="44"/>
-      <c r="AM82" s="233"/>
+      <c r="K82" s="202"/>
+      <c r="L82" s="202"/>
+      <c r="M82" s="301"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="P82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="Q82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="R82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="S82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="T82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="U82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="V82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="W82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="X82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="Y82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="Z82" s="279">
+        <f>'Stimulus Round 2'!$C$16*4/12</f>
+        <v>18000</v>
+      </c>
+      <c r="AA82" s="276"/>
+      <c r="AB82" s="276"/>
+      <c r="AC82" s="276"/>
+      <c r="AD82" s="276"/>
+      <c r="AE82" s="276"/>
+      <c r="AF82" s="276"/>
+      <c r="AG82" s="276"/>
+      <c r="AM82" s="280"/>
     </row>
     <row r="83" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="141"/>
+      <c r="E83" s="141"/>
       <c r="F83" s="197"/>
       <c r="G83" s="197"/>
       <c r="H83" s="197"/>
-      <c r="I83" s="197"/>
-      <c r="J83" s="197"/>
-      <c r="K83" s="197"/>
-      <c r="L83" s="203"/>
-      <c r="M83" s="301"/>
-      <c r="N83" s="310"/>
-      <c r="O83" s="135"/>
-      <c r="P83" s="135"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="44"/>
-      <c r="W83" s="44"/>
-      <c r="X83" s="44"/>
-      <c r="Y83" s="44"/>
-      <c r="Z83" s="44"/>
+      <c r="I83" s="202"/>
+      <c r="J83" s="202"/>
+      <c r="K83" s="202">
+        <f>K68-K93</f>
+        <v>204376</v>
+      </c>
+      <c r="L83" s="206">
+        <f t="shared" ref="L83:Z83" si="47">L71+L73</f>
+        <v>321350</v>
+      </c>
+      <c r="M83" s="206">
+        <f t="shared" si="47"/>
+        <v>287800</v>
+      </c>
+      <c r="N83" s="308">
+        <f t="shared" si="47"/>
+        <v>285951</v>
+      </c>
+      <c r="O83" s="144">
+        <f t="shared" si="47"/>
+        <v>362738.804</v>
+      </c>
+      <c r="P83" s="144">
+        <f t="shared" si="47"/>
+        <v>307529.75921599998</v>
+      </c>
+      <c r="Q83" s="144">
+        <f t="shared" si="47"/>
+        <v>308323.878252864</v>
+      </c>
+      <c r="R83" s="144">
+        <f t="shared" si="47"/>
+        <v>309121.17376587546</v>
+      </c>
+      <c r="S83" s="144">
+        <f t="shared" si="47"/>
+        <v>309921.65846093895</v>
+      </c>
+      <c r="T83" s="144">
+        <f t="shared" si="47"/>
+        <v>310725.34509478271</v>
+      </c>
+      <c r="U83" s="144">
+        <f t="shared" si="47"/>
+        <v>311532.24647516187</v>
+      </c>
+      <c r="V83" s="144">
+        <f t="shared" si="47"/>
+        <v>312342.37546106247</v>
+      </c>
+      <c r="W83" s="144">
+        <f t="shared" si="47"/>
+        <v>313155.7449629067</v>
+      </c>
+      <c r="X83" s="144">
+        <f t="shared" si="47"/>
+        <v>263972.36794275837</v>
+      </c>
+      <c r="Y83" s="144">
+        <f t="shared" si="47"/>
+        <v>264792.25741452933</v>
+      </c>
+      <c r="Z83" s="144">
+        <f t="shared" si="47"/>
+        <v>265615.42644418747</v>
+      </c>
       <c r="AA83" s="44"/>
       <c r="AB83" s="44"/>
       <c r="AC83" s="44"/>
@@ -9374,51 +9429,22 @@
       <c r="AM83" s="233"/>
     </row>
     <row r="84" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" t="s">
-        <v>314</v>
-      </c>
-      <c r="D84"/>
-      <c r="F84" s="206">
-        <v>1241.5999999999999</v>
-      </c>
-      <c r="G84" s="206">
-        <v>1245.8</v>
-      </c>
-      <c r="H84" s="206">
-        <v>1473.6</v>
-      </c>
-      <c r="I84" s="206">
-        <v>1288.5</v>
-      </c>
-      <c r="J84" s="206">
-        <v>1301.0999999999999</v>
-      </c>
-      <c r="K84" s="206">
-        <v>1306.0999999999999</v>
-      </c>
-      <c r="L84" s="206">
-        <v>1360.1</v>
-      </c>
-      <c r="M84" s="301">
-        <v>1335.133</v>
-      </c>
-      <c r="N84" s="308">
-        <f>VLOOKUP($C$84,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>1333.307</v>
-      </c>
-      <c r="O84" s="116"/>
-      <c r="P84" s="116"/>
-      <c r="Q84" s="116"/>
-      <c r="R84" s="116"/>
-      <c r="S84" s="116"/>
-      <c r="T84" s="116"/>
-      <c r="U84" s="116"/>
+      <c r="F84" s="197"/>
+      <c r="G84" s="197"/>
+      <c r="H84" s="197"/>
+      <c r="I84" s="197"/>
+      <c r="J84" s="197"/>
+      <c r="K84" s="197"/>
+      <c r="L84" s="203"/>
+      <c r="M84" s="301"/>
+      <c r="N84" s="310"/>
+      <c r="O84" s="135"/>
+      <c r="P84" s="135"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
       <c r="V84" s="44"/>
       <c r="W84" s="44"/>
       <c r="X84" s="44"/>
@@ -9431,81 +9457,63 @@
       <c r="AE84" s="44"/>
       <c r="AF84" s="44"/>
       <c r="AG84" s="44"/>
-      <c r="AI84" s="44"/>
-      <c r="AJ84" s="44"/>
-      <c r="AK84" s="44"/>
-      <c r="AL84" s="44"/>
-      <c r="AM84" s="235"/>
+      <c r="AM84" s="233"/>
     </row>
     <row r="85" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="114" t="s">
-        <v>203</v>
+      <c r="A85" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D85"/>
-      <c r="F85" s="197"/>
-      <c r="G85" s="197"/>
-      <c r="H85" s="197"/>
-      <c r="I85" s="197"/>
-      <c r="J85" s="197">
-        <v>1447.9</v>
-      </c>
-      <c r="K85" s="197">
-        <v>1452.6</v>
-      </c>
-      <c r="L85" s="197">
-        <v>1504.8</v>
+      <c r="F85" s="206">
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="G85" s="206">
+        <v>1245.8</v>
+      </c>
+      <c r="H85" s="206">
+        <v>1473.6</v>
+      </c>
+      <c r="I85" s="206">
+        <v>1288.5</v>
+      </c>
+      <c r="J85" s="206">
+        <v>1301.0999999999999</v>
+      </c>
+      <c r="K85" s="206">
+        <v>1306.0999999999999</v>
+      </c>
+      <c r="L85" s="206">
+        <v>1360.1</v>
       </c>
       <c r="M85" s="301">
-        <v>1487.0350000000001</v>
-      </c>
-      <c r="N85" s="301">
+        <v>1335.133</v>
+      </c>
+      <c r="N85" s="308">
         <f>VLOOKUP($C$85,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>1493.5530000000001</v>
-      </c>
-      <c r="O85">
-        <v>1504.3514552807801</v>
-      </c>
-      <c r="P85">
-        <v>1511.252602267454</v>
-      </c>
-      <c r="Q85">
-        <v>1519.3368030232709</v>
-      </c>
-      <c r="R85">
-        <v>1530.997960524671</v>
-      </c>
-      <c r="S85">
-        <v>1544.2799915439159</v>
-      </c>
-      <c r="T85">
-        <v>1557.72908484966</v>
-      </c>
-      <c r="U85">
-        <v>1572.6694039177321</v>
-      </c>
-      <c r="V85">
-        <v>1586.4153149483291</v>
-      </c>
-      <c r="W85">
-        <v>1601.682526026475</v>
-      </c>
-      <c r="X85">
-        <v>1615.690158481731</v>
-      </c>
-      <c r="Y85">
-        <v>1631.2333657547081</v>
-      </c>
-      <c r="Z85">
-        <v>1646.9554971985581</v>
-      </c>
-      <c r="AA85"/>
-      <c r="AB85"/>
+        <v>1333.307</v>
+      </c>
+      <c r="O85" s="116"/>
+      <c r="P85" s="116"/>
+      <c r="Q85" s="116"/>
+      <c r="R85" s="116"/>
+      <c r="S85" s="116"/>
+      <c r="T85" s="116"/>
+      <c r="U85" s="116"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="44"/>
+      <c r="Z85" s="44"/>
+      <c r="AA85" s="44"/>
+      <c r="AB85" s="44"/>
+      <c r="AC85" s="44"/>
+      <c r="AD85" s="44"/>
       <c r="AE85" s="44"/>
       <c r="AF85" s="44"/>
       <c r="AG85" s="44"/>
@@ -9517,59 +9525,70 @@
     </row>
     <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="114" t="s">
-        <v>379</v>
-      </c>
-      <c r="C86"/>
+        <v>203</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" t="s">
+        <v>315</v>
+      </c>
       <c r="D86"/>
       <c r="F86" s="197"/>
       <c r="G86" s="197"/>
       <c r="H86" s="197"/>
       <c r="I86" s="197"/>
-      <c r="J86" s="197"/>
-      <c r="K86" s="197"/>
-      <c r="L86" s="197"/>
-      <c r="M86" s="302">
-        <v>-1.1805555555555514E-2</v>
-      </c>
-      <c r="N86" s="311">
-        <f>N84/M84-1</f>
-        <v>-1.3676540090014067E-3</v>
-      </c>
-      <c r="O86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="V86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="W86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="X86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Y86" s="196">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Z86" s="196">
-        <v>4.0000000000000001E-3</v>
+      <c r="J86" s="197">
+        <v>1447.9</v>
+      </c>
+      <c r="K86" s="197">
+        <v>1452.6</v>
+      </c>
+      <c r="L86" s="197">
+        <v>1504.8</v>
+      </c>
+      <c r="M86" s="301">
+        <v>1487.0350000000001</v>
+      </c>
+      <c r="N86" s="301">
+        <f>VLOOKUP($C$86,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+        <v>1493.5530000000001</v>
+      </c>
+      <c r="O86">
+        <v>1504.3514552807801</v>
+      </c>
+      <c r="P86">
+        <v>1511.252602267454</v>
+      </c>
+      <c r="Q86">
+        <v>1519.3368030232709</v>
+      </c>
+      <c r="R86">
+        <v>1530.997960524671</v>
+      </c>
+      <c r="S86">
+        <v>1544.2799915439159</v>
+      </c>
+      <c r="T86">
+        <v>1557.72908484966</v>
+      </c>
+      <c r="U86">
+        <v>1572.6694039177321</v>
+      </c>
+      <c r="V86">
+        <v>1586.4153149483291</v>
+      </c>
+      <c r="W86">
+        <v>1601.682526026475</v>
+      </c>
+      <c r="X86">
+        <v>1615.690158481731</v>
+      </c>
+      <c r="Y86">
+        <v>1631.2333657547081</v>
+      </c>
+      <c r="Z86">
+        <v>1646.9554971985581</v>
       </c>
       <c r="AA86"/>
       <c r="AB86"/>
@@ -9582,74 +9601,76 @@
       <c r="AL86" s="44"/>
       <c r="AM86" s="235"/>
     </row>
-    <row r="87" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A87" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="F87" s="207"/>
-      <c r="G87" s="207"/>
-      <c r="H87" s="207"/>
-      <c r="I87" s="207"/>
-      <c r="J87" s="207"/>
-      <c r="K87" s="207"/>
-      <c r="L87" s="207"/>
+    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="114" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="F87" s="197"/>
+      <c r="G87" s="197"/>
+      <c r="H87" s="197"/>
+      <c r="I87" s="197"/>
+      <c r="J87" s="197"/>
+      <c r="K87" s="197"/>
+      <c r="L87" s="197"/>
       <c r="M87" s="302">
         <v>-1.1805555555555514E-2</v>
       </c>
       <c r="N87" s="311">
         <f>N85/M85-1</f>
-        <v>4.3832189558417056E-3</v>
+        <v>-1.3676540090014067E-3</v>
       </c>
       <c r="O87" s="196">
-        <v>5.3394154743755307E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P87" s="196">
-        <v>-1.9703807284052632E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q87" s="196">
-        <v>-4.084808403034379E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="R87" s="196">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S87" s="196">
-        <v>2.4739583333333037E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T87" s="196">
-        <v>1.6235874788934623E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U87" s="196">
-        <v>3.9551319457953316E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V87" s="196">
-        <v>3.8749677086025169E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="W87" s="196">
-        <v>3.9243437982501295E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="X87" s="196">
-        <v>3.0118551746236566E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y87" s="196">
-        <v>3.9611551239457921E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Z87" s="196">
-        <v>5.027364133893153E-3</v>
-      </c>
-      <c r="AA87" s="186"/>
-      <c r="AB87" s="186"/>
-      <c r="AE87" s="187"/>
-      <c r="AF87" s="187"/>
-      <c r="AG87" s="187"/>
-      <c r="AI87" s="187"/>
-      <c r="AJ87" s="187"/>
-      <c r="AK87" s="187"/>
-      <c r="AL87" s="187"/>
-      <c r="AM87" s="237"/>
-    </row>
-    <row r="88" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="114" t="s">
-        <v>355</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AE87" s="44"/>
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="44"/>
+      <c r="AI87" s="44"/>
+      <c r="AJ87" s="44"/>
+      <c r="AK87" s="44"/>
+      <c r="AL87" s="44"/>
+      <c r="AM87" s="235"/>
+    </row>
+    <row r="88" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A88" s="169" t="s">
+        <v>202</v>
       </c>
       <c r="F88" s="207"/>
       <c r="G88" s="207"/>
@@ -9658,32 +9679,49 @@
       <c r="J88" s="207"/>
       <c r="K88" s="207"/>
       <c r="L88" s="207"/>
-      <c r="M88" s="302"/>
-      <c r="N88" s="311"/>
-      <c r="O88" s="102">
-        <f>SUM(O89:O91)</f>
-        <v>71400</v>
-      </c>
-      <c r="P88" s="102">
-        <f t="shared" ref="P88:R88" si="48">SUM(P89:P91)</f>
-        <v>71400</v>
-      </c>
-      <c r="Q88" s="102">
-        <f t="shared" si="48"/>
-        <v>30600</v>
-      </c>
-      <c r="R88" s="102">
-        <f t="shared" si="48"/>
-        <v>30600</v>
-      </c>
-      <c r="S88" s="186"/>
-      <c r="T88" s="186"/>
-      <c r="U88" s="186"/>
-      <c r="V88" s="186"/>
-      <c r="W88" s="186"/>
-      <c r="X88" s="186"/>
-      <c r="Y88" s="186"/>
-      <c r="Z88" s="186"/>
+      <c r="M88" s="302">
+        <v>-1.1805555555555514E-2</v>
+      </c>
+      <c r="N88" s="311">
+        <f>N86/M86-1</f>
+        <v>4.3832189558417056E-3</v>
+      </c>
+      <c r="O88" s="196">
+        <v>5.3394154743755307E-2</v>
+      </c>
+      <c r="P88" s="196">
+        <v>-1.9703807284052632E-2</v>
+      </c>
+      <c r="Q88" s="196">
+        <v>-4.084808403034379E-3</v>
+      </c>
+      <c r="R88" s="196">
+        <v>0</v>
+      </c>
+      <c r="S88" s="196">
+        <v>2.4739583333333037E-3</v>
+      </c>
+      <c r="T88" s="196">
+        <v>1.6235874788934623E-3</v>
+      </c>
+      <c r="U88" s="196">
+        <v>3.9551319457953316E-3</v>
+      </c>
+      <c r="V88" s="196">
+        <v>3.8749677086025169E-3</v>
+      </c>
+      <c r="W88" s="196">
+        <v>3.9243437982501295E-3</v>
+      </c>
+      <c r="X88" s="196">
+        <v>3.0118551746236566E-3</v>
+      </c>
+      <c r="Y88" s="196">
+        <v>3.9611551239457921E-3</v>
+      </c>
+      <c r="Z88" s="196">
+        <v>5.027364133893153E-3</v>
+      </c>
       <c r="AA88" s="186"/>
       <c r="AB88" s="186"/>
       <c r="AE88" s="187"/>
@@ -9695,53 +9733,53 @@
       <c r="AL88" s="187"/>
       <c r="AM88" s="237"/>
     </row>
-    <row r="89" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="284" t="s">
-        <v>351</v>
-      </c>
-      <c r="F89" s="300"/>
-      <c r="G89" s="300"/>
-      <c r="H89" s="300"/>
-      <c r="I89" s="300"/>
-      <c r="J89" s="300"/>
-      <c r="K89" s="300"/>
-      <c r="L89" s="300"/>
-      <c r="M89" s="305"/>
-      <c r="N89" s="312"/>
-      <c r="O89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
-        <v>30799.999999999996</v>
-      </c>
-      <c r="P89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
-        <v>30799.999999999996</v>
-      </c>
-      <c r="Q89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
-        <v>13200</v>
-      </c>
-      <c r="R89" s="279">
-        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
-        <v>13200</v>
-      </c>
-      <c r="S89" s="286"/>
-      <c r="T89" s="286"/>
-      <c r="U89" s="286"/>
-      <c r="V89" s="286"/>
-      <c r="W89" s="286"/>
-      <c r="X89" s="286"/>
-      <c r="Y89" s="286"/>
-      <c r="Z89" s="286"/>
-      <c r="AA89" s="286"/>
-      <c r="AB89" s="286"/>
-      <c r="AE89" s="287"/>
-      <c r="AF89" s="287"/>
-      <c r="AG89" s="287"/>
-      <c r="AI89" s="287"/>
-      <c r="AJ89" s="287"/>
-      <c r="AK89" s="287"/>
-      <c r="AL89" s="287"/>
-      <c r="AM89" s="288"/>
+    <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="114" t="s">
+        <v>356</v>
+      </c>
+      <c r="F89" s="207"/>
+      <c r="G89" s="207"/>
+      <c r="H89" s="207"/>
+      <c r="I89" s="207"/>
+      <c r="J89" s="207"/>
+      <c r="K89" s="207"/>
+      <c r="L89" s="207"/>
+      <c r="M89" s="302"/>
+      <c r="N89" s="311"/>
+      <c r="O89" s="102">
+        <f>SUM(O90:O92)</f>
+        <v>71400</v>
+      </c>
+      <c r="P89" s="102">
+        <f t="shared" ref="P89:R89" si="48">SUM(P90:P92)</f>
+        <v>71400</v>
+      </c>
+      <c r="Q89" s="102">
+        <f t="shared" si="48"/>
+        <v>30600</v>
+      </c>
+      <c r="R89" s="102">
+        <f t="shared" si="48"/>
+        <v>30600</v>
+      </c>
+      <c r="S89" s="186"/>
+      <c r="T89" s="186"/>
+      <c r="U89" s="186"/>
+      <c r="V89" s="186"/>
+      <c r="W89" s="186"/>
+      <c r="X89" s="186"/>
+      <c r="Y89" s="186"/>
+      <c r="Z89" s="186"/>
+      <c r="AA89" s="186"/>
+      <c r="AB89" s="186"/>
+      <c r="AE89" s="187"/>
+      <c r="AF89" s="187"/>
+      <c r="AG89" s="187"/>
+      <c r="AI89" s="187"/>
+      <c r="AJ89" s="187"/>
+      <c r="AK89" s="187"/>
+      <c r="AL89" s="187"/>
+      <c r="AM89" s="237"/>
     </row>
     <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="284" t="s">
@@ -9757,20 +9795,20 @@
       <c r="M90" s="305"/>
       <c r="N90" s="312"/>
       <c r="O90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
-        <v>28000</v>
+        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
+        <v>30799.999999999996</v>
       </c>
       <c r="P90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
-        <v>28000</v>
+        <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
+        <v>30799.999999999996</v>
       </c>
       <c r="Q90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
-        <v>12000</v>
+        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
+        <v>13200</v>
       </c>
       <c r="R90" s="279">
-        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
-        <v>12000</v>
+        <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
+        <v>13200</v>
       </c>
       <c r="S90" s="286"/>
       <c r="T90" s="286"/>
@@ -9805,20 +9843,20 @@
       <c r="M91" s="305"/>
       <c r="N91" s="312"/>
       <c r="O91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
-        <v>12600</v>
+        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
+        <v>28000</v>
       </c>
       <c r="P91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
-        <v>12600</v>
+        <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
+        <v>28000</v>
       </c>
       <c r="Q91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
-        <v>5400</v>
+        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
+        <v>12000</v>
       </c>
       <c r="R91" s="279">
-        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
-        <v>5400</v>
+        <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
+        <v>12000</v>
       </c>
       <c r="S91" s="286"/>
       <c r="T91" s="286"/>
@@ -9839,1021 +9877,1018 @@
       <c r="AL91" s="287"/>
       <c r="AM91" s="288"/>
     </row>
-    <row r="92" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="35" t="s">
+    <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="284" t="s">
+        <v>354</v>
+      </c>
+      <c r="F92" s="300"/>
+      <c r="G92" s="300"/>
+      <c r="H92" s="300"/>
+      <c r="I92" s="300"/>
+      <c r="J92" s="300"/>
+      <c r="K92" s="300"/>
+      <c r="L92" s="300"/>
+      <c r="M92" s="305"/>
+      <c r="N92" s="312"/>
+      <c r="O92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
+        <v>12600</v>
+      </c>
+      <c r="P92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
+        <v>12600</v>
+      </c>
+      <c r="Q92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
+        <v>5400</v>
+      </c>
+      <c r="R92" s="279">
+        <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
+        <v>5400</v>
+      </c>
+      <c r="S92" s="286"/>
+      <c r="T92" s="286"/>
+      <c r="U92" s="286"/>
+      <c r="V92" s="286"/>
+      <c r="W92" s="286"/>
+      <c r="X92" s="286"/>
+      <c r="Y92" s="286"/>
+      <c r="Z92" s="286"/>
+      <c r="AA92" s="286"/>
+      <c r="AB92" s="286"/>
+      <c r="AE92" s="287"/>
+      <c r="AF92" s="287"/>
+      <c r="AG92" s="287"/>
+      <c r="AI92" s="287"/>
+      <c r="AJ92" s="287"/>
+      <c r="AK92" s="287"/>
+      <c r="AL92" s="287"/>
+      <c r="AM92" s="288"/>
+    </row>
+    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B93" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>316</v>
       </c>
-      <c r="D92"/>
-      <c r="F92" s="206">
+      <c r="D93"/>
+      <c r="F93" s="206">
         <v>389624</v>
       </c>
-      <c r="G92" s="206">
+      <c r="G93" s="206">
         <v>404529</v>
       </c>
-      <c r="H92" s="206">
+      <c r="H93" s="206">
         <v>419672</v>
       </c>
-      <c r="I92" s="206">
+      <c r="I93" s="206">
         <v>418824</v>
       </c>
-      <c r="J92" s="206">
+      <c r="J93" s="206">
         <v>411409</v>
       </c>
-      <c r="K92" s="206">
+      <c r="K93" s="206">
         <v>423429</v>
       </c>
-      <c r="L92" s="206">
+      <c r="L93" s="206">
         <v>512640</v>
       </c>
-      <c r="M92" s="301">
+      <c r="M93" s="301">
         <v>486072</v>
       </c>
-      <c r="N92" s="308">
-        <f>VLOOKUP($C$92,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="N93" s="308">
+        <f>VLOOKUP($C$93,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>512193</v>
       </c>
-      <c r="O92" s="116">
-        <f t="shared" ref="O92:S92" si="49">O99*0.74</f>
+      <c r="O93" s="116">
+        <f t="shared" ref="O93:S93" si="49">O100*0.74</f>
         <v>507477.24811825115</v>
       </c>
-      <c r="P92" s="116">
+      <c r="P93" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="Q92" s="116">
+      <c r="Q93" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="R92" s="116">
+      <c r="R93" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="S92" s="116">
+      <c r="S93" s="116">
         <f t="shared" si="49"/>
         <v>512541.31638321205</v>
       </c>
-      <c r="T92" s="116">
-        <f>T99*0.68</f>
+      <c r="T93" s="116">
+        <f>T100*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="U92" s="116">
-        <f>U99*0.68</f>
+      <c r="U93" s="116">
+        <f>U100*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="V92" s="116">
-        <f>V99*0.68</f>
+      <c r="V93" s="116">
+        <f>V100*0.68</f>
         <v>470983.91235214088</v>
       </c>
-      <c r="W92" s="116"/>
-      <c r="X92" s="116"/>
-      <c r="Y92" s="116"/>
-      <c r="Z92" s="116"/>
-      <c r="AA92" s="116"/>
-      <c r="AB92" s="116"/>
-      <c r="AC92" s="44">
-        <f>AVERAGE(F92:I92)/1000</f>
+      <c r="W93" s="116"/>
+      <c r="X93" s="116"/>
+      <c r="Y93" s="116"/>
+      <c r="Z93" s="116"/>
+      <c r="AA93" s="116"/>
+      <c r="AB93" s="116"/>
+      <c r="AC93" s="44">
+        <f>AVERAGE(F93:I93)/1000</f>
         <v>408.16224999999997</v>
       </c>
-      <c r="AD92" s="45">
-        <f>AVERAGE(J92:M92)</f>
+      <c r="AD93" s="45">
+        <f>AVERAGE(J93:M93)</f>
         <v>458387.5</v>
       </c>
-      <c r="AE92" s="45">
-        <f>AVERAGE(N92:Q92)</f>
+      <c r="AE93" s="45">
+        <f>AVERAGE(N93:Q93)</f>
         <v>511188.22022116883</v>
       </c>
-      <c r="AF92" s="45">
-        <f>AVERAGE(R92:U92)</f>
+      <c r="AF93" s="45">
+        <f>AVERAGE(R93:U93)</f>
         <v>491762.61436767643</v>
       </c>
-      <c r="AH92" s="35">
+      <c r="AH93" s="35">
         <v>409.42</v>
       </c>
-      <c r="AI92" s="84">
+      <c r="AI93" s="84">
         <f>'figuring out Medicaid'!G11</f>
         <v>466.24400000000003</v>
       </c>
-      <c r="AJ92" s="84">
+      <c r="AJ93" s="84">
         <f>'figuring out Medicaid'!H11</f>
         <v>537.41499999999996</v>
       </c>
-      <c r="AK92" s="84">
+      <c r="AK93" s="84">
         <f>'figuring out Medicaid'!I11</f>
         <v>516.01800000000003</v>
       </c>
-      <c r="AL92" s="84"/>
-      <c r="AM92" s="233"/>
-    </row>
-    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="141" t="s">
+      <c r="AL93" s="84"/>
+      <c r="AM93" s="233"/>
+    </row>
+    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="B93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="201">
-        <f t="shared" ref="F93:L93" si="50">F50+F47+F36+F42</f>
+      <c r="B94" s="141"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="201">
+        <f t="shared" ref="F94:L94" si="50">F50+F47+F36+F42</f>
         <v>1440187</v>
       </c>
-      <c r="G93" s="201">
+      <c r="G94" s="201">
         <f t="shared" si="50"/>
         <v>1503410</v>
       </c>
-      <c r="H93" s="201">
+      <c r="H94" s="201">
         <f t="shared" si="50"/>
         <v>1508652</v>
       </c>
-      <c r="I93" s="201">
+      <c r="I94" s="201">
         <f t="shared" si="50"/>
         <v>1513957</v>
       </c>
-      <c r="J93" s="201">
+      <c r="J94" s="201">
         <f t="shared" si="50"/>
         <v>1521941</v>
       </c>
-      <c r="K93" s="201">
+      <c r="K94" s="201">
         <f t="shared" si="50"/>
         <v>1574462</v>
       </c>
-      <c r="L93" s="201">
+      <c r="L94" s="201">
         <f t="shared" si="50"/>
         <v>3729557.333333333</v>
       </c>
-      <c r="M93" s="301">
+      <c r="M94" s="301">
         <v>2466001</v>
       </c>
-      <c r="N93" s="306">
+      <c r="N94" s="306">
         <f>N50+N47+N36+N42+N37</f>
         <v>2027793</v>
       </c>
-      <c r="O93" s="142">
-        <f t="shared" ref="O93:Z93" si="51">O50+O47+O36+O42+O37+O38+O39</f>
+      <c r="O94" s="142">
+        <f t="shared" ref="O94:Z94" si="51">O50+O47+O36+O42+O37+O38+O39</f>
         <v>3118123.8025000002</v>
       </c>
-      <c r="P93" s="142">
+      <c r="P94" s="142">
         <f t="shared" si="51"/>
         <v>1874848.87398125</v>
       </c>
-      <c r="Q93" s="142">
+      <c r="Q94" s="142">
         <f t="shared" si="51"/>
         <v>1686467.5074263907</v>
       </c>
-      <c r="R93" s="142">
+      <c r="R94" s="142">
         <f t="shared" si="51"/>
         <v>1683044.5200377863</v>
       </c>
-      <c r="S93" s="142">
+      <c r="S94" s="142">
         <f t="shared" si="51"/>
         <v>1687990.187838353</v>
       </c>
-      <c r="T93" s="142">
+      <c r="T94" s="142">
         <f t="shared" si="51"/>
         <v>1713310.0406559282</v>
       </c>
-      <c r="U93" s="142">
+      <c r="U94" s="142">
         <f t="shared" si="51"/>
         <v>1739009.691265767</v>
       </c>
-      <c r="V93" s="142">
+      <c r="V94" s="142">
         <f t="shared" si="51"/>
         <v>1756399.7881784246</v>
       </c>
-      <c r="W93" s="142">
+      <c r="W94" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="X93" s="142">
+      <c r="X94" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Y93" s="142">
+      <c r="Y94" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Z93" s="142">
+      <c r="Z94" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AM93" s="233"/>
-    </row>
-    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="141" t="s">
+      <c r="AM94" s="233"/>
+    </row>
+    <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="B94" s="141"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="197"/>
-      <c r="G94" s="197"/>
-      <c r="H94" s="197"/>
-      <c r="I94" s="197"/>
-      <c r="J94" s="197"/>
-      <c r="K94" s="197"/>
-      <c r="L94" s="203">
-        <f>L92+L35</f>
-        <v>1336698</v>
-      </c>
-      <c r="M94" s="301">
-        <v>1328805</v>
-      </c>
-      <c r="N94" s="310">
-        <f t="shared" ref="N94:Z94" si="52">N92+N35</f>
-        <v>1372787</v>
-      </c>
-      <c r="O94" s="143">
-        <f t="shared" si="52"/>
-        <v>1390610.1625906522</v>
-      </c>
-      <c r="P94" s="143">
-        <f t="shared" si="52"/>
-        <v>1418489.158978964</v>
-      </c>
-      <c r="Q94" s="143">
-        <f t="shared" si="52"/>
-        <v>1441583.4808422038</v>
-      </c>
-      <c r="R94" s="143">
-        <f t="shared" si="52"/>
-        <v>1483962.7404801806</v>
-      </c>
-      <c r="S94" s="143">
-        <f t="shared" si="52"/>
-        <v>1515727.7827888038</v>
-      </c>
-      <c r="T94" s="143">
-        <f t="shared" si="52"/>
-        <v>1506974.123618965</v>
-      </c>
-      <c r="U94" s="143">
-        <f t="shared" si="52"/>
-        <v>1540850.5361376633</v>
-      </c>
-      <c r="V94" s="143">
-        <f t="shared" si="52"/>
-        <v>1551631.6801380017</v>
-      </c>
-      <c r="W94" s="143">
-        <f t="shared" si="52"/>
-        <v>1091537.5543621723</v>
-      </c>
-      <c r="X94" s="143">
-        <f t="shared" si="52"/>
-        <v>1102537.0783156503</v>
-      </c>
-      <c r="Y94" s="143">
-        <f t="shared" si="52"/>
-        <v>1113647.4454798999</v>
-      </c>
-      <c r="Z94" s="143">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AM94" s="233"/>
-    </row>
-    <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="141"/>
+      <c r="E95" s="141"/>
       <c r="F95" s="197"/>
       <c r="G95" s="197"/>
       <c r="H95" s="197"/>
       <c r="I95" s="197"/>
       <c r="J95" s="197"/>
       <c r="K95" s="197"/>
-      <c r="L95" s="197"/>
-      <c r="M95" s="301"/>
-      <c r="N95" s="301"/>
+      <c r="L95" s="203">
+        <f>L93+L35</f>
+        <v>1336698</v>
+      </c>
+      <c r="M95" s="301">
+        <v>1328805</v>
+      </c>
+      <c r="N95" s="310">
+        <f t="shared" ref="N95:Z95" si="52">N93+N35</f>
+        <v>1372787</v>
+      </c>
+      <c r="O95" s="143">
+        <f t="shared" si="52"/>
+        <v>1390610.1625906522</v>
+      </c>
+      <c r="P95" s="143">
+        <f t="shared" si="52"/>
+        <v>1418489.158978964</v>
+      </c>
+      <c r="Q95" s="143">
+        <f t="shared" si="52"/>
+        <v>1441583.4808422038</v>
+      </c>
+      <c r="R95" s="143">
+        <f t="shared" si="52"/>
+        <v>1483962.7404801806</v>
+      </c>
+      <c r="S95" s="143">
+        <f t="shared" si="52"/>
+        <v>1515727.7827888038</v>
+      </c>
+      <c r="T95" s="143">
+        <f t="shared" si="52"/>
+        <v>1506974.123618965</v>
+      </c>
+      <c r="U95" s="143">
+        <f t="shared" si="52"/>
+        <v>1540850.5361376633</v>
+      </c>
+      <c r="V95" s="143">
+        <f t="shared" si="52"/>
+        <v>1551631.6801380017</v>
+      </c>
+      <c r="W95" s="143">
+        <f t="shared" si="52"/>
+        <v>1091537.5543621723</v>
+      </c>
+      <c r="X95" s="143">
+        <f t="shared" si="52"/>
+        <v>1102537.0783156503</v>
+      </c>
+      <c r="Y95" s="143">
+        <f t="shared" si="52"/>
+        <v>1113647.4454798999</v>
+      </c>
+      <c r="Z95" s="143">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="AM95" s="233"/>
     </row>
     <row r="96" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="35" t="s">
+      <c r="F96" s="197"/>
+      <c r="G96" s="197"/>
+      <c r="H96" s="197"/>
+      <c r="I96" s="197"/>
+      <c r="J96" s="197"/>
+      <c r="K96" s="197"/>
+      <c r="L96" s="197"/>
+      <c r="M96" s="301"/>
+      <c r="N96" s="301"/>
+      <c r="AM96" s="233"/>
+    </row>
+    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B97" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>317</v>
       </c>
-      <c r="D96"/>
-      <c r="F96" s="197">
+      <c r="D97"/>
+      <c r="F97" s="197">
         <v>728844</v>
       </c>
-      <c r="G96" s="197">
+      <c r="G97" s="197">
         <v>738714</v>
       </c>
-      <c r="H96" s="197">
+      <c r="H97" s="197">
         <v>755204</v>
       </c>
-      <c r="I96" s="197">
+      <c r="I97" s="197">
         <v>763370</v>
       </c>
-      <c r="J96" s="197">
+      <c r="J97" s="197">
         <v>760967</v>
       </c>
-      <c r="K96" s="197">
+      <c r="K97" s="197">
         <v>767087</v>
       </c>
-      <c r="L96" s="197">
+      <c r="L97" s="197">
         <v>812158</v>
       </c>
-      <c r="M96" s="301">
+      <c r="M97" s="301">
         <v>828480</v>
       </c>
-      <c r="N96" s="303">
-        <f>VLOOKUP($C$96,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="N97" s="303">
+        <f>VLOOKUP($C$97,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>818740</v>
       </c>
-      <c r="O96" s="133">
-        <f t="shared" ref="O96:U96" si="53">O97+O99</f>
+      <c r="O97" s="133">
+        <f t="shared" ref="O97:U97" si="53">O98+O100</f>
         <v>831250.83502466371</v>
       </c>
-      <c r="P96" s="133">
+      <c r="P97" s="133">
         <f t="shared" si="53"/>
         <v>838457.84744285408</v>
       </c>
-      <c r="Q96" s="133">
+      <c r="Q97" s="133">
         <f t="shared" si="53"/>
         <v>839187.01967747905</v>
       </c>
-      <c r="R96" s="133">
+      <c r="R97" s="133">
         <f t="shared" si="53"/>
         <v>840286.24682117626</v>
       </c>
-      <c r="S96" s="133">
+      <c r="S97" s="133">
         <f t="shared" si="53"/>
         <v>841762.8752842095</v>
       </c>
-      <c r="T96" s="133">
+      <c r="T97" s="133">
         <f t="shared" si="53"/>
         <v>843107.97501111636</v>
       </c>
-      <c r="U96" s="133">
+      <c r="U97" s="133">
         <f t="shared" si="53"/>
         <v>844539.45728929248</v>
       </c>
-      <c r="V96" s="133">
-        <f t="shared" ref="V96" si="54">V97+V99</f>
+      <c r="V97" s="133">
+        <f t="shared" ref="V97" si="54">V98+V100</f>
         <v>846032.64138980373</v>
       </c>
-      <c r="AM96" s="233"/>
-    </row>
-    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
+      <c r="AM97" s="233"/>
+    </row>
+    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F97" s="203">
-        <f t="shared" ref="F97:K97" si="55">F96-F99</f>
+      <c r="F98" s="203">
+        <f t="shared" ref="F98:K98" si="55">F97-F100</f>
         <v>139025</v>
       </c>
-      <c r="G97" s="203">
+      <c r="G98" s="203">
         <f t="shared" si="55"/>
         <v>139342</v>
       </c>
-      <c r="H97" s="203">
+      <c r="H98" s="203">
         <f t="shared" si="55"/>
         <v>140228</v>
       </c>
-      <c r="I97" s="203">
+      <c r="I98" s="203">
         <f t="shared" si="55"/>
         <v>141105</v>
       </c>
-      <c r="J97" s="203">
+      <c r="J98" s="203">
         <f t="shared" si="55"/>
         <v>141335</v>
       </c>
-      <c r="K97" s="203">
+      <c r="K98" s="203">
         <f t="shared" si="55"/>
         <v>142991</v>
       </c>
-      <c r="L97" s="203">
-        <f>L96-L99</f>
+      <c r="L98" s="203">
+        <f>L97-L100</f>
         <v>143335</v>
       </c>
-      <c r="M97" s="301">
+      <c r="M98" s="301">
         <v>144777</v>
       </c>
-      <c r="N97" s="303">
-        <f>N96-N99</f>
+      <c r="N98" s="303">
+        <f>N97-N100</f>
         <v>145108</v>
       </c>
-      <c r="O97" s="133">
-        <f>N97*(1+O109)</f>
+      <c r="O98" s="133">
+        <f>N98*(1+O110)</f>
         <v>145470.76999999999</v>
       </c>
-      <c r="P97" s="133">
-        <f t="shared" ref="P97:S97" si="56">O97*(1+P109)</f>
+      <c r="P98" s="133">
+        <f t="shared" ref="P98:S98" si="56">O98*(1+P110)</f>
         <v>145834.44692499997</v>
       </c>
-      <c r="Q97" s="133">
+      <c r="Q98" s="133">
         <f t="shared" si="56"/>
         <v>146563.61915962494</v>
       </c>
-      <c r="R97" s="133">
+      <c r="R98" s="133">
         <f t="shared" si="56"/>
         <v>147662.84630332215</v>
       </c>
-      <c r="S97" s="133">
+      <c r="S98" s="133">
         <f t="shared" si="56"/>
         <v>149139.47476635536</v>
       </c>
-      <c r="T97" s="133">
-        <f t="shared" ref="T97:V97" si="57">S97*(1+T108)</f>
+      <c r="T98" s="133">
+        <f t="shared" ref="T98:V98" si="57">S98*(1+T109)</f>
         <v>150484.57449326222</v>
       </c>
-      <c r="U97" s="133">
+      <c r="U98" s="133">
         <f t="shared" si="57"/>
         <v>151916.05677143831</v>
       </c>
-      <c r="V97" s="133">
+      <c r="V98" s="133">
         <f t="shared" si="57"/>
         <v>153409.24087194959</v>
       </c>
-      <c r="AM97" s="233"/>
-    </row>
-    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F98" s="203"/>
-      <c r="G98" s="197"/>
-      <c r="H98" s="197"/>
-      <c r="I98" s="197"/>
-      <c r="J98" s="197"/>
-      <c r="K98" s="197"/>
-      <c r="L98" s="197"/>
-      <c r="M98" s="301"/>
-      <c r="N98" s="301"/>
       <c r="AM98" s="233"/>
     </row>
     <row r="99" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="35" t="s">
+      <c r="F99" s="203"/>
+      <c r="G99" s="197"/>
+      <c r="H99" s="197"/>
+      <c r="I99" s="197"/>
+      <c r="J99" s="197"/>
+      <c r="K99" s="197"/>
+      <c r="L99" s="197"/>
+      <c r="M99" s="301"/>
+      <c r="N99" s="301"/>
+      <c r="AM99" s="233"/>
+    </row>
+    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B100" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>318</v>
       </c>
-      <c r="D99"/>
-      <c r="F99" s="197">
+      <c r="D100"/>
+      <c r="F100" s="197">
         <v>589819</v>
       </c>
-      <c r="G99" s="197">
+      <c r="G100" s="197">
         <v>599372</v>
       </c>
-      <c r="H99" s="197">
+      <c r="H100" s="197">
         <v>614976</v>
       </c>
-      <c r="I99" s="197">
+      <c r="I100" s="197">
         <v>622265</v>
       </c>
-      <c r="J99" s="197">
+      <c r="J100" s="197">
         <v>619632</v>
       </c>
-      <c r="K99" s="197">
+      <c r="K100" s="197">
         <v>624096</v>
       </c>
-      <c r="L99" s="197">
+      <c r="L100" s="197">
         <v>668823</v>
       </c>
-      <c r="M99" s="301">
+      <c r="M100" s="301">
         <v>683703</v>
       </c>
-      <c r="N99" s="310">
-        <f>VLOOKUP($C$99,'Haver NA'!$A$1:$J$34,10,0)</f>
+      <c r="N100" s="310">
+        <f>VLOOKUP($C$100,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>673632</v>
       </c>
-      <c r="O99" s="135">
-        <f>N99*(($AJ$99/$AI$99)^0.18)</f>
+      <c r="O100" s="135">
+        <f>N100*(($AJ$100/$AI$100)^0.18)</f>
         <v>685780.06502466369</v>
       </c>
-      <c r="P99" s="135">
-        <f>O99*(($AJ$99/$AI$99)^0.1)</f>
+      <c r="P100" s="135">
+        <f>O100*(($AJ$100/$AI$100)^0.1)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="Q99" s="135">
-        <f>P99*(1+Q100)</f>
+      <c r="Q100" s="135">
+        <f>P100*(1+Q101)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="R99" s="135">
-        <f t="shared" ref="R99:V99" si="58">Q99*(1+R100)</f>
+      <c r="R100" s="135">
+        <f t="shared" ref="R100:V100" si="58">Q100*(1+R101)</f>
         <v>692623.40051785414</v>
       </c>
-      <c r="S99" s="135">
+      <c r="S100" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="T99" s="135">
+      <c r="T100" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="U99" s="135">
+      <c r="U100" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="V99" s="135">
+      <c r="V100" s="135">
         <f t="shared" si="58"/>
         <v>692623.40051785414</v>
       </c>
-      <c r="AD99" s="45">
-        <f>AVERAGE(J99:M99)/1000</f>
+      <c r="AD100" s="45">
+        <f>AVERAGE(J100:M100)/1000</f>
         <v>649.06349999999998</v>
       </c>
-      <c r="AE99" s="45">
-        <f>AVERAGE(N99:Q99)/1000</f>
+      <c r="AE100" s="45">
+        <f>AVERAGE(N100:Q100)/1000</f>
         <v>686.16471651509301</v>
       </c>
-      <c r="AF99" s="45">
-        <f>AVERAGE(R99:U99)/1000</f>
+      <c r="AF100" s="45">
+        <f>AVERAGE(R100:U100)/1000</f>
         <v>692.62340051785418</v>
       </c>
-      <c r="AH99" s="84"/>
-      <c r="AI99" s="84">
+      <c r="AH100" s="84"/>
+      <c r="AI100" s="84">
         <f>'figuring out Medicaid'!G13</f>
         <v>657.17435271149407</v>
       </c>
-      <c r="AJ99" s="84">
+      <c r="AJ100" s="84">
         <f>'figuring out Medicaid'!H13</f>
         <v>725.7777402928042</v>
       </c>
-      <c r="AK99" s="84">
+      <c r="AK100" s="84">
         <f>'figuring out Medicaid'!I13</f>
         <v>727.33117238501666</v>
       </c>
-      <c r="AL99" s="84"/>
-      <c r="AM99" s="233"/>
-    </row>
-    <row r="100" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="169" t="s">
+      <c r="AL100" s="84"/>
+      <c r="AM100" s="233"/>
+    </row>
+    <row r="101" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="F100" s="207"/>
-      <c r="G100" s="207"/>
-      <c r="H100" s="207"/>
-      <c r="I100" s="207"/>
-      <c r="J100" s="200"/>
-      <c r="K100" s="200"/>
-      <c r="L100" s="200"/>
-      <c r="M100" s="301"/>
-      <c r="N100" s="302"/>
-      <c r="O100" s="175"/>
-      <c r="P100" s="175"/>
-      <c r="Q100" s="175">
+      <c r="F101" s="207"/>
+      <c r="G101" s="207"/>
+      <c r="H101" s="207"/>
+      <c r="I101" s="207"/>
+      <c r="J101" s="200"/>
+      <c r="K101" s="200"/>
+      <c r="L101" s="200"/>
+      <c r="M101" s="301"/>
+      <c r="N101" s="302"/>
+      <c r="O101" s="175"/>
+      <c r="P101" s="175"/>
+      <c r="Q101" s="175">
         <v>0</v>
       </c>
-      <c r="R100" s="175">
+      <c r="R101" s="175">
         <v>0</v>
       </c>
-      <c r="S100" s="175">
+      <c r="S101" s="175">
         <v>0</v>
       </c>
-      <c r="T100" s="175">
+      <c r="T101" s="175">
         <v>0</v>
       </c>
-      <c r="U100" s="175">
+      <c r="U101" s="175">
         <v>0</v>
       </c>
-      <c r="V100" s="175">
+      <c r="V101" s="175">
         <v>0</v>
       </c>
-      <c r="W100" s="175"/>
-      <c r="AM100" s="234"/>
-    </row>
-    <row r="101" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A101" s="153" t="s">
+      <c r="W101" s="175"/>
+      <c r="AM101" s="234"/>
+    </row>
+    <row r="102" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A102" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="F101" s="208">
-        <f t="shared" ref="F101:L101" si="59">F92/F99</f>
+      <c r="F102" s="208">
+        <f t="shared" ref="F102:L102" si="59">F93/F100</f>
         <v>0.66058231423538405</v>
       </c>
-      <c r="G101" s="208">
+      <c r="G102" s="208">
         <f t="shared" si="59"/>
         <v>0.6749214177505789</v>
       </c>
-      <c r="H101" s="208">
+      <c r="H102" s="208">
         <f t="shared" si="59"/>
         <v>0.68242012696430432</v>
       </c>
-      <c r="I101" s="208">
+      <c r="I102" s="208">
         <f t="shared" si="59"/>
         <v>0.6730637268687778</v>
       </c>
-      <c r="J101" s="208">
+      <c r="J102" s="208">
         <f t="shared" si="59"/>
         <v>0.66395699382859508</v>
       </c>
-      <c r="K101" s="208">
+      <c r="K102" s="208">
         <f t="shared" si="59"/>
         <v>0.67846773573296415</v>
       </c>
-      <c r="L101" s="208">
+      <c r="L102" s="208">
         <f t="shared" si="59"/>
         <v>0.76648081779484256</v>
       </c>
-      <c r="M101" s="208">
+      <c r="M102" s="208">
         <v>0.71094027669909299</v>
       </c>
-      <c r="N101" s="208">
-        <f t="shared" ref="N101" si="60">N92/N99</f>
+      <c r="N102" s="208">
+        <f t="shared" ref="N102" si="60">N93/N100</f>
         <v>0.76034541114436371</v>
       </c>
-      <c r="AD101" s="154"/>
-      <c r="AE101" s="154"/>
-      <c r="AF101" s="154"/>
-      <c r="AH101" s="155"/>
-      <c r="AI101" s="155"/>
-      <c r="AJ101" s="155"/>
-      <c r="AM101" s="238"/>
-    </row>
-    <row r="102" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="35" t="s">
+      <c r="AD102" s="154"/>
+      <c r="AE102" s="154"/>
+      <c r="AF102" s="154"/>
+      <c r="AH102" s="155"/>
+      <c r="AI102" s="155"/>
+      <c r="AJ102" s="155"/>
+      <c r="AM102" s="238"/>
+    </row>
+    <row r="103" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B103" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>319</v>
       </c>
-      <c r="D102"/>
-      <c r="F102" s="197">
+      <c r="D103"/>
+      <c r="F103" s="197">
         <v>1997.1</v>
       </c>
-      <c r="G102" s="197">
+      <c r="G103" s="197">
         <v>2012.7</v>
       </c>
-      <c r="H102" s="197">
+      <c r="H103" s="197">
         <v>2025.5</v>
       </c>
-      <c r="I102" s="197">
+      <c r="I103" s="197">
         <v>2028.3</v>
       </c>
-      <c r="J102" s="197">
+      <c r="J103" s="197">
         <v>2035.6</v>
       </c>
-      <c r="K102" s="197">
+      <c r="K103" s="197">
         <v>2041</v>
       </c>
-      <c r="L102" s="197">
+      <c r="L103" s="197">
         <v>2013.1</v>
       </c>
-      <c r="M102" s="301">
+      <c r="M103" s="301">
         <v>1993.0509999999999</v>
       </c>
-      <c r="N102" s="301">
-        <f>VLOOKUP($C$102,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+      <c r="N103" s="301">
+        <f>VLOOKUP($C$103,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
         <v>1984.547</v>
       </c>
-      <c r="O102" s="35">
-        <f>N102*(1+O104)</f>
+      <c r="O103" s="35">
+        <f>N103*(1+O105)</f>
         <v>2009.5840333646127</v>
       </c>
-      <c r="P102" s="35">
-        <f t="shared" ref="P102:V102" si="61">O102*(1+P104)</f>
+      <c r="P103" s="35">
+        <f t="shared" ref="P103:V103" si="61">O103*(1+P105)</f>
         <v>2031.5173022625379</v>
       </c>
-      <c r="Q102" s="35">
+      <c r="Q103" s="35">
         <f t="shared" si="61"/>
         <v>2046.001536440413</v>
       </c>
-      <c r="R102" s="35">
+      <c r="R103" s="35">
         <f t="shared" si="61"/>
         <v>2056.0370415493694</v>
       </c>
-      <c r="S102" s="35">
+      <c r="S103" s="35">
         <f t="shared" si="61"/>
         <v>2065.9690878427696</v>
       </c>
-      <c r="T102" s="35">
+      <c r="T103" s="35">
         <f t="shared" si="61"/>
         <v>2073.2112049317075</v>
       </c>
-      <c r="U102" s="35">
+      <c r="U103" s="35">
         <f t="shared" si="61"/>
         <v>2077.6599340006264</v>
       </c>
-      <c r="V102" s="35">
+      <c r="V103" s="35">
         <f t="shared" si="61"/>
         <v>2079.3152750495265</v>
       </c>
-      <c r="AM102" s="233"/>
-    </row>
-    <row r="103" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="169" t="s">
+      <c r="AM103" s="233"/>
+    </row>
+    <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="169" t="s">
         <v>284</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="F103" s="200"/>
-      <c r="G103" s="200">
-        <f t="shared" ref="G103:L103" si="62">(G102/F102)-1</f>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="F104" s="200"/>
+      <c r="G104" s="200">
+        <f t="shared" ref="G104:L104" si="62">(G103/F103)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
-      <c r="H103" s="200">
+      <c r="H104" s="200">
         <f t="shared" si="62"/>
         <v>6.3596164356336526E-3</v>
       </c>
-      <c r="I103" s="200">
+      <c r="I104" s="200">
         <f t="shared" si="62"/>
         <v>1.3823747222907468E-3</v>
       </c>
-      <c r="J103" s="200">
+      <c r="J104" s="200">
         <f t="shared" si="62"/>
         <v>3.5990731154167399E-3</v>
       </c>
-      <c r="K103" s="200">
+      <c r="K104" s="200">
         <f t="shared" si="62"/>
         <v>2.6527805069758159E-3</v>
       </c>
-      <c r="L103" s="200">
+      <c r="L104" s="200">
         <f t="shared" si="62"/>
         <v>-1.36697697207252E-2</v>
       </c>
-      <c r="M103" s="302">
+      <c r="M104" s="302">
         <v>-9.9592668024439668E-3</v>
       </c>
-      <c r="N103" s="323">
-        <f>(N102/M102)-1</f>
+      <c r="N104" s="323">
+        <f>(N103/M103)-1</f>
         <v>-4.2668250837534227E-3</v>
       </c>
-      <c r="O103" s="252"/>
-      <c r="P103" s="252"/>
-      <c r="Q103" s="252"/>
-      <c r="R103" s="252"/>
-      <c r="S103" s="252"/>
-      <c r="T103" s="252"/>
-      <c r="U103" s="252"/>
-      <c r="V103" s="252"/>
-      <c r="W103" s="252"/>
-      <c r="X103" s="252"/>
-      <c r="Y103" s="252"/>
-      <c r="AM103" s="234"/>
-    </row>
-    <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="169" t="s">
+      <c r="O104" s="252"/>
+      <c r="P104" s="252"/>
+      <c r="Q104" s="252"/>
+      <c r="R104" s="252"/>
+      <c r="S104" s="252"/>
+      <c r="T104" s="252"/>
+      <c r="U104" s="252"/>
+      <c r="V104" s="252"/>
+      <c r="W104" s="252"/>
+      <c r="X104" s="252"/>
+      <c r="Y104" s="252"/>
+      <c r="AM104" s="234"/>
+    </row>
+    <row r="105" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="169" t="s">
         <v>285</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="F104" s="207"/>
-      <c r="G104" s="207"/>
-      <c r="H104" s="207"/>
-      <c r="I104" s="207"/>
-      <c r="J104" s="200"/>
-      <c r="K104" s="200"/>
-      <c r="L104" s="200"/>
-      <c r="M104" s="301"/>
-      <c r="N104" s="302"/>
-      <c r="O104" s="196">
-        <v>1.26159941611927E-2</v>
-      </c>
-      <c r="P104" s="196">
-        <v>1.0914332784184499E-2</v>
-      </c>
-      <c r="Q104" s="196">
-        <v>7.1297616622529904E-3</v>
-      </c>
-      <c r="R104" s="196">
-        <v>4.9049352750809598E-3</v>
-      </c>
-      <c r="S104" s="196">
-        <v>4.8306747848840797E-3</v>
-      </c>
-      <c r="T104" s="196">
-        <v>3.5054334218038701E-3</v>
-      </c>
-      <c r="U104" s="196">
-        <v>2.14581565946403E-3</v>
-      </c>
-      <c r="V104" s="196">
-        <v>7.9673339308827796E-4</v>
-      </c>
-      <c r="W104" s="196">
-        <v>3.9804955716982198E-4</v>
-      </c>
-      <c r="X104" s="196">
-        <v>1.1439371331942701E-3</v>
-      </c>
-      <c r="Y104" s="196">
-        <v>8.9423220229512001E-4</v>
-      </c>
-      <c r="Z104" s="185">
-        <v>8.4379808408208102E-4</v>
-      </c>
-      <c r="AM104" s="234"/>
-    </row>
-    <row r="105" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="35" t="s">
-        <v>215</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="F105" s="207"/>
+      <c r="G105" s="207"/>
+      <c r="H105" s="207"/>
+      <c r="I105" s="207"/>
+      <c r="J105" s="200"/>
+      <c r="K105" s="200"/>
+      <c r="L105" s="200"/>
+      <c r="M105" s="301"/>
+      <c r="N105" s="302"/>
+      <c r="O105" s="196">
+        <v>1.26159941611927E-2</v>
+      </c>
+      <c r="P105" s="196">
+        <v>1.0914332784184499E-2</v>
+      </c>
+      <c r="Q105" s="196">
+        <v>7.1297616622529904E-3</v>
+      </c>
+      <c r="R105" s="196">
+        <v>4.9049352750809598E-3</v>
+      </c>
+      <c r="S105" s="196">
+        <v>4.8306747848840797E-3</v>
+      </c>
+      <c r="T105" s="196">
+        <v>3.5054334218038701E-3</v>
+      </c>
+      <c r="U105" s="196">
+        <v>2.14581565946403E-3</v>
+      </c>
+      <c r="V105" s="196">
+        <v>7.9673339308827796E-4</v>
+      </c>
+      <c r="W105" s="196">
+        <v>3.9804955716982198E-4</v>
+      </c>
+      <c r="X105" s="196">
+        <v>1.1439371331942701E-3</v>
+      </c>
+      <c r="Y105" s="196">
+        <v>8.9423220229512001E-4</v>
+      </c>
+      <c r="Z105" s="185">
+        <v>8.4379808408208102E-4</v>
+      </c>
+      <c r="AM105" s="234"/>
+    </row>
+    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C106" t="s">
         <v>320</v>
       </c>
-      <c r="D105"/>
-      <c r="F105" s="197"/>
-      <c r="G105" s="197"/>
-      <c r="H105" s="197"/>
-      <c r="I105" s="197"/>
-      <c r="J105" s="197">
-        <v>2357.4</v>
-      </c>
-      <c r="K105" s="197">
-        <v>2381.6</v>
-      </c>
-      <c r="L105" s="197">
-        <v>2334.5</v>
-      </c>
-      <c r="M105" s="301">
-        <v>2329.605</v>
-      </c>
-      <c r="N105" s="301">
-        <f>VLOOKUP($C$105,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
-        <v>2337.201</v>
-      </c>
-      <c r="O105">
-        <v>2469.9411956560398</v>
-      </c>
-      <c r="P105">
-        <v>2511.3882460388099</v>
-      </c>
-      <c r="Q105">
-        <v>2543.4204311910298</v>
-      </c>
-      <c r="R105">
-        <v>2569.93355741499</v>
-      </c>
-      <c r="S105">
-        <v>2599.1521046822099</v>
-      </c>
-      <c r="T105">
-        <v>2626.53096564002</v>
-      </c>
-      <c r="U105">
-        <v>2651.2044055545698</v>
-      </c>
-      <c r="V105">
-        <v>2672.95599074239</v>
-      </c>
-      <c r="W105">
-        <v>2693.9500580381</v>
-      </c>
-      <c r="X105">
-        <v>2717.3248958518798</v>
-      </c>
-      <c r="Y105">
-        <v>2740.4832999822002</v>
-      </c>
-      <c r="AM105" s="233"/>
-    </row>
-    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D106"/>
       <c r="F106" s="197"/>
       <c r="G106" s="197"/>
       <c r="H106" s="197"/>
       <c r="I106" s="197"/>
-      <c r="J106" s="197"/>
-      <c r="K106" s="197"/>
-      <c r="L106" s="197"/>
-      <c r="M106" s="301"/>
-      <c r="N106" s="301"/>
+      <c r="J106" s="197">
+        <v>2357.4</v>
+      </c>
+      <c r="K106" s="197">
+        <v>2381.6</v>
+      </c>
+      <c r="L106" s="197">
+        <v>2334.5</v>
+      </c>
+      <c r="M106" s="301">
+        <v>2329.605</v>
+      </c>
+      <c r="N106" s="301">
+        <f>VLOOKUP($C$106,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
+        <v>2337.201</v>
+      </c>
       <c r="O106">
-        <f>N106*(1+O109)</f>
+        <v>2469.9411956560398</v>
+      </c>
+      <c r="P106">
+        <v>2511.3882460388099</v>
+      </c>
+      <c r="Q106">
+        <v>2543.4204311910298</v>
+      </c>
+      <c r="R106">
+        <v>2569.93355741499</v>
+      </c>
+      <c r="S106">
+        <v>2599.1521046822099</v>
+      </c>
+      <c r="T106">
+        <v>2626.53096564002</v>
+      </c>
+      <c r="U106">
+        <v>2651.2044055545698</v>
+      </c>
+      <c r="V106">
+        <v>2672.95599074239</v>
+      </c>
+      <c r="W106">
+        <v>2693.9500580381</v>
+      </c>
+      <c r="X106">
+        <v>2717.3248958518798</v>
+      </c>
+      <c r="Y106">
+        <v>2740.4832999822002</v>
+      </c>
+      <c r="AM106" s="233"/>
+    </row>
+    <row r="107" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F107" s="197"/>
+      <c r="G107" s="197"/>
+      <c r="H107" s="197"/>
+      <c r="I107" s="197"/>
+      <c r="J107" s="197"/>
+      <c r="K107" s="197"/>
+      <c r="L107" s="197"/>
+      <c r="M107" s="301"/>
+      <c r="N107" s="301"/>
+      <c r="O107">
+        <f>N107*(1+O110)</f>
         <v>0</v>
       </c>
-      <c r="P106">
-        <f t="shared" ref="P106:S106" si="63">O106*(1+P109)</f>
+      <c r="P107">
+        <f t="shared" ref="P107:S107" si="63">O107*(1+P110)</f>
         <v>0</v>
       </c>
-      <c r="Q106">
+      <c r="Q107">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="R106">
+      <c r="R107">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="S106">
+      <c r="S107">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="T106">
-        <f>S106*(1+T108)</f>
+      <c r="T107">
+        <f>S107*(1+T109)</f>
         <v>0</v>
       </c>
-      <c r="U106">
-        <f t="shared" ref="U106:V106" si="64">T106*(1+U108)</f>
+      <c r="U107">
+        <f t="shared" ref="U107:V107" si="64">T107*(1+U109)</f>
         <v>0</v>
       </c>
-      <c r="V106">
+      <c r="V107">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
-      <c r="AM106" s="233"/>
-    </row>
-    <row r="107" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="169" t="s">
-        <v>284</v>
-      </c>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="F107" s="200"/>
-      <c r="G107" s="200"/>
-      <c r="H107" s="200"/>
-      <c r="I107" s="200"/>
-      <c r="J107" s="200"/>
-      <c r="K107" s="200">
-        <f t="shared" ref="K107" si="65">(K105/J105)-1</f>
-        <v>1.0265546788835067E-2</v>
-      </c>
-      <c r="L107" s="200">
-        <f t="shared" ref="L107" si="66">(L105/K105)-1</f>
-        <v>-1.9776620759153429E-2</v>
-      </c>
-      <c r="M107" s="302">
-        <v>-8.3608921686818549E-3</v>
-      </c>
-      <c r="N107" s="323">
-        <f>(((N105/M105))^4)-1</f>
-        <v>1.3106483787577172E-2</v>
-      </c>
-      <c r="O107" s="252"/>
-      <c r="P107" s="252"/>
-      <c r="Q107" s="252"/>
-      <c r="R107" s="252"/>
-      <c r="S107" s="252"/>
-      <c r="T107" s="252"/>
-      <c r="U107" s="252"/>
-      <c r="V107" s="252"/>
-      <c r="W107" s="252"/>
-      <c r="X107" s="252"/>
-      <c r="Y107" s="252"/>
-      <c r="AM107" s="234"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="AM107" s="233"/>
     </row>
     <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="169" t="s">
-        <v>285</v>
-      </c>
-      <c r="F108" s="207"/>
-      <c r="G108" s="207"/>
-      <c r="H108" s="207"/>
-      <c r="I108" s="207"/>
-      <c r="J108" s="207"/>
-      <c r="K108" s="200"/>
-      <c r="L108" s="200"/>
-      <c r="M108" s="301"/>
-      <c r="N108" s="302"/>
-      <c r="O108" s="175">
-        <v>9.408690138332787E-4</v>
-      </c>
-      <c r="P108" s="175">
-        <v>9.1903906984696082E-3</v>
-      </c>
-      <c r="Q108" s="175">
-        <v>7.4547841924690328E-3</v>
-      </c>
-      <c r="R108" s="175">
-        <v>7.6518814378809807E-3</v>
-      </c>
-      <c r="S108" s="175">
-        <v>8.511703592439579E-3</v>
-      </c>
-      <c r="T108" s="175">
-        <v>9.0190724421828072E-3</v>
-      </c>
-      <c r="U108" s="175">
-        <v>9.512485136741855E-3</v>
-      </c>
-      <c r="V108" s="175">
-        <v>9.8290077576053125E-3</v>
-      </c>
-      <c r="W108" s="175">
-        <v>1.0779069299762689E-2</v>
-      </c>
-      <c r="X108" s="175">
-        <v>1.1818073295929432E-2</v>
-      </c>
-      <c r="Y108" s="175">
-        <v>1.2112631744533475E-2</v>
-      </c>
-      <c r="Z108" s="175">
-        <v>1.2395088591855785E-2</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="F108" s="200"/>
+      <c r="G108" s="200"/>
+      <c r="H108" s="200"/>
+      <c r="I108" s="200"/>
+      <c r="J108" s="200"/>
+      <c r="K108" s="200">
+        <f t="shared" ref="K108" si="65">(K106/J106)-1</f>
+        <v>1.0265546788835067E-2</v>
+      </c>
+      <c r="L108" s="200">
+        <f t="shared" ref="L108" si="66">(L106/K106)-1</f>
+        <v>-1.9776620759153429E-2</v>
+      </c>
+      <c r="M108" s="302">
+        <v>-8.3608921686818549E-3</v>
+      </c>
+      <c r="N108" s="323">
+        <f>(((N106/M106))^4)-1</f>
+        <v>1.3106483787577172E-2</v>
+      </c>
+      <c r="O108" s="252"/>
+      <c r="P108" s="252"/>
+      <c r="Q108" s="252"/>
+      <c r="R108" s="252"/>
+      <c r="S108" s="252"/>
+      <c r="T108" s="252"/>
+      <c r="U108" s="252"/>
+      <c r="V108" s="252"/>
+      <c r="W108" s="252"/>
+      <c r="X108" s="252"/>
+      <c r="Y108" s="252"/>
       <c r="AM108" s="234"/>
     </row>
     <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="169" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="F109" s="207"/>
       <c r="G109" s="207"/>
@@ -10865,354 +10900,380 @@
       <c r="M109" s="301"/>
       <c r="N109" s="302"/>
       <c r="O109" s="175">
+        <v>9.408690138332787E-4</v>
+      </c>
+      <c r="P109" s="175">
+        <v>9.1903906984696082E-3</v>
+      </c>
+      <c r="Q109" s="175">
+        <v>7.4547841924690328E-3</v>
+      </c>
+      <c r="R109" s="175">
+        <v>7.6518814378809807E-3</v>
+      </c>
+      <c r="S109" s="175">
+        <v>8.511703592439579E-3</v>
+      </c>
+      <c r="T109" s="175">
+        <v>9.0190724421828072E-3</v>
+      </c>
+      <c r="U109" s="175">
+        <v>9.512485136741855E-3</v>
+      </c>
+      <c r="V109" s="175">
+        <v>9.8290077576053125E-3</v>
+      </c>
+      <c r="W109" s="175">
+        <v>1.0779069299762689E-2</v>
+      </c>
+      <c r="X109" s="175">
+        <v>1.1818073295929432E-2</v>
+      </c>
+      <c r="Y109" s="175">
+        <v>1.2112631744533475E-2</v>
+      </c>
+      <c r="Z109" s="175">
+        <v>1.2395088591855785E-2</v>
+      </c>
+      <c r="AM109" s="234"/>
+    </row>
+    <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="169" t="s">
+        <v>372</v>
+      </c>
+      <c r="F110" s="207"/>
+      <c r="G110" s="207"/>
+      <c r="H110" s="207"/>
+      <c r="I110" s="207"/>
+      <c r="J110" s="207"/>
+      <c r="K110" s="200"/>
+      <c r="L110" s="200"/>
+      <c r="M110" s="301"/>
+      <c r="N110" s="302"/>
+      <c r="O110" s="175">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="P109" s="175">
+      <c r="P110" s="175">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q109" s="175">
+      <c r="Q110" s="175">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R109" s="175">
+      <c r="R110" s="175">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="S109" s="175">
+      <c r="S110" s="175">
         <v>0.01</v>
       </c>
-      <c r="T109" s="175"/>
-      <c r="U109" s="175"/>
-      <c r="V109" s="175"/>
-      <c r="AM109" s="234"/>
-    </row>
-    <row r="110" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="35" t="s">
+      <c r="T110" s="175"/>
+      <c r="U110" s="175"/>
+      <c r="V110" s="175"/>
+      <c r="AM110" s="234"/>
+    </row>
+    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F110" s="201">
-        <f t="shared" ref="F110:L110" si="67">F96+F46-F92</f>
+      <c r="F111" s="201">
+        <f t="shared" ref="F111:L111" si="67">F97+F46-F93</f>
         <v>339220</v>
       </c>
-      <c r="G110" s="201">
+      <c r="G111" s="201">
         <f t="shared" si="67"/>
         <v>334185</v>
       </c>
-      <c r="H110" s="201">
+      <c r="H111" s="201">
         <f t="shared" si="67"/>
         <v>335532</v>
       </c>
-      <c r="I110" s="201">
+      <c r="I111" s="201">
         <f t="shared" si="67"/>
         <v>344546</v>
       </c>
-      <c r="J110" s="201">
+      <c r="J111" s="201">
         <f t="shared" si="67"/>
         <v>349558</v>
       </c>
-      <c r="K110" s="201">
+      <c r="K111" s="201">
         <f t="shared" si="67"/>
         <v>343658</v>
       </c>
-      <c r="L110" s="201">
+      <c r="L111" s="201">
         <f t="shared" si="67"/>
         <v>560584.66666666674</v>
       </c>
-      <c r="M110" s="301">
+      <c r="M111" s="301">
         <v>528408</v>
       </c>
-      <c r="N110" s="306">
-        <f t="shared" ref="N110:Y110" si="68">N96+N46-N92</f>
+      <c r="N111" s="306">
+        <f t="shared" ref="N111:Y111" si="68">N97+N46-N93</f>
         <v>343247</v>
       </c>
-      <c r="O110" s="215">
+      <c r="O111" s="215">
         <f t="shared" si="68"/>
         <v>383773.58690641256</v>
       </c>
-      <c r="P110" s="215">
+      <c r="P111" s="215">
         <f t="shared" si="68"/>
         <v>369916.53105964203</v>
       </c>
-      <c r="Q110" s="215">
+      <c r="Q111" s="215">
         <f t="shared" si="68"/>
         <v>370645.703294267</v>
       </c>
-      <c r="R110" s="215">
+      <c r="R111" s="215">
         <f t="shared" si="68"/>
         <v>371744.93043796421</v>
       </c>
-      <c r="S110" s="215">
+      <c r="S111" s="215">
         <f t="shared" si="68"/>
         <v>373221.55890099745</v>
       </c>
-      <c r="T110" s="215">
+      <c r="T111" s="215">
         <f t="shared" si="68"/>
         <v>416124.06265897548</v>
       </c>
-      <c r="U110" s="215">
+      <c r="U111" s="215">
         <f t="shared" si="68"/>
         <v>417555.5449371516</v>
       </c>
-      <c r="V110" s="215">
+      <c r="V111" s="215">
         <f t="shared" si="68"/>
         <v>419048.72903766285</v>
       </c>
-      <c r="W110" s="215">
+      <c r="W111" s="215">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="X110" s="215">
+      <c r="X111" s="215">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="Y110" s="215">
+      <c r="Y111" s="215">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="AM110" s="233"/>
-    </row>
-    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="141" t="s">
+      <c r="AM111" s="233"/>
+    </row>
+    <row r="112" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="B111" s="141"/>
-      <c r="E111" s="141"/>
-      <c r="F111" s="201">
-        <f t="shared" ref="F111:L111" si="69">F99-F92</f>
+      <c r="B112" s="141"/>
+      <c r="E112" s="141"/>
+      <c r="F112" s="201">
+        <f t="shared" ref="F112:L112" si="69">F100-F93</f>
         <v>200195</v>
       </c>
-      <c r="G111" s="201">
+      <c r="G112" s="201">
         <f t="shared" si="69"/>
         <v>194843</v>
       </c>
-      <c r="H111" s="201">
+      <c r="H112" s="201">
         <f t="shared" si="69"/>
         <v>195304</v>
       </c>
-      <c r="I111" s="201">
+      <c r="I112" s="201">
         <f t="shared" si="69"/>
         <v>203441</v>
       </c>
-      <c r="J111" s="201">
+      <c r="J112" s="201">
         <f t="shared" si="69"/>
         <v>208223</v>
       </c>
-      <c r="K111" s="201">
+      <c r="K112" s="201">
         <f t="shared" si="69"/>
         <v>200667</v>
       </c>
-      <c r="L111" s="201">
+      <c r="L112" s="201">
         <f t="shared" si="69"/>
         <v>156183</v>
       </c>
-      <c r="M111" s="301">
+      <c r="M112" s="301">
         <v>197631</v>
       </c>
-      <c r="N111" s="306">
-        <f>N99-N92</f>
+      <c r="N112" s="306">
+        <f>N100-N93</f>
         <v>161439</v>
       </c>
-      <c r="O111" s="142">
-        <f t="shared" ref="O111:Y111" si="70">O99-O92</f>
+      <c r="O112" s="142">
+        <f t="shared" ref="O112:Y112" si="70">O100-O93</f>
         <v>178302.81690641254</v>
       </c>
-      <c r="P111" s="142">
+      <c r="P112" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="Q111" s="142">
+      <c r="Q112" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="R111" s="142">
+      <c r="R112" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="S111" s="142">
+      <c r="S112" s="142">
         <f t="shared" si="70"/>
         <v>180082.08413464209</v>
       </c>
-      <c r="T111" s="142">
+      <c r="T112" s="142">
         <f t="shared" si="70"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="U111" s="142">
+      <c r="U112" s="142">
         <f t="shared" si="70"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="V111" s="142">
+      <c r="V112" s="142">
         <f t="shared" si="70"/>
         <v>221639.48816571326</v>
       </c>
-      <c r="W111" s="142">
+      <c r="W112" s="142">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X111" s="142">
+      <c r="X112" s="142">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="Y111" s="142">
+      <c r="Y112" s="142">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AM111" s="233"/>
-    </row>
-    <row r="112" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="141" t="s">
+      <c r="AM112" s="233"/>
+    </row>
+    <row r="113" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="141" t="s">
         <v>230</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="F112" s="201">
-        <f t="shared" ref="F112:K112" si="71">F110-F111</f>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="F113" s="201">
+        <f t="shared" ref="F113:K113" si="71">F111-F112</f>
         <v>139025</v>
       </c>
-      <c r="G112" s="201">
+      <c r="G113" s="201">
         <f t="shared" si="71"/>
         <v>139342</v>
       </c>
-      <c r="H112" s="201">
+      <c r="H113" s="201">
         <f t="shared" si="71"/>
         <v>140228</v>
       </c>
-      <c r="I112" s="201">
+      <c r="I113" s="201">
         <f t="shared" si="71"/>
         <v>141105</v>
       </c>
-      <c r="J112" s="201">
+      <c r="J113" s="201">
         <f t="shared" si="71"/>
         <v>141335</v>
       </c>
-      <c r="K112" s="201">
+      <c r="K113" s="201">
         <f t="shared" si="71"/>
         <v>142991</v>
       </c>
-      <c r="L112" s="201">
-        <f>L110-L111</f>
+      <c r="L113" s="201">
+        <f>L111-L112</f>
         <v>404401.66666666674</v>
       </c>
-      <c r="M112" s="306">
+      <c r="M113" s="306">
         <v>330777</v>
       </c>
-      <c r="N112" s="306">
-        <f>N110-N111</f>
+      <c r="N113" s="306">
+        <f>N111-N112</f>
         <v>181808</v>
       </c>
-      <c r="O112" s="142">
-        <f t="shared" ref="O112:Y112" si="72">O110-O111</f>
+      <c r="O113" s="142">
+        <f t="shared" ref="O113:Y113" si="72">O111-O112</f>
         <v>205470.77000000002</v>
       </c>
-      <c r="P112" s="142">
+      <c r="P113" s="142">
         <f t="shared" si="72"/>
         <v>189834.44692499994</v>
       </c>
-      <c r="Q112" s="142">
+      <c r="Q113" s="142">
         <f t="shared" si="72"/>
         <v>190563.61915962491</v>
       </c>
-      <c r="R112" s="142">
+      <c r="R113" s="142">
         <f t="shared" si="72"/>
         <v>191662.84630332212</v>
       </c>
-      <c r="S112" s="142">
+      <c r="S113" s="142">
         <f t="shared" si="72"/>
         <v>193139.47476635536</v>
       </c>
-      <c r="T112" s="142">
+      <c r="T113" s="142">
         <f t="shared" si="72"/>
         <v>194484.57449326222</v>
       </c>
-      <c r="U112" s="142">
+      <c r="U113" s="142">
         <f t="shared" si="72"/>
         <v>195916.05677143834</v>
       </c>
-      <c r="V112" s="142">
+      <c r="V113" s="142">
         <f t="shared" si="72"/>
         <v>197409.24087194959</v>
       </c>
-      <c r="W112" s="142">
+      <c r="W113" s="142">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="X112" s="142">
+      <c r="X113" s="142">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="Y112" s="142">
+      <c r="Y113" s="142">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AM112" s="256"/>
-    </row>
-    <row r="113" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113"/>
-      <c r="F113" s="213"/>
-      <c r="G113" s="213"/>
-      <c r="H113" s="213"/>
-      <c r="I113" s="213"/>
-      <c r="J113" s="213"/>
-      <c r="K113" s="213"/>
-      <c r="L113" s="135"/>
-      <c r="M113" s="135"/>
-      <c r="N113" s="94"/>
-      <c r="O113" s="94"/>
-      <c r="P113" s="94"/>
-      <c r="Q113" s="94"/>
-      <c r="R113" s="94"/>
-      <c r="S113" s="94"/>
-      <c r="T113" s="94"/>
-      <c r="U113" s="94"/>
-      <c r="V113"/>
-      <c r="AM113" s="233"/>
-    </row>
-    <row r="114" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="169"/>
-      <c r="F114" s="193"/>
-      <c r="G114" s="193"/>
-      <c r="H114" s="193"/>
-      <c r="I114" s="193"/>
-      <c r="J114" s="193"/>
-      <c r="K114" s="193"/>
-      <c r="L114" s="193"/>
-      <c r="M114" s="214"/>
-      <c r="N114" s="193"/>
-      <c r="O114" s="193"/>
-      <c r="P114" s="193"/>
-      <c r="Q114" s="193"/>
-      <c r="R114" s="193"/>
-      <c r="S114" s="193"/>
-      <c r="T114" s="193"/>
-      <c r="U114" s="193"/>
-      <c r="AM114" s="234"/>
-    </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="AM113" s="256"/>
+    </row>
+    <row r="114" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114"/>
+      <c r="F114" s="213"/>
+      <c r="G114" s="213"/>
+      <c r="H114" s="213"/>
+      <c r="I114" s="213"/>
+      <c r="J114" s="213"/>
+      <c r="K114" s="213"/>
+      <c r="L114" s="135"/>
+      <c r="M114" s="135"/>
+      <c r="N114" s="94"/>
+      <c r="O114" s="94"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="94"/>
+      <c r="R114" s="94"/>
+      <c r="S114" s="94"/>
+      <c r="T114" s="94"/>
+      <c r="U114" s="94"/>
+      <c r="V114"/>
+      <c r="AM114" s="233"/>
+    </row>
+    <row r="115" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="169"/>
+      <c r="F115" s="193"/>
+      <c r="G115" s="193"/>
+      <c r="H115" s="193"/>
+      <c r="I115" s="193"/>
+      <c r="J115" s="193"/>
+      <c r="K115" s="193"/>
+      <c r="L115" s="193"/>
+      <c r="M115" s="214"/>
+      <c r="N115" s="193"/>
+      <c r="O115" s="193"/>
+      <c r="P115" s="193"/>
+      <c r="Q115" s="193"/>
+      <c r="R115" s="193"/>
+      <c r="S115" s="193"/>
+      <c r="T115" s="193"/>
+      <c r="U115" s="193"/>
+      <c r="AM115" s="234"/>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>158</v>
       </c>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="35"/>
-      <c r="U115" s="35"/>
-      <c r="V115" s="35"/>
-      <c r="X115" s="35"/>
-      <c r="Y115" s="35"/>
-      <c r="Z115" s="35"/>
-      <c r="AA115" s="35"/>
-      <c r="AB115" s="35"/>
-      <c r="AC115" s="35"/>
-      <c r="AD115" s="35"/>
-      <c r="AE115" s="35"/>
-      <c r="AF115" s="35"/>
-      <c r="AG115" s="35"/>
-      <c r="AH115" s="35"/>
-      <c r="AI115" s="35"/>
-    </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.35">
       <c r="L116" s="35"/>
       <c r="M116" s="35"/>
       <c r="N116" s="35"/>
@@ -11336,6 +11397,31 @@
       <c r="AG120" s="35"/>
       <c r="AH120" s="35"/>
       <c r="AI120" s="35"/>
+    </row>
+    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
+      <c r="N121" s="35"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="35"/>
+      <c r="Q121" s="35"/>
+      <c r="R121" s="35"/>
+      <c r="S121" s="35"/>
+      <c r="T121" s="35"/>
+      <c r="U121" s="35"/>
+      <c r="V121" s="35"/>
+      <c r="X121" s="35"/>
+      <c r="Y121" s="35"/>
+      <c r="Z121" s="35"/>
+      <c r="AA121" s="35"/>
+      <c r="AB121" s="35"/>
+      <c r="AC121" s="35"/>
+      <c r="AD121" s="35"/>
+      <c r="AE121" s="35"/>
+      <c r="AF121" s="35"/>
+      <c r="AG121" s="35"/>
+      <c r="AH121" s="35"/>
+      <c r="AI121" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12642,50 +12728,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="358"/>
-      <c r="C5" s="358"/>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
-      <c r="H5" s="358"/>
-      <c r="I5" s="358"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="358"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="358"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="358"/>
-      <c r="R5" s="358"/>
-      <c r="S5" s="358"/>
+      <c r="B5" s="359"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="359"/>
+      <c r="M5" s="359"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="359"/>
+      <c r="Q5" s="359"/>
+      <c r="R5" s="359"/>
+      <c r="S5" s="359"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="359"/>
-      <c r="M6" s="359"/>
-      <c r="N6" s="359"/>
-      <c r="O6" s="359"/>
-      <c r="P6" s="359"/>
-      <c r="Q6" s="359"/>
-      <c r="R6" s="359"/>
-      <c r="S6" s="359"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12726,8 +12812,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="360"/>
-      <c r="S8" s="361"/>
+      <c r="R8" s="361"/>
+      <c r="S8" s="362"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -12927,7 +13013,7 @@
         <v>222</v>
       </c>
       <c r="F15" s="94">
-        <f>main!K101</f>
+        <f>main!K102</f>
         <v>0.67846773573296415</v>
       </c>
       <c r="G15" s="94">
@@ -12999,10 +13085,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="342" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="341"/>
+      <c r="B1" s="342"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13010,18 +13096,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="362" t="s">
+      <c r="Z1" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="362"/>
-      <c r="AB1" s="362"/>
-      <c r="AC1" s="340"/>
-      <c r="AD1" s="340"/>
-      <c r="AE1" s="340"/>
-      <c r="AF1" s="340"/>
+      <c r="AA1" s="363"/>
+      <c r="AB1" s="363"/>
+      <c r="AC1" s="341"/>
+      <c r="AD1" s="341"/>
+      <c r="AE1" s="341"/>
+      <c r="AF1" s="341"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="363" t="s">
+      <c r="A2" s="364" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="107"/>
@@ -13030,45 +13116,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="363"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="363"/>
+      <c r="A4" s="364"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="363"/>
+      <c r="A5" s="364"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="353" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="355"/>
-      <c r="G7" s="353" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="355"/>
-      <c r="K7" s="353" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="354"/>
-      <c r="N7" s="355"/>
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="356"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -14586,11 +14672,11 @@
       </c>
       <c r="H70" s="102">
         <f>main!O54/1000</f>
-        <v>144.26918333333336</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="I70" s="102">
         <f>main!P54/1000</f>
-        <v>145.19798333333333</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="J70" s="102">
         <f>main!Q54/1000</f>
@@ -14654,11 +14740,11 @@
       </c>
       <c r="H72" s="103">
         <f t="shared" si="23"/>
-        <v>-952.81894818230671</v>
+        <v>-303.00454818230662</v>
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
-        <v>-955.85512490565668</v>
+        <v>-306.96952490565661</v>
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
@@ -14950,88 +15036,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="365" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="365"/>
+      <c r="H3" s="365"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="365"/>
-      <c r="B4" s="365"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="370" t="s">
+      <c r="A4" s="366"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
+      <c r="J4" s="366"/>
+      <c r="K4" s="371" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
+      <c r="L4" s="371"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="371"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="366" t="s">
+      <c r="C5" s="367" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
-      <c r="J5" s="368"/>
+      <c r="D5" s="368"/>
+      <c r="E5" s="368"/>
+      <c r="F5" s="368"/>
+      <c r="G5" s="368"/>
+      <c r="H5" s="368"/>
+      <c r="I5" s="368"/>
+      <c r="J5" s="369"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="369" t="s">
+      <c r="L5" s="370" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="340"/>
-      <c r="N5" s="340"/>
+      <c r="M5" s="341"/>
+      <c r="N5" s="341"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="372">
+      <c r="C6" s="373">
         <v>2020</v>
       </c>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="373"/>
-      <c r="J6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
+      <c r="I6" s="374"/>
+      <c r="J6" s="375"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15469,24 +15555,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="340" t="s">
+      <c r="K22" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="340"/>
-      <c r="M22" s="340"/>
-      <c r="N22" s="340"/>
-      <c r="O22" s="340" t="s">
+      <c r="L22" s="341"/>
+      <c r="M22" s="341"/>
+      <c r="N22" s="341"/>
+      <c r="O22" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="340"/>
-      <c r="Q22" s="340"/>
-      <c r="R22" s="340"/>
-      <c r="S22" s="340" t="s">
+      <c r="P22" s="341"/>
+      <c r="Q22" s="341"/>
+      <c r="R22" s="341"/>
+      <c r="S22" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="340"/>
-      <c r="U22" s="340"/>
-      <c r="V22" s="340"/>
+      <c r="T22" s="341"/>
+      <c r="U22" s="341"/>
+      <c r="V22" s="341"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15503,12 +15589,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="375" t="s">
+      <c r="K23" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="375"/>
-      <c r="M23" s="375"/>
-      <c r="N23" s="375"/>
+      <c r="L23" s="376"/>
+      <c r="M23" s="376"/>
+      <c r="N23" s="376"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15677,7 +15763,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="371" t="s">
+      <c r="I28" s="372" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15727,7 +15813,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="371"/>
+      <c r="I29" s="372"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15775,7 +15861,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="371"/>
+      <c r="I30" s="372"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15823,7 +15909,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="371"/>
+      <c r="I31" s="372"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15885,7 +15971,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="371" t="s">
+      <c r="I33" s="372" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15933,7 +16019,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="371"/>
+      <c r="I34" s="372"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16101,7 +16187,7 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.35">
@@ -16289,30 +16375,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="379" t="s">
+      <c r="E6" s="380" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="379"/>
-      <c r="N6" s="379"/>
-      <c r="O6" s="379"/>
-      <c r="P6" s="379"/>
-      <c r="Q6" s="379"/>
-      <c r="R6" s="379"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="380"/>
+      <c r="I6" s="380"/>
+      <c r="J6" s="380"/>
+      <c r="K6" s="380"/>
+      <c r="L6" s="380"/>
+      <c r="M6" s="380"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="380"/>
+      <c r="P6" s="380"/>
+      <c r="Q6" s="380"/>
+      <c r="R6" s="380"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="376" t="s">
+      <c r="A7" s="377" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="376"/>
-      <c r="C7" s="376"/>
-      <c r="D7" s="376"/>
+      <c r="B7" s="377"/>
+      <c r="C7" s="377"/>
+      <c r="D7" s="377"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16330,11 +16416,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="376" t="s">
+      <c r="B8" s="377" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="376"/>
-      <c r="D8" s="376"/>
+      <c r="C8" s="377"/>
+      <c r="D8" s="377"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16380,11 +16466,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="376" t="s">
+      <c r="B9" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="376"/>
-      <c r="D9" s="376"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="377"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16430,11 +16516,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="376" t="s">
+      <c r="B10" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="376"/>
-      <c r="D10" s="376"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="377"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16480,11 +16566,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="376" t="s">
+      <c r="B11" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="376"/>
-      <c r="D11" s="376"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="377"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16579,10 +16665,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="376" t="s">
+      <c r="C13" s="377" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="376"/>
+      <c r="D13" s="377"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16733,11 +16819,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="376" t="s">
+      <c r="B19" s="377" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="376"/>
-      <c r="D19" s="376"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="377"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16796,11 +16882,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="376" t="s">
+      <c r="B20" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="376"/>
-      <c r="D20" s="376"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="377"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16860,11 +16946,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="376" t="s">
+      <c r="B21" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="376"/>
-      <c r="D21" s="376"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="377"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -16923,11 +17009,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="376" t="s">
+      <c r="B22" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="376"/>
-      <c r="D22" s="376"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="377"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17040,21 +17126,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="377" t="s">
+      <c r="H27" s="378" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="377"/>
-      <c r="J27" s="377"/>
-      <c r="K27" s="377"/>
-      <c r="L27" s="377"/>
-      <c r="M27" s="377"/>
-      <c r="N27" s="377"/>
-      <c r="O27" s="377"/>
-      <c r="P27" s="377"/>
-      <c r="Q27" s="377"/>
-      <c r="R27" s="377"/>
-      <c r="S27" s="377"/>
-      <c r="T27" s="377"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="378"/>
+      <c r="N27" s="378"/>
+      <c r="O27" s="378"/>
+      <c r="P27" s="378"/>
+      <c r="Q27" s="378"/>
+      <c r="R27" s="378"/>
+      <c r="S27" s="378"/>
+      <c r="T27" s="378"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17370,21 +17456,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="378" t="s">
+      <c r="F37" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="378"/>
-      <c r="H37" s="378"/>
-      <c r="I37" s="378"/>
-      <c r="J37" s="378"/>
-      <c r="K37" s="378"/>
-      <c r="L37" s="378"/>
-      <c r="M37" s="378"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="G37" s="379"/>
+      <c r="H37" s="379"/>
+      <c r="I37" s="379"/>
+      <c r="J37" s="379"/>
+      <c r="K37" s="379"/>
+      <c r="L37" s="379"/>
+      <c r="M37" s="379"/>
+      <c r="N37" s="379"/>
+      <c r="O37" s="379"/>
+      <c r="P37" s="379"/>
+      <c r="Q37" s="379"/>
+      <c r="R37" s="379"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17700,21 +17786,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="377" t="s">
+      <c r="F48" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="377"/>
-      <c r="H48" s="377"/>
-      <c r="I48" s="377"/>
-      <c r="J48" s="377"/>
-      <c r="K48" s="377"/>
-      <c r="L48" s="377"/>
-      <c r="M48" s="377"/>
-      <c r="N48" s="377"/>
-      <c r="O48" s="377"/>
-      <c r="P48" s="377"/>
-      <c r="Q48" s="377"/>
-      <c r="R48" s="377"/>
+      <c r="G48" s="378"/>
+      <c r="H48" s="378"/>
+      <c r="I48" s="378"/>
+      <c r="J48" s="378"/>
+      <c r="K48" s="378"/>
+      <c r="L48" s="378"/>
+      <c r="M48" s="378"/>
+      <c r="N48" s="378"/>
+      <c r="O48" s="378"/>
+      <c r="P48" s="378"/>
+      <c r="Q48" s="378"/>
+      <c r="R48" s="378"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18078,50 +18164,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="358"/>
-      <c r="C5" s="358"/>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
-      <c r="H5" s="358"/>
-      <c r="I5" s="358"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="358"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="358"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="358"/>
-      <c r="R5" s="358"/>
-      <c r="S5" s="358"/>
+      <c r="B5" s="359"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="359"/>
+      <c r="M5" s="359"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="359"/>
+      <c r="Q5" s="359"/>
+      <c r="R5" s="359"/>
+      <c r="S5" s="359"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="359"/>
-      <c r="M6" s="359"/>
-      <c r="N6" s="359"/>
-      <c r="O6" s="359"/>
-      <c r="P6" s="359"/>
-      <c r="Q6" s="359"/>
-      <c r="R6" s="359"/>
-      <c r="S6" s="359"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18161,10 +18247,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="360" t="s">
+      <c r="R8" s="361" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="361"/>
+      <c r="S8" s="362"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21035,10 +21121,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="380" t="s">
+      <c r="D75" s="381" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="381"/>
+      <c r="E75" s="382"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -21726,18 +21812,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="289" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B2" s="289">
         <v>325</v>
@@ -21749,7 +21835,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="289" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B3" s="289">
         <v>120</v>
@@ -21785,7 +21871,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="289" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B6" s="289">
         <v>63</v>
@@ -21797,7 +21883,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="291" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -21809,7 +21895,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="176" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -21821,7 +21907,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="176" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -21846,7 +21932,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="292" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B11" s="289">
         <v>45</v>
@@ -21858,7 +21944,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="291" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B12" s="289">
         <v>16</v>
@@ -21883,7 +21969,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="292" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B14" s="289">
         <v>80</v>
@@ -21920,7 +22006,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="292" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -21932,7 +22018,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="291" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -21944,7 +22030,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="291" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -21956,7 +22042,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="293" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B20" s="294">
         <v>5</v>
@@ -21986,10 +22072,10 @@
   <dimension ref="A1:AX73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I71" sqref="I71"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22008,23 +22094,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="349"/>
+      <c r="B1" s="350"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="356" t="s">
+      <c r="J1" s="357" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="340"/>
-      <c r="W1" s="340"/>
-      <c r="X1" s="340"/>
-      <c r="Y1" s="340"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
+      <c r="X1" s="341"/>
+      <c r="Y1" s="341"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -22032,68 +22118,68 @@
         <v>192</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="356"/>
+      <c r="J2" s="357"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="351"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="356"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="351"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="352"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C7" s="353" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="355"/>
-      <c r="G7" s="353" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="355"/>
-      <c r="K7" s="353" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="354"/>
-      <c r="N7" s="354"/>
-      <c r="O7" s="353" t="s">
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="354" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="354"/>
-      <c r="Q7" s="354"/>
-      <c r="R7" s="354"/>
-      <c r="S7" s="353" t="s">
+      <c r="P7" s="355"/>
+      <c r="Q7" s="355"/>
+      <c r="R7" s="355"/>
+      <c r="S7" s="354" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="354"/>
-      <c r="U7" s="354"/>
-      <c r="V7" s="354"/>
-      <c r="W7" s="353" t="s">
+      <c r="T7" s="355"/>
+      <c r="U7" s="355"/>
+      <c r="V7" s="355"/>
+      <c r="W7" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="354"/>
-      <c r="Z7" s="354"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="355"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -23411,43 +23497,43 @@
         <v>184</v>
       </c>
       <c r="D21" s="102">
-        <f>main!L111/1000</f>
+        <f>main!L112/1000</f>
         <v>156.18299999999999</v>
       </c>
       <c r="E21" s="104">
-        <f>main!M111/1000</f>
+        <f>main!M112/1000</f>
         <v>197.631</v>
       </c>
       <c r="F21" s="104">
-        <f>main!N111/1000</f>
+        <f>main!N112/1000</f>
         <v>161.43899999999999</v>
       </c>
       <c r="G21" s="149">
-        <f>main!O111/1000</f>
+        <f>main!O112/1000</f>
         <v>178.30281690641254</v>
       </c>
       <c r="H21" s="104">
-        <f>main!P111/1000</f>
+        <f>main!P112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="I21" s="104">
-        <f>main!Q111/1000</f>
+        <f>main!Q112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="J21" s="104">
-        <f>main!R111/1000</f>
+        <f>main!R112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="K21" s="149">
-        <f>main!S111/1000</f>
+        <f>main!S112/1000</f>
         <v>180.08208413464209</v>
       </c>
       <c r="L21" s="104">
-        <f>main!T111/1000</f>
+        <f>main!T112/1000</f>
         <v>221.63948816571326</v>
       </c>
       <c r="M21" s="223">
-        <f>main!U111/1000</f>
+        <f>main!U112/1000</f>
         <v>221.63948816571326</v>
       </c>
       <c r="N21" s="104">
@@ -23857,35 +23943,35 @@
       </c>
       <c r="D28" s="102"/>
       <c r="E28" s="104">
-        <f>main!L112/1000</f>
+        <f>main!L113/1000</f>
         <v>404.40166666666676</v>
       </c>
       <c r="F28" s="104">
-        <f>main!M112/1000</f>
+        <f>main!M113/1000</f>
         <v>330.77699999999999</v>
       </c>
       <c r="G28" s="104">
-        <f>main!N112/1000</f>
+        <f>main!N113/1000</f>
         <v>181.80799999999999</v>
       </c>
       <c r="H28" s="104">
-        <f>main!O112/1000</f>
+        <f>main!O113/1000</f>
         <v>205.47077000000002</v>
       </c>
       <c r="I28" s="104">
-        <f>main!P112/1000</f>
+        <f>main!P113/1000</f>
         <v>189.83444692499995</v>
       </c>
       <c r="J28" s="104">
-        <f>main!Q112/1000</f>
+        <f>main!Q113/1000</f>
         <v>190.56361915962492</v>
       </c>
       <c r="K28" s="104">
-        <f>main!R112/1000</f>
+        <f>main!R113/1000</f>
         <v>191.66284630332211</v>
       </c>
       <c r="L28" s="104">
-        <f>main!S112/1000</f>
+        <f>main!S113/1000</f>
         <v>193.13947476635536</v>
       </c>
       <c r="M28" s="104">
@@ -24814,27 +24900,27 @@
       </c>
       <c r="D47" s="102"/>
       <c r="E47" s="104">
-        <f>main!L94/1000</f>
+        <f>main!L95/1000</f>
         <v>1336.6980000000001</v>
       </c>
       <c r="F47" s="104">
-        <f>main!M94/1000</f>
+        <f>main!M95/1000</f>
         <v>1328.8050000000001</v>
       </c>
       <c r="G47" s="149">
-        <f>main!N94/1000</f>
+        <f>main!N95/1000</f>
         <v>1372.787</v>
       </c>
       <c r="H47" s="104">
-        <f>main!O94/1000</f>
+        <f>main!O95/1000</f>
         <v>1390.6101625906522</v>
       </c>
       <c r="I47" s="104">
-        <f>main!P94/1000</f>
+        <f>main!P95/1000</f>
         <v>1418.489158978964</v>
       </c>
       <c r="J47" s="223">
-        <f>main!Q94/1000</f>
+        <f>main!Q95/1000</f>
         <v>1441.5834808422039</v>
       </c>
       <c r="K47" s="149">
@@ -25264,35 +25350,35 @@
         <v>189</v>
       </c>
       <c r="D54" s="102">
-        <f>main!K93/1000</f>
+        <f>main!K94/1000</f>
         <v>1574.462</v>
       </c>
       <c r="E54" s="104">
-        <f>main!L93/1000</f>
+        <f>main!L94/1000</f>
         <v>3729.5573333333332</v>
       </c>
       <c r="F54" s="104">
-        <f>main!M93/1000</f>
+        <f>main!M94/1000</f>
         <v>2466.0010000000002</v>
       </c>
       <c r="G54" s="149">
-        <f>main!N93/1000</f>
+        <f>main!N94/1000</f>
         <v>2027.7929999999999</v>
       </c>
       <c r="H54" s="104">
-        <f>main!O93/1000</f>
+        <f>main!O94/1000</f>
         <v>3118.1238025000002</v>
       </c>
       <c r="I54" s="104">
-        <f>main!P93/1000</f>
+        <f>main!P94/1000</f>
         <v>1874.8488739812499</v>
       </c>
       <c r="J54" s="104">
-        <f>main!Q93/1000</f>
+        <f>main!Q94/1000</f>
         <v>1686.4675074263907</v>
       </c>
       <c r="K54" s="263">
-        <f>main!R93/1000</f>
+        <f>main!R94/1000</f>
         <v>1683.0445200377862</v>
       </c>
       <c r="L54" s="104">
@@ -25739,11 +25825,11 @@
       </c>
       <c r="H61" s="104">
         <f>main!O54/1000</f>
-        <v>144.26918333333336</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="I61" s="104">
         <f>main!P54/1000</f>
-        <v>145.19798333333333</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="J61" s="104">
         <f>main!Q54/1000</f>
@@ -26012,11 +26098,11 @@
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>-259.91619825290059</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>-260.91609823444162</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
@@ -26175,52 +26261,52 @@
       </c>
       <c r="D68" s="100"/>
       <c r="E68" s="218">
-        <f>main!L82/1000</f>
+        <f>main!L83/1000</f>
         <v>321.35000000000002</v>
       </c>
       <c r="F68" s="218">
-        <f>main!M82/1000</f>
-        <v>291.39999999999998</v>
+        <f>main!M83/1000</f>
+        <v>287.8</v>
       </c>
       <c r="G68" s="151">
-        <f>main!N82/1000</f>
-        <v>284.15100000000001</v>
+        <f>main!N83/1000</f>
+        <v>285.95100000000002</v>
       </c>
       <c r="H68" s="218">
-        <f>main!O82/1000</f>
-        <v>342.73880400000002</v>
+        <f>main!O83/1000</f>
+        <v>362.73880400000002</v>
       </c>
       <c r="I68" s="218">
-        <f>main!P82/1000</f>
-        <v>315.529759216</v>
+        <f>main!P83/1000</f>
+        <v>307.529759216</v>
       </c>
       <c r="J68" s="218">
-        <f>main!Q82/1000</f>
-        <v>316.32387825286401</v>
+        <f>main!Q83/1000</f>
+        <v>308.32387825286401</v>
       </c>
       <c r="K68" s="151">
-        <f>main!R82/1000</f>
-        <v>311.12117376587548</v>
+        <f>main!R83/1000</f>
+        <v>309.12117376587548</v>
       </c>
       <c r="L68" s="218">
-        <f>main!S82/1000</f>
-        <v>305.92165846093894</v>
+        <f>main!S83/1000</f>
+        <v>309.92165846093894</v>
       </c>
       <c r="M68" s="218">
-        <f>main!T82/1000</f>
-        <v>306.72534509478271</v>
+        <f>main!T83/1000</f>
+        <v>310.72534509478271</v>
       </c>
       <c r="N68" s="218">
-        <f>main!U82/1000</f>
-        <v>307.53224647516186</v>
+        <f>main!U83/1000</f>
+        <v>311.53224647516186</v>
       </c>
       <c r="O68" s="151">
-        <f>main!V82/1000</f>
-        <v>308.34237546106249</v>
+        <f>main!V83/1000</f>
+        <v>312.34237546106249</v>
       </c>
       <c r="P68" s="248">
-        <f>main!W82/1000</f>
-        <v>309.15574496290668</v>
+        <f>main!W83/1000</f>
+        <v>313.15574496290668</v>
       </c>
       <c r="Q68" s="248">
         <v>330.50545802602733</v>
@@ -26438,47 +26524,47 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>65.492999999999967</v>
+        <v>61.893000000000001</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>23.413999999999987</v>
+        <v>25.213999999999999</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>110.66361528682643</v>
+        <v>130.66361528682643</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>99.809555373839004</v>
+        <v>91.809555373839004</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>95.432482045412996</v>
+        <v>87.432482045412996</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>84.352027504066797</v>
+        <v>82.352027504066797</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>73.593706110606433</v>
+        <v>77.593706110606433</v>
       </c>
       <c r="M71" s="217">
         <f t="shared" si="119"/>
-        <v>68.795455197427913</v>
+        <v>72.795455197427913</v>
       </c>
       <c r="N71" s="217">
         <f t="shared" si="119"/>
-        <v>55.928177024695259</v>
+        <v>59.928177024695259</v>
       </c>
       <c r="O71" s="150">
         <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>43.062676959411363</v>
+        <v>47.062676959411363</v>
       </c>
       <c r="P71" s="250">
         <f t="shared" si="120"/>
-        <v>30.056951067957698</v>
+        <v>34.056951067957698</v>
       </c>
       <c r="Q71" s="250">
         <f t="shared" si="120"/>
@@ -26582,9 +26668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26637,10 +26723,10 @@
         <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -26729,11 +26815,11 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>65.492999999999967</v>
+        <v>61.893000000000001</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
-        <v>291.39999999999998</v>
+        <v>287.8</v>
       </c>
       <c r="K3" s="102">
         <v>775.2</v>
@@ -26781,11 +26867,11 @@
         <v>208.23599999999993</v>
       </c>
       <c r="I4">
-        <v>23.413999999999987</v>
+        <v>25.213999999999999</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
-        <v>284.15100000000001</v>
+        <v>285.95100000000002</v>
       </c>
       <c r="K4" s="102">
         <v>296.39999999999998</v>
@@ -26830,14 +26916,10 @@
         <v>1488.7674453956693</v>
       </c>
       <c r="H5">
-        <v>-259.91619825290059</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I5">
-        <v>110.66361528682643</v>
-      </c>
-      <c r="J5" s="151">
-        <f>'add-ons calculations'!H68</f>
-        <v>342.73880400000002</v>
+        <v>130.66361528682643</v>
       </c>
       <c r="K5" s="102">
         <v>544.4</v>
@@ -26884,10 +26966,10 @@
         <v>373.18358526468296</v>
       </c>
       <c r="H6">
-        <v>-260.91609823444162</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="I6">
-        <v>99.809555373839004</v>
+        <v>91.809555373839004</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -26938,7 +27020,7 @@
         <v>-263.99839104983226</v>
       </c>
       <c r="I7">
-        <v>95.432482045412996</v>
+        <v>87.432482045412996</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -26989,7 +27071,7 @@
         <v>-287.32230778657441</v>
       </c>
       <c r="I8">
-        <v>84.352027504066797</v>
+        <v>82.352027504066797</v>
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
@@ -27040,7 +27122,7 @@
         <v>-334.72051450560957</v>
       </c>
       <c r="I9">
-        <v>73.593706110606433</v>
+        <v>77.593706110606433</v>
       </c>
       <c r="K9" s="102">
         <f t="shared" si="1"/>
@@ -27090,7 +27172,7 @@
         <v>-336.30233306180742</v>
       </c>
       <c r="I10">
-        <v>68.795455197427913</v>
+        <v>72.795455197427913</v>
       </c>
       <c r="K10" s="102">
         <f t="shared" si="1"/>
@@ -27140,7 +27222,7 @@
         <v>-337.87409768650394</v>
       </c>
       <c r="I11">
-        <v>55.928177024695259</v>
+        <v>59.928177024695259</v>
       </c>
       <c r="K11" s="102">
         <f t="shared" si="1"/>
@@ -27190,7 +27272,7 @@
         <v>-339.44251100070011</v>
       </c>
       <c r="I12">
-        <v>43.062676959411363</v>
+        <v>47.062676959411363</v>
       </c>
       <c r="K12" s="102">
         <f t="shared" si="1"/>
@@ -27240,7 +27322,7 @@
         <v>-341.0159512806469</v>
       </c>
       <c r="I13">
-        <v>30.056951067957698</v>
+        <v>34.056951067957698</v>
       </c>
       <c r="K13" s="102">
         <f t="shared" si="1"/>
@@ -27744,36 +27826,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="340" t="s">
+      <c r="D1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340" t="s">
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340" t="s">
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
-      <c r="O1" s="340"/>
-      <c r="P1" s="340" t="s">
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="341"/>
+      <c r="P1" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="340"/>
-      <c r="R1" s="340"/>
-      <c r="S1" s="340"/>
-      <c r="T1" s="340" t="s">
+      <c r="Q1" s="341"/>
+      <c r="R1" s="341"/>
+      <c r="S1" s="341"/>
+      <c r="T1" s="341" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="340"/>
-      <c r="V1" s="340"/>
-      <c r="W1" s="340"/>
+      <c r="U1" s="341"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
@@ -28005,71 +28087,71 @@
         <v>15</v>
       </c>
       <c r="D5" s="197">
-        <f>main!F96</f>
+        <f>main!F97</f>
         <v>728844</v>
       </c>
       <c r="E5" s="197">
-        <f>main!G96</f>
+        <f>main!G97</f>
         <v>738714</v>
       </c>
       <c r="F5" s="197">
-        <f>main!H96</f>
+        <f>main!H97</f>
         <v>755204</v>
       </c>
       <c r="G5" s="197">
-        <f>main!I96</f>
+        <f>main!I97</f>
         <v>763370</v>
       </c>
       <c r="H5" s="197">
-        <f>main!J96</f>
+        <f>main!J97</f>
         <v>760967</v>
       </c>
       <c r="I5" s="197">
-        <f>main!K96</f>
+        <f>main!K97</f>
         <v>767087</v>
       </c>
       <c r="J5" s="197">
-        <f>main!L96</f>
+        <f>main!L97</f>
         <v>812158</v>
       </c>
       <c r="K5" s="197">
-        <f>main!M96</f>
+        <f>main!M97</f>
         <v>828480</v>
       </c>
       <c r="L5" s="262">
-        <f>main!N96</f>
+        <f>main!N97</f>
         <v>818740</v>
       </c>
       <c r="M5" s="262">
-        <f>main!O96</f>
+        <f>main!O97</f>
         <v>831250.83502466371</v>
       </c>
       <c r="N5" s="262">
-        <f>main!P96</f>
+        <f>main!P97</f>
         <v>838457.84744285408</v>
       </c>
       <c r="O5" s="262">
-        <f>main!Q96</f>
+        <f>main!Q97</f>
         <v>839187.01967747905</v>
       </c>
       <c r="P5" s="262">
-        <f>main!R96</f>
+        <f>main!R97</f>
         <v>840286.24682117626</v>
       </c>
       <c r="Q5" s="262">
-        <f>main!S96</f>
+        <f>main!S97</f>
         <v>841762.8752842095</v>
       </c>
       <c r="R5" s="262">
-        <f>main!T96</f>
+        <f>main!T97</f>
         <v>843107.97501111636</v>
       </c>
       <c r="S5" s="262">
-        <f>main!U96</f>
+        <f>main!U97</f>
         <v>844539.45728929248</v>
       </c>
       <c r="T5" s="262">
-        <f>main!V96</f>
+        <f>main!V97</f>
         <v>846032.64138980373</v>
       </c>
       <c r="U5" s="262"/>
@@ -28082,71 +28164,71 @@
         <v>212</v>
       </c>
       <c r="D6" s="197">
-        <f>main!F99</f>
+        <f>main!F100</f>
         <v>589819</v>
       </c>
       <c r="E6" s="197">
-        <f>main!G99</f>
+        <f>main!G100</f>
         <v>599372</v>
       </c>
       <c r="F6" s="197">
-        <f>main!H99</f>
+        <f>main!H100</f>
         <v>614976</v>
       </c>
       <c r="G6" s="197">
-        <f>main!I99</f>
+        <f>main!I100</f>
         <v>622265</v>
       </c>
       <c r="H6" s="197">
-        <f>main!J99</f>
+        <f>main!J100</f>
         <v>619632</v>
       </c>
       <c r="I6" s="197">
-        <f>main!K99</f>
+        <f>main!K100</f>
         <v>624096</v>
       </c>
       <c r="J6" s="197">
-        <f>main!L99</f>
+        <f>main!L100</f>
         <v>668823</v>
       </c>
       <c r="K6" s="197">
-        <f>main!M99</f>
+        <f>main!M100</f>
         <v>683703</v>
       </c>
       <c r="L6" s="35">
-        <f>main!N99</f>
+        <f>main!N100</f>
         <v>673632</v>
       </c>
       <c r="M6" s="35">
-        <f>main!O99</f>
+        <f>main!O100</f>
         <v>685780.06502466369</v>
       </c>
       <c r="N6" s="35">
-        <f>main!P99</f>
+        <f>main!P100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="O6" s="35">
-        <f>main!Q99</f>
+        <f>main!Q100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="P6" s="35">
-        <f>main!R99</f>
+        <f>main!R100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="Q6" s="35">
-        <f>main!S99</f>
+        <f>main!S100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="R6" s="35">
-        <f>main!T99</f>
+        <f>main!T100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="S6" s="35">
-        <f>main!U99</f>
+        <f>main!U100</f>
         <v>692623.40051785414</v>
       </c>
       <c r="T6" s="35">
-        <f>main!V99</f>
+        <f>main!V100</f>
         <v>692623.40051785414</v>
       </c>
     </row>
@@ -28183,22 +28265,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="349"/>
+      <c r="B1" s="350"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="356" t="s">
+      <c r="J1" s="357" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="340"/>
-      <c r="W1" s="340"/>
-      <c r="X1" s="340"/>
-      <c r="Y1" s="340"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
+      <c r="X1" s="341"/>
+      <c r="Y1" s="341"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -28207,20 +28289,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="356"/>
+      <c r="J2" s="357"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="351"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="356"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="351"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
@@ -28230,7 +28312,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="352"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
@@ -28245,42 +28327,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="353" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="355"/>
-      <c r="G7" s="353" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="355"/>
-      <c r="K7" s="353" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="354"/>
-      <c r="N7" s="354"/>
-      <c r="O7" s="353" t="s">
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="354" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="354"/>
-      <c r="Q7" s="354"/>
-      <c r="R7" s="354"/>
-      <c r="S7" s="353" t="s">
+      <c r="P7" s="355"/>
+      <c r="Q7" s="355"/>
+      <c r="R7" s="355"/>
+      <c r="S7" s="354" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="354"/>
-      <c r="U7" s="354"/>
-      <c r="V7" s="354"/>
-      <c r="W7" s="353" t="s">
+      <c r="T7" s="355"/>
+      <c r="U7" s="355"/>
+      <c r="V7" s="355"/>
+      <c r="W7" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="354"/>
-      <c r="Z7" s="354"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="355"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -31169,7 +31251,7 @@
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>65.492999999999967</v>
+        <v>61.893000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31198,7 +31280,7 @@
         <v>208.23599999999993</v>
       </c>
       <c r="I3" s="259">
-        <v>23.413999999999987</v>
+        <v>25.213999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31224,10 +31306,10 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>-259.91619825290059</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I4" s="259">
-        <v>110.66361528682643</v>
+        <v>130.66361528682643</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31253,10 +31335,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>-260.91609823444162</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="I5" s="259">
-        <v>99.809555373839004</v>
+        <v>91.809555373839004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31285,7 +31367,7 @@
         <v>-263.99839104983226</v>
       </c>
       <c r="I6" s="259">
-        <v>95.432482045412996</v>
+        <v>87.432482045412996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31314,7 +31396,7 @@
         <v>-287.32230778657441</v>
       </c>
       <c r="I7" s="259">
-        <v>84.352027504066797</v>
+        <v>82.352027504066797</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -31343,7 +31425,7 @@
         <v>-334.72051450560957</v>
       </c>
       <c r="I8" s="259">
-        <v>73.593706110606433</v>
+        <v>77.593706110606433</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -31372,7 +31454,7 @@
         <v>-336.30233306180742</v>
       </c>
       <c r="I9" s="259">
-        <v>68.795455197427913</v>
+        <v>72.795455197427913</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -31401,7 +31483,7 @@
         <v>-337.87409768650394</v>
       </c>
       <c r="I10" s="259">
-        <v>55.928177024695259</v>
+        <v>59.928177024695259</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -31430,7 +31512,7 @@
         <v>-339.44251100070011</v>
       </c>
       <c r="I11" s="259">
-        <v>43.062676959411363</v>
+        <v>47.062676959411363</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -31459,7 +31541,7 @@
         <v>-341.0159512806469</v>
       </c>
       <c r="I12" s="259">
-        <v>30.056951067957698</v>
+        <v>34.056951067957698</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -31825,7 +31907,7 @@
         <v>329</v>
       </c>
       <c r="J1" s="297" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -33078,16 +33160,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7B7A5D-7AA1-4240-A65A-FEE53BA76D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E4341-5469-43A3-9BCC-D702000B5D4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2913,7 +2913,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3509,7 +3509,6 @@
     <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3585,6 +3584,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3606,29 +3620,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4143,11 +4142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="K76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomRight" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4170,86 +4169,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="341" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="342"/>
+      <c r="B1" s="341"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>373</v>
       </c>
-      <c r="AC1" s="348" t="s">
+      <c r="AC1" s="347" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="348"/>
-      <c r="AE1" s="346" t="s">
+      <c r="AD1" s="347"/>
+      <c r="AE1" s="345" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="347"/>
+      <c r="AF1" s="346"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="344" t="s">
+      <c r="AI1" s="343" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="344"/>
-      <c r="AK1" s="344"/>
-      <c r="AL1" s="344"/>
-      <c r="AM1" s="343" t="s">
+      <c r="AJ1" s="343"/>
+      <c r="AK1" s="343"/>
+      <c r="AL1" s="343"/>
+      <c r="AM1" s="342" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" s="343"/>
-      <c r="AO1" s="343"/>
-      <c r="AP1" s="343"/>
+      <c r="AN1" s="342"/>
+      <c r="AO1" s="342"/>
+      <c r="AP1" s="342"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="341" t="s">
+      <c r="F2" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341" t="s">
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341" t="s">
+      <c r="K2" s="340"/>
+      <c r="L2" s="340"/>
+      <c r="M2" s="340"/>
+      <c r="N2" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="341"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="341" t="s">
+      <c r="O2" s="340"/>
+      <c r="P2" s="340"/>
+      <c r="Q2" s="340"/>
+      <c r="R2" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="341"/>
-      <c r="T2" s="341"/>
-      <c r="U2" s="341"/>
-      <c r="V2" s="341" t="s">
+      <c r="S2" s="340"/>
+      <c r="T2" s="340"/>
+      <c r="U2" s="340"/>
+      <c r="V2" s="340" t="s">
         <v>265</v>
       </c>
-      <c r="W2" s="341"/>
-      <c r="X2" s="341"/>
-      <c r="Y2" s="341"/>
+      <c r="W2" s="340"/>
+      <c r="X2" s="340"/>
+      <c r="Y2" s="340"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="341" t="s">
+      <c r="AC2" s="340" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="341"/>
-      <c r="AE2" s="341"/>
-      <c r="AF2" s="341"/>
-      <c r="AG2" s="341"/>
-      <c r="AH2" s="341"/>
-      <c r="AI2" s="341"/>
-      <c r="AJ2" s="341"/>
-      <c r="AK2" s="341"/>
-      <c r="AL2" s="345"/>
+      <c r="AD2" s="340"/>
+      <c r="AE2" s="340"/>
+      <c r="AF2" s="340"/>
+      <c r="AG2" s="340"/>
+      <c r="AH2" s="340"/>
+      <c r="AI2" s="340"/>
+      <c r="AJ2" s="340"/>
+      <c r="AK2" s="340"/>
+      <c r="AL2" s="344"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
@@ -4356,10 +4355,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="339" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="340"/>
+      <c r="B4" s="339"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -8563,7 +8562,7 @@
       <c r="K71" s="202"/>
       <c r="L71" s="202">
         <f>L70-L72</f>
-        <v>193550</v>
+        <v>230950</v>
       </c>
       <c r="M71" s="303">
         <v>203600</v>
@@ -8648,11 +8647,11 @@
       <c r="K72" s="205"/>
       <c r="L72" s="205">
         <f>597.9*1000 +L77+L76</f>
-        <v>690700</v>
+        <v>653300</v>
       </c>
       <c r="M72" s="205">
         <f>M75+M76+M77</f>
-        <v>84200</v>
+        <v>87800</v>
       </c>
       <c r="N72" s="205">
         <f>VLOOKUP($C$72,'Haver NA'!$A$1:$J$34,10,0)</f>
@@ -8691,31 +8690,31 @@
       <c r="K73" s="202"/>
       <c r="L73" s="206">
         <f>SUM(L75:L77)</f>
-        <v>127800</v>
+        <v>90400</v>
       </c>
       <c r="M73" s="206">
         <f>SUM(M75:M77)</f>
-        <v>84200</v>
+        <v>87800</v>
       </c>
       <c r="N73" s="206">
         <f>SUM(N75:N77)</f>
-        <v>89000</v>
+        <v>87200</v>
       </c>
       <c r="O73" s="116">
         <f t="shared" ref="O73:Z73" si="44">O74+O78</f>
-        <v>165000</v>
+        <v>159900</v>
       </c>
       <c r="P73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>121000</v>
       </c>
       <c r="Q73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>121000</v>
       </c>
       <c r="R73" s="116">
         <f t="shared" si="44"/>
-        <v>109000</v>
+        <v>115000</v>
       </c>
       <c r="S73" s="116">
         <f t="shared" si="44"/>
@@ -8773,19 +8772,19 @@
       <c r="N74" s="308"/>
       <c r="O74" s="116">
         <f t="shared" ref="O74:Z74" si="45">SUM(O75:O77)</f>
-        <v>106000</v>
+        <v>100900</v>
       </c>
       <c r="P74" s="116">
         <f t="shared" si="45"/>
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="Q74" s="116">
         <f t="shared" si="45"/>
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="R74" s="116">
         <f t="shared" si="45"/>
-        <v>50000</v>
+        <v>56000</v>
       </c>
       <c r="S74" s="116">
         <f t="shared" si="45"/>
@@ -8963,20 +8962,26 @@
       <c r="J77" s="326"/>
       <c r="K77" s="326"/>
       <c r="L77" s="326">
-        <v>64400</v>
-      </c>
-      <c r="M77" s="339">
-        <v>23400</v>
+        <v>27000</v>
+      </c>
+      <c r="M77" s="327">
+        <v>27000</v>
       </c>
       <c r="N77" s="336">
-        <v>13800</v>
+        <v>12000</v>
       </c>
       <c r="O77" s="337">
-        <v>17100</v>
-      </c>
-      <c r="P77" s="337"/>
-      <c r="Q77" s="337"/>
-      <c r="R77" s="337"/>
+        <v>12000</v>
+      </c>
+      <c r="P77" s="337">
+        <v>12000</v>
+      </c>
+      <c r="Q77" s="337">
+        <v>12000</v>
+      </c>
+      <c r="R77" s="337">
+        <v>6000</v>
+      </c>
       <c r="S77" s="330"/>
       <c r="T77" s="330"/>
       <c r="U77" s="330"/>
@@ -9365,27 +9370,27 @@
       </c>
       <c r="M83" s="206">
         <f t="shared" si="47"/>
-        <v>287800</v>
+        <v>291400</v>
       </c>
       <c r="N83" s="308">
         <f t="shared" si="47"/>
-        <v>285951</v>
+        <v>284151</v>
       </c>
       <c r="O83" s="144">
         <f t="shared" si="47"/>
-        <v>362738.804</v>
+        <v>357638.804</v>
       </c>
       <c r="P83" s="144">
         <f t="shared" si="47"/>
-        <v>307529.75921599998</v>
+        <v>319529.75921599998</v>
       </c>
       <c r="Q83" s="144">
         <f t="shared" si="47"/>
-        <v>308323.878252864</v>
+        <v>320323.878252864</v>
       </c>
       <c r="R83" s="144">
         <f t="shared" si="47"/>
-        <v>309121.17376587546</v>
+        <v>315121.17376587546</v>
       </c>
       <c r="S83" s="144">
         <f t="shared" si="47"/>
@@ -12728,50 +12733,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="357" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
+      <c r="B5" s="358"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="358"/>
+      <c r="P5" s="358"/>
+      <c r="Q5" s="358"/>
+      <c r="R5" s="358"/>
+      <c r="S5" s="358"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="360"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="360"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="360"/>
-      <c r="R6" s="360"/>
-      <c r="S6" s="360"/>
+      <c r="B6" s="359"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="359"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="359"/>
+      <c r="K6" s="359"/>
+      <c r="L6" s="359"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="359"/>
+      <c r="P6" s="359"/>
+      <c r="Q6" s="359"/>
+      <c r="R6" s="359"/>
+      <c r="S6" s="359"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12812,8 +12817,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="361"/>
-      <c r="S8" s="362"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="361"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -13085,10 +13090,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="341" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="342"/>
+      <c r="B1" s="341"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13096,18 +13101,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="363" t="s">
+      <c r="Z1" s="362" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="363"/>
-      <c r="AB1" s="363"/>
-      <c r="AC1" s="341"/>
-      <c r="AD1" s="341"/>
-      <c r="AE1" s="341"/>
-      <c r="AF1" s="341"/>
+      <c r="AA1" s="362"/>
+      <c r="AB1" s="362"/>
+      <c r="AC1" s="340"/>
+      <c r="AD1" s="340"/>
+      <c r="AE1" s="340"/>
+      <c r="AF1" s="340"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="363" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="107"/>
@@ -13116,45 +13121,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="364"/>
+      <c r="A3" s="363"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="364"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="364"/>
+      <c r="A5" s="363"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="353" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="355"/>
+      <c r="G7" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="354"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="355"/>
+      <c r="K7" s="353" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="356"/>
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="355"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -15036,88 +15041,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="369" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="365"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="365"/>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
-      <c r="F3" s="365"/>
-      <c r="G3" s="365"/>
-      <c r="H3" s="365"/>
-      <c r="I3" s="365"/>
-      <c r="J3" s="365"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="366"/>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
-      <c r="J4" s="366"/>
-      <c r="K4" s="371" t="s">
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="371"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="371"/>
+      <c r="L4" s="375"/>
+      <c r="M4" s="375"/>
+      <c r="N4" s="375"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="367" t="s">
+      <c r="C5" s="371" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-      <c r="H5" s="368"/>
-      <c r="I5" s="368"/>
-      <c r="J5" s="369"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="372"/>
+      <c r="I5" s="372"/>
+      <c r="J5" s="373"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="370" t="s">
+      <c r="L5" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="341"/>
-      <c r="N5" s="341"/>
+      <c r="M5" s="340"/>
+      <c r="N5" s="340"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="373">
+      <c r="C6" s="365">
         <v>2020</v>
       </c>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="374"/>
-      <c r="I6" s="374"/>
-      <c r="J6" s="375"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="366"/>
+      <c r="I6" s="366"/>
+      <c r="J6" s="367"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15555,24 +15560,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="341" t="s">
+      <c r="K22" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="341"/>
-      <c r="M22" s="341"/>
-      <c r="N22" s="341"/>
-      <c r="O22" s="341" t="s">
+      <c r="L22" s="340"/>
+      <c r="M22" s="340"/>
+      <c r="N22" s="340"/>
+      <c r="O22" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="341"/>
-      <c r="Q22" s="341"/>
-      <c r="R22" s="341"/>
-      <c r="S22" s="341" t="s">
+      <c r="P22" s="340"/>
+      <c r="Q22" s="340"/>
+      <c r="R22" s="340"/>
+      <c r="S22" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="341"/>
-      <c r="U22" s="341"/>
-      <c r="V22" s="341"/>
+      <c r="T22" s="340"/>
+      <c r="U22" s="340"/>
+      <c r="V22" s="340"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15589,12 +15594,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="376" t="s">
+      <c r="K23" s="368" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="376"/>
-      <c r="M23" s="376"/>
-      <c r="N23" s="376"/>
+      <c r="L23" s="368"/>
+      <c r="M23" s="368"/>
+      <c r="N23" s="368"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15763,7 +15768,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="372" t="s">
+      <c r="I28" s="364" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15813,7 +15818,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="372"/>
+      <c r="I29" s="364"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15861,7 +15866,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="372"/>
+      <c r="I30" s="364"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15909,7 +15914,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="372"/>
+      <c r="I31" s="364"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15971,7 +15976,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="372" t="s">
+      <c r="I33" s="364" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16019,7 +16024,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="372"/>
+      <c r="I34" s="364"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16256,6 +16261,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16263,12 +16274,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16375,30 +16380,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="380" t="s">
+      <c r="E6" s="377" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="380"/>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
-      <c r="K6" s="380"/>
-      <c r="L6" s="380"/>
-      <c r="M6" s="380"/>
-      <c r="N6" s="380"/>
-      <c r="O6" s="380"/>
-      <c r="P6" s="380"/>
-      <c r="Q6" s="380"/>
-      <c r="R6" s="380"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="377"/>
+      <c r="I6" s="377"/>
+      <c r="J6" s="377"/>
+      <c r="K6" s="377"/>
+      <c r="L6" s="377"/>
+      <c r="M6" s="377"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="377"/>
+      <c r="P6" s="377"/>
+      <c r="Q6" s="377"/>
+      <c r="R6" s="377"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="377" t="s">
+      <c r="A7" s="376" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="377"/>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
+      <c r="B7" s="376"/>
+      <c r="C7" s="376"/>
+      <c r="D7" s="376"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16416,11 +16421,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="377" t="s">
+      <c r="B8" s="376" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="377"/>
-      <c r="D8" s="377"/>
+      <c r="C8" s="376"/>
+      <c r="D8" s="376"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16466,11 +16471,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="376" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
+      <c r="C9" s="376"/>
+      <c r="D9" s="376"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16516,11 +16521,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="377" t="s">
+      <c r="B10" s="376" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="376"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16566,11 +16571,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="377" t="s">
+      <c r="B11" s="376" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
+      <c r="C11" s="376"/>
+      <c r="D11" s="376"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16665,10 +16670,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="377" t="s">
+      <c r="C13" s="376" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="377"/>
+      <c r="D13" s="376"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16819,11 +16824,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="377" t="s">
+      <c r="B19" s="376" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="377"/>
-      <c r="D19" s="377"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16882,11 +16887,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="377" t="s">
+      <c r="B20" s="376" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="377"/>
-      <c r="D20" s="377"/>
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16946,11 +16951,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="376" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="377"/>
-      <c r="D21" s="377"/>
+      <c r="C21" s="376"/>
+      <c r="D21" s="376"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17009,11 +17014,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="377" t="s">
+      <c r="B22" s="376" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="377"/>
-      <c r="D22" s="377"/>
+      <c r="C22" s="376"/>
+      <c r="D22" s="376"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -18112,12 +18117,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18126,6 +18125,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18164,50 +18169,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="357" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
+      <c r="B5" s="358"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="358"/>
+      <c r="P5" s="358"/>
+      <c r="Q5" s="358"/>
+      <c r="R5" s="358"/>
+      <c r="S5" s="358"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="360"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="360"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="360"/>
-      <c r="R6" s="360"/>
-      <c r="S6" s="360"/>
+      <c r="B6" s="359"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="359"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="359"/>
+      <c r="K6" s="359"/>
+      <c r="L6" s="359"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="359"/>
+      <c r="P6" s="359"/>
+      <c r="Q6" s="359"/>
+      <c r="R6" s="359"/>
+      <c r="S6" s="359"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18247,10 +18252,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="361" t="s">
+      <c r="R8" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="362"/>
+      <c r="S8" s="361"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21121,10 +21126,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="381" t="s">
+      <c r="D75" s="380" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="382"/>
+      <c r="E75" s="381"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22071,8 +22076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
@@ -22094,23 +22099,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="348" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="350"/>
+      <c r="B1" s="349"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="357" t="s">
+      <c r="J1" s="356" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="341"/>
+      <c r="V1" s="340"/>
+      <c r="W1" s="340"/>
+      <c r="X1" s="340"/>
+      <c r="Y1" s="340"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="350" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -22118,68 +22123,68 @@
         <v>192</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="357"/>
+      <c r="J2" s="356"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="352"/>
+      <c r="A3" s="351"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="357"/>
+      <c r="J3" s="356"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="352"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="353"/>
+      <c r="A5" s="352"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="353" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="355"/>
+      <c r="G7" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="354"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="355"/>
+      <c r="K7" s="353" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="355"/>
-      <c r="O7" s="354" t="s">
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="354"/>
+      <c r="O7" s="353" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="355"/>
-      <c r="Q7" s="355"/>
-      <c r="R7" s="355"/>
-      <c r="S7" s="354" t="s">
+      <c r="P7" s="354"/>
+      <c r="Q7" s="354"/>
+      <c r="R7" s="354"/>
+      <c r="S7" s="353" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="355"/>
-      <c r="U7" s="355"/>
-      <c r="V7" s="355"/>
-      <c r="W7" s="354" t="s">
+      <c r="T7" s="354"/>
+      <c r="U7" s="354"/>
+      <c r="V7" s="354"/>
+      <c r="W7" s="353" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="355"/>
-      <c r="Y7" s="355"/>
-      <c r="Z7" s="355"/>
+      <c r="X7" s="354"/>
+      <c r="Y7" s="354"/>
+      <c r="Z7" s="354"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -26266,27 +26271,27 @@
       </c>
       <c r="F68" s="218">
         <f>main!M83/1000</f>
-        <v>287.8</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="G68" s="151">
         <f>main!N83/1000</f>
-        <v>285.95100000000002</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="H68" s="218">
         <f>main!O83/1000</f>
-        <v>362.73880400000002</v>
+        <v>357.63880399999999</v>
       </c>
       <c r="I68" s="218">
         <f>main!P83/1000</f>
-        <v>307.529759216</v>
+        <v>319.529759216</v>
       </c>
       <c r="J68" s="218">
         <f>main!Q83/1000</f>
-        <v>308.32387825286401</v>
+        <v>320.32387825286401</v>
       </c>
       <c r="K68" s="151">
         <f>main!R83/1000</f>
-        <v>309.12117376587548</v>
+        <v>315.12117376587548</v>
       </c>
       <c r="L68" s="218">
         <f>main!S83/1000</f>
@@ -26524,27 +26529,27 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>61.893000000000001</v>
+        <v>65.492999999999967</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>25.213999999999999</v>
+        <v>23.413999999999987</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>130.66361528682643</v>
+        <v>125.5636152868264</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>91.809555373839004</v>
+        <v>103.809555373839</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>87.432482045412996</v>
+        <v>99.432482045412996</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>82.352027504066797</v>
+        <v>88.352027504066797</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
@@ -26668,9 +26673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M5" sqref="M5"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26815,11 +26820,11 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>61.893000000000001</v>
+        <v>65.492999999999967</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
-        <v>287.8</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="K3" s="102">
         <v>775.2</v>
@@ -26867,11 +26872,11 @@
         <v>208.23599999999993</v>
       </c>
       <c r="I4">
-        <v>25.213999999999999</v>
+        <v>23.413999999999987</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
-        <v>285.95100000000002</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="K4" s="102">
         <v>296.39999999999998</v>
@@ -26919,7 +26924,7 @@
         <v>389.89820174709951</v>
       </c>
       <c r="I5">
-        <v>130.66361528682643</v>
+        <v>125.5636152868264</v>
       </c>
       <c r="K5" s="102">
         <v>544.4</v>
@@ -26969,7 +26974,7 @@
         <v>387.96950176555845</v>
       </c>
       <c r="I6">
-        <v>91.809555373839004</v>
+        <v>103.809555373839</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -27020,7 +27025,7 @@
         <v>-263.99839104983226</v>
       </c>
       <c r="I7">
-        <v>87.432482045412996</v>
+        <v>99.432482045412996</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -27071,7 +27076,7 @@
         <v>-287.32230778657441</v>
       </c>
       <c r="I8">
-        <v>82.352027504066797</v>
+        <v>88.352027504066797</v>
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
@@ -27826,36 +27831,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="341" t="s">
+      <c r="D1" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341" t="s">
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341" t="s">
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="341"/>
-      <c r="P1" s="341" t="s">
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="340"/>
+      <c r="P1" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="341"/>
-      <c r="R1" s="341"/>
-      <c r="S1" s="341"/>
-      <c r="T1" s="341" t="s">
+      <c r="Q1" s="340"/>
+      <c r="R1" s="340"/>
+      <c r="S1" s="340"/>
+      <c r="T1" s="340" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="341"/>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
+      <c r="U1" s="340"/>
+      <c r="V1" s="340"/>
+      <c r="W1" s="340"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
@@ -28265,22 +28270,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="348" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="350"/>
+      <c r="B1" s="349"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="357" t="s">
+      <c r="J1" s="356" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="341"/>
+      <c r="V1" s="340"/>
+      <c r="W1" s="340"/>
+      <c r="X1" s="340"/>
+      <c r="Y1" s="340"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="350" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -28289,20 +28294,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="357"/>
+      <c r="J2" s="356"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="352"/>
+      <c r="A3" s="351"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="357"/>
+      <c r="J3" s="356"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="352"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
@@ -28312,7 +28317,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="353"/>
+      <c r="A5" s="352"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
@@ -28327,42 +28332,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="353" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="355"/>
+      <c r="G7" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="354"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="355"/>
+      <c r="K7" s="353" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="355"/>
-      <c r="O7" s="354" t="s">
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="354"/>
+      <c r="O7" s="353" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="355"/>
-      <c r="Q7" s="355"/>
-      <c r="R7" s="355"/>
-      <c r="S7" s="354" t="s">
+      <c r="P7" s="354"/>
+      <c r="Q7" s="354"/>
+      <c r="R7" s="354"/>
+      <c r="S7" s="353" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="355"/>
-      <c r="U7" s="355"/>
-      <c r="V7" s="355"/>
-      <c r="W7" s="354" t="s">
+      <c r="T7" s="354"/>
+      <c r="U7" s="354"/>
+      <c r="V7" s="354"/>
+      <c r="W7" s="353" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="355"/>
-      <c r="Y7" s="355"/>
-      <c r="Z7" s="355"/>
+      <c r="X7" s="354"/>
+      <c r="Y7" s="354"/>
+      <c r="Z7" s="354"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -31251,7 +31256,7 @@
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>61.893000000000001</v>
+        <v>65.492999999999967</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31280,7 +31285,7 @@
         <v>208.23599999999993</v>
       </c>
       <c r="I3" s="259">
-        <v>25.213999999999999</v>
+        <v>23.413999999999987</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31309,7 +31314,7 @@
         <v>389.89820174709951</v>
       </c>
       <c r="I4" s="259">
-        <v>130.66361528682643</v>
+        <v>125.5636152868264</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31338,7 +31343,7 @@
         <v>387.96950176555845</v>
       </c>
       <c r="I5" s="259">
-        <v>91.809555373839004</v>
+        <v>103.809555373839</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31367,7 +31372,7 @@
         <v>-263.99839104983226</v>
       </c>
       <c r="I6" s="259">
-        <v>87.432482045412996</v>
+        <v>99.432482045412996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31396,7 +31401,7 @@
         <v>-287.32230778657441</v>
       </c>
       <c r="I7" s="259">
-        <v>82.352027504066797</v>
+        <v>88.352027504066797</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -32899,6 +32904,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33115,15 +33129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -33131,6 +33136,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33149,27 +33162,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E4341-5469-43A3-9BCC-D702000B5D4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DA04C-9C54-4487-A816-D87FF1A8ADCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="4830" yWindow="1210" windowWidth="14400" windowHeight="9350" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3584,21 +3584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3620,14 +3605,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4142,11 +4142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K76" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15041,68 +15041,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="364" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="370"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="375" t="s">
+      <c r="A4" s="365"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="370" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="375"/>
-      <c r="M4" s="375"/>
-      <c r="N4" s="375"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="371" t="s">
+      <c r="C5" s="366" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="373"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="368"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="374" t="s">
+      <c r="L5" s="369" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="340"/>
@@ -15113,16 +15113,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="365">
+      <c r="C6" s="372">
         <v>2020</v>
       </c>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="367"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="374"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15594,12 +15594,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="368" t="s">
+      <c r="K23" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="368"/>
-      <c r="M23" s="368"/>
-      <c r="N23" s="368"/>
+      <c r="L23" s="375"/>
+      <c r="M23" s="375"/>
+      <c r="N23" s="375"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15768,7 +15768,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="364" t="s">
+      <c r="I28" s="371" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15818,7 +15818,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="364"/>
+      <c r="I29" s="371"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15866,7 +15866,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="364"/>
+      <c r="I30" s="371"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15914,7 +15914,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="364"/>
+      <c r="I31" s="371"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15976,7 +15976,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="364" t="s">
+      <c r="I33" s="371" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16024,7 +16024,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="364"/>
+      <c r="I34" s="371"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16261,12 +16261,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16274,6 +16268,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16380,22 +16380,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="377" t="s">
+      <c r="E6" s="379" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="377"/>
-      <c r="G6" s="377"/>
-      <c r="H6" s="377"/>
-      <c r="I6" s="377"/>
-      <c r="J6" s="377"/>
-      <c r="K6" s="377"/>
-      <c r="L6" s="377"/>
-      <c r="M6" s="377"/>
-      <c r="N6" s="377"/>
-      <c r="O6" s="377"/>
-      <c r="P6" s="377"/>
-      <c r="Q6" s="377"/>
-      <c r="R6" s="377"/>
+      <c r="F6" s="379"/>
+      <c r="G6" s="379"/>
+      <c r="H6" s="379"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="379"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="379"/>
+      <c r="M6" s="379"/>
+      <c r="N6" s="379"/>
+      <c r="O6" s="379"/>
+      <c r="P6" s="379"/>
+      <c r="Q6" s="379"/>
+      <c r="R6" s="379"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="376" t="s">
@@ -17131,21 +17131,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="378" t="s">
+      <c r="H27" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
-      <c r="K27" s="378"/>
-      <c r="L27" s="378"/>
-      <c r="M27" s="378"/>
-      <c r="N27" s="378"/>
-      <c r="O27" s="378"/>
-      <c r="P27" s="378"/>
-      <c r="Q27" s="378"/>
-      <c r="R27" s="378"/>
-      <c r="S27" s="378"/>
-      <c r="T27" s="378"/>
+      <c r="I27" s="377"/>
+      <c r="J27" s="377"/>
+      <c r="K27" s="377"/>
+      <c r="L27" s="377"/>
+      <c r="M27" s="377"/>
+      <c r="N27" s="377"/>
+      <c r="O27" s="377"/>
+      <c r="P27" s="377"/>
+      <c r="Q27" s="377"/>
+      <c r="R27" s="377"/>
+      <c r="S27" s="377"/>
+      <c r="T27" s="377"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17461,21 +17461,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="379" t="s">
+      <c r="F37" s="378" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="379"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="379"/>
-      <c r="J37" s="379"/>
-      <c r="K37" s="379"/>
-      <c r="L37" s="379"/>
-      <c r="M37" s="379"/>
-      <c r="N37" s="379"/>
-      <c r="O37" s="379"/>
-      <c r="P37" s="379"/>
-      <c r="Q37" s="379"/>
-      <c r="R37" s="379"/>
+      <c r="G37" s="378"/>
+      <c r="H37" s="378"/>
+      <c r="I37" s="378"/>
+      <c r="J37" s="378"/>
+      <c r="K37" s="378"/>
+      <c r="L37" s="378"/>
+      <c r="M37" s="378"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17791,21 +17791,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="378" t="s">
+      <c r="F48" s="377" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="378"/>
-      <c r="H48" s="378"/>
-      <c r="I48" s="378"/>
-      <c r="J48" s="378"/>
-      <c r="K48" s="378"/>
-      <c r="L48" s="378"/>
-      <c r="M48" s="378"/>
-      <c r="N48" s="378"/>
-      <c r="O48" s="378"/>
-      <c r="P48" s="378"/>
-      <c r="Q48" s="378"/>
-      <c r="R48" s="378"/>
+      <c r="G48" s="377"/>
+      <c r="H48" s="377"/>
+      <c r="I48" s="377"/>
+      <c r="J48" s="377"/>
+      <c r="K48" s="377"/>
+      <c r="L48" s="377"/>
+      <c r="M48" s="377"/>
+      <c r="N48" s="377"/>
+      <c r="O48" s="377"/>
+      <c r="P48" s="377"/>
+      <c r="Q48" s="377"/>
+      <c r="R48" s="377"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18117,6 +18117,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18125,12 +18131,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26673,9 +26673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26939,9 +26939,8 @@
       <c r="N5">
         <v>59</v>
       </c>
-      <c r="O5">
-        <f>71400/1000</f>
-        <v>71.400000000000006</v>
+      <c r="O5" s="102">
+        <v>0</v>
       </c>
       <c r="P5" s="296">
         <f>main!$O$37/1000</f>
@@ -26992,8 +26991,7 @@
         <v>59</v>
       </c>
       <c r="O6">
-        <f>71400/1000</f>
-        <v>71.400000000000006</v>
+        <v>26.5</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -27043,8 +27041,7 @@
         <v>59</v>
       </c>
       <c r="O7">
-        <f>30600/1000</f>
-        <v>30.6</v>
+        <v>26.5</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -27094,8 +27091,7 @@
         <v>59</v>
       </c>
       <c r="O8">
-        <f>30600/1000</f>
-        <v>30.6</v>
+        <v>26.5</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -27145,7 +27141,7 @@
         <v>59</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -27195,7 +27191,7 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -27245,7 +27241,7 @@
         <v>59</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -27295,7 +27291,7 @@
         <v>59</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -27343,7 +27339,7 @@
         <v>59</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -27385,7 +27381,7 @@
         <v>59</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -27427,7 +27423,7 @@
         <v>59</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -27469,7 +27465,7 @@
         <v>59</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -27511,7 +27507,7 @@
         <v>59</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -27553,7 +27549,7 @@
         <v>59</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -27595,7 +27591,7 @@
         <v>59</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -27637,7 +27633,7 @@
         <v>59</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -27679,7 +27675,7 @@
         <v>59</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -27721,7 +27717,7 @@
         <v>59</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -27763,7 +27759,7 @@
         <v>59</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -27805,7 +27801,7 @@
         <v>59</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -32904,12 +32900,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33130,15 +33123,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33163,18 +33168,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DA04C-9C54-4487-A816-D87FF1A8ADCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA539E6E-7956-4C69-8E9B-C76ACF288C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1210" windowWidth="14400" windowHeight="9350" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4143,10 +4143,10 @@
   <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
+      <selection pane="bottomRight" activeCell="R83" sqref="R83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22076,11 +22076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22295,143 +22295,140 @@
       <c r="B10" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>156.16</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>197.62799999999999</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>170.20699999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>164.13699999999989</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>168.2833827902208</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>172.42976558044171</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>173.0148583315212</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>173.59995108260071</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>174.1850438336802</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>174.77013658475971</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>172.87701948733081</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>170.98390238990191</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>169.09078529247299</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>167.19766819504409</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>168.18650468764571</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>169.1753411802471</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>170.1641776728485</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>171.15301416545</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>173.69648926200901</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>176.23996435856819</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>178.78343945512711</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>181.3269145516862</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>183.85985203007041</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>186.3927895084546</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>188.9257269868389</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>191.45866446522299</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>194.36254309952051</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>197.26642173381791</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>200.17030036811531</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>203.07417900241259</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>206.00159731602</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>208.92901562962729</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>211.85643394323469</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>214.7838522568419</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>217.8087435385666</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>220.83363482029131</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>223.85852610201621</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>226.88341738374069</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>230.0749559980533</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>233.2664946123657</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>236.45803322667831</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>239.6495718409908</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>242.96586225756681</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>246.28215267414279</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>249.59844309071909</v>
-      </c>
-      <c r="AW10">
-        <v>252.91473350729501</v>
       </c>
       <c r="AX10">
         <v>252.91473350729501</v>
@@ -22441,289 +22438,283 @@
       <c r="B11" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="D11">
-        <v>440</v>
-      </c>
       <c r="E11">
-        <v>363.8</v>
+        <v>736.59999999999991</v>
       </c>
       <c r="F11">
-        <v>243.1</v>
+        <v>582.79999999999995</v>
       </c>
       <c r="G11">
-        <v>216.8</v>
+        <v>341</v>
       </c>
       <c r="H11">
-        <v>201.69787045292151</v>
+        <v>287.69999999999987</v>
       </c>
       <c r="I11">
-        <v>188.86729215584299</v>
+        <v>249.4722454529217</v>
       </c>
       <c r="J11">
-        <v>193.24899108297839</v>
+        <v>238.93299559334321</v>
       </c>
       <c r="K11">
-        <v>199.97623704208269</v>
+        <v>241.82759010290039</v>
       </c>
       <c r="L11">
-        <v>205.88603266163159</v>
+        <v>245.1419882747505</v>
       </c>
       <c r="M11">
-        <v>212.3326953411578</v>
+        <v>248.49241388178211</v>
       </c>
       <c r="N11">
-        <v>229.53998058883141</v>
+        <v>249.5444242270961</v>
       </c>
       <c r="O11">
-        <v>247.744304662177</v>
+        <v>259.81500173946711</v>
       </c>
       <c r="P11">
-        <v>267.06071050261841</v>
+        <v>226.09143780901999</v>
       </c>
       <c r="Q11">
-        <v>286.79894046161343</v>
+        <v>236.37374708214861</v>
       </c>
       <c r="R11">
-        <v>294.89122979125102</v>
+        <v>255.74027715387331</v>
       </c>
       <c r="S11">
-        <v>303.40534323944189</v>
+        <v>263.44759160026678</v>
       </c>
       <c r="T11">
-        <v>312.30293315904561</v>
+        <v>271.56345516923977</v>
       </c>
       <c r="U11">
-        <v>320.66365601867182</v>
+        <v>280.05072703146732</v>
       </c>
       <c r="V11">
-        <v>321.93933937542943</v>
+        <v>288.01802728313891</v>
       </c>
       <c r="W11">
-        <v>323.17667508504508</v>
+        <v>288.91839029917872</v>
       </c>
       <c r="X11">
-        <v>324.3756631475203</v>
+        <v>289.78161248589288</v>
       </c>
       <c r="Y11">
-        <v>325.57465120999512</v>
+        <v>290.60769384328211</v>
       </c>
       <c r="Z11">
-        <v>326.81776402783669</v>
+        <v>291.43377520067099</v>
       </c>
       <c r="AA11">
-        <v>328.06087684567802</v>
+        <v>292.30398131342662</v>
       </c>
       <c r="AB11">
-        <v>329.34233731066053</v>
+        <v>293.17418742618202</v>
       </c>
       <c r="AC11">
-        <v>330.62379777564308</v>
+        <v>294.08153436826302</v>
       </c>
       <c r="AD11">
-        <v>330.39034332990889</v>
+        <v>294.98888131034357</v>
       </c>
       <c r="AE11">
-        <v>330.15688888417498</v>
+        <v>294.38010652389193</v>
       </c>
       <c r="AF11">
-        <v>329.96178208558229</v>
+        <v>293.77133173744051</v>
       </c>
       <c r="AG11">
-        <v>329.80502293413088</v>
+        <v>293.1996977803143</v>
       </c>
       <c r="AH11">
-        <v>329.54969477270748</v>
+        <v>292.66520465251352</v>
       </c>
       <c r="AI11">
-        <v>329.2943666112842</v>
+        <v>292.03214251474122</v>
       </c>
       <c r="AJ11">
-        <v>329.07738609700209</v>
+        <v>291.39908037696858</v>
       </c>
       <c r="AK11">
-        <v>328.86040558272009</v>
+        <v>290.80315906852138</v>
       </c>
       <c r="AL11">
-        <v>328.27361872844011</v>
+        <v>290.20723776007452</v>
       </c>
       <c r="AM11">
-        <v>327.68683187415991</v>
+        <v>289.24030329381378</v>
       </c>
       <c r="AN11">
-        <v>327.1000450198793</v>
+        <v>288.27336882755282</v>
       </c>
       <c r="AO11">
-        <v>326.551605812741</v>
+        <v>287.30643436129151</v>
       </c>
       <c r="AP11">
-        <v>325.38205024445301</v>
+        <v>286.37664072435621</v>
       </c>
       <c r="AQ11">
-        <v>324.25084232330607</v>
+        <v>284.82331709063999</v>
       </c>
       <c r="AR11">
-        <v>323.19632969644169</v>
+        <v>283.30713428624921</v>
       </c>
       <c r="AS11">
-        <v>322.21851236385947</v>
+        <v>281.86523314050908</v>
       </c>
       <c r="AT11">
-        <v>320.79501015719001</v>
+        <v>280.49761365341982</v>
       </c>
       <c r="AU11">
-        <v>319.44820324480298</v>
+        <v>278.68189565661112</v>
       </c>
       <c r="AV11">
-        <v>318.21643927383991</v>
+        <v>276.94045931845392</v>
       </c>
       <c r="AW11">
-        <v>317.02302295001772</v>
+        <v>275.31044546827241</v>
       </c>
       <c r="AX11">
-        <v>317.02302295001772</v>
+        <v>273.7175724474165</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1779.8</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1871.3</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1907.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1958.3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1978.3751090344099</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2007.0179878174349</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2033.6981662082569</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2058.944408239478</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2079.7902580671739</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2102.1686273791929</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2124.2512473170441</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2144.5772952143848</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2167.3231107185511</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2191.2429616171412</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2215.8977049000259</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2239.1633223345489</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2263.8359898219292</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2288.696861456508</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2314.5704506450529</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2339.8704652897591</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2365.3049114681771</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2390.1837073072502</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2414.937033714858</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2439.8964884741581</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2464.336141303103</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>2488.5158931668711</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2512.2565020205111</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2535.665513090993</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2559.083486263723</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2582.8330572196101</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2607.0934680036062</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2631.766135490986</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2656.7704007615239</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2681.7298555208249</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2706.7878934048481</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2731.9265902090979</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2757.0204765021122</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>2782.0157796704029</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>2807.2440974971282</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>2832.5441121418339</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>2858.1488382629541</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>2884.2464800076882</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>2910.8011889670452</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>2937.8756998567569</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>2965.0487938711908</v>
-      </c>
-      <c r="AW12">
-        <v>2992.3742436238322</v>
       </c>
       <c r="AX12">
         <v>2992.3742436238322</v>
@@ -22733,143 +22724,140 @@
       <c r="B13" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>54.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>90.2</v>
-      </c>
-      <c r="F13">
-        <v>95.9</v>
       </c>
       <c r="G13">
         <v>95.9</v>
       </c>
       <c r="H13">
+        <v>95.9</v>
+      </c>
+      <c r="I13">
         <v>96.883099094316492</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>98.285770837814454</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>99.592327089502035</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>100.82866197730991</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>101.8495050547117</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>102.94539721476001</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>104.0268062185081</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>105.0221940515036</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>106.1360804360461</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>107.30746056226521</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>108.5148291374726</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>109.6541707664215</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>110.8624171086775</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>112.07988000494259</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>113.3469367394478</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>114.58590492840121</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>115.83145637021821</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>117.0497970335318</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>118.261993327506</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>119.4842839425379</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>120.68111931316329</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>121.8652270615856</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>123.0278295173197</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>124.1741932826566</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>125.3209959315177</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>126.4840372707761</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>127.6720949709166</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>128.88034131317249</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>130.10482634582559</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>131.3271169608575</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>132.55423529465611</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>133.78530358017301</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>135.01417744806861</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>136.23822359719739</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>137.47368071795671</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>138.71264890691</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>139.96653913568781</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>141.24456795829931</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>142.54497984064739</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>143.8708469674018</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>145.2015418129231</v>
-      </c>
-      <c r="AW13">
-        <v>146.53969767835659</v>
       </c>
       <c r="AX13">
         <v>146.53969767835659</v>
@@ -22879,143 +22867,140 @@
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1336.74</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1328.7719999999999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1372.7929999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1403.2629999999999</v>
       </c>
-      <c r="H14">
-        <v>1394.63952711825</v>
-      </c>
       <c r="I14">
-        <v>1386.0160542364999</v>
+        <v>1561.0795271182501</v>
       </c>
       <c r="J14">
-        <v>1416.247429866125</v>
+        <v>1552.4560542365</v>
       </c>
       <c r="K14">
-        <v>1446.4788054957489</v>
+        <v>1499.467429866125</v>
       </c>
       <c r="L14">
-        <v>1476.710181125374</v>
+        <v>1506.8658054957491</v>
       </c>
       <c r="M14">
-        <v>1506.9415567549979</v>
+        <v>1537.0971811253739</v>
       </c>
       <c r="N14">
-        <v>1519.7601557667949</v>
+        <v>1567.3285567549981</v>
       </c>
       <c r="O14">
-        <v>1532.578754778594</v>
+        <v>1580.1471557667951</v>
       </c>
       <c r="P14">
-        <v>1545.397353790391</v>
+        <v>1536.385754778594</v>
       </c>
       <c r="Q14">
-        <v>1558.2159528021889</v>
+        <v>1549.204353790391</v>
       </c>
       <c r="R14">
-        <v>1568.782547736397</v>
+        <v>1562.0229528021889</v>
       </c>
       <c r="S14">
-        <v>1579.349142670605</v>
+        <v>1572.589547736397</v>
       </c>
       <c r="T14">
-        <v>1589.9157376048131</v>
+        <v>1580.1431426706049</v>
       </c>
       <c r="U14">
-        <v>1600.4823325390209</v>
+        <v>1590.709737604813</v>
       </c>
       <c r="V14">
-        <v>1639.9186754518039</v>
+        <v>1601.276332539021</v>
       </c>
       <c r="W14">
-        <v>1679.3550183645871</v>
+        <v>1640.712675451804</v>
       </c>
       <c r="X14">
-        <v>1718.7913612773691</v>
+        <v>1676.695018364587</v>
       </c>
       <c r="Y14">
-        <v>1758.2277041901521</v>
+        <v>1716.131361277369</v>
       </c>
       <c r="Z14">
-        <v>1787.619695599499</v>
+        <v>1755.567704190152</v>
       </c>
       <c r="AA14">
+        <v>1784.9596955994989</v>
+      </c>
+      <c r="AB14">
         <v>1817.0116870088459</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1846.403678418194</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1875.7956698275409</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1908.214872793631</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1940.63407575972</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1973.0532787258101</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2005.472481691899</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2057.1759873287519</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2108.879492965606</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2160.5829986024601</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2212.2865042393132</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2211.5343138466092</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2210.7821234539051</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2210.0299330612011</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>2209.2777426684961</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>2261.6493087725662</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>2314.0208748766349</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>2366.392440980705</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>2418.7640070847742</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>2464.3652051309859</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>2509.9664031771981</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>2555.5676012234089</v>
-      </c>
-      <c r="AW14">
-        <v>2601.1687992696211</v>
       </c>
       <c r="AX14">
         <v>2601.1687992696211</v>
@@ -23025,143 +23010,140 @@
       <c r="B15" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="D15">
-        <v>1828.5000000000009</v>
-      </c>
       <c r="E15">
-        <v>1861.4</v>
+        <v>3694.6000000000008</v>
       </c>
       <c r="F15">
-        <v>1756.1999999999989</v>
+        <v>2433.1999999999998</v>
       </c>
       <c r="G15">
-        <v>1808.7</v>
+        <v>1959.6999999999989</v>
       </c>
       <c r="H15">
-        <v>1629.356357104331</v>
+        <v>4215.9000000000005</v>
       </c>
       <c r="I15">
-        <v>1501.6652887165669</v>
+        <v>3373.426597104331</v>
       </c>
       <c r="J15">
-        <v>1514.272945247701</v>
+        <v>2112.8103287165659</v>
       </c>
       <c r="K15">
-        <v>1515.6150242949509</v>
+        <v>1607.2419452477011</v>
       </c>
       <c r="L15">
-        <v>1509.926416318757</v>
+        <v>1668.6360242949511</v>
       </c>
       <c r="M15">
-        <v>1493.7178340556329</v>
+        <v>1662.947416318757</v>
       </c>
       <c r="N15">
-        <v>1512.9609535468801</v>
+        <v>1646.738834055632</v>
       </c>
       <c r="O15">
-        <v>1522.99399388232</v>
+        <v>1665.98195354688</v>
       </c>
       <c r="P15">
-        <v>1526.525817874995</v>
+        <v>1537.7289938823201</v>
       </c>
       <c r="Q15">
-        <v>1522.5832732221379</v>
+        <v>1541.2608178749949</v>
       </c>
       <c r="R15">
-        <v>1530.285602569978</v>
+        <v>1537.318273222138</v>
       </c>
       <c r="S15">
-        <v>1538.937335064132</v>
+        <v>1545.0206025699781</v>
       </c>
       <c r="T15">
-        <v>1547.192951576636</v>
+        <v>1545.1543350641321</v>
       </c>
       <c r="U15">
-        <v>1555.9808389633261</v>
+        <v>1553.4099515766361</v>
       </c>
       <c r="V15">
-        <v>1592.1555871790999</v>
+        <v>1562.1978389633259</v>
       </c>
       <c r="W15">
-        <v>1622.7235946783901</v>
+        <v>1598.3725871791</v>
       </c>
       <c r="X15">
-        <v>1646.2517581859961</v>
+        <v>1627.3015946783901</v>
       </c>
       <c r="Y15">
-        <v>1663.4196210501891</v>
+        <v>1650.8297581859961</v>
       </c>
       <c r="Z15">
-        <v>1671.430699166094</v>
+        <v>1667.9976210501891</v>
       </c>
       <c r="AA15">
+        <v>1676.0086991660939</v>
+      </c>
+      <c r="AB15">
         <v>1682.1431104472849</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1694.6607802102719</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1709.3896382183029</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1722.372615576626</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1735.0429474429729</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1746.4953393081139</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1757.1882121565191</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1788.9509959744839</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1816.7189541257289</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1839.6922791598031</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1858.259733230635</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1832.4294189532291</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1818.576749321116</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1816.4404652627579</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>1826.107622074454</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>1883.521840106393</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>1928.497184954686</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>1962.138859372219</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>1983.801049724259</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>1944.7885028241169</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>1906.4485972733521</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>1870.239333659976</v>
-      </c>
-      <c r="AW15">
-        <v>1835.4218257479581</v>
       </c>
       <c r="AX15">
         <v>1835.4218257479581</v>
@@ -23171,143 +23153,140 @@
       <c r="B16" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1085.9000000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1212.9000000000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>609.79999999999995</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>402.3</v>
       </c>
-      <c r="H16">
-        <v>404.18538158623392</v>
-      </c>
       <c r="I16">
-        <v>406.11408156777497</v>
+        <v>567.87138158623384</v>
       </c>
       <c r="J16">
-        <v>408.08197438316557</v>
+        <v>569.80008156777501</v>
       </c>
       <c r="K16">
-        <v>410.07255778657441</v>
+        <v>489.92497438316559</v>
       </c>
       <c r="L16">
-        <v>412.05076450560961</v>
+        <v>520.32055778657434</v>
       </c>
       <c r="M16">
-        <v>413.998029513711</v>
+        <v>522.2987645056096</v>
       </c>
       <c r="N16">
-        <v>415.93291783743882</v>
+        <v>524.24602951371094</v>
       </c>
       <c r="O16">
-        <v>417.86368059970891</v>
+        <v>526.18091783743887</v>
       </c>
       <c r="P16">
-        <v>419.80063170416571</v>
+        <v>430.58968059970891</v>
       </c>
       <c r="Q16">
-        <v>421.75614783518279</v>
+        <v>432.52663170416571</v>
       </c>
       <c r="R16">
-        <v>423.7302289927602</v>
+        <v>434.48214783518279</v>
       </c>
       <c r="S16">
-        <v>425.71668683471103</v>
+        <v>436.4562289927602</v>
       </c>
       <c r="T16">
-        <v>427.69901911520401</v>
+        <v>427.08168683471098</v>
       </c>
       <c r="U16">
-        <v>429.68753973788392</v>
+        <v>429.06401911520402</v>
       </c>
       <c r="V16">
-        <v>431.68018592202162</v>
+        <v>431.05253973788388</v>
       </c>
       <c r="W16">
-        <v>433.67076932543029</v>
+        <v>433.04518592202157</v>
       </c>
       <c r="X16">
-        <v>435.63659936009208</v>
+        <v>432.76976932543027</v>
       </c>
       <c r="Y16">
-        <v>437.58798992965131</v>
+        <v>434.73559936009212</v>
       </c>
       <c r="Z16">
-        <v>439.52494103410811</v>
+        <v>436.6869899296513</v>
       </c>
       <c r="AA16">
+        <v>438.6239410341081</v>
+      </c>
+      <c r="AB16">
         <v>441.44951545419133</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>443.35552484771432</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>445.25947146050851</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>447.16548085403139</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>449.0735530282833</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>450.98368798326419</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>452.90619962261849</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>454.83283682343068</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>456.76772514715861</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>458.72736683963342</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>460.70763633939748</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>462.71059642718001</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>464.73212154152247</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>466.76808612096738</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>468.80198791968348</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>470.83176415694169</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>472.86360317492881</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>474.89544219291588</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>476.92728121090312</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>478.96530857107712</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>481.00539871197992</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>483.04961441434068</v>
-      </c>
-      <c r="AW16">
-        <v>485.09176733597252</v>
       </c>
       <c r="AX16">
         <v>485.09176733597252</v>
@@ -23317,143 +23296,140 @@
       <c r="B17" t="s">
         <v>195</v>
       </c>
-      <c r="D17">
-        <v>884.2600000000001</v>
-      </c>
       <c r="E17">
-        <v>242.12799999999999</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="F17">
-        <v>225.90700000000001</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="G17">
-        <v>260.73700000000002</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="H17">
+        <v>357.63880399999999</v>
+      </c>
+      <c r="I17">
         <v>232.07518871317359</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>215.720203842161</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>220.89139620745101</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>226.76914626180869</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>232.32795235033251</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>237.9298898973548</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>251.6040694504666</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>265.27969850165113</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>279.09879389494898</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>293.05961551598227</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>298.02592203707633</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>303.15281641427401</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>308.34003676535349</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>313.62925193845189</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>314.05502117082477</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>314.5186220365847</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>315.03063898617683</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>315.58362470772079</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>316.2395853229205</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>316.95514017513671</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>317.71048621778692</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>318.55415230022101</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>318.29850133827199</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>318.13366691457782</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>318.04565082439819</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>318.06410134177349</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>318.09729229239042</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>318.17786928038868</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>318.36379279589238</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>318.64707655433722</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>318.72234084172197</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>318.86952061123691</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>319.10267892127462</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>319.38590629755907</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>319.19110945656053</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>319.05567634036208</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>318.97514203538952</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>318.9496051242694</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>318.60334826748328</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>318.31720335346819</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>318.11173048290601</v>
-      </c>
-      <c r="AW17">
-        <v>317.95738112604761</v>
       </c>
       <c r="AX17">
         <v>317.95738112604761</v>
@@ -23543,59 +23519,59 @@
       </c>
       <c r="N21" s="104">
         <f>M21*(1+N23)</f>
-        <v>219.23868038063489</v>
+        <v>222.38398180893648</v>
       </c>
       <c r="O21" s="149">
         <f t="shared" ref="O21:AA21" si="0">N21*(1+O23)</f>
-        <v>216.83787259555652</v>
+        <v>219.97510963898978</v>
       </c>
       <c r="P21" s="104">
         <f t="shared" si="0"/>
-        <v>214.43706481047812</v>
+        <v>217.56623746904305</v>
       </c>
       <c r="Q21" s="104">
         <f t="shared" si="0"/>
-        <v>212.03625702539975</v>
+        <v>215.15736529909628</v>
       </c>
       <c r="R21" s="104">
         <f t="shared" si="0"/>
-        <v>213.29027683898224</v>
+        <v>212.74849312914955</v>
       </c>
       <c r="S21" s="149">
         <f t="shared" si="0"/>
-        <v>214.54429665256438</v>
+        <v>214.00672523264217</v>
       </c>
       <c r="T21" s="104">
         <f t="shared" si="0"/>
-        <v>215.79831646614656</v>
+        <v>215.26495733613447</v>
       </c>
       <c r="U21" s="104">
         <f t="shared" si="0"/>
-        <v>217.05233627972888</v>
+        <v>216.52318943962678</v>
       </c>
       <c r="V21" s="104">
         <f t="shared" si="0"/>
-        <v>220.27791319795816</v>
+        <v>217.78142154311922</v>
       </c>
       <c r="W21" s="149">
         <f t="shared" si="0"/>
-        <v>223.50349011618766</v>
+        <v>221.01783327030435</v>
       </c>
       <c r="X21" s="104">
         <f t="shared" si="0"/>
-        <v>226.72906703441683</v>
+        <v>224.25424499748971</v>
       </c>
       <c r="Y21" s="104">
         <f t="shared" si="0"/>
-        <v>229.95464395264619</v>
+        <v>227.49065672467472</v>
       </c>
       <c r="Z21" s="104">
         <f t="shared" si="0"/>
-        <v>233.16685730462561</v>
+        <v>230.72706845185994</v>
       </c>
       <c r="AA21" s="149">
         <f t="shared" si="0"/>
-        <v>236.37907065660497</v>
+        <v>233.95007172417809</v>
       </c>
       <c r="AB21" s="95"/>
     </row>
@@ -23605,99 +23581,99 @@
       </c>
       <c r="D22" s="102">
         <f t="shared" ref="D22:AA22" si="1">D10</f>
-        <v>156.16</v>
+        <v>0</v>
       </c>
       <c r="E22" s="104">
         <f t="shared" si="1"/>
-        <v>197.62799999999999</v>
+        <v>156.16</v>
       </c>
       <c r="F22" s="104">
         <f t="shared" si="1"/>
-        <v>170.20699999999999</v>
+        <v>197.62799999999999</v>
       </c>
       <c r="G22" s="149">
         <f t="shared" si="1"/>
-        <v>164.13699999999989</v>
+        <v>170.20699999999999</v>
       </c>
       <c r="H22" s="104">
         <f t="shared" si="1"/>
-        <v>168.2833827902208</v>
+        <v>164.13699999999989</v>
       </c>
       <c r="I22" s="104">
         <f t="shared" si="1"/>
-        <v>172.42976558044171</v>
+        <v>168.2833827902208</v>
       </c>
       <c r="J22" s="104">
         <f t="shared" si="1"/>
-        <v>173.0148583315212</v>
+        <v>172.42976558044171</v>
       </c>
       <c r="K22" s="149">
         <f t="shared" si="1"/>
-        <v>173.59995108260071</v>
+        <v>173.0148583315212</v>
       </c>
       <c r="L22" s="104">
         <f t="shared" si="1"/>
-        <v>174.1850438336802</v>
+        <v>173.59995108260071</v>
       </c>
       <c r="M22" s="223">
         <f t="shared" si="1"/>
-        <v>174.77013658475971</v>
+        <v>174.1850438336802</v>
       </c>
       <c r="N22" s="104">
         <f t="shared" si="1"/>
-        <v>172.87701948733081</v>
+        <v>174.77013658475971</v>
       </c>
       <c r="O22" s="149">
         <f t="shared" si="1"/>
-        <v>170.98390238990191</v>
+        <v>172.87701948733081</v>
       </c>
       <c r="P22" s="104">
         <f t="shared" si="1"/>
-        <v>169.09078529247299</v>
+        <v>170.98390238990191</v>
       </c>
       <c r="Q22" s="104">
         <f t="shared" si="1"/>
-        <v>167.19766819504409</v>
+        <v>169.09078529247299</v>
       </c>
       <c r="R22" s="104">
         <f t="shared" si="1"/>
-        <v>168.18650468764571</v>
+        <v>167.19766819504409</v>
       </c>
       <c r="S22" s="149">
         <f t="shared" si="1"/>
-        <v>169.1753411802471</v>
+        <v>168.18650468764571</v>
       </c>
       <c r="T22" s="104">
         <f t="shared" si="1"/>
-        <v>170.1641776728485</v>
+        <v>169.1753411802471</v>
       </c>
       <c r="U22" s="104">
         <f t="shared" si="1"/>
-        <v>171.15301416545</v>
+        <v>170.1641776728485</v>
       </c>
       <c r="V22" s="104">
         <f t="shared" si="1"/>
-        <v>173.69648926200901</v>
+        <v>171.15301416545</v>
       </c>
       <c r="W22" s="149">
         <f t="shared" si="1"/>
-        <v>176.23996435856819</v>
+        <v>173.69648926200901</v>
       </c>
       <c r="X22" s="104">
         <f t="shared" si="1"/>
-        <v>178.78343945512711</v>
+        <v>176.23996435856819</v>
       </c>
       <c r="Y22" s="104">
         <f t="shared" si="1"/>
-        <v>181.3269145516862</v>
+        <v>178.78343945512711</v>
       </c>
       <c r="Z22" s="104">
         <f t="shared" si="1"/>
-        <v>183.85985203007041</v>
+        <v>181.3269145516862</v>
       </c>
       <c r="AA22" s="149">
         <f t="shared" si="1"/>
-        <v>186.3927895084546</v>
+        <v>183.85985203007041</v>
       </c>
       <c r="AB22" s="95"/>
     </row>
@@ -23717,59 +23693,59 @@
       <c r="M23" s="230"/>
       <c r="N23" s="230">
         <f t="shared" ref="N23" si="2">(N22/M22)-1</f>
-        <v>-1.0832039926402248E-2</v>
+        <v>3.359029789252066E-3</v>
       </c>
       <c r="O23" s="246">
         <f t="shared" ref="O23" si="3">(O22/N22)-1</f>
-        <v>-1.0950657889885917E-2</v>
+        <v>-1.0832039926402248E-2</v>
       </c>
       <c r="P23" s="230">
         <f t="shared" ref="P23" si="4">(P22/O22)-1</f>
-        <v>-1.1071902506424092E-2</v>
+        <v>-1.0950657889885917E-2</v>
       </c>
       <c r="Q23" s="230">
         <f t="shared" ref="Q23" si="5">(Q22/P22)-1</f>
-        <v>-1.1195861998951728E-2</v>
+        <v>-1.1071902506424092E-2</v>
       </c>
       <c r="R23" s="230">
         <f t="shared" ref="R23" si="6">(R22/Q22)-1</f>
-        <v>5.9141763355701205E-3</v>
+        <v>-1.1195861998951728E-2</v>
       </c>
       <c r="S23" s="246">
         <f t="shared" ref="S23" si="7">(S22/R22)-1</f>
-        <v>5.8794045006038687E-3</v>
+        <v>5.9141763355701205E-3</v>
       </c>
       <c r="T23" s="230">
         <f t="shared" ref="T23" si="8">(T22/S22)-1</f>
-        <v>5.8450391511126742E-3</v>
+        <v>5.8794045006038687E-3</v>
       </c>
       <c r="U23" s="230">
         <f t="shared" ref="U23" si="9">(U22/T22)-1</f>
-        <v>5.8110732007450316E-3</v>
+        <v>5.8450391511126742E-3</v>
       </c>
       <c r="V23" s="230">
         <f t="shared" ref="V23" si="10">(V22/U22)-1</f>
-        <v>1.4860825612456274E-2</v>
+        <v>5.8110732007450316E-3</v>
       </c>
       <c r="W23" s="246">
         <f t="shared" ref="W23" si="11">(W22/V22)-1</f>
-        <v>1.4643215342841742E-2</v>
+        <v>1.4860825612456274E-2</v>
       </c>
       <c r="X23" s="230">
         <f t="shared" ref="X23" si="12">(X22/W22)-1</f>
-        <v>1.4431886126486715E-2</v>
+        <v>1.4643215342841742E-2</v>
       </c>
       <c r="Y23" s="230">
         <f t="shared" ref="Y23" si="13">(Y22/X22)-1</f>
-        <v>1.4226569889866481E-2</v>
+        <v>1.4431886126486715E-2</v>
       </c>
       <c r="Z23" s="230">
         <f t="shared" ref="Z23" si="14">(Z22/Y22)-1</f>
-        <v>1.3968899678498792E-2</v>
+        <v>1.4226569889866481E-2</v>
       </c>
       <c r="AA23" s="246">
         <f t="shared" ref="AA23" si="15">(AA22/Z22)-1</f>
-        <v>1.3776457722645796E-2</v>
+        <v>1.3968899678498792E-2</v>
       </c>
       <c r="AB23" s="243"/>
     </row>
@@ -23781,91 +23757,91 @@
       <c r="E24" s="217"/>
       <c r="F24" s="217">
         <f t="shared" ref="F24" si="16">F21-F22</f>
-        <v>-8.7680000000000007</v>
+        <v>-36.188999999999993</v>
       </c>
       <c r="G24" s="150">
         <f t="shared" ref="G24" si="17">G21-G22</f>
-        <v>14.165816906412658</v>
+        <v>8.0958169064125514</v>
       </c>
       <c r="H24" s="217">
         <f t="shared" ref="H24" si="18">H21-H22</f>
-        <v>11.798701344421289</v>
+        <v>15.945084134642201</v>
       </c>
       <c r="I24" s="217">
         <f t="shared" ref="I24" si="19">I21-I22</f>
-        <v>7.6523185542003773</v>
+        <v>11.798701344421289</v>
       </c>
       <c r="J24" s="217">
         <f t="shared" ref="J24" si="20">J21-J22</f>
-        <v>7.0672258031208912</v>
+        <v>7.6523185542003773</v>
       </c>
       <c r="K24" s="150">
         <f t="shared" ref="K24:AA24" si="21">K21-K22</f>
-        <v>6.4821330520413767</v>
+        <v>7.0672258031208912</v>
       </c>
       <c r="L24" s="217">
         <f t="shared" si="21"/>
-        <v>47.454444332033063</v>
+        <v>48.039537083112549</v>
       </c>
       <c r="M24" s="239">
         <f t="shared" si="21"/>
-        <v>46.869351580953548</v>
+        <v>47.454444332033063</v>
       </c>
       <c r="N24" s="217">
         <f t="shared" si="21"/>
-        <v>46.361660893304077</v>
+        <v>47.613845224176771</v>
       </c>
       <c r="O24" s="150">
         <f t="shared" si="21"/>
-        <v>45.853970205654605</v>
+        <v>47.098090151658965</v>
       </c>
       <c r="P24" s="217">
         <f t="shared" si="21"/>
-        <v>45.346279518005133</v>
+        <v>46.582335079141131</v>
       </c>
       <c r="Q24" s="217">
         <f t="shared" si="21"/>
-        <v>44.838588830355661</v>
+        <v>46.066580006623298</v>
       </c>
       <c r="R24" s="217">
         <f t="shared" si="21"/>
-        <v>45.103772151336528</v>
+        <v>45.550824934105464</v>
       </c>
       <c r="S24" s="150">
         <f t="shared" si="21"/>
-        <v>45.368955472317282</v>
+        <v>45.820220544996459</v>
       </c>
       <c r="T24" s="217">
         <f t="shared" si="21"/>
-        <v>45.634138793298064</v>
+        <v>46.08961615588737</v>
       </c>
       <c r="U24" s="217">
         <f t="shared" si="21"/>
-        <v>45.899322114278874</v>
+        <v>46.359011766778281</v>
       </c>
       <c r="V24" s="217">
         <f t="shared" si="21"/>
-        <v>46.581423935949147</v>
+        <v>46.62840737766922</v>
       </c>
       <c r="W24" s="150">
         <f t="shared" si="21"/>
-        <v>47.263525757619476</v>
+        <v>47.321344008295341</v>
       </c>
       <c r="X24" s="217">
         <f t="shared" si="21"/>
-        <v>47.94562757928972</v>
+        <v>48.01428063892152</v>
       </c>
       <c r="Y24" s="217">
         <f t="shared" si="21"/>
-        <v>48.627729400959993</v>
+        <v>48.707217269547613</v>
       </c>
       <c r="Z24" s="217">
         <f t="shared" si="21"/>
-        <v>49.307005274555195</v>
+        <v>49.400153900173734</v>
       </c>
       <c r="AA24" s="150">
         <f t="shared" si="21"/>
-        <v>49.986281148150368</v>
+        <v>50.090219694107674</v>
       </c>
       <c r="AB24" s="244"/>
     </row>
@@ -23981,63 +23957,63 @@
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>199.18701974948621</v>
+        <v>195.77916716071002</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>215.32898912898497</v>
+        <v>196.60801221892581</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>232.40626991655981</v>
+        <v>204.69986935138584</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>250.52678265929654</v>
+        <v>178.13015981033357</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>269.04300407468099</v>
+        <v>186.23126001912973</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>276.63429373419979</v>
+        <v>201.48952512672736</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>284.62129206636587</v>
+        <v>207.56186987073423</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>292.96802555548481</v>
+        <v>213.95609730610133</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>300.81112982487019</v>
+        <v>220.64294536997801</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>302.00783467321349</v>
+        <v>226.92012455394155</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>303.1685660058609</v>
+        <v>227.62949156707876</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>304.29332382281382</v>
+        <v>228.30959651736487</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>305.41808163976634</v>
+        <v>228.96043940480044</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>306.58423241555909</v>
+        <v>229.61128229223573</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>307.7503831913516</v>
+        <v>230.29688965284717</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
@@ -24047,99 +24023,99 @@
       </c>
       <c r="D29" s="102">
         <f t="shared" ref="D29:AA29" si="23">D11</f>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="E29" s="104">
         <f t="shared" si="23"/>
-        <v>363.8</v>
+        <v>736.59999999999991</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" si="23"/>
-        <v>243.1</v>
+        <v>582.79999999999995</v>
       </c>
       <c r="G29" s="149">
         <f t="shared" si="23"/>
-        <v>216.8</v>
+        <v>341</v>
       </c>
       <c r="H29" s="104">
         <f t="shared" si="23"/>
-        <v>201.69787045292151</v>
+        <v>287.69999999999987</v>
       </c>
       <c r="I29" s="104">
         <f t="shared" si="23"/>
-        <v>188.86729215584299</v>
+        <v>249.4722454529217</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" si="23"/>
-        <v>193.24899108297839</v>
+        <v>238.93299559334321</v>
       </c>
       <c r="K29" s="149">
         <f t="shared" si="23"/>
-        <v>199.97623704208269</v>
+        <v>241.82759010290039</v>
       </c>
       <c r="L29" s="223">
         <f t="shared" si="23"/>
-        <v>205.88603266163159</v>
+        <v>245.1419882747505</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" si="23"/>
-        <v>212.3326953411578</v>
+        <v>248.49241388178211</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" si="23"/>
-        <v>229.53998058883141</v>
+        <v>249.5444242270961</v>
       </c>
       <c r="O29" s="149">
         <f t="shared" si="23"/>
-        <v>247.744304662177</v>
+        <v>259.81500173946711</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" si="23"/>
-        <v>267.06071050261841</v>
+        <v>226.09143780901999</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="23"/>
-        <v>286.79894046161343</v>
+        <v>236.37374708214861</v>
       </c>
       <c r="R29" s="104">
         <f t="shared" si="23"/>
-        <v>294.89122979125102</v>
+        <v>255.74027715387331</v>
       </c>
       <c r="S29" s="149">
         <f t="shared" si="23"/>
-        <v>303.40534323944189</v>
+        <v>263.44759160026678</v>
       </c>
       <c r="T29" s="104">
         <f t="shared" si="23"/>
-        <v>312.30293315904561</v>
+        <v>271.56345516923977</v>
       </c>
       <c r="U29" s="104">
         <f t="shared" si="23"/>
-        <v>320.66365601867182</v>
+        <v>280.05072703146732</v>
       </c>
       <c r="V29" s="104">
         <f t="shared" si="23"/>
-        <v>321.93933937542943</v>
+        <v>288.01802728313891</v>
       </c>
       <c r="W29" s="149">
         <f t="shared" si="23"/>
-        <v>323.17667508504508</v>
+        <v>288.91839029917872</v>
       </c>
       <c r="X29" s="104">
         <f t="shared" si="23"/>
-        <v>324.3756631475203</v>
+        <v>289.78161248589288</v>
       </c>
       <c r="Y29" s="104">
         <f t="shared" si="23"/>
-        <v>325.57465120999512</v>
+        <v>290.60769384328211</v>
       </c>
       <c r="Z29" s="104">
         <f t="shared" si="23"/>
-        <v>326.81776402783669</v>
+        <v>291.43377520067099</v>
       </c>
       <c r="AA29" s="149">
         <f t="shared" si="23"/>
-        <v>328.06087684567802</v>
+        <v>292.30398131342662</v>
       </c>
       <c r="AB29" s="95"/>
     </row>
@@ -24158,63 +24134,63 @@
       <c r="L30" s="230"/>
       <c r="M30" s="230">
         <f t="shared" ref="M30" si="24">(M29/L29)-1</f>
-        <v>3.1311801952690788E-2</v>
+        <v>1.3667285766143511E-2</v>
       </c>
       <c r="N30" s="230">
         <f t="shared" ref="N30" si="25">(N29/M29)-1</f>
-        <v>8.1039263501207159E-2</v>
+        <v>4.233571274391057E-3</v>
       </c>
       <c r="O30" s="246">
         <f t="shared" ref="O30" si="26">(O29/N29)-1</f>
-        <v>7.9307857509818724E-2</v>
+        <v>4.1157311144825792E-2</v>
       </c>
       <c r="P30" s="230">
         <f t="shared" ref="P30" si="27">(P29/O29)-1</f>
-        <v>7.7969121699007937E-2</v>
+        <v>-0.12979837078177592</v>
       </c>
       <c r="Q30" s="230">
         <f t="shared" ref="Q30" si="28">(Q29/P29)-1</f>
-        <v>7.390914942840876E-2</v>
+        <v>4.5478543428142171E-2</v>
       </c>
       <c r="R30" s="230">
         <f t="shared" ref="R30" si="29">(R29/Q29)-1</f>
-        <v>2.8215896880974478E-2</v>
+        <v>8.1931814809341308E-2</v>
       </c>
       <c r="S30" s="246">
         <f t="shared" ref="S30" si="30">(S29/R29)-1</f>
-        <v>2.8872047006002433E-2</v>
+        <v>3.0137272596119535E-2</v>
       </c>
       <c r="T30" s="230">
         <f t="shared" ref="T30" si="31">(T29/S29)-1</f>
-        <v>2.9325752225074941E-2</v>
+        <v>3.0806368430527753E-2</v>
       </c>
       <c r="U30" s="230">
         <f t="shared" ref="U30" si="32">(U29/T29)-1</f>
-        <v>2.6771195438527462E-2</v>
+        <v>3.1253365284140466E-2</v>
       </c>
       <c r="V30" s="230">
         <f t="shared" ref="V30" si="33">(V29/U29)-1</f>
-        <v>3.9782598770199407E-3</v>
+        <v>2.8449489619701396E-2</v>
       </c>
       <c r="W30" s="246">
         <f t="shared" ref="W30" si="34">(W29/V29)-1</f>
-        <v>3.8433815265201954E-3</v>
+        <v>3.1260647971687039E-3</v>
       </c>
       <c r="X30" s="230">
         <f t="shared" ref="X30" si="35">(X29/W29)-1</f>
-        <v>3.7100080386671674E-3</v>
+        <v>2.9877716881236971E-3</v>
       </c>
       <c r="Y30" s="230">
         <f t="shared" ref="Y30" si="36">(Y29/X29)-1</f>
-        <v>3.6962947554100012E-3</v>
+        <v>2.8507031564311003E-3</v>
       </c>
       <c r="Z30" s="230">
         <f t="shared" ref="Z30" si="37">(Z29/Y29)-1</f>
-        <v>3.8182113171942866E-3</v>
+        <v>2.8425997483547683E-3</v>
       </c>
       <c r="AA30" s="246">
         <f t="shared" ref="AA30" si="38">(AA29/Z29)-1</f>
-        <v>3.8036880325007516E-3</v>
+        <v>2.9859480499692115E-3</v>
       </c>
       <c r="AB30" s="243"/>
     </row>
@@ -24226,91 +24202,91 @@
       <c r="E31" s="217"/>
       <c r="F31" s="217">
         <f t="shared" ref="F31" si="39">F28-F29</f>
-        <v>87.676999999999992</v>
+        <v>-252.02299999999997</v>
       </c>
       <c r="G31" s="150">
         <f t="shared" ref="G31" si="40">G28-G29</f>
-        <v>-34.992000000000019</v>
+        <v>-159.19200000000001</v>
       </c>
       <c r="H31" s="217">
         <f t="shared" ref="H31" si="41">H28-H29</f>
-        <v>3.7728995470785094</v>
+        <v>-82.229229999999859</v>
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="42">I28-I29</f>
-        <v>0.96715476915696286</v>
+        <v>-59.637798527921746</v>
       </c>
       <c r="J31" s="217">
         <f t="shared" ref="J31" si="43">J28-J29</f>
-        <v>-2.6853719233534719</v>
+        <v>-48.369376433718287</v>
       </c>
       <c r="K31" s="150">
         <f t="shared" ref="K31:N31" si="44">K28-K29</f>
-        <v>-8.3133907387605745</v>
+        <v>-50.164743799578275</v>
       </c>
       <c r="L31" s="239">
         <f t="shared" si="44"/>
-        <v>-12.746557895276226</v>
+        <v>-52.00251350839514</v>
       </c>
       <c r="M31" s="217">
         <f t="shared" si="44"/>
-        <v>-13.145675591671591</v>
+        <v>-52.713246721072096</v>
       </c>
       <c r="N31" s="217">
         <f t="shared" si="44"/>
-        <v>-14.21099145984644</v>
+        <v>-52.936412008170294</v>
       </c>
       <c r="O31" s="150">
         <f t="shared" ref="O31:AA31" si="45">O28-O29</f>
-        <v>-15.338034745617193</v>
+        <v>-55.115132388081264</v>
       </c>
       <c r="P31" s="150">
         <f t="shared" si="45"/>
-        <v>-16.533927843321862</v>
+        <v>-47.961277998686427</v>
       </c>
       <c r="Q31" s="150">
         <f t="shared" si="45"/>
-        <v>-17.755936386932433</v>
+        <v>-50.142487063018876</v>
       </c>
       <c r="R31" s="150">
         <f t="shared" si="45"/>
-        <v>-18.256936057051234</v>
+        <v>-54.25075202714595</v>
       </c>
       <c r="S31" s="150">
         <f t="shared" si="45"/>
-        <v>-18.784051173076023</v>
+        <v>-55.885721729532548</v>
       </c>
       <c r="T31" s="150">
         <f t="shared" si="45"/>
-        <v>-19.334907603560794</v>
+        <v>-57.607357863138446</v>
       </c>
       <c r="U31" s="150">
         <f t="shared" si="45"/>
-        <v>-19.852526193801623</v>
+        <v>-59.407781661489309</v>
       </c>
       <c r="V31" s="150">
         <f t="shared" si="45"/>
-        <v>-19.931504702215932</v>
+        <v>-61.097902729197358</v>
       </c>
       <c r="W31" s="150">
         <f t="shared" si="45"/>
-        <v>-20.00810907918418</v>
+        <v>-61.288898732099966</v>
       </c>
       <c r="X31" s="150">
         <f t="shared" si="45"/>
-        <v>-20.082339324706481</v>
+        <v>-61.472015968528012</v>
       </c>
       <c r="Y31" s="150">
         <f t="shared" si="45"/>
-        <v>-20.156569570228783</v>
+        <v>-61.647254438481667</v>
       </c>
       <c r="Z31" s="150">
         <f t="shared" si="45"/>
-        <v>-20.233531612277602</v>
+        <v>-61.822492908435265</v>
       </c>
       <c r="AA31" s="150">
         <f t="shared" si="45"/>
-        <v>-20.310493654326422</v>
+        <v>-62.007091660579448</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
@@ -24450,35 +24426,35 @@
       </c>
       <c r="D36" s="102">
         <f t="shared" ref="D36:K36" si="46">D12</f>
-        <v>1779.8</v>
+        <v>0</v>
       </c>
       <c r="E36" s="104">
         <f t="shared" si="46"/>
-        <v>1871.3</v>
+        <v>1779.8</v>
       </c>
       <c r="F36" s="104">
         <f t="shared" si="46"/>
-        <v>1907.1</v>
+        <v>1871.3</v>
       </c>
       <c r="G36" s="149">
         <f t="shared" si="46"/>
-        <v>1958.3</v>
+        <v>1907.1</v>
       </c>
       <c r="H36" s="104">
         <f t="shared" si="46"/>
-        <v>1978.3751090344099</v>
+        <v>1958.3</v>
       </c>
       <c r="I36" s="104">
         <f t="shared" si="46"/>
-        <v>2007.0179878174349</v>
+        <v>1978.3751090344099</v>
       </c>
       <c r="J36" s="104">
         <f t="shared" si="46"/>
-        <v>2033.6981662082569</v>
+        <v>2007.0179878174349</v>
       </c>
       <c r="K36" s="149">
         <f t="shared" si="46"/>
-        <v>2058.944408239478</v>
+        <v>2033.6981662082569</v>
       </c>
       <c r="L36" s="104"/>
       <c r="M36" s="104"/>
@@ -24502,27 +24478,27 @@
       <c r="E37" s="217"/>
       <c r="F37" s="217">
         <f>F35-F36</f>
-        <v>-35.750999999999976</v>
+        <v>4.8999999999978172E-2</v>
       </c>
       <c r="G37" s="150">
         <f t="shared" ref="G37:K37" si="47">G35-G36</f>
-        <v>-86.951000000000022</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="H37" s="217">
         <f t="shared" si="47"/>
-        <v>-74.668790726255111</v>
+        <v>-54.593681691845177</v>
       </c>
       <c r="I37" s="217">
         <f t="shared" si="47"/>
-        <v>-83.796216356273817</v>
+        <v>-55.153337573248791</v>
       </c>
       <c r="J37" s="217">
         <f t="shared" si="47"/>
-        <v>-82.632024980574215</v>
+        <v>-55.951846589752222</v>
       </c>
       <c r="K37" s="150">
         <f t="shared" si="47"/>
-        <v>-81.941881281215274</v>
+        <v>-56.695639249994201</v>
       </c>
       <c r="L37" s="217">
         <v>0</v>
@@ -24700,15 +24676,15 @@
       </c>
       <c r="D42" s="102">
         <f t="shared" ref="D42:K42" si="48">D13</f>
-        <v>54.2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="104">
         <f t="shared" si="48"/>
-        <v>90.2</v>
+        <v>54.2</v>
       </c>
       <c r="F42" s="104">
         <f t="shared" si="48"/>
-        <v>95.9</v>
+        <v>90.2</v>
       </c>
       <c r="G42" s="149">
         <f t="shared" si="48"/>
@@ -24716,19 +24692,19 @@
       </c>
       <c r="H42" s="104">
         <f t="shared" si="48"/>
-        <v>96.883099094316492</v>
+        <v>95.9</v>
       </c>
       <c r="I42" s="104">
         <f t="shared" si="48"/>
-        <v>98.285770837814454</v>
+        <v>96.883099094316492</v>
       </c>
       <c r="J42" s="104">
         <f t="shared" si="48"/>
-        <v>99.592327089502035</v>
+        <v>98.285770837814454</v>
       </c>
       <c r="K42" s="149">
         <f t="shared" si="48"/>
-        <v>100.82866197730991</v>
+        <v>99.592327089502035</v>
       </c>
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
@@ -24754,7 +24730,7 @@
       <c r="E43" s="217"/>
       <c r="F43" s="217">
         <f>F41-F42</f>
-        <v>-5.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="G43" s="150">
         <f t="shared" ref="G43:K43" si="49">G41-G42</f>
@@ -24762,19 +24738,19 @@
       </c>
       <c r="H43" s="217">
         <f t="shared" si="49"/>
-        <v>-3.7832762292649704</v>
+        <v>-2.8001771349484841</v>
       </c>
       <c r="I43" s="217">
         <f t="shared" si="49"/>
-        <v>-4.2315543175006098</v>
+        <v>-2.8288825740026482</v>
       </c>
       <c r="J43" s="217">
         <f t="shared" si="49"/>
-        <v>-4.1763953360549806</v>
+        <v>-2.8698390843673991</v>
       </c>
       <c r="K43" s="150">
         <f t="shared" si="49"/>
-        <v>-4.14432401327538</v>
+        <v>-2.907989125467509</v>
       </c>
       <c r="L43" s="217">
         <v>0</v>
@@ -24930,71 +24906,71 @@
       </c>
       <c r="K47" s="149">
         <f>J47*(1+K49)</f>
-        <v>1472.355682642366</v>
+        <v>1392.3791730252894</v>
       </c>
       <c r="L47" s="104">
         <f t="shared" ref="L47:AA47" si="50">K47*(1+L49)</f>
-        <v>1503.1278844425292</v>
+        <v>1399.249174957793</v>
       </c>
       <c r="M47" s="104">
         <f t="shared" si="50"/>
-        <v>1533.9000862426915</v>
+        <v>1427.321500478296</v>
       </c>
       <c r="N47" s="104">
         <f t="shared" si="50"/>
-        <v>1546.9480044194563</v>
+        <v>1455.3938259987985</v>
       </c>
       <c r="O47" s="149">
         <f t="shared" si="50"/>
-        <v>1559.9959225962232</v>
+        <v>1467.2969523594572</v>
       </c>
       <c r="P47" s="104">
         <f t="shared" si="50"/>
-        <v>1573.043840772988</v>
+        <v>1426.660882442407</v>
       </c>
       <c r="Q47" s="104">
         <f t="shared" si="50"/>
-        <v>1586.0917589497537</v>
+        <v>1438.5640088030657</v>
       </c>
       <c r="R47" s="104">
         <f t="shared" si="50"/>
-        <v>1596.847385674771</v>
+        <v>1450.4671351637251</v>
       </c>
       <c r="S47" s="149">
         <f t="shared" si="50"/>
-        <v>1607.6030123997884</v>
+        <v>1460.2790900105863</v>
       </c>
       <c r="T47" s="104">
         <f t="shared" si="50"/>
-        <v>1618.3586391248059</v>
+        <v>1467.2932258686751</v>
       </c>
       <c r="U47" s="104">
         <f t="shared" si="50"/>
-        <v>1629.1142658498229</v>
+        <v>1477.1051807155366</v>
       </c>
       <c r="V47" s="104">
         <f t="shared" si="50"/>
-        <v>1669.2561077970809</v>
+        <v>1486.917135562398</v>
       </c>
       <c r="W47" s="149">
         <f t="shared" si="50"/>
-        <v>1709.397949744339</v>
+        <v>1523.5370323593195</v>
       </c>
       <c r="X47" s="104">
         <f t="shared" si="50"/>
-        <v>1749.5397916915961</v>
+        <v>1556.9496052972233</v>
       </c>
       <c r="Y47" s="104">
         <f t="shared" si="50"/>
-        <v>1789.681633638854</v>
+        <v>1593.5695020941439</v>
       </c>
       <c r="Z47" s="104">
         <f t="shared" si="50"/>
-        <v>1819.5994349998603</v>
+        <v>1630.1893988910651</v>
       </c>
       <c r="AA47" s="149">
         <f t="shared" si="50"/>
-        <v>1849.5172363608665</v>
+        <v>1657.4822869371674</v>
       </c>
       <c r="AB47" s="95"/>
     </row>
@@ -25004,99 +24980,99 @@
       </c>
       <c r="D48" s="102">
         <f t="shared" ref="D48:AA48" si="51">D14</f>
-        <v>1336.74</v>
+        <v>0</v>
       </c>
       <c r="E48" s="104">
         <f t="shared" si="51"/>
-        <v>1328.7719999999999</v>
+        <v>1336.74</v>
       </c>
       <c r="F48" s="104">
         <f t="shared" si="51"/>
-        <v>1372.7929999999999</v>
+        <v>1328.7719999999999</v>
       </c>
       <c r="G48" s="149">
         <f t="shared" si="51"/>
-        <v>1403.2629999999999</v>
+        <v>1372.7929999999999</v>
       </c>
       <c r="H48" s="104">
         <f t="shared" si="51"/>
-        <v>1394.63952711825</v>
+        <v>1403.2629999999999</v>
       </c>
       <c r="I48" s="104">
         <f t="shared" si="51"/>
-        <v>1386.0160542364999</v>
+        <v>1561.0795271182501</v>
       </c>
       <c r="J48" s="223">
         <f t="shared" si="51"/>
-        <v>1416.247429866125</v>
+        <v>1552.4560542365</v>
       </c>
       <c r="K48" s="149">
         <f t="shared" si="51"/>
-        <v>1446.4788054957489</v>
+        <v>1499.467429866125</v>
       </c>
       <c r="L48" s="104">
         <f t="shared" si="51"/>
-        <v>1476.710181125374</v>
+        <v>1506.8658054957491</v>
       </c>
       <c r="M48" s="104">
         <f t="shared" si="51"/>
-        <v>1506.9415567549979</v>
+        <v>1537.0971811253739</v>
       </c>
       <c r="N48" s="104">
         <f t="shared" si="51"/>
-        <v>1519.7601557667949</v>
+        <v>1567.3285567549981</v>
       </c>
       <c r="O48" s="149">
         <f t="shared" si="51"/>
-        <v>1532.578754778594</v>
+        <v>1580.1471557667951</v>
       </c>
       <c r="P48" s="104">
         <f t="shared" si="51"/>
-        <v>1545.397353790391</v>
+        <v>1536.385754778594</v>
       </c>
       <c r="Q48" s="104">
         <f t="shared" si="51"/>
-        <v>1558.2159528021889</v>
+        <v>1549.204353790391</v>
       </c>
       <c r="R48" s="104">
         <f t="shared" si="51"/>
-        <v>1568.782547736397</v>
+        <v>1562.0229528021889</v>
       </c>
       <c r="S48" s="149">
         <f t="shared" si="51"/>
-        <v>1579.349142670605</v>
+        <v>1572.589547736397</v>
       </c>
       <c r="T48" s="104">
         <f t="shared" si="51"/>
-        <v>1589.9157376048131</v>
+        <v>1580.1431426706049</v>
       </c>
       <c r="U48" s="104">
         <f t="shared" si="51"/>
-        <v>1600.4823325390209</v>
+        <v>1590.709737604813</v>
       </c>
       <c r="V48" s="104">
         <f t="shared" si="51"/>
-        <v>1639.9186754518039</v>
+        <v>1601.276332539021</v>
       </c>
       <c r="W48" s="149">
         <f t="shared" si="51"/>
-        <v>1679.3550183645871</v>
+        <v>1640.712675451804</v>
       </c>
       <c r="X48" s="104">
         <f t="shared" si="51"/>
-        <v>1718.7913612773691</v>
+        <v>1676.695018364587</v>
       </c>
       <c r="Y48" s="104">
         <f t="shared" si="51"/>
-        <v>1758.2277041901521</v>
+        <v>1716.131361277369</v>
       </c>
       <c r="Z48" s="104">
         <f t="shared" si="51"/>
-        <v>1787.619695599499</v>
+        <v>1755.567704190152</v>
       </c>
       <c r="AA48" s="149">
         <f t="shared" si="51"/>
-        <v>1817.0116870088459</v>
+        <v>1784.9596955994989</v>
       </c>
       <c r="AB48" s="95"/>
     </row>
@@ -25113,71 +25089,71 @@
       <c r="J49" s="242"/>
       <c r="K49" s="246">
         <f t="shared" ref="K49" si="52">(K48/J48)-1</f>
-        <v>2.1346111556567182E-2</v>
+        <v>-3.4132125174026196E-2</v>
       </c>
       <c r="L49" s="230">
         <f t="shared" ref="L49" si="53">(L48/K48)-1</f>
-        <v>2.0899978288491994E-2</v>
+        <v>4.934002221231637E-3</v>
       </c>
       <c r="M49" s="230">
         <f t="shared" ref="M49" si="54">(M48/L48)-1</f>
-        <v>2.047211160052087E-2</v>
+        <v>2.0062420634516132E-2</v>
       </c>
       <c r="N49" s="230">
         <f t="shared" ref="N49" si="55">(N48/M48)-1</f>
-        <v>8.5063677183341291E-3</v>
+        <v>1.9667836231077152E-2</v>
       </c>
       <c r="O49" s="246">
         <f t="shared" ref="O49" si="56">(O48/N48)-1</f>
-        <v>8.4346197412521473E-3</v>
+        <v>8.1786291435514968E-3</v>
       </c>
       <c r="P49" s="230">
         <f t="shared" ref="P49" si="57">(P48/O48)-1</f>
-        <v>8.364071974656051E-3</v>
+        <v>-2.769450986162425E-2</v>
       </c>
       <c r="Q49" s="230">
         <f t="shared" ref="Q49" si="58">(Q48/P48)-1</f>
-        <v>8.294694552412496E-3</v>
+        <v>8.3433466965749936E-3</v>
       </c>
       <c r="R49" s="230">
         <f t="shared" ref="R49" si="59">(R48/Q48)-1</f>
-        <v>6.7812134224436438E-3</v>
+        <v>8.2743112491485693E-3</v>
       </c>
       <c r="S49" s="246">
         <f t="shared" ref="S49" si="60">(S48/R48)-1</f>
-        <v>6.7355382997182911E-3</v>
+        <v>6.7646860855994362E-3</v>
       </c>
       <c r="T49" s="230">
         <f t="shared" ref="T49" si="61">(T48/S48)-1</f>
-        <v>6.6904743534672573E-3</v>
+        <v>4.8032844584784407E-3</v>
       </c>
       <c r="U49" s="230">
         <f t="shared" ref="U49" si="62">(U48/T48)-1</f>
-        <v>6.6460093980365009E-3</v>
+        <v>6.6871124829548378E-3</v>
       </c>
       <c r="V49" s="230">
         <f t="shared" ref="V49" si="63">(V48/U48)-1</f>
-        <v>2.464028631307702E-2</v>
+        <v>6.6426920540001433E-3</v>
       </c>
       <c r="W49" s="246">
         <f t="shared" ref="W49" si="64">(W48/V48)-1</f>
-        <v>2.4047743039403047E-2</v>
+        <v>2.4628068317385177E-2</v>
       </c>
       <c r="X49" s="230">
         <f t="shared" ref="X49" si="65">(X48/W48)-1</f>
-        <v>2.3483029187709503E-2</v>
+        <v>2.1930922733241154E-2</v>
       </c>
       <c r="Y49" s="230">
         <f t="shared" ref="Y49" si="66">(Y48/X48)-1</f>
-        <v>2.2944229184090448E-2</v>
+        <v>2.3520283940037912E-2</v>
       </c>
       <c r="Z49" s="230">
         <f t="shared" ref="Z49" si="67">(Z48/Y48)-1</f>
-        <v>1.6716828735721112E-2</v>
+        <v>2.2979792691061318E-2</v>
       </c>
       <c r="AA49" s="246">
         <f t="shared" ref="AA49" si="68">(AA48/Z48)-1</f>
-        <v>1.6441971120423338E-2</v>
+        <v>1.6742157730057716E-2</v>
       </c>
       <c r="AB49" s="243"/>
     </row>
@@ -25189,91 +25165,91 @@
       <c r="E50" s="217"/>
       <c r="F50" s="217">
         <f t="shared" ref="F50" si="69">F47-F48</f>
-        <v>-43.987999999999829</v>
+        <v>3.3000000000129148E-2</v>
       </c>
       <c r="G50" s="150">
         <f t="shared" ref="G50" si="70">G47-G48</f>
-        <v>-30.475999999999885</v>
+        <v>-5.9999999998581188E-3</v>
       </c>
       <c r="H50" s="217">
         <f t="shared" ref="H50" si="71">H47-H48</f>
-        <v>-4.0293645275978633</v>
+        <v>-12.65283740934774</v>
       </c>
       <c r="I50" s="217">
         <f t="shared" ref="I50" si="72">I47-I48</f>
-        <v>32.473104742464102</v>
+        <v>-142.59036813928606</v>
       </c>
       <c r="J50" s="239">
         <f t="shared" ref="J50" si="73">J47-J48</f>
-        <v>25.336050976078923</v>
+        <v>-110.87257339429607</v>
       </c>
       <c r="K50" s="150">
         <f t="shared" ref="K50:AA50" si="74">K47-K48</f>
-        <v>25.876877146617062</v>
+        <v>-107.08825684083558</v>
       </c>
       <c r="L50" s="217">
         <f t="shared" si="74"/>
-        <v>26.417703317155201</v>
+        <v>-107.6166305379561</v>
       </c>
       <c r="M50" s="217">
         <f t="shared" si="74"/>
-        <v>26.958529487693568</v>
+        <v>-109.77568064707793</v>
       </c>
       <c r="N50" s="217">
         <f t="shared" si="74"/>
-        <v>27.187848652661387</v>
+        <v>-111.93473075619954</v>
       </c>
       <c r="O50" s="150">
         <f t="shared" si="74"/>
-        <v>27.417167817629206</v>
+        <v>-112.85020340733786</v>
       </c>
       <c r="P50" s="217">
         <f t="shared" si="74"/>
-        <v>27.646486982597025</v>
+        <v>-109.72487233618699</v>
       </c>
       <c r="Q50" s="217">
         <f t="shared" si="74"/>
-        <v>27.875806147564845</v>
+        <v>-110.64034498732531</v>
       </c>
       <c r="R50" s="217">
         <f t="shared" si="74"/>
-        <v>28.064837938374012</v>
+        <v>-111.55581763846385</v>
       </c>
       <c r="S50" s="150">
         <f t="shared" si="74"/>
-        <v>28.253869729183407</v>
+        <v>-112.31045772581069</v>
       </c>
       <c r="T50" s="217">
         <f t="shared" si="74"/>
-        <v>28.442901519992802</v>
+        <v>-112.84991680192979</v>
       </c>
       <c r="U50" s="217">
         <f t="shared" si="74"/>
-        <v>28.631933310801969</v>
+        <v>-113.60455688927641</v>
       </c>
       <c r="V50" s="217">
         <f t="shared" si="74"/>
-        <v>29.337432345276966</v>
+        <v>-114.35919697662302</v>
       </c>
       <c r="W50" s="150">
         <f t="shared" si="74"/>
-        <v>30.042931379751963</v>
+        <v>-117.17564309248451</v>
       </c>
       <c r="X50" s="217">
         <f t="shared" si="74"/>
-        <v>30.748430414226959</v>
+        <v>-119.74541306736364</v>
       </c>
       <c r="Y50" s="217">
         <f t="shared" si="74"/>
-        <v>31.453929448701956</v>
+        <v>-122.56185918322512</v>
       </c>
       <c r="Z50" s="217">
         <f t="shared" si="74"/>
-        <v>31.979739400361268</v>
+        <v>-125.37830529908683</v>
       </c>
       <c r="AA50" s="150">
         <f t="shared" si="74"/>
-        <v>32.50554935202058</v>
+        <v>-127.47740866233153</v>
       </c>
       <c r="AB50" s="244"/>
     </row>
@@ -25388,67 +25364,67 @@
       </c>
       <c r="L54" s="104">
         <f>K54*(1+L56)</f>
-        <v>1676.7274934000816</v>
+        <v>1747.3341365505732</v>
       </c>
       <c r="M54" s="104">
         <f t="shared" ref="M54:AA54" si="75">L54*(1+M56)</f>
-        <v>1658.728354358673</v>
+        <v>1741.3772359673812</v>
       </c>
       <c r="N54" s="104">
         <f t="shared" si="75"/>
-        <v>1680.0972549627311</v>
+        <v>1724.4042060908307</v>
       </c>
       <c r="O54" s="104">
         <f t="shared" si="75"/>
-        <v>1691.2386419806749</v>
+        <v>1744.554891495688</v>
       </c>
       <c r="P54" s="104">
         <f t="shared" si="75"/>
-        <v>1695.1606254140172</v>
+        <v>1610.2531197056305</v>
       </c>
       <c r="Q54" s="104">
         <f t="shared" si="75"/>
-        <v>1690.7825491435724</v>
+        <v>1613.95151560314</v>
       </c>
       <c r="R54" s="104">
         <f t="shared" si="75"/>
-        <v>1699.3357522938504</v>
+        <v>1609.8230281699848</v>
       </c>
       <c r="S54" s="104">
         <f t="shared" si="75"/>
-        <v>1708.9432388453199</v>
+        <v>1617.8886235451794</v>
       </c>
       <c r="T54" s="104">
         <f t="shared" si="75"/>
-        <v>1718.1108506122771</v>
+        <v>1618.0286632835041</v>
       </c>
       <c r="U54" s="104">
         <f t="shared" si="75"/>
-        <v>1727.8695330427036</v>
+        <v>1626.6736405826512</v>
       </c>
       <c r="V54" s="104">
         <f t="shared" si="75"/>
-        <v>1768.0404938555441</v>
+        <v>1635.87599232105</v>
       </c>
       <c r="W54" s="104">
         <f t="shared" si="75"/>
-        <v>1801.9853391397789</v>
+        <v>1673.7568552044054</v>
       </c>
       <c r="X54" s="104">
         <f t="shared" si="75"/>
-        <v>1828.1126511703853</v>
+        <v>1704.0502454968723</v>
       </c>
       <c r="Y54" s="104">
         <f t="shared" si="75"/>
-        <v>1847.1770422269346</v>
+        <v>1728.6880710433718</v>
       </c>
       <c r="Z54" s="104">
         <f t="shared" si="75"/>
-        <v>1856.0731015206463</v>
+        <v>1746.6656242050317</v>
       </c>
       <c r="AA54" s="104">
         <f t="shared" si="75"/>
-        <v>1867.9689093703914</v>
+        <v>1755.054529909263</v>
       </c>
       <c r="AB54" s="95"/>
     </row>
@@ -25458,99 +25434,99 @@
       </c>
       <c r="D55" s="102">
         <f t="shared" ref="D55:AA55" si="76">D15</f>
-        <v>1828.5000000000009</v>
+        <v>0</v>
       </c>
       <c r="E55" s="104">
         <f t="shared" si="76"/>
-        <v>1861.4</v>
+        <v>3694.6000000000008</v>
       </c>
       <c r="F55" s="104">
         <f t="shared" si="76"/>
-        <v>1756.1999999999989</v>
+        <v>2433.1999999999998</v>
       </c>
       <c r="G55" s="149">
         <f t="shared" si="76"/>
-        <v>1808.7</v>
+        <v>1959.6999999999989</v>
       </c>
       <c r="H55" s="104">
         <f t="shared" si="76"/>
-        <v>1629.356357104331</v>
+        <v>4215.9000000000005</v>
       </c>
       <c r="I55" s="104">
         <f t="shared" si="76"/>
-        <v>1501.6652887165669</v>
+        <v>3373.426597104331</v>
       </c>
       <c r="J55" s="104">
         <f t="shared" si="76"/>
-        <v>1514.272945247701</v>
+        <v>2112.8103287165659</v>
       </c>
       <c r="K55" s="263">
         <f t="shared" si="76"/>
-        <v>1515.6150242949509</v>
+        <v>1607.2419452477011</v>
       </c>
       <c r="L55" s="104">
         <f t="shared" si="76"/>
-        <v>1509.926416318757</v>
+        <v>1668.6360242949511</v>
       </c>
       <c r="M55" s="104">
         <f t="shared" si="76"/>
-        <v>1493.7178340556329</v>
+        <v>1662.947416318757</v>
       </c>
       <c r="N55" s="104">
         <f t="shared" si="76"/>
-        <v>1512.9609535468801</v>
+        <v>1646.738834055632</v>
       </c>
       <c r="O55" s="149">
         <f t="shared" si="76"/>
-        <v>1522.99399388232</v>
+        <v>1665.98195354688</v>
       </c>
       <c r="P55" s="104">
         <f t="shared" si="76"/>
-        <v>1526.525817874995</v>
+        <v>1537.7289938823201</v>
       </c>
       <c r="Q55" s="104">
         <f t="shared" si="76"/>
-        <v>1522.5832732221379</v>
+        <v>1541.2608178749949</v>
       </c>
       <c r="R55" s="104">
         <f t="shared" si="76"/>
-        <v>1530.285602569978</v>
+        <v>1537.318273222138</v>
       </c>
       <c r="S55" s="149">
         <f t="shared" si="76"/>
-        <v>1538.937335064132</v>
+        <v>1545.0206025699781</v>
       </c>
       <c r="T55" s="104">
         <f t="shared" si="76"/>
-        <v>1547.192951576636</v>
+        <v>1545.1543350641321</v>
       </c>
       <c r="U55" s="104">
         <f t="shared" si="76"/>
-        <v>1555.9808389633261</v>
+        <v>1553.4099515766361</v>
       </c>
       <c r="V55" s="104">
         <f t="shared" si="76"/>
-        <v>1592.1555871790999</v>
+        <v>1562.1978389633259</v>
       </c>
       <c r="W55" s="149">
         <f t="shared" si="76"/>
-        <v>1622.7235946783901</v>
+        <v>1598.3725871791</v>
       </c>
       <c r="X55" s="104">
         <f t="shared" si="76"/>
-        <v>1646.2517581859961</v>
+        <v>1627.3015946783901</v>
       </c>
       <c r="Y55" s="104">
         <f t="shared" si="76"/>
-        <v>1663.4196210501891</v>
+        <v>1650.8297581859961</v>
       </c>
       <c r="Z55" s="104">
         <f t="shared" si="76"/>
-        <v>1671.430699166094</v>
+        <v>1667.9976210501891</v>
       </c>
       <c r="AA55" s="149">
         <f t="shared" si="76"/>
-        <v>1682.1431104472849</v>
+        <v>1676.0086991660939</v>
       </c>
       <c r="AB55" s="95"/>
     </row>
@@ -25568,67 +25544,67 @@
       <c r="K56" s="246"/>
       <c r="L56" s="230">
         <f t="shared" ref="L56" si="77">(L55/K55)-1</f>
-        <v>-3.7533330595216352E-3</v>
+        <v>3.8198405180240647E-2</v>
       </c>
       <c r="M56" s="230">
         <f t="shared" ref="M56" si="78">(M55/L55)-1</f>
-        <v>-1.0734683550103763E-2</v>
+        <v>-3.40913650033281E-3</v>
       </c>
       <c r="N56" s="230">
         <f t="shared" ref="N56" si="79">(N55/M55)-1</f>
-        <v>1.2882700502409916E-2</v>
+        <v>-9.7469000547267814E-3</v>
       </c>
       <c r="O56" s="246">
         <f t="shared" ref="O56" si="80">(O55/N55)-1</f>
-        <v>6.6313940964035645E-3</v>
+        <v>1.1685592817323398E-2</v>
       </c>
       <c r="P56" s="230">
         <f t="shared" ref="P56" si="81">(P55/O55)-1</f>
-        <v>2.3190006046391876E-3</v>
+        <v>-7.6983402726247485E-2</v>
       </c>
       <c r="Q56" s="230">
         <f t="shared" ref="Q56" si="82">(Q55/P55)-1</f>
-        <v>-2.5826911059685376E-3</v>
+        <v>2.2967792157952971E-3</v>
       </c>
       <c r="R56" s="230">
         <f t="shared" ref="R56" si="83">(R55/Q55)-1</f>
-        <v>5.0587245264688274E-3</v>
+        <v>-2.5579996630892277E-3</v>
       </c>
       <c r="S56" s="246">
         <f t="shared" ref="S56" si="84">(S55/R55)-1</f>
-        <v>5.6536717588038243E-3</v>
+        <v>5.0102372956879471E-3</v>
       </c>
       <c r="T56" s="230">
         <f t="shared" ref="T56" si="85">(T55/S55)-1</f>
-        <v>5.3644916686357291E-3</v>
+        <v>8.6557094404859924E-5</v>
       </c>
       <c r="U56" s="230">
         <f t="shared" ref="U56" si="86">(U55/T55)-1</f>
-        <v>5.6798910425068794E-3</v>
+        <v>5.3429073880579825E-3</v>
       </c>
       <c r="V56" s="230">
         <f t="shared" ref="V56" si="87">(V55/U55)-1</f>
-        <v>2.3248839130869614E-2</v>
+        <v>5.6571591921183995E-3</v>
       </c>
       <c r="W56" s="246">
         <f t="shared" ref="W56" si="88">(W55/V55)-1</f>
-        <v>1.9199133392138412E-2</v>
+        <v>2.3156316897595897E-2</v>
       </c>
       <c r="X56" s="230">
         <f t="shared" ref="X56" si="89">(X55/W55)-1</f>
-        <v>1.4499181243660342E-2</v>
+        <v>1.8099038816941748E-2</v>
       </c>
       <c r="Y56" s="230">
         <f t="shared" ref="Y56" si="90">(Y55/X55)-1</f>
-        <v>1.0428455294778427E-2</v>
+        <v>1.4458391477368382E-2</v>
       </c>
       <c r="Z56" s="230">
         <f t="shared" ref="Z56" si="91">(Z55/Y55)-1</f>
-        <v>4.8160295902046624E-3</v>
+        <v>1.0399535614779465E-2</v>
       </c>
       <c r="AA56" s="246">
         <f t="shared" ref="AA56" si="92">(AA55/Z55)-1</f>
-        <v>6.4091267957060438E-3</v>
+        <v>4.80281147575079E-3</v>
       </c>
       <c r="AB56" s="243"/>
     </row>
@@ -25640,91 +25616,91 @@
       <c r="E57" s="217"/>
       <c r="F57" s="217">
         <f t="shared" ref="F57" si="93">F54-F55</f>
-        <v>709.8010000000013</v>
+        <v>32.801000000000386</v>
       </c>
       <c r="G57" s="150">
         <f t="shared" ref="G57" si="94">G54-G55</f>
-        <v>219.09299999999985</v>
+        <v>68.093000000000984</v>
       </c>
       <c r="H57" s="217">
         <f t="shared" ref="H57" si="95">H54-H55</f>
-        <v>1488.7674453956693</v>
+        <v>-1097.7761975000003</v>
       </c>
       <c r="I57" s="217">
         <f t="shared" ref="I57" si="96">I54-I55</f>
-        <v>373.18358526468296</v>
+        <v>-1498.5777231230811</v>
       </c>
       <c r="J57" s="217">
         <f t="shared" ref="J57" si="97">J54-J55</f>
-        <v>172.19456217868969</v>
+        <v>-426.34282129017515</v>
       </c>
       <c r="K57" s="264">
         <f t="shared" ref="K57" si="98">K54-K55</f>
-        <v>167.42949574283534</v>
+        <v>75.802574790085146</v>
       </c>
       <c r="L57" s="217">
         <f t="shared" ref="L57:AA57" si="99">L54-L55</f>
-        <v>166.80107708132459</v>
+        <v>78.698112255622164</v>
       </c>
       <c r="M57" s="217">
         <f t="shared" si="99"/>
-        <v>165.01052030304004</v>
+        <v>78.429819648624289</v>
       </c>
       <c r="N57" s="217">
         <f t="shared" si="99"/>
-        <v>167.13630141585099</v>
+        <v>77.665372035198743</v>
       </c>
       <c r="O57" s="150">
         <f t="shared" si="99"/>
-        <v>168.2446480983549</v>
+        <v>78.572937948807976</v>
       </c>
       <c r="P57" s="217">
         <f t="shared" si="99"/>
-        <v>168.63480753902218</v>
+        <v>72.524125823310442</v>
       </c>
       <c r="Q57" s="217">
         <f t="shared" si="99"/>
-        <v>168.19927592143449</v>
+        <v>72.690697728145096</v>
       </c>
       <c r="R57" s="217">
         <f t="shared" si="99"/>
-        <v>169.05014972387244</v>
+        <v>72.504754947846777</v>
       </c>
       <c r="S57" s="150">
         <f t="shared" si="99"/>
-        <v>170.00590378118795</v>
+        <v>72.868020975201262</v>
       </c>
       <c r="T57" s="217">
         <f t="shared" si="99"/>
-        <v>170.91789903564108</v>
+        <v>72.874328219372046</v>
       </c>
       <c r="U57" s="217">
         <f t="shared" si="99"/>
-        <v>171.8886940793775</v>
+        <v>73.263689006015056</v>
       </c>
       <c r="V57" s="217">
         <f t="shared" si="99"/>
-        <v>175.88490667644419</v>
+        <v>73.678153357724113</v>
       </c>
       <c r="W57" s="150">
         <f t="shared" si="99"/>
-        <v>179.26174446138884</v>
+        <v>75.384268025305346</v>
       </c>
       <c r="X57" s="217">
         <f t="shared" si="99"/>
-        <v>181.86089298438924</v>
+        <v>76.748650818482247</v>
       </c>
       <c r="Y57" s="217">
         <f t="shared" si="99"/>
-        <v>183.75742117674554</v>
+        <v>77.858312857375722</v>
       </c>
       <c r="Z57" s="217">
         <f t="shared" si="99"/>
-        <v>184.64240235455236</v>
+        <v>78.668003154842609</v>
       </c>
       <c r="AA57" s="150">
         <f t="shared" si="99"/>
-        <v>185.8257989231065</v>
+        <v>79.045830743169063</v>
       </c>
       <c r="AB57" s="244"/>
     </row>
@@ -25850,63 +25826,63 @@
       </c>
       <c r="M61" s="231">
         <f>L61*(1+M63)</f>
-        <v>77.695696451903586</v>
+        <v>77.624251876046245</v>
       </c>
       <c r="N61" s="231">
         <f>M61*(1+N63)</f>
-        <v>78.058820150934892</v>
+        <v>77.913655182602696</v>
       </c>
       <c r="O61" s="247">
         <f>N61*(1+O63)</f>
-        <v>78.421169599008806</v>
+        <v>78.201219061363247</v>
       </c>
       <c r="P61" s="231">
         <f>O61*(1+P63)</f>
-        <v>78.784680423518822</v>
+        <v>63.994411041229114</v>
       </c>
       <c r="Q61" s="231">
         <f t="shared" ref="Q61:AA61" si="100">P61*(1+Q63)</f>
-        <v>79.151675377337256</v>
+        <v>64.282281491288984</v>
       </c>
       <c r="R61" s="231">
         <f t="shared" si="100"/>
-        <v>79.522154460464094</v>
+        <v>64.572911083042712</v>
       </c>
       <c r="S61" s="247">
         <f t="shared" si="100"/>
-        <v>79.894956296463178</v>
+        <v>64.866299816490312</v>
       </c>
       <c r="T61" s="231">
         <f t="shared" si="100"/>
-        <v>80.266983881504842</v>
+        <v>63.473051600810855</v>
       </c>
       <c r="U61" s="231">
         <f t="shared" si="100"/>
-        <v>80.640172842982665</v>
+        <v>63.767666619455717</v>
       </c>
       <c r="V61" s="231">
         <f t="shared" si="100"/>
-        <v>81.014136055417907</v>
+        <v>64.063201351998543</v>
       </c>
       <c r="W61" s="247">
         <f t="shared" si="100"/>
-        <v>81.387712142374426</v>
+        <v>64.359349227140001</v>
       </c>
       <c r="X61" s="231">
         <f t="shared" si="100"/>
-        <v>81.756642723586438</v>
+        <v>64.318416702084377</v>
       </c>
       <c r="Y61" s="231">
         <f t="shared" si="100"/>
-        <v>82.122863426447452</v>
+        <v>64.610579150334729</v>
       </c>
       <c r="Z61" s="231">
         <f t="shared" si="100"/>
-        <v>82.486374250957482</v>
+        <v>64.900595599489804</v>
       </c>
       <c r="AA61" s="247">
         <f t="shared" si="100"/>
-        <v>82.847562322595238</v>
+        <v>65.188466049549675</v>
       </c>
       <c r="AB61" s="95"/>
     </row>
@@ -25916,99 +25892,99 @@
       </c>
       <c r="D62" s="102">
         <f t="shared" ref="D62:AA62" si="101">D16</f>
-        <v>1085.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="E62" s="104">
         <f t="shared" si="101"/>
-        <v>1212.9000000000001</v>
+        <v>1085.9000000000001</v>
       </c>
       <c r="F62" s="104">
         <f t="shared" si="101"/>
-        <v>609.79999999999995</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="G62" s="149">
         <f t="shared" si="101"/>
-        <v>402.3</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="H62" s="104">
         <f t="shared" si="101"/>
-        <v>404.18538158623392</v>
+        <v>402.3</v>
       </c>
       <c r="I62" s="104">
         <f t="shared" si="101"/>
-        <v>406.11408156777497</v>
+        <v>567.87138158623384</v>
       </c>
       <c r="J62" s="104">
         <f t="shared" si="101"/>
-        <v>408.08197438316557</v>
+        <v>569.80008156777501</v>
       </c>
       <c r="K62" s="149">
         <f t="shared" si="101"/>
-        <v>410.07255778657441</v>
+        <v>489.92497438316559</v>
       </c>
       <c r="L62" s="223">
         <f t="shared" si="101"/>
-        <v>412.05076450560961</v>
+        <v>520.32055778657434</v>
       </c>
       <c r="M62" s="104">
         <f t="shared" si="101"/>
-        <v>413.998029513711</v>
+        <v>522.2987645056096</v>
       </c>
       <c r="N62" s="104">
         <f t="shared" si="101"/>
-        <v>415.93291783743882</v>
+        <v>524.24602951371094</v>
       </c>
       <c r="O62" s="149">
         <f t="shared" si="101"/>
-        <v>417.86368059970891</v>
+        <v>526.18091783743887</v>
       </c>
       <c r="P62" s="104">
         <f t="shared" si="101"/>
-        <v>419.80063170416571</v>
+        <v>430.58968059970891</v>
       </c>
       <c r="Q62" s="104">
         <f t="shared" si="101"/>
-        <v>421.75614783518279</v>
+        <v>432.52663170416571</v>
       </c>
       <c r="R62" s="104">
         <f t="shared" si="101"/>
-        <v>423.7302289927602</v>
+        <v>434.48214783518279</v>
       </c>
       <c r="S62" s="149">
         <f t="shared" si="101"/>
-        <v>425.71668683471103</v>
+        <v>436.4562289927602</v>
       </c>
       <c r="T62" s="104">
         <f t="shared" si="101"/>
-        <v>427.69901911520401</v>
+        <v>427.08168683471098</v>
       </c>
       <c r="U62" s="104">
         <f t="shared" si="101"/>
-        <v>429.68753973788392</v>
+        <v>429.06401911520402</v>
       </c>
       <c r="V62" s="104">
         <f t="shared" si="101"/>
-        <v>431.68018592202162</v>
+        <v>431.05253973788388</v>
       </c>
       <c r="W62" s="149">
         <f t="shared" si="101"/>
-        <v>433.67076932543029</v>
+        <v>433.04518592202157</v>
       </c>
       <c r="X62" s="104">
         <f t="shared" si="101"/>
-        <v>435.63659936009208</v>
+        <v>432.76976932543027</v>
       </c>
       <c r="Y62" s="104">
         <f t="shared" si="101"/>
-        <v>437.58798992965131</v>
+        <v>434.73559936009212</v>
       </c>
       <c r="Z62" s="104">
         <f t="shared" si="101"/>
-        <v>439.52494103410811</v>
+        <v>436.6869899296513</v>
       </c>
       <c r="AA62" s="149">
         <f t="shared" si="101"/>
-        <v>441.44951545419133</v>
+        <v>438.6239410341081</v>
       </c>
       <c r="AB62" s="95"/>
     </row>
@@ -26027,63 +26003,63 @@
       <c r="L63" s="230"/>
       <c r="M63" s="230">
         <f t="shared" ref="M63:AA63" si="102">(M62/L62)-1</f>
-        <v>4.7257890916372336E-3</v>
+        <v>3.8018999815239152E-3</v>
       </c>
       <c r="N63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6736655389412185E-3</v>
+        <v>3.7282588825278129E-3</v>
       </c>
       <c r="O63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6420051875402102E-3</v>
+        <v>3.690802056284026E-3</v>
       </c>
       <c r="P63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6353660162015142E-3</v>
+        <v>-0.18166990477458256</v>
       </c>
       <c r="Q63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6582019733480973E-3</v>
+        <v>4.4983686133841516E-3</v>
       </c>
       <c r="R63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6806221265773829E-3</v>
+        <v>4.5211461854088864E-3</v>
       </c>
       <c r="S63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6880248470182462E-3</v>
+        <v>4.543526511764151E-3</v>
       </c>
       <c r="T63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6564589592013039E-3</v>
+        <v>-2.1478768168078366E-2</v>
       </c>
       <c r="U63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6493457637419855E-3</v>
+        <v>4.6415764047036401E-3</v>
       </c>
       <c r="V63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6374306905740958E-3</v>
+        <v>4.6345545981238967E-3</v>
       </c>
       <c r="W63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6112457053293365E-3</v>
+        <v>4.6227454902583176E-3</v>
       </c>
       <c r="X63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5330010083908245E-3</v>
+        <v>-6.3599967288607839E-4</v>
       </c>
       <c r="Y63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4793999687484654E-3</v>
+        <v>4.5424384372458881E-3</v>
       </c>
       <c r="Z63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4264265679874182E-3</v>
+        <v>4.48868363306687E-3</v>
       </c>
       <c r="AA63" s="246">
         <f t="shared" si="102"/>
-        <v>4.3787604306484429E-3</v>
+        <v>4.4355594490435024E-3</v>
       </c>
       <c r="AB63" s="243"/>
     </row>
@@ -26095,91 +26071,91 @@
       <c r="E64" s="217"/>
       <c r="F64" s="217">
         <f>F61-F62</f>
-        <v>603.68000000000006</v>
+        <v>0.57999999999992724</v>
       </c>
       <c r="G64" s="150">
         <f t="shared" ref="G64:AA64" si="103">G61-G62</f>
-        <v>208.23599999999993</v>
+        <v>0.73599999999999</v>
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>389.89820174709951</v>
+        <v>391.78358333333341</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>387.96950176555845</v>
+        <v>226.21220174709958</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
-        <v>-263.99839104983226</v>
+        <v>-425.7164982344417</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="103"/>
-        <v>-287.32230778657441</v>
+        <v>-367.1747243831656</v>
       </c>
       <c r="L64" s="217">
         <f t="shared" si="103"/>
-        <v>-334.72051450560957</v>
+        <v>-442.99030778657436</v>
       </c>
       <c r="M64" s="217">
         <f t="shared" si="103"/>
-        <v>-336.30233306180742</v>
+        <v>-444.67451262956337</v>
       </c>
       <c r="N64" s="217">
         <f t="shared" si="103"/>
-        <v>-337.87409768650394</v>
+        <v>-446.33237433110821</v>
       </c>
       <c r="O64" s="150">
         <f t="shared" si="103"/>
-        <v>-339.44251100070011</v>
+        <v>-447.97969877607562</v>
       </c>
       <c r="P64" s="217">
         <f t="shared" si="103"/>
-        <v>-341.0159512806469</v>
+        <v>-366.5952695584798</v>
       </c>
       <c r="Q64" s="217">
         <f t="shared" si="103"/>
-        <v>-342.60447245784553</v>
+        <v>-368.24435021287672</v>
       </c>
       <c r="R64" s="217">
         <f t="shared" si="103"/>
-        <v>-344.20807453229611</v>
+        <v>-369.90923675214009</v>
       </c>
       <c r="S64" s="150">
         <f t="shared" si="103"/>
-        <v>-345.82173053824783</v>
+        <v>-371.58992917626989</v>
       </c>
       <c r="T64" s="217">
         <f t="shared" si="103"/>
-        <v>-347.43203523369914</v>
+        <v>-363.60863523390015</v>
       </c>
       <c r="U64" s="217">
         <f t="shared" si="103"/>
-        <v>-349.04736689490124</v>
+        <v>-365.29635249574829</v>
       </c>
       <c r="V64" s="217">
         <f t="shared" si="103"/>
-        <v>-350.66604986660371</v>
+        <v>-366.98933838588533</v>
       </c>
       <c r="W64" s="150">
         <f t="shared" si="103"/>
-        <v>-352.28305718305586</v>
+        <v>-368.68583669488157</v>
       </c>
       <c r="X64" s="217">
         <f t="shared" si="103"/>
-        <v>-353.87995663650565</v>
+        <v>-368.45135262334588</v>
       </c>
       <c r="Y64" s="217">
         <f t="shared" si="103"/>
-        <v>-355.46512650320386</v>
+        <v>-370.12502020975739</v>
       </c>
       <c r="Z64" s="217">
         <f t="shared" si="103"/>
-        <v>-357.0385667831506</v>
+        <v>-371.7863943301615</v>
       </c>
       <c r="AA64" s="150">
         <f t="shared" si="103"/>
-        <v>-358.60195313159608</v>
+        <v>-373.43547498455843</v>
       </c>
       <c r="AB64" s="217"/>
       <c r="AC64" s="217"/>
@@ -26324,35 +26300,35 @@
       </c>
       <c r="T68" s="248">
         <f t="shared" ref="T68:AA68" si="104">S68*(1+T70)</f>
-        <v>336.16070694732593</v>
+        <v>336.19109289565444</v>
       </c>
       <c r="U68" s="248">
         <f t="shared" si="104"/>
-        <v>341.92715340182366</v>
+        <v>341.94362819962095</v>
       </c>
       <c r="V68" s="248">
         <f t="shared" si="104"/>
-        <v>342.39133861647292</v>
+        <v>347.80927395095131</v>
       </c>
       <c r="W68" s="249">
         <f t="shared" si="104"/>
-        <v>342.89676890833556</v>
+        <v>348.28144447288759</v>
       </c>
       <c r="X68" s="248">
         <f t="shared" si="104"/>
-        <v>343.45498373359641</v>
+        <v>348.79556960479533</v>
       </c>
       <c r="Y68" s="248">
         <f t="shared" si="104"/>
-        <v>344.05786382998645</v>
+        <v>349.36338731436012</v>
       </c>
       <c r="Z68" s="248">
         <f t="shared" si="104"/>
-        <v>344.77300996037025</v>
+        <v>349.97663866488529</v>
       </c>
       <c r="AA68" s="249">
         <f t="shared" si="104"/>
-        <v>345.55312735123522</v>
+        <v>350.70408734482481</v>
       </c>
       <c r="AB68" s="95"/>
     </row>
@@ -26362,99 +26338,99 @@
       </c>
       <c r="D69" s="102">
         <f t="shared" ref="D69:O69" si="105">D17</f>
-        <v>884.2600000000001</v>
+        <v>0</v>
       </c>
       <c r="E69" s="104">
         <f t="shared" si="105"/>
-        <v>242.12799999999999</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="F69" s="104">
         <f t="shared" si="105"/>
-        <v>225.90700000000001</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="G69" s="149">
         <f t="shared" si="105"/>
-        <v>260.73700000000002</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="H69" s="104">
         <f t="shared" si="105"/>
-        <v>232.07518871317359</v>
+        <v>357.63880399999999</v>
       </c>
       <c r="I69" s="104">
         <f t="shared" si="105"/>
-        <v>215.720203842161</v>
+        <v>232.07518871317359</v>
       </c>
       <c r="J69" s="104">
         <f t="shared" si="105"/>
-        <v>220.89139620745101</v>
+        <v>215.720203842161</v>
       </c>
       <c r="K69" s="149">
         <f t="shared" si="105"/>
-        <v>226.76914626180869</v>
+        <v>220.89139620745101</v>
       </c>
       <c r="L69" s="104">
         <f t="shared" si="105"/>
-        <v>232.32795235033251</v>
+        <v>226.76914626180869</v>
       </c>
       <c r="M69" s="104">
         <f t="shared" si="105"/>
-        <v>237.9298898973548</v>
+        <v>232.32795235033251</v>
       </c>
       <c r="N69" s="104">
         <f t="shared" si="105"/>
-        <v>251.6040694504666</v>
+        <v>237.9298898973548</v>
       </c>
       <c r="O69" s="149">
         <f t="shared" si="105"/>
-        <v>265.27969850165113</v>
+        <v>251.6040694504666</v>
       </c>
       <c r="P69" s="231">
         <f t="shared" ref="P69:AA69" si="106">P17</f>
-        <v>279.09879389494898</v>
+        <v>265.27969850165113</v>
       </c>
       <c r="Q69" s="231">
         <f t="shared" si="106"/>
-        <v>293.05961551598227</v>
+        <v>279.09879389494898</v>
       </c>
       <c r="R69" s="231">
         <f t="shared" si="106"/>
-        <v>298.02592203707633</v>
+        <v>293.05961551598227</v>
       </c>
       <c r="S69" s="245">
         <f t="shared" si="106"/>
-        <v>303.15281641427401</v>
+        <v>298.02592203707633</v>
       </c>
       <c r="T69" s="231">
         <f t="shared" si="106"/>
-        <v>308.34003676535349</v>
+        <v>303.15281641427401</v>
       </c>
       <c r="U69" s="231">
         <f t="shared" si="106"/>
-        <v>313.62925193845189</v>
+        <v>308.34003676535349</v>
       </c>
       <c r="V69" s="231">
         <f t="shared" si="106"/>
-        <v>314.05502117082477</v>
+        <v>313.62925193845189</v>
       </c>
       <c r="W69" s="247">
         <f t="shared" si="106"/>
-        <v>314.5186220365847</v>
+        <v>314.05502117082477</v>
       </c>
       <c r="X69" s="231">
         <f t="shared" si="106"/>
-        <v>315.03063898617683</v>
+        <v>314.5186220365847</v>
       </c>
       <c r="Y69" s="231">
         <f t="shared" si="106"/>
-        <v>315.58362470772079</v>
+        <v>315.03063898617683</v>
       </c>
       <c r="Z69" s="231">
         <f t="shared" si="106"/>
-        <v>316.2395853229205</v>
+        <v>315.58362470772079</v>
       </c>
       <c r="AA69" s="247">
         <f t="shared" si="106"/>
-        <v>316.95514017513671</v>
+        <v>316.2395853229205</v>
       </c>
       <c r="AB69" s="95"/>
     </row>
@@ -26477,47 +26453,47 @@
       <c r="P70" s="230"/>
       <c r="Q70" s="230">
         <f t="shared" ref="Q70" si="107">(Q69/P69)-1</f>
-        <v>5.002107471051298E-2</v>
+        <v>5.2092547870608463E-2</v>
       </c>
       <c r="R70" s="230">
         <f t="shared" ref="R70" si="108">(R69/Q69)-1</f>
-        <v>1.6946403592149606E-2</v>
+        <v>5.002107471051298E-2</v>
       </c>
       <c r="S70" s="246">
         <f t="shared" ref="S70" si="109">(S69/R69)-1</f>
-        <v>1.7202847128713339E-2</v>
+        <v>1.6946403592149606E-2</v>
       </c>
       <c r="T70" s="230">
         <f t="shared" ref="T70" si="110">(T69/S69)-1</f>
-        <v>1.7110909317731293E-2</v>
+        <v>1.7202847128713339E-2</v>
       </c>
       <c r="U70" s="230">
         <f t="shared" ref="U70" si="111">(U69/T69)-1</f>
-        <v>1.7153838433000779E-2</v>
+        <v>1.7110909317731293E-2</v>
       </c>
       <c r="V70" s="230">
         <f t="shared" ref="V70" si="112">(V69/U69)-1</f>
-        <v>1.3575558712757285E-3</v>
+        <v>1.7153838433000779E-2</v>
       </c>
       <c r="W70" s="246">
         <f t="shared" ref="W70" si="113">(W69/V69)-1</f>
-        <v>1.4761772126157258E-3</v>
+        <v>1.3575558712757285E-3</v>
       </c>
       <c r="X70" s="230">
         <f t="shared" ref="X70" si="114">(X69/W69)-1</f>
-        <v>1.6279384230946103E-3</v>
+        <v>1.4761772126157258E-3</v>
       </c>
       <c r="Y70" s="230">
         <f t="shared" ref="Y70" si="115">(Y69/X69)-1</f>
-        <v>1.7553394911795639E-3</v>
+        <v>1.6279384230946103E-3</v>
       </c>
       <c r="Z70" s="230">
         <f t="shared" ref="Z70" si="116">(Z69/Y69)-1</f>
-        <v>2.0785635370252908E-3</v>
+        <v>1.7553394911795639E-3</v>
       </c>
       <c r="AA70" s="246">
         <f t="shared" ref="AA70" si="117">(AA69/Z69)-1</f>
-        <v>2.2626985533311661E-3</v>
+        <v>2.0785635370252908E-3</v>
       </c>
       <c r="AB70" s="243"/>
     </row>
@@ -26529,91 +26505,91 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>65.492999999999967</v>
+        <v>0</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>23.413999999999987</v>
+        <v>0</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>125.5636152868264</v>
+        <v>0</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>103.809555373839</v>
+        <v>87.454570502826414</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>99.432482045412996</v>
+        <v>104.60367441070301</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>88.352027504066797</v>
+        <v>94.229777558424473</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>77.593706110606433</v>
+        <v>83.152512199130257</v>
       </c>
       <c r="M71" s="217">
         <f t="shared" si="119"/>
-        <v>72.795455197427913</v>
+        <v>78.397392744450201</v>
       </c>
       <c r="N71" s="217">
         <f t="shared" si="119"/>
-        <v>59.928177024695259</v>
+        <v>73.602356577807058</v>
       </c>
       <c r="O71" s="150">
         <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>47.062676959411363</v>
+        <v>60.738306010595892</v>
       </c>
       <c r="P71" s="250">
         <f t="shared" si="120"/>
-        <v>34.056951067957698</v>
+        <v>47.876046461255555</v>
       </c>
       <c r="Q71" s="250">
         <f t="shared" si="120"/>
-        <v>37.445842510045054</v>
+        <v>51.406664131078344</v>
       </c>
       <c r="R71" s="250">
         <f t="shared" si="120"/>
-        <v>32.479535988951</v>
+        <v>37.445842510045054</v>
       </c>
       <c r="S71" s="239">
         <f t="shared" si="120"/>
-        <v>27.352641611753313</v>
+        <v>32.479535988951</v>
       </c>
       <c r="T71" s="250">
         <f t="shared" si="120"/>
-        <v>27.820670181972446</v>
+        <v>33.038276481380422</v>
       </c>
       <c r="U71" s="250">
         <f t="shared" si="120"/>
-        <v>28.297901463371772</v>
+        <v>33.603591434267457</v>
       </c>
       <c r="V71" s="250">
         <f t="shared" si="120"/>
-        <v>28.336317445648149</v>
+        <v>34.180022012499421</v>
       </c>
       <c r="W71" s="251">
         <f t="shared" si="120"/>
-        <v>28.378146871750857</v>
+        <v>34.226423302062813</v>
       </c>
       <c r="X71" s="250">
         <f t="shared" si="120"/>
-        <v>28.424344747419582</v>
+        <v>34.27694756821063</v>
       </c>
       <c r="Y71" s="250">
         <f t="shared" si="120"/>
-        <v>28.474239122265658</v>
+        <v>34.3327483281833</v>
       </c>
       <c r="Z71" s="250">
         <f t="shared" si="120"/>
-        <v>28.533424637449741</v>
+        <v>34.393013957164499</v>
       </c>
       <c r="AA71" s="251">
         <f t="shared" si="120"/>
-        <v>28.597987176098513</v>
+        <v>34.464502021904309</v>
       </c>
       <c r="AB71" s="244"/>
     </row>
@@ -26673,9 +26649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26792,35 +26768,35 @@
       </c>
       <c r="B3" s="102">
         <f t="array" ref="B3:B24">TRANSPOSE('add-ons calculations'!F24:AA24)</f>
-        <v>-8.7680000000000007</v>
+        <v>-36.188999999999993</v>
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F31:AA31)</f>
-        <v>87.676999999999992</v>
+        <v>-252.02299999999997</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
-        <v>-35.750999999999976</v>
+        <v>4.8999999999978172E-2</v>
       </c>
       <c r="E3">
         <f t="array" ref="E3:E24">TRANSPOSE('add-ons calculations'!F43:AA43)</f>
-        <v>-5.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="array" ref="F3:F24">TRANSPOSE('add-ons calculations'!F50:AA50)</f>
-        <v>-43.987999999999829</v>
+        <v>3.3000000000129148E-2</v>
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F57:AA57)</f>
-        <v>709.8010000000013</v>
+        <v>32.801000000000386</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F64:AA64)</f>
-        <v>603.68000000000006</v>
+        <v>0.57999999999992724</v>
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>65.492999999999967</v>
+        <v>0</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
@@ -26851,28 +26827,28 @@
         <v>44196</v>
       </c>
       <c r="B4">
-        <v>14.165816906412658</v>
+        <v>8.0958169064125514</v>
       </c>
       <c r="C4">
-        <v>-34.992000000000019</v>
+        <v>-159.19200000000001</v>
       </c>
       <c r="D4">
-        <v>-86.951000000000022</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="E4">
         <v>-4.3825959008611193</v>
       </c>
       <c r="F4">
-        <v>-30.475999999999885</v>
+        <v>-5.9999999998581188E-3</v>
       </c>
       <c r="G4">
-        <v>219.09299999999985</v>
+        <v>68.093000000000984</v>
       </c>
       <c r="H4">
-        <v>208.23599999999993</v>
+        <v>0.73599999999999</v>
       </c>
       <c r="I4">
-        <v>23.413999999999987</v>
+        <v>0</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
@@ -26903,28 +26879,32 @@
         <v>44286</v>
       </c>
       <c r="B5">
-        <v>11.798701344421289</v>
+        <v>15.945084134642201</v>
       </c>
       <c r="C5">
-        <v>3.7728995470785094</v>
+        <v>-82.229229999999859</v>
       </c>
       <c r="D5">
-        <v>-74.668790726255111</v>
+        <v>-54.593681691845177</v>
       </c>
       <c r="E5">
-        <v>-3.7832762292649704</v>
+        <v>-2.8001771349484841</v>
       </c>
       <c r="F5">
-        <v>-4.0293645275978633</v>
+        <v>-12.65283740934774</v>
       </c>
       <c r="G5">
-        <v>1488.7674453956693</v>
+        <v>-1097.7761975000003</v>
       </c>
       <c r="H5">
-        <v>389.89820174709951</v>
+        <v>391.78358333333341</v>
       </c>
       <c r="I5">
-        <v>125.5636152868264</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="151">
+        <f>'add-ons calculations'!H68</f>
+        <v>357.63880399999999</v>
       </c>
       <c r="K5" s="102">
         <v>544.4</v>
@@ -26952,28 +26932,28 @@
         <v>44377</v>
       </c>
       <c r="B6">
-        <v>7.6523185542003773</v>
+        <v>11.798701344421289</v>
       </c>
       <c r="C6">
-        <v>0.96715476915696286</v>
+        <v>-59.637798527921746</v>
       </c>
       <c r="D6">
-        <v>-83.796216356273817</v>
+        <v>-55.153337573248791</v>
       </c>
       <c r="E6">
-        <v>-4.2315543175006098</v>
+        <v>-2.8288825740026482</v>
       </c>
       <c r="F6">
-        <v>32.473104742464102</v>
+        <v>-142.59036813928606</v>
       </c>
       <c r="G6">
-        <v>373.18358526468296</v>
+        <v>-1498.5777231230811</v>
       </c>
       <c r="H6">
-        <v>387.96950176555845</v>
+        <v>226.21220174709958</v>
       </c>
       <c r="I6">
-        <v>103.809555373839</v>
+        <v>87.454570502826414</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -27002,28 +26982,28 @@
         <v>44469</v>
       </c>
       <c r="B7">
-        <v>7.0672258031208912</v>
+        <v>7.6523185542003773</v>
       </c>
       <c r="C7">
-        <v>-2.6853719233534719</v>
+        <v>-48.369376433718287</v>
       </c>
       <c r="D7">
-        <v>-82.632024980574215</v>
+        <v>-55.951846589752222</v>
       </c>
       <c r="E7">
-        <v>-4.1763953360549806</v>
+        <v>-2.8698390843673991</v>
       </c>
       <c r="F7">
-        <v>25.336050976078923</v>
+        <v>-110.87257339429607</v>
       </c>
       <c r="G7">
-        <v>172.19456217868969</v>
+        <v>-426.34282129017515</v>
       </c>
       <c r="H7">
-        <v>-263.99839104983226</v>
+        <v>-425.7164982344417</v>
       </c>
       <c r="I7">
-        <v>99.432482045412996</v>
+        <v>104.60367441070301</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -27052,28 +27032,28 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>6.4821330520413767</v>
+        <v>7.0672258031208912</v>
       </c>
       <c r="C8">
-        <v>-8.3133907387605745</v>
+        <v>-50.164743799578275</v>
       </c>
       <c r="D8">
-        <v>-81.941881281215274</v>
+        <v>-56.695639249994201</v>
       </c>
       <c r="E8">
-        <v>-4.14432401327538</v>
+        <v>-2.907989125467509</v>
       </c>
       <c r="F8">
-        <v>25.876877146617062</v>
+        <v>-107.08825684083558</v>
       </c>
       <c r="G8">
-        <v>167.42949574283534</v>
+        <v>75.802574790085146</v>
       </c>
       <c r="H8">
-        <v>-287.32230778657441</v>
+        <v>-367.1747243831656</v>
       </c>
       <c r="I8">
-        <v>88.352027504066797</v>
+        <v>94.229777558424473</v>
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
@@ -27102,10 +27082,10 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>47.454444332033063</v>
+        <v>48.039537083112549</v>
       </c>
       <c r="C9">
-        <v>-12.746557895276226</v>
+        <v>-52.00251350839514</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -27114,16 +27094,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.417703317155201</v>
+        <v>-107.6166305379561</v>
       </c>
       <c r="G9">
-        <v>166.80107708132459</v>
+        <v>78.698112255622164</v>
       </c>
       <c r="H9">
-        <v>-334.72051450560957</v>
+        <v>-442.99030778657436</v>
       </c>
       <c r="I9">
-        <v>77.593706110606433</v>
+        <v>83.152512199130257</v>
       </c>
       <c r="K9" s="102">
         <f t="shared" si="1"/>
@@ -27152,10 +27132,10 @@
         <v>44742</v>
       </c>
       <c r="B10">
-        <v>46.869351580953548</v>
+        <v>47.454444332033063</v>
       </c>
       <c r="C10">
-        <v>-13.145675591671591</v>
+        <v>-52.713246721072096</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -27164,16 +27144,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.958529487693568</v>
+        <v>-109.77568064707793</v>
       </c>
       <c r="G10">
-        <v>165.01052030304004</v>
+        <v>78.429819648624289</v>
       </c>
       <c r="H10">
-        <v>-336.30233306180742</v>
+        <v>-444.67451262956337</v>
       </c>
       <c r="I10">
-        <v>72.795455197427913</v>
+        <v>78.397392744450201</v>
       </c>
       <c r="K10" s="102">
         <f t="shared" si="1"/>
@@ -27202,10 +27182,10 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>46.361660893304077</v>
+        <v>47.613845224176771</v>
       </c>
       <c r="C11">
-        <v>-14.21099145984644</v>
+        <v>-52.936412008170294</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -27214,16 +27194,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.187848652661387</v>
+        <v>-111.93473075619954</v>
       </c>
       <c r="G11">
-        <v>167.13630141585099</v>
+        <v>77.665372035198743</v>
       </c>
       <c r="H11">
-        <v>-337.87409768650394</v>
+        <v>-446.33237433110821</v>
       </c>
       <c r="I11">
-        <v>59.928177024695259</v>
+        <v>73.602356577807058</v>
       </c>
       <c r="K11" s="102">
         <f t="shared" si="1"/>
@@ -27252,10 +27232,10 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>45.853970205654605</v>
+        <v>47.098090151658965</v>
       </c>
       <c r="C12">
-        <v>-15.338034745617193</v>
+        <v>-55.115132388081264</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -27264,16 +27244,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.417167817629206</v>
+        <v>-112.85020340733786</v>
       </c>
       <c r="G12">
-        <v>168.2446480983549</v>
+        <v>78.572937948807976</v>
       </c>
       <c r="H12">
-        <v>-339.44251100070011</v>
+        <v>-447.97969877607562</v>
       </c>
       <c r="I12">
-        <v>47.062676959411363</v>
+        <v>60.738306010595892</v>
       </c>
       <c r="K12" s="102">
         <f t="shared" si="1"/>
@@ -27302,10 +27282,10 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>45.346279518005133</v>
+        <v>46.582335079141131</v>
       </c>
       <c r="C13">
-        <v>-16.533927843321862</v>
+        <v>-47.961277998686427</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -27314,16 +27294,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.646486982597025</v>
+        <v>-109.72487233618699</v>
       </c>
       <c r="G13">
-        <v>168.63480753902218</v>
+        <v>72.524125823310442</v>
       </c>
       <c r="H13">
-        <v>-341.0159512806469</v>
+        <v>-366.5952695584798</v>
       </c>
       <c r="I13">
-        <v>34.056951067957698</v>
+        <v>47.876046461255555</v>
       </c>
       <c r="K13" s="102">
         <f t="shared" si="1"/>
@@ -27350,10 +27330,10 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>44.838588830355661</v>
+        <v>46.066580006623298</v>
       </c>
       <c r="C14">
-        <v>-17.755936386932433</v>
+        <v>-50.142487063018876</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -27362,16 +27342,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.875806147564845</v>
+        <v>-110.64034498732531</v>
       </c>
       <c r="G14">
-        <v>168.19927592143449</v>
+        <v>72.690697728145096</v>
       </c>
       <c r="H14">
-        <v>-342.60447245784553</v>
+        <v>-368.24435021287672</v>
       </c>
       <c r="I14">
-        <v>37.445842510045054</v>
+        <v>51.406664131078344</v>
       </c>
       <c r="K14" s="102">
         <f t="shared" si="1"/>
@@ -27392,10 +27372,10 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>45.103772151336528</v>
+        <v>45.550824934105464</v>
       </c>
       <c r="C15">
-        <v>-18.256936057051234</v>
+        <v>-54.25075202714595</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -27404,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.064837938374012</v>
+        <v>-111.55581763846385</v>
       </c>
       <c r="G15">
-        <v>169.05014972387244</v>
+        <v>72.504754947846777</v>
       </c>
       <c r="H15">
-        <v>-344.20807453229611</v>
+        <v>-369.90923675214009</v>
       </c>
       <c r="I15">
-        <v>32.479535988951</v>
+        <v>37.445842510045054</v>
       </c>
       <c r="K15" s="102">
         <f t="shared" si="1"/>
@@ -27434,10 +27414,10 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>45.368955472317282</v>
+        <v>45.820220544996459</v>
       </c>
       <c r="C16">
-        <v>-18.784051173076023</v>
+        <v>-55.885721729532548</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -27446,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.253869729183407</v>
+        <v>-112.31045772581069</v>
       </c>
       <c r="G16">
-        <v>170.00590378118795</v>
+        <v>72.868020975201262</v>
       </c>
       <c r="H16">
-        <v>-345.82173053824783</v>
+        <v>-371.58992917626989</v>
       </c>
       <c r="I16">
-        <v>27.352641611753313</v>
+        <v>32.479535988951</v>
       </c>
       <c r="K16" s="102">
         <f t="shared" si="1"/>
@@ -27476,10 +27456,10 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>45.634138793298064</v>
+        <v>46.08961615588737</v>
       </c>
       <c r="C17">
-        <v>-19.334907603560794</v>
+        <v>-57.607357863138446</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -27488,16 +27468,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.442901519992802</v>
+        <v>-112.84991680192979</v>
       </c>
       <c r="G17">
-        <v>170.91789903564108</v>
+        <v>72.874328219372046</v>
       </c>
       <c r="H17">
-        <v>-347.43203523369914</v>
+        <v>-363.60863523390015</v>
       </c>
       <c r="I17">
-        <v>27.820670181972446</v>
+        <v>33.038276481380422</v>
       </c>
       <c r="K17" s="102">
         <f t="shared" si="1"/>
@@ -27518,10 +27498,10 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>45.899322114278874</v>
+        <v>46.359011766778281</v>
       </c>
       <c r="C18">
-        <v>-19.852526193801623</v>
+        <v>-59.407781661489309</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -27530,16 +27510,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.631933310801969</v>
+        <v>-113.60455688927641</v>
       </c>
       <c r="G18">
-        <v>171.8886940793775</v>
+        <v>73.263689006015056</v>
       </c>
       <c r="H18">
-        <v>-349.04736689490124</v>
+        <v>-365.29635249574829</v>
       </c>
       <c r="I18">
-        <v>28.297901463371772</v>
+        <v>33.603591434267457</v>
       </c>
       <c r="K18" s="102">
         <f t="shared" si="1"/>
@@ -27560,10 +27540,10 @@
         <v>45565</v>
       </c>
       <c r="B19">
-        <v>46.581423935949147</v>
+        <v>46.62840737766922</v>
       </c>
       <c r="C19">
-        <v>-19.931504702215932</v>
+        <v>-61.097902729197358</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -27572,16 +27552,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.337432345276966</v>
+        <v>-114.35919697662302</v>
       </c>
       <c r="G19">
-        <v>175.88490667644419</v>
+        <v>73.678153357724113</v>
       </c>
       <c r="H19">
-        <v>-350.66604986660371</v>
+        <v>-366.98933838588533</v>
       </c>
       <c r="I19">
-        <v>28.336317445648149</v>
+        <v>34.180022012499421</v>
       </c>
       <c r="K19" s="102">
         <f t="shared" si="1"/>
@@ -27602,10 +27582,10 @@
         <v>45657</v>
       </c>
       <c r="B20">
-        <v>47.263525757619476</v>
+        <v>47.321344008295341</v>
       </c>
       <c r="C20">
-        <v>-20.00810907918418</v>
+        <v>-61.288898732099966</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -27614,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.042931379751963</v>
+        <v>-117.17564309248451</v>
       </c>
       <c r="G20">
-        <v>179.26174446138884</v>
+        <v>75.384268025305346</v>
       </c>
       <c r="H20">
-        <v>-352.28305718305586</v>
+        <v>-368.68583669488157</v>
       </c>
       <c r="I20">
-        <v>28.378146871750857</v>
+        <v>34.226423302062813</v>
       </c>
       <c r="K20" s="102">
         <f t="shared" si="1"/>
@@ -27644,10 +27624,10 @@
         <v>45747</v>
       </c>
       <c r="B21">
-        <v>47.94562757928972</v>
+        <v>48.01428063892152</v>
       </c>
       <c r="C21">
-        <v>-20.082339324706481</v>
+        <v>-61.472015968528012</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -27656,16 +27636,16 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.748430414226959</v>
+        <v>-119.74541306736364</v>
       </c>
       <c r="G21">
-        <v>181.86089298438924</v>
+        <v>76.748650818482247</v>
       </c>
       <c r="H21">
-        <v>-353.87995663650565</v>
+        <v>-368.45135262334588</v>
       </c>
       <c r="I21">
-        <v>28.424344747419582</v>
+        <v>34.27694756821063</v>
       </c>
       <c r="K21" s="102">
         <f t="shared" si="1"/>
@@ -27686,10 +27666,10 @@
         <v>45838</v>
       </c>
       <c r="B22">
-        <v>48.627729400959993</v>
+        <v>48.707217269547613</v>
       </c>
       <c r="C22">
-        <v>-20.156569570228783</v>
+        <v>-61.647254438481667</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -27698,16 +27678,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.453929448701956</v>
+        <v>-122.56185918322512</v>
       </c>
       <c r="G22">
-        <v>183.75742117674554</v>
+        <v>77.858312857375722</v>
       </c>
       <c r="H22">
-        <v>-355.46512650320386</v>
+        <v>-370.12502020975739</v>
       </c>
       <c r="I22">
-        <v>28.474239122265658</v>
+        <v>34.3327483281833</v>
       </c>
       <c r="K22" s="102">
         <f t="shared" si="1"/>
@@ -27728,10 +27708,10 @@
         <v>45930</v>
       </c>
       <c r="B23">
-        <v>49.307005274555195</v>
+        <v>49.400153900173734</v>
       </c>
       <c r="C23">
-        <v>-20.233531612277602</v>
+        <v>-61.822492908435265</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -27740,16 +27720,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.979739400361268</v>
+        <v>-125.37830529908683</v>
       </c>
       <c r="G23">
-        <v>184.64240235455236</v>
+        <v>78.668003154842609</v>
       </c>
       <c r="H23">
-        <v>-357.0385667831506</v>
+        <v>-371.7863943301615</v>
       </c>
       <c r="I23">
-        <v>28.533424637449741</v>
+        <v>34.393013957164499</v>
       </c>
       <c r="K23" s="102">
         <f t="shared" si="1"/>
@@ -27770,10 +27750,10 @@
         <v>46022</v>
       </c>
       <c r="B24">
-        <v>49.986281148150368</v>
+        <v>50.090219694107674</v>
       </c>
       <c r="C24">
-        <v>-20.310493654326422</v>
+        <v>-62.007091660579448</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -27782,16 +27762,16 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.50554935202058</v>
+        <v>-127.47740866233153</v>
       </c>
       <c r="G24">
-        <v>185.8257989231065</v>
+        <v>79.045830743169063</v>
       </c>
       <c r="H24">
-        <v>-358.60195313159608</v>
+        <v>-373.43547498455843</v>
       </c>
       <c r="I24">
-        <v>28.597987176098513</v>
+        <v>34.464502021904309</v>
       </c>
       <c r="K24" s="102">
         <f t="shared" si="1"/>
@@ -31232,11 +31212,11 @@
       </c>
       <c r="D2" s="259">
         <f t="array" ref="D2:D23">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
-        <v>-35.750999999999976</v>
+        <v>4.8999999999978172E-2</v>
       </c>
       <c r="E2" s="259">
         <f t="array" ref="E2:E23">TRANSPOSE('add-ons calculations'!F43:AA43)</f>
-        <v>-5.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="F2" s="259">
         <f t="array" ref="F2:F23">TRANSPOSE('add-ons calculations nipas'!F41:AA41)</f>
@@ -31248,11 +31228,11 @@
       </c>
       <c r="H2" s="259">
         <f t="array" ref="H2:H23">TRANSPOSE('add-ons calculations'!F64:AA64)</f>
-        <v>603.68000000000006</v>
+        <v>0.57999999999992724</v>
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>65.492999999999967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31266,7 +31246,7 @@
         <v>698.70615775001932</v>
       </c>
       <c r="D3" s="259">
-        <v>-86.951000000000022</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="E3" s="259">
         <v>-4.3825959008611193</v>
@@ -31278,10 +31258,10 @@
         <v>591.06441309996126</v>
       </c>
       <c r="H3" s="259">
-        <v>208.23599999999993</v>
+        <v>0.73599999999999</v>
       </c>
       <c r="I3" s="259">
-        <v>23.413999999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31295,10 +31275,10 @@
         <v>735.77787802470243</v>
       </c>
       <c r="D4" s="259">
-        <v>-74.668790726255111</v>
+        <v>-54.593681691845177</v>
       </c>
       <c r="E4" s="259">
-        <v>-3.7832762292649704</v>
+        <v>-2.8001771349484841</v>
       </c>
       <c r="F4" s="259">
         <v>66.012511731550148</v>
@@ -31307,10 +31287,10 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>389.89820174709951</v>
+        <v>391.78358333333341</v>
       </c>
       <c r="I4" s="259">
-        <v>125.5636152868264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31324,10 +31304,10 @@
         <v>767.5404900116622</v>
       </c>
       <c r="D5" s="259">
-        <v>-83.796216356273817</v>
+        <v>-55.153337573248791</v>
       </c>
       <c r="E5" s="259">
-        <v>-4.2315543175006098</v>
+        <v>-2.8288825740026482</v>
       </c>
       <c r="F5" s="259">
         <v>101.61723848447548</v>
@@ -31336,10 +31316,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>387.96950176555845</v>
+        <v>226.21220174709958</v>
       </c>
       <c r="I5" s="259">
-        <v>103.809555373839</v>
+        <v>87.454570502826414</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31353,10 +31333,10 @@
         <v>790.69510584290015</v>
       </c>
       <c r="D6" s="259">
-        <v>-82.632024980574215</v>
+        <v>-55.951846589752222</v>
       </c>
       <c r="E6" s="259">
-        <v>-4.1763953360549806</v>
+        <v>-2.8698390843673991</v>
       </c>
       <c r="F6" s="259">
         <v>137.50135897728978</v>
@@ -31365,10 +31345,10 @@
         <v>906.03001879956446</v>
       </c>
       <c r="H6" s="259">
-        <v>-263.99839104983226</v>
+        <v>-425.7164982344417</v>
       </c>
       <c r="I6" s="259">
-        <v>99.432482045412996</v>
+        <v>104.60367441070301</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31382,10 +31362,10 @@
         <v>777.3682130439189</v>
       </c>
       <c r="D7" s="259">
-        <v>-81.941881281215274</v>
+        <v>-56.695639249994201</v>
       </c>
       <c r="E7" s="259">
-        <v>-4.14432401327538</v>
+        <v>-2.907989125467509</v>
       </c>
       <c r="F7" s="259">
         <v>144.44402858127864</v>
@@ -31394,10 +31374,10 @@
         <v>926.50683572140088</v>
       </c>
       <c r="H7" s="259">
-        <v>-287.32230778657441</v>
+        <v>-367.1747243831656</v>
       </c>
       <c r="I7" s="259">
-        <v>88.352027504066797</v>
+        <v>94.229777558424473</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -31423,10 +31403,10 @@
         <v>935.88801570004148</v>
       </c>
       <c r="H8" s="259">
-        <v>-334.72051450560957</v>
+        <v>-442.99030778657436</v>
       </c>
       <c r="I8" s="259">
-        <v>77.593706110606433</v>
+        <v>83.152512199130257</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -31452,10 +31432,10 @@
         <v>935.60252133929384</v>
       </c>
       <c r="H9" s="259">
-        <v>-336.30233306180742</v>
+        <v>-444.67451262956337</v>
       </c>
       <c r="I9" s="259">
-        <v>72.795455197427913</v>
+        <v>78.397392744450201</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -31481,10 +31461,10 @@
         <v>921.93178379942924</v>
       </c>
       <c r="H10" s="259">
-        <v>-337.87409768650394</v>
+        <v>-446.33237433110821</v>
       </c>
       <c r="I10" s="259">
-        <v>59.928177024695259</v>
+        <v>73.602356577807058</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -31510,10 +31490,10 @@
         <v>922.96679357866992</v>
       </c>
       <c r="H11" s="259">
-        <v>-339.44251100070011</v>
+        <v>-447.97969877607562</v>
       </c>
       <c r="I11" s="259">
-        <v>47.062676959411363</v>
+        <v>60.738306010595892</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -31539,10 +31519,10 @@
         <v>924.56059251132388</v>
       </c>
       <c r="H12" s="259">
-        <v>-341.0159512806469</v>
+        <v>-366.5952695584798</v>
       </c>
       <c r="I12" s="259">
-        <v>34.056951067957698</v>
+        <v>47.876046461255555</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -31568,10 +31548,10 @@
         <v>926.53654685838478</v>
       </c>
       <c r="H13" s="259">
-        <v>-342.60447245784553</v>
+        <v>-368.24435021287672</v>
       </c>
       <c r="I13" s="259">
-        <v>37.445842510045054</v>
+        <v>51.406664131078344</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -31597,10 +31577,10 @@
         <v>929.6074540197169</v>
       </c>
       <c r="H14" s="259">
-        <v>-344.20807453229611</v>
+        <v>-369.90923675214009</v>
       </c>
       <c r="I14" s="259">
-        <v>32.479535988951</v>
+        <v>37.445842510045054</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -31626,10 +31606,10 @@
         <v>939.00391731648051</v>
       </c>
       <c r="H15" s="259">
-        <v>-345.82173053824783</v>
+        <v>-371.58992917626989</v>
       </c>
       <c r="I15" s="259">
-        <v>27.352641611753313</v>
+        <v>32.479535988951</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -31655,10 +31635,10 @@
         <v>948.03277360151947</v>
       </c>
       <c r="H16" s="259">
-        <v>-347.43203523369914</v>
+        <v>-363.60863523390015</v>
       </c>
       <c r="I16" s="259">
-        <v>27.820670181972446</v>
+        <v>33.038276481380422</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -31684,10 +31664,10 @@
         <v>955.34762065860946</v>
       </c>
       <c r="H17" s="259">
-        <v>-349.04736689490124</v>
+        <v>-365.29635249574829</v>
       </c>
       <c r="I17" s="259">
-        <v>28.297901463371772</v>
+        <v>33.603591434267457</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -31713,10 +31693,10 @@
         <v>961.61183263262797</v>
       </c>
       <c r="H18" s="259">
-        <v>-350.66604986660371</v>
+        <v>-366.98933838588533</v>
       </c>
       <c r="I18" s="259">
-        <v>28.336317445648149</v>
+        <v>34.180022012499421</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -31742,10 +31722,10 @@
         <v>983.80559967852105</v>
       </c>
       <c r="H19" s="259">
-        <v>-352.28305718305586</v>
+        <v>-368.68583669488157</v>
       </c>
       <c r="I19" s="259">
-        <v>28.378146871750857</v>
+        <v>34.226423302062813</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -31771,10 +31751,10 @@
         <v>1002.5410989249847</v>
       </c>
       <c r="H20" s="259">
-        <v>-353.87995663650565</v>
+        <v>-368.45135262334588</v>
       </c>
       <c r="I20" s="259">
-        <v>28.424344747419582</v>
+        <v>34.27694756821063</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -31800,10 +31780,10 @@
         <v>1018.2130393556045</v>
       </c>
       <c r="H21" s="259">
-        <v>-355.46512650320386</v>
+        <v>-370.12502020975739</v>
       </c>
       <c r="I21" s="259">
-        <v>28.474239122265658</v>
+        <v>34.3327483281833</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -31829,10 +31809,10 @@
         <v>1030.4917377332347</v>
       </c>
       <c r="H22" s="259">
-        <v>-357.0385667831506</v>
+        <v>-371.7863943301615</v>
       </c>
       <c r="I22" s="259">
-        <v>28.533424637449741</v>
+        <v>34.393013957164499</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -31858,10 +31838,10 @@
         <v>1037.1068216073324</v>
       </c>
       <c r="H23" s="259">
-        <v>-358.60195313159608</v>
+        <v>-373.43547498455843</v>
       </c>
       <c r="I23" s="259">
-        <v>28.597987176098513</v>
+        <v>34.464502021904309</v>
       </c>
     </row>
   </sheetData>
@@ -32900,12 +32880,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33122,33 +33111,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33165,12 +33153,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA539E6E-7956-4C69-8E9B-C76ACF288C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DA04C-9C54-4487-A816-D87FF1A8ADCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="4830" yWindow="1210" windowWidth="14400" windowHeight="9350" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4143,10 +4143,10 @@
   <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R83" sqref="R83"/>
+      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22076,11 +22076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I71" sqref="I71"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22295,140 +22295,143 @@
       <c r="B10" s="86" t="s">
         <v>170</v>
       </c>
+      <c r="D10">
+        <v>156.16</v>
+      </c>
       <c r="E10">
-        <v>156.16</v>
+        <v>197.62799999999999</v>
       </c>
       <c r="F10">
-        <v>197.62799999999999</v>
+        <v>170.20699999999999</v>
       </c>
       <c r="G10">
-        <v>170.20699999999999</v>
+        <v>164.13699999999989</v>
       </c>
       <c r="H10">
-        <v>164.13699999999989</v>
+        <v>168.2833827902208</v>
       </c>
       <c r="I10">
-        <v>168.2833827902208</v>
+        <v>172.42976558044171</v>
       </c>
       <c r="J10">
-        <v>172.42976558044171</v>
+        <v>173.0148583315212</v>
       </c>
       <c r="K10">
-        <v>173.0148583315212</v>
+        <v>173.59995108260071</v>
       </c>
       <c r="L10">
-        <v>173.59995108260071</v>
+        <v>174.1850438336802</v>
       </c>
       <c r="M10">
-        <v>174.1850438336802</v>
+        <v>174.77013658475971</v>
       </c>
       <c r="N10">
-        <v>174.77013658475971</v>
+        <v>172.87701948733081</v>
       </c>
       <c r="O10">
-        <v>172.87701948733081</v>
+        <v>170.98390238990191</v>
       </c>
       <c r="P10">
-        <v>170.98390238990191</v>
+        <v>169.09078529247299</v>
       </c>
       <c r="Q10">
-        <v>169.09078529247299</v>
+        <v>167.19766819504409</v>
       </c>
       <c r="R10">
-        <v>167.19766819504409</v>
+        <v>168.18650468764571</v>
       </c>
       <c r="S10">
-        <v>168.18650468764571</v>
+        <v>169.1753411802471</v>
       </c>
       <c r="T10">
-        <v>169.1753411802471</v>
+        <v>170.1641776728485</v>
       </c>
       <c r="U10">
-        <v>170.1641776728485</v>
+        <v>171.15301416545</v>
       </c>
       <c r="V10">
-        <v>171.15301416545</v>
+        <v>173.69648926200901</v>
       </c>
       <c r="W10">
-        <v>173.69648926200901</v>
+        <v>176.23996435856819</v>
       </c>
       <c r="X10">
-        <v>176.23996435856819</v>
+        <v>178.78343945512711</v>
       </c>
       <c r="Y10">
-        <v>178.78343945512711</v>
+        <v>181.3269145516862</v>
       </c>
       <c r="Z10">
-        <v>181.3269145516862</v>
+        <v>183.85985203007041</v>
       </c>
       <c r="AA10">
-        <v>183.85985203007041</v>
+        <v>186.3927895084546</v>
       </c>
       <c r="AB10">
-        <v>186.3927895084546</v>
+        <v>188.9257269868389</v>
       </c>
       <c r="AC10">
-        <v>188.9257269868389</v>
+        <v>191.45866446522299</v>
       </c>
       <c r="AD10">
-        <v>191.45866446522299</v>
+        <v>194.36254309952051</v>
       </c>
       <c r="AE10">
-        <v>194.36254309952051</v>
+        <v>197.26642173381791</v>
       </c>
       <c r="AF10">
-        <v>197.26642173381791</v>
+        <v>200.17030036811531</v>
       </c>
       <c r="AG10">
-        <v>200.17030036811531</v>
+        <v>203.07417900241259</v>
       </c>
       <c r="AH10">
-        <v>203.07417900241259</v>
+        <v>206.00159731602</v>
       </c>
       <c r="AI10">
-        <v>206.00159731602</v>
+        <v>208.92901562962729</v>
       </c>
       <c r="AJ10">
-        <v>208.92901562962729</v>
+        <v>211.85643394323469</v>
       </c>
       <c r="AK10">
-        <v>211.85643394323469</v>
+        <v>214.7838522568419</v>
       </c>
       <c r="AL10">
-        <v>214.7838522568419</v>
+        <v>217.8087435385666</v>
       </c>
       <c r="AM10">
-        <v>217.8087435385666</v>
+        <v>220.83363482029131</v>
       </c>
       <c r="AN10">
-        <v>220.83363482029131</v>
+        <v>223.85852610201621</v>
       </c>
       <c r="AO10">
-        <v>223.85852610201621</v>
+        <v>226.88341738374069</v>
       </c>
       <c r="AP10">
-        <v>226.88341738374069</v>
+        <v>230.0749559980533</v>
       </c>
       <c r="AQ10">
-        <v>230.0749559980533</v>
+        <v>233.2664946123657</v>
       </c>
       <c r="AR10">
-        <v>233.2664946123657</v>
+        <v>236.45803322667831</v>
       </c>
       <c r="AS10">
-        <v>236.45803322667831</v>
+        <v>239.6495718409908</v>
       </c>
       <c r="AT10">
-        <v>239.6495718409908</v>
+        <v>242.96586225756681</v>
       </c>
       <c r="AU10">
-        <v>242.96586225756681</v>
+        <v>246.28215267414279</v>
       </c>
       <c r="AV10">
-        <v>246.28215267414279</v>
+        <v>249.59844309071909</v>
       </c>
       <c r="AW10">
-        <v>249.59844309071909</v>
+        <v>252.91473350729501</v>
       </c>
       <c r="AX10">
         <v>252.91473350729501</v>
@@ -22438,283 +22441,289 @@
       <c r="B11" s="86" t="s">
         <v>171</v>
       </c>
+      <c r="D11">
+        <v>440</v>
+      </c>
       <c r="E11">
-        <v>736.59999999999991</v>
+        <v>363.8</v>
       </c>
       <c r="F11">
-        <v>582.79999999999995</v>
+        <v>243.1</v>
       </c>
       <c r="G11">
-        <v>341</v>
+        <v>216.8</v>
       </c>
       <c r="H11">
-        <v>287.69999999999987</v>
+        <v>201.69787045292151</v>
       </c>
       <c r="I11">
-        <v>249.4722454529217</v>
+        <v>188.86729215584299</v>
       </c>
       <c r="J11">
-        <v>238.93299559334321</v>
+        <v>193.24899108297839</v>
       </c>
       <c r="K11">
-        <v>241.82759010290039</v>
+        <v>199.97623704208269</v>
       </c>
       <c r="L11">
-        <v>245.1419882747505</v>
+        <v>205.88603266163159</v>
       </c>
       <c r="M11">
-        <v>248.49241388178211</v>
+        <v>212.3326953411578</v>
       </c>
       <c r="N11">
-        <v>249.5444242270961</v>
+        <v>229.53998058883141</v>
       </c>
       <c r="O11">
-        <v>259.81500173946711</v>
+        <v>247.744304662177</v>
       </c>
       <c r="P11">
-        <v>226.09143780901999</v>
+        <v>267.06071050261841</v>
       </c>
       <c r="Q11">
-        <v>236.37374708214861</v>
+        <v>286.79894046161343</v>
       </c>
       <c r="R11">
-        <v>255.74027715387331</v>
+        <v>294.89122979125102</v>
       </c>
       <c r="S11">
-        <v>263.44759160026678</v>
+        <v>303.40534323944189</v>
       </c>
       <c r="T11">
-        <v>271.56345516923977</v>
+        <v>312.30293315904561</v>
       </c>
       <c r="U11">
-        <v>280.05072703146732</v>
+        <v>320.66365601867182</v>
       </c>
       <c r="V11">
-        <v>288.01802728313891</v>
+        <v>321.93933937542943</v>
       </c>
       <c r="W11">
-        <v>288.91839029917872</v>
+        <v>323.17667508504508</v>
       </c>
       <c r="X11">
-        <v>289.78161248589288</v>
+        <v>324.3756631475203</v>
       </c>
       <c r="Y11">
-        <v>290.60769384328211</v>
+        <v>325.57465120999512</v>
       </c>
       <c r="Z11">
-        <v>291.43377520067099</v>
+        <v>326.81776402783669</v>
       </c>
       <c r="AA11">
-        <v>292.30398131342662</v>
+        <v>328.06087684567802</v>
       </c>
       <c r="AB11">
-        <v>293.17418742618202</v>
+        <v>329.34233731066053</v>
       </c>
       <c r="AC11">
-        <v>294.08153436826302</v>
+        <v>330.62379777564308</v>
       </c>
       <c r="AD11">
-        <v>294.98888131034357</v>
+        <v>330.39034332990889</v>
       </c>
       <c r="AE11">
-        <v>294.38010652389193</v>
+        <v>330.15688888417498</v>
       </c>
       <c r="AF11">
-        <v>293.77133173744051</v>
+        <v>329.96178208558229</v>
       </c>
       <c r="AG11">
-        <v>293.1996977803143</v>
+        <v>329.80502293413088</v>
       </c>
       <c r="AH11">
-        <v>292.66520465251352</v>
+        <v>329.54969477270748</v>
       </c>
       <c r="AI11">
-        <v>292.03214251474122</v>
+        <v>329.2943666112842</v>
       </c>
       <c r="AJ11">
-        <v>291.39908037696858</v>
+        <v>329.07738609700209</v>
       </c>
       <c r="AK11">
-        <v>290.80315906852138</v>
+        <v>328.86040558272009</v>
       </c>
       <c r="AL11">
-        <v>290.20723776007452</v>
+        <v>328.27361872844011</v>
       </c>
       <c r="AM11">
-        <v>289.24030329381378</v>
+        <v>327.68683187415991</v>
       </c>
       <c r="AN11">
-        <v>288.27336882755282</v>
+        <v>327.1000450198793</v>
       </c>
       <c r="AO11">
-        <v>287.30643436129151</v>
+        <v>326.551605812741</v>
       </c>
       <c r="AP11">
-        <v>286.37664072435621</v>
+        <v>325.38205024445301</v>
       </c>
       <c r="AQ11">
-        <v>284.82331709063999</v>
+        <v>324.25084232330607</v>
       </c>
       <c r="AR11">
-        <v>283.30713428624921</v>
+        <v>323.19632969644169</v>
       </c>
       <c r="AS11">
-        <v>281.86523314050908</v>
+        <v>322.21851236385947</v>
       </c>
       <c r="AT11">
-        <v>280.49761365341982</v>
+        <v>320.79501015719001</v>
       </c>
       <c r="AU11">
-        <v>278.68189565661112</v>
+        <v>319.44820324480298</v>
       </c>
       <c r="AV11">
-        <v>276.94045931845392</v>
+        <v>318.21643927383991</v>
       </c>
       <c r="AW11">
-        <v>275.31044546827241</v>
+        <v>317.02302295001772</v>
       </c>
       <c r="AX11">
-        <v>273.7175724474165</v>
+        <v>317.02302295001772</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
+      <c r="D12">
+        <v>1779.8</v>
+      </c>
       <c r="E12">
-        <v>1779.8</v>
+        <v>1871.3</v>
       </c>
       <c r="F12">
-        <v>1871.3</v>
+        <v>1907.1</v>
       </c>
       <c r="G12">
-        <v>1907.1</v>
+        <v>1958.3</v>
       </c>
       <c r="H12">
-        <v>1958.3</v>
+        <v>1978.3751090344099</v>
       </c>
       <c r="I12">
-        <v>1978.3751090344099</v>
+        <v>2007.0179878174349</v>
       </c>
       <c r="J12">
-        <v>2007.0179878174349</v>
+        <v>2033.6981662082569</v>
       </c>
       <c r="K12">
-        <v>2033.6981662082569</v>
+        <v>2058.944408239478</v>
       </c>
       <c r="L12">
-        <v>2058.944408239478</v>
+        <v>2079.7902580671739</v>
       </c>
       <c r="M12">
-        <v>2079.7902580671739</v>
+        <v>2102.1686273791929</v>
       </c>
       <c r="N12">
-        <v>2102.1686273791929</v>
+        <v>2124.2512473170441</v>
       </c>
       <c r="O12">
-        <v>2124.2512473170441</v>
+        <v>2144.5772952143848</v>
       </c>
       <c r="P12">
-        <v>2144.5772952143848</v>
+        <v>2167.3231107185511</v>
       </c>
       <c r="Q12">
-        <v>2167.3231107185511</v>
+        <v>2191.2429616171412</v>
       </c>
       <c r="R12">
-        <v>2191.2429616171412</v>
+        <v>2215.8977049000259</v>
       </c>
       <c r="S12">
-        <v>2215.8977049000259</v>
+        <v>2239.1633223345489</v>
       </c>
       <c r="T12">
-        <v>2239.1633223345489</v>
+        <v>2263.8359898219292</v>
       </c>
       <c r="U12">
-        <v>2263.8359898219292</v>
+        <v>2288.696861456508</v>
       </c>
       <c r="V12">
-        <v>2288.696861456508</v>
+        <v>2314.5704506450529</v>
       </c>
       <c r="W12">
-        <v>2314.5704506450529</v>
+        <v>2339.8704652897591</v>
       </c>
       <c r="X12">
-        <v>2339.8704652897591</v>
+        <v>2365.3049114681771</v>
       </c>
       <c r="Y12">
-        <v>2365.3049114681771</v>
+        <v>2390.1837073072502</v>
       </c>
       <c r="Z12">
-        <v>2390.1837073072502</v>
+        <v>2414.937033714858</v>
       </c>
       <c r="AA12">
-        <v>2414.937033714858</v>
+        <v>2439.8964884741581</v>
       </c>
       <c r="AB12">
-        <v>2439.8964884741581</v>
+        <v>2464.336141303103</v>
       </c>
       <c r="AC12">
-        <v>2464.336141303103</v>
+        <v>2488.5158931668711</v>
       </c>
       <c r="AD12">
-        <v>2488.5158931668711</v>
+        <v>2512.2565020205111</v>
       </c>
       <c r="AE12">
-        <v>2512.2565020205111</v>
+        <v>2535.665513090993</v>
       </c>
       <c r="AF12">
-        <v>2535.665513090993</v>
+        <v>2559.083486263723</v>
       </c>
       <c r="AG12">
-        <v>2559.083486263723</v>
+        <v>2582.8330572196101</v>
       </c>
       <c r="AH12">
-        <v>2582.8330572196101</v>
+        <v>2607.0934680036062</v>
       </c>
       <c r="AI12">
-        <v>2607.0934680036062</v>
+        <v>2631.766135490986</v>
       </c>
       <c r="AJ12">
-        <v>2631.766135490986</v>
+        <v>2656.7704007615239</v>
       </c>
       <c r="AK12">
-        <v>2656.7704007615239</v>
+        <v>2681.7298555208249</v>
       </c>
       <c r="AL12">
-        <v>2681.7298555208249</v>
+        <v>2706.7878934048481</v>
       </c>
       <c r="AM12">
-        <v>2706.7878934048481</v>
+        <v>2731.9265902090979</v>
       </c>
       <c r="AN12">
-        <v>2731.9265902090979</v>
+        <v>2757.0204765021122</v>
       </c>
       <c r="AO12">
-        <v>2757.0204765021122</v>
+        <v>2782.0157796704029</v>
       </c>
       <c r="AP12">
-        <v>2782.0157796704029</v>
+        <v>2807.2440974971282</v>
       </c>
       <c r="AQ12">
-        <v>2807.2440974971282</v>
+        <v>2832.5441121418339</v>
       </c>
       <c r="AR12">
-        <v>2832.5441121418339</v>
+        <v>2858.1488382629541</v>
       </c>
       <c r="AS12">
-        <v>2858.1488382629541</v>
+        <v>2884.2464800076882</v>
       </c>
       <c r="AT12">
-        <v>2884.2464800076882</v>
+        <v>2910.8011889670452</v>
       </c>
       <c r="AU12">
-        <v>2910.8011889670452</v>
+        <v>2937.8756998567569</v>
       </c>
       <c r="AV12">
-        <v>2937.8756998567569</v>
+        <v>2965.0487938711908</v>
       </c>
       <c r="AW12">
-        <v>2965.0487938711908</v>
+        <v>2992.3742436238322</v>
       </c>
       <c r="AX12">
         <v>2992.3742436238322</v>
@@ -22724,140 +22733,143 @@
       <c r="B13" s="86" t="s">
         <v>173</v>
       </c>
+      <c r="D13">
+        <v>54.2</v>
+      </c>
       <c r="E13">
-        <v>54.2</v>
+        <v>90.2</v>
       </c>
       <c r="F13">
-        <v>90.2</v>
+        <v>95.9</v>
       </c>
       <c r="G13">
         <v>95.9</v>
       </c>
       <c r="H13">
-        <v>95.9</v>
+        <v>96.883099094316492</v>
       </c>
       <c r="I13">
-        <v>96.883099094316492</v>
+        <v>98.285770837814454</v>
       </c>
       <c r="J13">
-        <v>98.285770837814454</v>
+        <v>99.592327089502035</v>
       </c>
       <c r="K13">
-        <v>99.592327089502035</v>
+        <v>100.82866197730991</v>
       </c>
       <c r="L13">
-        <v>100.82866197730991</v>
+        <v>101.8495050547117</v>
       </c>
       <c r="M13">
-        <v>101.8495050547117</v>
+        <v>102.94539721476001</v>
       </c>
       <c r="N13">
-        <v>102.94539721476001</v>
+        <v>104.0268062185081</v>
       </c>
       <c r="O13">
-        <v>104.0268062185081</v>
+        <v>105.0221940515036</v>
       </c>
       <c r="P13">
-        <v>105.0221940515036</v>
+        <v>106.1360804360461</v>
       </c>
       <c r="Q13">
-        <v>106.1360804360461</v>
+        <v>107.30746056226521</v>
       </c>
       <c r="R13">
-        <v>107.30746056226521</v>
+        <v>108.5148291374726</v>
       </c>
       <c r="S13">
-        <v>108.5148291374726</v>
+        <v>109.6541707664215</v>
       </c>
       <c r="T13">
-        <v>109.6541707664215</v>
+        <v>110.8624171086775</v>
       </c>
       <c r="U13">
-        <v>110.8624171086775</v>
+        <v>112.07988000494259</v>
       </c>
       <c r="V13">
-        <v>112.07988000494259</v>
+        <v>113.3469367394478</v>
       </c>
       <c r="W13">
-        <v>113.3469367394478</v>
+        <v>114.58590492840121</v>
       </c>
       <c r="X13">
-        <v>114.58590492840121</v>
+        <v>115.83145637021821</v>
       </c>
       <c r="Y13">
-        <v>115.83145637021821</v>
+        <v>117.0497970335318</v>
       </c>
       <c r="Z13">
-        <v>117.0497970335318</v>
+        <v>118.261993327506</v>
       </c>
       <c r="AA13">
-        <v>118.261993327506</v>
+        <v>119.4842839425379</v>
       </c>
       <c r="AB13">
-        <v>119.4842839425379</v>
+        <v>120.68111931316329</v>
       </c>
       <c r="AC13">
-        <v>120.68111931316329</v>
+        <v>121.8652270615856</v>
       </c>
       <c r="AD13">
-        <v>121.8652270615856</v>
+        <v>123.0278295173197</v>
       </c>
       <c r="AE13">
-        <v>123.0278295173197</v>
+        <v>124.1741932826566</v>
       </c>
       <c r="AF13">
-        <v>124.1741932826566</v>
+        <v>125.3209959315177</v>
       </c>
       <c r="AG13">
-        <v>125.3209959315177</v>
+        <v>126.4840372707761</v>
       </c>
       <c r="AH13">
-        <v>126.4840372707761</v>
+        <v>127.6720949709166</v>
       </c>
       <c r="AI13">
-        <v>127.6720949709166</v>
+        <v>128.88034131317249</v>
       </c>
       <c r="AJ13">
-        <v>128.88034131317249</v>
+        <v>130.10482634582559</v>
       </c>
       <c r="AK13">
-        <v>130.10482634582559</v>
+        <v>131.3271169608575</v>
       </c>
       <c r="AL13">
-        <v>131.3271169608575</v>
+        <v>132.55423529465611</v>
       </c>
       <c r="AM13">
-        <v>132.55423529465611</v>
+        <v>133.78530358017301</v>
       </c>
       <c r="AN13">
-        <v>133.78530358017301</v>
+        <v>135.01417744806861</v>
       </c>
       <c r="AO13">
-        <v>135.01417744806861</v>
+        <v>136.23822359719739</v>
       </c>
       <c r="AP13">
-        <v>136.23822359719739</v>
+        <v>137.47368071795671</v>
       </c>
       <c r="AQ13">
-        <v>137.47368071795671</v>
+        <v>138.71264890691</v>
       </c>
       <c r="AR13">
-        <v>138.71264890691</v>
+        <v>139.96653913568781</v>
       </c>
       <c r="AS13">
-        <v>139.96653913568781</v>
+        <v>141.24456795829931</v>
       </c>
       <c r="AT13">
-        <v>141.24456795829931</v>
+        <v>142.54497984064739</v>
       </c>
       <c r="AU13">
-        <v>142.54497984064739</v>
+        <v>143.8708469674018</v>
       </c>
       <c r="AV13">
-        <v>143.8708469674018</v>
+        <v>145.2015418129231</v>
       </c>
       <c r="AW13">
-        <v>145.2015418129231</v>
+        <v>146.53969767835659</v>
       </c>
       <c r="AX13">
         <v>146.53969767835659</v>
@@ -22867,140 +22879,143 @@
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
+      <c r="D14">
+        <v>1336.74</v>
+      </c>
       <c r="E14">
-        <v>1336.74</v>
+        <v>1328.7719999999999</v>
       </c>
       <c r="F14">
-        <v>1328.7719999999999</v>
+        <v>1372.7929999999999</v>
       </c>
       <c r="G14">
-        <v>1372.7929999999999</v>
+        <v>1403.2629999999999</v>
       </c>
       <c r="H14">
-        <v>1403.2629999999999</v>
+        <v>1394.63952711825</v>
       </c>
       <c r="I14">
-        <v>1561.0795271182501</v>
+        <v>1386.0160542364999</v>
       </c>
       <c r="J14">
-        <v>1552.4560542365</v>
+        <v>1416.247429866125</v>
       </c>
       <c r="K14">
-        <v>1499.467429866125</v>
+        <v>1446.4788054957489</v>
       </c>
       <c r="L14">
-        <v>1506.8658054957491</v>
+        <v>1476.710181125374</v>
       </c>
       <c r="M14">
-        <v>1537.0971811253739</v>
+        <v>1506.9415567549979</v>
       </c>
       <c r="N14">
-        <v>1567.3285567549981</v>
+        <v>1519.7601557667949</v>
       </c>
       <c r="O14">
-        <v>1580.1471557667951</v>
+        <v>1532.578754778594</v>
       </c>
       <c r="P14">
-        <v>1536.385754778594</v>
+        <v>1545.397353790391</v>
       </c>
       <c r="Q14">
-        <v>1549.204353790391</v>
+        <v>1558.2159528021889</v>
       </c>
       <c r="R14">
-        <v>1562.0229528021889</v>
+        <v>1568.782547736397</v>
       </c>
       <c r="S14">
-        <v>1572.589547736397</v>
+        <v>1579.349142670605</v>
       </c>
       <c r="T14">
-        <v>1580.1431426706049</v>
+        <v>1589.9157376048131</v>
       </c>
       <c r="U14">
-        <v>1590.709737604813</v>
+        <v>1600.4823325390209</v>
       </c>
       <c r="V14">
-        <v>1601.276332539021</v>
+        <v>1639.9186754518039</v>
       </c>
       <c r="W14">
-        <v>1640.712675451804</v>
+        <v>1679.3550183645871</v>
       </c>
       <c r="X14">
-        <v>1676.695018364587</v>
+        <v>1718.7913612773691</v>
       </c>
       <c r="Y14">
-        <v>1716.131361277369</v>
+        <v>1758.2277041901521</v>
       </c>
       <c r="Z14">
-        <v>1755.567704190152</v>
+        <v>1787.619695599499</v>
       </c>
       <c r="AA14">
-        <v>1784.9596955994989</v>
+        <v>1817.0116870088459</v>
       </c>
       <c r="AB14">
-        <v>1817.0116870088459</v>
+        <v>1846.403678418194</v>
       </c>
       <c r="AC14">
-        <v>1846.403678418194</v>
+        <v>1875.7956698275409</v>
       </c>
       <c r="AD14">
-        <v>1875.7956698275409</v>
+        <v>1908.214872793631</v>
       </c>
       <c r="AE14">
-        <v>1908.214872793631</v>
+        <v>1940.63407575972</v>
       </c>
       <c r="AF14">
-        <v>1940.63407575972</v>
+        <v>1973.0532787258101</v>
       </c>
       <c r="AG14">
-        <v>1973.0532787258101</v>
+        <v>2005.472481691899</v>
       </c>
       <c r="AH14">
-        <v>2005.472481691899</v>
+        <v>2057.1759873287519</v>
       </c>
       <c r="AI14">
-        <v>2057.1759873287519</v>
+        <v>2108.879492965606</v>
       </c>
       <c r="AJ14">
-        <v>2108.879492965606</v>
+        <v>2160.5829986024601</v>
       </c>
       <c r="AK14">
-        <v>2160.5829986024601</v>
+        <v>2212.2865042393132</v>
       </c>
       <c r="AL14">
-        <v>2212.2865042393132</v>
+        <v>2211.5343138466092</v>
       </c>
       <c r="AM14">
-        <v>2211.5343138466092</v>
+        <v>2210.7821234539051</v>
       </c>
       <c r="AN14">
-        <v>2210.7821234539051</v>
+        <v>2210.0299330612011</v>
       </c>
       <c r="AO14">
-        <v>2210.0299330612011</v>
+        <v>2209.2777426684961</v>
       </c>
       <c r="AP14">
-        <v>2209.2777426684961</v>
+        <v>2261.6493087725662</v>
       </c>
       <c r="AQ14">
-        <v>2261.6493087725662</v>
+        <v>2314.0208748766349</v>
       </c>
       <c r="AR14">
-        <v>2314.0208748766349</v>
+        <v>2366.392440980705</v>
       </c>
       <c r="AS14">
-        <v>2366.392440980705</v>
+        <v>2418.7640070847742</v>
       </c>
       <c r="AT14">
-        <v>2418.7640070847742</v>
+        <v>2464.3652051309859</v>
       </c>
       <c r="AU14">
-        <v>2464.3652051309859</v>
+        <v>2509.9664031771981</v>
       </c>
       <c r="AV14">
-        <v>2509.9664031771981</v>
+        <v>2555.5676012234089</v>
       </c>
       <c r="AW14">
-        <v>2555.5676012234089</v>
+        <v>2601.1687992696211</v>
       </c>
       <c r="AX14">
         <v>2601.1687992696211</v>
@@ -23010,140 +23025,143 @@
       <c r="B15" s="86" t="s">
         <v>166</v>
       </c>
+      <c r="D15">
+        <v>1828.5000000000009</v>
+      </c>
       <c r="E15">
-        <v>3694.6000000000008</v>
+        <v>1861.4</v>
       </c>
       <c r="F15">
-        <v>2433.1999999999998</v>
+        <v>1756.1999999999989</v>
       </c>
       <c r="G15">
-        <v>1959.6999999999989</v>
+        <v>1808.7</v>
       </c>
       <c r="H15">
-        <v>4215.9000000000005</v>
+        <v>1629.356357104331</v>
       </c>
       <c r="I15">
-        <v>3373.426597104331</v>
+        <v>1501.6652887165669</v>
       </c>
       <c r="J15">
-        <v>2112.8103287165659</v>
+        <v>1514.272945247701</v>
       </c>
       <c r="K15">
-        <v>1607.2419452477011</v>
+        <v>1515.6150242949509</v>
       </c>
       <c r="L15">
-        <v>1668.6360242949511</v>
+        <v>1509.926416318757</v>
       </c>
       <c r="M15">
-        <v>1662.947416318757</v>
+        <v>1493.7178340556329</v>
       </c>
       <c r="N15">
-        <v>1646.738834055632</v>
+        <v>1512.9609535468801</v>
       </c>
       <c r="O15">
-        <v>1665.98195354688</v>
+        <v>1522.99399388232</v>
       </c>
       <c r="P15">
-        <v>1537.7289938823201</v>
+        <v>1526.525817874995</v>
       </c>
       <c r="Q15">
-        <v>1541.2608178749949</v>
+        <v>1522.5832732221379</v>
       </c>
       <c r="R15">
-        <v>1537.318273222138</v>
+        <v>1530.285602569978</v>
       </c>
       <c r="S15">
-        <v>1545.0206025699781</v>
+        <v>1538.937335064132</v>
       </c>
       <c r="T15">
-        <v>1545.1543350641321</v>
+        <v>1547.192951576636</v>
       </c>
       <c r="U15">
-        <v>1553.4099515766361</v>
+        <v>1555.9808389633261</v>
       </c>
       <c r="V15">
-        <v>1562.1978389633259</v>
+        <v>1592.1555871790999</v>
       </c>
       <c r="W15">
-        <v>1598.3725871791</v>
+        <v>1622.7235946783901</v>
       </c>
       <c r="X15">
-        <v>1627.3015946783901</v>
+        <v>1646.2517581859961</v>
       </c>
       <c r="Y15">
-        <v>1650.8297581859961</v>
+        <v>1663.4196210501891</v>
       </c>
       <c r="Z15">
-        <v>1667.9976210501891</v>
+        <v>1671.430699166094</v>
       </c>
       <c r="AA15">
-        <v>1676.0086991660939</v>
+        <v>1682.1431104472849</v>
       </c>
       <c r="AB15">
-        <v>1682.1431104472849</v>
+        <v>1694.6607802102719</v>
       </c>
       <c r="AC15">
-        <v>1694.6607802102719</v>
+        <v>1709.3896382183029</v>
       </c>
       <c r="AD15">
-        <v>1709.3896382183029</v>
+        <v>1722.372615576626</v>
       </c>
       <c r="AE15">
-        <v>1722.372615576626</v>
+        <v>1735.0429474429729</v>
       </c>
       <c r="AF15">
-        <v>1735.0429474429729</v>
+        <v>1746.4953393081139</v>
       </c>
       <c r="AG15">
-        <v>1746.4953393081139</v>
+        <v>1757.1882121565191</v>
       </c>
       <c r="AH15">
-        <v>1757.1882121565191</v>
+        <v>1788.9509959744839</v>
       </c>
       <c r="AI15">
-        <v>1788.9509959744839</v>
+        <v>1816.7189541257289</v>
       </c>
       <c r="AJ15">
-        <v>1816.7189541257289</v>
+        <v>1839.6922791598031</v>
       </c>
       <c r="AK15">
-        <v>1839.6922791598031</v>
+        <v>1858.259733230635</v>
       </c>
       <c r="AL15">
-        <v>1858.259733230635</v>
+        <v>1832.4294189532291</v>
       </c>
       <c r="AM15">
-        <v>1832.4294189532291</v>
+        <v>1818.576749321116</v>
       </c>
       <c r="AN15">
-        <v>1818.576749321116</v>
+        <v>1816.4404652627579</v>
       </c>
       <c r="AO15">
-        <v>1816.4404652627579</v>
+        <v>1826.107622074454</v>
       </c>
       <c r="AP15">
-        <v>1826.107622074454</v>
+        <v>1883.521840106393</v>
       </c>
       <c r="AQ15">
-        <v>1883.521840106393</v>
+        <v>1928.497184954686</v>
       </c>
       <c r="AR15">
-        <v>1928.497184954686</v>
+        <v>1962.138859372219</v>
       </c>
       <c r="AS15">
-        <v>1962.138859372219</v>
+        <v>1983.801049724259</v>
       </c>
       <c r="AT15">
-        <v>1983.801049724259</v>
+        <v>1944.7885028241169</v>
       </c>
       <c r="AU15">
-        <v>1944.7885028241169</v>
+        <v>1906.4485972733521</v>
       </c>
       <c r="AV15">
-        <v>1906.4485972733521</v>
+        <v>1870.239333659976</v>
       </c>
       <c r="AW15">
-        <v>1870.239333659976</v>
+        <v>1835.4218257479581</v>
       </c>
       <c r="AX15">
         <v>1835.4218257479581</v>
@@ -23153,140 +23171,143 @@
       <c r="B16" s="86" t="s">
         <v>169</v>
       </c>
+      <c r="D16">
+        <v>1085.9000000000001</v>
+      </c>
       <c r="E16">
-        <v>1085.9000000000001</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="F16">
-        <v>1212.9000000000001</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="G16">
-        <v>609.79999999999995</v>
+        <v>402.3</v>
       </c>
       <c r="H16">
-        <v>402.3</v>
+        <v>404.18538158623392</v>
       </c>
       <c r="I16">
-        <v>567.87138158623384</v>
+        <v>406.11408156777497</v>
       </c>
       <c r="J16">
-        <v>569.80008156777501</v>
+        <v>408.08197438316557</v>
       </c>
       <c r="K16">
-        <v>489.92497438316559</v>
+        <v>410.07255778657441</v>
       </c>
       <c r="L16">
-        <v>520.32055778657434</v>
+        <v>412.05076450560961</v>
       </c>
       <c r="M16">
-        <v>522.2987645056096</v>
+        <v>413.998029513711</v>
       </c>
       <c r="N16">
-        <v>524.24602951371094</v>
+        <v>415.93291783743882</v>
       </c>
       <c r="O16">
-        <v>526.18091783743887</v>
+        <v>417.86368059970891</v>
       </c>
       <c r="P16">
-        <v>430.58968059970891</v>
+        <v>419.80063170416571</v>
       </c>
       <c r="Q16">
-        <v>432.52663170416571</v>
+        <v>421.75614783518279</v>
       </c>
       <c r="R16">
-        <v>434.48214783518279</v>
+        <v>423.7302289927602</v>
       </c>
       <c r="S16">
-        <v>436.4562289927602</v>
+        <v>425.71668683471103</v>
       </c>
       <c r="T16">
-        <v>427.08168683471098</v>
+        <v>427.69901911520401</v>
       </c>
       <c r="U16">
-        <v>429.06401911520402</v>
+        <v>429.68753973788392</v>
       </c>
       <c r="V16">
-        <v>431.05253973788388</v>
+        <v>431.68018592202162</v>
       </c>
       <c r="W16">
-        <v>433.04518592202157</v>
+        <v>433.67076932543029</v>
       </c>
       <c r="X16">
-        <v>432.76976932543027</v>
+        <v>435.63659936009208</v>
       </c>
       <c r="Y16">
-        <v>434.73559936009212</v>
+        <v>437.58798992965131</v>
       </c>
       <c r="Z16">
-        <v>436.6869899296513</v>
+        <v>439.52494103410811</v>
       </c>
       <c r="AA16">
-        <v>438.6239410341081</v>
+        <v>441.44951545419133</v>
       </c>
       <c r="AB16">
-        <v>441.44951545419133</v>
+        <v>443.35552484771432</v>
       </c>
       <c r="AC16">
-        <v>443.35552484771432</v>
+        <v>445.25947146050851</v>
       </c>
       <c r="AD16">
-        <v>445.25947146050851</v>
+        <v>447.16548085403139</v>
       </c>
       <c r="AE16">
-        <v>447.16548085403139</v>
+        <v>449.0735530282833</v>
       </c>
       <c r="AF16">
-        <v>449.0735530282833</v>
+        <v>450.98368798326419</v>
       </c>
       <c r="AG16">
-        <v>450.98368798326419</v>
+        <v>452.90619962261849</v>
       </c>
       <c r="AH16">
-        <v>452.90619962261849</v>
+        <v>454.83283682343068</v>
       </c>
       <c r="AI16">
-        <v>454.83283682343068</v>
+        <v>456.76772514715861</v>
       </c>
       <c r="AJ16">
-        <v>456.76772514715861</v>
+        <v>458.72736683963342</v>
       </c>
       <c r="AK16">
-        <v>458.72736683963342</v>
+        <v>460.70763633939748</v>
       </c>
       <c r="AL16">
-        <v>460.70763633939748</v>
+        <v>462.71059642718001</v>
       </c>
       <c r="AM16">
-        <v>462.71059642718001</v>
+        <v>464.73212154152247</v>
       </c>
       <c r="AN16">
-        <v>464.73212154152247</v>
+        <v>466.76808612096738</v>
       </c>
       <c r="AO16">
-        <v>466.76808612096738</v>
+        <v>468.80198791968348</v>
       </c>
       <c r="AP16">
-        <v>468.80198791968348</v>
+        <v>470.83176415694169</v>
       </c>
       <c r="AQ16">
-        <v>470.83176415694169</v>
+        <v>472.86360317492881</v>
       </c>
       <c r="AR16">
-        <v>472.86360317492881</v>
+        <v>474.89544219291588</v>
       </c>
       <c r="AS16">
-        <v>474.89544219291588</v>
+        <v>476.92728121090312</v>
       </c>
       <c r="AT16">
-        <v>476.92728121090312</v>
+        <v>478.96530857107712</v>
       </c>
       <c r="AU16">
-        <v>478.96530857107712</v>
+        <v>481.00539871197992</v>
       </c>
       <c r="AV16">
-        <v>481.00539871197992</v>
+        <v>483.04961441434068</v>
       </c>
       <c r="AW16">
-        <v>483.04961441434068</v>
+        <v>485.09176733597252</v>
       </c>
       <c r="AX16">
         <v>485.09176733597252</v>
@@ -23296,140 +23317,143 @@
       <c r="B17" t="s">
         <v>195</v>
       </c>
+      <c r="D17">
+        <v>884.2600000000001</v>
+      </c>
       <c r="E17">
-        <v>321.35000000000002</v>
+        <v>242.12799999999999</v>
       </c>
       <c r="F17">
-        <v>291.39999999999998</v>
+        <v>225.90700000000001</v>
       </c>
       <c r="G17">
-        <v>284.15100000000001</v>
+        <v>260.73700000000002</v>
       </c>
       <c r="H17">
-        <v>357.63880399999999</v>
+        <v>232.07518871317359</v>
       </c>
       <c r="I17">
-        <v>232.07518871317359</v>
+        <v>215.720203842161</v>
       </c>
       <c r="J17">
-        <v>215.720203842161</v>
+        <v>220.89139620745101</v>
       </c>
       <c r="K17">
-        <v>220.89139620745101</v>
+        <v>226.76914626180869</v>
       </c>
       <c r="L17">
-        <v>226.76914626180869</v>
+        <v>232.32795235033251</v>
       </c>
       <c r="M17">
-        <v>232.32795235033251</v>
+        <v>237.9298898973548</v>
       </c>
       <c r="N17">
-        <v>237.9298898973548</v>
+        <v>251.6040694504666</v>
       </c>
       <c r="O17">
-        <v>251.6040694504666</v>
+        <v>265.27969850165113</v>
       </c>
       <c r="P17">
-        <v>265.27969850165113</v>
+        <v>279.09879389494898</v>
       </c>
       <c r="Q17">
-        <v>279.09879389494898</v>
+        <v>293.05961551598227</v>
       </c>
       <c r="R17">
-        <v>293.05961551598227</v>
+        <v>298.02592203707633</v>
       </c>
       <c r="S17">
-        <v>298.02592203707633</v>
+        <v>303.15281641427401</v>
       </c>
       <c r="T17">
-        <v>303.15281641427401</v>
+        <v>308.34003676535349</v>
       </c>
       <c r="U17">
-        <v>308.34003676535349</v>
+        <v>313.62925193845189</v>
       </c>
       <c r="V17">
-        <v>313.62925193845189</v>
+        <v>314.05502117082477</v>
       </c>
       <c r="W17">
-        <v>314.05502117082477</v>
+        <v>314.5186220365847</v>
       </c>
       <c r="X17">
-        <v>314.5186220365847</v>
+        <v>315.03063898617683</v>
       </c>
       <c r="Y17">
-        <v>315.03063898617683</v>
+        <v>315.58362470772079</v>
       </c>
       <c r="Z17">
-        <v>315.58362470772079</v>
+        <v>316.2395853229205</v>
       </c>
       <c r="AA17">
-        <v>316.2395853229205</v>
+        <v>316.95514017513671</v>
       </c>
       <c r="AB17">
-        <v>316.95514017513671</v>
+        <v>317.71048621778692</v>
       </c>
       <c r="AC17">
-        <v>317.71048621778692</v>
+        <v>318.55415230022101</v>
       </c>
       <c r="AD17">
-        <v>318.55415230022101</v>
+        <v>318.29850133827199</v>
       </c>
       <c r="AE17">
-        <v>318.29850133827199</v>
+        <v>318.13366691457782</v>
       </c>
       <c r="AF17">
-        <v>318.13366691457782</v>
+        <v>318.04565082439819</v>
       </c>
       <c r="AG17">
-        <v>318.04565082439819</v>
+        <v>318.06410134177349</v>
       </c>
       <c r="AH17">
-        <v>318.06410134177349</v>
+        <v>318.09729229239042</v>
       </c>
       <c r="AI17">
-        <v>318.09729229239042</v>
+        <v>318.17786928038868</v>
       </c>
       <c r="AJ17">
-        <v>318.17786928038868</v>
+        <v>318.36379279589238</v>
       </c>
       <c r="AK17">
-        <v>318.36379279589238</v>
+        <v>318.64707655433722</v>
       </c>
       <c r="AL17">
-        <v>318.64707655433722</v>
+        <v>318.72234084172197</v>
       </c>
       <c r="AM17">
-        <v>318.72234084172197</v>
+        <v>318.86952061123691</v>
       </c>
       <c r="AN17">
-        <v>318.86952061123691</v>
+        <v>319.10267892127462</v>
       </c>
       <c r="AO17">
-        <v>319.10267892127462</v>
+        <v>319.38590629755907</v>
       </c>
       <c r="AP17">
-        <v>319.38590629755907</v>
+        <v>319.19110945656053</v>
       </c>
       <c r="AQ17">
-        <v>319.19110945656053</v>
+        <v>319.05567634036208</v>
       </c>
       <c r="AR17">
-        <v>319.05567634036208</v>
+        <v>318.97514203538952</v>
       </c>
       <c r="AS17">
-        <v>318.97514203538952</v>
+        <v>318.9496051242694</v>
       </c>
       <c r="AT17">
-        <v>318.9496051242694</v>
+        <v>318.60334826748328</v>
       </c>
       <c r="AU17">
-        <v>318.60334826748328</v>
+        <v>318.31720335346819</v>
       </c>
       <c r="AV17">
-        <v>318.31720335346819</v>
+        <v>318.11173048290601</v>
       </c>
       <c r="AW17">
-        <v>318.11173048290601</v>
+        <v>317.95738112604761</v>
       </c>
       <c r="AX17">
         <v>317.95738112604761</v>
@@ -23519,59 +23543,59 @@
       </c>
       <c r="N21" s="104">
         <f>M21*(1+N23)</f>
-        <v>222.38398180893648</v>
+        <v>219.23868038063489</v>
       </c>
       <c r="O21" s="149">
         <f t="shared" ref="O21:AA21" si="0">N21*(1+O23)</f>
-        <v>219.97510963898978</v>
+        <v>216.83787259555652</v>
       </c>
       <c r="P21" s="104">
         <f t="shared" si="0"/>
-        <v>217.56623746904305</v>
+        <v>214.43706481047812</v>
       </c>
       <c r="Q21" s="104">
         <f t="shared" si="0"/>
-        <v>215.15736529909628</v>
+        <v>212.03625702539975</v>
       </c>
       <c r="R21" s="104">
         <f t="shared" si="0"/>
-        <v>212.74849312914955</v>
+        <v>213.29027683898224</v>
       </c>
       <c r="S21" s="149">
         <f t="shared" si="0"/>
-        <v>214.00672523264217</v>
+        <v>214.54429665256438</v>
       </c>
       <c r="T21" s="104">
         <f t="shared" si="0"/>
-        <v>215.26495733613447</v>
+        <v>215.79831646614656</v>
       </c>
       <c r="U21" s="104">
         <f t="shared" si="0"/>
-        <v>216.52318943962678</v>
+        <v>217.05233627972888</v>
       </c>
       <c r="V21" s="104">
         <f t="shared" si="0"/>
-        <v>217.78142154311922</v>
+        <v>220.27791319795816</v>
       </c>
       <c r="W21" s="149">
         <f t="shared" si="0"/>
-        <v>221.01783327030435</v>
+        <v>223.50349011618766</v>
       </c>
       <c r="X21" s="104">
         <f t="shared" si="0"/>
-        <v>224.25424499748971</v>
+        <v>226.72906703441683</v>
       </c>
       <c r="Y21" s="104">
         <f t="shared" si="0"/>
-        <v>227.49065672467472</v>
+        <v>229.95464395264619</v>
       </c>
       <c r="Z21" s="104">
         <f t="shared" si="0"/>
-        <v>230.72706845185994</v>
+        <v>233.16685730462561</v>
       </c>
       <c r="AA21" s="149">
         <f t="shared" si="0"/>
-        <v>233.95007172417809</v>
+        <v>236.37907065660497</v>
       </c>
       <c r="AB21" s="95"/>
     </row>
@@ -23581,99 +23605,99 @@
       </c>
       <c r="D22" s="102">
         <f t="shared" ref="D22:AA22" si="1">D10</f>
-        <v>0</v>
+        <v>156.16</v>
       </c>
       <c r="E22" s="104">
         <f t="shared" si="1"/>
-        <v>156.16</v>
+        <v>197.62799999999999</v>
       </c>
       <c r="F22" s="104">
         <f t="shared" si="1"/>
-        <v>197.62799999999999</v>
+        <v>170.20699999999999</v>
       </c>
       <c r="G22" s="149">
         <f t="shared" si="1"/>
-        <v>170.20699999999999</v>
+        <v>164.13699999999989</v>
       </c>
       <c r="H22" s="104">
         <f t="shared" si="1"/>
-        <v>164.13699999999989</v>
+        <v>168.2833827902208</v>
       </c>
       <c r="I22" s="104">
         <f t="shared" si="1"/>
-        <v>168.2833827902208</v>
+        <v>172.42976558044171</v>
       </c>
       <c r="J22" s="104">
         <f t="shared" si="1"/>
-        <v>172.42976558044171</v>
+        <v>173.0148583315212</v>
       </c>
       <c r="K22" s="149">
         <f t="shared" si="1"/>
-        <v>173.0148583315212</v>
+        <v>173.59995108260071</v>
       </c>
       <c r="L22" s="104">
         <f t="shared" si="1"/>
-        <v>173.59995108260071</v>
+        <v>174.1850438336802</v>
       </c>
       <c r="M22" s="223">
         <f t="shared" si="1"/>
-        <v>174.1850438336802</v>
+        <v>174.77013658475971</v>
       </c>
       <c r="N22" s="104">
         <f t="shared" si="1"/>
-        <v>174.77013658475971</v>
+        <v>172.87701948733081</v>
       </c>
       <c r="O22" s="149">
         <f t="shared" si="1"/>
-        <v>172.87701948733081</v>
+        <v>170.98390238990191</v>
       </c>
       <c r="P22" s="104">
         <f t="shared" si="1"/>
-        <v>170.98390238990191</v>
+        <v>169.09078529247299</v>
       </c>
       <c r="Q22" s="104">
         <f t="shared" si="1"/>
-        <v>169.09078529247299</v>
+        <v>167.19766819504409</v>
       </c>
       <c r="R22" s="104">
         <f t="shared" si="1"/>
-        <v>167.19766819504409</v>
+        <v>168.18650468764571</v>
       </c>
       <c r="S22" s="149">
         <f t="shared" si="1"/>
-        <v>168.18650468764571</v>
+        <v>169.1753411802471</v>
       </c>
       <c r="T22" s="104">
         <f t="shared" si="1"/>
-        <v>169.1753411802471</v>
+        <v>170.1641776728485</v>
       </c>
       <c r="U22" s="104">
         <f t="shared" si="1"/>
-        <v>170.1641776728485</v>
+        <v>171.15301416545</v>
       </c>
       <c r="V22" s="104">
         <f t="shared" si="1"/>
-        <v>171.15301416545</v>
+        <v>173.69648926200901</v>
       </c>
       <c r="W22" s="149">
         <f t="shared" si="1"/>
-        <v>173.69648926200901</v>
+        <v>176.23996435856819</v>
       </c>
       <c r="X22" s="104">
         <f t="shared" si="1"/>
-        <v>176.23996435856819</v>
+        <v>178.78343945512711</v>
       </c>
       <c r="Y22" s="104">
         <f t="shared" si="1"/>
-        <v>178.78343945512711</v>
+        <v>181.3269145516862</v>
       </c>
       <c r="Z22" s="104">
         <f t="shared" si="1"/>
-        <v>181.3269145516862</v>
+        <v>183.85985203007041</v>
       </c>
       <c r="AA22" s="149">
         <f t="shared" si="1"/>
-        <v>183.85985203007041</v>
+        <v>186.3927895084546</v>
       </c>
       <c r="AB22" s="95"/>
     </row>
@@ -23693,59 +23717,59 @@
       <c r="M23" s="230"/>
       <c r="N23" s="230">
         <f t="shared" ref="N23" si="2">(N22/M22)-1</f>
-        <v>3.359029789252066E-3</v>
+        <v>-1.0832039926402248E-2</v>
       </c>
       <c r="O23" s="246">
         <f t="shared" ref="O23" si="3">(O22/N22)-1</f>
-        <v>-1.0832039926402248E-2</v>
+        <v>-1.0950657889885917E-2</v>
       </c>
       <c r="P23" s="230">
         <f t="shared" ref="P23" si="4">(P22/O22)-1</f>
-        <v>-1.0950657889885917E-2</v>
+        <v>-1.1071902506424092E-2</v>
       </c>
       <c r="Q23" s="230">
         <f t="shared" ref="Q23" si="5">(Q22/P22)-1</f>
-        <v>-1.1071902506424092E-2</v>
+        <v>-1.1195861998951728E-2</v>
       </c>
       <c r="R23" s="230">
         <f t="shared" ref="R23" si="6">(R22/Q22)-1</f>
-        <v>-1.1195861998951728E-2</v>
+        <v>5.9141763355701205E-3</v>
       </c>
       <c r="S23" s="246">
         <f t="shared" ref="S23" si="7">(S22/R22)-1</f>
-        <v>5.9141763355701205E-3</v>
+        <v>5.8794045006038687E-3</v>
       </c>
       <c r="T23" s="230">
         <f t="shared" ref="T23" si="8">(T22/S22)-1</f>
-        <v>5.8794045006038687E-3</v>
+        <v>5.8450391511126742E-3</v>
       </c>
       <c r="U23" s="230">
         <f t="shared" ref="U23" si="9">(U22/T22)-1</f>
-        <v>5.8450391511126742E-3</v>
+        <v>5.8110732007450316E-3</v>
       </c>
       <c r="V23" s="230">
         <f t="shared" ref="V23" si="10">(V22/U22)-1</f>
-        <v>5.8110732007450316E-3</v>
+        <v>1.4860825612456274E-2</v>
       </c>
       <c r="W23" s="246">
         <f t="shared" ref="W23" si="11">(W22/V22)-1</f>
-        <v>1.4860825612456274E-2</v>
+        <v>1.4643215342841742E-2</v>
       </c>
       <c r="X23" s="230">
         <f t="shared" ref="X23" si="12">(X22/W22)-1</f>
-        <v>1.4643215342841742E-2</v>
+        <v>1.4431886126486715E-2</v>
       </c>
       <c r="Y23" s="230">
         <f t="shared" ref="Y23" si="13">(Y22/X22)-1</f>
-        <v>1.4431886126486715E-2</v>
+        <v>1.4226569889866481E-2</v>
       </c>
       <c r="Z23" s="230">
         <f t="shared" ref="Z23" si="14">(Z22/Y22)-1</f>
-        <v>1.4226569889866481E-2</v>
+        <v>1.3968899678498792E-2</v>
       </c>
       <c r="AA23" s="246">
         <f t="shared" ref="AA23" si="15">(AA22/Z22)-1</f>
-        <v>1.3968899678498792E-2</v>
+        <v>1.3776457722645796E-2</v>
       </c>
       <c r="AB23" s="243"/>
     </row>
@@ -23757,91 +23781,91 @@
       <c r="E24" s="217"/>
       <c r="F24" s="217">
         <f t="shared" ref="F24" si="16">F21-F22</f>
-        <v>-36.188999999999993</v>
+        <v>-8.7680000000000007</v>
       </c>
       <c r="G24" s="150">
         <f t="shared" ref="G24" si="17">G21-G22</f>
-        <v>8.0958169064125514</v>
+        <v>14.165816906412658</v>
       </c>
       <c r="H24" s="217">
         <f t="shared" ref="H24" si="18">H21-H22</f>
-        <v>15.945084134642201</v>
+        <v>11.798701344421289</v>
       </c>
       <c r="I24" s="217">
         <f t="shared" ref="I24" si="19">I21-I22</f>
-        <v>11.798701344421289</v>
+        <v>7.6523185542003773</v>
       </c>
       <c r="J24" s="217">
         <f t="shared" ref="J24" si="20">J21-J22</f>
-        <v>7.6523185542003773</v>
+        <v>7.0672258031208912</v>
       </c>
       <c r="K24" s="150">
         <f t="shared" ref="K24:AA24" si="21">K21-K22</f>
-        <v>7.0672258031208912</v>
+        <v>6.4821330520413767</v>
       </c>
       <c r="L24" s="217">
         <f t="shared" si="21"/>
-        <v>48.039537083112549</v>
+        <v>47.454444332033063</v>
       </c>
       <c r="M24" s="239">
         <f t="shared" si="21"/>
-        <v>47.454444332033063</v>
+        <v>46.869351580953548</v>
       </c>
       <c r="N24" s="217">
         <f t="shared" si="21"/>
-        <v>47.613845224176771</v>
+        <v>46.361660893304077</v>
       </c>
       <c r="O24" s="150">
         <f t="shared" si="21"/>
-        <v>47.098090151658965</v>
+        <v>45.853970205654605</v>
       </c>
       <c r="P24" s="217">
         <f t="shared" si="21"/>
-        <v>46.582335079141131</v>
+        <v>45.346279518005133</v>
       </c>
       <c r="Q24" s="217">
         <f t="shared" si="21"/>
-        <v>46.066580006623298</v>
+        <v>44.838588830355661</v>
       </c>
       <c r="R24" s="217">
         <f t="shared" si="21"/>
-        <v>45.550824934105464</v>
+        <v>45.103772151336528</v>
       </c>
       <c r="S24" s="150">
         <f t="shared" si="21"/>
-        <v>45.820220544996459</v>
+        <v>45.368955472317282</v>
       </c>
       <c r="T24" s="217">
         <f t="shared" si="21"/>
-        <v>46.08961615588737</v>
+        <v>45.634138793298064</v>
       </c>
       <c r="U24" s="217">
         <f t="shared" si="21"/>
-        <v>46.359011766778281</v>
+        <v>45.899322114278874</v>
       </c>
       <c r="V24" s="217">
         <f t="shared" si="21"/>
-        <v>46.62840737766922</v>
+        <v>46.581423935949147</v>
       </c>
       <c r="W24" s="150">
         <f t="shared" si="21"/>
-        <v>47.321344008295341</v>
+        <v>47.263525757619476</v>
       </c>
       <c r="X24" s="217">
         <f t="shared" si="21"/>
-        <v>48.01428063892152</v>
+        <v>47.94562757928972</v>
       </c>
       <c r="Y24" s="217">
         <f t="shared" si="21"/>
-        <v>48.707217269547613</v>
+        <v>48.627729400959993</v>
       </c>
       <c r="Z24" s="217">
         <f t="shared" si="21"/>
-        <v>49.400153900173734</v>
+        <v>49.307005274555195</v>
       </c>
       <c r="AA24" s="150">
         <f t="shared" si="21"/>
-        <v>50.090219694107674</v>
+        <v>49.986281148150368</v>
       </c>
       <c r="AB24" s="244"/>
     </row>
@@ -23957,63 +23981,63 @@
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>195.77916716071002</v>
+        <v>199.18701974948621</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>196.60801221892581</v>
+        <v>215.32898912898497</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>204.69986935138584</v>
+        <v>232.40626991655981</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>178.13015981033357</v>
+        <v>250.52678265929654</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>186.23126001912973</v>
+        <v>269.04300407468099</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>201.48952512672736</v>
+        <v>276.63429373419979</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>207.56186987073423</v>
+        <v>284.62129206636587</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>213.95609730610133</v>
+        <v>292.96802555548481</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>220.64294536997801</v>
+        <v>300.81112982487019</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>226.92012455394155</v>
+        <v>302.00783467321349</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>227.62949156707876</v>
+        <v>303.1685660058609</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>228.30959651736487</v>
+        <v>304.29332382281382</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>228.96043940480044</v>
+        <v>305.41808163976634</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>229.61128229223573</v>
+        <v>306.58423241555909</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>230.29688965284717</v>
+        <v>307.7503831913516</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
@@ -24023,99 +24047,99 @@
       </c>
       <c r="D29" s="102">
         <f t="shared" ref="D29:AA29" si="23">D11</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="E29" s="104">
         <f t="shared" si="23"/>
-        <v>736.59999999999991</v>
+        <v>363.8</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" si="23"/>
-        <v>582.79999999999995</v>
+        <v>243.1</v>
       </c>
       <c r="G29" s="149">
         <f t="shared" si="23"/>
-        <v>341</v>
+        <v>216.8</v>
       </c>
       <c r="H29" s="104">
         <f t="shared" si="23"/>
-        <v>287.69999999999987</v>
+        <v>201.69787045292151</v>
       </c>
       <c r="I29" s="104">
         <f t="shared" si="23"/>
-        <v>249.4722454529217</v>
+        <v>188.86729215584299</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" si="23"/>
-        <v>238.93299559334321</v>
+        <v>193.24899108297839</v>
       </c>
       <c r="K29" s="149">
         <f t="shared" si="23"/>
-        <v>241.82759010290039</v>
+        <v>199.97623704208269</v>
       </c>
       <c r="L29" s="223">
         <f t="shared" si="23"/>
-        <v>245.1419882747505</v>
+        <v>205.88603266163159</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" si="23"/>
-        <v>248.49241388178211</v>
+        <v>212.3326953411578</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" si="23"/>
-        <v>249.5444242270961</v>
+        <v>229.53998058883141</v>
       </c>
       <c r="O29" s="149">
         <f t="shared" si="23"/>
-        <v>259.81500173946711</v>
+        <v>247.744304662177</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" si="23"/>
-        <v>226.09143780901999</v>
+        <v>267.06071050261841</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="23"/>
-        <v>236.37374708214861</v>
+        <v>286.79894046161343</v>
       </c>
       <c r="R29" s="104">
         <f t="shared" si="23"/>
-        <v>255.74027715387331</v>
+        <v>294.89122979125102</v>
       </c>
       <c r="S29" s="149">
         <f t="shared" si="23"/>
-        <v>263.44759160026678</v>
+        <v>303.40534323944189</v>
       </c>
       <c r="T29" s="104">
         <f t="shared" si="23"/>
-        <v>271.56345516923977</v>
+        <v>312.30293315904561</v>
       </c>
       <c r="U29" s="104">
         <f t="shared" si="23"/>
-        <v>280.05072703146732</v>
+        <v>320.66365601867182</v>
       </c>
       <c r="V29" s="104">
         <f t="shared" si="23"/>
-        <v>288.01802728313891</v>
+        <v>321.93933937542943</v>
       </c>
       <c r="W29" s="149">
         <f t="shared" si="23"/>
-        <v>288.91839029917872</v>
+        <v>323.17667508504508</v>
       </c>
       <c r="X29" s="104">
         <f t="shared" si="23"/>
-        <v>289.78161248589288</v>
+        <v>324.3756631475203</v>
       </c>
       <c r="Y29" s="104">
         <f t="shared" si="23"/>
-        <v>290.60769384328211</v>
+        <v>325.57465120999512</v>
       </c>
       <c r="Z29" s="104">
         <f t="shared" si="23"/>
-        <v>291.43377520067099</v>
+        <v>326.81776402783669</v>
       </c>
       <c r="AA29" s="149">
         <f t="shared" si="23"/>
-        <v>292.30398131342662</v>
+        <v>328.06087684567802</v>
       </c>
       <c r="AB29" s="95"/>
     </row>
@@ -24134,63 +24158,63 @@
       <c r="L30" s="230"/>
       <c r="M30" s="230">
         <f t="shared" ref="M30" si="24">(M29/L29)-1</f>
-        <v>1.3667285766143511E-2</v>
+        <v>3.1311801952690788E-2</v>
       </c>
       <c r="N30" s="230">
         <f t="shared" ref="N30" si="25">(N29/M29)-1</f>
-        <v>4.233571274391057E-3</v>
+        <v>8.1039263501207159E-2</v>
       </c>
       <c r="O30" s="246">
         <f t="shared" ref="O30" si="26">(O29/N29)-1</f>
-        <v>4.1157311144825792E-2</v>
+        <v>7.9307857509818724E-2</v>
       </c>
       <c r="P30" s="230">
         <f t="shared" ref="P30" si="27">(P29/O29)-1</f>
-        <v>-0.12979837078177592</v>
+        <v>7.7969121699007937E-2</v>
       </c>
       <c r="Q30" s="230">
         <f t="shared" ref="Q30" si="28">(Q29/P29)-1</f>
-        <v>4.5478543428142171E-2</v>
+        <v>7.390914942840876E-2</v>
       </c>
       <c r="R30" s="230">
         <f t="shared" ref="R30" si="29">(R29/Q29)-1</f>
-        <v>8.1931814809341308E-2</v>
+        <v>2.8215896880974478E-2</v>
       </c>
       <c r="S30" s="246">
         <f t="shared" ref="S30" si="30">(S29/R29)-1</f>
-        <v>3.0137272596119535E-2</v>
+        <v>2.8872047006002433E-2</v>
       </c>
       <c r="T30" s="230">
         <f t="shared" ref="T30" si="31">(T29/S29)-1</f>
-        <v>3.0806368430527753E-2</v>
+        <v>2.9325752225074941E-2</v>
       </c>
       <c r="U30" s="230">
         <f t="shared" ref="U30" si="32">(U29/T29)-1</f>
-        <v>3.1253365284140466E-2</v>
+        <v>2.6771195438527462E-2</v>
       </c>
       <c r="V30" s="230">
         <f t="shared" ref="V30" si="33">(V29/U29)-1</f>
-        <v>2.8449489619701396E-2</v>
+        <v>3.9782598770199407E-3</v>
       </c>
       <c r="W30" s="246">
         <f t="shared" ref="W30" si="34">(W29/V29)-1</f>
-        <v>3.1260647971687039E-3</v>
+        <v>3.8433815265201954E-3</v>
       </c>
       <c r="X30" s="230">
         <f t="shared" ref="X30" si="35">(X29/W29)-1</f>
-        <v>2.9877716881236971E-3</v>
+        <v>3.7100080386671674E-3</v>
       </c>
       <c r="Y30" s="230">
         <f t="shared" ref="Y30" si="36">(Y29/X29)-1</f>
-        <v>2.8507031564311003E-3</v>
+        <v>3.6962947554100012E-3</v>
       </c>
       <c r="Z30" s="230">
         <f t="shared" ref="Z30" si="37">(Z29/Y29)-1</f>
-        <v>2.8425997483547683E-3</v>
+        <v>3.8182113171942866E-3</v>
       </c>
       <c r="AA30" s="246">
         <f t="shared" ref="AA30" si="38">(AA29/Z29)-1</f>
-        <v>2.9859480499692115E-3</v>
+        <v>3.8036880325007516E-3</v>
       </c>
       <c r="AB30" s="243"/>
     </row>
@@ -24202,91 +24226,91 @@
       <c r="E31" s="217"/>
       <c r="F31" s="217">
         <f t="shared" ref="F31" si="39">F28-F29</f>
-        <v>-252.02299999999997</v>
+        <v>87.676999999999992</v>
       </c>
       <c r="G31" s="150">
         <f t="shared" ref="G31" si="40">G28-G29</f>
-        <v>-159.19200000000001</v>
+        <v>-34.992000000000019</v>
       </c>
       <c r="H31" s="217">
         <f t="shared" ref="H31" si="41">H28-H29</f>
-        <v>-82.229229999999859</v>
+        <v>3.7728995470785094</v>
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="42">I28-I29</f>
-        <v>-59.637798527921746</v>
+        <v>0.96715476915696286</v>
       </c>
       <c r="J31" s="217">
         <f t="shared" ref="J31" si="43">J28-J29</f>
-        <v>-48.369376433718287</v>
+        <v>-2.6853719233534719</v>
       </c>
       <c r="K31" s="150">
         <f t="shared" ref="K31:N31" si="44">K28-K29</f>
-        <v>-50.164743799578275</v>
+        <v>-8.3133907387605745</v>
       </c>
       <c r="L31" s="239">
         <f t="shared" si="44"/>
-        <v>-52.00251350839514</v>
+        <v>-12.746557895276226</v>
       </c>
       <c r="M31" s="217">
         <f t="shared" si="44"/>
-        <v>-52.713246721072096</v>
+        <v>-13.145675591671591</v>
       </c>
       <c r="N31" s="217">
         <f t="shared" si="44"/>
-        <v>-52.936412008170294</v>
+        <v>-14.21099145984644</v>
       </c>
       <c r="O31" s="150">
         <f t="shared" ref="O31:AA31" si="45">O28-O29</f>
-        <v>-55.115132388081264</v>
+        <v>-15.338034745617193</v>
       </c>
       <c r="P31" s="150">
         <f t="shared" si="45"/>
-        <v>-47.961277998686427</v>
+        <v>-16.533927843321862</v>
       </c>
       <c r="Q31" s="150">
         <f t="shared" si="45"/>
-        <v>-50.142487063018876</v>
+        <v>-17.755936386932433</v>
       </c>
       <c r="R31" s="150">
         <f t="shared" si="45"/>
-        <v>-54.25075202714595</v>
+        <v>-18.256936057051234</v>
       </c>
       <c r="S31" s="150">
         <f t="shared" si="45"/>
-        <v>-55.885721729532548</v>
+        <v>-18.784051173076023</v>
       </c>
       <c r="T31" s="150">
         <f t="shared" si="45"/>
-        <v>-57.607357863138446</v>
+        <v>-19.334907603560794</v>
       </c>
       <c r="U31" s="150">
         <f t="shared" si="45"/>
-        <v>-59.407781661489309</v>
+        <v>-19.852526193801623</v>
       </c>
       <c r="V31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.097902729197358</v>
+        <v>-19.931504702215932</v>
       </c>
       <c r="W31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.288898732099966</v>
+        <v>-20.00810907918418</v>
       </c>
       <c r="X31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.472015968528012</v>
+        <v>-20.082339324706481</v>
       </c>
       <c r="Y31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.647254438481667</v>
+        <v>-20.156569570228783</v>
       </c>
       <c r="Z31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.822492908435265</v>
+        <v>-20.233531612277602</v>
       </c>
       <c r="AA31" s="150">
         <f t="shared" si="45"/>
-        <v>-62.007091660579448</v>
+        <v>-20.310493654326422</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
@@ -24426,35 +24450,35 @@
       </c>
       <c r="D36" s="102">
         <f t="shared" ref="D36:K36" si="46">D12</f>
-        <v>0</v>
+        <v>1779.8</v>
       </c>
       <c r="E36" s="104">
         <f t="shared" si="46"/>
-        <v>1779.8</v>
+        <v>1871.3</v>
       </c>
       <c r="F36" s="104">
         <f t="shared" si="46"/>
-        <v>1871.3</v>
+        <v>1907.1</v>
       </c>
       <c r="G36" s="149">
         <f t="shared" si="46"/>
-        <v>1907.1</v>
+        <v>1958.3</v>
       </c>
       <c r="H36" s="104">
         <f t="shared" si="46"/>
-        <v>1958.3</v>
+        <v>1978.3751090344099</v>
       </c>
       <c r="I36" s="104">
         <f t="shared" si="46"/>
-        <v>1978.3751090344099</v>
+        <v>2007.0179878174349</v>
       </c>
       <c r="J36" s="104">
         <f t="shared" si="46"/>
-        <v>2007.0179878174349</v>
+        <v>2033.6981662082569</v>
       </c>
       <c r="K36" s="149">
         <f t="shared" si="46"/>
-        <v>2033.6981662082569</v>
+        <v>2058.944408239478</v>
       </c>
       <c r="L36" s="104"/>
       <c r="M36" s="104"/>
@@ -24478,27 +24502,27 @@
       <c r="E37" s="217"/>
       <c r="F37" s="217">
         <f>F35-F36</f>
-        <v>4.8999999999978172E-2</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="G37" s="150">
         <f t="shared" ref="G37:K37" si="47">G35-G36</f>
-        <v>-35.750999999999976</v>
+        <v>-86.951000000000022</v>
       </c>
       <c r="H37" s="217">
         <f t="shared" si="47"/>
-        <v>-54.593681691845177</v>
+        <v>-74.668790726255111</v>
       </c>
       <c r="I37" s="217">
         <f t="shared" si="47"/>
-        <v>-55.153337573248791</v>
+        <v>-83.796216356273817</v>
       </c>
       <c r="J37" s="217">
         <f t="shared" si="47"/>
-        <v>-55.951846589752222</v>
+        <v>-82.632024980574215</v>
       </c>
       <c r="K37" s="150">
         <f t="shared" si="47"/>
-        <v>-56.695639249994201</v>
+        <v>-81.941881281215274</v>
       </c>
       <c r="L37" s="217">
         <v>0</v>
@@ -24676,15 +24700,15 @@
       </c>
       <c r="D42" s="102">
         <f t="shared" ref="D42:K42" si="48">D13</f>
-        <v>0</v>
+        <v>54.2</v>
       </c>
       <c r="E42" s="104">
         <f t="shared" si="48"/>
-        <v>54.2</v>
+        <v>90.2</v>
       </c>
       <c r="F42" s="104">
         <f t="shared" si="48"/>
-        <v>90.2</v>
+        <v>95.9</v>
       </c>
       <c r="G42" s="149">
         <f t="shared" si="48"/>
@@ -24692,19 +24716,19 @@
       </c>
       <c r="H42" s="104">
         <f t="shared" si="48"/>
-        <v>95.9</v>
+        <v>96.883099094316492</v>
       </c>
       <c r="I42" s="104">
         <f t="shared" si="48"/>
-        <v>96.883099094316492</v>
+        <v>98.285770837814454</v>
       </c>
       <c r="J42" s="104">
         <f t="shared" si="48"/>
-        <v>98.285770837814454</v>
+        <v>99.592327089502035</v>
       </c>
       <c r="K42" s="149">
         <f t="shared" si="48"/>
-        <v>99.592327089502035</v>
+        <v>100.82866197730991</v>
       </c>
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
@@ -24730,7 +24754,7 @@
       <c r="E43" s="217"/>
       <c r="F43" s="217">
         <f>F41-F42</f>
-        <v>0</v>
+        <v>-5.7000000000000028</v>
       </c>
       <c r="G43" s="150">
         <f t="shared" ref="G43:K43" si="49">G41-G42</f>
@@ -24738,19 +24762,19 @@
       </c>
       <c r="H43" s="217">
         <f t="shared" si="49"/>
-        <v>-2.8001771349484841</v>
+        <v>-3.7832762292649704</v>
       </c>
       <c r="I43" s="217">
         <f t="shared" si="49"/>
-        <v>-2.8288825740026482</v>
+        <v>-4.2315543175006098</v>
       </c>
       <c r="J43" s="217">
         <f t="shared" si="49"/>
-        <v>-2.8698390843673991</v>
+        <v>-4.1763953360549806</v>
       </c>
       <c r="K43" s="150">
         <f t="shared" si="49"/>
-        <v>-2.907989125467509</v>
+        <v>-4.14432401327538</v>
       </c>
       <c r="L43" s="217">
         <v>0</v>
@@ -24906,71 +24930,71 @@
       </c>
       <c r="K47" s="149">
         <f>J47*(1+K49)</f>
-        <v>1392.3791730252894</v>
+        <v>1472.355682642366</v>
       </c>
       <c r="L47" s="104">
         <f t="shared" ref="L47:AA47" si="50">K47*(1+L49)</f>
-        <v>1399.249174957793</v>
+        <v>1503.1278844425292</v>
       </c>
       <c r="M47" s="104">
         <f t="shared" si="50"/>
-        <v>1427.321500478296</v>
+        <v>1533.9000862426915</v>
       </c>
       <c r="N47" s="104">
         <f t="shared" si="50"/>
-        <v>1455.3938259987985</v>
+        <v>1546.9480044194563</v>
       </c>
       <c r="O47" s="149">
         <f t="shared" si="50"/>
-        <v>1467.2969523594572</v>
+        <v>1559.9959225962232</v>
       </c>
       <c r="P47" s="104">
         <f t="shared" si="50"/>
-        <v>1426.660882442407</v>
+        <v>1573.043840772988</v>
       </c>
       <c r="Q47" s="104">
         <f t="shared" si="50"/>
-        <v>1438.5640088030657</v>
+        <v>1586.0917589497537</v>
       </c>
       <c r="R47" s="104">
         <f t="shared" si="50"/>
-        <v>1450.4671351637251</v>
+        <v>1596.847385674771</v>
       </c>
       <c r="S47" s="149">
         <f t="shared" si="50"/>
-        <v>1460.2790900105863</v>
+        <v>1607.6030123997884</v>
       </c>
       <c r="T47" s="104">
         <f t="shared" si="50"/>
-        <v>1467.2932258686751</v>
+        <v>1618.3586391248059</v>
       </c>
       <c r="U47" s="104">
         <f t="shared" si="50"/>
-        <v>1477.1051807155366</v>
+        <v>1629.1142658498229</v>
       </c>
       <c r="V47" s="104">
         <f t="shared" si="50"/>
-        <v>1486.917135562398</v>
+        <v>1669.2561077970809</v>
       </c>
       <c r="W47" s="149">
         <f t="shared" si="50"/>
-        <v>1523.5370323593195</v>
+        <v>1709.397949744339</v>
       </c>
       <c r="X47" s="104">
         <f t="shared" si="50"/>
-        <v>1556.9496052972233</v>
+        <v>1749.5397916915961</v>
       </c>
       <c r="Y47" s="104">
         <f t="shared" si="50"/>
-        <v>1593.5695020941439</v>
+        <v>1789.681633638854</v>
       </c>
       <c r="Z47" s="104">
         <f t="shared" si="50"/>
-        <v>1630.1893988910651</v>
+        <v>1819.5994349998603</v>
       </c>
       <c r="AA47" s="149">
         <f t="shared" si="50"/>
-        <v>1657.4822869371674</v>
+        <v>1849.5172363608665</v>
       </c>
       <c r="AB47" s="95"/>
     </row>
@@ -24980,99 +25004,99 @@
       </c>
       <c r="D48" s="102">
         <f t="shared" ref="D48:AA48" si="51">D14</f>
-        <v>0</v>
+        <v>1336.74</v>
       </c>
       <c r="E48" s="104">
         <f t="shared" si="51"/>
-        <v>1336.74</v>
+        <v>1328.7719999999999</v>
       </c>
       <c r="F48" s="104">
         <f t="shared" si="51"/>
-        <v>1328.7719999999999</v>
+        <v>1372.7929999999999</v>
       </c>
       <c r="G48" s="149">
         <f t="shared" si="51"/>
-        <v>1372.7929999999999</v>
+        <v>1403.2629999999999</v>
       </c>
       <c r="H48" s="104">
         <f t="shared" si="51"/>
-        <v>1403.2629999999999</v>
+        <v>1394.63952711825</v>
       </c>
       <c r="I48" s="104">
         <f t="shared" si="51"/>
-        <v>1561.0795271182501</v>
+        <v>1386.0160542364999</v>
       </c>
       <c r="J48" s="223">
         <f t="shared" si="51"/>
-        <v>1552.4560542365</v>
+        <v>1416.247429866125</v>
       </c>
       <c r="K48" s="149">
         <f t="shared" si="51"/>
-        <v>1499.467429866125</v>
+        <v>1446.4788054957489</v>
       </c>
       <c r="L48" s="104">
         <f t="shared" si="51"/>
-        <v>1506.8658054957491</v>
+        <v>1476.710181125374</v>
       </c>
       <c r="M48" s="104">
         <f t="shared" si="51"/>
-        <v>1537.0971811253739</v>
+        <v>1506.9415567549979</v>
       </c>
       <c r="N48" s="104">
         <f t="shared" si="51"/>
-        <v>1567.3285567549981</v>
+        <v>1519.7601557667949</v>
       </c>
       <c r="O48" s="149">
         <f t="shared" si="51"/>
-        <v>1580.1471557667951</v>
+        <v>1532.578754778594</v>
       </c>
       <c r="P48" s="104">
         <f t="shared" si="51"/>
-        <v>1536.385754778594</v>
+        <v>1545.397353790391</v>
       </c>
       <c r="Q48" s="104">
         <f t="shared" si="51"/>
-        <v>1549.204353790391</v>
+        <v>1558.2159528021889</v>
       </c>
       <c r="R48" s="104">
         <f t="shared" si="51"/>
-        <v>1562.0229528021889</v>
+        <v>1568.782547736397</v>
       </c>
       <c r="S48" s="149">
         <f t="shared" si="51"/>
-        <v>1572.589547736397</v>
+        <v>1579.349142670605</v>
       </c>
       <c r="T48" s="104">
         <f t="shared" si="51"/>
-        <v>1580.1431426706049</v>
+        <v>1589.9157376048131</v>
       </c>
       <c r="U48" s="104">
         <f t="shared" si="51"/>
-        <v>1590.709737604813</v>
+        <v>1600.4823325390209</v>
       </c>
       <c r="V48" s="104">
         <f t="shared" si="51"/>
-        <v>1601.276332539021</v>
+        <v>1639.9186754518039</v>
       </c>
       <c r="W48" s="149">
         <f t="shared" si="51"/>
-        <v>1640.712675451804</v>
+        <v>1679.3550183645871</v>
       </c>
       <c r="X48" s="104">
         <f t="shared" si="51"/>
-        <v>1676.695018364587</v>
+        <v>1718.7913612773691</v>
       </c>
       <c r="Y48" s="104">
         <f t="shared" si="51"/>
-        <v>1716.131361277369</v>
+        <v>1758.2277041901521</v>
       </c>
       <c r="Z48" s="104">
         <f t="shared" si="51"/>
-        <v>1755.567704190152</v>
+        <v>1787.619695599499</v>
       </c>
       <c r="AA48" s="149">
         <f t="shared" si="51"/>
-        <v>1784.9596955994989</v>
+        <v>1817.0116870088459</v>
       </c>
       <c r="AB48" s="95"/>
     </row>
@@ -25089,71 +25113,71 @@
       <c r="J49" s="242"/>
       <c r="K49" s="246">
         <f t="shared" ref="K49" si="52">(K48/J48)-1</f>
-        <v>-3.4132125174026196E-2</v>
+        <v>2.1346111556567182E-2</v>
       </c>
       <c r="L49" s="230">
         <f t="shared" ref="L49" si="53">(L48/K48)-1</f>
-        <v>4.934002221231637E-3</v>
+        <v>2.0899978288491994E-2</v>
       </c>
       <c r="M49" s="230">
         <f t="shared" ref="M49" si="54">(M48/L48)-1</f>
-        <v>2.0062420634516132E-2</v>
+        <v>2.047211160052087E-2</v>
       </c>
       <c r="N49" s="230">
         <f t="shared" ref="N49" si="55">(N48/M48)-1</f>
-        <v>1.9667836231077152E-2</v>
+        <v>8.5063677183341291E-3</v>
       </c>
       <c r="O49" s="246">
         <f t="shared" ref="O49" si="56">(O48/N48)-1</f>
-        <v>8.1786291435514968E-3</v>
+        <v>8.4346197412521473E-3</v>
       </c>
       <c r="P49" s="230">
         <f t="shared" ref="P49" si="57">(P48/O48)-1</f>
-        <v>-2.769450986162425E-2</v>
+        <v>8.364071974656051E-3</v>
       </c>
       <c r="Q49" s="230">
         <f t="shared" ref="Q49" si="58">(Q48/P48)-1</f>
-        <v>8.3433466965749936E-3</v>
+        <v>8.294694552412496E-3</v>
       </c>
       <c r="R49" s="230">
         <f t="shared" ref="R49" si="59">(R48/Q48)-1</f>
-        <v>8.2743112491485693E-3</v>
+        <v>6.7812134224436438E-3</v>
       </c>
       <c r="S49" s="246">
         <f t="shared" ref="S49" si="60">(S48/R48)-1</f>
-        <v>6.7646860855994362E-3</v>
+        <v>6.7355382997182911E-3</v>
       </c>
       <c r="T49" s="230">
         <f t="shared" ref="T49" si="61">(T48/S48)-1</f>
-        <v>4.8032844584784407E-3</v>
+        <v>6.6904743534672573E-3</v>
       </c>
       <c r="U49" s="230">
         <f t="shared" ref="U49" si="62">(U48/T48)-1</f>
-        <v>6.6871124829548378E-3</v>
+        <v>6.6460093980365009E-3</v>
       </c>
       <c r="V49" s="230">
         <f t="shared" ref="V49" si="63">(V48/U48)-1</f>
-        <v>6.6426920540001433E-3</v>
+        <v>2.464028631307702E-2</v>
       </c>
       <c r="W49" s="246">
         <f t="shared" ref="W49" si="64">(W48/V48)-1</f>
-        <v>2.4628068317385177E-2</v>
+        <v>2.4047743039403047E-2</v>
       </c>
       <c r="X49" s="230">
         <f t="shared" ref="X49" si="65">(X48/W48)-1</f>
-        <v>2.1930922733241154E-2</v>
+        <v>2.3483029187709503E-2</v>
       </c>
       <c r="Y49" s="230">
         <f t="shared" ref="Y49" si="66">(Y48/X48)-1</f>
-        <v>2.3520283940037912E-2</v>
+        <v>2.2944229184090448E-2</v>
       </c>
       <c r="Z49" s="230">
         <f t="shared" ref="Z49" si="67">(Z48/Y48)-1</f>
-        <v>2.2979792691061318E-2</v>
+        <v>1.6716828735721112E-2</v>
       </c>
       <c r="AA49" s="246">
         <f t="shared" ref="AA49" si="68">(AA48/Z48)-1</f>
-        <v>1.6742157730057716E-2</v>
+        <v>1.6441971120423338E-2</v>
       </c>
       <c r="AB49" s="243"/>
     </row>
@@ -25165,91 +25189,91 @@
       <c r="E50" s="217"/>
       <c r="F50" s="217">
         <f t="shared" ref="F50" si="69">F47-F48</f>
-        <v>3.3000000000129148E-2</v>
+        <v>-43.987999999999829</v>
       </c>
       <c r="G50" s="150">
         <f t="shared" ref="G50" si="70">G47-G48</f>
-        <v>-5.9999999998581188E-3</v>
+        <v>-30.475999999999885</v>
       </c>
       <c r="H50" s="217">
         <f t="shared" ref="H50" si="71">H47-H48</f>
-        <v>-12.65283740934774</v>
+        <v>-4.0293645275978633</v>
       </c>
       <c r="I50" s="217">
         <f t="shared" ref="I50" si="72">I47-I48</f>
-        <v>-142.59036813928606</v>
+        <v>32.473104742464102</v>
       </c>
       <c r="J50" s="239">
         <f t="shared" ref="J50" si="73">J47-J48</f>
-        <v>-110.87257339429607</v>
+        <v>25.336050976078923</v>
       </c>
       <c r="K50" s="150">
         <f t="shared" ref="K50:AA50" si="74">K47-K48</f>
-        <v>-107.08825684083558</v>
+        <v>25.876877146617062</v>
       </c>
       <c r="L50" s="217">
         <f t="shared" si="74"/>
-        <v>-107.6166305379561</v>
+        <v>26.417703317155201</v>
       </c>
       <c r="M50" s="217">
         <f t="shared" si="74"/>
-        <v>-109.77568064707793</v>
+        <v>26.958529487693568</v>
       </c>
       <c r="N50" s="217">
         <f t="shared" si="74"/>
-        <v>-111.93473075619954</v>
+        <v>27.187848652661387</v>
       </c>
       <c r="O50" s="150">
         <f t="shared" si="74"/>
-        <v>-112.85020340733786</v>
+        <v>27.417167817629206</v>
       </c>
       <c r="P50" s="217">
         <f t="shared" si="74"/>
-        <v>-109.72487233618699</v>
+        <v>27.646486982597025</v>
       </c>
       <c r="Q50" s="217">
         <f t="shared" si="74"/>
-        <v>-110.64034498732531</v>
+        <v>27.875806147564845</v>
       </c>
       <c r="R50" s="217">
         <f t="shared" si="74"/>
-        <v>-111.55581763846385</v>
+        <v>28.064837938374012</v>
       </c>
       <c r="S50" s="150">
         <f t="shared" si="74"/>
-        <v>-112.31045772581069</v>
+        <v>28.253869729183407</v>
       </c>
       <c r="T50" s="217">
         <f t="shared" si="74"/>
-        <v>-112.84991680192979</v>
+        <v>28.442901519992802</v>
       </c>
       <c r="U50" s="217">
         <f t="shared" si="74"/>
-        <v>-113.60455688927641</v>
+        <v>28.631933310801969</v>
       </c>
       <c r="V50" s="217">
         <f t="shared" si="74"/>
-        <v>-114.35919697662302</v>
+        <v>29.337432345276966</v>
       </c>
       <c r="W50" s="150">
         <f t="shared" si="74"/>
-        <v>-117.17564309248451</v>
+        <v>30.042931379751963</v>
       </c>
       <c r="X50" s="217">
         <f t="shared" si="74"/>
-        <v>-119.74541306736364</v>
+        <v>30.748430414226959</v>
       </c>
       <c r="Y50" s="217">
         <f t="shared" si="74"/>
-        <v>-122.56185918322512</v>
+        <v>31.453929448701956</v>
       </c>
       <c r="Z50" s="217">
         <f t="shared" si="74"/>
-        <v>-125.37830529908683</v>
+        <v>31.979739400361268</v>
       </c>
       <c r="AA50" s="150">
         <f t="shared" si="74"/>
-        <v>-127.47740866233153</v>
+        <v>32.50554935202058</v>
       </c>
       <c r="AB50" s="244"/>
     </row>
@@ -25364,67 +25388,67 @@
       </c>
       <c r="L54" s="104">
         <f>K54*(1+L56)</f>
-        <v>1747.3341365505732</v>
+        <v>1676.7274934000816</v>
       </c>
       <c r="M54" s="104">
         <f t="shared" ref="M54:AA54" si="75">L54*(1+M56)</f>
-        <v>1741.3772359673812</v>
+        <v>1658.728354358673</v>
       </c>
       <c r="N54" s="104">
         <f t="shared" si="75"/>
-        <v>1724.4042060908307</v>
+        <v>1680.0972549627311</v>
       </c>
       <c r="O54" s="104">
         <f t="shared" si="75"/>
-        <v>1744.554891495688</v>
+        <v>1691.2386419806749</v>
       </c>
       <c r="P54" s="104">
         <f t="shared" si="75"/>
-        <v>1610.2531197056305</v>
+        <v>1695.1606254140172</v>
       </c>
       <c r="Q54" s="104">
         <f t="shared" si="75"/>
-        <v>1613.95151560314</v>
+        <v>1690.7825491435724</v>
       </c>
       <c r="R54" s="104">
         <f t="shared" si="75"/>
-        <v>1609.8230281699848</v>
+        <v>1699.3357522938504</v>
       </c>
       <c r="S54" s="104">
         <f t="shared" si="75"/>
-        <v>1617.8886235451794</v>
+        <v>1708.9432388453199</v>
       </c>
       <c r="T54" s="104">
         <f t="shared" si="75"/>
-        <v>1618.0286632835041</v>
+        <v>1718.1108506122771</v>
       </c>
       <c r="U54" s="104">
         <f t="shared" si="75"/>
-        <v>1626.6736405826512</v>
+        <v>1727.8695330427036</v>
       </c>
       <c r="V54" s="104">
         <f t="shared" si="75"/>
-        <v>1635.87599232105</v>
+        <v>1768.0404938555441</v>
       </c>
       <c r="W54" s="104">
         <f t="shared" si="75"/>
-        <v>1673.7568552044054</v>
+        <v>1801.9853391397789</v>
       </c>
       <c r="X54" s="104">
         <f t="shared" si="75"/>
-        <v>1704.0502454968723</v>
+        <v>1828.1126511703853</v>
       </c>
       <c r="Y54" s="104">
         <f t="shared" si="75"/>
-        <v>1728.6880710433718</v>
+        <v>1847.1770422269346</v>
       </c>
       <c r="Z54" s="104">
         <f t="shared" si="75"/>
-        <v>1746.6656242050317</v>
+        <v>1856.0731015206463</v>
       </c>
       <c r="AA54" s="104">
         <f t="shared" si="75"/>
-        <v>1755.054529909263</v>
+        <v>1867.9689093703914</v>
       </c>
       <c r="AB54" s="95"/>
     </row>
@@ -25434,99 +25458,99 @@
       </c>
       <c r="D55" s="102">
         <f t="shared" ref="D55:AA55" si="76">D15</f>
-        <v>0</v>
+        <v>1828.5000000000009</v>
       </c>
       <c r="E55" s="104">
         <f t="shared" si="76"/>
-        <v>3694.6000000000008</v>
+        <v>1861.4</v>
       </c>
       <c r="F55" s="104">
         <f t="shared" si="76"/>
-        <v>2433.1999999999998</v>
+        <v>1756.1999999999989</v>
       </c>
       <c r="G55" s="149">
         <f t="shared" si="76"/>
-        <v>1959.6999999999989</v>
+        <v>1808.7</v>
       </c>
       <c r="H55" s="104">
         <f t="shared" si="76"/>
-        <v>4215.9000000000005</v>
+        <v>1629.356357104331</v>
       </c>
       <c r="I55" s="104">
         <f t="shared" si="76"/>
-        <v>3373.426597104331</v>
+        <v>1501.6652887165669</v>
       </c>
       <c r="J55" s="104">
         <f t="shared" si="76"/>
-        <v>2112.8103287165659</v>
+        <v>1514.272945247701</v>
       </c>
       <c r="K55" s="263">
         <f t="shared" si="76"/>
-        <v>1607.2419452477011</v>
+        <v>1515.6150242949509</v>
       </c>
       <c r="L55" s="104">
         <f t="shared" si="76"/>
-        <v>1668.6360242949511</v>
+        <v>1509.926416318757</v>
       </c>
       <c r="M55" s="104">
         <f t="shared" si="76"/>
-        <v>1662.947416318757</v>
+        <v>1493.7178340556329</v>
       </c>
       <c r="N55" s="104">
         <f t="shared" si="76"/>
-        <v>1646.738834055632</v>
+        <v>1512.9609535468801</v>
       </c>
       <c r="O55" s="149">
         <f t="shared" si="76"/>
-        <v>1665.98195354688</v>
+        <v>1522.99399388232</v>
       </c>
       <c r="P55" s="104">
         <f t="shared" si="76"/>
-        <v>1537.7289938823201</v>
+        <v>1526.525817874995</v>
       </c>
       <c r="Q55" s="104">
         <f t="shared" si="76"/>
-        <v>1541.2608178749949</v>
+        <v>1522.5832732221379</v>
       </c>
       <c r="R55" s="104">
         <f t="shared" si="76"/>
-        <v>1537.318273222138</v>
+        <v>1530.285602569978</v>
       </c>
       <c r="S55" s="149">
         <f t="shared" si="76"/>
-        <v>1545.0206025699781</v>
+        <v>1538.937335064132</v>
       </c>
       <c r="T55" s="104">
         <f t="shared" si="76"/>
-        <v>1545.1543350641321</v>
+        <v>1547.192951576636</v>
       </c>
       <c r="U55" s="104">
         <f t="shared" si="76"/>
-        <v>1553.4099515766361</v>
+        <v>1555.9808389633261</v>
       </c>
       <c r="V55" s="104">
         <f t="shared" si="76"/>
-        <v>1562.1978389633259</v>
+        <v>1592.1555871790999</v>
       </c>
       <c r="W55" s="149">
         <f t="shared" si="76"/>
-        <v>1598.3725871791</v>
+        <v>1622.7235946783901</v>
       </c>
       <c r="X55" s="104">
         <f t="shared" si="76"/>
-        <v>1627.3015946783901</v>
+        <v>1646.2517581859961</v>
       </c>
       <c r="Y55" s="104">
         <f t="shared" si="76"/>
-        <v>1650.8297581859961</v>
+        <v>1663.4196210501891</v>
       </c>
       <c r="Z55" s="104">
         <f t="shared" si="76"/>
-        <v>1667.9976210501891</v>
+        <v>1671.430699166094</v>
       </c>
       <c r="AA55" s="149">
         <f t="shared" si="76"/>
-        <v>1676.0086991660939</v>
+        <v>1682.1431104472849</v>
       </c>
       <c r="AB55" s="95"/>
     </row>
@@ -25544,67 +25568,67 @@
       <c r="K56" s="246"/>
       <c r="L56" s="230">
         <f t="shared" ref="L56" si="77">(L55/K55)-1</f>
-        <v>3.8198405180240647E-2</v>
+        <v>-3.7533330595216352E-3</v>
       </c>
       <c r="M56" s="230">
         <f t="shared" ref="M56" si="78">(M55/L55)-1</f>
-        <v>-3.40913650033281E-3</v>
+        <v>-1.0734683550103763E-2</v>
       </c>
       <c r="N56" s="230">
         <f t="shared" ref="N56" si="79">(N55/M55)-1</f>
-        <v>-9.7469000547267814E-3</v>
+        <v>1.2882700502409916E-2</v>
       </c>
       <c r="O56" s="246">
         <f t="shared" ref="O56" si="80">(O55/N55)-1</f>
-        <v>1.1685592817323398E-2</v>
+        <v>6.6313940964035645E-3</v>
       </c>
       <c r="P56" s="230">
         <f t="shared" ref="P56" si="81">(P55/O55)-1</f>
-        <v>-7.6983402726247485E-2</v>
+        <v>2.3190006046391876E-3</v>
       </c>
       <c r="Q56" s="230">
         <f t="shared" ref="Q56" si="82">(Q55/P55)-1</f>
-        <v>2.2967792157952971E-3</v>
+        <v>-2.5826911059685376E-3</v>
       </c>
       <c r="R56" s="230">
         <f t="shared" ref="R56" si="83">(R55/Q55)-1</f>
-        <v>-2.5579996630892277E-3</v>
+        <v>5.0587245264688274E-3</v>
       </c>
       <c r="S56" s="246">
         <f t="shared" ref="S56" si="84">(S55/R55)-1</f>
-        <v>5.0102372956879471E-3</v>
+        <v>5.6536717588038243E-3</v>
       </c>
       <c r="T56" s="230">
         <f t="shared" ref="T56" si="85">(T55/S55)-1</f>
-        <v>8.6557094404859924E-5</v>
+        <v>5.3644916686357291E-3</v>
       </c>
       <c r="U56" s="230">
         <f t="shared" ref="U56" si="86">(U55/T55)-1</f>
-        <v>5.3429073880579825E-3</v>
+        <v>5.6798910425068794E-3</v>
       </c>
       <c r="V56" s="230">
         <f t="shared" ref="V56" si="87">(V55/U55)-1</f>
-        <v>5.6571591921183995E-3</v>
+        <v>2.3248839130869614E-2</v>
       </c>
       <c r="W56" s="246">
         <f t="shared" ref="W56" si="88">(W55/V55)-1</f>
-        <v>2.3156316897595897E-2</v>
+        <v>1.9199133392138412E-2</v>
       </c>
       <c r="X56" s="230">
         <f t="shared" ref="X56" si="89">(X55/W55)-1</f>
-        <v>1.8099038816941748E-2</v>
+        <v>1.4499181243660342E-2</v>
       </c>
       <c r="Y56" s="230">
         <f t="shared" ref="Y56" si="90">(Y55/X55)-1</f>
-        <v>1.4458391477368382E-2</v>
+        <v>1.0428455294778427E-2</v>
       </c>
       <c r="Z56" s="230">
         <f t="shared" ref="Z56" si="91">(Z55/Y55)-1</f>
-        <v>1.0399535614779465E-2</v>
+        <v>4.8160295902046624E-3</v>
       </c>
       <c r="AA56" s="246">
         <f t="shared" ref="AA56" si="92">(AA55/Z55)-1</f>
-        <v>4.80281147575079E-3</v>
+        <v>6.4091267957060438E-3</v>
       </c>
       <c r="AB56" s="243"/>
     </row>
@@ -25616,91 +25640,91 @@
       <c r="E57" s="217"/>
       <c r="F57" s="217">
         <f t="shared" ref="F57" si="93">F54-F55</f>
-        <v>32.801000000000386</v>
+        <v>709.8010000000013</v>
       </c>
       <c r="G57" s="150">
         <f t="shared" ref="G57" si="94">G54-G55</f>
-        <v>68.093000000000984</v>
+        <v>219.09299999999985</v>
       </c>
       <c r="H57" s="217">
         <f t="shared" ref="H57" si="95">H54-H55</f>
-        <v>-1097.7761975000003</v>
+        <v>1488.7674453956693</v>
       </c>
       <c r="I57" s="217">
         <f t="shared" ref="I57" si="96">I54-I55</f>
-        <v>-1498.5777231230811</v>
+        <v>373.18358526468296</v>
       </c>
       <c r="J57" s="217">
         <f t="shared" ref="J57" si="97">J54-J55</f>
-        <v>-426.34282129017515</v>
+        <v>172.19456217868969</v>
       </c>
       <c r="K57" s="264">
         <f t="shared" ref="K57" si="98">K54-K55</f>
-        <v>75.802574790085146</v>
+        <v>167.42949574283534</v>
       </c>
       <c r="L57" s="217">
         <f t="shared" ref="L57:AA57" si="99">L54-L55</f>
-        <v>78.698112255622164</v>
+        <v>166.80107708132459</v>
       </c>
       <c r="M57" s="217">
         <f t="shared" si="99"/>
-        <v>78.429819648624289</v>
+        <v>165.01052030304004</v>
       </c>
       <c r="N57" s="217">
         <f t="shared" si="99"/>
-        <v>77.665372035198743</v>
+        <v>167.13630141585099</v>
       </c>
       <c r="O57" s="150">
         <f t="shared" si="99"/>
-        <v>78.572937948807976</v>
+        <v>168.2446480983549</v>
       </c>
       <c r="P57" s="217">
         <f t="shared" si="99"/>
-        <v>72.524125823310442</v>
+        <v>168.63480753902218</v>
       </c>
       <c r="Q57" s="217">
         <f t="shared" si="99"/>
-        <v>72.690697728145096</v>
+        <v>168.19927592143449</v>
       </c>
       <c r="R57" s="217">
         <f t="shared" si="99"/>
-        <v>72.504754947846777</v>
+        <v>169.05014972387244</v>
       </c>
       <c r="S57" s="150">
         <f t="shared" si="99"/>
-        <v>72.868020975201262</v>
+        <v>170.00590378118795</v>
       </c>
       <c r="T57" s="217">
         <f t="shared" si="99"/>
-        <v>72.874328219372046</v>
+        <v>170.91789903564108</v>
       </c>
       <c r="U57" s="217">
         <f t="shared" si="99"/>
-        <v>73.263689006015056</v>
+        <v>171.8886940793775</v>
       </c>
       <c r="V57" s="217">
         <f t="shared" si="99"/>
-        <v>73.678153357724113</v>
+        <v>175.88490667644419</v>
       </c>
       <c r="W57" s="150">
         <f t="shared" si="99"/>
-        <v>75.384268025305346</v>
+        <v>179.26174446138884</v>
       </c>
       <c r="X57" s="217">
         <f t="shared" si="99"/>
-        <v>76.748650818482247</v>
+        <v>181.86089298438924</v>
       </c>
       <c r="Y57" s="217">
         <f t="shared" si="99"/>
-        <v>77.858312857375722</v>
+        <v>183.75742117674554</v>
       </c>
       <c r="Z57" s="217">
         <f t="shared" si="99"/>
-        <v>78.668003154842609</v>
+        <v>184.64240235455236</v>
       </c>
       <c r="AA57" s="150">
         <f t="shared" si="99"/>
-        <v>79.045830743169063</v>
+        <v>185.8257989231065</v>
       </c>
       <c r="AB57" s="244"/>
     </row>
@@ -25826,63 +25850,63 @@
       </c>
       <c r="M61" s="231">
         <f>L61*(1+M63)</f>
-        <v>77.624251876046245</v>
+        <v>77.695696451903586</v>
       </c>
       <c r="N61" s="231">
         <f>M61*(1+N63)</f>
-        <v>77.913655182602696</v>
+        <v>78.058820150934892</v>
       </c>
       <c r="O61" s="247">
         <f>N61*(1+O63)</f>
-        <v>78.201219061363247</v>
+        <v>78.421169599008806</v>
       </c>
       <c r="P61" s="231">
         <f>O61*(1+P63)</f>
-        <v>63.994411041229114</v>
+        <v>78.784680423518822</v>
       </c>
       <c r="Q61" s="231">
         <f t="shared" ref="Q61:AA61" si="100">P61*(1+Q63)</f>
-        <v>64.282281491288984</v>
+        <v>79.151675377337256</v>
       </c>
       <c r="R61" s="231">
         <f t="shared" si="100"/>
-        <v>64.572911083042712</v>
+        <v>79.522154460464094</v>
       </c>
       <c r="S61" s="247">
         <f t="shared" si="100"/>
-        <v>64.866299816490312</v>
+        <v>79.894956296463178</v>
       </c>
       <c r="T61" s="231">
         <f t="shared" si="100"/>
-        <v>63.473051600810855</v>
+        <v>80.266983881504842</v>
       </c>
       <c r="U61" s="231">
         <f t="shared" si="100"/>
-        <v>63.767666619455717</v>
+        <v>80.640172842982665</v>
       </c>
       <c r="V61" s="231">
         <f t="shared" si="100"/>
-        <v>64.063201351998543</v>
+        <v>81.014136055417907</v>
       </c>
       <c r="W61" s="247">
         <f t="shared" si="100"/>
-        <v>64.359349227140001</v>
+        <v>81.387712142374426</v>
       </c>
       <c r="X61" s="231">
         <f t="shared" si="100"/>
-        <v>64.318416702084377</v>
+        <v>81.756642723586438</v>
       </c>
       <c r="Y61" s="231">
         <f t="shared" si="100"/>
-        <v>64.610579150334729</v>
+        <v>82.122863426447452</v>
       </c>
       <c r="Z61" s="231">
         <f t="shared" si="100"/>
-        <v>64.900595599489804</v>
+        <v>82.486374250957482</v>
       </c>
       <c r="AA61" s="247">
         <f t="shared" si="100"/>
-        <v>65.188466049549675</v>
+        <v>82.847562322595238</v>
       </c>
       <c r="AB61" s="95"/>
     </row>
@@ -25892,99 +25916,99 @@
       </c>
       <c r="D62" s="102">
         <f t="shared" ref="D62:AA62" si="101">D16</f>
-        <v>0</v>
+        <v>1085.9000000000001</v>
       </c>
       <c r="E62" s="104">
         <f t="shared" si="101"/>
-        <v>1085.9000000000001</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="F62" s="104">
         <f t="shared" si="101"/>
-        <v>1212.9000000000001</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="G62" s="149">
         <f t="shared" si="101"/>
-        <v>609.79999999999995</v>
+        <v>402.3</v>
       </c>
       <c r="H62" s="104">
         <f t="shared" si="101"/>
-        <v>402.3</v>
+        <v>404.18538158623392</v>
       </c>
       <c r="I62" s="104">
         <f t="shared" si="101"/>
-        <v>567.87138158623384</v>
+        <v>406.11408156777497</v>
       </c>
       <c r="J62" s="104">
         <f t="shared" si="101"/>
-        <v>569.80008156777501</v>
+        <v>408.08197438316557</v>
       </c>
       <c r="K62" s="149">
         <f t="shared" si="101"/>
-        <v>489.92497438316559</v>
+        <v>410.07255778657441</v>
       </c>
       <c r="L62" s="223">
         <f t="shared" si="101"/>
-        <v>520.32055778657434</v>
+        <v>412.05076450560961</v>
       </c>
       <c r="M62" s="104">
         <f t="shared" si="101"/>
-        <v>522.2987645056096</v>
+        <v>413.998029513711</v>
       </c>
       <c r="N62" s="104">
         <f t="shared" si="101"/>
-        <v>524.24602951371094</v>
+        <v>415.93291783743882</v>
       </c>
       <c r="O62" s="149">
         <f t="shared" si="101"/>
-        <v>526.18091783743887</v>
+        <v>417.86368059970891</v>
       </c>
       <c r="P62" s="104">
         <f t="shared" si="101"/>
-        <v>430.58968059970891</v>
+        <v>419.80063170416571</v>
       </c>
       <c r="Q62" s="104">
         <f t="shared" si="101"/>
-        <v>432.52663170416571</v>
+        <v>421.75614783518279</v>
       </c>
       <c r="R62" s="104">
         <f t="shared" si="101"/>
-        <v>434.48214783518279</v>
+        <v>423.7302289927602</v>
       </c>
       <c r="S62" s="149">
         <f t="shared" si="101"/>
-        <v>436.4562289927602</v>
+        <v>425.71668683471103</v>
       </c>
       <c r="T62" s="104">
         <f t="shared" si="101"/>
-        <v>427.08168683471098</v>
+        <v>427.69901911520401</v>
       </c>
       <c r="U62" s="104">
         <f t="shared" si="101"/>
-        <v>429.06401911520402</v>
+        <v>429.68753973788392</v>
       </c>
       <c r="V62" s="104">
         <f t="shared" si="101"/>
-        <v>431.05253973788388</v>
+        <v>431.68018592202162</v>
       </c>
       <c r="W62" s="149">
         <f t="shared" si="101"/>
-        <v>433.04518592202157</v>
+        <v>433.67076932543029</v>
       </c>
       <c r="X62" s="104">
         <f t="shared" si="101"/>
-        <v>432.76976932543027</v>
+        <v>435.63659936009208</v>
       </c>
       <c r="Y62" s="104">
         <f t="shared" si="101"/>
-        <v>434.73559936009212</v>
+        <v>437.58798992965131</v>
       </c>
       <c r="Z62" s="104">
         <f t="shared" si="101"/>
-        <v>436.6869899296513</v>
+        <v>439.52494103410811</v>
       </c>
       <c r="AA62" s="149">
         <f t="shared" si="101"/>
-        <v>438.6239410341081</v>
+        <v>441.44951545419133</v>
       </c>
       <c r="AB62" s="95"/>
     </row>
@@ -26003,63 +26027,63 @@
       <c r="L63" s="230"/>
       <c r="M63" s="230">
         <f t="shared" ref="M63:AA63" si="102">(M62/L62)-1</f>
-        <v>3.8018999815239152E-3</v>
+        <v>4.7257890916372336E-3</v>
       </c>
       <c r="N63" s="230">
         <f t="shared" si="102"/>
-        <v>3.7282588825278129E-3</v>
+        <v>4.6736655389412185E-3</v>
       </c>
       <c r="O63" s="246">
         <f t="shared" si="102"/>
-        <v>3.690802056284026E-3</v>
+        <v>4.6420051875402102E-3</v>
       </c>
       <c r="P63" s="230">
         <f t="shared" si="102"/>
-        <v>-0.18166990477458256</v>
+        <v>4.6353660162015142E-3</v>
       </c>
       <c r="Q63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4983686133841516E-3</v>
+        <v>4.6582019733480973E-3</v>
       </c>
       <c r="R63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5211461854088864E-3</v>
+        <v>4.6806221265773829E-3</v>
       </c>
       <c r="S63" s="246">
         <f t="shared" si="102"/>
-        <v>4.543526511764151E-3</v>
+        <v>4.6880248470182462E-3</v>
       </c>
       <c r="T63" s="230">
         <f t="shared" si="102"/>
-        <v>-2.1478768168078366E-2</v>
+        <v>4.6564589592013039E-3</v>
       </c>
       <c r="U63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6415764047036401E-3</v>
+        <v>4.6493457637419855E-3</v>
       </c>
       <c r="V63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6345545981238967E-3</v>
+        <v>4.6374306905740958E-3</v>
       </c>
       <c r="W63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6227454902583176E-3</v>
+        <v>4.6112457053293365E-3</v>
       </c>
       <c r="X63" s="230">
         <f t="shared" si="102"/>
-        <v>-6.3599967288607839E-4</v>
+        <v>4.5330010083908245E-3</v>
       </c>
       <c r="Y63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5424384372458881E-3</v>
+        <v>4.4793999687484654E-3</v>
       </c>
       <c r="Z63" s="230">
         <f t="shared" si="102"/>
-        <v>4.48868363306687E-3</v>
+        <v>4.4264265679874182E-3</v>
       </c>
       <c r="AA63" s="246">
         <f t="shared" si="102"/>
-        <v>4.4355594490435024E-3</v>
+        <v>4.3787604306484429E-3</v>
       </c>
       <c r="AB63" s="243"/>
     </row>
@@ -26071,91 +26095,91 @@
       <c r="E64" s="217"/>
       <c r="F64" s="217">
         <f>F61-F62</f>
-        <v>0.57999999999992724</v>
+        <v>603.68000000000006</v>
       </c>
       <c r="G64" s="150">
         <f t="shared" ref="G64:AA64" si="103">G61-G62</f>
-        <v>0.73599999999999</v>
+        <v>208.23599999999993</v>
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>391.78358333333341</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>226.21220174709958</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
-        <v>-425.7164982344417</v>
+        <v>-263.99839104983226</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="103"/>
-        <v>-367.1747243831656</v>
+        <v>-287.32230778657441</v>
       </c>
       <c r="L64" s="217">
         <f t="shared" si="103"/>
-        <v>-442.99030778657436</v>
+        <v>-334.72051450560957</v>
       </c>
       <c r="M64" s="217">
         <f t="shared" si="103"/>
-        <v>-444.67451262956337</v>
+        <v>-336.30233306180742</v>
       </c>
       <c r="N64" s="217">
         <f t="shared" si="103"/>
-        <v>-446.33237433110821</v>
+        <v>-337.87409768650394</v>
       </c>
       <c r="O64" s="150">
         <f t="shared" si="103"/>
-        <v>-447.97969877607562</v>
+        <v>-339.44251100070011</v>
       </c>
       <c r="P64" s="217">
         <f t="shared" si="103"/>
-        <v>-366.5952695584798</v>
+        <v>-341.0159512806469</v>
       </c>
       <c r="Q64" s="217">
         <f t="shared" si="103"/>
-        <v>-368.24435021287672</v>
+        <v>-342.60447245784553</v>
       </c>
       <c r="R64" s="217">
         <f t="shared" si="103"/>
-        <v>-369.90923675214009</v>
+        <v>-344.20807453229611</v>
       </c>
       <c r="S64" s="150">
         <f t="shared" si="103"/>
-        <v>-371.58992917626989</v>
+        <v>-345.82173053824783</v>
       </c>
       <c r="T64" s="217">
         <f t="shared" si="103"/>
-        <v>-363.60863523390015</v>
+        <v>-347.43203523369914</v>
       </c>
       <c r="U64" s="217">
         <f t="shared" si="103"/>
-        <v>-365.29635249574829</v>
+        <v>-349.04736689490124</v>
       </c>
       <c r="V64" s="217">
         <f t="shared" si="103"/>
-        <v>-366.98933838588533</v>
+        <v>-350.66604986660371</v>
       </c>
       <c r="W64" s="150">
         <f t="shared" si="103"/>
-        <v>-368.68583669488157</v>
+        <v>-352.28305718305586</v>
       </c>
       <c r="X64" s="217">
         <f t="shared" si="103"/>
-        <v>-368.45135262334588</v>
+        <v>-353.87995663650565</v>
       </c>
       <c r="Y64" s="217">
         <f t="shared" si="103"/>
-        <v>-370.12502020975739</v>
+        <v>-355.46512650320386</v>
       </c>
       <c r="Z64" s="217">
         <f t="shared" si="103"/>
-        <v>-371.7863943301615</v>
+        <v>-357.0385667831506</v>
       </c>
       <c r="AA64" s="150">
         <f t="shared" si="103"/>
-        <v>-373.43547498455843</v>
+        <v>-358.60195313159608</v>
       </c>
       <c r="AB64" s="217"/>
       <c r="AC64" s="217"/>
@@ -26300,35 +26324,35 @@
       </c>
       <c r="T68" s="248">
         <f t="shared" ref="T68:AA68" si="104">S68*(1+T70)</f>
-        <v>336.19109289565444</v>
+        <v>336.16070694732593</v>
       </c>
       <c r="U68" s="248">
         <f t="shared" si="104"/>
-        <v>341.94362819962095</v>
+        <v>341.92715340182366</v>
       </c>
       <c r="V68" s="248">
         <f t="shared" si="104"/>
-        <v>347.80927395095131</v>
+        <v>342.39133861647292</v>
       </c>
       <c r="W68" s="249">
         <f t="shared" si="104"/>
-        <v>348.28144447288759</v>
+        <v>342.89676890833556</v>
       </c>
       <c r="X68" s="248">
         <f t="shared" si="104"/>
-        <v>348.79556960479533</v>
+        <v>343.45498373359641</v>
       </c>
       <c r="Y68" s="248">
         <f t="shared" si="104"/>
-        <v>349.36338731436012</v>
+        <v>344.05786382998645</v>
       </c>
       <c r="Z68" s="248">
         <f t="shared" si="104"/>
-        <v>349.97663866488529</v>
+        <v>344.77300996037025</v>
       </c>
       <c r="AA68" s="249">
         <f t="shared" si="104"/>
-        <v>350.70408734482481</v>
+        <v>345.55312735123522</v>
       </c>
       <c r="AB68" s="95"/>
     </row>
@@ -26338,99 +26362,99 @@
       </c>
       <c r="D69" s="102">
         <f t="shared" ref="D69:O69" si="105">D17</f>
-        <v>0</v>
+        <v>884.2600000000001</v>
       </c>
       <c r="E69" s="104">
         <f t="shared" si="105"/>
-        <v>321.35000000000002</v>
+        <v>242.12799999999999</v>
       </c>
       <c r="F69" s="104">
         <f t="shared" si="105"/>
-        <v>291.39999999999998</v>
+        <v>225.90700000000001</v>
       </c>
       <c r="G69" s="149">
         <f t="shared" si="105"/>
-        <v>284.15100000000001</v>
+        <v>260.73700000000002</v>
       </c>
       <c r="H69" s="104">
         <f t="shared" si="105"/>
-        <v>357.63880399999999</v>
+        <v>232.07518871317359</v>
       </c>
       <c r="I69" s="104">
         <f t="shared" si="105"/>
-        <v>232.07518871317359</v>
+        <v>215.720203842161</v>
       </c>
       <c r="J69" s="104">
         <f t="shared" si="105"/>
-        <v>215.720203842161</v>
+        <v>220.89139620745101</v>
       </c>
       <c r="K69" s="149">
         <f t="shared" si="105"/>
-        <v>220.89139620745101</v>
+        <v>226.76914626180869</v>
       </c>
       <c r="L69" s="104">
         <f t="shared" si="105"/>
-        <v>226.76914626180869</v>
+        <v>232.32795235033251</v>
       </c>
       <c r="M69" s="104">
         <f t="shared" si="105"/>
-        <v>232.32795235033251</v>
+        <v>237.9298898973548</v>
       </c>
       <c r="N69" s="104">
         <f t="shared" si="105"/>
-        <v>237.9298898973548</v>
+        <v>251.6040694504666</v>
       </c>
       <c r="O69" s="149">
         <f t="shared" si="105"/>
-        <v>251.6040694504666</v>
+        <v>265.27969850165113</v>
       </c>
       <c r="P69" s="231">
         <f t="shared" ref="P69:AA69" si="106">P17</f>
-        <v>265.27969850165113</v>
+        <v>279.09879389494898</v>
       </c>
       <c r="Q69" s="231">
         <f t="shared" si="106"/>
-        <v>279.09879389494898</v>
+        <v>293.05961551598227</v>
       </c>
       <c r="R69" s="231">
         <f t="shared" si="106"/>
-        <v>293.05961551598227</v>
+        <v>298.02592203707633</v>
       </c>
       <c r="S69" s="245">
         <f t="shared" si="106"/>
-        <v>298.02592203707633</v>
+        <v>303.15281641427401</v>
       </c>
       <c r="T69" s="231">
         <f t="shared" si="106"/>
-        <v>303.15281641427401</v>
+        <v>308.34003676535349</v>
       </c>
       <c r="U69" s="231">
         <f t="shared" si="106"/>
-        <v>308.34003676535349</v>
+        <v>313.62925193845189</v>
       </c>
       <c r="V69" s="231">
         <f t="shared" si="106"/>
-        <v>313.62925193845189</v>
+        <v>314.05502117082477</v>
       </c>
       <c r="W69" s="247">
         <f t="shared" si="106"/>
-        <v>314.05502117082477</v>
+        <v>314.5186220365847</v>
       </c>
       <c r="X69" s="231">
         <f t="shared" si="106"/>
-        <v>314.5186220365847</v>
+        <v>315.03063898617683</v>
       </c>
       <c r="Y69" s="231">
         <f t="shared" si="106"/>
-        <v>315.03063898617683</v>
+        <v>315.58362470772079</v>
       </c>
       <c r="Z69" s="231">
         <f t="shared" si="106"/>
-        <v>315.58362470772079</v>
+        <v>316.2395853229205</v>
       </c>
       <c r="AA69" s="247">
         <f t="shared" si="106"/>
-        <v>316.2395853229205</v>
+        <v>316.95514017513671</v>
       </c>
       <c r="AB69" s="95"/>
     </row>
@@ -26453,47 +26477,47 @@
       <c r="P70" s="230"/>
       <c r="Q70" s="230">
         <f t="shared" ref="Q70" si="107">(Q69/P69)-1</f>
-        <v>5.2092547870608463E-2</v>
+        <v>5.002107471051298E-2</v>
       </c>
       <c r="R70" s="230">
         <f t="shared" ref="R70" si="108">(R69/Q69)-1</f>
-        <v>5.002107471051298E-2</v>
+        <v>1.6946403592149606E-2</v>
       </c>
       <c r="S70" s="246">
         <f t="shared" ref="S70" si="109">(S69/R69)-1</f>
-        <v>1.6946403592149606E-2</v>
+        <v>1.7202847128713339E-2</v>
       </c>
       <c r="T70" s="230">
         <f t="shared" ref="T70" si="110">(T69/S69)-1</f>
-        <v>1.7202847128713339E-2</v>
+        <v>1.7110909317731293E-2</v>
       </c>
       <c r="U70" s="230">
         <f t="shared" ref="U70" si="111">(U69/T69)-1</f>
-        <v>1.7110909317731293E-2</v>
+        <v>1.7153838433000779E-2</v>
       </c>
       <c r="V70" s="230">
         <f t="shared" ref="V70" si="112">(V69/U69)-1</f>
-        <v>1.7153838433000779E-2</v>
+        <v>1.3575558712757285E-3</v>
       </c>
       <c r="W70" s="246">
         <f t="shared" ref="W70" si="113">(W69/V69)-1</f>
-        <v>1.3575558712757285E-3</v>
+        <v>1.4761772126157258E-3</v>
       </c>
       <c r="X70" s="230">
         <f t="shared" ref="X70" si="114">(X69/W69)-1</f>
-        <v>1.4761772126157258E-3</v>
+        <v>1.6279384230946103E-3</v>
       </c>
       <c r="Y70" s="230">
         <f t="shared" ref="Y70" si="115">(Y69/X69)-1</f>
-        <v>1.6279384230946103E-3</v>
+        <v>1.7553394911795639E-3</v>
       </c>
       <c r="Z70" s="230">
         <f t="shared" ref="Z70" si="116">(Z69/Y69)-1</f>
-        <v>1.7553394911795639E-3</v>
+        <v>2.0785635370252908E-3</v>
       </c>
       <c r="AA70" s="246">
         <f t="shared" ref="AA70" si="117">(AA69/Z69)-1</f>
-        <v>2.0785635370252908E-3</v>
+        <v>2.2626985533311661E-3</v>
       </c>
       <c r="AB70" s="243"/>
     </row>
@@ -26505,91 +26529,91 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>0</v>
+        <v>65.492999999999967</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>0</v>
+        <v>23.413999999999987</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>125.5636152868264</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>87.454570502826414</v>
+        <v>103.809555373839</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>104.60367441070301</v>
+        <v>99.432482045412996</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>94.229777558424473</v>
+        <v>88.352027504066797</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>83.152512199130257</v>
+        <v>77.593706110606433</v>
       </c>
       <c r="M71" s="217">
         <f t="shared" si="119"/>
-        <v>78.397392744450201</v>
+        <v>72.795455197427913</v>
       </c>
       <c r="N71" s="217">
         <f t="shared" si="119"/>
-        <v>73.602356577807058</v>
+        <v>59.928177024695259</v>
       </c>
       <c r="O71" s="150">
         <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>60.738306010595892</v>
+        <v>47.062676959411363</v>
       </c>
       <c r="P71" s="250">
         <f t="shared" si="120"/>
-        <v>47.876046461255555</v>
+        <v>34.056951067957698</v>
       </c>
       <c r="Q71" s="250">
         <f t="shared" si="120"/>
-        <v>51.406664131078344</v>
+        <v>37.445842510045054</v>
       </c>
       <c r="R71" s="250">
         <f t="shared" si="120"/>
-        <v>37.445842510045054</v>
+        <v>32.479535988951</v>
       </c>
       <c r="S71" s="239">
         <f t="shared" si="120"/>
-        <v>32.479535988951</v>
+        <v>27.352641611753313</v>
       </c>
       <c r="T71" s="250">
         <f t="shared" si="120"/>
-        <v>33.038276481380422</v>
+        <v>27.820670181972446</v>
       </c>
       <c r="U71" s="250">
         <f t="shared" si="120"/>
-        <v>33.603591434267457</v>
+        <v>28.297901463371772</v>
       </c>
       <c r="V71" s="250">
         <f t="shared" si="120"/>
-        <v>34.180022012499421</v>
+        <v>28.336317445648149</v>
       </c>
       <c r="W71" s="251">
         <f t="shared" si="120"/>
-        <v>34.226423302062813</v>
+        <v>28.378146871750857</v>
       </c>
       <c r="X71" s="250">
         <f t="shared" si="120"/>
-        <v>34.27694756821063</v>
+        <v>28.424344747419582</v>
       </c>
       <c r="Y71" s="250">
         <f t="shared" si="120"/>
-        <v>34.3327483281833</v>
+        <v>28.474239122265658</v>
       </c>
       <c r="Z71" s="250">
         <f t="shared" si="120"/>
-        <v>34.393013957164499</v>
+        <v>28.533424637449741</v>
       </c>
       <c r="AA71" s="251">
         <f t="shared" si="120"/>
-        <v>34.464502021904309</v>
+        <v>28.597987176098513</v>
       </c>
       <c r="AB71" s="244"/>
     </row>
@@ -26649,9 +26673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26768,35 +26792,35 @@
       </c>
       <c r="B3" s="102">
         <f t="array" ref="B3:B24">TRANSPOSE('add-ons calculations'!F24:AA24)</f>
-        <v>-36.188999999999993</v>
+        <v>-8.7680000000000007</v>
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F31:AA31)</f>
-        <v>-252.02299999999997</v>
+        <v>87.676999999999992</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
-        <v>4.8999999999978172E-2</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="E3">
         <f t="array" ref="E3:E24">TRANSPOSE('add-ons calculations'!F43:AA43)</f>
-        <v>0</v>
+        <v>-5.7000000000000028</v>
       </c>
       <c r="F3">
         <f t="array" ref="F3:F24">TRANSPOSE('add-ons calculations'!F50:AA50)</f>
-        <v>3.3000000000129148E-2</v>
+        <v>-43.987999999999829</v>
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F57:AA57)</f>
-        <v>32.801000000000386</v>
+        <v>709.8010000000013</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F64:AA64)</f>
-        <v>0.57999999999992724</v>
+        <v>603.68000000000006</v>
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>0</v>
+        <v>65.492999999999967</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
@@ -26827,28 +26851,28 @@
         <v>44196</v>
       </c>
       <c r="B4">
-        <v>8.0958169064125514</v>
+        <v>14.165816906412658</v>
       </c>
       <c r="C4">
-        <v>-159.19200000000001</v>
+        <v>-34.992000000000019</v>
       </c>
       <c r="D4">
-        <v>-35.750999999999976</v>
+        <v>-86.951000000000022</v>
       </c>
       <c r="E4">
         <v>-4.3825959008611193</v>
       </c>
       <c r="F4">
-        <v>-5.9999999998581188E-3</v>
+        <v>-30.475999999999885</v>
       </c>
       <c r="G4">
-        <v>68.093000000000984</v>
+        <v>219.09299999999985</v>
       </c>
       <c r="H4">
-        <v>0.73599999999999</v>
+        <v>208.23599999999993</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.413999999999987</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
@@ -26879,32 +26903,28 @@
         <v>44286</v>
       </c>
       <c r="B5">
-        <v>15.945084134642201</v>
+        <v>11.798701344421289</v>
       </c>
       <c r="C5">
-        <v>-82.229229999999859</v>
+        <v>3.7728995470785094</v>
       </c>
       <c r="D5">
-        <v>-54.593681691845177</v>
+        <v>-74.668790726255111</v>
       </c>
       <c r="E5">
-        <v>-2.8001771349484841</v>
+        <v>-3.7832762292649704</v>
       </c>
       <c r="F5">
-        <v>-12.65283740934774</v>
+        <v>-4.0293645275978633</v>
       </c>
       <c r="G5">
-        <v>-1097.7761975000003</v>
+        <v>1488.7674453956693</v>
       </c>
       <c r="H5">
-        <v>391.78358333333341</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="151">
-        <f>'add-ons calculations'!H68</f>
-        <v>357.63880399999999</v>
+        <v>125.5636152868264</v>
       </c>
       <c r="K5" s="102">
         <v>544.4</v>
@@ -26932,28 +26952,28 @@
         <v>44377</v>
       </c>
       <c r="B6">
-        <v>11.798701344421289</v>
+        <v>7.6523185542003773</v>
       </c>
       <c r="C6">
-        <v>-59.637798527921746</v>
+        <v>0.96715476915696286</v>
       </c>
       <c r="D6">
-        <v>-55.153337573248791</v>
+        <v>-83.796216356273817</v>
       </c>
       <c r="E6">
-        <v>-2.8288825740026482</v>
+        <v>-4.2315543175006098</v>
       </c>
       <c r="F6">
-        <v>-142.59036813928606</v>
+        <v>32.473104742464102</v>
       </c>
       <c r="G6">
-        <v>-1498.5777231230811</v>
+        <v>373.18358526468296</v>
       </c>
       <c r="H6">
-        <v>226.21220174709958</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="I6">
-        <v>87.454570502826414</v>
+        <v>103.809555373839</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -26982,28 +27002,28 @@
         <v>44469</v>
       </c>
       <c r="B7">
-        <v>7.6523185542003773</v>
+        <v>7.0672258031208912</v>
       </c>
       <c r="C7">
-        <v>-48.369376433718287</v>
+        <v>-2.6853719233534719</v>
       </c>
       <c r="D7">
-        <v>-55.951846589752222</v>
+        <v>-82.632024980574215</v>
       </c>
       <c r="E7">
-        <v>-2.8698390843673991</v>
+        <v>-4.1763953360549806</v>
       </c>
       <c r="F7">
-        <v>-110.87257339429607</v>
+        <v>25.336050976078923</v>
       </c>
       <c r="G7">
-        <v>-426.34282129017515</v>
+        <v>172.19456217868969</v>
       </c>
       <c r="H7">
-        <v>-425.7164982344417</v>
+        <v>-263.99839104983226</v>
       </c>
       <c r="I7">
-        <v>104.60367441070301</v>
+        <v>99.432482045412996</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -27032,28 +27052,28 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>7.0672258031208912</v>
+        <v>6.4821330520413767</v>
       </c>
       <c r="C8">
-        <v>-50.164743799578275</v>
+        <v>-8.3133907387605745</v>
       </c>
       <c r="D8">
-        <v>-56.695639249994201</v>
+        <v>-81.941881281215274</v>
       </c>
       <c r="E8">
-        <v>-2.907989125467509</v>
+        <v>-4.14432401327538</v>
       </c>
       <c r="F8">
-        <v>-107.08825684083558</v>
+        <v>25.876877146617062</v>
       </c>
       <c r="G8">
-        <v>75.802574790085146</v>
+        <v>167.42949574283534</v>
       </c>
       <c r="H8">
-        <v>-367.1747243831656</v>
+        <v>-287.32230778657441</v>
       </c>
       <c r="I8">
-        <v>94.229777558424473</v>
+        <v>88.352027504066797</v>
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
@@ -27082,10 +27102,10 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>48.039537083112549</v>
+        <v>47.454444332033063</v>
       </c>
       <c r="C9">
-        <v>-52.00251350839514</v>
+        <v>-12.746557895276226</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -27094,16 +27114,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-107.6166305379561</v>
+        <v>26.417703317155201</v>
       </c>
       <c r="G9">
-        <v>78.698112255622164</v>
+        <v>166.80107708132459</v>
       </c>
       <c r="H9">
-        <v>-442.99030778657436</v>
+        <v>-334.72051450560957</v>
       </c>
       <c r="I9">
-        <v>83.152512199130257</v>
+        <v>77.593706110606433</v>
       </c>
       <c r="K9" s="102">
         <f t="shared" si="1"/>
@@ -27132,10 +27152,10 @@
         <v>44742</v>
       </c>
       <c r="B10">
-        <v>47.454444332033063</v>
+        <v>46.869351580953548</v>
       </c>
       <c r="C10">
-        <v>-52.713246721072096</v>
+        <v>-13.145675591671591</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -27144,16 +27164,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-109.77568064707793</v>
+        <v>26.958529487693568</v>
       </c>
       <c r="G10">
-        <v>78.429819648624289</v>
+        <v>165.01052030304004</v>
       </c>
       <c r="H10">
-        <v>-444.67451262956337</v>
+        <v>-336.30233306180742</v>
       </c>
       <c r="I10">
-        <v>78.397392744450201</v>
+        <v>72.795455197427913</v>
       </c>
       <c r="K10" s="102">
         <f t="shared" si="1"/>
@@ -27182,10 +27202,10 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>47.613845224176771</v>
+        <v>46.361660893304077</v>
       </c>
       <c r="C11">
-        <v>-52.936412008170294</v>
+        <v>-14.21099145984644</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -27194,16 +27214,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-111.93473075619954</v>
+        <v>27.187848652661387</v>
       </c>
       <c r="G11">
-        <v>77.665372035198743</v>
+        <v>167.13630141585099</v>
       </c>
       <c r="H11">
-        <v>-446.33237433110821</v>
+        <v>-337.87409768650394</v>
       </c>
       <c r="I11">
-        <v>73.602356577807058</v>
+        <v>59.928177024695259</v>
       </c>
       <c r="K11" s="102">
         <f t="shared" si="1"/>
@@ -27232,10 +27252,10 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>47.098090151658965</v>
+        <v>45.853970205654605</v>
       </c>
       <c r="C12">
-        <v>-55.115132388081264</v>
+        <v>-15.338034745617193</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -27244,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-112.85020340733786</v>
+        <v>27.417167817629206</v>
       </c>
       <c r="G12">
-        <v>78.572937948807976</v>
+        <v>168.2446480983549</v>
       </c>
       <c r="H12">
-        <v>-447.97969877607562</v>
+        <v>-339.44251100070011</v>
       </c>
       <c r="I12">
-        <v>60.738306010595892</v>
+        <v>47.062676959411363</v>
       </c>
       <c r="K12" s="102">
         <f t="shared" si="1"/>
@@ -27282,10 +27302,10 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>46.582335079141131</v>
+        <v>45.346279518005133</v>
       </c>
       <c r="C13">
-        <v>-47.961277998686427</v>
+        <v>-16.533927843321862</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -27294,16 +27314,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-109.72487233618699</v>
+        <v>27.646486982597025</v>
       </c>
       <c r="G13">
-        <v>72.524125823310442</v>
+        <v>168.63480753902218</v>
       </c>
       <c r="H13">
-        <v>-366.5952695584798</v>
+        <v>-341.0159512806469</v>
       </c>
       <c r="I13">
-        <v>47.876046461255555</v>
+        <v>34.056951067957698</v>
       </c>
       <c r="K13" s="102">
         <f t="shared" si="1"/>
@@ -27330,10 +27350,10 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>46.066580006623298</v>
+        <v>44.838588830355661</v>
       </c>
       <c r="C14">
-        <v>-50.142487063018876</v>
+        <v>-17.755936386932433</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -27342,16 +27362,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-110.64034498732531</v>
+        <v>27.875806147564845</v>
       </c>
       <c r="G14">
-        <v>72.690697728145096</v>
+        <v>168.19927592143449</v>
       </c>
       <c r="H14">
-        <v>-368.24435021287672</v>
+        <v>-342.60447245784553</v>
       </c>
       <c r="I14">
-        <v>51.406664131078344</v>
+        <v>37.445842510045054</v>
       </c>
       <c r="K14" s="102">
         <f t="shared" si="1"/>
@@ -27372,10 +27392,10 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>45.550824934105464</v>
+        <v>45.103772151336528</v>
       </c>
       <c r="C15">
-        <v>-54.25075202714595</v>
+        <v>-18.256936057051234</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -27384,16 +27404,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-111.55581763846385</v>
+        <v>28.064837938374012</v>
       </c>
       <c r="G15">
-        <v>72.504754947846777</v>
+        <v>169.05014972387244</v>
       </c>
       <c r="H15">
-        <v>-369.90923675214009</v>
+        <v>-344.20807453229611</v>
       </c>
       <c r="I15">
-        <v>37.445842510045054</v>
+        <v>32.479535988951</v>
       </c>
       <c r="K15" s="102">
         <f t="shared" si="1"/>
@@ -27414,10 +27434,10 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>45.820220544996459</v>
+        <v>45.368955472317282</v>
       </c>
       <c r="C16">
-        <v>-55.885721729532548</v>
+        <v>-18.784051173076023</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -27426,16 +27446,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-112.31045772581069</v>
+        <v>28.253869729183407</v>
       </c>
       <c r="G16">
-        <v>72.868020975201262</v>
+        <v>170.00590378118795</v>
       </c>
       <c r="H16">
-        <v>-371.58992917626989</v>
+        <v>-345.82173053824783</v>
       </c>
       <c r="I16">
-        <v>32.479535988951</v>
+        <v>27.352641611753313</v>
       </c>
       <c r="K16" s="102">
         <f t="shared" si="1"/>
@@ -27456,10 +27476,10 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>46.08961615588737</v>
+        <v>45.634138793298064</v>
       </c>
       <c r="C17">
-        <v>-57.607357863138446</v>
+        <v>-19.334907603560794</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -27468,16 +27488,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-112.84991680192979</v>
+        <v>28.442901519992802</v>
       </c>
       <c r="G17">
-        <v>72.874328219372046</v>
+        <v>170.91789903564108</v>
       </c>
       <c r="H17">
-        <v>-363.60863523390015</v>
+        <v>-347.43203523369914</v>
       </c>
       <c r="I17">
-        <v>33.038276481380422</v>
+        <v>27.820670181972446</v>
       </c>
       <c r="K17" s="102">
         <f t="shared" si="1"/>
@@ -27498,10 +27518,10 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>46.359011766778281</v>
+        <v>45.899322114278874</v>
       </c>
       <c r="C18">
-        <v>-59.407781661489309</v>
+        <v>-19.852526193801623</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -27510,16 +27530,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-113.60455688927641</v>
+        <v>28.631933310801969</v>
       </c>
       <c r="G18">
-        <v>73.263689006015056</v>
+        <v>171.8886940793775</v>
       </c>
       <c r="H18">
-        <v>-365.29635249574829</v>
+        <v>-349.04736689490124</v>
       </c>
       <c r="I18">
-        <v>33.603591434267457</v>
+        <v>28.297901463371772</v>
       </c>
       <c r="K18" s="102">
         <f t="shared" si="1"/>
@@ -27540,10 +27560,10 @@
         <v>45565</v>
       </c>
       <c r="B19">
-        <v>46.62840737766922</v>
+        <v>46.581423935949147</v>
       </c>
       <c r="C19">
-        <v>-61.097902729197358</v>
+        <v>-19.931504702215932</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -27552,16 +27572,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-114.35919697662302</v>
+        <v>29.337432345276966</v>
       </c>
       <c r="G19">
-        <v>73.678153357724113</v>
+        <v>175.88490667644419</v>
       </c>
       <c r="H19">
-        <v>-366.98933838588533</v>
+        <v>-350.66604986660371</v>
       </c>
       <c r="I19">
-        <v>34.180022012499421</v>
+        <v>28.336317445648149</v>
       </c>
       <c r="K19" s="102">
         <f t="shared" si="1"/>
@@ -27582,10 +27602,10 @@
         <v>45657</v>
       </c>
       <c r="B20">
-        <v>47.321344008295341</v>
+        <v>47.263525757619476</v>
       </c>
       <c r="C20">
-        <v>-61.288898732099966</v>
+        <v>-20.00810907918418</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -27594,16 +27614,16 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-117.17564309248451</v>
+        <v>30.042931379751963</v>
       </c>
       <c r="G20">
-        <v>75.384268025305346</v>
+        <v>179.26174446138884</v>
       </c>
       <c r="H20">
-        <v>-368.68583669488157</v>
+        <v>-352.28305718305586</v>
       </c>
       <c r="I20">
-        <v>34.226423302062813</v>
+        <v>28.378146871750857</v>
       </c>
       <c r="K20" s="102">
         <f t="shared" si="1"/>
@@ -27624,10 +27644,10 @@
         <v>45747</v>
       </c>
       <c r="B21">
-        <v>48.01428063892152</v>
+        <v>47.94562757928972</v>
       </c>
       <c r="C21">
-        <v>-61.472015968528012</v>
+        <v>-20.082339324706481</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -27636,16 +27656,16 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-119.74541306736364</v>
+        <v>30.748430414226959</v>
       </c>
       <c r="G21">
-        <v>76.748650818482247</v>
+        <v>181.86089298438924</v>
       </c>
       <c r="H21">
-        <v>-368.45135262334588</v>
+        <v>-353.87995663650565</v>
       </c>
       <c r="I21">
-        <v>34.27694756821063</v>
+        <v>28.424344747419582</v>
       </c>
       <c r="K21" s="102">
         <f t="shared" si="1"/>
@@ -27666,10 +27686,10 @@
         <v>45838</v>
       </c>
       <c r="B22">
-        <v>48.707217269547613</v>
+        <v>48.627729400959993</v>
       </c>
       <c r="C22">
-        <v>-61.647254438481667</v>
+        <v>-20.156569570228783</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -27678,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-122.56185918322512</v>
+        <v>31.453929448701956</v>
       </c>
       <c r="G22">
-        <v>77.858312857375722</v>
+        <v>183.75742117674554</v>
       </c>
       <c r="H22">
-        <v>-370.12502020975739</v>
+        <v>-355.46512650320386</v>
       </c>
       <c r="I22">
-        <v>34.3327483281833</v>
+        <v>28.474239122265658</v>
       </c>
       <c r="K22" s="102">
         <f t="shared" si="1"/>
@@ -27708,10 +27728,10 @@
         <v>45930</v>
       </c>
       <c r="B23">
-        <v>49.400153900173734</v>
+        <v>49.307005274555195</v>
       </c>
       <c r="C23">
-        <v>-61.822492908435265</v>
+        <v>-20.233531612277602</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -27720,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-125.37830529908683</v>
+        <v>31.979739400361268</v>
       </c>
       <c r="G23">
-        <v>78.668003154842609</v>
+        <v>184.64240235455236</v>
       </c>
       <c r="H23">
-        <v>-371.7863943301615</v>
+        <v>-357.0385667831506</v>
       </c>
       <c r="I23">
-        <v>34.393013957164499</v>
+        <v>28.533424637449741</v>
       </c>
       <c r="K23" s="102">
         <f t="shared" si="1"/>
@@ -27750,10 +27770,10 @@
         <v>46022</v>
       </c>
       <c r="B24">
-        <v>50.090219694107674</v>
+        <v>49.986281148150368</v>
       </c>
       <c r="C24">
-        <v>-62.007091660579448</v>
+        <v>-20.310493654326422</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -27762,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-127.47740866233153</v>
+        <v>32.50554935202058</v>
       </c>
       <c r="G24">
-        <v>79.045830743169063</v>
+        <v>185.8257989231065</v>
       </c>
       <c r="H24">
-        <v>-373.43547498455843</v>
+        <v>-358.60195313159608</v>
       </c>
       <c r="I24">
-        <v>34.464502021904309</v>
+        <v>28.597987176098513</v>
       </c>
       <c r="K24" s="102">
         <f t="shared" si="1"/>
@@ -31212,11 +31232,11 @@
       </c>
       <c r="D2" s="259">
         <f t="array" ref="D2:D23">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
-        <v>4.8999999999978172E-2</v>
+        <v>-35.750999999999976</v>
       </c>
       <c r="E2" s="259">
         <f t="array" ref="E2:E23">TRANSPOSE('add-ons calculations'!F43:AA43)</f>
-        <v>0</v>
+        <v>-5.7000000000000028</v>
       </c>
       <c r="F2" s="259">
         <f t="array" ref="F2:F23">TRANSPOSE('add-ons calculations nipas'!F41:AA41)</f>
@@ -31228,11 +31248,11 @@
       </c>
       <c r="H2" s="259">
         <f t="array" ref="H2:H23">TRANSPOSE('add-ons calculations'!F64:AA64)</f>
-        <v>0.57999999999992724</v>
+        <v>603.68000000000006</v>
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>0</v>
+        <v>65.492999999999967</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31246,7 +31266,7 @@
         <v>698.70615775001932</v>
       </c>
       <c r="D3" s="259">
-        <v>-35.750999999999976</v>
+        <v>-86.951000000000022</v>
       </c>
       <c r="E3" s="259">
         <v>-4.3825959008611193</v>
@@ -31258,10 +31278,10 @@
         <v>591.06441309996126</v>
       </c>
       <c r="H3" s="259">
-        <v>0.73599999999999</v>
+        <v>208.23599999999993</v>
       </c>
       <c r="I3" s="259">
-        <v>0</v>
+        <v>23.413999999999987</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31275,10 +31295,10 @@
         <v>735.77787802470243</v>
       </c>
       <c r="D4" s="259">
-        <v>-54.593681691845177</v>
+        <v>-74.668790726255111</v>
       </c>
       <c r="E4" s="259">
-        <v>-2.8001771349484841</v>
+        <v>-3.7832762292649704</v>
       </c>
       <c r="F4" s="259">
         <v>66.012511731550148</v>
@@ -31287,10 +31307,10 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>391.78358333333341</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I4" s="259">
-        <v>0</v>
+        <v>125.5636152868264</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31304,10 +31324,10 @@
         <v>767.5404900116622</v>
       </c>
       <c r="D5" s="259">
-        <v>-55.153337573248791</v>
+        <v>-83.796216356273817</v>
       </c>
       <c r="E5" s="259">
-        <v>-2.8288825740026482</v>
+        <v>-4.2315543175006098</v>
       </c>
       <c r="F5" s="259">
         <v>101.61723848447548</v>
@@ -31316,10 +31336,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>226.21220174709958</v>
+        <v>387.96950176555845</v>
       </c>
       <c r="I5" s="259">
-        <v>87.454570502826414</v>
+        <v>103.809555373839</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31333,10 +31353,10 @@
         <v>790.69510584290015</v>
       </c>
       <c r="D6" s="259">
-        <v>-55.951846589752222</v>
+        <v>-82.632024980574215</v>
       </c>
       <c r="E6" s="259">
-        <v>-2.8698390843673991</v>
+        <v>-4.1763953360549806</v>
       </c>
       <c r="F6" s="259">
         <v>137.50135897728978</v>
@@ -31345,10 +31365,10 @@
         <v>906.03001879956446</v>
       </c>
       <c r="H6" s="259">
-        <v>-425.7164982344417</v>
+        <v>-263.99839104983226</v>
       </c>
       <c r="I6" s="259">
-        <v>104.60367441070301</v>
+        <v>99.432482045412996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31362,10 +31382,10 @@
         <v>777.3682130439189</v>
       </c>
       <c r="D7" s="259">
-        <v>-56.695639249994201</v>
+        <v>-81.941881281215274</v>
       </c>
       <c r="E7" s="259">
-        <v>-2.907989125467509</v>
+        <v>-4.14432401327538</v>
       </c>
       <c r="F7" s="259">
         <v>144.44402858127864</v>
@@ -31374,10 +31394,10 @@
         <v>926.50683572140088</v>
       </c>
       <c r="H7" s="259">
-        <v>-367.1747243831656</v>
+        <v>-287.32230778657441</v>
       </c>
       <c r="I7" s="259">
-        <v>94.229777558424473</v>
+        <v>88.352027504066797</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -31403,10 +31423,10 @@
         <v>935.88801570004148</v>
       </c>
       <c r="H8" s="259">
-        <v>-442.99030778657436</v>
+        <v>-334.72051450560957</v>
       </c>
       <c r="I8" s="259">
-        <v>83.152512199130257</v>
+        <v>77.593706110606433</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -31432,10 +31452,10 @@
         <v>935.60252133929384</v>
       </c>
       <c r="H9" s="259">
-        <v>-444.67451262956337</v>
+        <v>-336.30233306180742</v>
       </c>
       <c r="I9" s="259">
-        <v>78.397392744450201</v>
+        <v>72.795455197427913</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -31461,10 +31481,10 @@
         <v>921.93178379942924</v>
       </c>
       <c r="H10" s="259">
-        <v>-446.33237433110821</v>
+        <v>-337.87409768650394</v>
       </c>
       <c r="I10" s="259">
-        <v>73.602356577807058</v>
+        <v>59.928177024695259</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -31490,10 +31510,10 @@
         <v>922.96679357866992</v>
       </c>
       <c r="H11" s="259">
-        <v>-447.97969877607562</v>
+        <v>-339.44251100070011</v>
       </c>
       <c r="I11" s="259">
-        <v>60.738306010595892</v>
+        <v>47.062676959411363</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -31519,10 +31539,10 @@
         <v>924.56059251132388</v>
       </c>
       <c r="H12" s="259">
-        <v>-366.5952695584798</v>
+        <v>-341.0159512806469</v>
       </c>
       <c r="I12" s="259">
-        <v>47.876046461255555</v>
+        <v>34.056951067957698</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -31548,10 +31568,10 @@
         <v>926.53654685838478</v>
       </c>
       <c r="H13" s="259">
-        <v>-368.24435021287672</v>
+        <v>-342.60447245784553</v>
       </c>
       <c r="I13" s="259">
-        <v>51.406664131078344</v>
+        <v>37.445842510045054</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -31577,10 +31597,10 @@
         <v>929.6074540197169</v>
       </c>
       <c r="H14" s="259">
-        <v>-369.90923675214009</v>
+        <v>-344.20807453229611</v>
       </c>
       <c r="I14" s="259">
-        <v>37.445842510045054</v>
+        <v>32.479535988951</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -31606,10 +31626,10 @@
         <v>939.00391731648051</v>
       </c>
       <c r="H15" s="259">
-        <v>-371.58992917626989</v>
+        <v>-345.82173053824783</v>
       </c>
       <c r="I15" s="259">
-        <v>32.479535988951</v>
+        <v>27.352641611753313</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -31635,10 +31655,10 @@
         <v>948.03277360151947</v>
       </c>
       <c r="H16" s="259">
-        <v>-363.60863523390015</v>
+        <v>-347.43203523369914</v>
       </c>
       <c r="I16" s="259">
-        <v>33.038276481380422</v>
+        <v>27.820670181972446</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -31664,10 +31684,10 @@
         <v>955.34762065860946</v>
       </c>
       <c r="H17" s="259">
-        <v>-365.29635249574829</v>
+        <v>-349.04736689490124</v>
       </c>
       <c r="I17" s="259">
-        <v>33.603591434267457</v>
+        <v>28.297901463371772</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -31693,10 +31713,10 @@
         <v>961.61183263262797</v>
       </c>
       <c r="H18" s="259">
-        <v>-366.98933838588533</v>
+        <v>-350.66604986660371</v>
       </c>
       <c r="I18" s="259">
-        <v>34.180022012499421</v>
+        <v>28.336317445648149</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -31722,10 +31742,10 @@
         <v>983.80559967852105</v>
       </c>
       <c r="H19" s="259">
-        <v>-368.68583669488157</v>
+        <v>-352.28305718305586</v>
       </c>
       <c r="I19" s="259">
-        <v>34.226423302062813</v>
+        <v>28.378146871750857</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -31751,10 +31771,10 @@
         <v>1002.5410989249847</v>
       </c>
       <c r="H20" s="259">
-        <v>-368.45135262334588</v>
+        <v>-353.87995663650565</v>
       </c>
       <c r="I20" s="259">
-        <v>34.27694756821063</v>
+        <v>28.424344747419582</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -31780,10 +31800,10 @@
         <v>1018.2130393556045</v>
       </c>
       <c r="H21" s="259">
-        <v>-370.12502020975739</v>
+        <v>-355.46512650320386</v>
       </c>
       <c r="I21" s="259">
-        <v>34.3327483281833</v>
+        <v>28.474239122265658</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -31809,10 +31829,10 @@
         <v>1030.4917377332347</v>
       </c>
       <c r="H22" s="259">
-        <v>-371.7863943301615</v>
+        <v>-357.0385667831506</v>
       </c>
       <c r="I22" s="259">
-        <v>34.393013957164499</v>
+        <v>28.533424637449741</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -31838,10 +31858,10 @@
         <v>1037.1068216073324</v>
       </c>
       <c r="H23" s="259">
-        <v>-373.43547498455843</v>
+        <v>-358.60195313159608</v>
       </c>
       <c r="I23" s="259">
-        <v>34.464502021904309</v>
+        <v>28.597987176098513</v>
       </c>
     </row>
   </sheetData>
@@ -32880,21 +32900,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33111,32 +33122,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33153,4 +33165,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA539E6E-7956-4C69-8E9B-C76ACF288C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59DE1C-8D89-47E7-9696-E5B57A3E0453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -3584,6 +3584,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3605,29 +3620,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15041,68 +15041,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="369" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="365"/>
-      <c r="B4" s="365"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="370" t="s">
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
+      <c r="L4" s="375"/>
+      <c r="M4" s="375"/>
+      <c r="N4" s="375"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="366" t="s">
+      <c r="C5" s="371" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
-      <c r="J5" s="368"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="372"/>
+      <c r="I5" s="372"/>
+      <c r="J5" s="373"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="369" t="s">
+      <c r="L5" s="374" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="340"/>
@@ -15113,16 +15113,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="372">
+      <c r="C6" s="365">
         <v>2020</v>
       </c>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="373"/>
-      <c r="J6" s="374"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="366"/>
+      <c r="I6" s="366"/>
+      <c r="J6" s="367"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15594,12 +15594,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="375" t="s">
+      <c r="K23" s="368" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="375"/>
-      <c r="M23" s="375"/>
-      <c r="N23" s="375"/>
+      <c r="L23" s="368"/>
+      <c r="M23" s="368"/>
+      <c r="N23" s="368"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15768,7 +15768,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="371" t="s">
+      <c r="I28" s="364" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15818,7 +15818,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="371"/>
+      <c r="I29" s="364"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15866,7 +15866,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="371"/>
+      <c r="I30" s="364"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15914,7 +15914,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="371"/>
+      <c r="I31" s="364"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15976,7 +15976,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="371" t="s">
+      <c r="I33" s="364" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16024,7 +16024,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="371"/>
+      <c r="I34" s="364"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16261,6 +16261,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16268,12 +16274,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16380,22 +16380,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="379" t="s">
+      <c r="E6" s="377" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="379"/>
-      <c r="N6" s="379"/>
-      <c r="O6" s="379"/>
-      <c r="P6" s="379"/>
-      <c r="Q6" s="379"/>
-      <c r="R6" s="379"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="377"/>
+      <c r="I6" s="377"/>
+      <c r="J6" s="377"/>
+      <c r="K6" s="377"/>
+      <c r="L6" s="377"/>
+      <c r="M6" s="377"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="377"/>
+      <c r="P6" s="377"/>
+      <c r="Q6" s="377"/>
+      <c r="R6" s="377"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="376" t="s">
@@ -17131,21 +17131,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="377" t="s">
+      <c r="H27" s="378" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="377"/>
-      <c r="J27" s="377"/>
-      <c r="K27" s="377"/>
-      <c r="L27" s="377"/>
-      <c r="M27" s="377"/>
-      <c r="N27" s="377"/>
-      <c r="O27" s="377"/>
-      <c r="P27" s="377"/>
-      <c r="Q27" s="377"/>
-      <c r="R27" s="377"/>
-      <c r="S27" s="377"/>
-      <c r="T27" s="377"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="378"/>
+      <c r="N27" s="378"/>
+      <c r="O27" s="378"/>
+      <c r="P27" s="378"/>
+      <c r="Q27" s="378"/>
+      <c r="R27" s="378"/>
+      <c r="S27" s="378"/>
+      <c r="T27" s="378"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17461,21 +17461,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="378" t="s">
+      <c r="F37" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="378"/>
-      <c r="H37" s="378"/>
-      <c r="I37" s="378"/>
-      <c r="J37" s="378"/>
-      <c r="K37" s="378"/>
-      <c r="L37" s="378"/>
-      <c r="M37" s="378"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="G37" s="379"/>
+      <c r="H37" s="379"/>
+      <c r="I37" s="379"/>
+      <c r="J37" s="379"/>
+      <c r="K37" s="379"/>
+      <c r="L37" s="379"/>
+      <c r="M37" s="379"/>
+      <c r="N37" s="379"/>
+      <c r="O37" s="379"/>
+      <c r="P37" s="379"/>
+      <c r="Q37" s="379"/>
+      <c r="R37" s="379"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17791,21 +17791,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="377" t="s">
+      <c r="F48" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="377"/>
-      <c r="H48" s="377"/>
-      <c r="I48" s="377"/>
-      <c r="J48" s="377"/>
-      <c r="K48" s="377"/>
-      <c r="L48" s="377"/>
-      <c r="M48" s="377"/>
-      <c r="N48" s="377"/>
-      <c r="O48" s="377"/>
-      <c r="P48" s="377"/>
-      <c r="Q48" s="377"/>
-      <c r="R48" s="377"/>
+      <c r="G48" s="378"/>
+      <c r="H48" s="378"/>
+      <c r="I48" s="378"/>
+      <c r="J48" s="378"/>
+      <c r="K48" s="378"/>
+      <c r="L48" s="378"/>
+      <c r="M48" s="378"/>
+      <c r="N48" s="378"/>
+      <c r="O48" s="378"/>
+      <c r="P48" s="378"/>
+      <c r="Q48" s="378"/>
+      <c r="R48" s="378"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18117,12 +18117,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18131,6 +18125,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22074,13 +22074,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
-  <dimension ref="A1:AX73"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I71" sqref="I71"/>
+      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22098,7 +22098,7 @@
     <col min="27" max="27" width="8.6328125" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="348" t="s">
         <v>206</v>
       </c>
@@ -22114,7 +22114,7 @@
       <c r="X1" s="340"/>
       <c r="Y1" s="340"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="350" t="s">
         <v>191</v>
       </c>
@@ -22125,7 +22125,7 @@
       <c r="I2" s="241"/>
       <c r="J2" s="356"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="351"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -22134,21 +22134,21 @@
       <c r="I3" s="241"/>
       <c r="J3" s="356"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="351"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="352"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C7" s="353" t="s">
         <v>160</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>199</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:49" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="106" t="s">
         <v>164</v>
       </c>
@@ -22291,1151 +22291,1151 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B10" s="86" t="s">
         <v>170</v>
       </c>
+      <c r="D10">
+        <v>156.16</v>
+      </c>
       <c r="E10">
-        <v>156.16</v>
+        <v>197.62799999999999</v>
       </c>
       <c r="F10">
-        <v>197.62799999999999</v>
+        <v>170.20699999999999</v>
       </c>
       <c r="G10">
-        <v>170.20699999999999</v>
+        <v>164.13699999999989</v>
       </c>
       <c r="H10">
-        <v>164.13699999999989</v>
+        <v>168.2833827902208</v>
       </c>
       <c r="I10">
-        <v>168.2833827902208</v>
+        <v>172.42976558044171</v>
       </c>
       <c r="J10">
-        <v>172.42976558044171</v>
+        <v>173.0148583315212</v>
       </c>
       <c r="K10">
-        <v>173.0148583315212</v>
+        <v>173.59995108260071</v>
       </c>
       <c r="L10">
-        <v>173.59995108260071</v>
+        <v>174.1850438336802</v>
       </c>
       <c r="M10">
-        <v>174.1850438336802</v>
+        <v>174.77013658475971</v>
       </c>
       <c r="N10">
-        <v>174.77013658475971</v>
+        <v>172.87701948733081</v>
       </c>
       <c r="O10">
-        <v>172.87701948733081</v>
+        <v>170.98390238990191</v>
       </c>
       <c r="P10">
-        <v>170.98390238990191</v>
+        <v>169.09078529247299</v>
       </c>
       <c r="Q10">
-        <v>169.09078529247299</v>
+        <v>167.19766819504409</v>
       </c>
       <c r="R10">
-        <v>167.19766819504409</v>
+        <v>168.18650468764571</v>
       </c>
       <c r="S10">
-        <v>168.18650468764571</v>
+        <v>169.1753411802471</v>
       </c>
       <c r="T10">
-        <v>169.1753411802471</v>
+        <v>170.1641776728485</v>
       </c>
       <c r="U10">
-        <v>170.1641776728485</v>
+        <v>171.15301416545</v>
       </c>
       <c r="V10">
-        <v>171.15301416545</v>
+        <v>173.69648926200901</v>
       </c>
       <c r="W10">
-        <v>173.69648926200901</v>
+        <v>176.23996435856819</v>
       </c>
       <c r="X10">
-        <v>176.23996435856819</v>
+        <v>178.78343945512711</v>
       </c>
       <c r="Y10">
-        <v>178.78343945512711</v>
+        <v>181.3269145516862</v>
       </c>
       <c r="Z10">
-        <v>181.3269145516862</v>
+        <v>183.85985203007041</v>
       </c>
       <c r="AA10">
-        <v>183.85985203007041</v>
+        <v>186.3927895084546</v>
       </c>
       <c r="AB10">
-        <v>186.3927895084546</v>
+        <v>188.9257269868389</v>
       </c>
       <c r="AC10">
-        <v>188.9257269868389</v>
+        <v>191.45866446522299</v>
       </c>
       <c r="AD10">
-        <v>191.45866446522299</v>
+        <v>194.36254309952051</v>
       </c>
       <c r="AE10">
-        <v>194.36254309952051</v>
+        <v>197.26642173381791</v>
       </c>
       <c r="AF10">
-        <v>197.26642173381791</v>
+        <v>200.17030036811531</v>
       </c>
       <c r="AG10">
-        <v>200.17030036811531</v>
+        <v>203.07417900241259</v>
       </c>
       <c r="AH10">
-        <v>203.07417900241259</v>
+        <v>206.00159731602</v>
       </c>
       <c r="AI10">
-        <v>206.00159731602</v>
+        <v>208.92901562962729</v>
       </c>
       <c r="AJ10">
-        <v>208.92901562962729</v>
+        <v>211.85643394323469</v>
       </c>
       <c r="AK10">
-        <v>211.85643394323469</v>
+        <v>214.7838522568419</v>
       </c>
       <c r="AL10">
-        <v>214.7838522568419</v>
+        <v>217.8087435385666</v>
       </c>
       <c r="AM10">
-        <v>217.8087435385666</v>
+        <v>220.83363482029131</v>
       </c>
       <c r="AN10">
-        <v>220.83363482029131</v>
+        <v>223.85852610201621</v>
       </c>
       <c r="AO10">
-        <v>223.85852610201621</v>
+        <v>226.88341738374069</v>
       </c>
       <c r="AP10">
-        <v>226.88341738374069</v>
+        <v>230.0749559980533</v>
       </c>
       <c r="AQ10">
-        <v>230.0749559980533</v>
+        <v>233.2664946123657</v>
       </c>
       <c r="AR10">
-        <v>233.2664946123657</v>
+        <v>236.45803322667831</v>
       </c>
       <c r="AS10">
-        <v>236.45803322667831</v>
+        <v>239.6495718409908</v>
       </c>
       <c r="AT10">
-        <v>239.6495718409908</v>
+        <v>242.96586225756681</v>
       </c>
       <c r="AU10">
-        <v>242.96586225756681</v>
+        <v>246.28215267414279</v>
       </c>
       <c r="AV10">
-        <v>246.28215267414279</v>
+        <v>249.59844309071909</v>
       </c>
       <c r="AW10">
-        <v>249.59844309071909</v>
-      </c>
-      <c r="AX10">
         <v>252.91473350729501</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B11" s="86" t="s">
         <v>171</v>
       </c>
+      <c r="D11">
+        <v>440</v>
+      </c>
       <c r="E11">
-        <v>736.59999999999991</v>
+        <v>363.8</v>
       </c>
       <c r="F11">
-        <v>582.79999999999995</v>
+        <v>243.1</v>
       </c>
       <c r="G11">
-        <v>341</v>
+        <v>216.8</v>
       </c>
       <c r="H11">
-        <v>287.69999999999987</v>
+        <v>205.08824545292171</v>
       </c>
       <c r="I11">
-        <v>249.4722454529217</v>
+        <v>194.54899559334319</v>
       </c>
       <c r="J11">
-        <v>238.93299559334321</v>
+        <v>197.82759010290039</v>
       </c>
       <c r="K11">
-        <v>241.82759010290039</v>
+        <v>201.1419882747505</v>
       </c>
       <c r="L11">
-        <v>245.1419882747505</v>
+        <v>204.49241388178211</v>
       </c>
       <c r="M11">
-        <v>248.49241388178211</v>
+        <v>205.5444242270961</v>
       </c>
       <c r="N11">
-        <v>249.5444242270961</v>
+        <v>215.81500173946711</v>
       </c>
       <c r="O11">
-        <v>259.81500173946711</v>
+        <v>226.09143780902031</v>
       </c>
       <c r="P11">
-        <v>226.09143780901999</v>
+        <v>236.37374708214861</v>
       </c>
       <c r="Q11">
-        <v>236.37374708214861</v>
+        <v>255.74027715387331</v>
       </c>
       <c r="R11">
-        <v>255.74027715387331</v>
+        <v>263.44759160026678</v>
       </c>
       <c r="S11">
-        <v>263.44759160026678</v>
+        <v>271.56345516923977</v>
       </c>
       <c r="T11">
-        <v>271.56345516923977</v>
+        <v>280.05072703146732</v>
       </c>
       <c r="U11">
-        <v>280.05072703146732</v>
+        <v>288.01802728313891</v>
       </c>
       <c r="V11">
-        <v>288.01802728313891</v>
+        <v>288.91839029917872</v>
       </c>
       <c r="W11">
-        <v>288.91839029917872</v>
+        <v>289.78161248589288</v>
       </c>
       <c r="X11">
-        <v>289.78161248589288</v>
+        <v>290.60769384328211</v>
       </c>
       <c r="Y11">
-        <v>290.60769384328211</v>
+        <v>291.43377520067099</v>
       </c>
       <c r="Z11">
-        <v>291.43377520067099</v>
+        <v>292.30398131342662</v>
       </c>
       <c r="AA11">
-        <v>292.30398131342662</v>
+        <v>293.17418742618202</v>
       </c>
       <c r="AB11">
-        <v>293.17418742618202</v>
+        <v>294.08153436826302</v>
       </c>
       <c r="AC11">
-        <v>294.08153436826302</v>
+        <v>294.98888131034357</v>
       </c>
       <c r="AD11">
-        <v>294.98888131034357</v>
+        <v>294.38010652389193</v>
       </c>
       <c r="AE11">
-        <v>294.38010652389193</v>
+        <v>293.77133173744051</v>
       </c>
       <c r="AF11">
-        <v>293.77133173744051</v>
+        <v>293.1996977803143</v>
       </c>
       <c r="AG11">
-        <v>293.1996977803143</v>
+        <v>292.66520465251352</v>
       </c>
       <c r="AH11">
-        <v>292.66520465251352</v>
+        <v>292.03214251474122</v>
       </c>
       <c r="AI11">
-        <v>292.03214251474122</v>
+        <v>291.39908037696858</v>
       </c>
       <c r="AJ11">
-        <v>291.39908037696858</v>
+        <v>290.80315906852138</v>
       </c>
       <c r="AK11">
-        <v>290.80315906852138</v>
+        <v>290.20723776007452</v>
       </c>
       <c r="AL11">
-        <v>290.20723776007452</v>
+        <v>289.24030329381378</v>
       </c>
       <c r="AM11">
-        <v>289.24030329381378</v>
+        <v>288.27336882755282</v>
       </c>
       <c r="AN11">
-        <v>288.27336882755282</v>
+        <v>287.30643436129151</v>
       </c>
       <c r="AO11">
-        <v>287.30643436129151</v>
+        <v>286.37664072435621</v>
       </c>
       <c r="AP11">
-        <v>286.37664072435621</v>
+        <v>284.82331709063999</v>
       </c>
       <c r="AQ11">
-        <v>284.82331709063999</v>
+        <v>283.30713428624921</v>
       </c>
       <c r="AR11">
-        <v>283.30713428624921</v>
+        <v>281.86523314050908</v>
       </c>
       <c r="AS11">
-        <v>281.86523314050908</v>
+        <v>280.49761365341982</v>
       </c>
       <c r="AT11">
-        <v>280.49761365341982</v>
+        <v>278.68189565661112</v>
       </c>
       <c r="AU11">
-        <v>278.68189565661112</v>
+        <v>276.94045931845392</v>
       </c>
       <c r="AV11">
-        <v>276.94045931845392</v>
+        <v>275.31044546827241</v>
       </c>
       <c r="AW11">
-        <v>275.31044546827241</v>
-      </c>
-      <c r="AX11">
         <v>273.7175724474165</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
+      <c r="D12">
+        <v>1779.8</v>
+      </c>
       <c r="E12">
-        <v>1779.8</v>
+        <v>1871.3</v>
       </c>
       <c r="F12">
-        <v>1871.3</v>
+        <v>1907.1</v>
       </c>
       <c r="G12">
-        <v>1907.1</v>
+        <v>1958.3</v>
       </c>
       <c r="H12">
-        <v>1958.3</v>
+        <v>1978.3751090344099</v>
       </c>
       <c r="I12">
-        <v>1978.3751090344099</v>
+        <v>2007.0179878174349</v>
       </c>
       <c r="J12">
-        <v>2007.0179878174349</v>
+        <v>2033.6981662082569</v>
       </c>
       <c r="K12">
-        <v>2033.6981662082569</v>
+        <v>2058.944408239478</v>
       </c>
       <c r="L12">
-        <v>2058.944408239478</v>
+        <v>2079.7902580671739</v>
       </c>
       <c r="M12">
-        <v>2079.7902580671739</v>
+        <v>2102.1686273791929</v>
       </c>
       <c r="N12">
-        <v>2102.1686273791929</v>
+        <v>2124.2512473170441</v>
       </c>
       <c r="O12">
-        <v>2124.2512473170441</v>
+        <v>2144.5772952143848</v>
       </c>
       <c r="P12">
-        <v>2144.5772952143848</v>
+        <v>2167.3231107185511</v>
       </c>
       <c r="Q12">
-        <v>2167.3231107185511</v>
+        <v>2191.2429616171412</v>
       </c>
       <c r="R12">
-        <v>2191.2429616171412</v>
+        <v>2215.8977049000259</v>
       </c>
       <c r="S12">
-        <v>2215.8977049000259</v>
+        <v>2239.1633223345489</v>
       </c>
       <c r="T12">
-        <v>2239.1633223345489</v>
+        <v>2263.8359898219292</v>
       </c>
       <c r="U12">
-        <v>2263.8359898219292</v>
+        <v>2288.696861456508</v>
       </c>
       <c r="V12">
-        <v>2288.696861456508</v>
+        <v>2314.5704506450529</v>
       </c>
       <c r="W12">
-        <v>2314.5704506450529</v>
+        <v>2339.8704652897591</v>
       </c>
       <c r="X12">
-        <v>2339.8704652897591</v>
+        <v>2365.3049114681771</v>
       </c>
       <c r="Y12">
-        <v>2365.3049114681771</v>
+        <v>2390.1837073072502</v>
       </c>
       <c r="Z12">
-        <v>2390.1837073072502</v>
+        <v>2414.937033714858</v>
       </c>
       <c r="AA12">
-        <v>2414.937033714858</v>
+        <v>2439.8964884741581</v>
       </c>
       <c r="AB12">
-        <v>2439.8964884741581</v>
+        <v>2464.336141303103</v>
       </c>
       <c r="AC12">
-        <v>2464.336141303103</v>
+        <v>2488.5158931668711</v>
       </c>
       <c r="AD12">
-        <v>2488.5158931668711</v>
+        <v>2512.2565020205111</v>
       </c>
       <c r="AE12">
-        <v>2512.2565020205111</v>
+        <v>2535.665513090993</v>
       </c>
       <c r="AF12">
-        <v>2535.665513090993</v>
+        <v>2559.083486263723</v>
       </c>
       <c r="AG12">
-        <v>2559.083486263723</v>
+        <v>2582.8330572196101</v>
       </c>
       <c r="AH12">
-        <v>2582.8330572196101</v>
+        <v>2607.0934680036062</v>
       </c>
       <c r="AI12">
-        <v>2607.0934680036062</v>
+        <v>2631.766135490986</v>
       </c>
       <c r="AJ12">
-        <v>2631.766135490986</v>
+        <v>2656.7704007615239</v>
       </c>
       <c r="AK12">
-        <v>2656.7704007615239</v>
+        <v>2681.7298555208249</v>
       </c>
       <c r="AL12">
-        <v>2681.7298555208249</v>
+        <v>2706.7878934048481</v>
       </c>
       <c r="AM12">
-        <v>2706.7878934048481</v>
+        <v>2731.9265902090979</v>
       </c>
       <c r="AN12">
-        <v>2731.9265902090979</v>
+        <v>2757.0204765021122</v>
       </c>
       <c r="AO12">
-        <v>2757.0204765021122</v>
+        <v>2782.0157796704029</v>
       </c>
       <c r="AP12">
-        <v>2782.0157796704029</v>
+        <v>2807.2440974971282</v>
       </c>
       <c r="AQ12">
-        <v>2807.2440974971282</v>
+        <v>2832.5441121418339</v>
       </c>
       <c r="AR12">
-        <v>2832.5441121418339</v>
+        <v>2858.1488382629541</v>
       </c>
       <c r="AS12">
-        <v>2858.1488382629541</v>
+        <v>2884.2464800076882</v>
       </c>
       <c r="AT12">
-        <v>2884.2464800076882</v>
+        <v>2910.8011889670452</v>
       </c>
       <c r="AU12">
-        <v>2910.8011889670452</v>
+        <v>2937.8756998567569</v>
       </c>
       <c r="AV12">
-        <v>2937.8756998567569</v>
+        <v>2965.0487938711908</v>
       </c>
       <c r="AW12">
-        <v>2965.0487938711908</v>
-      </c>
-      <c r="AX12">
         <v>2992.3742436238322</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B13" s="86" t="s">
         <v>173</v>
       </c>
+      <c r="D13">
+        <v>54.2</v>
+      </c>
       <c r="E13">
-        <v>54.2</v>
+        <v>90.2</v>
       </c>
       <c r="F13">
-        <v>90.2</v>
+        <v>95.9</v>
       </c>
       <c r="G13">
         <v>95.9</v>
       </c>
       <c r="H13">
-        <v>95.9</v>
+        <v>96.883099094316492</v>
       </c>
       <c r="I13">
-        <v>96.883099094316492</v>
+        <v>98.285770837814454</v>
       </c>
       <c r="J13">
-        <v>98.285770837814454</v>
+        <v>99.592327089502035</v>
       </c>
       <c r="K13">
-        <v>99.592327089502035</v>
+        <v>100.82866197730991</v>
       </c>
       <c r="L13">
-        <v>100.82866197730991</v>
+        <v>101.8495050547117</v>
       </c>
       <c r="M13">
-        <v>101.8495050547117</v>
+        <v>102.94539721476001</v>
       </c>
       <c r="N13">
-        <v>102.94539721476001</v>
+        <v>104.0268062185081</v>
       </c>
       <c r="O13">
-        <v>104.0268062185081</v>
+        <v>105.0221940515036</v>
       </c>
       <c r="P13">
-        <v>105.0221940515036</v>
+        <v>106.1360804360461</v>
       </c>
       <c r="Q13">
-        <v>106.1360804360461</v>
+        <v>107.30746056226521</v>
       </c>
       <c r="R13">
-        <v>107.30746056226521</v>
+        <v>108.5148291374726</v>
       </c>
       <c r="S13">
-        <v>108.5148291374726</v>
+        <v>109.6541707664215</v>
       </c>
       <c r="T13">
-        <v>109.6541707664215</v>
+        <v>110.8624171086775</v>
       </c>
       <c r="U13">
-        <v>110.8624171086775</v>
+        <v>112.07988000494259</v>
       </c>
       <c r="V13">
-        <v>112.07988000494259</v>
+        <v>113.3469367394478</v>
       </c>
       <c r="W13">
-        <v>113.3469367394478</v>
+        <v>114.58590492840121</v>
       </c>
       <c r="X13">
-        <v>114.58590492840121</v>
+        <v>115.83145637021821</v>
       </c>
       <c r="Y13">
-        <v>115.83145637021821</v>
+        <v>117.0497970335318</v>
       </c>
       <c r="Z13">
-        <v>117.0497970335318</v>
+        <v>118.261993327506</v>
       </c>
       <c r="AA13">
-        <v>118.261993327506</v>
+        <v>119.4842839425379</v>
       </c>
       <c r="AB13">
-        <v>119.4842839425379</v>
+        <v>120.68111931316329</v>
       </c>
       <c r="AC13">
-        <v>120.68111931316329</v>
+        <v>121.8652270615856</v>
       </c>
       <c r="AD13">
-        <v>121.8652270615856</v>
+        <v>123.0278295173197</v>
       </c>
       <c r="AE13">
-        <v>123.0278295173197</v>
+        <v>124.1741932826566</v>
       </c>
       <c r="AF13">
-        <v>124.1741932826566</v>
+        <v>125.3209959315177</v>
       </c>
       <c r="AG13">
-        <v>125.3209959315177</v>
+        <v>126.4840372707761</v>
       </c>
       <c r="AH13">
-        <v>126.4840372707761</v>
+        <v>127.6720949709166</v>
       </c>
       <c r="AI13">
-        <v>127.6720949709166</v>
+        <v>128.88034131317249</v>
       </c>
       <c r="AJ13">
-        <v>128.88034131317249</v>
+        <v>130.10482634582559</v>
       </c>
       <c r="AK13">
-        <v>130.10482634582559</v>
+        <v>131.3271169608575</v>
       </c>
       <c r="AL13">
-        <v>131.3271169608575</v>
+        <v>132.55423529465611</v>
       </c>
       <c r="AM13">
-        <v>132.55423529465611</v>
+        <v>133.78530358017301</v>
       </c>
       <c r="AN13">
-        <v>133.78530358017301</v>
+        <v>135.01417744806861</v>
       </c>
       <c r="AO13">
-        <v>135.01417744806861</v>
+        <v>136.23822359719739</v>
       </c>
       <c r="AP13">
-        <v>136.23822359719739</v>
+        <v>137.47368071795671</v>
       </c>
       <c r="AQ13">
-        <v>137.47368071795671</v>
+        <v>138.71264890691</v>
       </c>
       <c r="AR13">
-        <v>138.71264890691</v>
+        <v>139.96653913568781</v>
       </c>
       <c r="AS13">
-        <v>139.96653913568781</v>
+        <v>141.24456795829931</v>
       </c>
       <c r="AT13">
-        <v>141.24456795829931</v>
+        <v>142.54497984064739</v>
       </c>
       <c r="AU13">
-        <v>142.54497984064739</v>
+        <v>143.8708469674018</v>
       </c>
       <c r="AV13">
-        <v>143.8708469674018</v>
+        <v>145.2015418129231</v>
       </c>
       <c r="AW13">
-        <v>145.2015418129231</v>
-      </c>
-      <c r="AX13">
         <v>146.53969767835659</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
+      <c r="D14">
+        <v>1336.74</v>
+      </c>
       <c r="E14">
-        <v>1336.74</v>
+        <v>1328.7719999999999</v>
       </c>
       <c r="F14">
-        <v>1328.7719999999999</v>
+        <v>1372.7929999999999</v>
       </c>
       <c r="G14">
-        <v>1372.7929999999999</v>
+        <v>1403.2629999999999</v>
       </c>
       <c r="H14">
-        <v>1403.2629999999999</v>
+        <v>1394.63952711825</v>
       </c>
       <c r="I14">
-        <v>1561.0795271182501</v>
+        <v>1386.0160542364999</v>
       </c>
       <c r="J14">
-        <v>1552.4560542365</v>
+        <v>1416.247429866125</v>
       </c>
       <c r="K14">
-        <v>1499.467429866125</v>
+        <v>1446.4788054957489</v>
       </c>
       <c r="L14">
-        <v>1506.8658054957491</v>
+        <v>1476.710181125374</v>
       </c>
       <c r="M14">
-        <v>1537.0971811253739</v>
+        <v>1506.9415567549979</v>
       </c>
       <c r="N14">
-        <v>1567.3285567549981</v>
+        <v>1519.7601557667949</v>
       </c>
       <c r="O14">
-        <v>1580.1471557667951</v>
+        <v>1532.578754778594</v>
       </c>
       <c r="P14">
-        <v>1536.385754778594</v>
+        <v>1545.397353790391</v>
       </c>
       <c r="Q14">
-        <v>1549.204353790391</v>
+        <v>1558.2159528021889</v>
       </c>
       <c r="R14">
-        <v>1562.0229528021889</v>
+        <v>1568.782547736397</v>
       </c>
       <c r="S14">
-        <v>1572.589547736397</v>
+        <v>1579.349142670605</v>
       </c>
       <c r="T14">
-        <v>1580.1431426706049</v>
+        <v>1589.9157376048131</v>
       </c>
       <c r="U14">
-        <v>1590.709737604813</v>
+        <v>1600.4823325390209</v>
       </c>
       <c r="V14">
-        <v>1601.276332539021</v>
+        <v>1639.9186754518039</v>
       </c>
       <c r="W14">
-        <v>1640.712675451804</v>
+        <v>1679.3550183645871</v>
       </c>
       <c r="X14">
-        <v>1676.695018364587</v>
+        <v>1718.7913612773691</v>
       </c>
       <c r="Y14">
-        <v>1716.131361277369</v>
+        <v>1758.2277041901521</v>
       </c>
       <c r="Z14">
-        <v>1755.567704190152</v>
+        <v>1787.619695599499</v>
       </c>
       <c r="AA14">
-        <v>1784.9596955994989</v>
+        <v>1817.0116870088459</v>
       </c>
       <c r="AB14">
-        <v>1817.0116870088459</v>
+        <v>1846.403678418194</v>
       </c>
       <c r="AC14">
-        <v>1846.403678418194</v>
+        <v>1875.7956698275409</v>
       </c>
       <c r="AD14">
-        <v>1875.7956698275409</v>
+        <v>1908.214872793631</v>
       </c>
       <c r="AE14">
-        <v>1908.214872793631</v>
+        <v>1940.63407575972</v>
       </c>
       <c r="AF14">
-        <v>1940.63407575972</v>
+        <v>1973.0532787258101</v>
       </c>
       <c r="AG14">
-        <v>1973.0532787258101</v>
+        <v>2005.472481691899</v>
       </c>
       <c r="AH14">
-        <v>2005.472481691899</v>
+        <v>2057.1759873287519</v>
       </c>
       <c r="AI14">
-        <v>2057.1759873287519</v>
+        <v>2108.879492965606</v>
       </c>
       <c r="AJ14">
-        <v>2108.879492965606</v>
+        <v>2160.5829986024601</v>
       </c>
       <c r="AK14">
-        <v>2160.5829986024601</v>
+        <v>2212.2865042393132</v>
       </c>
       <c r="AL14">
-        <v>2212.2865042393132</v>
+        <v>2211.5343138466092</v>
       </c>
       <c r="AM14">
-        <v>2211.5343138466092</v>
+        <v>2210.7821234539051</v>
       </c>
       <c r="AN14">
-        <v>2210.7821234539051</v>
+        <v>2210.0299330612011</v>
       </c>
       <c r="AO14">
-        <v>2210.0299330612011</v>
+        <v>2209.2777426684961</v>
       </c>
       <c r="AP14">
-        <v>2209.2777426684961</v>
+        <v>2261.6493087725662</v>
       </c>
       <c r="AQ14">
-        <v>2261.6493087725662</v>
+        <v>2314.0208748766349</v>
       </c>
       <c r="AR14">
-        <v>2314.0208748766349</v>
+        <v>2366.392440980705</v>
       </c>
       <c r="AS14">
-        <v>2366.392440980705</v>
+        <v>2418.7640070847742</v>
       </c>
       <c r="AT14">
-        <v>2418.7640070847742</v>
+        <v>2464.3652051309859</v>
       </c>
       <c r="AU14">
-        <v>2464.3652051309859</v>
+        <v>2509.9664031771981</v>
       </c>
       <c r="AV14">
-        <v>2509.9664031771981</v>
+        <v>2555.5676012234089</v>
       </c>
       <c r="AW14">
-        <v>2555.5676012234089</v>
-      </c>
-      <c r="AX14">
         <v>2601.1687992696211</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B15" s="86" t="s">
         <v>166</v>
       </c>
+      <c r="D15">
+        <v>1828.5000000000009</v>
+      </c>
       <c r="E15">
-        <v>3694.6000000000008</v>
+        <v>1861.4</v>
       </c>
       <c r="F15">
-        <v>2433.1999999999998</v>
+        <v>1756.1999999999989</v>
       </c>
       <c r="G15">
-        <v>1959.6999999999989</v>
+        <v>1808.7</v>
       </c>
       <c r="H15">
-        <v>4215.9000000000005</v>
+        <v>1629.356357104331</v>
       </c>
       <c r="I15">
-        <v>3373.426597104331</v>
+        <v>1501.6652887165669</v>
       </c>
       <c r="J15">
-        <v>2112.8103287165659</v>
+        <v>1514.272945247701</v>
       </c>
       <c r="K15">
-        <v>1607.2419452477011</v>
+        <v>1515.6150242949509</v>
       </c>
       <c r="L15">
-        <v>1668.6360242949511</v>
+        <v>1509.926416318757</v>
       </c>
       <c r="M15">
-        <v>1662.947416318757</v>
+        <v>1493.7178340556329</v>
       </c>
       <c r="N15">
-        <v>1646.738834055632</v>
+        <v>1512.9609535468801</v>
       </c>
       <c r="O15">
-        <v>1665.98195354688</v>
+        <v>1522.99399388232</v>
       </c>
       <c r="P15">
-        <v>1537.7289938823201</v>
+        <v>1526.525817874995</v>
       </c>
       <c r="Q15">
-        <v>1541.2608178749949</v>
+        <v>1522.5832732221379</v>
       </c>
       <c r="R15">
-        <v>1537.318273222138</v>
+        <v>1530.285602569978</v>
       </c>
       <c r="S15">
-        <v>1545.0206025699781</v>
+        <v>1538.937335064132</v>
       </c>
       <c r="T15">
-        <v>1545.1543350641321</v>
+        <v>1547.192951576636</v>
       </c>
       <c r="U15">
-        <v>1553.4099515766361</v>
+        <v>1555.9808389633261</v>
       </c>
       <c r="V15">
-        <v>1562.1978389633259</v>
+        <v>1592.1555871790999</v>
       </c>
       <c r="W15">
-        <v>1598.3725871791</v>
+        <v>1622.7235946783901</v>
       </c>
       <c r="X15">
-        <v>1627.3015946783901</v>
+        <v>1646.2517581859961</v>
       </c>
       <c r="Y15">
-        <v>1650.8297581859961</v>
+        <v>1663.4196210501891</v>
       </c>
       <c r="Z15">
-        <v>1667.9976210501891</v>
+        <v>1671.430699166094</v>
       </c>
       <c r="AA15">
-        <v>1676.0086991660939</v>
+        <v>1682.1431104472849</v>
       </c>
       <c r="AB15">
-        <v>1682.1431104472849</v>
+        <v>1694.6607802102719</v>
       </c>
       <c r="AC15">
-        <v>1694.6607802102719</v>
+        <v>1709.3896382183029</v>
       </c>
       <c r="AD15">
-        <v>1709.3896382183029</v>
+        <v>1722.372615576626</v>
       </c>
       <c r="AE15">
-        <v>1722.372615576626</v>
+        <v>1735.0429474429729</v>
       </c>
       <c r="AF15">
-        <v>1735.0429474429729</v>
+        <v>1746.4953393081139</v>
       </c>
       <c r="AG15">
-        <v>1746.4953393081139</v>
+        <v>1757.1882121565191</v>
       </c>
       <c r="AH15">
-        <v>1757.1882121565191</v>
+        <v>1788.9509959744839</v>
       </c>
       <c r="AI15">
-        <v>1788.9509959744839</v>
+        <v>1816.7189541257289</v>
       </c>
       <c r="AJ15">
-        <v>1816.7189541257289</v>
+        <v>1839.6922791598031</v>
       </c>
       <c r="AK15">
-        <v>1839.6922791598031</v>
+        <v>1858.259733230635</v>
       </c>
       <c r="AL15">
-        <v>1858.259733230635</v>
+        <v>1832.4294189532291</v>
       </c>
       <c r="AM15">
-        <v>1832.4294189532291</v>
+        <v>1818.576749321116</v>
       </c>
       <c r="AN15">
-        <v>1818.576749321116</v>
+        <v>1816.4404652627579</v>
       </c>
       <c r="AO15">
-        <v>1816.4404652627579</v>
+        <v>1826.107622074454</v>
       </c>
       <c r="AP15">
-        <v>1826.107622074454</v>
+        <v>1883.521840106393</v>
       </c>
       <c r="AQ15">
-        <v>1883.521840106393</v>
+        <v>1928.497184954686</v>
       </c>
       <c r="AR15">
-        <v>1928.497184954686</v>
+        <v>1962.138859372219</v>
       </c>
       <c r="AS15">
-        <v>1962.138859372219</v>
+        <v>1983.801049724259</v>
       </c>
       <c r="AT15">
-        <v>1983.801049724259</v>
+        <v>1944.7885028241169</v>
       </c>
       <c r="AU15">
-        <v>1944.7885028241169</v>
+        <v>1906.4485972733521</v>
       </c>
       <c r="AV15">
-        <v>1906.4485972733521</v>
+        <v>1870.239333659976</v>
       </c>
       <c r="AW15">
-        <v>1870.239333659976</v>
-      </c>
-      <c r="AX15">
         <v>1835.4218257479581</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B16" s="86" t="s">
         <v>169</v>
       </c>
+      <c r="D16">
+        <v>1085.9000000000001</v>
+      </c>
       <c r="E16">
-        <v>1085.9000000000001</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="F16">
-        <v>1212.9000000000001</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="G16">
-        <v>609.79999999999995</v>
+        <v>402.3</v>
       </c>
       <c r="H16">
-        <v>402.3</v>
+        <v>404.18538158623392</v>
       </c>
       <c r="I16">
-        <v>567.87138158623384</v>
+        <v>406.11408156777497</v>
       </c>
       <c r="J16">
-        <v>569.80008156777501</v>
+        <v>408.08197438316557</v>
       </c>
       <c r="K16">
-        <v>489.92497438316559</v>
+        <v>410.07255778657441</v>
       </c>
       <c r="L16">
-        <v>520.32055778657434</v>
+        <v>412.05076450560961</v>
       </c>
       <c r="M16">
-        <v>522.2987645056096</v>
+        <v>413.998029513711</v>
       </c>
       <c r="N16">
-        <v>524.24602951371094</v>
+        <v>415.93291783743882</v>
       </c>
       <c r="O16">
-        <v>526.18091783743887</v>
+        <v>417.86368059970891</v>
       </c>
       <c r="P16">
-        <v>430.58968059970891</v>
+        <v>419.80063170416571</v>
       </c>
       <c r="Q16">
-        <v>432.52663170416571</v>
+        <v>421.75614783518279</v>
       </c>
       <c r="R16">
-        <v>434.48214783518279</v>
+        <v>423.7302289927602</v>
       </c>
       <c r="S16">
-        <v>436.4562289927602</v>
+        <v>425.71668683471103</v>
       </c>
       <c r="T16">
-        <v>427.08168683471098</v>
+        <v>427.69901911520401</v>
       </c>
       <c r="U16">
-        <v>429.06401911520402</v>
+        <v>429.68753973788392</v>
       </c>
       <c r="V16">
-        <v>431.05253973788388</v>
+        <v>431.68018592202162</v>
       </c>
       <c r="W16">
-        <v>433.04518592202157</v>
+        <v>433.67076932543029</v>
       </c>
       <c r="X16">
-        <v>432.76976932543027</v>
+        <v>435.63659936009208</v>
       </c>
       <c r="Y16">
-        <v>434.73559936009212</v>
+        <v>437.58798992965131</v>
       </c>
       <c r="Z16">
-        <v>436.6869899296513</v>
+        <v>439.52494103410811</v>
       </c>
       <c r="AA16">
-        <v>438.6239410341081</v>
+        <v>441.44951545419133</v>
       </c>
       <c r="AB16">
-        <v>441.44951545419133</v>
+        <v>443.35552484771432</v>
       </c>
       <c r="AC16">
-        <v>443.35552484771432</v>
+        <v>445.25947146050851</v>
       </c>
       <c r="AD16">
-        <v>445.25947146050851</v>
+        <v>447.16548085403139</v>
       </c>
       <c r="AE16">
-        <v>447.16548085403139</v>
+        <v>449.0735530282833</v>
       </c>
       <c r="AF16">
-        <v>449.0735530282833</v>
+        <v>450.98368798326419</v>
       </c>
       <c r="AG16">
-        <v>450.98368798326419</v>
+        <v>452.90619962261849</v>
       </c>
       <c r="AH16">
-        <v>452.90619962261849</v>
+        <v>454.83283682343068</v>
       </c>
       <c r="AI16">
-        <v>454.83283682343068</v>
+        <v>456.76772514715861</v>
       </c>
       <c r="AJ16">
-        <v>456.76772514715861</v>
+        <v>458.72736683963342</v>
       </c>
       <c r="AK16">
-        <v>458.72736683963342</v>
+        <v>460.70763633939748</v>
       </c>
       <c r="AL16">
-        <v>460.70763633939748</v>
+        <v>462.71059642718001</v>
       </c>
       <c r="AM16">
-        <v>462.71059642718001</v>
+        <v>464.73212154152247</v>
       </c>
       <c r="AN16">
-        <v>464.73212154152247</v>
+        <v>466.76808612096738</v>
       </c>
       <c r="AO16">
-        <v>466.76808612096738</v>
+        <v>468.80198791968348</v>
       </c>
       <c r="AP16">
-        <v>468.80198791968348</v>
+        <v>470.83176415694169</v>
       </c>
       <c r="AQ16">
-        <v>470.83176415694169</v>
+        <v>472.86360317492881</v>
       </c>
       <c r="AR16">
-        <v>472.86360317492881</v>
+        <v>474.89544219291588</v>
       </c>
       <c r="AS16">
-        <v>474.89544219291588</v>
+        <v>476.92728121090312</v>
       </c>
       <c r="AT16">
-        <v>476.92728121090312</v>
+        <v>478.96530857107712</v>
       </c>
       <c r="AU16">
-        <v>478.96530857107712</v>
+        <v>481.00539871197992</v>
       </c>
       <c r="AV16">
-        <v>481.00539871197992</v>
+        <v>483.04961441434068</v>
       </c>
       <c r="AW16">
-        <v>483.04961441434068</v>
-      </c>
-      <c r="AX16">
         <v>485.09176733597252</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>195</v>
       </c>
+      <c r="D17">
+        <v>884.2600000000001</v>
+      </c>
       <c r="E17">
-        <v>321.35000000000002</v>
+        <v>242.12799999999999</v>
       </c>
       <c r="F17">
-        <v>291.39999999999998</v>
+        <v>225.90700000000001</v>
       </c>
       <c r="G17">
-        <v>284.15100000000001</v>
+        <v>260.73700000000002</v>
       </c>
       <c r="H17">
-        <v>357.63880399999999</v>
+        <v>232.07518871317359</v>
       </c>
       <c r="I17">
-        <v>232.07518871317359</v>
+        <v>215.720203842161</v>
       </c>
       <c r="J17">
-        <v>215.720203842161</v>
+        <v>220.89139620745101</v>
       </c>
       <c r="K17">
-        <v>220.89139620745101</v>
+        <v>226.76914626180869</v>
       </c>
       <c r="L17">
-        <v>226.76914626180869</v>
+        <v>232.32795235033251</v>
       </c>
       <c r="M17">
-        <v>232.32795235033251</v>
+        <v>237.9298898973548</v>
       </c>
       <c r="N17">
-        <v>237.9298898973548</v>
+        <v>251.6040694504666</v>
       </c>
       <c r="O17">
-        <v>251.6040694504666</v>
+        <v>265.27969850165113</v>
       </c>
       <c r="P17">
-        <v>265.27969850165113</v>
+        <v>279.09879389494898</v>
       </c>
       <c r="Q17">
-        <v>279.09879389494898</v>
+        <v>293.05961551598227</v>
       </c>
       <c r="R17">
-        <v>293.05961551598227</v>
+        <v>298.02592203707633</v>
       </c>
       <c r="S17">
-        <v>298.02592203707633</v>
+        <v>303.15281641427401</v>
       </c>
       <c r="T17">
-        <v>303.15281641427401</v>
+        <v>308.34003676535349</v>
       </c>
       <c r="U17">
-        <v>308.34003676535349</v>
+        <v>313.62925193845189</v>
       </c>
       <c r="V17">
-        <v>313.62925193845189</v>
+        <v>314.05502117082477</v>
       </c>
       <c r="W17">
-        <v>314.05502117082477</v>
+        <v>314.5186220365847</v>
       </c>
       <c r="X17">
-        <v>314.5186220365847</v>
+        <v>315.03063898617683</v>
       </c>
       <c r="Y17">
-        <v>315.03063898617683</v>
+        <v>315.58362470772079</v>
       </c>
       <c r="Z17">
-        <v>315.58362470772079</v>
+        <v>316.2395853229205</v>
       </c>
       <c r="AA17">
-        <v>316.2395853229205</v>
+        <v>316.95514017513671</v>
       </c>
       <c r="AB17">
-        <v>316.95514017513671</v>
+        <v>317.71048621778692</v>
       </c>
       <c r="AC17">
-        <v>317.71048621778692</v>
+        <v>318.55415230022101</v>
       </c>
       <c r="AD17">
-        <v>318.55415230022101</v>
+        <v>318.29850133827199</v>
       </c>
       <c r="AE17">
-        <v>318.29850133827199</v>
+        <v>318.13366691457782</v>
       </c>
       <c r="AF17">
-        <v>318.13366691457782</v>
+        <v>318.04565082439819</v>
       </c>
       <c r="AG17">
-        <v>318.04565082439819</v>
+        <v>318.06410134177349</v>
       </c>
       <c r="AH17">
-        <v>318.06410134177349</v>
+        <v>318.09729229239042</v>
       </c>
       <c r="AI17">
-        <v>318.09729229239042</v>
+        <v>318.17786928038868</v>
       </c>
       <c r="AJ17">
-        <v>318.17786928038868</v>
+        <v>318.36379279589238</v>
       </c>
       <c r="AK17">
-        <v>318.36379279589238</v>
+        <v>318.64707655433722</v>
       </c>
       <c r="AL17">
-        <v>318.64707655433722</v>
+        <v>318.72234084172197</v>
       </c>
       <c r="AM17">
-        <v>318.72234084172197</v>
+        <v>318.86952061123691</v>
       </c>
       <c r="AN17">
-        <v>318.86952061123691</v>
+        <v>319.10267892127462</v>
       </c>
       <c r="AO17">
-        <v>319.10267892127462</v>
+        <v>319.38590629755907</v>
       </c>
       <c r="AP17">
-        <v>319.38590629755907</v>
+        <v>319.19110945656053</v>
       </c>
       <c r="AQ17">
-        <v>319.19110945656053</v>
+        <v>319.05567634036208</v>
       </c>
       <c r="AR17">
-        <v>319.05567634036208</v>
+        <v>318.97514203538952</v>
       </c>
       <c r="AS17">
-        <v>318.97514203538952</v>
+        <v>318.9496051242694</v>
       </c>
       <c r="AT17">
-        <v>318.9496051242694</v>
+        <v>318.60334826748328</v>
       </c>
       <c r="AU17">
-        <v>318.60334826748328</v>
+        <v>318.31720335346819</v>
       </c>
       <c r="AV17">
-        <v>318.31720335346819</v>
+        <v>318.11173048290601</v>
       </c>
       <c r="AW17">
-        <v>318.11173048290601</v>
-      </c>
-      <c r="AX17">
         <v>317.95738112604761</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
       <c r="L19" s="95"/>
@@ -23452,7 +23452,7 @@
       <c r="Z19" s="95"/>
       <c r="AB19" s="95"/>
     </row>
-    <row r="20" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:49" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="110" t="s">
         <v>184</v>
       </c>
@@ -23473,7 +23473,7 @@
       <c r="Z20" s="95"/>
       <c r="AB20" s="95"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -23575,16 +23575,16 @@
       </c>
       <c r="AB21" s="95"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="102">
-        <f t="shared" ref="D22:AA22" si="1">D10</f>
-        <v>0</v>
+      <c r="D22" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E22" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E22:AA22" si="1">D10</f>
         <v>156.16</v>
       </c>
       <c r="F22" s="104">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B23" s="210" t="s">
         <v>277</v>
       </c>
@@ -23749,7 +23749,7 @@
       </c>
       <c r="AB23" s="243"/>
     </row>
-    <row r="24" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="99" t="s">
         <v>178</v>
       </c>
@@ -23845,7 +23845,7 @@
       </c>
       <c r="AB24" s="244"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D25" s="102"/>
       <c r="E25" s="104"/>
       <c r="F25" s="104"/>
@@ -23868,7 +23868,7 @@
       <c r="Z25" s="95"/>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D26" s="102"/>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -23891,7 +23891,7 @@
       <c r="Z26" s="95"/>
       <c r="AB26" s="95"/>
     </row>
-    <row r="27" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:49" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="110" t="s">
         <v>187</v>
       </c>
@@ -23918,7 +23918,7 @@
       <c r="Z27" s="95"/>
       <c r="AB27" s="95"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>187</v>
       </c>
@@ -23957,121 +23957,121 @@
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>195.77916716071002</v>
+        <v>196.35660236629698</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>196.60801221892581</v>
+        <v>197.3667580641972</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>204.69986935138584</v>
+        <v>207.22871659061335</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>178.13015981033357</v>
+        <v>217.09630058919853</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>186.23126001912973</v>
+        <v>226.96952412363308</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>201.48952512672736</v>
+        <v>245.5655491414949</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>207.56186987073423</v>
+        <v>252.96622503618792</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>213.95609730610133</v>
+        <v>260.75919576513252</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>220.64294536997801</v>
+        <v>268.90879816157889</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>226.92012455394155</v>
+        <v>276.55911622352312</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>227.62949156707876</v>
+        <v>277.42365794108554</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>228.30959651736487</v>
+        <v>278.25253649189762</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>228.96043940480044</v>
+        <v>279.04575187596004</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>229.61128229223573</v>
+        <v>279.83896726002212</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>230.29688965284717</v>
+        <v>280.67455187861759</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="102">
-        <f t="shared" ref="D29:AA29" si="23">D11</f>
-        <v>0</v>
+      <c r="D29" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E29" s="104">
-        <f t="shared" si="23"/>
-        <v>736.59999999999991</v>
+        <f t="shared" ref="E29:AA29" si="23">D11</f>
+        <v>440</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" si="23"/>
-        <v>582.79999999999995</v>
+        <v>363.8</v>
       </c>
       <c r="G29" s="149">
         <f t="shared" si="23"/>
-        <v>341</v>
+        <v>243.1</v>
       </c>
       <c r="H29" s="104">
         <f t="shared" si="23"/>
-        <v>287.69999999999987</v>
+        <v>216.8</v>
       </c>
       <c r="I29" s="104">
         <f t="shared" si="23"/>
-        <v>249.4722454529217</v>
+        <v>205.08824545292171</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" si="23"/>
-        <v>238.93299559334321</v>
+        <v>194.54899559334319</v>
       </c>
       <c r="K29" s="149">
         <f t="shared" si="23"/>
-        <v>241.82759010290039</v>
+        <v>197.82759010290039</v>
       </c>
       <c r="L29" s="223">
         <f t="shared" si="23"/>
-        <v>245.1419882747505</v>
+        <v>201.1419882747505</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" si="23"/>
-        <v>248.49241388178211</v>
+        <v>204.49241388178211</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" si="23"/>
-        <v>249.5444242270961</v>
+        <v>205.5444242270961</v>
       </c>
       <c r="O29" s="149">
         <f t="shared" si="23"/>
-        <v>259.81500173946711</v>
+        <v>215.81500173946711</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" si="23"/>
-        <v>226.09143780901999</v>
+        <v>226.09143780902031</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="23"/>
@@ -24119,7 +24119,7 @@
       </c>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B30" s="210" t="s">
         <v>277</v>
       </c>
@@ -24134,23 +24134,23 @@
       <c r="L30" s="230"/>
       <c r="M30" s="230">
         <f t="shared" ref="M30" si="24">(M29/L29)-1</f>
-        <v>1.3667285766143511E-2</v>
+        <v>1.6657017442102129E-2</v>
       </c>
       <c r="N30" s="230">
         <f t="shared" ref="N30" si="25">(N29/M29)-1</f>
-        <v>4.233571274391057E-3</v>
+        <v>5.1444957069270991E-3</v>
       </c>
       <c r="O30" s="246">
         <f t="shared" ref="O30" si="26">(O29/N29)-1</f>
-        <v>4.1157311144825792E-2</v>
+        <v>4.9967677551902456E-2</v>
       </c>
       <c r="P30" s="230">
         <f t="shared" ref="P30" si="27">(P29/O29)-1</f>
-        <v>-0.12979837078177592</v>
+        <v>4.761687550320981E-2</v>
       </c>
       <c r="Q30" s="230">
         <f t="shared" ref="Q30" si="28">(Q29/P29)-1</f>
-        <v>4.5478543428142171E-2</v>
+        <v>4.5478543428140616E-2</v>
       </c>
       <c r="R30" s="230">
         <f t="shared" ref="R30" si="29">(R29/Q29)-1</f>
@@ -24194,7 +24194,7 @@
       </c>
       <c r="AB30" s="243"/>
     </row>
-    <row r="31" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="99" t="s">
         <v>178</v>
       </c>
@@ -24202,95 +24202,95 @@
       <c r="E31" s="217"/>
       <c r="F31" s="217">
         <f t="shared" ref="F31" si="39">F28-F29</f>
-        <v>-252.02299999999997</v>
+        <v>-33.023000000000025</v>
       </c>
       <c r="G31" s="150">
         <f t="shared" ref="G31" si="40">G28-G29</f>
-        <v>-159.19200000000001</v>
+        <v>-61.292000000000002</v>
       </c>
       <c r="H31" s="217">
         <f t="shared" ref="H31" si="41">H28-H29</f>
-        <v>-82.229229999999859</v>
+        <v>-11.329229999999995</v>
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="42">I28-I29</f>
-        <v>-59.637798527921746</v>
+        <v>-15.253798527921759</v>
       </c>
       <c r="J31" s="217">
         <f t="shared" ref="J31" si="43">J28-J29</f>
-        <v>-48.369376433718287</v>
+        <v>-3.9853764337182724</v>
       </c>
       <c r="K31" s="150">
         <f t="shared" ref="K31:N31" si="44">K28-K29</f>
-        <v>-50.164743799578275</v>
+        <v>-6.1647437995782752</v>
       </c>
       <c r="L31" s="239">
         <f t="shared" si="44"/>
-        <v>-52.00251350839514</v>
+        <v>-8.0025135083951398</v>
       </c>
       <c r="M31" s="217">
         <f t="shared" si="44"/>
-        <v>-52.713246721072096</v>
+        <v>-8.1358115154851305</v>
       </c>
       <c r="N31" s="217">
         <f t="shared" si="44"/>
-        <v>-52.936412008170294</v>
+        <v>-8.1776661628989018</v>
       </c>
       <c r="O31" s="150">
         <f t="shared" ref="O31:AA31" si="45">O28-O29</f>
-        <v>-55.115132388081264</v>
+        <v>-8.5862851488537615</v>
       </c>
       <c r="P31" s="150">
         <f t="shared" si="45"/>
-        <v>-47.961277998686427</v>
+        <v>-8.9951372198217712</v>
       </c>
       <c r="Q31" s="150">
         <f t="shared" si="45"/>
-        <v>-50.142487063018876</v>
+        <v>-9.4042229585155326</v>
       </c>
       <c r="R31" s="150">
         <f t="shared" si="45"/>
-        <v>-54.25075202714595</v>
+        <v>-10.174728012378409</v>
       </c>
       <c r="S31" s="150">
         <f t="shared" si="45"/>
-        <v>-55.885721729532548</v>
+        <v>-10.481366564078854</v>
       </c>
       <c r="T31" s="150">
         <f t="shared" si="45"/>
-        <v>-57.607357863138446</v>
+        <v>-10.804259404107256</v>
       </c>
       <c r="U31" s="150">
         <f t="shared" si="45"/>
-        <v>-59.407781661489309</v>
+        <v>-11.141928869888432</v>
       </c>
       <c r="V31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.097902729197358</v>
+        <v>-11.458911059615787</v>
       </c>
       <c r="W31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.288898732099966</v>
+        <v>-11.494732358093188</v>
       </c>
       <c r="X31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.472015968528012</v>
+        <v>-11.529075993995264</v>
       </c>
       <c r="Y31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.647254438481667</v>
+        <v>-11.56194196732207</v>
       </c>
       <c r="Z31" s="150">
         <f t="shared" si="45"/>
-        <v>-61.822492908435265</v>
+        <v>-11.594807940648877</v>
       </c>
       <c r="AA31" s="150">
         <f t="shared" si="45"/>
-        <v>-62.007091660579448</v>
+        <v>-11.629429434809026</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
-    <row r="32" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="99"/>
       <c r="D32" s="103"/>
       <c r="E32" s="217"/>
@@ -24424,12 +24424,12 @@
       <c r="B36" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="102">
-        <f t="shared" ref="D36:K36" si="46">D12</f>
-        <v>0</v>
+      <c r="D36" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="E36:K36" si="46">D12</f>
         <v>1779.8</v>
       </c>
       <c r="F36" s="104">
@@ -24674,12 +24674,12 @@
       <c r="B42" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="102">
-        <f t="shared" ref="D42:K42" si="48">D13</f>
-        <v>0</v>
+      <c r="D42" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E42" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="E42:K42" si="48">D13</f>
         <v>54.2</v>
       </c>
       <c r="F42" s="104">
@@ -24906,71 +24906,71 @@
       </c>
       <c r="K47" s="149">
         <f>J47*(1+K49)</f>
-        <v>1392.3791730252894</v>
+        <v>1473.0268768819492</v>
       </c>
       <c r="L47" s="104">
         <f t="shared" ref="L47:AA47" si="50">K47*(1+L49)</f>
-        <v>1399.249174957793</v>
+        <v>1504.4702729216931</v>
       </c>
       <c r="M47" s="104">
         <f t="shared" si="50"/>
-        <v>1427.321500478296</v>
+        <v>1535.9136689614381</v>
       </c>
       <c r="N47" s="104">
         <f t="shared" si="50"/>
-        <v>1455.3938259987985</v>
+        <v>1567.3570650011823</v>
       </c>
       <c r="O47" s="149">
         <f t="shared" si="50"/>
-        <v>1467.2969523594572</v>
+        <v>1580.6895805420113</v>
       </c>
       <c r="P47" s="104">
         <f t="shared" si="50"/>
-        <v>1426.660882442407</v>
+        <v>1594.0220960828426</v>
       </c>
       <c r="Q47" s="104">
         <f t="shared" si="50"/>
-        <v>1438.5640088030657</v>
+        <v>1607.3546116236716</v>
       </c>
       <c r="R47" s="104">
         <f t="shared" si="50"/>
-        <v>1450.4671351637251</v>
+        <v>1620.6871271645016</v>
       </c>
       <c r="S47" s="149">
         <f t="shared" si="50"/>
-        <v>1460.2790900105863</v>
+        <v>1631.6773524648111</v>
       </c>
       <c r="T47" s="104">
         <f t="shared" si="50"/>
-        <v>1467.2932258686751</v>
+        <v>1642.6675777651208</v>
       </c>
       <c r="U47" s="104">
         <f t="shared" si="50"/>
-        <v>1477.1051807155366</v>
+        <v>1653.6578030654305</v>
       </c>
       <c r="V47" s="104">
         <f t="shared" si="50"/>
-        <v>1486.917135562398</v>
+        <v>1664.6480283657397</v>
       </c>
       <c r="W47" s="149">
         <f t="shared" si="50"/>
-        <v>1523.5370323593195</v>
+        <v>1705.6654323951707</v>
       </c>
       <c r="X47" s="104">
         <f t="shared" si="50"/>
-        <v>1556.9496052972233</v>
+        <v>1746.6828364246021</v>
       </c>
       <c r="Y47" s="104">
         <f t="shared" si="50"/>
-        <v>1593.5695020941439</v>
+        <v>1787.7002404540322</v>
       </c>
       <c r="Z47" s="104">
         <f t="shared" si="50"/>
-        <v>1630.1893988910651</v>
+        <v>1828.7176444834631</v>
       </c>
       <c r="AA47" s="149">
         <f t="shared" si="50"/>
-        <v>1657.4822869371674</v>
+        <v>1859.2880041522844</v>
       </c>
       <c r="AB47" s="95"/>
     </row>
@@ -24978,12 +24978,12 @@
       <c r="B48" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="102">
-        <f t="shared" ref="D48:AA48" si="51">D14</f>
-        <v>0</v>
+      <c r="D48" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="E48:AA48" si="51">D14</f>
         <v>1336.74</v>
       </c>
       <c r="F48" s="104">
@@ -25000,79 +25000,79 @@
       </c>
       <c r="I48" s="104">
         <f t="shared" si="51"/>
-        <v>1561.0795271182501</v>
+        <v>1394.63952711825</v>
       </c>
       <c r="J48" s="223">
         <f t="shared" si="51"/>
-        <v>1552.4560542365</v>
+        <v>1386.0160542364999</v>
       </c>
       <c r="K48" s="149">
         <f t="shared" si="51"/>
-        <v>1499.467429866125</v>
+        <v>1416.247429866125</v>
       </c>
       <c r="L48" s="104">
         <f t="shared" si="51"/>
-        <v>1506.8658054957491</v>
+        <v>1446.4788054957489</v>
       </c>
       <c r="M48" s="104">
         <f t="shared" si="51"/>
-        <v>1537.0971811253739</v>
+        <v>1476.710181125374</v>
       </c>
       <c r="N48" s="104">
         <f t="shared" si="51"/>
-        <v>1567.3285567549981</v>
+        <v>1506.9415567549979</v>
       </c>
       <c r="O48" s="149">
         <f t="shared" si="51"/>
-        <v>1580.1471557667951</v>
+        <v>1519.7601557667949</v>
       </c>
       <c r="P48" s="104">
         <f t="shared" si="51"/>
-        <v>1536.385754778594</v>
+        <v>1532.578754778594</v>
       </c>
       <c r="Q48" s="104">
         <f t="shared" si="51"/>
-        <v>1549.204353790391</v>
+        <v>1545.397353790391</v>
       </c>
       <c r="R48" s="104">
         <f t="shared" si="51"/>
-        <v>1562.0229528021889</v>
+        <v>1558.2159528021889</v>
       </c>
       <c r="S48" s="149">
         <f t="shared" si="51"/>
-        <v>1572.589547736397</v>
+        <v>1568.782547736397</v>
       </c>
       <c r="T48" s="104">
         <f t="shared" si="51"/>
-        <v>1580.1431426706049</v>
+        <v>1579.349142670605</v>
       </c>
       <c r="U48" s="104">
         <f t="shared" si="51"/>
-        <v>1590.709737604813</v>
+        <v>1589.9157376048131</v>
       </c>
       <c r="V48" s="104">
         <f t="shared" si="51"/>
-        <v>1601.276332539021</v>
+        <v>1600.4823325390209</v>
       </c>
       <c r="W48" s="149">
         <f t="shared" si="51"/>
-        <v>1640.712675451804</v>
+        <v>1639.9186754518039</v>
       </c>
       <c r="X48" s="104">
         <f t="shared" si="51"/>
-        <v>1676.695018364587</v>
+        <v>1679.3550183645871</v>
       </c>
       <c r="Y48" s="104">
         <f t="shared" si="51"/>
-        <v>1716.131361277369</v>
+        <v>1718.7913612773691</v>
       </c>
       <c r="Z48" s="104">
         <f t="shared" si="51"/>
-        <v>1755.567704190152</v>
+        <v>1758.2277041901521</v>
       </c>
       <c r="AA48" s="149">
         <f t="shared" si="51"/>
-        <v>1784.9596955994989</v>
+        <v>1787.619695599499</v>
       </c>
       <c r="AB48" s="95"/>
     </row>
@@ -25089,71 +25089,71 @@
       <c r="J49" s="242"/>
       <c r="K49" s="246">
         <f t="shared" ref="K49" si="52">(K48/J48)-1</f>
-        <v>-3.4132125174026196E-2</v>
+        <v>2.1811706680611609E-2</v>
       </c>
       <c r="L49" s="230">
         <f t="shared" ref="L49" si="53">(L48/K48)-1</f>
-        <v>4.934002221231637E-3</v>
+        <v>2.1346111556567182E-2</v>
       </c>
       <c r="M49" s="230">
         <f t="shared" ref="M49" si="54">(M48/L48)-1</f>
-        <v>2.0062420634516132E-2</v>
+        <v>2.0899978288491994E-2</v>
       </c>
       <c r="N49" s="230">
         <f t="shared" ref="N49" si="55">(N48/M48)-1</f>
-        <v>1.9667836231077152E-2</v>
+        <v>2.047211160052087E-2</v>
       </c>
       <c r="O49" s="246">
         <f t="shared" ref="O49" si="56">(O48/N48)-1</f>
-        <v>8.1786291435514968E-3</v>
+        <v>8.5063677183341291E-3</v>
       </c>
       <c r="P49" s="230">
         <f t="shared" ref="P49" si="57">(P48/O48)-1</f>
-        <v>-2.769450986162425E-2</v>
+        <v>8.4346197412521473E-3</v>
       </c>
       <c r="Q49" s="230">
         <f t="shared" ref="Q49" si="58">(Q48/P48)-1</f>
-        <v>8.3433466965749936E-3</v>
+        <v>8.364071974656051E-3</v>
       </c>
       <c r="R49" s="230">
         <f t="shared" ref="R49" si="59">(R48/Q48)-1</f>
-        <v>8.2743112491485693E-3</v>
+        <v>8.294694552412496E-3</v>
       </c>
       <c r="S49" s="246">
         <f t="shared" ref="S49" si="60">(S48/R48)-1</f>
-        <v>6.7646860855994362E-3</v>
+        <v>6.7812134224436438E-3</v>
       </c>
       <c r="T49" s="230">
         <f t="shared" ref="T49" si="61">(T48/S48)-1</f>
-        <v>4.8032844584784407E-3</v>
+        <v>6.7355382997182911E-3</v>
       </c>
       <c r="U49" s="230">
         <f t="shared" ref="U49" si="62">(U48/T48)-1</f>
-        <v>6.6871124829548378E-3</v>
+        <v>6.6904743534672573E-3</v>
       </c>
       <c r="V49" s="230">
         <f t="shared" ref="V49" si="63">(V48/U48)-1</f>
-        <v>6.6426920540001433E-3</v>
+        <v>6.6460093980365009E-3</v>
       </c>
       <c r="W49" s="246">
         <f t="shared" ref="W49" si="64">(W48/V48)-1</f>
-        <v>2.4628068317385177E-2</v>
+        <v>2.464028631307702E-2</v>
       </c>
       <c r="X49" s="230">
         <f t="shared" ref="X49" si="65">(X48/W48)-1</f>
-        <v>2.1930922733241154E-2</v>
+        <v>2.4047743039403047E-2</v>
       </c>
       <c r="Y49" s="230">
         <f t="shared" ref="Y49" si="66">(Y48/X48)-1</f>
-        <v>2.3520283940037912E-2</v>
+        <v>2.3483029187709503E-2</v>
       </c>
       <c r="Z49" s="230">
         <f t="shared" ref="Z49" si="67">(Z48/Y48)-1</f>
-        <v>2.2979792691061318E-2</v>
+        <v>2.2944229184090448E-2</v>
       </c>
       <c r="AA49" s="246">
         <f t="shared" ref="AA49" si="68">(AA48/Z48)-1</f>
-        <v>1.6742157730057716E-2</v>
+        <v>1.6716828735721112E-2</v>
       </c>
       <c r="AB49" s="243"/>
     </row>
@@ -25177,79 +25177,79 @@
       </c>
       <c r="I50" s="217">
         <f t="shared" ref="I50" si="72">I47-I48</f>
-        <v>-142.59036813928606</v>
+        <v>23.849631860713998</v>
       </c>
       <c r="J50" s="239">
         <f t="shared" ref="J50" si="73">J47-J48</f>
-        <v>-110.87257339429607</v>
+        <v>55.567426605703986</v>
       </c>
       <c r="K50" s="150">
         <f t="shared" ref="K50:AA50" si="74">K47-K48</f>
-        <v>-107.08825684083558</v>
+        <v>56.779447015824189</v>
       </c>
       <c r="L50" s="217">
         <f t="shared" si="74"/>
-        <v>-107.6166305379561</v>
+        <v>57.991467425944165</v>
       </c>
       <c r="M50" s="217">
         <f t="shared" si="74"/>
-        <v>-109.77568064707793</v>
+        <v>59.203487836064141</v>
       </c>
       <c r="N50" s="217">
         <f t="shared" si="74"/>
-        <v>-111.93473075619954</v>
+        <v>60.415508246184345</v>
       </c>
       <c r="O50" s="150">
         <f t="shared" si="74"/>
-        <v>-112.85020340733786</v>
+        <v>60.929424775216376</v>
       </c>
       <c r="P50" s="217">
         <f t="shared" si="74"/>
-        <v>-109.72487233618699</v>
+        <v>61.443341304248634</v>
       </c>
       <c r="Q50" s="217">
         <f t="shared" si="74"/>
-        <v>-110.64034498732531</v>
+        <v>61.957257833280664</v>
       </c>
       <c r="R50" s="217">
         <f t="shared" si="74"/>
-        <v>-111.55581763846385</v>
+        <v>62.471174362312695</v>
       </c>
       <c r="S50" s="150">
         <f t="shared" si="74"/>
-        <v>-112.31045772581069</v>
+        <v>62.894804728414101</v>
       </c>
       <c r="T50" s="217">
         <f t="shared" si="74"/>
-        <v>-112.84991680192979</v>
+        <v>63.318435094515735</v>
       </c>
       <c r="U50" s="217">
         <f t="shared" si="74"/>
-        <v>-113.60455688927641</v>
+        <v>63.742065460617368</v>
       </c>
       <c r="V50" s="217">
         <f t="shared" si="74"/>
-        <v>-114.35919697662302</v>
+        <v>64.165695826718775</v>
       </c>
       <c r="W50" s="150">
         <f t="shared" si="74"/>
-        <v>-117.17564309248451</v>
+        <v>65.74675694336679</v>
       </c>
       <c r="X50" s="217">
         <f t="shared" si="74"/>
-        <v>-119.74541306736364</v>
+        <v>67.327818060015034</v>
       </c>
       <c r="Y50" s="217">
         <f t="shared" si="74"/>
-        <v>-122.56185918322512</v>
+        <v>68.908879176663049</v>
       </c>
       <c r="Z50" s="217">
         <f t="shared" si="74"/>
-        <v>-125.37830529908683</v>
+        <v>70.489940293311065</v>
       </c>
       <c r="AA50" s="150">
         <f t="shared" si="74"/>
-        <v>-127.47740866233153</v>
+        <v>71.668308552785447</v>
       </c>
       <c r="AB50" s="244"/>
     </row>
@@ -25364,67 +25364,67 @@
       </c>
       <c r="L54" s="104">
         <f>K54*(1+L56)</f>
-        <v>1747.3341365505732</v>
+        <v>1684.5361789840945</v>
       </c>
       <c r="M54" s="104">
         <f t="shared" ref="M54:AA54" si="75">L54*(1+M56)</f>
-        <v>1741.3772359673812</v>
+        <v>1678.2135536535532</v>
       </c>
       <c r="N54" s="104">
         <f t="shared" si="75"/>
-        <v>1724.4042060908307</v>
+        <v>1660.1984622255873</v>
       </c>
       <c r="O54" s="104">
         <f t="shared" si="75"/>
-        <v>1744.554891495688</v>
+        <v>1681.586301789001</v>
       </c>
       <c r="P54" s="104">
         <f t="shared" si="75"/>
-        <v>1610.2531197056305</v>
+        <v>1692.7375632632777</v>
       </c>
       <c r="Q54" s="104">
         <f t="shared" si="75"/>
-        <v>1613.95151560314</v>
+        <v>1696.6630226959808</v>
       </c>
       <c r="R54" s="104">
         <f t="shared" si="75"/>
-        <v>1609.8230281699848</v>
+        <v>1692.2810661974381</v>
       </c>
       <c r="S54" s="104">
         <f t="shared" si="75"/>
-        <v>1617.8886235451794</v>
+        <v>1700.8418499326899</v>
       </c>
       <c r="T54" s="104">
         <f t="shared" si="75"/>
-        <v>1618.0286632835041</v>
+        <v>1710.457851465846</v>
       </c>
       <c r="U54" s="104">
         <f t="shared" si="75"/>
-        <v>1626.6736405826512</v>
+        <v>1719.6335883595871</v>
       </c>
       <c r="V54" s="104">
         <f t="shared" si="75"/>
-        <v>1635.87599232105</v>
+        <v>1729.4009197745047</v>
       </c>
       <c r="W54" s="104">
         <f t="shared" si="75"/>
-        <v>1673.7568552044054</v>
+        <v>1769.6074835511201</v>
       </c>
       <c r="X54" s="104">
         <f t="shared" si="75"/>
-        <v>1704.0502454968723</v>
+        <v>1803.5824136795445</v>
       </c>
       <c r="Y54" s="104">
         <f t="shared" si="75"/>
-        <v>1728.6880710433718</v>
+        <v>1829.7328819833626</v>
       </c>
       <c r="Z54" s="104">
         <f t="shared" si="75"/>
-        <v>1746.6656242050317</v>
+        <v>1848.8141695445122</v>
       </c>
       <c r="AA54" s="104">
         <f t="shared" si="75"/>
-        <v>1755.054529909263</v>
+        <v>1857.7181132918283</v>
       </c>
       <c r="AB54" s="95"/>
     </row>
@@ -25432,101 +25432,101 @@
       <c r="B55" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="102">
-        <f t="shared" ref="D55:AA55" si="76">D15</f>
-        <v>0</v>
+      <c r="D55" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E55" s="104">
-        <f t="shared" si="76"/>
-        <v>3694.6000000000008</v>
+        <f t="shared" ref="E55:AA55" si="76">D15</f>
+        <v>1828.5000000000009</v>
       </c>
       <c r="F55" s="104">
         <f t="shared" si="76"/>
-        <v>2433.1999999999998</v>
+        <v>1861.4</v>
       </c>
       <c r="G55" s="149">
         <f t="shared" si="76"/>
-        <v>1959.6999999999989</v>
+        <v>1756.1999999999989</v>
       </c>
       <c r="H55" s="104">
         <f t="shared" si="76"/>
-        <v>4215.9000000000005</v>
+        <v>1808.7</v>
       </c>
       <c r="I55" s="104">
         <f t="shared" si="76"/>
-        <v>3373.426597104331</v>
+        <v>1629.356357104331</v>
       </c>
       <c r="J55" s="104">
         <f t="shared" si="76"/>
-        <v>2112.8103287165659</v>
+        <v>1501.6652887165669</v>
       </c>
       <c r="K55" s="263">
         <f t="shared" si="76"/>
-        <v>1607.2419452477011</v>
+        <v>1514.272945247701</v>
       </c>
       <c r="L55" s="104">
         <f t="shared" si="76"/>
-        <v>1668.6360242949511</v>
+        <v>1515.6150242949509</v>
       </c>
       <c r="M55" s="104">
         <f t="shared" si="76"/>
-        <v>1662.947416318757</v>
+        <v>1509.926416318757</v>
       </c>
       <c r="N55" s="104">
         <f t="shared" si="76"/>
-        <v>1646.738834055632</v>
+        <v>1493.7178340556329</v>
       </c>
       <c r="O55" s="149">
         <f t="shared" si="76"/>
-        <v>1665.98195354688</v>
+        <v>1512.9609535468801</v>
       </c>
       <c r="P55" s="104">
         <f t="shared" si="76"/>
-        <v>1537.7289938823201</v>
+        <v>1522.99399388232</v>
       </c>
       <c r="Q55" s="104">
         <f t="shared" si="76"/>
-        <v>1541.2608178749949</v>
+        <v>1526.525817874995</v>
       </c>
       <c r="R55" s="104">
         <f t="shared" si="76"/>
-        <v>1537.318273222138</v>
+        <v>1522.5832732221379</v>
       </c>
       <c r="S55" s="149">
         <f t="shared" si="76"/>
-        <v>1545.0206025699781</v>
+        <v>1530.285602569978</v>
       </c>
       <c r="T55" s="104">
         <f t="shared" si="76"/>
-        <v>1545.1543350641321</v>
+        <v>1538.937335064132</v>
       </c>
       <c r="U55" s="104">
         <f t="shared" si="76"/>
-        <v>1553.4099515766361</v>
+        <v>1547.192951576636</v>
       </c>
       <c r="V55" s="104">
         <f t="shared" si="76"/>
-        <v>1562.1978389633259</v>
+        <v>1555.9808389633261</v>
       </c>
       <c r="W55" s="149">
         <f t="shared" si="76"/>
-        <v>1598.3725871791</v>
+        <v>1592.1555871790999</v>
       </c>
       <c r="X55" s="104">
         <f t="shared" si="76"/>
-        <v>1627.3015946783901</v>
+        <v>1622.7235946783901</v>
       </c>
       <c r="Y55" s="104">
         <f t="shared" si="76"/>
-        <v>1650.8297581859961</v>
+        <v>1646.2517581859961</v>
       </c>
       <c r="Z55" s="104">
         <f t="shared" si="76"/>
-        <v>1667.9976210501891</v>
+        <v>1663.4196210501891</v>
       </c>
       <c r="AA55" s="149">
         <f t="shared" si="76"/>
-        <v>1676.0086991660939</v>
+        <v>1671.430699166094</v>
       </c>
       <c r="AB55" s="95"/>
     </row>
@@ -25544,67 +25544,67 @@
       <c r="K56" s="246"/>
       <c r="L56" s="230">
         <f t="shared" ref="L56" si="77">(L55/K55)-1</f>
-        <v>3.8198405180240647E-2</v>
+        <v>8.8628608961260902E-4</v>
       </c>
       <c r="M56" s="230">
         <f t="shared" ref="M56" si="78">(M55/L55)-1</f>
-        <v>-3.40913650033281E-3</v>
+        <v>-3.7533330595216352E-3</v>
       </c>
       <c r="N56" s="230">
         <f t="shared" ref="N56" si="79">(N55/M55)-1</f>
-        <v>-9.7469000547267814E-3</v>
+        <v>-1.0734683550103763E-2</v>
       </c>
       <c r="O56" s="246">
         <f t="shared" ref="O56" si="80">(O55/N55)-1</f>
-        <v>1.1685592817323398E-2</v>
+        <v>1.2882700502409916E-2</v>
       </c>
       <c r="P56" s="230">
         <f t="shared" ref="P56" si="81">(P55/O55)-1</f>
-        <v>-7.6983402726247485E-2</v>
+        <v>6.6313940964035645E-3</v>
       </c>
       <c r="Q56" s="230">
         <f t="shared" ref="Q56" si="82">(Q55/P55)-1</f>
-        <v>2.2967792157952971E-3</v>
+        <v>2.3190006046391876E-3</v>
       </c>
       <c r="R56" s="230">
         <f t="shared" ref="R56" si="83">(R55/Q55)-1</f>
-        <v>-2.5579996630892277E-3</v>
+        <v>-2.5826911059685376E-3</v>
       </c>
       <c r="S56" s="246">
         <f t="shared" ref="S56" si="84">(S55/R55)-1</f>
-        <v>5.0102372956879471E-3</v>
+        <v>5.0587245264688274E-3</v>
       </c>
       <c r="T56" s="230">
         <f t="shared" ref="T56" si="85">(T55/S55)-1</f>
-        <v>8.6557094404859924E-5</v>
+        <v>5.6536717588038243E-3</v>
       </c>
       <c r="U56" s="230">
         <f t="shared" ref="U56" si="86">(U55/T55)-1</f>
-        <v>5.3429073880579825E-3</v>
+        <v>5.3644916686357291E-3</v>
       </c>
       <c r="V56" s="230">
         <f t="shared" ref="V56" si="87">(V55/U55)-1</f>
-        <v>5.6571591921183995E-3</v>
+        <v>5.6798910425068794E-3</v>
       </c>
       <c r="W56" s="246">
         <f t="shared" ref="W56" si="88">(W55/V55)-1</f>
-        <v>2.3156316897595897E-2</v>
+        <v>2.3248839130869614E-2</v>
       </c>
       <c r="X56" s="230">
         <f t="shared" ref="X56" si="89">(X55/W55)-1</f>
-        <v>1.8099038816941748E-2</v>
+        <v>1.9199133392138412E-2</v>
       </c>
       <c r="Y56" s="230">
         <f t="shared" ref="Y56" si="90">(Y55/X55)-1</f>
-        <v>1.4458391477368382E-2</v>
+        <v>1.4499181243660342E-2</v>
       </c>
       <c r="Z56" s="230">
         <f t="shared" ref="Z56" si="91">(Z55/Y55)-1</f>
-        <v>1.0399535614779465E-2</v>
+        <v>1.0428455294778427E-2</v>
       </c>
       <c r="AA56" s="246">
         <f t="shared" ref="AA56" si="92">(AA55/Z55)-1</f>
-        <v>4.80281147575079E-3</v>
+        <v>4.8160295902046624E-3</v>
       </c>
       <c r="AB56" s="243"/>
     </row>
@@ -25616,91 +25616,91 @@
       <c r="E57" s="217"/>
       <c r="F57" s="217">
         <f t="shared" ref="F57" si="93">F54-F55</f>
-        <v>32.801000000000386</v>
+        <v>604.60100000000011</v>
       </c>
       <c r="G57" s="150">
         <f t="shared" ref="G57" si="94">G54-G55</f>
-        <v>68.093000000000984</v>
+        <v>271.59300000000098</v>
       </c>
       <c r="H57" s="217">
         <f t="shared" ref="H57" si="95">H54-H55</f>
-        <v>-1097.7761975000003</v>
+        <v>1309.4238025000002</v>
       </c>
       <c r="I57" s="217">
         <f t="shared" ref="I57" si="96">I54-I55</f>
-        <v>-1498.5777231230811</v>
+        <v>245.4925168769189</v>
       </c>
       <c r="J57" s="217">
         <f t="shared" ref="J57" si="97">J54-J55</f>
-        <v>-426.34282129017515</v>
+        <v>184.80221870982382</v>
       </c>
       <c r="K57" s="264">
         <f t="shared" ref="K57" si="98">K54-K55</f>
-        <v>75.802574790085146</v>
+        <v>168.7715747900852</v>
       </c>
       <c r="L57" s="217">
         <f t="shared" ref="L57:AA57" si="99">L54-L55</f>
-        <v>78.698112255622164</v>
+        <v>168.92115468914358</v>
       </c>
       <c r="M57" s="217">
         <f t="shared" si="99"/>
-        <v>78.429819648624289</v>
+        <v>168.28713733479617</v>
       </c>
       <c r="N57" s="217">
         <f t="shared" si="99"/>
-        <v>77.665372035198743</v>
+        <v>166.48062816995434</v>
       </c>
       <c r="O57" s="150">
         <f t="shared" si="99"/>
-        <v>78.572937948807976</v>
+        <v>168.62534824212094</v>
       </c>
       <c r="P57" s="217">
         <f t="shared" si="99"/>
-        <v>72.524125823310442</v>
+        <v>169.74356938095775</v>
       </c>
       <c r="Q57" s="217">
         <f t="shared" si="99"/>
-        <v>72.690697728145096</v>
+        <v>170.13720482098574</v>
       </c>
       <c r="R57" s="217">
         <f t="shared" si="99"/>
-        <v>72.504754947846777</v>
+        <v>169.69779297530022</v>
       </c>
       <c r="S57" s="150">
         <f t="shared" si="99"/>
-        <v>72.868020975201262</v>
+        <v>170.55624736271193</v>
       </c>
       <c r="T57" s="217">
         <f t="shared" si="99"/>
-        <v>72.874328219372046</v>
+        <v>171.52051640171408</v>
       </c>
       <c r="U57" s="217">
         <f t="shared" si="99"/>
-        <v>73.263689006015056</v>
+        <v>172.44063678295106</v>
       </c>
       <c r="V57" s="217">
         <f t="shared" si="99"/>
-        <v>73.678153357724113</v>
+        <v>173.42008081117865</v>
       </c>
       <c r="W57" s="150">
         <f t="shared" si="99"/>
-        <v>75.384268025305346</v>
+        <v>177.4518963720202</v>
       </c>
       <c r="X57" s="217">
         <f t="shared" si="99"/>
-        <v>76.748650818482247</v>
+        <v>180.85881900115442</v>
       </c>
       <c r="Y57" s="217">
         <f t="shared" si="99"/>
-        <v>77.858312857375722</v>
+        <v>183.48112379736654</v>
       </c>
       <c r="Z57" s="217">
         <f t="shared" si="99"/>
-        <v>78.668003154842609</v>
+        <v>185.39454849432309</v>
       </c>
       <c r="AA57" s="150">
         <f t="shared" si="99"/>
-        <v>79.045830743169063</v>
+        <v>186.28741412573436</v>
       </c>
       <c r="AB57" s="244"/>
     </row>
@@ -25826,63 +25826,63 @@
       </c>
       <c r="M61" s="231">
         <f>L61*(1+M63)</f>
-        <v>77.624251876046245</v>
+        <v>77.703294275287234</v>
       </c>
       <c r="N61" s="231">
         <f>M61*(1+N63)</f>
-        <v>77.913655182602696</v>
+        <v>78.070503655757662</v>
       </c>
       <c r="O61" s="247">
         <f>N61*(1+O63)</f>
-        <v>78.201219061363247</v>
+        <v>78.435379078301366</v>
       </c>
       <c r="P61" s="231">
         <f>O61*(1+P63)</f>
-        <v>63.994411041229114</v>
+        <v>78.799476514869525</v>
       </c>
       <c r="Q61" s="231">
         <f t="shared" ref="Q61:AA61" si="100">P61*(1+Q63)</f>
-        <v>64.282281491288984</v>
+        <v>79.164740930401024</v>
       </c>
       <c r="R61" s="231">
         <f t="shared" si="100"/>
-        <v>64.572911083042712</v>
+        <v>79.533506282822614</v>
       </c>
       <c r="S61" s="247">
         <f t="shared" si="100"/>
-        <v>64.866299816490312</v>
+        <v>79.905772572134282</v>
       </c>
       <c r="T61" s="231">
         <f t="shared" si="100"/>
-        <v>63.473051600810855</v>
+        <v>80.28037281937263</v>
       </c>
       <c r="U61" s="231">
         <f t="shared" si="100"/>
-        <v>63.767666619455717</v>
+        <v>80.654195080635418</v>
       </c>
       <c r="V61" s="231">
         <f t="shared" si="100"/>
-        <v>64.063201351998543</v>
+        <v>81.029184320861589</v>
       </c>
       <c r="W61" s="247">
         <f t="shared" si="100"/>
-        <v>64.359349227140001</v>
+        <v>81.404951547063334</v>
       </c>
       <c r="X61" s="231">
         <f t="shared" si="100"/>
-        <v>64.318416702084377</v>
+        <v>81.78032978027727</v>
       </c>
       <c r="Y61" s="231">
         <f t="shared" si="100"/>
-        <v>64.610579150334729</v>
+        <v>82.151040097637804</v>
       </c>
       <c r="Z61" s="231">
         <f t="shared" si="100"/>
-        <v>64.900595599489804</v>
+        <v>82.51902746408382</v>
       </c>
       <c r="AA61" s="247">
         <f t="shared" si="100"/>
-        <v>65.188466049549675</v>
+        <v>82.884291879615319</v>
       </c>
       <c r="AB61" s="95"/>
     </row>
@@ -25890,12 +25890,12 @@
       <c r="B62" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="102">
-        <f t="shared" ref="D62:AA62" si="101">D16</f>
-        <v>0</v>
+      <c r="D62" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="E62:AA62" si="101">D16</f>
         <v>1085.9000000000001</v>
       </c>
       <c r="F62" s="104">
@@ -25912,79 +25912,79 @@
       </c>
       <c r="I62" s="104">
         <f t="shared" si="101"/>
-        <v>567.87138158623384</v>
+        <v>404.18538158623392</v>
       </c>
       <c r="J62" s="104">
         <f t="shared" si="101"/>
-        <v>569.80008156777501</v>
+        <v>406.11408156777497</v>
       </c>
       <c r="K62" s="149">
         <f t="shared" si="101"/>
-        <v>489.92497438316559</v>
+        <v>408.08197438316557</v>
       </c>
       <c r="L62" s="223">
         <f t="shared" si="101"/>
-        <v>520.32055778657434</v>
+        <v>410.07255778657441</v>
       </c>
       <c r="M62" s="104">
         <f t="shared" si="101"/>
-        <v>522.2987645056096</v>
+        <v>412.05076450560961</v>
       </c>
       <c r="N62" s="104">
         <f t="shared" si="101"/>
-        <v>524.24602951371094</v>
+        <v>413.998029513711</v>
       </c>
       <c r="O62" s="149">
         <f t="shared" si="101"/>
-        <v>526.18091783743887</v>
+        <v>415.93291783743882</v>
       </c>
       <c r="P62" s="104">
         <f t="shared" si="101"/>
-        <v>430.58968059970891</v>
+        <v>417.86368059970891</v>
       </c>
       <c r="Q62" s="104">
         <f t="shared" si="101"/>
-        <v>432.52663170416571</v>
+        <v>419.80063170416571</v>
       </c>
       <c r="R62" s="104">
         <f t="shared" si="101"/>
-        <v>434.48214783518279</v>
+        <v>421.75614783518279</v>
       </c>
       <c r="S62" s="149">
         <f t="shared" si="101"/>
-        <v>436.4562289927602</v>
+        <v>423.7302289927602</v>
       </c>
       <c r="T62" s="104">
         <f t="shared" si="101"/>
-        <v>427.08168683471098</v>
+        <v>425.71668683471103</v>
       </c>
       <c r="U62" s="104">
         <f t="shared" si="101"/>
-        <v>429.06401911520402</v>
+        <v>427.69901911520401</v>
       </c>
       <c r="V62" s="104">
         <f t="shared" si="101"/>
-        <v>431.05253973788388</v>
+        <v>429.68753973788392</v>
       </c>
       <c r="W62" s="149">
         <f t="shared" si="101"/>
-        <v>433.04518592202157</v>
+        <v>431.68018592202162</v>
       </c>
       <c r="X62" s="104">
         <f t="shared" si="101"/>
-        <v>432.76976932543027</v>
+        <v>433.67076932543029</v>
       </c>
       <c r="Y62" s="104">
         <f t="shared" si="101"/>
-        <v>434.73559936009212</v>
+        <v>435.63659936009208</v>
       </c>
       <c r="Z62" s="104">
         <f t="shared" si="101"/>
-        <v>436.6869899296513</v>
+        <v>437.58798992965131</v>
       </c>
       <c r="AA62" s="149">
         <f t="shared" si="101"/>
-        <v>438.6239410341081</v>
+        <v>439.52494103410811</v>
       </c>
       <c r="AB62" s="95"/>
     </row>
@@ -26003,63 +26003,63 @@
       <c r="L63" s="230"/>
       <c r="M63" s="230">
         <f t="shared" ref="M63:AA63" si="102">(M62/L62)-1</f>
-        <v>3.8018999815239152E-3</v>
+        <v>4.8240407251654016E-3</v>
       </c>
       <c r="N63" s="230">
         <f t="shared" si="102"/>
-        <v>3.7282588825278129E-3</v>
+        <v>4.7257890916372336E-3</v>
       </c>
       <c r="O63" s="246">
         <f t="shared" si="102"/>
-        <v>3.690802056284026E-3</v>
+        <v>4.6736655389412185E-3</v>
       </c>
       <c r="P63" s="230">
         <f t="shared" si="102"/>
-        <v>-0.18166990477458256</v>
+        <v>4.6420051875402102E-3</v>
       </c>
       <c r="Q63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4983686133841516E-3</v>
+        <v>4.6353660162015142E-3</v>
       </c>
       <c r="R63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5211461854088864E-3</v>
+        <v>4.6582019733480973E-3</v>
       </c>
       <c r="S63" s="246">
         <f t="shared" si="102"/>
-        <v>4.543526511764151E-3</v>
+        <v>4.6806221265773829E-3</v>
       </c>
       <c r="T63" s="230">
         <f t="shared" si="102"/>
-        <v>-2.1478768168078366E-2</v>
+        <v>4.6880248470182462E-3</v>
       </c>
       <c r="U63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6415764047036401E-3</v>
+        <v>4.6564589592013039E-3</v>
       </c>
       <c r="V63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6345545981238967E-3</v>
+        <v>4.6493457637419855E-3</v>
       </c>
       <c r="W63" s="246">
         <f t="shared" si="102"/>
-        <v>4.6227454902583176E-3</v>
+        <v>4.6374306905740958E-3</v>
       </c>
       <c r="X63" s="230">
         <f t="shared" si="102"/>
-        <v>-6.3599967288607839E-4</v>
+        <v>4.6112457053293365E-3</v>
       </c>
       <c r="Y63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5424384372458881E-3</v>
+        <v>4.5330010083908245E-3</v>
       </c>
       <c r="Z63" s="230">
         <f t="shared" si="102"/>
-        <v>4.48868363306687E-3</v>
+        <v>4.4793999687484654E-3</v>
       </c>
       <c r="AA63" s="246">
         <f t="shared" si="102"/>
-        <v>4.4355594490435024E-3</v>
+        <v>4.4264265679874182E-3</v>
       </c>
       <c r="AB63" s="243"/>
     </row>
@@ -26083,79 +26083,79 @@
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>226.21220174709958</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
-        <v>-425.7164982344417</v>
+        <v>-262.03049823444167</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="103"/>
-        <v>-367.1747243831656</v>
+        <v>-285.33172438316558</v>
       </c>
       <c r="L64" s="217">
         <f t="shared" si="103"/>
-        <v>-442.99030778657436</v>
+        <v>-332.74230778657443</v>
       </c>
       <c r="M64" s="217">
         <f t="shared" si="103"/>
-        <v>-444.67451262956337</v>
+        <v>-334.34747023032236</v>
       </c>
       <c r="N64" s="217">
         <f t="shared" si="103"/>
-        <v>-446.33237433110821</v>
+        <v>-335.92752585795336</v>
       </c>
       <c r="O64" s="150">
         <f t="shared" si="103"/>
-        <v>-447.97969877607562</v>
+        <v>-337.49753875913746</v>
       </c>
       <c r="P64" s="217">
         <f t="shared" si="103"/>
-        <v>-366.5952695584798</v>
+        <v>-339.06420408483939</v>
       </c>
       <c r="Q64" s="217">
         <f t="shared" si="103"/>
-        <v>-368.24435021287672</v>
+        <v>-340.63589077376469</v>
       </c>
       <c r="R64" s="217">
         <f t="shared" si="103"/>
-        <v>-369.90923675214009</v>
+        <v>-342.22264155236019</v>
       </c>
       <c r="S64" s="150">
         <f t="shared" si="103"/>
-        <v>-371.58992917626989</v>
+        <v>-343.82445642062589</v>
       </c>
       <c r="T64" s="217">
         <f t="shared" si="103"/>
-        <v>-363.60863523390015</v>
+        <v>-345.43631401533838</v>
       </c>
       <c r="U64" s="217">
         <f t="shared" si="103"/>
-        <v>-365.29635249574829</v>
+        <v>-347.04482403456859</v>
       </c>
       <c r="V64" s="217">
         <f t="shared" si="103"/>
-        <v>-366.98933838588533</v>
+        <v>-348.65835541702234</v>
       </c>
       <c r="W64" s="150">
         <f t="shared" si="103"/>
-        <v>-368.68583669488157</v>
+        <v>-350.2752343749583</v>
       </c>
       <c r="X64" s="217">
         <f t="shared" si="103"/>
-        <v>-368.45135262334588</v>
+        <v>-351.89043954515301</v>
       </c>
       <c r="Y64" s="217">
         <f t="shared" si="103"/>
-        <v>-370.12502020975739</v>
+        <v>-353.48555926245427</v>
       </c>
       <c r="Z64" s="217">
         <f t="shared" si="103"/>
-        <v>-371.7863943301615</v>
+        <v>-355.06896246556749</v>
       </c>
       <c r="AA64" s="150">
         <f t="shared" si="103"/>
-        <v>-373.43547498455843</v>
+        <v>-356.64064915449279</v>
       </c>
       <c r="AB64" s="217"/>
       <c r="AC64" s="217"/>
@@ -26336,25 +26336,25 @@
       <c r="B69" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="102">
-        <f t="shared" ref="D69:O69" si="105">D17</f>
-        <v>0</v>
+      <c r="D69" s="102" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E69" s="104">
-        <f t="shared" si="105"/>
-        <v>321.35000000000002</v>
+        <f t="shared" ref="E69:AA69" si="105">D17</f>
+        <v>884.2600000000001</v>
       </c>
       <c r="F69" s="104">
         <f t="shared" si="105"/>
-        <v>291.39999999999998</v>
+        <v>242.12799999999999</v>
       </c>
       <c r="G69" s="149">
         <f t="shared" si="105"/>
-        <v>284.15100000000001</v>
+        <v>225.90700000000001</v>
       </c>
       <c r="H69" s="104">
         <f t="shared" si="105"/>
-        <v>357.63880399999999</v>
+        <v>260.73700000000002</v>
       </c>
       <c r="I69" s="104">
         <f t="shared" si="105"/>
@@ -26385,51 +26385,51 @@
         <v>251.6040694504666</v>
       </c>
       <c r="P69" s="231">
-        <f t="shared" ref="P69:AA69" si="106">P17</f>
+        <f t="shared" si="105"/>
         <v>265.27969850165113</v>
       </c>
       <c r="Q69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>279.09879389494898</v>
       </c>
       <c r="R69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>293.05961551598227</v>
       </c>
       <c r="S69" s="245">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>298.02592203707633</v>
       </c>
       <c r="T69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>303.15281641427401</v>
       </c>
       <c r="U69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>308.34003676535349</v>
       </c>
       <c r="V69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>313.62925193845189</v>
       </c>
       <c r="W69" s="247">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>314.05502117082477</v>
       </c>
       <c r="X69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>314.5186220365847</v>
       </c>
       <c r="Y69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>315.03063898617683</v>
       </c>
       <c r="Z69" s="231">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>315.58362470772079</v>
       </c>
       <c r="AA69" s="247">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>316.2395853229205</v>
       </c>
       <c r="AB69" s="95"/>
@@ -26452,47 +26452,47 @@
       <c r="O70" s="246"/>
       <c r="P70" s="230"/>
       <c r="Q70" s="230">
-        <f t="shared" ref="Q70" si="107">(Q69/P69)-1</f>
+        <f t="shared" ref="Q70" si="106">(Q69/P69)-1</f>
         <v>5.2092547870608463E-2</v>
       </c>
       <c r="R70" s="230">
-        <f t="shared" ref="R70" si="108">(R69/Q69)-1</f>
+        <f t="shared" ref="R70" si="107">(R69/Q69)-1</f>
         <v>5.002107471051298E-2</v>
       </c>
       <c r="S70" s="246">
-        <f t="shared" ref="S70" si="109">(S69/R69)-1</f>
+        <f t="shared" ref="S70" si="108">(S69/R69)-1</f>
         <v>1.6946403592149606E-2</v>
       </c>
       <c r="T70" s="230">
-        <f t="shared" ref="T70" si="110">(T69/S69)-1</f>
+        <f t="shared" ref="T70" si="109">(T69/S69)-1</f>
         <v>1.7202847128713339E-2</v>
       </c>
       <c r="U70" s="230">
-        <f t="shared" ref="U70" si="111">(U69/T69)-1</f>
+        <f t="shared" ref="U70" si="110">(U69/T69)-1</f>
         <v>1.7110909317731293E-2</v>
       </c>
       <c r="V70" s="230">
-        <f t="shared" ref="V70" si="112">(V69/U69)-1</f>
+        <f t="shared" ref="V70" si="111">(V69/U69)-1</f>
         <v>1.7153838433000779E-2</v>
       </c>
       <c r="W70" s="246">
-        <f t="shared" ref="W70" si="113">(W69/V69)-1</f>
+        <f t="shared" ref="W70" si="112">(W69/V69)-1</f>
         <v>1.3575558712757285E-3</v>
       </c>
       <c r="X70" s="230">
-        <f t="shared" ref="X70" si="114">(X69/W69)-1</f>
+        <f t="shared" ref="X70" si="113">(X69/W69)-1</f>
         <v>1.4761772126157258E-3</v>
       </c>
       <c r="Y70" s="230">
-        <f t="shared" ref="Y70" si="115">(Y69/X69)-1</f>
+        <f t="shared" ref="Y70" si="114">(Y69/X69)-1</f>
         <v>1.6279384230946103E-3</v>
       </c>
       <c r="Z70" s="230">
-        <f t="shared" ref="Z70" si="116">(Z69/Y69)-1</f>
+        <f t="shared" ref="Z70" si="115">(Z69/Y69)-1</f>
         <v>1.7553394911795639E-3</v>
       </c>
       <c r="AA70" s="246">
-        <f t="shared" ref="AA70" si="117">(AA69/Z69)-1</f>
+        <f t="shared" ref="AA70" si="116">(AA69/Z69)-1</f>
         <v>2.0785635370252908E-3</v>
       </c>
       <c r="AB70" s="243"/>
@@ -26505,90 +26505,90 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>0</v>
+        <v>49.271999999999991</v>
       </c>
       <c r="G71" s="150">
-        <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>0</v>
+        <f t="shared" ref="G71:K71" si="117">G68-G69</f>
+        <v>58.244</v>
       </c>
       <c r="H71" s="217">
+        <f t="shared" si="117"/>
+        <v>96.90180399999997</v>
+      </c>
+      <c r="I71" s="217">
+        <f t="shared" si="117"/>
+        <v>87.454570502826414</v>
+      </c>
+      <c r="J71" s="217">
+        <f t="shared" si="117"/>
+        <v>104.60367441070301</v>
+      </c>
+      <c r="K71" s="150">
+        <f t="shared" si="117"/>
+        <v>94.229777558424473</v>
+      </c>
+      <c r="L71" s="217">
+        <f t="shared" ref="L71:N71" si="118">L68-L69</f>
+        <v>83.152512199130257</v>
+      </c>
+      <c r="M71" s="217">
         <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="217">
+        <v>78.397392744450201</v>
+      </c>
+      <c r="N71" s="217">
         <f t="shared" si="118"/>
-        <v>87.454570502826414</v>
-      </c>
-      <c r="J71" s="217">
-        <f t="shared" si="118"/>
-        <v>104.60367441070301</v>
-      </c>
-      <c r="K71" s="150">
-        <f t="shared" si="118"/>
-        <v>94.229777558424473</v>
-      </c>
-      <c r="L71" s="217">
-        <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>83.152512199130257</v>
-      </c>
-      <c r="M71" s="217">
+        <v>73.602356577807058</v>
+      </c>
+      <c r="O71" s="150">
+        <f t="shared" ref="O71:AA71" si="119">O68-O69</f>
+        <v>60.738306010595892</v>
+      </c>
+      <c r="P71" s="250">
         <f t="shared" si="119"/>
-        <v>78.397392744450201</v>
-      </c>
-      <c r="N71" s="217">
+        <v>47.876046461255555</v>
+      </c>
+      <c r="Q71" s="250">
         <f t="shared" si="119"/>
-        <v>73.602356577807058</v>
-      </c>
-      <c r="O71" s="150">
-        <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>60.738306010595892</v>
-      </c>
-      <c r="P71" s="250">
-        <f t="shared" si="120"/>
-        <v>47.876046461255555</v>
-      </c>
-      <c r="Q71" s="250">
-        <f t="shared" si="120"/>
         <v>51.406664131078344</v>
       </c>
       <c r="R71" s="250">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>37.445842510045054</v>
       </c>
       <c r="S71" s="239">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>32.479535988951</v>
       </c>
       <c r="T71" s="250">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>33.038276481380422</v>
       </c>
       <c r="U71" s="250">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>33.603591434267457</v>
       </c>
       <c r="V71" s="250">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>34.180022012499421</v>
       </c>
       <c r="W71" s="251">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>34.226423302062813</v>
       </c>
       <c r="X71" s="250">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>34.27694756821063</v>
       </c>
       <c r="Y71" s="250">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>34.3327483281833</v>
       </c>
       <c r="Z71" s="250">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>34.393013957164499</v>
       </c>
       <c r="AA71" s="251">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>34.464502021904309</v>
       </c>
       <c r="AB71" s="244"/>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F31:AA31)</f>
-        <v>-252.02299999999997</v>
+        <v>-33.023000000000025</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
@@ -26788,7 +26788,7 @@
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F57:AA57)</f>
-        <v>32.801000000000386</v>
+        <v>604.60100000000011</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F64:AA64)</f>
@@ -26796,7 +26796,7 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>0</v>
+        <v>49.271999999999991</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
@@ -26830,7 +26830,7 @@
         <v>8.0958169064125514</v>
       </c>
       <c r="C4">
-        <v>-159.19200000000001</v>
+        <v>-61.292000000000002</v>
       </c>
       <c r="D4">
         <v>-35.750999999999976</v>
@@ -26842,13 +26842,13 @@
         <v>-5.9999999998581188E-3</v>
       </c>
       <c r="G4">
-        <v>68.093000000000984</v>
+        <v>271.59300000000098</v>
       </c>
       <c r="H4">
         <v>0.73599999999999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>58.244</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
@@ -26882,7 +26882,7 @@
         <v>15.945084134642201</v>
       </c>
       <c r="C5">
-        <v>-82.229229999999859</v>
+        <v>-11.329229999999995</v>
       </c>
       <c r="D5">
         <v>-54.593681691845177</v>
@@ -26894,13 +26894,13 @@
         <v>-12.65283740934774</v>
       </c>
       <c r="G5">
-        <v>-1097.7761975000003</v>
+        <v>1309.4238025000002</v>
       </c>
       <c r="H5">
         <v>391.78358333333341</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>96.90180399999997</v>
       </c>
       <c r="J5" s="151">
         <f>'add-ons calculations'!H68</f>
@@ -26935,7 +26935,7 @@
         <v>11.798701344421289</v>
       </c>
       <c r="C6">
-        <v>-59.637798527921746</v>
+        <v>-15.253798527921759</v>
       </c>
       <c r="D6">
         <v>-55.153337573248791</v>
@@ -26944,13 +26944,13 @@
         <v>-2.8288825740026482</v>
       </c>
       <c r="F6">
-        <v>-142.59036813928606</v>
+        <v>23.849631860713998</v>
       </c>
       <c r="G6">
-        <v>-1498.5777231230811</v>
+        <v>245.4925168769189</v>
       </c>
       <c r="H6">
-        <v>226.21220174709958</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I6">
         <v>87.454570502826414</v>
@@ -26985,7 +26985,7 @@
         <v>7.6523185542003773</v>
       </c>
       <c r="C7">
-        <v>-48.369376433718287</v>
+        <v>-3.9853764337182724</v>
       </c>
       <c r="D7">
         <v>-55.951846589752222</v>
@@ -26994,13 +26994,13 @@
         <v>-2.8698390843673991</v>
       </c>
       <c r="F7">
-        <v>-110.87257339429607</v>
+        <v>55.567426605703986</v>
       </c>
       <c r="G7">
-        <v>-426.34282129017515</v>
+        <v>184.80221870982382</v>
       </c>
       <c r="H7">
-        <v>-425.7164982344417</v>
+        <v>-262.03049823444167</v>
       </c>
       <c r="I7">
         <v>104.60367441070301</v>
@@ -27035,7 +27035,7 @@
         <v>7.0672258031208912</v>
       </c>
       <c r="C8">
-        <v>-50.164743799578275</v>
+        <v>-6.1647437995782752</v>
       </c>
       <c r="D8">
         <v>-56.695639249994201</v>
@@ -27044,13 +27044,13 @@
         <v>-2.907989125467509</v>
       </c>
       <c r="F8">
-        <v>-107.08825684083558</v>
+        <v>56.779447015824189</v>
       </c>
       <c r="G8">
-        <v>75.802574790085146</v>
+        <v>168.7715747900852</v>
       </c>
       <c r="H8">
-        <v>-367.1747243831656</v>
+        <v>-285.33172438316558</v>
       </c>
       <c r="I8">
         <v>94.229777558424473</v>
@@ -27085,7 +27085,7 @@
         <v>48.039537083112549</v>
       </c>
       <c r="C9">
-        <v>-52.00251350839514</v>
+        <v>-8.0025135083951398</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -27094,13 +27094,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-107.6166305379561</v>
+        <v>57.991467425944165</v>
       </c>
       <c r="G9">
-        <v>78.698112255622164</v>
+        <v>168.92115468914358</v>
       </c>
       <c r="H9">
-        <v>-442.99030778657436</v>
+        <v>-332.74230778657443</v>
       </c>
       <c r="I9">
         <v>83.152512199130257</v>
@@ -27135,7 +27135,7 @@
         <v>47.454444332033063</v>
       </c>
       <c r="C10">
-        <v>-52.713246721072096</v>
+        <v>-8.1358115154851305</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -27144,13 +27144,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-109.77568064707793</v>
+        <v>59.203487836064141</v>
       </c>
       <c r="G10">
-        <v>78.429819648624289</v>
+        <v>168.28713733479617</v>
       </c>
       <c r="H10">
-        <v>-444.67451262956337</v>
+        <v>-334.34747023032236</v>
       </c>
       <c r="I10">
         <v>78.397392744450201</v>
@@ -27185,7 +27185,7 @@
         <v>47.613845224176771</v>
       </c>
       <c r="C11">
-        <v>-52.936412008170294</v>
+        <v>-8.1776661628989018</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -27194,13 +27194,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-111.93473075619954</v>
+        <v>60.415508246184345</v>
       </c>
       <c r="G11">
-        <v>77.665372035198743</v>
+        <v>166.48062816995434</v>
       </c>
       <c r="H11">
-        <v>-446.33237433110821</v>
+        <v>-335.92752585795336</v>
       </c>
       <c r="I11">
         <v>73.602356577807058</v>
@@ -27235,7 +27235,7 @@
         <v>47.098090151658965</v>
       </c>
       <c r="C12">
-        <v>-55.115132388081264</v>
+        <v>-8.5862851488537615</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -27244,13 +27244,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-112.85020340733786</v>
+        <v>60.929424775216376</v>
       </c>
       <c r="G12">
-        <v>78.572937948807976</v>
+        <v>168.62534824212094</v>
       </c>
       <c r="H12">
-        <v>-447.97969877607562</v>
+        <v>-337.49753875913746</v>
       </c>
       <c r="I12">
         <v>60.738306010595892</v>
@@ -27285,7 +27285,7 @@
         <v>46.582335079141131</v>
       </c>
       <c r="C13">
-        <v>-47.961277998686427</v>
+        <v>-8.9951372198217712</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -27294,13 +27294,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-109.72487233618699</v>
+        <v>61.443341304248634</v>
       </c>
       <c r="G13">
-        <v>72.524125823310442</v>
+        <v>169.74356938095775</v>
       </c>
       <c r="H13">
-        <v>-366.5952695584798</v>
+        <v>-339.06420408483939</v>
       </c>
       <c r="I13">
         <v>47.876046461255555</v>
@@ -27333,7 +27333,7 @@
         <v>46.066580006623298</v>
       </c>
       <c r="C14">
-        <v>-50.142487063018876</v>
+        <v>-9.4042229585155326</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -27342,13 +27342,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-110.64034498732531</v>
+        <v>61.957257833280664</v>
       </c>
       <c r="G14">
-        <v>72.690697728145096</v>
+        <v>170.13720482098574</v>
       </c>
       <c r="H14">
-        <v>-368.24435021287672</v>
+        <v>-340.63589077376469</v>
       </c>
       <c r="I14">
         <v>51.406664131078344</v>
@@ -27375,7 +27375,7 @@
         <v>45.550824934105464</v>
       </c>
       <c r="C15">
-        <v>-54.25075202714595</v>
+        <v>-10.174728012378409</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-111.55581763846385</v>
+        <v>62.471174362312695</v>
       </c>
       <c r="G15">
-        <v>72.504754947846777</v>
+        <v>169.69779297530022</v>
       </c>
       <c r="H15">
-        <v>-369.90923675214009</v>
+        <v>-342.22264155236019</v>
       </c>
       <c r="I15">
         <v>37.445842510045054</v>
@@ -27417,7 +27417,7 @@
         <v>45.820220544996459</v>
       </c>
       <c r="C16">
-        <v>-55.885721729532548</v>
+        <v>-10.481366564078854</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-112.31045772581069</v>
+        <v>62.894804728414101</v>
       </c>
       <c r="G16">
-        <v>72.868020975201262</v>
+        <v>170.55624736271193</v>
       </c>
       <c r="H16">
-        <v>-371.58992917626989</v>
+        <v>-343.82445642062589</v>
       </c>
       <c r="I16">
         <v>32.479535988951</v>
@@ -27459,7 +27459,7 @@
         <v>46.08961615588737</v>
       </c>
       <c r="C17">
-        <v>-57.607357863138446</v>
+        <v>-10.804259404107256</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -27468,13 +27468,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-112.84991680192979</v>
+        <v>63.318435094515735</v>
       </c>
       <c r="G17">
-        <v>72.874328219372046</v>
+        <v>171.52051640171408</v>
       </c>
       <c r="H17">
-        <v>-363.60863523390015</v>
+        <v>-345.43631401533838</v>
       </c>
       <c r="I17">
         <v>33.038276481380422</v>
@@ -27501,7 +27501,7 @@
         <v>46.359011766778281</v>
       </c>
       <c r="C18">
-        <v>-59.407781661489309</v>
+        <v>-11.141928869888432</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -27510,13 +27510,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-113.60455688927641</v>
+        <v>63.742065460617368</v>
       </c>
       <c r="G18">
-        <v>73.263689006015056</v>
+        <v>172.44063678295106</v>
       </c>
       <c r="H18">
-        <v>-365.29635249574829</v>
+        <v>-347.04482403456859</v>
       </c>
       <c r="I18">
         <v>33.603591434267457</v>
@@ -27543,7 +27543,7 @@
         <v>46.62840737766922</v>
       </c>
       <c r="C19">
-        <v>-61.097902729197358</v>
+        <v>-11.458911059615787</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-114.35919697662302</v>
+        <v>64.165695826718775</v>
       </c>
       <c r="G19">
-        <v>73.678153357724113</v>
+        <v>173.42008081117865</v>
       </c>
       <c r="H19">
-        <v>-366.98933838588533</v>
+        <v>-348.65835541702234</v>
       </c>
       <c r="I19">
         <v>34.180022012499421</v>
@@ -27585,7 +27585,7 @@
         <v>47.321344008295341</v>
       </c>
       <c r="C20">
-        <v>-61.288898732099966</v>
+        <v>-11.494732358093188</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-117.17564309248451</v>
+        <v>65.74675694336679</v>
       </c>
       <c r="G20">
-        <v>75.384268025305346</v>
+        <v>177.4518963720202</v>
       </c>
       <c r="H20">
-        <v>-368.68583669488157</v>
+        <v>-350.2752343749583</v>
       </c>
       <c r="I20">
         <v>34.226423302062813</v>
@@ -27627,7 +27627,7 @@
         <v>48.01428063892152</v>
       </c>
       <c r="C21">
-        <v>-61.472015968528012</v>
+        <v>-11.529075993995264</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -27636,13 +27636,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-119.74541306736364</v>
+        <v>67.327818060015034</v>
       </c>
       <c r="G21">
-        <v>76.748650818482247</v>
+        <v>180.85881900115442</v>
       </c>
       <c r="H21">
-        <v>-368.45135262334588</v>
+        <v>-351.89043954515301</v>
       </c>
       <c r="I21">
         <v>34.27694756821063</v>
@@ -27669,7 +27669,7 @@
         <v>48.707217269547613</v>
       </c>
       <c r="C22">
-        <v>-61.647254438481667</v>
+        <v>-11.56194196732207</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-122.56185918322512</v>
+        <v>68.908879176663049</v>
       </c>
       <c r="G22">
-        <v>77.858312857375722</v>
+        <v>183.48112379736654</v>
       </c>
       <c r="H22">
-        <v>-370.12502020975739</v>
+        <v>-353.48555926245427</v>
       </c>
       <c r="I22">
         <v>34.3327483281833</v>
@@ -27711,7 +27711,7 @@
         <v>49.400153900173734</v>
       </c>
       <c r="C23">
-        <v>-61.822492908435265</v>
+        <v>-11.594807940648877</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -27720,13 +27720,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-125.37830529908683</v>
+        <v>70.489940293311065</v>
       </c>
       <c r="G23">
-        <v>78.668003154842609</v>
+        <v>185.39454849432309</v>
       </c>
       <c r="H23">
-        <v>-371.7863943301615</v>
+        <v>-355.06896246556749</v>
       </c>
       <c r="I23">
         <v>34.393013957164499</v>
@@ -27753,7 +27753,7 @@
         <v>50.090219694107674</v>
       </c>
       <c r="C24">
-        <v>-62.007091660579448</v>
+        <v>-11.629429434809026</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -27762,13 +27762,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-127.47740866233153</v>
+        <v>71.668308552785447</v>
       </c>
       <c r="G24">
-        <v>79.045830743169063</v>
+        <v>186.28741412573436</v>
       </c>
       <c r="H24">
-        <v>-373.43547498455843</v>
+        <v>-356.64064915449279</v>
       </c>
       <c r="I24">
         <v>34.464502021904309</v>
@@ -31232,7 +31232,7 @@
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>0</v>
+        <v>49.271999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31261,7 +31261,7 @@
         <v>0.73599999999999</v>
       </c>
       <c r="I3" s="259">
-        <v>0</v>
+        <v>58.244</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31290,7 +31290,7 @@
         <v>391.78358333333341</v>
       </c>
       <c r="I4" s="259">
-        <v>0</v>
+        <v>96.90180399999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31316,7 +31316,7 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>226.21220174709958</v>
+        <v>389.89820174709951</v>
       </c>
       <c r="I5" s="259">
         <v>87.454570502826414</v>
@@ -31345,7 +31345,7 @@
         <v>906.03001879956446</v>
       </c>
       <c r="H6" s="259">
-        <v>-425.7164982344417</v>
+        <v>-262.03049823444167</v>
       </c>
       <c r="I6" s="259">
         <v>104.60367441070301</v>
@@ -31374,7 +31374,7 @@
         <v>926.50683572140088</v>
       </c>
       <c r="H7" s="259">
-        <v>-367.1747243831656</v>
+        <v>-285.33172438316558</v>
       </c>
       <c r="I7" s="259">
         <v>94.229777558424473</v>
@@ -31403,7 +31403,7 @@
         <v>935.88801570004148</v>
       </c>
       <c r="H8" s="259">
-        <v>-442.99030778657436</v>
+        <v>-332.74230778657443</v>
       </c>
       <c r="I8" s="259">
         <v>83.152512199130257</v>
@@ -31432,7 +31432,7 @@
         <v>935.60252133929384</v>
       </c>
       <c r="H9" s="259">
-        <v>-444.67451262956337</v>
+        <v>-334.34747023032236</v>
       </c>
       <c r="I9" s="259">
         <v>78.397392744450201</v>
@@ -31461,7 +31461,7 @@
         <v>921.93178379942924</v>
       </c>
       <c r="H10" s="259">
-        <v>-446.33237433110821</v>
+        <v>-335.92752585795336</v>
       </c>
       <c r="I10" s="259">
         <v>73.602356577807058</v>
@@ -31490,7 +31490,7 @@
         <v>922.96679357866992</v>
       </c>
       <c r="H11" s="259">
-        <v>-447.97969877607562</v>
+        <v>-337.49753875913746</v>
       </c>
       <c r="I11" s="259">
         <v>60.738306010595892</v>
@@ -31519,7 +31519,7 @@
         <v>924.56059251132388</v>
       </c>
       <c r="H12" s="259">
-        <v>-366.5952695584798</v>
+        <v>-339.06420408483939</v>
       </c>
       <c r="I12" s="259">
         <v>47.876046461255555</v>
@@ -31548,7 +31548,7 @@
         <v>926.53654685838478</v>
       </c>
       <c r="H13" s="259">
-        <v>-368.24435021287672</v>
+        <v>-340.63589077376469</v>
       </c>
       <c r="I13" s="259">
         <v>51.406664131078344</v>
@@ -31577,7 +31577,7 @@
         <v>929.6074540197169</v>
       </c>
       <c r="H14" s="259">
-        <v>-369.90923675214009</v>
+        <v>-342.22264155236019</v>
       </c>
       <c r="I14" s="259">
         <v>37.445842510045054</v>
@@ -31606,7 +31606,7 @@
         <v>939.00391731648051</v>
       </c>
       <c r="H15" s="259">
-        <v>-371.58992917626989</v>
+        <v>-343.82445642062589</v>
       </c>
       <c r="I15" s="259">
         <v>32.479535988951</v>
@@ -31635,7 +31635,7 @@
         <v>948.03277360151947</v>
       </c>
       <c r="H16" s="259">
-        <v>-363.60863523390015</v>
+        <v>-345.43631401533838</v>
       </c>
       <c r="I16" s="259">
         <v>33.038276481380422</v>
@@ -31664,7 +31664,7 @@
         <v>955.34762065860946</v>
       </c>
       <c r="H17" s="259">
-        <v>-365.29635249574829</v>
+        <v>-347.04482403456859</v>
       </c>
       <c r="I17" s="259">
         <v>33.603591434267457</v>
@@ -31693,7 +31693,7 @@
         <v>961.61183263262797</v>
       </c>
       <c r="H18" s="259">
-        <v>-366.98933838588533</v>
+        <v>-348.65835541702234</v>
       </c>
       <c r="I18" s="259">
         <v>34.180022012499421</v>
@@ -31722,7 +31722,7 @@
         <v>983.80559967852105</v>
       </c>
       <c r="H19" s="259">
-        <v>-368.68583669488157</v>
+        <v>-350.2752343749583</v>
       </c>
       <c r="I19" s="259">
         <v>34.226423302062813</v>
@@ -31751,7 +31751,7 @@
         <v>1002.5410989249847</v>
       </c>
       <c r="H20" s="259">
-        <v>-368.45135262334588</v>
+        <v>-351.89043954515301</v>
       </c>
       <c r="I20" s="259">
         <v>34.27694756821063</v>
@@ -31780,7 +31780,7 @@
         <v>1018.2130393556045</v>
       </c>
       <c r="H21" s="259">
-        <v>-370.12502020975739</v>
+        <v>-353.48555926245427</v>
       </c>
       <c r="I21" s="259">
         <v>34.3327483281833</v>
@@ -31809,7 +31809,7 @@
         <v>1030.4917377332347</v>
       </c>
       <c r="H22" s="259">
-        <v>-371.7863943301615</v>
+        <v>-355.06896246556749</v>
       </c>
       <c r="I22" s="259">
         <v>34.393013957164499</v>
@@ -31838,7 +31838,7 @@
         <v>1037.1068216073324</v>
       </c>
       <c r="H23" s="259">
-        <v>-373.43547498455843</v>
+        <v>-356.64064915449279</v>
       </c>
       <c r="I23" s="259">
         <v>34.464502021904309</v>
@@ -32880,21 +32880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33111,32 +33096,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33153,4 +33128,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59DE1C-8D89-47E7-9696-E5B57A3E0453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06933BB1-5C41-4D29-AE2F-535FA485CF77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="860" yWindow="810" windowWidth="14400" windowHeight="9350" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1583,6 +1583,525 @@
     <t>BEA Grants Legislation</t>
   </si>
   <si>
+    <t>All Subsidies</t>
+  </si>
+  <si>
+    <t>Total Federal UI</t>
+  </si>
+  <si>
+    <t>FIM State Health</t>
+  </si>
+  <si>
+    <t>FIM Federal Health</t>
+  </si>
+  <si>
+    <t>growth rate</t>
+  </si>
+  <si>
+    <t>State and local nom purchases</t>
+  </si>
+  <si>
+    <t>C Grants</t>
+  </si>
+  <si>
+    <t>share of year FMAP assumptions</t>
+  </si>
+  <si>
+    <t>Total Medicaid estimate</t>
+  </si>
+  <si>
+    <t>ASSUMPTIOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA </t>
+  </si>
+  <si>
+    <t>Fed Share of Medicaid NIPA</t>
+  </si>
+  <si>
+    <t>NIPA Fed Share Medicaid</t>
+  </si>
+  <si>
+    <t>FROM CBO</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t>Medicaid NIPA (all State)</t>
+  </si>
+  <si>
+    <t>All  non Medicaid Grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NonMedicaid Grants less legislation</t>
+  </si>
+  <si>
+    <t>State Social Benefits ex Medicaid NIPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fim State Social Benefits ex Medicaid </t>
+  </si>
+  <si>
+    <t>** aviation subsidies, tax credits for sick leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** make some share like UI, some share like corp taxes.  Preliminary info suggests mostly like tax break. </t>
+  </si>
+  <si>
+    <t>subsidies mpc (60% PPP)</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weighted average </t>
+  </si>
+  <si>
+    <t>new mpc</t>
+  </si>
+  <si>
+    <t>new consumption timing</t>
+  </si>
+  <si>
+    <t>social benefits mpc</t>
+  </si>
+  <si>
+    <t>total mpc</t>
+  </si>
+  <si>
+    <t>speed up UI</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Rebates</t>
+  </si>
+  <si>
+    <t>Our Estimate</t>
+  </si>
+  <si>
+    <t>2019 Actual NIPA</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>add_state_health_outlays</t>
+  </si>
+  <si>
+    <t>add_state_social_benefits</t>
+  </si>
+  <si>
+    <t>add_state_noncorp_taxes</t>
+  </si>
+  <si>
+    <t>add_state_corporate_taxes</t>
+  </si>
+  <si>
+    <t>add_federal_health_outlays</t>
+  </si>
+  <si>
+    <t>add_federal_social_benefits</t>
+  </si>
+  <si>
+    <t>add_federal_subsidies</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Noncorporate Taxes</t>
+  </si>
+  <si>
+    <t>Legislation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AS</t>
+  </si>
+  <si>
+    <t>GDP (Nominal)</t>
+  </si>
+  <si>
+    <t>GDP (Real)</t>
+  </si>
+  <si>
+    <t>BILLIONS</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>Non-Corporate Taxes</t>
+  </si>
+  <si>
+    <t>as a fraction of Federal Corporate</t>
+  </si>
+  <si>
+    <t>FY2023</t>
+  </si>
+  <si>
+    <t>Our estimate</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>grow by</t>
+  </si>
+  <si>
+    <t>FY 2023</t>
+  </si>
+  <si>
+    <t>State Non-Corporate Taxes</t>
+  </si>
+  <si>
+    <t>All other subsidies (aviation, employee retention, paid sick)</t>
+  </si>
+  <si>
+    <t>federal_cgrants_override</t>
+  </si>
+  <si>
+    <t>FY 2024</t>
+  </si>
+  <si>
+    <t>FY 2025</t>
+  </si>
+  <si>
+    <t>FY 2026</t>
+  </si>
+  <si>
+    <t>New Targets (based on incoming data)</t>
+  </si>
+  <si>
+    <t>growth rate (w/o adds)</t>
+  </si>
+  <si>
+    <t>CBO NIPA Translation</t>
+  </si>
+  <si>
+    <t>last quarter of add-ons</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>employee retention</t>
+  </si>
+  <si>
+    <t>paid sick leave</t>
+  </si>
+  <si>
+    <t>real growth rate</t>
+  </si>
+  <si>
+    <t>cbo projected growth rate</t>
+  </si>
+  <si>
+    <t>add_federal_cgrants</t>
+  </si>
+  <si>
+    <t>unemployment_insurance</t>
+  </si>
+  <si>
+    <t>unemployment_insurance_override</t>
+  </si>
+  <si>
+    <t>federal_unemployment_insurance_override</t>
+  </si>
+  <si>
+    <t>state_unemployment_insurance_override</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>gdph</t>
+  </si>
+  <si>
+    <t>gfrpt</t>
+  </si>
+  <si>
+    <t>gfrpri</t>
+  </si>
+  <si>
+    <t>gfrsp</t>
+  </si>
+  <si>
+    <t>gfrcp</t>
+  </si>
+  <si>
+    <t>gsrpt</t>
+  </si>
+  <si>
+    <t>gsrpri</t>
+  </si>
+  <si>
+    <t>gsrsp</t>
+  </si>
+  <si>
+    <t>gsrcp</t>
+  </si>
+  <si>
+    <t>gftfpx</t>
+  </si>
+  <si>
+    <t>yptmrx</t>
+  </si>
+  <si>
+    <t>gftfpe</t>
+  </si>
+  <si>
+    <t>yptux</t>
+  </si>
+  <si>
+    <t>gftfpp</t>
+  </si>
+  <si>
+    <t>gftfpv</t>
+  </si>
+  <si>
+    <t>gsubx</t>
+  </si>
+  <si>
+    <t>gfsubp</t>
+  </si>
+  <si>
+    <t>gfsubg</t>
+  </si>
+  <si>
+    <t>gfsube</t>
+  </si>
+  <si>
+    <t>gfsubk</t>
+  </si>
+  <si>
+    <t>gfegx</t>
+  </si>
+  <si>
+    <t>gfegl</t>
+  </si>
+  <si>
+    <t>gfz</t>
+  </si>
+  <si>
+    <t>gfx</t>
+  </si>
+  <si>
+    <t>gfeghdx</t>
+  </si>
+  <si>
+    <t>gsetfpx</t>
+  </si>
+  <si>
+    <t>yptmdx</t>
+  </si>
+  <si>
+    <t>gsz</t>
+  </si>
+  <si>
+    <t>gsx</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>csipslx</t>
+  </si>
+  <si>
+    <t>csislx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA UI </t>
+  </si>
+  <si>
+    <t>gsubl</t>
+  </si>
+  <si>
+    <t>PPP (round 1)</t>
+  </si>
+  <si>
+    <t>PPP (round 2)</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Rebate Checks - round 1</t>
+  </si>
+  <si>
+    <t>Rebate Checks - round 2</t>
+  </si>
+  <si>
+    <t>round 1</t>
+  </si>
+  <si>
+    <t>round 2</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Unemployment $300 (round 2)</t>
+  </si>
+  <si>
+    <t>add_state_purchases</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>health care</t>
+  </si>
+  <si>
+    <t>Payroll for Airline Workers</t>
+  </si>
+  <si>
+    <t>other spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EITC </t>
+  </si>
+  <si>
+    <t>business meals deductions</t>
+  </si>
+  <si>
+    <t>Funding to States for Testing</t>
+  </si>
+  <si>
+    <t>Vaccine Procurement</t>
+  </si>
+  <si>
+    <t>Vaccine Distribution</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Federal Purchases Stimulus</t>
+  </si>
+  <si>
+    <t>Total (B)</t>
+  </si>
+  <si>
+    <t>Total (M)</t>
+  </si>
+  <si>
+    <t>add_federal_purchases</t>
+  </si>
+  <si>
+    <t>Aid to Small Businesses</t>
+  </si>
+  <si>
+    <t>Unemployment Benefits</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Airline Workers Payroll</t>
+  </si>
+  <si>
+    <t>Other Spending</t>
+  </si>
+  <si>
+    <t>Other Tax Cuts</t>
+  </si>
+  <si>
+    <t>Employee Retention Credit</t>
+  </si>
+  <si>
+    <t>EITC</t>
+  </si>
+  <si>
+    <t>Business Meals Deductions</t>
+  </si>
+  <si>
+    <t>add_rebate_checks</t>
+  </si>
+  <si>
+    <t>MILLIONS (Annualized)</t>
+  </si>
+  <si>
+    <t>override growth rate</t>
+  </si>
+  <si>
+    <t>first estimate</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>code growth rate</t>
+  </si>
+  <si>
+    <t>gfegc</t>
+  </si>
+  <si>
+    <t>gfege</t>
+  </si>
+  <si>
+    <t>gfegv</t>
+  </si>
+  <si>
+    <t>federal nom purchases override growth rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education </t>
+  </si>
+  <si>
+    <t>Non profit Provider relief</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -1592,7 +2111,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*our estimate*</t>
+      <t>our spending out of</t>
     </r>
     <r>
       <rPr>
@@ -1604,525 +2123,6 @@
       </rPr>
       <t xml:space="preserve"> Grants Legislation</t>
     </r>
-  </si>
-  <si>
-    <t>All Subsidies</t>
-  </si>
-  <si>
-    <t>Total Federal UI</t>
-  </si>
-  <si>
-    <t>FIM State Health</t>
-  </si>
-  <si>
-    <t>FIM Federal Health</t>
-  </si>
-  <si>
-    <t>growth rate</t>
-  </si>
-  <si>
-    <t>State and local nom purchases</t>
-  </si>
-  <si>
-    <t>C Grants</t>
-  </si>
-  <si>
-    <t>share of year FMAP assumptions</t>
-  </si>
-  <si>
-    <t>Total Medicaid estimate</t>
-  </si>
-  <si>
-    <t>ASSUMPTIOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA </t>
-  </si>
-  <si>
-    <t>Fed Share of Medicaid NIPA</t>
-  </si>
-  <si>
-    <t>NIPA Fed Share Medicaid</t>
-  </si>
-  <si>
-    <t>FROM CBO</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>Assumed</t>
-  </si>
-  <si>
-    <t>Medicaid NIPA (all State)</t>
-  </si>
-  <si>
-    <t>All  non Medicaid Grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NonMedicaid Grants less legislation</t>
-  </si>
-  <si>
-    <t>State Social Benefits ex Medicaid NIPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fim State Social Benefits ex Medicaid </t>
-  </si>
-  <si>
-    <t>** aviation subsidies, tax credits for sick leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** make some share like UI, some share like corp taxes.  Preliminary info suggests mostly like tax break. </t>
-  </si>
-  <si>
-    <t>subsidies mpc (60% PPP)</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>corp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weighted average </t>
-  </si>
-  <si>
-    <t>new mpc</t>
-  </si>
-  <si>
-    <t>new consumption timing</t>
-  </si>
-  <si>
-    <t>social benefits mpc</t>
-  </si>
-  <si>
-    <t>total mpc</t>
-  </si>
-  <si>
-    <t>speed up UI</t>
-  </si>
-  <si>
-    <t>Weights</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Rebates</t>
-  </si>
-  <si>
-    <t>Our Estimate</t>
-  </si>
-  <si>
-    <t>2019 Actual NIPA</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>add_state_health_outlays</t>
-  </si>
-  <si>
-    <t>add_state_social_benefits</t>
-  </si>
-  <si>
-    <t>add_state_noncorp_taxes</t>
-  </si>
-  <si>
-    <t>add_state_corporate_taxes</t>
-  </si>
-  <si>
-    <t>add_federal_health_outlays</t>
-  </si>
-  <si>
-    <t>add_federal_social_benefits</t>
-  </si>
-  <si>
-    <t>add_federal_subsidies</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Noncorporate Taxes</t>
-  </si>
-  <si>
-    <t>Legislation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AS</t>
-  </si>
-  <si>
-    <t>GDP (Nominal)</t>
-  </si>
-  <si>
-    <t>GDP (Real)</t>
-  </si>
-  <si>
-    <t>BILLIONS</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>Non-Corporate Taxes</t>
-  </si>
-  <si>
-    <t>as a fraction of Federal Corporate</t>
-  </si>
-  <si>
-    <t>FY2023</t>
-  </si>
-  <si>
-    <t>Our estimate</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>grow by</t>
-  </si>
-  <si>
-    <t>FY 2023</t>
-  </si>
-  <si>
-    <t>State Non-Corporate Taxes</t>
-  </si>
-  <si>
-    <t>All other subsidies (aviation, employee retention, paid sick)</t>
-  </si>
-  <si>
-    <t>federal_cgrants_override</t>
-  </si>
-  <si>
-    <t>FY 2024</t>
-  </si>
-  <si>
-    <t>FY 2025</t>
-  </si>
-  <si>
-    <t>FY 2026</t>
-  </si>
-  <si>
-    <t>New Targets (based on incoming data)</t>
-  </si>
-  <si>
-    <t>growth rate (w/o adds)</t>
-  </si>
-  <si>
-    <t>CBO NIPA Translation</t>
-  </si>
-  <si>
-    <t>last quarter of add-ons</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>aviation</t>
-  </si>
-  <si>
-    <t>employee retention</t>
-  </si>
-  <si>
-    <t>paid sick leave</t>
-  </si>
-  <si>
-    <t>real growth rate</t>
-  </si>
-  <si>
-    <t>cbo projected growth rate</t>
-  </si>
-  <si>
-    <t>add_federal_cgrants</t>
-  </si>
-  <si>
-    <t>unemployment_insurance</t>
-  </si>
-  <si>
-    <t>unemployment_insurance_override</t>
-  </si>
-  <si>
-    <t>federal_unemployment_insurance_override</t>
-  </si>
-  <si>
-    <t>state_unemployment_insurance_override</t>
-  </si>
-  <si>
-    <t>gdp</t>
-  </si>
-  <si>
-    <t>gdph</t>
-  </si>
-  <si>
-    <t>gfrpt</t>
-  </si>
-  <si>
-    <t>gfrpri</t>
-  </si>
-  <si>
-    <t>gfrsp</t>
-  </si>
-  <si>
-    <t>gfrcp</t>
-  </si>
-  <si>
-    <t>gsrpt</t>
-  </si>
-  <si>
-    <t>gsrpri</t>
-  </si>
-  <si>
-    <t>gsrsp</t>
-  </si>
-  <si>
-    <t>gsrcp</t>
-  </si>
-  <si>
-    <t>gftfpx</t>
-  </si>
-  <si>
-    <t>yptmrx</t>
-  </si>
-  <si>
-    <t>gftfpe</t>
-  </si>
-  <si>
-    <t>yptux</t>
-  </si>
-  <si>
-    <t>gftfpp</t>
-  </si>
-  <si>
-    <t>gftfpv</t>
-  </si>
-  <si>
-    <t>gsubx</t>
-  </si>
-  <si>
-    <t>gfsubp</t>
-  </si>
-  <si>
-    <t>gfsubg</t>
-  </si>
-  <si>
-    <t>gfsube</t>
-  </si>
-  <si>
-    <t>gfsubk</t>
-  </si>
-  <si>
-    <t>gfegx</t>
-  </si>
-  <si>
-    <t>gfegl</t>
-  </si>
-  <si>
-    <t>gfz</t>
-  </si>
-  <si>
-    <t>gfx</t>
-  </si>
-  <si>
-    <t>gfeghdx</t>
-  </si>
-  <si>
-    <t>gsetfpx</t>
-  </si>
-  <si>
-    <t>yptmdx</t>
-  </si>
-  <si>
-    <t>gsz</t>
-  </si>
-  <si>
-    <t>gsx</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>2019-06-30</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>csipslx</t>
-  </si>
-  <si>
-    <t>csislx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA UI </t>
-  </si>
-  <si>
-    <t>gsubl</t>
-  </si>
-  <si>
-    <t>PPP (round 1)</t>
-  </si>
-  <si>
-    <t>PPP (round 2)</t>
-  </si>
-  <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>Round 2</t>
-  </si>
-  <si>
-    <t>Rebate Checks - round 1</t>
-  </si>
-  <si>
-    <t>Rebate Checks - round 2</t>
-  </si>
-  <si>
-    <t>round 1</t>
-  </si>
-  <si>
-    <t>round 2</t>
-  </si>
-  <si>
-    <t>transportation</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>Unemployment $300 (round 2)</t>
-  </si>
-  <si>
-    <t>add_state_purchases</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>health care</t>
-  </si>
-  <si>
-    <t>Payroll for Airline Workers</t>
-  </si>
-  <si>
-    <t>other spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EITC </t>
-  </si>
-  <si>
-    <t>business meals deductions</t>
-  </si>
-  <si>
-    <t>Funding to States for Testing</t>
-  </si>
-  <si>
-    <t>Vaccine Procurement</t>
-  </si>
-  <si>
-    <t>Vaccine Distribution</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Federal Purchases Stimulus</t>
-  </si>
-  <si>
-    <t>Total (B)</t>
-  </si>
-  <si>
-    <t>Total (M)</t>
-  </si>
-  <si>
-    <t>add_federal_purchases</t>
-  </si>
-  <si>
-    <t>Aid to Small Businesses</t>
-  </si>
-  <si>
-    <t>Unemployment Benefits</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Airline Workers Payroll</t>
-  </si>
-  <si>
-    <t>Other Spending</t>
-  </si>
-  <si>
-    <t>Other Tax Cuts</t>
-  </si>
-  <si>
-    <t>Employee Retention Credit</t>
-  </si>
-  <si>
-    <t>EITC</t>
-  </si>
-  <si>
-    <t>Business Meals Deductions</t>
-  </si>
-  <si>
-    <t>add_rebate_checks</t>
-  </si>
-  <si>
-    <t>MILLIONS (Annualized)</t>
-  </si>
-  <si>
-    <t>override growth rate</t>
-  </si>
-  <si>
-    <t>first estimate</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>Before</t>
-  </si>
-  <si>
-    <t>code growth rate</t>
-  </si>
-  <si>
-    <t>gfegc</t>
-  </si>
-  <si>
-    <t>gfege</t>
-  </si>
-  <si>
-    <t>gfegv</t>
-  </si>
-  <si>
-    <t>federal nom purchases override growth rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education </t>
-  </si>
-  <si>
-    <t>Non profit Provider relief</t>
   </si>
 </sst>
 </file>
@@ -3584,21 +3584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3620,14 +3605,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4143,10 +4143,10 @@
   <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R83" sqref="R83"/>
+      <selection pane="bottomRight" activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4170,34 +4170,34 @@
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="341" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="341"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="347" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD1" s="347"/>
       <c r="AE1" s="345" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF1" s="346"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
       <c r="AI1" s="343" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ1" s="343"/>
       <c r="AK1" s="343"/>
       <c r="AL1" s="343"/>
       <c r="AM1" s="342" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN1" s="342"/>
       <c r="AO1" s="342"/>
@@ -4229,7 +4229,7 @@
       <c r="T2" s="340"/>
       <c r="U2" s="340"/>
       <c r="V2" s="340" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W2" s="340"/>
       <c r="X2" s="340"/>
@@ -4327,7 +4327,7 @@
         <v>11</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>159</v>
@@ -4342,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="AL3" s="97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AN3" s="97" t="s">
         <v>12</v>
@@ -4351,12 +4351,12 @@
         <v>11</v>
       </c>
       <c r="AP3" s="97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="339" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="339"/>
       <c r="C4" s="268"/>
@@ -4383,13 +4383,13 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="198">
         <v>20909.900000000001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="6" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="269"/>
       <c r="D6" s="269"/>
@@ -4567,13 +4567,13 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F7" s="198">
         <v>18813.900000000001</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="8" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="269"/>
       <c r="D8" s="269"/>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="198">
         <f>F12+F15+F18</f>
@@ -4870,10 +4870,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12"/>
       <c r="F12" s="198">
@@ -4981,7 +4981,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="212" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14" s="269"/>
       <c r="D14" s="269"/>
@@ -5103,10 +5103,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15"/>
       <c r="F15" s="198">
@@ -5210,7 +5210,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="17" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="269"/>
       <c r="D17" s="269"/>
@@ -5337,10 +5337,10 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18"/>
       <c r="F18" s="198">
@@ -5448,7 +5448,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="20" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="269"/>
       <c r="D20" s="269"/>
@@ -5570,10 +5570,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21"/>
       <c r="F21" s="198">
@@ -5680,7 +5680,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="23" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="177" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="269"/>
       <c r="D23" s="269"/>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="25" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="269"/>
       <c r="D25" s="269"/>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="176" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F26" s="203">
         <f>SUM(F27:F29)</f>
@@ -5953,7 +5953,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27"/>
       <c r="F27" s="197">
@@ -6022,7 +6022,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D28"/>
       <c r="F28" s="197">
@@ -6091,7 +6091,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29"/>
       <c r="F29" s="197">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D30"/>
       <c r="F30" s="197">
@@ -6226,7 +6226,7 @@
     </row>
     <row r="31" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A31" s="177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F31" s="209">
         <f t="shared" ref="F31:L31" si="27">F30/F21</f>
@@ -6348,10 +6348,10 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D34"/>
       <c r="F34" s="202">
@@ -6449,10 +6449,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D35"/>
       <c r="F35" s="202">
@@ -6571,13 +6571,13 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" s="93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D36"/>
       <c r="F36" s="202"/>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="37" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="281" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F37" s="202"/>
       <c r="G37" s="202"/>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="38" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="281" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F38" s="202"/>
       <c r="G38" s="202"/>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="39" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="281" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F39" s="202"/>
       <c r="G39" s="202"/>
@@ -6855,13 +6855,13 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A41" s="115" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D41"/>
       <c r="F41" s="202"/>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A42" s="117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="202"/>
       <c r="G42" s="202"/>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="45" spans="1:39" s="274" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="273" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F45" s="202"/>
       <c r="G45" s="202"/>
@@ -7287,10 +7287,10 @@
         <v>205</v>
       </c>
       <c r="B48" s="107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F48" s="326"/>
       <c r="G48" s="326"/>
@@ -7343,13 +7343,13 @@
     </row>
     <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="333" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F49" s="326"/>
       <c r="G49" s="326"/>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="51" spans="1:41" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A51" s="169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="269"/>
       <c r="D51" s="269"/>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="52" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F52" s="207"/>
       <c r="G52" s="207"/>
@@ -7677,10 +7677,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="141"/>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="P54" s="144">
         <f t="shared" si="39"/>
-        <v>794083.58333333337</v>
+        <v>1259483.5833333333</v>
       </c>
       <c r="Q54" s="144">
         <f t="shared" si="39"/>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="P55" s="116">
         <f t="shared" ref="P55:V55" si="41">P57+P58+SUM(P63:P66)</f>
-        <v>719253.33333333337</v>
+        <v>1184653.3333333333</v>
       </c>
       <c r="Q55" s="116">
         <f t="shared" si="41"/>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="56" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="219" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F56" s="197"/>
       <c r="G56" s="197"/>
@@ -7870,10 +7870,10 @@
     </row>
     <row r="57" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="271" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D57"/>
       <c r="F57" s="197"/>
@@ -7933,10 +7933,10 @@
     </row>
     <row r="58" spans="1:41" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58"/>
       <c r="F58" s="197"/>
@@ -7996,13 +7996,13 @@
     </row>
     <row r="59" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="272" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B59" s="185" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D59"/>
       <c r="F59" s="207"/>
@@ -8044,13 +8044,13 @@
     </row>
     <row r="60" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B60" s="185" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D60"/>
       <c r="F60" s="207"/>
@@ -8092,13 +8092,13 @@
     </row>
     <row r="61" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="272" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B61" s="185" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D61"/>
       <c r="F61" s="207"/>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="62" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="219" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="63" spans="1:41" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="273" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F63" s="197"/>
       <c r="G63" s="197"/>
@@ -8192,8 +8192,8 @@
         <v>650000</v>
       </c>
       <c r="P63" s="279">
-        <f>'Stimulus Round 2'!$C$2*4/2</f>
-        <v>650000</v>
+        <f>(O63-184600)+('Stimulus Round 2'!$C$2*4/2)</f>
+        <v>1115400</v>
       </c>
       <c r="Q63" s="279"/>
       <c r="R63" s="279"/>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="64" spans="1:41" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="273" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F64" s="197"/>
       <c r="G64" s="197"/>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="65" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="273" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F65" s="197"/>
       <c r="G65" s="197"/>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="66" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="273" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F66" s="197"/>
       <c r="G66" s="197"/>
@@ -8398,10 +8398,10 @@
         <v>16</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D68"/>
       <c r="F68" s="197">
@@ -8432,7 +8432,10 @@
         <f>VLOOKUP($C$68,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>738144</v>
       </c>
-      <c r="O68" s="116"/>
+      <c r="O68" s="308">
+        <f>783900</f>
+        <v>783900</v>
+      </c>
       <c r="P68" s="116"/>
       <c r="Q68" s="116"/>
       <c r="R68" s="116"/>
@@ -8466,7 +8469,7 @@
       <c r="K69" s="202"/>
       <c r="L69" s="202">
         <f>L72-L75-L76-L77</f>
-        <v>562900</v>
+        <v>600300</v>
       </c>
       <c r="M69" s="301"/>
       <c r="N69" s="308"/>
@@ -8492,7 +8495,7 @@
     </row>
     <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F70" s="203">
         <f t="shared" ref="F70:L70" si="42">F68-F93</f>
@@ -8529,7 +8532,10 @@
         <f>N68-N93</f>
         <v>225951</v>
       </c>
-      <c r="O70" s="116"/>
+      <c r="O70" s="308">
+        <f>O68-O93</f>
+        <v>276422.75188174885</v>
+      </c>
       <c r="P70" s="116"/>
       <c r="Q70" s="116"/>
       <c r="R70" s="116"/>
@@ -8552,7 +8558,7 @@
     </row>
     <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F71" s="197"/>
       <c r="G71" s="197"/>
@@ -8562,7 +8568,7 @@
       <c r="K71" s="202"/>
       <c r="L71" s="202">
         <f>L70-L72</f>
-        <v>230950</v>
+        <v>193550</v>
       </c>
       <c r="M71" s="303">
         <v>203600</v>
@@ -8633,10 +8639,10 @@
         <v>208</v>
       </c>
       <c r="B72" s="138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D72"/>
       <c r="F72" s="204"/>
@@ -8646,18 +8652,21 @@
       <c r="J72" s="205"/>
       <c r="K72" s="205"/>
       <c r="L72" s="205">
-        <f>597.9*1000 +L77+L76</f>
-        <v>653300</v>
+        <f>'Haver NA'!H34</f>
+        <v>690700</v>
       </c>
       <c r="M72" s="205">
-        <f>M75+M76+M77</f>
-        <v>87800</v>
+        <f>'Haver NA'!I34</f>
+        <v>39200</v>
       </c>
       <c r="N72" s="205">
         <f>VLOOKUP($C$72,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>29000</v>
       </c>
-      <c r="O72" s="139"/>
+      <c r="O72" s="139">
+        <f>28900 + 17100</f>
+        <v>46000</v>
+      </c>
       <c r="P72" s="139"/>
       <c r="Q72" s="139"/>
       <c r="R72" s="139"/>
@@ -8678,9 +8687,9 @@
       <c r="AG72" s="140"/>
       <c r="AM72" s="236"/>
     </row>
-    <row r="73" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="134" t="s">
-        <v>209</v>
+        <v>382</v>
       </c>
       <c r="F73" s="197"/>
       <c r="G73" s="197"/>
@@ -8702,19 +8711,19 @@
       </c>
       <c r="O73" s="116">
         <f t="shared" ref="O73:Z73" si="44">O74+O78</f>
-        <v>159900</v>
+        <v>124900</v>
       </c>
       <c r="P73" s="116">
         <f t="shared" si="44"/>
-        <v>121000</v>
+        <v>131000</v>
       </c>
       <c r="Q73" s="116">
         <f t="shared" si="44"/>
-        <v>121000</v>
+        <v>125000</v>
       </c>
       <c r="R73" s="116">
         <f t="shared" si="44"/>
-        <v>115000</v>
+        <v>119000</v>
       </c>
       <c r="S73" s="116">
         <f t="shared" si="44"/>
@@ -8738,7 +8747,7 @@
       </c>
       <c r="X73" s="116">
         <f t="shared" si="44"/>
-        <v>59000</v>
+        <v>69000</v>
       </c>
       <c r="Y73" s="116">
         <f t="shared" si="44"/>
@@ -8759,7 +8768,7 @@
     </row>
     <row r="74" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="219" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F74" s="197"/>
       <c r="G74" s="197"/>
@@ -8772,19 +8781,19 @@
       <c r="N74" s="308"/>
       <c r="O74" s="116">
         <f t="shared" ref="O74:Z74" si="45">SUM(O75:O77)</f>
-        <v>100900</v>
+        <v>72900</v>
       </c>
       <c r="P74" s="116">
         <f t="shared" si="45"/>
-        <v>62000</v>
+        <v>72000</v>
       </c>
       <c r="Q74" s="116">
         <f t="shared" si="45"/>
-        <v>62000</v>
+        <v>66000</v>
       </c>
       <c r="R74" s="116">
         <f t="shared" si="45"/>
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="S74" s="116">
         <f t="shared" si="45"/>
@@ -8808,7 +8817,7 @@
       </c>
       <c r="X74" s="116">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y74" s="116">
         <f t="shared" si="45"/>
@@ -8832,10 +8841,10 @@
         <v>197</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
@@ -8853,7 +8862,7 @@
         <v>60000</v>
       </c>
       <c r="O75" s="116">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="P75" s="116">
         <v>50000</v>
@@ -8879,7 +8888,9 @@
       <c r="W75" s="116">
         <v>50000</v>
       </c>
-      <c r="X75" s="44"/>
+      <c r="X75" s="44">
+        <v>10000</v>
+      </c>
       <c r="Y75" s="44"/>
       <c r="Z75" s="44"/>
       <c r="AA75" s="44"/>
@@ -8893,13 +8904,13 @@
     </row>
     <row r="76" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="334" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B76" s="107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F76" s="335"/>
       <c r="G76" s="335"/>
@@ -8917,16 +8928,16 @@
         <v>15200</v>
       </c>
       <c r="O76" s="337">
-        <v>28900</v>
+        <v>10900</v>
       </c>
       <c r="P76" s="337">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q76" s="337">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="R76" s="337">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S76" s="330"/>
       <c r="T76" s="330"/>
@@ -8950,10 +8961,10 @@
         <v>201</v>
       </c>
       <c r="B77" s="107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F77" s="335"/>
       <c r="G77" s="335"/>
@@ -9001,7 +9012,7 @@
     </row>
     <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="220" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F78" s="197"/>
       <c r="G78" s="197"/>
@@ -9014,7 +9025,7 @@
       <c r="N78" s="308"/>
       <c r="O78" s="116">
         <f>SUM(O79:O82)</f>
-        <v>59000</v>
+        <v>52000</v>
       </c>
       <c r="P78" s="116">
         <f t="shared" ref="P78:Z78" si="46">SUM(P79:P82)</f>
@@ -9071,7 +9082,7 @@
     </row>
     <row r="79" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="282" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F79" s="197"/>
       <c r="G79" s="197"/>
@@ -9141,7 +9152,7 @@
     </row>
     <row r="80" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="282" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F80" s="197"/>
       <c r="G80" s="197"/>
@@ -9153,8 +9164,8 @@
       <c r="M80" s="301"/>
       <c r="N80" s="308"/>
       <c r="O80" s="279">
-        <f>'Stimulus Round 2'!$C$5*4/12</f>
-        <v>27333.333333333332</v>
+        <f>'Stimulus Round 2'!$C$5*4/12 - 7000</f>
+        <v>20333.333333333332</v>
       </c>
       <c r="P80" s="279">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
@@ -9200,7 +9211,9 @@
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="AA80" s="276"/>
+      <c r="AA80" s="276">
+        <v>7000</v>
+      </c>
       <c r="AB80" s="276"/>
       <c r="AC80" s="276"/>
       <c r="AD80" s="276"/>
@@ -9211,7 +9224,7 @@
     </row>
     <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="282" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F81" s="197"/>
       <c r="G81" s="197"/>
@@ -9281,7 +9294,7 @@
     </row>
     <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="282" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F82" s="197"/>
       <c r="G82" s="197"/>
@@ -9351,7 +9364,7 @@
     </row>
     <row r="83" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B83" s="141"/>
       <c r="E83" s="141"/>
@@ -9366,7 +9379,7 @@
       </c>
       <c r="L83" s="206">
         <f t="shared" ref="L83:Z83" si="47">L71+L73</f>
-        <v>321350</v>
+        <v>283950</v>
       </c>
       <c r="M83" s="206">
         <f t="shared" si="47"/>
@@ -9378,19 +9391,19 @@
       </c>
       <c r="O83" s="144">
         <f t="shared" si="47"/>
-        <v>357638.804</v>
+        <v>322638.804</v>
       </c>
       <c r="P83" s="144">
         <f t="shared" si="47"/>
-        <v>319529.75921599998</v>
+        <v>329529.75921599998</v>
       </c>
       <c r="Q83" s="144">
         <f t="shared" si="47"/>
-        <v>320323.878252864</v>
+        <v>324323.878252864</v>
       </c>
       <c r="R83" s="144">
         <f t="shared" si="47"/>
-        <v>315121.17376587546</v>
+        <v>319121.17376587546</v>
       </c>
       <c r="S83" s="144">
         <f t="shared" si="47"/>
@@ -9414,7 +9427,7 @@
       </c>
       <c r="X83" s="144">
         <f t="shared" si="47"/>
-        <v>263972.36794275837</v>
+        <v>273972.36794275837</v>
       </c>
       <c r="Y83" s="144">
         <f t="shared" si="47"/>
@@ -9469,10 +9482,10 @@
         <v>17</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D85"/>
       <c r="F85" s="206">
@@ -9533,10 +9546,10 @@
         <v>203</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D86"/>
       <c r="F86" s="197"/>
@@ -9608,7 +9621,7 @@
     </row>
     <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9740,7 +9753,7 @@
     </row>
     <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F89" s="207"/>
       <c r="G89" s="207"/>
@@ -9788,7 +9801,7 @@
     </row>
     <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="284" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F90" s="300"/>
       <c r="G90" s="300"/>
@@ -9836,7 +9849,7 @@
     </row>
     <row r="91" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="284" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F91" s="300"/>
       <c r="G91" s="300"/>
@@ -9884,7 +9897,7 @@
     </row>
     <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="284" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F92" s="300"/>
       <c r="G92" s="300"/>
@@ -9935,10 +9948,10 @@
         <v>204</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D93"/>
       <c r="F93" s="206">
@@ -10134,7 +10147,7 @@
     </row>
     <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95" s="141"/>
       <c r="E95" s="141"/>
@@ -10222,10 +10235,10 @@
         <v>15</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D97"/>
       <c r="F97" s="197">
@@ -10292,7 +10305,7 @@
     </row>
     <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F98" s="203">
         <f t="shared" ref="F98:K98" si="55">F97-F100</f>
@@ -10377,13 +10390,13 @@
     </row>
     <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D100"/>
       <c r="F100" s="197">
@@ -10476,7 +10489,7 @@
     </row>
     <row r="101" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F101" s="207"/>
       <c r="G101" s="207"/>
@@ -10512,7 +10525,7 @@
     </row>
     <row r="102" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A102" s="153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F102" s="208">
         <f t="shared" ref="F102:L102" si="59">F93/F100</f>
@@ -10562,10 +10575,10 @@
         <v>18</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D103"/>
       <c r="F103" s="197">
@@ -10632,7 +10645,7 @@
     </row>
     <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="169" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
@@ -10684,10 +10697,10 @@
     </row>
     <row r="105" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
@@ -10740,13 +10753,13 @@
     </row>
     <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D106"/>
       <c r="F106" s="197"/>
@@ -10853,7 +10866,7 @@
     </row>
     <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="169" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
@@ -10893,7 +10906,7 @@
     </row>
     <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F109" s="207"/>
       <c r="G109" s="207"/>
@@ -10944,7 +10957,7 @@
     </row>
     <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="169" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F110" s="207"/>
       <c r="G110" s="207"/>
@@ -11062,7 +11075,7 @@
     </row>
     <row r="112" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B112" s="141"/>
       <c r="E112" s="141"/>
@@ -11149,7 +11162,7 @@
     </row>
     <row r="113" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="141" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
@@ -11470,20 +11483,20 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" s="157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="157" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="157" t="s">
         <v>233</v>
-      </c>
-      <c r="C4" s="157" t="s">
-        <v>234</v>
       </c>
       <c r="D4" s="157">
         <v>1</v>
@@ -11524,7 +11537,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="157">
         <v>0.4</v>
@@ -11628,7 +11641,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="157">
         <f>SUMPRODUCT(C5:C6,B5:B6)</f>
@@ -11681,7 +11694,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="161">
@@ -11691,7 +11704,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" s="157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="162">
         <f>SUMPRODUCT(D5:D6,$C5:$C6)</f>
@@ -11751,10 +11764,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="157">
         <v>1</v>
@@ -11897,7 +11910,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="157">
         <f>D15*$C$15+D16*$C$16+D17*$C17</f>
@@ -11934,7 +11947,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="157">
         <f>SUMPRODUCT(C15:C17,B15:B17)</f>
@@ -11943,7 +11956,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="161"/>
       <c r="D20" s="165">
@@ -12017,12 +12030,12 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -12040,7 +12053,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" s="157">
         <v>1065.5</v>
@@ -12052,7 +12065,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="157">
         <v>1078.0999999999999</v>
@@ -12095,20 +12108,20 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" s="157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="157" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="157" t="s">
         <v>233</v>
-      </c>
-      <c r="C4" s="157" t="s">
-        <v>234</v>
       </c>
       <c r="D4" s="157">
         <v>1</v>
@@ -12149,7 +12162,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="157">
         <v>0.4</v>
@@ -12253,7 +12266,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="157">
         <f>SUMPRODUCT(C5:C6,B5:B6)</f>
@@ -12306,7 +12319,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="161">
@@ -12316,7 +12329,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" s="157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="162">
         <f>SUMPRODUCT(D5:D6,$C5:$C6)</f>
@@ -12376,10 +12389,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="157">
         <v>1</v>
@@ -12522,7 +12535,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="157">
         <f>D15*$C$15+D16*$C$16+D17*$C17</f>
@@ -12559,7 +12572,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="157">
         <f>SUMPRODUCT(C15:C17,B15:B17)</f>
@@ -12568,7 +12581,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="161"/>
       <c r="D20" s="165">
@@ -12642,12 +12655,12 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -12665,7 +12678,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" s="157">
         <v>1065.5</v>
@@ -12677,7 +12690,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="157">
         <v>1078.0999999999999</v>
@@ -12920,10 +12933,10 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="29">
@@ -12946,7 +12959,7 @@
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -12956,7 +12969,7 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -12992,7 +13005,7 @@
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
@@ -13010,12 +13023,12 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="94">
         <f>main!K102</f>
@@ -13048,7 +13061,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -14681,7 +14694,7 @@
       </c>
       <c r="I70" s="102">
         <f>main!P54/1000</f>
-        <v>794.08358333333342</v>
+        <v>1259.4835833333332</v>
       </c>
       <c r="J70" s="102">
         <f>main!Q54/1000</f>
@@ -14749,7 +14762,7 @@
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
-        <v>-306.96952490565661</v>
+        <v>158.43047509434314</v>
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
@@ -15041,68 +15054,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="364" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="370"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="375" t="s">
+      <c r="A4" s="365"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="370" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="375"/>
-      <c r="M4" s="375"/>
-      <c r="N4" s="375"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="371" t="s">
+      <c r="C5" s="366" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="373"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="368"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="374" t="s">
+      <c r="L5" s="369" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="340"/>
@@ -15113,16 +15126,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="365">
+      <c r="C6" s="372">
         <v>2020</v>
       </c>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="367"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="374"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15594,12 +15607,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="368" t="s">
+      <c r="K23" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="368"/>
-      <c r="M23" s="368"/>
-      <c r="N23" s="368"/>
+      <c r="L23" s="375"/>
+      <c r="M23" s="375"/>
+      <c r="N23" s="375"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15768,8 +15781,8 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="364" t="s">
-        <v>257</v>
+      <c r="I28" s="371" t="s">
+        <v>256</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>144</v>
@@ -15818,7 +15831,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="364"/>
+      <c r="I29" s="371"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15866,7 +15879,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="364"/>
+      <c r="I30" s="371"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15914,7 +15927,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="364"/>
+      <c r="I31" s="371"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15976,11 +15989,11 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="364" t="s">
+      <c r="I33" s="371" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M33" s="72">
         <f t="shared" ref="M33:V33" si="9">SUM(M28:M31)</f>
@@ -16024,9 +16037,9 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="364"/>
+      <c r="I34" s="371"/>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K34" s="72">
         <f>K26-K33</f>
@@ -16079,12 +16092,12 @@
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
@@ -16192,7 +16205,7 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.35">
@@ -16229,7 +16242,7 @@
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N47" s="316" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O47">
         <v>32</v>
@@ -16237,7 +16250,7 @@
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O48">
         <v>36.75</v>
@@ -16261,12 +16274,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16274,6 +16281,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16380,22 +16393,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="377" t="s">
+      <c r="E6" s="379" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="377"/>
-      <c r="G6" s="377"/>
-      <c r="H6" s="377"/>
-      <c r="I6" s="377"/>
-      <c r="J6" s="377"/>
-      <c r="K6" s="377"/>
-      <c r="L6" s="377"/>
-      <c r="M6" s="377"/>
-      <c r="N6" s="377"/>
-      <c r="O6" s="377"/>
-      <c r="P6" s="377"/>
-      <c r="Q6" s="377"/>
-      <c r="R6" s="377"/>
+      <c r="F6" s="379"/>
+      <c r="G6" s="379"/>
+      <c r="H6" s="379"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="379"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="379"/>
+      <c r="M6" s="379"/>
+      <c r="N6" s="379"/>
+      <c r="O6" s="379"/>
+      <c r="P6" s="379"/>
+      <c r="Q6" s="379"/>
+      <c r="R6" s="379"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="376" t="s">
@@ -17131,21 +17144,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="378" t="s">
+      <c r="H27" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
-      <c r="K27" s="378"/>
-      <c r="L27" s="378"/>
-      <c r="M27" s="378"/>
-      <c r="N27" s="378"/>
-      <c r="O27" s="378"/>
-      <c r="P27" s="378"/>
-      <c r="Q27" s="378"/>
-      <c r="R27" s="378"/>
-      <c r="S27" s="378"/>
-      <c r="T27" s="378"/>
+      <c r="I27" s="377"/>
+      <c r="J27" s="377"/>
+      <c r="K27" s="377"/>
+      <c r="L27" s="377"/>
+      <c r="M27" s="377"/>
+      <c r="N27" s="377"/>
+      <c r="O27" s="377"/>
+      <c r="P27" s="377"/>
+      <c r="Q27" s="377"/>
+      <c r="R27" s="377"/>
+      <c r="S27" s="377"/>
+      <c r="T27" s="377"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17461,21 +17474,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="379" t="s">
+      <c r="F37" s="378" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="379"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="379"/>
-      <c r="J37" s="379"/>
-      <c r="K37" s="379"/>
-      <c r="L37" s="379"/>
-      <c r="M37" s="379"/>
-      <c r="N37" s="379"/>
-      <c r="O37" s="379"/>
-      <c r="P37" s="379"/>
-      <c r="Q37" s="379"/>
-      <c r="R37" s="379"/>
+      <c r="G37" s="378"/>
+      <c r="H37" s="378"/>
+      <c r="I37" s="378"/>
+      <c r="J37" s="378"/>
+      <c r="K37" s="378"/>
+      <c r="L37" s="378"/>
+      <c r="M37" s="378"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17791,21 +17804,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="378" t="s">
+      <c r="F48" s="377" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="378"/>
-      <c r="H48" s="378"/>
-      <c r="I48" s="378"/>
-      <c r="J48" s="378"/>
-      <c r="K48" s="378"/>
-      <c r="L48" s="378"/>
-      <c r="M48" s="378"/>
-      <c r="N48" s="378"/>
-      <c r="O48" s="378"/>
-      <c r="P48" s="378"/>
-      <c r="Q48" s="378"/>
-      <c r="R48" s="378"/>
+      <c r="G48" s="377"/>
+      <c r="H48" s="377"/>
+      <c r="I48" s="377"/>
+      <c r="J48" s="377"/>
+      <c r="K48" s="377"/>
+      <c r="L48" s="377"/>
+      <c r="M48" s="377"/>
+      <c r="N48" s="377"/>
+      <c r="O48" s="377"/>
+      <c r="P48" s="377"/>
+      <c r="Q48" s="377"/>
+      <c r="R48" s="377"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18117,6 +18130,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18125,12 +18144,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21805,7 +21818,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21817,18 +21830,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>357</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="289" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" s="289">
         <v>325</v>
@@ -21840,7 +21853,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="289" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B3" s="289">
         <v>120</v>
@@ -21876,7 +21889,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="289" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" s="289">
         <v>63</v>
@@ -21888,7 +21901,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="291" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -21900,7 +21913,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="176" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -21912,7 +21925,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -21937,7 +21950,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="292" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="289">
         <v>45</v>
@@ -21949,7 +21962,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="291" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="289">
         <v>16</v>
@@ -21974,7 +21987,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B14" s="289">
         <v>80</v>
@@ -21986,7 +21999,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="291" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" s="289">
         <v>26</v>
@@ -22011,7 +22024,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="292" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -22023,7 +22036,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="291" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -22035,7 +22048,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="291" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -22047,7 +22060,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="293" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="294">
         <v>5</v>
@@ -22076,8 +22089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AW73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
@@ -22107,7 +22120,7 @@
       <c r="H1"/>
       <c r="I1" s="240"/>
       <c r="J1" s="356" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V1" s="340"/>
       <c r="W1" s="340"/>
@@ -22168,25 +22181,25 @@
       <c r="M7" s="354"/>
       <c r="N7" s="354"/>
       <c r="O7" s="353" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P7" s="354"/>
       <c r="Q7" s="354"/>
       <c r="R7" s="354"/>
       <c r="S7" s="353" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T7" s="354"/>
       <c r="U7" s="354"/>
       <c r="V7" s="354"/>
       <c r="W7" s="353" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X7" s="354"/>
       <c r="Y7" s="354"/>
       <c r="Z7" s="354"/>
       <c r="AA7" s="222" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -23679,7 +23692,7 @@
     </row>
     <row r="23" spans="1:49" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B23" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="228"/>
       <c r="E23" s="242"/>
@@ -24121,7 +24134,7 @@
     </row>
     <row r="30" spans="1:49" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B30" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D30" s="228"/>
       <c r="E30" s="242"/>
@@ -24375,7 +24388,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D35" s="102"/>
       <c r="E35" s="104">
@@ -24625,7 +24638,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D41" s="102"/>
       <c r="E41" s="104">
@@ -25078,7 +25091,7 @@
     </row>
     <row r="49" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B49" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D49" s="228"/>
       <c r="E49" s="242"/>
@@ -25532,7 +25545,7 @@
     </row>
     <row r="56" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B56" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56" s="228"/>
       <c r="E56" s="242"/>
@@ -25789,7 +25802,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61" s="100"/>
       <c r="E61" s="104">
@@ -25810,7 +25823,7 @@
       </c>
       <c r="I61" s="104">
         <f>main!P54/1000</f>
-        <v>794.08358333333342</v>
+        <v>1259.4835833333332</v>
       </c>
       <c r="J61" s="104">
         <f>main!Q54/1000</f>
@@ -25990,7 +26003,7 @@
     </row>
     <row r="63" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B63" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D63" s="228"/>
       <c r="E63" s="242"/>
@@ -26083,7 +26096,7 @@
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>389.89820174709951</v>
+        <v>855.29820174709926</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
@@ -26243,7 +26256,7 @@
       <c r="D68" s="100"/>
       <c r="E68" s="218">
         <f>main!L83/1000</f>
-        <v>321.35000000000002</v>
+        <v>283.95</v>
       </c>
       <c r="F68" s="218">
         <f>main!M83/1000</f>
@@ -26255,19 +26268,19 @@
       </c>
       <c r="H68" s="218">
         <f>main!O83/1000</f>
-        <v>357.63880399999999</v>
+        <v>322.63880399999999</v>
       </c>
       <c r="I68" s="218">
         <f>main!P83/1000</f>
-        <v>319.529759216</v>
+        <v>329.529759216</v>
       </c>
       <c r="J68" s="218">
         <f>main!Q83/1000</f>
-        <v>320.32387825286401</v>
+        <v>324.32387825286401</v>
       </c>
       <c r="K68" s="151">
         <f>main!R83/1000</f>
-        <v>315.12117376587548</v>
+        <v>319.12117376587548</v>
       </c>
       <c r="L68" s="218">
         <f>main!S83/1000</f>
@@ -26436,7 +26449,7 @@
     </row>
     <row r="70" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B70" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D70" s="228"/>
       <c r="E70" s="242"/>
@@ -26513,19 +26526,19 @@
       </c>
       <c r="H71" s="217">
         <f t="shared" si="117"/>
-        <v>96.90180399999997</v>
+        <v>61.90180399999997</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="117"/>
-        <v>87.454570502826414</v>
+        <v>97.454570502826414</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="117"/>
-        <v>104.60367441070301</v>
+        <v>108.60367441070301</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="117"/>
-        <v>94.229777558424473</v>
+        <v>98.229777558424473</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="118">L68-L69</f>
@@ -26649,9 +26662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26662,52 +26675,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
         <v>248</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>250</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>251</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>252</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>253</v>
       </c>
-      <c r="H1" t="s">
-        <v>254</v>
-      </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" t="s">
         <v>288</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>289</v>
       </c>
-      <c r="M1" t="s">
-        <v>290</v>
-      </c>
       <c r="N1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -26740,7 +26753,7 @@
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E68</f>
-        <v>321.35000000000002</v>
+        <v>283.95</v>
       </c>
       <c r="K2" s="102">
         <v>1084.5999999999999</v>
@@ -26900,11 +26913,11 @@
         <v>391.78358333333341</v>
       </c>
       <c r="I5">
-        <v>96.90180399999997</v>
+        <v>61.90180399999997</v>
       </c>
       <c r="J5" s="151">
         <f>'add-ons calculations'!H68</f>
-        <v>357.63880399999999</v>
+        <v>322.63880399999999</v>
       </c>
       <c r="K5" s="102">
         <v>544.4</v>
@@ -26950,10 +26963,10 @@
         <v>245.4925168769189</v>
       </c>
       <c r="H6">
-        <v>389.89820174709951</v>
+        <v>855.29820174709926</v>
       </c>
       <c r="I6">
-        <v>87.454570502826414</v>
+        <v>97.454570502826414</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -26971,7 +26984,8 @@
         <v>59</v>
       </c>
       <c r="O6">
-        <v>26.5</v>
+        <f>26.5 + 14/4</f>
+        <v>30</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -27003,7 +27017,7 @@
         <v>-262.03049823444167</v>
       </c>
       <c r="I7">
-        <v>104.60367441070301</v>
+        <v>108.60367441070301</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -27021,7 +27035,8 @@
         <v>59</v>
       </c>
       <c r="O7">
-        <v>26.5</v>
+        <f t="shared" ref="O7:O9" si="2">26.5 + 14/4</f>
+        <v>30</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -27053,7 +27068,7 @@
         <v>-285.33172438316558</v>
       </c>
       <c r="I8">
-        <v>94.229777558424473</v>
+        <v>98.229777558424473</v>
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
@@ -27071,7 +27086,8 @@
         <v>59</v>
       </c>
       <c r="O8">
-        <v>26.5</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -27121,7 +27137,8 @@
         <v>59</v>
       </c>
       <c r="O9">
-        <v>26.5</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -27171,7 +27188,8 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>26.5</v>
+        <f>26.5 + 7/4</f>
+        <v>28.25</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -27221,7 +27239,8 @@
         <v>59</v>
       </c>
       <c r="O11">
-        <v>26.5</v>
+        <f t="shared" ref="O11:O13" si="3">26.5 + 7/4</f>
+        <v>28.25</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -27271,7 +27290,8 @@
         <v>59</v>
       </c>
       <c r="O12">
-        <v>26.5</v>
+        <f t="shared" si="3"/>
+        <v>28.25</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -27319,7 +27339,8 @@
         <v>59</v>
       </c>
       <c r="O13">
-        <v>26.5</v>
+        <f t="shared" si="3"/>
+        <v>28.25</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -27832,7 +27853,7 @@
       <c r="R1" s="340"/>
       <c r="S1" s="340"/>
       <c r="T1" s="340" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U1" s="340"/>
       <c r="V1" s="340"/>
@@ -27979,7 +28000,7 @@
     </row>
     <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="197">
         <f>main!F35</f>
@@ -28142,7 +28163,7 @@
     </row>
     <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="197">
         <f>main!F100</f>
@@ -28253,7 +28274,7 @@
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
       <c r="J1" s="356" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V1" s="340"/>
       <c r="W1" s="340"/>
@@ -28327,25 +28348,25 @@
       <c r="M7" s="354"/>
       <c r="N7" s="354"/>
       <c r="O7" s="353" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P7" s="354"/>
       <c r="Q7" s="354"/>
       <c r="R7" s="354"/>
       <c r="S7" s="353" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T7" s="354"/>
       <c r="U7" s="354"/>
       <c r="V7" s="354"/>
       <c r="W7" s="353" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X7" s="354"/>
       <c r="Y7" s="354"/>
       <c r="Z7" s="354"/>
       <c r="AA7" s="222" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="257" customFormat="1" x14ac:dyDescent="0.35">
@@ -29552,7 +29573,7 @@
     </row>
     <row r="26" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B26" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D26" s="228"/>
       <c r="E26" s="242"/>
@@ -29994,7 +30015,7 @@
     </row>
     <row r="33" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B33" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D33" s="228"/>
       <c r="E33" s="242"/>
@@ -30449,7 +30470,7 @@
     </row>
     <row r="40" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B40" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D40" s="228"/>
       <c r="E40" s="242"/>
@@ -30903,7 +30924,7 @@
     </row>
     <row r="47" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B47" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D47" s="228"/>
       <c r="E47" s="242"/>
@@ -31171,31 +31192,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="259" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="259" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="259" t="s">
+      <c r="D1" s="259" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="259" t="s">
+      <c r="E1" s="259" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="259" t="s">
+      <c r="F1" s="259" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="259" t="s">
+      <c r="G1" s="259" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="259" t="s">
+      <c r="H1" s="259" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="259" t="s">
-        <v>254</v>
-      </c>
       <c r="I1" s="259" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -31290,7 +31311,7 @@
         <v>391.78358333333341</v>
       </c>
       <c r="I4" s="259">
-        <v>96.90180399999997</v>
+        <v>61.90180399999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31316,10 +31337,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>389.89820174709951</v>
+        <v>855.29820174709926</v>
       </c>
       <c r="I5" s="259">
-        <v>87.454570502826414</v>
+        <v>97.454570502826414</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31348,7 +31369,7 @@
         <v>-262.03049823444167</v>
       </c>
       <c r="I6" s="259">
-        <v>104.60367441070301</v>
+        <v>108.60367441070301</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31377,7 +31398,7 @@
         <v>-285.33172438316558</v>
       </c>
       <c r="I7" s="259">
-        <v>94.229777558424473</v>
+        <v>98.229777558424473</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -31853,47 +31874,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCD553-49A9-442A-A3CE-215FCFDE89C7}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" s="297" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="297" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="297" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="297" t="s">
+      <c r="C1" s="297" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="297" t="s">
+      <c r="D1" s="297" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="297" t="s">
+      <c r="E1" s="297" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="297" t="s">
+      <c r="F1" s="297" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="297" t="s">
+      <c r="G1" s="297" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="297" t="s">
+      <c r="H1" s="297" t="s">
         <v>327</v>
       </c>
-      <c r="H1" s="297" t="s">
+      <c r="I1" s="297" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="297" t="s">
-        <v>329</v>
-      </c>
       <c r="J1" s="297" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2">
         <v>20909.900000000001</v>
@@ -31925,7 +31946,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>18813.900000000001</v>
@@ -31957,7 +31978,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>1634.2</v>
@@ -31989,7 +32010,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>183.5</v>
@@ -32021,7 +32042,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6">
         <v>1355.2</v>
@@ -32053,7 +32074,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7">
         <v>234.7</v>
@@ -32082,7 +32103,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8">
         <v>456.5</v>
@@ -32114,7 +32135,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B9">
         <v>1295.5</v>
@@ -32146,7 +32167,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10">
         <v>8600</v>
@@ -32178,7 +32199,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11">
         <v>12969</v>
@@ -32210,7 +32231,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B12">
         <v>63.5</v>
@@ -32239,7 +32260,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13">
         <v>2220523</v>
@@ -32271,7 +32292,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14">
         <v>753311</v>
@@ -32303,7 +32324,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H15">
         <v>1078100</v>
@@ -32317,7 +32338,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16">
         <v>27025</v>
@@ -32349,7 +32370,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17">
         <v>19100</v>
@@ -32363,7 +32384,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H18">
         <v>160900</v>
@@ -32377,7 +32398,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19">
         <v>79458</v>
@@ -32409,7 +32430,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H20">
         <v>609300</v>
@@ -32423,7 +32444,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H21">
         <v>63800</v>
@@ -32437,7 +32458,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H22">
         <v>73300</v>
@@ -32451,7 +32472,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H23">
         <v>140000</v>
@@ -32465,7 +32486,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24">
         <v>586475</v>
@@ -32497,7 +32518,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25">
         <v>1368395</v>
@@ -32529,7 +32550,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B26">
         <v>1241599</v>
@@ -32561,7 +32582,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B27">
         <v>389624</v>
@@ -32593,7 +32614,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B28">
         <v>728844</v>
@@ -32625,7 +32646,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B29">
         <v>589819</v>
@@ -32657,7 +32678,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B30">
         <v>1997129</v>
@@ -32689,7 +32710,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B31">
         <v>2279638</v>
@@ -32721,7 +32742,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B32">
         <v>21.568999999999999</v>
@@ -32753,7 +32774,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H33">
         <v>277100</v>
@@ -32767,7 +32788,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H34">
         <v>690700</v>
@@ -32796,10 +32817,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -32880,6 +32901,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33096,12 +33123,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -33112,6 +33133,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33130,23 +33168,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>

--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06933BB1-5C41-4D29-AE2F-535FA485CF77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BBBF2-E520-4C07-9278-081C46C23784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="810" windowWidth="14400" windowHeight="9350" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3584,6 +3584,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3605,29 +3620,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4142,11 +4142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P69" sqref="P69"/>
+      <selection pane="bottomRight" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7714,11 +7714,11 @@
       </c>
       <c r="O54" s="144">
         <f t="shared" ref="O54:Z54" si="39">O55+AVERAGE($H$54:$K$54)</f>
-        <v>794083.58333333337</v>
+        <v>1444083.5833333333</v>
       </c>
       <c r="P54" s="144">
         <f t="shared" si="39"/>
-        <v>1259483.5833333333</v>
+        <v>144083.58333333331</v>
       </c>
       <c r="Q54" s="144">
         <f t="shared" si="39"/>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O55" s="116">
         <f>O57+O58+SUM(O63:O66)</f>
-        <v>719253.33333333337</v>
+        <v>1369253.3333333333</v>
       </c>
       <c r="P55" s="116">
         <f t="shared" ref="P55:V55" si="41">P57+P58+SUM(P63:P66)</f>
-        <v>1184653.3333333333</v>
+        <v>69253.333333333328</v>
       </c>
       <c r="Q55" s="116">
         <f t="shared" si="41"/>
@@ -8188,12 +8188,11 @@
       <c r="M63" s="301"/>
       <c r="N63" s="308"/>
       <c r="O63" s="279">
-        <f>'Stimulus Round 2'!$C$2*4/2</f>
-        <v>650000</v>
+        <f>'Stimulus Round 2'!$C$2*4</f>
+        <v>1300000</v>
       </c>
       <c r="P63" s="279">
-        <f>(O63-184600)+('Stimulus Round 2'!$C$2*4/2)</f>
-        <v>1115400</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="279"/>
       <c r="R63" s="279"/>
@@ -14690,11 +14689,11 @@
       </c>
       <c r="H70" s="102">
         <f>main!O54/1000</f>
-        <v>794.08358333333342</v>
+        <v>1444.0835833333333</v>
       </c>
       <c r="I70" s="102">
         <f>main!P54/1000</f>
-        <v>1259.4835833333332</v>
+        <v>144.08358333333331</v>
       </c>
       <c r="J70" s="102">
         <f>main!Q54/1000</f>
@@ -14758,11 +14757,11 @@
       </c>
       <c r="H72" s="103">
         <f t="shared" si="23"/>
-        <v>-303.00454818230662</v>
+        <v>346.99545181769327</v>
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
-        <v>158.43047509434314</v>
+        <v>-956.96952490565673</v>
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
@@ -15054,68 +15053,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="369" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="365"/>
-      <c r="B4" s="365"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="370" t="s">
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
+      <c r="L4" s="375"/>
+      <c r="M4" s="375"/>
+      <c r="N4" s="375"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="366" t="s">
+      <c r="C5" s="371" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
-      <c r="J5" s="368"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="372"/>
+      <c r="I5" s="372"/>
+      <c r="J5" s="373"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="369" t="s">
+      <c r="L5" s="374" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="340"/>
@@ -15126,16 +15125,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="372">
+      <c r="C6" s="365">
         <v>2020</v>
       </c>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="373"/>
-      <c r="J6" s="374"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="366"/>
+      <c r="I6" s="366"/>
+      <c r="J6" s="367"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15607,12 +15606,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="375" t="s">
+      <c r="K23" s="368" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="375"/>
-      <c r="M23" s="375"/>
-      <c r="N23" s="375"/>
+      <c r="L23" s="368"/>
+      <c r="M23" s="368"/>
+      <c r="N23" s="368"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15781,7 +15780,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="371" t="s">
+      <c r="I28" s="364" t="s">
         <v>256</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15831,7 +15830,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="371"/>
+      <c r="I29" s="364"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15879,7 +15878,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="371"/>
+      <c r="I30" s="364"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15927,7 +15926,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="371"/>
+      <c r="I31" s="364"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15989,7 +15988,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="371" t="s">
+      <c r="I33" s="364" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16037,7 +16036,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="371"/>
+      <c r="I34" s="364"/>
       <c r="J34" t="s">
         <v>257</v>
       </c>
@@ -16274,6 +16273,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16281,12 +16286,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16393,22 +16392,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="379" t="s">
+      <c r="E6" s="377" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="379"/>
-      <c r="N6" s="379"/>
-      <c r="O6" s="379"/>
-      <c r="P6" s="379"/>
-      <c r="Q6" s="379"/>
-      <c r="R6" s="379"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="377"/>
+      <c r="I6" s="377"/>
+      <c r="J6" s="377"/>
+      <c r="K6" s="377"/>
+      <c r="L6" s="377"/>
+      <c r="M6" s="377"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="377"/>
+      <c r="P6" s="377"/>
+      <c r="Q6" s="377"/>
+      <c r="R6" s="377"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="376" t="s">
@@ -17144,21 +17143,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="377" t="s">
+      <c r="H27" s="378" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="377"/>
-      <c r="J27" s="377"/>
-      <c r="K27" s="377"/>
-      <c r="L27" s="377"/>
-      <c r="M27" s="377"/>
-      <c r="N27" s="377"/>
-      <c r="O27" s="377"/>
-      <c r="P27" s="377"/>
-      <c r="Q27" s="377"/>
-      <c r="R27" s="377"/>
-      <c r="S27" s="377"/>
-      <c r="T27" s="377"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="378"/>
+      <c r="N27" s="378"/>
+      <c r="O27" s="378"/>
+      <c r="P27" s="378"/>
+      <c r="Q27" s="378"/>
+      <c r="R27" s="378"/>
+      <c r="S27" s="378"/>
+      <c r="T27" s="378"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17474,21 +17473,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="378" t="s">
+      <c r="F37" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="378"/>
-      <c r="H37" s="378"/>
-      <c r="I37" s="378"/>
-      <c r="J37" s="378"/>
-      <c r="K37" s="378"/>
-      <c r="L37" s="378"/>
-      <c r="M37" s="378"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="G37" s="379"/>
+      <c r="H37" s="379"/>
+      <c r="I37" s="379"/>
+      <c r="J37" s="379"/>
+      <c r="K37" s="379"/>
+      <c r="L37" s="379"/>
+      <c r="M37" s="379"/>
+      <c r="N37" s="379"/>
+      <c r="O37" s="379"/>
+      <c r="P37" s="379"/>
+      <c r="Q37" s="379"/>
+      <c r="R37" s="379"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17804,21 +17803,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="377" t="s">
+      <c r="F48" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="377"/>
-      <c r="H48" s="377"/>
-      <c r="I48" s="377"/>
-      <c r="J48" s="377"/>
-      <c r="K48" s="377"/>
-      <c r="L48" s="377"/>
-      <c r="M48" s="377"/>
-      <c r="N48" s="377"/>
-      <c r="O48" s="377"/>
-      <c r="P48" s="377"/>
-      <c r="Q48" s="377"/>
-      <c r="R48" s="377"/>
+      <c r="G48" s="378"/>
+      <c r="H48" s="378"/>
+      <c r="I48" s="378"/>
+      <c r="J48" s="378"/>
+      <c r="K48" s="378"/>
+      <c r="L48" s="378"/>
+      <c r="M48" s="378"/>
+      <c r="N48" s="378"/>
+      <c r="O48" s="378"/>
+      <c r="P48" s="378"/>
+      <c r="Q48" s="378"/>
+      <c r="R48" s="378"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18130,12 +18129,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18144,6 +18137,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25819,11 +25818,11 @@
       </c>
       <c r="H61" s="104">
         <f>main!O54/1000</f>
-        <v>794.08358333333342</v>
+        <v>1444.0835833333333</v>
       </c>
       <c r="I61" s="104">
         <f>main!P54/1000</f>
-        <v>1259.4835833333332</v>
+        <v>144.08358333333331</v>
       </c>
       <c r="J61" s="104">
         <f>main!Q54/1000</f>
@@ -26092,11 +26091,11 @@
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>391.78358333333341</v>
+        <v>1041.7835833333334</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>855.29820174709926</v>
+        <v>-260.10179825290061</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
@@ -26662,7 +26661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O10" sqref="O10"/>
     </sheetView>
@@ -26910,7 +26909,7 @@
         <v>1309.4238025000002</v>
       </c>
       <c r="H5">
-        <v>391.78358333333341</v>
+        <v>1041.7835833333334</v>
       </c>
       <c r="I5">
         <v>61.90180399999997</v>
@@ -26963,7 +26962,7 @@
         <v>245.4925168769189</v>
       </c>
       <c r="H6">
-        <v>855.29820174709926</v>
+        <v>-260.10179825290061</v>
       </c>
       <c r="I6">
         <v>97.454570502826414</v>
@@ -31308,7 +31307,7 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>391.78358333333341</v>
+        <v>1041.7835833333334</v>
       </c>
       <c r="I4" s="259">
         <v>61.90180399999997</v>
@@ -31337,7 +31336,7 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>855.29820174709926</v>
+        <v>-260.10179825290061</v>
       </c>
       <c r="I5" s="259">
         <v>97.454570502826414</v>
@@ -32901,9 +32900,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33124,27 +33126,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33169,9 +33159,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BBBF2-E520-4C07-9278-081C46C23784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10442B08-248B-4DC4-B72D-727D82BF2B0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Stimulus Round 2" sheetId="16" r:id="rId2"/>
-    <sheet name="add-ons calculations" sheetId="5" r:id="rId3"/>
-    <sheet name="FIM Add Factors" sheetId="9" r:id="rId4"/>
-    <sheet name="main_nipas" sheetId="10" r:id="rId5"/>
-    <sheet name="add-ons calculations nipas" sheetId="11" r:id="rId6"/>
-    <sheet name="NIPA Add Factors" sheetId="12" r:id="rId7"/>
-    <sheet name="Haver NA" sheetId="14" r:id="rId8"/>
-    <sheet name="ui" sheetId="13" r:id="rId9"/>
-    <sheet name="MPC" sheetId="8" r:id="rId10"/>
-    <sheet name="MPC - round (2)" sheetId="15" r:id="rId11"/>
-    <sheet name="figuring out Medicaid" sheetId="7" r:id="rId12"/>
-    <sheet name="add-ons - Kadija b4" sheetId="6" state="hidden" r:id="rId13"/>
-    <sheet name="figuring out UI" sheetId="4" r:id="rId14"/>
-    <sheet name="figuring NIPA tax changes" sheetId="3" r:id="rId15"/>
-    <sheet name="figuring out social benefits" sheetId="2" r:id="rId16"/>
+    <sheet name="PPP" sheetId="17" r:id="rId2"/>
+    <sheet name="Stimulus Round 2" sheetId="16" r:id="rId3"/>
+    <sheet name="add-ons calculations" sheetId="5" r:id="rId4"/>
+    <sheet name="FIM Add Factors" sheetId="9" r:id="rId5"/>
+    <sheet name="main_nipas" sheetId="10" r:id="rId6"/>
+    <sheet name="add-ons calculations nipas" sheetId="11" r:id="rId7"/>
+    <sheet name="NIPA Add Factors" sheetId="12" r:id="rId8"/>
+    <sheet name="Haver NA" sheetId="14" r:id="rId9"/>
+    <sheet name="ui" sheetId="13" r:id="rId10"/>
+    <sheet name="MPC" sheetId="8" r:id="rId11"/>
+    <sheet name="MPC - round (2)" sheetId="15" r:id="rId12"/>
+    <sheet name="figuring out Medicaid" sheetId="7" r:id="rId13"/>
+    <sheet name="add-ons - Kadija b4" sheetId="6" state="hidden" r:id="rId14"/>
+    <sheet name="figuring out UI" sheetId="4" r:id="rId15"/>
+    <sheet name="figuring NIPA tax changes" sheetId="3" r:id="rId16"/>
+    <sheet name="figuring out social benefits" sheetId="2" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -719,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="397">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -1997,9 +1998,6 @@
     <t>health care</t>
   </si>
   <si>
-    <t>Payroll for Airline Workers</t>
-  </si>
-  <si>
     <t>other spending</t>
   </si>
   <si>
@@ -2124,6 +2122,51 @@
       <t xml:space="preserve"> Grants Legislation</t>
     </r>
   </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>PPP disbursements</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Boosting BEA's PPP by 325/261 because BEA didn't include all the programs we include in PPP</t>
+  </si>
+  <si>
+    <t>BEA's PPP</t>
+  </si>
+  <si>
+    <t>Quarterly disbursements</t>
+  </si>
+  <si>
+    <t>Boosting quarterly disbursements by 325/261</t>
+  </si>
+  <si>
+    <t>^Going to keep the 650 in Q1 and Q2 instead so that we don't need to change our MPCs to account for monthly timing of PPP within the quarter</t>
+  </si>
+  <si>
+    <t>Payroll for Airline Workers (aviation)</t>
+  </si>
 </sst>
 </file>
 
@@ -2141,7 +2184,7 @@
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2360,6 +2403,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3584,21 +3633,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3620,14 +3654,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4142,11 +4191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P63" sqref="P63"/>
+      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4170,14 +4219,14 @@
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="341" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="341"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC1" s="347" t="s">
         <v>246</v>
@@ -4981,7 +5030,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="212" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5044,7 +5093,7 @@
     </row>
     <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="212" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" s="269"/>
       <c r="D14" s="269"/>
@@ -5210,7 +5259,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="212" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -5448,7 +5497,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="212" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -5680,7 +5729,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -6711,7 +6760,7 @@
     </row>
     <row r="39" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="281" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F39" s="202"/>
       <c r="G39" s="202"/>
@@ -7343,7 +7392,7 @@
     </row>
     <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="333" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="107" t="s">
         <v>279</v>
@@ -7714,19 +7763,19 @@
       </c>
       <c r="O54" s="144">
         <f t="shared" ref="O54:Z54" si="39">O55+AVERAGE($H$54:$K$54)</f>
-        <v>1444083.5833333333</v>
+        <v>853250.25</v>
       </c>
       <c r="P54" s="144">
         <f t="shared" si="39"/>
-        <v>144083.58333333331</v>
+        <v>847383.58333333337</v>
       </c>
       <c r="Q54" s="144">
         <f t="shared" si="39"/>
-        <v>144083.58333333331</v>
+        <v>107416.91666666667</v>
       </c>
       <c r="R54" s="144">
         <f t="shared" si="39"/>
-        <v>122750.25</v>
+        <v>102750.25</v>
       </c>
       <c r="S54" s="144">
         <f t="shared" si="39"/>
@@ -7791,19 +7840,19 @@
       </c>
       <c r="O55" s="116">
         <f>O57+O58+SUM(O63:O66)</f>
-        <v>1369253.3333333333</v>
+        <v>778420</v>
       </c>
       <c r="P55" s="116">
         <f t="shared" ref="P55:V55" si="41">P57+P58+SUM(P63:P66)</f>
-        <v>69253.333333333328</v>
+        <v>772553.33333333337</v>
       </c>
       <c r="Q55" s="116">
         <f t="shared" si="41"/>
-        <v>69253.333333333328</v>
+        <v>32586.666666666672</v>
       </c>
       <c r="R55" s="116">
         <f t="shared" si="41"/>
-        <v>47920</v>
+        <v>27920</v>
       </c>
       <c r="S55" s="116">
         <f t="shared" si="41"/>
@@ -8188,11 +8237,12 @@
       <c r="M63" s="301"/>
       <c r="N63" s="308"/>
       <c r="O63" s="279">
-        <f>'Stimulus Round 2'!$C$2*4</f>
-        <v>1300000</v>
+        <f>'Stimulus Round 2'!$C$2*4/2 -O48</f>
+        <v>639200</v>
       </c>
       <c r="P63" s="279">
-        <v>0</v>
+        <f>'Stimulus Round 2'!$C$2*4/2</f>
+        <v>650000</v>
       </c>
       <c r="Q63" s="279"/>
       <c r="R63" s="279"/>
@@ -8213,9 +8263,9 @@
       <c r="AG63" s="276"/>
       <c r="AM63" s="280"/>
     </row>
-    <row r="64" spans="1:41" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" s="274" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="273" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="F64" s="197"/>
       <c r="G64" s="197"/>
@@ -8227,16 +8277,15 @@
       <c r="M64" s="301"/>
       <c r="N64" s="308"/>
       <c r="O64" s="279">
-        <f>'Stimulus Round 2'!$C$12*4/3</f>
-        <v>21333.333333333332</v>
+        <v>38000</v>
       </c>
       <c r="P64" s="279">
         <f>'Stimulus Round 2'!$C$12*4/3</f>
         <v>21333.333333333332</v>
       </c>
       <c r="Q64" s="279">
-        <f>'Stimulus Round 2'!$C$12*4/3</f>
-        <v>21333.333333333332</v>
+        <f>('Stimulus Round 2'!$C$12*4-SUM(O64:P64))</f>
+        <v>4666.6666666666715</v>
       </c>
       <c r="R64" s="279"/>
       <c r="S64" s="279"/>
@@ -8270,21 +8319,13 @@
       <c r="M65" s="301"/>
       <c r="N65" s="308"/>
       <c r="O65" s="279">
-        <f>'Stimulus Round 2'!$C$18*4/4</f>
-        <v>20000</v>
+        <v>73300</v>
       </c>
       <c r="P65" s="279">
-        <f>'Stimulus Round 2'!$C$18*4/4</f>
-        <v>20000</v>
-      </c>
-      <c r="Q65" s="279">
-        <f>'Stimulus Round 2'!$C$18*4/4</f>
-        <v>20000</v>
-      </c>
-      <c r="R65" s="279">
-        <f>'Stimulus Round 2'!$C$18*4/4</f>
-        <v>20000</v>
-      </c>
+        <v>73300</v>
+      </c>
+      <c r="Q65" s="279"/>
+      <c r="R65" s="279"/>
       <c r="S65" s="279"/>
       <c r="T65" s="279"/>
       <c r="U65" s="279"/>
@@ -8304,7 +8345,7 @@
     </row>
     <row r="66" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="273" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F66" s="197"/>
       <c r="G66" s="197"/>
@@ -8688,7 +8729,7 @@
     </row>
     <row r="73" spans="1:39" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="134" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F73" s="197"/>
       <c r="G73" s="197"/>
@@ -8706,7 +8747,7 @@
       </c>
       <c r="N73" s="206">
         <f>SUM(N75:N77)</f>
-        <v>87200</v>
+        <v>97200</v>
       </c>
       <c r="O73" s="116">
         <f t="shared" ref="O73:Z73" si="44">O74+O78</f>
@@ -8714,11 +8755,11 @@
       </c>
       <c r="P73" s="116">
         <f t="shared" si="44"/>
-        <v>131000</v>
+        <v>126000</v>
       </c>
       <c r="Q73" s="116">
         <f t="shared" si="44"/>
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="R73" s="116">
         <f t="shared" si="44"/>
@@ -8784,11 +8825,11 @@
       </c>
       <c r="P74" s="116">
         <f t="shared" si="45"/>
-        <v>72000</v>
+        <v>67000</v>
       </c>
       <c r="Q74" s="116">
         <f t="shared" si="45"/>
-        <v>66000</v>
+        <v>61000</v>
       </c>
       <c r="R74" s="116">
         <f t="shared" si="45"/>
@@ -8843,7 +8884,7 @@
         <v>279</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
@@ -8903,13 +8944,13 @@
     </row>
     <row r="76" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="334" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B76" s="107" t="s">
         <v>279</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F76" s="335"/>
       <c r="G76" s="335"/>
@@ -8963,7 +9004,7 @@
         <v>279</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F77" s="335"/>
       <c r="G77" s="335"/>
@@ -8978,16 +9019,16 @@
         <v>27000</v>
       </c>
       <c r="N77" s="336">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O77" s="337">
         <v>12000</v>
       </c>
       <c r="P77" s="337">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q77" s="337">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="R77" s="337">
         <v>6000</v>
@@ -9293,7 +9334,7 @@
     </row>
     <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="282" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F82" s="197"/>
       <c r="G82" s="197"/>
@@ -9386,7 +9427,7 @@
       </c>
       <c r="N83" s="308">
         <f t="shared" si="47"/>
-        <v>284151</v>
+        <v>294151</v>
       </c>
       <c r="O83" s="144">
         <f t="shared" si="47"/>
@@ -9394,11 +9435,11 @@
       </c>
       <c r="P83" s="144">
         <f t="shared" si="47"/>
-        <v>329529.75921599998</v>
+        <v>324529.75921599998</v>
       </c>
       <c r="Q83" s="144">
         <f t="shared" si="47"/>
-        <v>324323.878252864</v>
+        <v>319323.878252864</v>
       </c>
       <c r="R83" s="144">
         <f t="shared" si="47"/>
@@ -9620,7 +9661,7 @@
     </row>
     <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="114" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9752,7 +9793,7 @@
     </row>
     <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F89" s="207"/>
       <c r="G89" s="207"/>
@@ -9800,7 +9841,7 @@
     </row>
     <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="284" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F90" s="300"/>
       <c r="G90" s="300"/>
@@ -9848,7 +9889,7 @@
     </row>
     <row r="91" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="284" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F91" s="300"/>
       <c r="G91" s="300"/>
@@ -9896,7 +9937,7 @@
     </row>
     <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="284" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F92" s="300"/>
       <c r="G92" s="300"/>
@@ -10956,7 +10997,7 @@
     </row>
     <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="169" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F110" s="207"/>
       <c r="G110" s="207"/>
@@ -11465,6 +11506,101 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE6A138-E000-4F43-8051-048875C71ACF}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="188">
+        <v>44104</v>
+      </c>
+      <c r="B2">
+        <v>337800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="188">
+        <v>44196</v>
+      </c>
+      <c r="B3">
+        <v>244000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="188">
+        <v>44286</v>
+      </c>
+      <c r="B4">
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="188">
+        <v>44377</v>
+      </c>
+      <c r="B5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="188">
+        <v>44469</v>
+      </c>
+      <c r="B6">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="188">
+        <v>44561</v>
+      </c>
+      <c r="B7">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="188">
+        <v>44651</v>
+      </c>
+      <c r="B8">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="188">
+        <v>44742</v>
+      </c>
+      <c r="B9">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="188">
+        <v>44834</v>
+      </c>
+      <c r="B10">
+        <v>44000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59415D66-99E1-48A7-908E-6DD000577D4F}">
   <dimension ref="A2:P28"/>
   <sheetViews>
@@ -12089,7 +12225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1770F9-06FB-4DC0-BB6E-D3D452EF4E7C}">
   <dimension ref="A2:P28"/>
   <sheetViews>
@@ -12714,7 +12850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87327C4-CC87-4828-867B-1480BE7C2A8D}">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -13083,7 +13219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446ECC41-09B2-4226-9DFF-DDF76E08500C}">
   <dimension ref="A1:AF82"/>
   <sheetViews>
@@ -14689,19 +14825,19 @@
       </c>
       <c r="H70" s="102">
         <f>main!O54/1000</f>
-        <v>1444.0835833333333</v>
+        <v>853.25025000000005</v>
       </c>
       <c r="I70" s="102">
         <f>main!P54/1000</f>
-        <v>144.08358333333331</v>
+        <v>847.38358333333338</v>
       </c>
       <c r="J70" s="102">
         <f>main!Q54/1000</f>
-        <v>144.08358333333331</v>
+        <v>107.41691666666667</v>
       </c>
       <c r="K70" s="102">
         <f>main!R54/1000</f>
-        <v>122.75024999999999</v>
+        <v>102.75024999999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -14757,19 +14893,19 @@
       </c>
       <c r="H72" s="103">
         <f t="shared" si="23"/>
-        <v>346.99545181769327</v>
+        <v>-243.83788151563999</v>
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
-        <v>-956.96952490565673</v>
+        <v>-253.66952490565666</v>
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
-        <v>-961.25124727310663</v>
+        <v>-997.91791393977326</v>
       </c>
       <c r="K72" s="103">
         <f t="shared" si="23"/>
-        <v>-987.20001713462989</v>
+        <v>-1007.2000171346299</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -15031,7 +15167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X50"/>
   <sheetViews>
@@ -15053,68 +15189,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="364" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="370"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="375" t="s">
+      <c r="A4" s="365"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="370" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="375"/>
-      <c r="M4" s="375"/>
-      <c r="N4" s="375"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="371" t="s">
+      <c r="C5" s="366" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="373"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="368"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="374" t="s">
+      <c r="L5" s="369" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="340"/>
@@ -15125,16 +15261,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="365">
+      <c r="C6" s="372">
         <v>2020</v>
       </c>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="367"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="374"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15606,12 +15742,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="368" t="s">
+      <c r="K23" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="368"/>
-      <c r="M23" s="368"/>
-      <c r="N23" s="368"/>
+      <c r="L23" s="375"/>
+      <c r="M23" s="375"/>
+      <c r="N23" s="375"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15780,7 +15916,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="364" t="s">
+      <c r="I28" s="371" t="s">
         <v>256</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15830,7 +15966,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="364"/>
+      <c r="I29" s="371"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15878,7 +16014,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="364"/>
+      <c r="I30" s="371"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15926,7 +16062,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="364"/>
+      <c r="I31" s="371"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15988,7 +16124,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="364" t="s">
+      <c r="I33" s="371" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16036,7 +16172,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="364"/>
+      <c r="I34" s="371"/>
       <c r="J34" t="s">
         <v>257</v>
       </c>
@@ -16204,7 +16340,7 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.35">
@@ -16273,12 +16409,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16286,12 +16416,18 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A2277-50A8-4EC7-9AFE-96BB2900F5B9}">
   <dimension ref="A1:T55"/>
   <sheetViews>
@@ -16392,22 +16528,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="377" t="s">
+      <c r="E6" s="379" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="377"/>
-      <c r="G6" s="377"/>
-      <c r="H6" s="377"/>
-      <c r="I6" s="377"/>
-      <c r="J6" s="377"/>
-      <c r="K6" s="377"/>
-      <c r="L6" s="377"/>
-      <c r="M6" s="377"/>
-      <c r="N6" s="377"/>
-      <c r="O6" s="377"/>
-      <c r="P6" s="377"/>
-      <c r="Q6" s="377"/>
-      <c r="R6" s="377"/>
+      <c r="F6" s="379"/>
+      <c r="G6" s="379"/>
+      <c r="H6" s="379"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="379"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="379"/>
+      <c r="M6" s="379"/>
+      <c r="N6" s="379"/>
+      <c r="O6" s="379"/>
+      <c r="P6" s="379"/>
+      <c r="Q6" s="379"/>
+      <c r="R6" s="379"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="376" t="s">
@@ -17143,21 +17279,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="378" t="s">
+      <c r="H27" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
-      <c r="K27" s="378"/>
-      <c r="L27" s="378"/>
-      <c r="M27" s="378"/>
-      <c r="N27" s="378"/>
-      <c r="O27" s="378"/>
-      <c r="P27" s="378"/>
-      <c r="Q27" s="378"/>
-      <c r="R27" s="378"/>
-      <c r="S27" s="378"/>
-      <c r="T27" s="378"/>
+      <c r="I27" s="377"/>
+      <c r="J27" s="377"/>
+      <c r="K27" s="377"/>
+      <c r="L27" s="377"/>
+      <c r="M27" s="377"/>
+      <c r="N27" s="377"/>
+      <c r="O27" s="377"/>
+      <c r="P27" s="377"/>
+      <c r="Q27" s="377"/>
+      <c r="R27" s="377"/>
+      <c r="S27" s="377"/>
+      <c r="T27" s="377"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17473,21 +17609,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="379" t="s">
+      <c r="F37" s="378" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="379"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="379"/>
-      <c r="J37" s="379"/>
-      <c r="K37" s="379"/>
-      <c r="L37" s="379"/>
-      <c r="M37" s="379"/>
-      <c r="N37" s="379"/>
-      <c r="O37" s="379"/>
-      <c r="P37" s="379"/>
-      <c r="Q37" s="379"/>
-      <c r="R37" s="379"/>
+      <c r="G37" s="378"/>
+      <c r="H37" s="378"/>
+      <c r="I37" s="378"/>
+      <c r="J37" s="378"/>
+      <c r="K37" s="378"/>
+      <c r="L37" s="378"/>
+      <c r="M37" s="378"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17803,21 +17939,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="378" t="s">
+      <c r="F48" s="377" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="378"/>
-      <c r="H48" s="378"/>
-      <c r="I48" s="378"/>
-      <c r="J48" s="378"/>
-      <c r="K48" s="378"/>
-      <c r="L48" s="378"/>
-      <c r="M48" s="378"/>
-      <c r="N48" s="378"/>
-      <c r="O48" s="378"/>
-      <c r="P48" s="378"/>
-      <c r="Q48" s="378"/>
-      <c r="R48" s="378"/>
+      <c r="G48" s="377"/>
+      <c r="H48" s="377"/>
+      <c r="I48" s="377"/>
+      <c r="J48" s="377"/>
+      <c r="K48" s="377"/>
+      <c r="L48" s="377"/>
+      <c r="M48" s="377"/>
+      <c r="N48" s="377"/>
+      <c r="O48" s="377"/>
+      <c r="P48" s="377"/>
+      <c r="Q48" s="377"/>
+      <c r="R48" s="377"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18129,6 +18265,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18137,18 +18279,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010B404F-448D-4E36-A88E-C07F48F0DCD8}">
   <dimension ref="A1:X91"/>
   <sheetViews>
@@ -21813,11 +21949,313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9439CCE-42A9-4A07-8071-0CF6958B7C48}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>91</v>
+      </c>
+      <c r="D2">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <f>261-SUM(B2:D2)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4">
+        <f>$B2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:G4" si="0">$B2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5">
+        <f>$C2/6</f>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:H5" si="1">$C2/6</f>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6">
+        <f>$D2/6</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:I6" si="2">$D2/6</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7">
+        <f>$E2/6</f>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:J7" si="3">$E2/6</f>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B4:B7)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J9" si="4">SUM(C4:C7)</f>
+        <v>15.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>29.833333333333336</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>43.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>43.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>43.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>43.166666666666664</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B9:D9)*4</f>
+        <v>182.66666666666669</v>
+      </c>
+      <c r="C12">
+        <f>SUM(E9:G9)*4</f>
+        <v>522</v>
+      </c>
+      <c r="D12">
+        <f>SUM(H9:J9)*4</f>
+        <v>339.33333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13">
+        <f>B12*325/261</f>
+        <v>227.45849297573437</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="5">C12*325/261</f>
+        <v>650</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>422.54150702426563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:D2)*4</f>
+        <v>716</v>
+      </c>
+      <c r="C14">
+        <f>E2*4</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15">
+        <f>B14*325/261</f>
+        <v>891.57088122605364</v>
+      </c>
+      <c r="C15">
+        <f>C14*325/261</f>
+        <v>408.42911877394636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B706B7-5C89-488A-A410-11679BA03DE7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21829,18 +22267,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>356</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="289" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="289">
         <v>325</v>
@@ -21852,7 +22290,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="289" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" s="289">
         <v>120</v>
@@ -21888,7 +22326,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="289" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B6" s="289">
         <v>63</v>
@@ -21900,7 +22338,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="291" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -21912,7 +22350,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="176" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -21924,7 +22362,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="176" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -21949,7 +22387,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="292" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" s="289">
         <v>45</v>
@@ -21961,7 +22399,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="291" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B12" s="289">
         <v>16</v>
@@ -21986,7 +22424,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="292" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" s="289">
         <v>80</v>
@@ -22023,7 +22461,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -22035,7 +22473,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="291" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -22047,7 +22485,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="291" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -22059,7 +22497,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="293" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B20" s="294">
         <v>5</v>
@@ -22084,7 +22522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AW73"/>
   <sheetViews>
@@ -25818,19 +26256,19 @@
       </c>
       <c r="H61" s="104">
         <f>main!O54/1000</f>
-        <v>1444.0835833333333</v>
+        <v>853.25025000000005</v>
       </c>
       <c r="I61" s="104">
         <f>main!P54/1000</f>
-        <v>144.08358333333331</v>
+        <v>847.38358333333338</v>
       </c>
       <c r="J61" s="104">
         <f>main!Q54/1000</f>
-        <v>144.08358333333331</v>
+        <v>107.41691666666667</v>
       </c>
       <c r="K61" s="149">
         <f>main!R54/1000</f>
-        <v>122.75024999999999</v>
+        <v>102.75024999999999</v>
       </c>
       <c r="L61" s="223">
         <f>main!S54/1000</f>
@@ -26091,19 +26529,19 @@
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>1041.7835833333334</v>
+        <v>450.95025000000004</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>-260.10179825290061</v>
+        <v>443.19820174709946</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
-        <v>-262.03049823444167</v>
+        <v>-298.69716490110829</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="103"/>
-        <v>-285.33172438316558</v>
+        <v>-305.33172438316558</v>
       </c>
       <c r="L64" s="217">
         <f t="shared" si="103"/>
@@ -26263,7 +26701,7 @@
       </c>
       <c r="G68" s="151">
         <f>main!N83/1000</f>
-        <v>284.15100000000001</v>
+        <v>294.15100000000001</v>
       </c>
       <c r="H68" s="218">
         <f>main!O83/1000</f>
@@ -26271,11 +26709,11 @@
       </c>
       <c r="I68" s="218">
         <f>main!P83/1000</f>
-        <v>329.529759216</v>
+        <v>324.529759216</v>
       </c>
       <c r="J68" s="218">
         <f>main!Q83/1000</f>
-        <v>324.32387825286401</v>
+        <v>319.32387825286401</v>
       </c>
       <c r="K68" s="151">
         <f>main!R83/1000</f>
@@ -26521,7 +26959,7 @@
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="117">G68-G69</f>
-        <v>58.244</v>
+        <v>68.244</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="117"/>
@@ -26529,11 +26967,11 @@
       </c>
       <c r="I71" s="217">
         <f t="shared" si="117"/>
-        <v>97.454570502826414</v>
+        <v>92.454570502826414</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="117"/>
-        <v>108.60367441070301</v>
+        <v>103.60367441070301</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="117"/>
@@ -26657,7 +27095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -26716,10 +27154,10 @@
         <v>344</v>
       </c>
       <c r="O1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -26860,11 +27298,11 @@
         <v>0.73599999999999</v>
       </c>
       <c r="I4">
-        <v>58.244</v>
+        <v>68.244</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
-        <v>284.15100000000001</v>
+        <v>294.15100000000001</v>
       </c>
       <c r="K4" s="102">
         <v>296.39999999999998</v>
@@ -26909,7 +27347,7 @@
         <v>1309.4238025000002</v>
       </c>
       <c r="H5">
-        <v>1041.7835833333334</v>
+        <v>450.95025000000004</v>
       </c>
       <c r="I5">
         <v>61.90180399999997</v>
@@ -26962,10 +27400,10 @@
         <v>245.4925168769189</v>
       </c>
       <c r="H6">
-        <v>-260.10179825290061</v>
+        <v>443.19820174709946</v>
       </c>
       <c r="I6">
-        <v>97.454570502826414</v>
+        <v>92.454570502826414</v>
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
@@ -27013,10 +27451,10 @@
         <v>184.80221870982382</v>
       </c>
       <c r="H7">
-        <v>-262.03049823444167</v>
+        <v>-298.69716490110829</v>
       </c>
       <c r="I7">
-        <v>108.60367441070301</v>
+        <v>103.60367441070301</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
@@ -27064,7 +27502,7 @@
         <v>168.7715747900852</v>
       </c>
       <c r="H8">
-        <v>-285.33172438316558</v>
+        <v>-305.33172438316558</v>
       </c>
       <c r="I8">
         <v>98.229777558424473</v>
@@ -27812,7 +28250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37CCB5-9AFD-AA42-ADF6-76E6C38F7458}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
@@ -28246,7 +28684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E925F6-0F0F-EB4D-B82F-595726581F1A}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
@@ -31168,7 +31606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF91FBF1-BB27-2541-88CA-5AE1F2ACBE56}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -31281,7 +31719,7 @@
         <v>0.73599999999999</v>
       </c>
       <c r="I3" s="259">
-        <v>58.244</v>
+        <v>68.244</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31307,7 +31745,7 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>1041.7835833333334</v>
+        <v>450.95025000000004</v>
       </c>
       <c r="I4" s="259">
         <v>61.90180399999997</v>
@@ -31336,10 +31774,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>-260.10179825290061</v>
+        <v>443.19820174709946</v>
       </c>
       <c r="I5" s="259">
-        <v>97.454570502826414</v>
+        <v>92.454570502826414</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31365,10 +31803,10 @@
         <v>906.03001879956446</v>
       </c>
       <c r="H6" s="259">
-        <v>-262.03049823444167</v>
+        <v>-298.69716490110829</v>
       </c>
       <c r="I6" s="259">
-        <v>108.60367441070301</v>
+        <v>103.60367441070301</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31394,7 +31832,7 @@
         <v>926.50683572140088</v>
       </c>
       <c r="H7" s="259">
-        <v>-285.33172438316558</v>
+        <v>-305.33172438316558</v>
       </c>
       <c r="I7" s="259">
         <v>98.229777558424473</v>
@@ -31869,7 +32307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCD553-49A9-442A-A3CE-215FCFDE89C7}">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -31908,7 +32346,7 @@
         <v>328</v>
       </c>
       <c r="J1" s="297" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -32797,101 +33235,6 @@
       </c>
       <c r="J34">
         <v>29000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE6A138-E000-4F43-8051-048875C71ACF}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="188">
-        <v>44104</v>
-      </c>
-      <c r="B2">
-        <v>337800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="188">
-        <v>44196</v>
-      </c>
-      <c r="B3">
-        <v>244000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="188">
-        <v>44286</v>
-      </c>
-      <c r="B4">
-        <v>152000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="188">
-        <v>44377</v>
-      </c>
-      <c r="B5">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="188">
-        <v>44469</v>
-      </c>
-      <c r="B6">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="188">
-        <v>44561</v>
-      </c>
-      <c r="B7">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="188">
-        <v>44651</v>
-      </c>
-      <c r="B8">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="188">
-        <v>44742</v>
-      </c>
-      <c r="B9">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="188">
-        <v>44834</v>
-      </c>
-      <c r="B10">
-        <v>44000</v>
       </c>
     </row>
   </sheetData>
@@ -32900,12 +33243,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33126,15 +33466,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33159,18 +33511,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10442B08-248B-4DC4-B72D-727D82BF2B0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008FA17B-544B-4F91-95B0-386D72FBC3AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4191,11 +4191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
+      <selection pane="bottomRight" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27099,9 +27099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O10" sqref="O10"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27367,7 +27367,7 @@
         <v>70.899999999999977</v>
       </c>
       <c r="N5">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O5" s="102">
         <v>0</v>
@@ -27418,7 +27418,7 @@
         <v>44</v>
       </c>
       <c r="N6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>26.5 + 14/4</f>
@@ -27469,7 +27469,7 @@
         <v>44</v>
       </c>
       <c r="N7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" ref="O7:O9" si="2">26.5 + 14/4</f>
@@ -27520,7 +27520,7 @@
         <v>44</v>
       </c>
       <c r="N8">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -27571,7 +27571,7 @@
         <v>44</v>
       </c>
       <c r="N9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -27622,7 +27622,7 @@
         <v>44</v>
       </c>
       <c r="N10">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <f>26.5 + 7/4</f>
@@ -27673,7 +27673,7 @@
         <v>44</v>
       </c>
       <c r="N11">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f t="shared" ref="O11:O13" si="3">26.5 + 7/4</f>
@@ -27724,7 +27724,7 @@
         <v>44</v>
       </c>
       <c r="N12">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
@@ -27773,7 +27773,7 @@
         <v>44</v>
       </c>
       <c r="N13">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>26.5</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>26.5</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>26.5</v>
@@ -27942,7 +27942,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>26.5</v>
@@ -27984,7 +27984,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>26.5</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>26.5</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>26.5</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>26.5</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>26.5</v>
@@ -28194,7 +28194,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>26.5</v>
@@ -28236,7 +28236,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>26.5</v>
@@ -33243,12 +33243,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33465,33 +33474,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33508,12 +33516,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008FA17B-544B-4F91-95B0-386D72FBC3AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E495898A-88A1-456B-8440-AFE01E25D25D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3633,6 +3633,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3654,29 +3669,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4189,13 +4189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
-  <dimension ref="A1:AQ121"/>
+  <dimension ref="A1:AQ148"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="46" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N77" sqref="N77"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11481,6 +11481,21 @@
       <c r="AH121" s="35"/>
       <c r="AI121" s="35"/>
     </row>
+    <row r="144" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U144" s="35"/>
+    </row>
+    <row r="145" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U145" s="35"/>
+    </row>
+    <row r="146" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U146" s="35"/>
+    </row>
+    <row r="147" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U147" s="35"/>
+    </row>
+    <row r="148" spans="21:21" x14ac:dyDescent="0.35">
+      <c r="U148" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A4:B4"/>
@@ -15189,68 +15204,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="369" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="365"/>
-      <c r="B4" s="365"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="370" t="s">
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="375" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
+      <c r="L4" s="375"/>
+      <c r="M4" s="375"/>
+      <c r="N4" s="375"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="366" t="s">
+      <c r="C5" s="371" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
-      <c r="J5" s="368"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="372"/>
+      <c r="I5" s="372"/>
+      <c r="J5" s="373"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="369" t="s">
+      <c r="L5" s="374" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="340"/>
@@ -15261,16 +15276,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="372">
+      <c r="C6" s="365">
         <v>2020</v>
       </c>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="373"/>
-      <c r="J6" s="374"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="366"/>
+      <c r="I6" s="366"/>
+      <c r="J6" s="367"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15742,12 +15757,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="375" t="s">
+      <c r="K23" s="368" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="375"/>
-      <c r="M23" s="375"/>
-      <c r="N23" s="375"/>
+      <c r="L23" s="368"/>
+      <c r="M23" s="368"/>
+      <c r="N23" s="368"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15916,7 +15931,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="371" t="s">
+      <c r="I28" s="364" t="s">
         <v>256</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15966,7 +15981,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="371"/>
+      <c r="I29" s="364"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -16014,7 +16029,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="371"/>
+      <c r="I30" s="364"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -16062,7 +16077,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="371"/>
+      <c r="I31" s="364"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16124,7 +16139,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="371" t="s">
+      <c r="I33" s="364" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16172,7 +16187,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="371"/>
+      <c r="I34" s="364"/>
       <c r="J34" t="s">
         <v>257</v>
       </c>
@@ -16409,6 +16424,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16416,12 +16437,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16528,22 +16543,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="379" t="s">
+      <c r="E6" s="377" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="379"/>
-      <c r="N6" s="379"/>
-      <c r="O6" s="379"/>
-      <c r="P6" s="379"/>
-      <c r="Q6" s="379"/>
-      <c r="R6" s="379"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="377"/>
+      <c r="I6" s="377"/>
+      <c r="J6" s="377"/>
+      <c r="K6" s="377"/>
+      <c r="L6" s="377"/>
+      <c r="M6" s="377"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="377"/>
+      <c r="P6" s="377"/>
+      <c r="Q6" s="377"/>
+      <c r="R6" s="377"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="376" t="s">
@@ -17279,21 +17294,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="377" t="s">
+      <c r="H27" s="378" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="377"/>
-      <c r="J27" s="377"/>
-      <c r="K27" s="377"/>
-      <c r="L27" s="377"/>
-      <c r="M27" s="377"/>
-      <c r="N27" s="377"/>
-      <c r="O27" s="377"/>
-      <c r="P27" s="377"/>
-      <c r="Q27" s="377"/>
-      <c r="R27" s="377"/>
-      <c r="S27" s="377"/>
-      <c r="T27" s="377"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="378"/>
+      <c r="N27" s="378"/>
+      <c r="O27" s="378"/>
+      <c r="P27" s="378"/>
+      <c r="Q27" s="378"/>
+      <c r="R27" s="378"/>
+      <c r="S27" s="378"/>
+      <c r="T27" s="378"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17609,21 +17624,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="378" t="s">
+      <c r="F37" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="378"/>
-      <c r="H37" s="378"/>
-      <c r="I37" s="378"/>
-      <c r="J37" s="378"/>
-      <c r="K37" s="378"/>
-      <c r="L37" s="378"/>
-      <c r="M37" s="378"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="G37" s="379"/>
+      <c r="H37" s="379"/>
+      <c r="I37" s="379"/>
+      <c r="J37" s="379"/>
+      <c r="K37" s="379"/>
+      <c r="L37" s="379"/>
+      <c r="M37" s="379"/>
+      <c r="N37" s="379"/>
+      <c r="O37" s="379"/>
+      <c r="P37" s="379"/>
+      <c r="Q37" s="379"/>
+      <c r="R37" s="379"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17939,21 +17954,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="377" t="s">
+      <c r="F48" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="377"/>
-      <c r="H48" s="377"/>
-      <c r="I48" s="377"/>
-      <c r="J48" s="377"/>
-      <c r="K48" s="377"/>
-      <c r="L48" s="377"/>
-      <c r="M48" s="377"/>
-      <c r="N48" s="377"/>
-      <c r="O48" s="377"/>
-      <c r="P48" s="377"/>
-      <c r="Q48" s="377"/>
-      <c r="R48" s="377"/>
+      <c r="G48" s="378"/>
+      <c r="H48" s="378"/>
+      <c r="I48" s="378"/>
+      <c r="J48" s="378"/>
+      <c r="K48" s="378"/>
+      <c r="L48" s="378"/>
+      <c r="M48" s="378"/>
+      <c r="N48" s="378"/>
+      <c r="O48" s="378"/>
+      <c r="P48" s="378"/>
+      <c r="Q48" s="378"/>
+      <c r="R48" s="378"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18265,12 +18280,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18279,6 +18288,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22527,10 +22542,10 @@
   <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27099,9 +27114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33243,18 +33258,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33475,14 +33490,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -33495,6 +33502,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{395EC693-C832-4A9A-A5FD-F66161917474}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB43F65-44F6-480A-B3B0-EA08668652D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3593,21 +3593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3629,14 +3614,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4152,10 +4152,10 @@
   <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O54" sqref="O54"/>
+      <selection pane="bottomRight" activeCell="W112" sqref="W112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15180,68 +15180,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="376" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="376"/>
+      <c r="F2" s="376"/>
+      <c r="G2" s="376"/>
+      <c r="H2" s="376"/>
+      <c r="I2" s="376"/>
+      <c r="J2" s="376"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="381" t="s">
+      <c r="A3" s="376" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="382"/>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="387" t="s">
+      <c r="A4" s="377"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="382" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="387"/>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387"/>
+      <c r="L4" s="382"/>
+      <c r="M4" s="382"/>
+      <c r="N4" s="382"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="383" t="s">
+      <c r="C5" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="384"/>
-      <c r="E5" s="384"/>
-      <c r="F5" s="384"/>
-      <c r="G5" s="384"/>
-      <c r="H5" s="384"/>
-      <c r="I5" s="384"/>
-      <c r="J5" s="385"/>
+      <c r="D5" s="379"/>
+      <c r="E5" s="379"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="379"/>
+      <c r="J5" s="380"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="386" t="s">
+      <c r="L5" s="381" t="s">
         <v>106</v>
       </c>
       <c r="M5" s="352"/>
@@ -15252,16 +15252,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="377">
+      <c r="C6" s="384">
         <v>2020</v>
       </c>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="378"/>
-      <c r="I6" s="378"/>
-      <c r="J6" s="379"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="385"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="385"/>
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="386"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -15733,12 +15733,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="380" t="s">
+      <c r="K23" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="380"/>
-      <c r="M23" s="380"/>
-      <c r="N23" s="380"/>
+      <c r="L23" s="387"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="387"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -15907,7 +15907,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="376" t="s">
+      <c r="I28" s="383" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15957,7 +15957,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="376"/>
+      <c r="I29" s="383"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -16005,7 +16005,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="376"/>
+      <c r="I30" s="383"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -16053,7 +16053,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="376"/>
+      <c r="I31" s="383"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -16115,7 +16115,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="376" t="s">
+      <c r="I33" s="383" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16163,7 +16163,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="376"/>
+      <c r="I34" s="383"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -16400,12 +16400,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16413,6 +16407,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16519,22 +16519,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="389" t="s">
+      <c r="E6" s="391" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="389"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="389"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="389"/>
-      <c r="L6" s="389"/>
-      <c r="M6" s="389"/>
-      <c r="N6" s="389"/>
-      <c r="O6" s="389"/>
-      <c r="P6" s="389"/>
-      <c r="Q6" s="389"/>
-      <c r="R6" s="389"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="391"/>
+      <c r="M6" s="391"/>
+      <c r="N6" s="391"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
+      <c r="R6" s="391"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="388" t="s">
@@ -17270,21 +17270,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="389" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
-      <c r="M27" s="390"/>
-      <c r="N27" s="390"/>
-      <c r="O27" s="390"/>
-      <c r="P27" s="390"/>
-      <c r="Q27" s="390"/>
-      <c r="R27" s="390"/>
-      <c r="S27" s="390"/>
-      <c r="T27" s="390"/>
+      <c r="I27" s="389"/>
+      <c r="J27" s="389"/>
+      <c r="K27" s="389"/>
+      <c r="L27" s="389"/>
+      <c r="M27" s="389"/>
+      <c r="N27" s="389"/>
+      <c r="O27" s="389"/>
+      <c r="P27" s="389"/>
+      <c r="Q27" s="389"/>
+      <c r="R27" s="389"/>
+      <c r="S27" s="389"/>
+      <c r="T27" s="389"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17600,21 +17600,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="391" t="s">
+      <c r="F37" s="390" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="391"/>
-      <c r="H37" s="391"/>
-      <c r="I37" s="391"/>
-      <c r="J37" s="391"/>
-      <c r="K37" s="391"/>
-      <c r="L37" s="391"/>
-      <c r="M37" s="391"/>
-      <c r="N37" s="391"/>
-      <c r="O37" s="391"/>
-      <c r="P37" s="391"/>
-      <c r="Q37" s="391"/>
-      <c r="R37" s="391"/>
+      <c r="G37" s="390"/>
+      <c r="H37" s="390"/>
+      <c r="I37" s="390"/>
+      <c r="J37" s="390"/>
+      <c r="K37" s="390"/>
+      <c r="L37" s="390"/>
+      <c r="M37" s="390"/>
+      <c r="N37" s="390"/>
+      <c r="O37" s="390"/>
+      <c r="P37" s="390"/>
+      <c r="Q37" s="390"/>
+      <c r="R37" s="390"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17930,21 +17930,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="390" t="s">
+      <c r="F48" s="389" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="390"/>
-      <c r="H48" s="390"/>
-      <c r="I48" s="390"/>
-      <c r="J48" s="390"/>
-      <c r="K48" s="390"/>
-      <c r="L48" s="390"/>
-      <c r="M48" s="390"/>
-      <c r="N48" s="390"/>
-      <c r="O48" s="390"/>
-      <c r="P48" s="390"/>
-      <c r="Q48" s="390"/>
-      <c r="R48" s="390"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389"/>
+      <c r="J48" s="389"/>
+      <c r="K48" s="389"/>
+      <c r="L48" s="389"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="389"/>
+      <c r="O48" s="389"/>
+      <c r="P48" s="389"/>
+      <c r="Q48" s="389"/>
+      <c r="R48" s="389"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18256,6 +18256,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18264,12 +18270,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22517,11 +22517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AW73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23918,101 +23918,98 @@
       <c r="B21" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="102">
+      <c r="D21" s="102"/>
+      <c r="E21" s="104">
         <f>main!L112/1000</f>
         <v>156.18299999999999</v>
       </c>
-      <c r="E21" s="104">
+      <c r="F21" s="104">
         <f>main!M112/1000</f>
         <v>197.631</v>
       </c>
-      <c r="F21" s="104">
+      <c r="G21" s="104">
         <f>main!N112/1000</f>
         <v>161.43899999999999</v>
       </c>
-      <c r="G21" s="149">
+      <c r="H21" s="104">
         <f>main!O112/1000</f>
         <v>164.11099999999999</v>
       </c>
-      <c r="H21" s="104">
+      <c r="I21" s="104">
         <f>main!P112/1000</f>
         <v>180.4743832661581</v>
       </c>
-      <c r="I21" s="104">
+      <c r="J21" s="104">
         <f>main!Q112/1000</f>
         <v>180.4743832661581</v>
       </c>
-      <c r="J21" s="104">
+      <c r="K21" s="104">
         <f>main!R112/1000</f>
         <v>180.4743832661581</v>
       </c>
-      <c r="K21" s="149">
+      <c r="L21" s="104">
         <f>main!S112/1000</f>
         <v>180.4743832661581</v>
       </c>
-      <c r="L21" s="104">
+      <c r="M21" s="104">
         <f>main!T112/1000</f>
         <v>222.12231786604073</v>
       </c>
-      <c r="M21" s="223">
+      <c r="N21" s="104">
         <f>main!U112/1000</f>
         <v>222.12231786604073</v>
       </c>
-      <c r="N21" s="104">
-        <f>M21*(1+N23)</f>
-        <v>222.86843334861047</v>
-      </c>
-      <c r="O21" s="149">
-        <f t="shared" ref="O21:AA21" si="0">N21*(1+O23)</f>
-        <v>220.45431358024359</v>
+      <c r="O21" s="104">
+        <f>main!V112/1000</f>
+        <v>222.12231786604073</v>
       </c>
       <c r="P21" s="104">
-        <f t="shared" si="0"/>
-        <v>218.04019381187672</v>
+        <f>O21*(1+P23)</f>
+        <v>219.68993235338124</v>
       </c>
       <c r="Q21" s="104">
-        <f t="shared" si="0"/>
-        <v>215.62607404350982</v>
+        <f t="shared" ref="Q21:AA21" si="0">P21*(1+Q23)</f>
+        <v>217.25754684072169</v>
       </c>
       <c r="R21" s="104">
         <f t="shared" si="0"/>
-        <v>213.21195427514294</v>
-      </c>
-      <c r="S21" s="149">
+        <v>214.82516132806217</v>
+      </c>
+      <c r="S21" s="104">
         <f t="shared" si="0"/>
-        <v>214.47292736957766</v>
+        <v>216.09567521347361</v>
       </c>
       <c r="T21" s="104">
         <f t="shared" si="0"/>
-        <v>215.73390046401204</v>
+        <v>217.36618909888475</v>
       </c>
       <c r="U21" s="104">
         <f t="shared" si="0"/>
-        <v>216.99487355844644</v>
+        <v>218.63670298429588</v>
       </c>
       <c r="V21" s="104">
         <f t="shared" si="0"/>
-        <v>218.25584665288099</v>
-      </c>
-      <c r="W21" s="149">
+        <v>219.90721686970718</v>
+      </c>
+      <c r="W21" s="104">
         <f t="shared" si="0"/>
-        <v>221.49930872888845</v>
+        <v>223.17521967052849</v>
       </c>
       <c r="X21" s="104">
         <f t="shared" si="0"/>
-        <v>224.74277080489614</v>
+        <v>226.44322247135005</v>
       </c>
       <c r="Y21" s="104">
         <f t="shared" si="0"/>
-        <v>227.98623288090351</v>
+        <v>229.71122527217128</v>
       </c>
       <c r="Z21" s="104">
         <f t="shared" si="0"/>
-        <v>231.22969495691106</v>
-      </c>
-      <c r="AA21" s="149">
+        <v>232.9792280729927</v>
+      </c>
+      <c r="AA21" s="104">
         <f t="shared" si="0"/>
-        <v>234.45971936845402</v>
+        <v>236.23369153711843</v>
       </c>
       <c r="AB21" s="95"/>
     </row>
@@ -24198,15 +24195,15 @@
       <c r="E24" s="217"/>
       <c r="F24" s="217">
         <f t="shared" ref="F24" si="16">F21-F22</f>
-        <v>-36.188999999999993</v>
+        <v>3.0000000000143245E-3</v>
       </c>
       <c r="G24" s="150">
         <f t="shared" ref="G24" si="17">G21-G22</f>
-        <v>-6.0960000000000036</v>
+        <v>-8.7680000000000007</v>
       </c>
       <c r="H24" s="217">
         <f t="shared" ref="H24" si="18">H21-H22</f>
-        <v>16.337383266158213</v>
+        <v>-2.5999999999896772E-2</v>
       </c>
       <c r="I24" s="217">
         <f t="shared" ref="I24" si="19">I21-I22</f>
@@ -24222,7 +24219,7 @@
       </c>
       <c r="L24" s="217">
         <f t="shared" si="21"/>
-        <v>48.52236678344002</v>
+        <v>6.8744321835573885</v>
       </c>
       <c r="M24" s="239">
         <f t="shared" si="21"/>
@@ -24230,59 +24227,59 @@
       </c>
       <c r="N24" s="217">
         <f t="shared" si="21"/>
-        <v>48.098296763850755</v>
+        <v>47.35218128128102</v>
       </c>
       <c r="O24" s="150">
         <f t="shared" si="21"/>
-        <v>47.57729409291278</v>
+        <v>49.245298378709919</v>
       </c>
       <c r="P24" s="217">
         <f t="shared" si="21"/>
-        <v>47.056291421974805</v>
+        <v>48.706029963479324</v>
       </c>
       <c r="Q24" s="217">
         <f t="shared" si="21"/>
-        <v>46.53528875103683</v>
+        <v>48.166761548248701</v>
       </c>
       <c r="R24" s="217">
         <f t="shared" si="21"/>
-        <v>46.014286080098856</v>
+        <v>47.627493133018078</v>
       </c>
       <c r="S24" s="150">
         <f t="shared" si="21"/>
-        <v>46.286422681931953</v>
+        <v>47.909170525827903</v>
       </c>
       <c r="T24" s="217">
         <f t="shared" si="21"/>
-        <v>46.558559283764936</v>
+        <v>48.190847918637644</v>
       </c>
       <c r="U24" s="217">
         <f t="shared" si="21"/>
-        <v>46.830695885597947</v>
+        <v>48.472525311447384</v>
       </c>
       <c r="V24" s="217">
         <f t="shared" si="21"/>
-        <v>47.102832487430987</v>
+        <v>48.754202704257182</v>
       </c>
       <c r="W24" s="150">
         <f t="shared" si="21"/>
-        <v>47.802819466879441</v>
+        <v>49.478730408519482</v>
       </c>
       <c r="X24" s="217">
         <f t="shared" si="21"/>
-        <v>48.502806446327952</v>
+        <v>50.203258112781867</v>
       </c>
       <c r="Y24" s="217">
         <f t="shared" si="21"/>
-        <v>49.202793425776406</v>
+        <v>50.927785817044168</v>
       </c>
       <c r="Z24" s="217">
         <f t="shared" si="21"/>
-        <v>49.90278040522486</v>
+        <v>51.652313521306496</v>
       </c>
       <c r="AA24" s="150">
         <f t="shared" si="21"/>
-        <v>50.599867338383604</v>
+        <v>52.373839507048018</v>
       </c>
       <c r="AB24" s="244"/>
     </row>
@@ -27090,7 +27087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
@@ -27209,7 +27206,7 @@
       </c>
       <c r="B3" s="102">
         <f t="array" ref="B3:B24">TRANSPOSE('add-ons calculations'!F24:AA24)</f>
-        <v>-36.188999999999993</v>
+        <v>3.0000000000143245E-3</v>
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F31:AA31)</f>
@@ -27268,7 +27265,7 @@
         <v>44196</v>
       </c>
       <c r="B4">
-        <v>-6.0960000000000036</v>
+        <v>-8.7680000000000007</v>
       </c>
       <c r="C4">
         <v>-61.292000000000002</v>
@@ -27320,7 +27317,7 @@
         <v>44286</v>
       </c>
       <c r="B5">
-        <v>16.337383266158213</v>
+        <v>-2.5999999999896772E-2</v>
       </c>
       <c r="C5">
         <v>-10.88900000000001</v>
@@ -27526,7 +27523,7 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>48.52236678344002</v>
+        <v>6.8744321835573885</v>
       </c>
       <c r="C9">
         <v>-8.0025135083951398</v>
@@ -27628,7 +27625,7 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>48.098296763850755</v>
+        <v>47.35218128128102</v>
       </c>
       <c r="C11">
         <v>-8.1776661628989018</v>
@@ -27679,7 +27676,7 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>47.57729409291278</v>
+        <v>49.245298378709919</v>
       </c>
       <c r="C12">
         <v>-8.5862851488537615</v>
@@ -27730,7 +27727,7 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>47.056291421974805</v>
+        <v>48.706029963479324</v>
       </c>
       <c r="C13">
         <v>-8.9951372198217712</v>
@@ -27779,7 +27776,7 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>46.53528875103683</v>
+        <v>48.166761548248701</v>
       </c>
       <c r="C14">
         <v>-9.4042229585155326</v>
@@ -27821,7 +27818,7 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>46.014286080098856</v>
+        <v>47.627493133018078</v>
       </c>
       <c r="C15">
         <v>-10.174728012378409</v>
@@ -27863,7 +27860,7 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>46.286422681931953</v>
+        <v>47.909170525827903</v>
       </c>
       <c r="C16">
         <v>-10.481366564078854</v>
@@ -27905,7 +27902,7 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>46.558559283764936</v>
+        <v>48.190847918637644</v>
       </c>
       <c r="C17">
         <v>-10.804259404107256</v>
@@ -27947,7 +27944,7 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>46.830695885597947</v>
+        <v>48.472525311447384</v>
       </c>
       <c r="C18">
         <v>-11.141928869888432</v>
@@ -27989,7 +27986,7 @@
         <v>45565</v>
       </c>
       <c r="B19">
-        <v>47.102832487430987</v>
+        <v>48.754202704257182</v>
       </c>
       <c r="C19">
         <v>-11.458911059615787</v>
@@ -28031,7 +28028,7 @@
         <v>45657</v>
       </c>
       <c r="B20">
-        <v>47.802819466879441</v>
+        <v>49.478730408519482</v>
       </c>
       <c r="C20">
         <v>-11.494732358093188</v>
@@ -28073,7 +28070,7 @@
         <v>45747</v>
       </c>
       <c r="B21">
-        <v>48.502806446327952</v>
+        <v>50.203258112781867</v>
       </c>
       <c r="C21">
         <v>-11.529075993995264</v>
@@ -28115,7 +28112,7 @@
         <v>45838</v>
       </c>
       <c r="B22">
-        <v>49.202793425776406</v>
+        <v>50.927785817044168</v>
       </c>
       <c r="C22">
         <v>-11.56194196732207</v>
@@ -28157,7 +28154,7 @@
         <v>45930</v>
       </c>
       <c r="B23">
-        <v>49.90278040522486</v>
+        <v>51.652313521306496</v>
       </c>
       <c r="C23">
         <v>-11.594807940648877</v>
@@ -28199,7 +28196,7 @@
         <v>46022</v>
       </c>
       <c r="B24">
-        <v>50.599867338383604</v>
+        <v>52.373839507048018</v>
       </c>
       <c r="C24">
         <v>-11.629429434809026</v>
@@ -33331,18 +33328,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33563,26 +33560,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/add-ons/add_factors.xlsx
+++ b/data/add-ons/add_factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB43F65-44F6-480A-B3B0-EA08668652D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1864B-3132-4387-B280-F04B452BBEF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -3593,6 +3593,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3614,29 +3629,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15180,68 +15180,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="376" t="s">
+      <c r="A2" s="381" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="376"/>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
-      <c r="E2" s="376"/>
-      <c r="F2" s="376"/>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="376"/>
-      <c r="J2" s="376"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="376" t="s">
+      <c r="A3" s="381" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
+      <c r="I3" s="381"/>
+      <c r="J3" s="381"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="377"/>
-      <c r="B4" s="377"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="377"/>
-      <c r="K4" s="382" t="s">
+      <c r="A4" s="382"/>
+      <c r="B4" s="382"/>
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="382"/>
+      <c r="K4" s="387" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="382"/>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
+      <c r="L4" s="387"/>
+      <c r="M4" s="387"/>
+      <c r="N4" s="387"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="378" t="s">
+      <c r="C5" s="383" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="380"/>
+      <c r="D5" s="384"/>
+      <c r="E5" s="384"/>
+      <c r="F5" s="384"/>
+      <c r="G5" s="384"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="385"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="381" t="s">
+      <c r="L5" s="386" t="s">
         <v>106</v>
       </c>
       <c r="M5" s="352"/>
@@ -15252,16 +15252,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="384">
+      <c r="C6" s="377">
         <v>2020</v>
       </c>
-      <c r="D6" s="385"/>
-      <c r="E6" s="385"/>
-      <c r="F6" s="385"/>
-      <c r="G6" s="385"/>
-      <c r="H6" s="385"/>
-      <c r="I6" s="385"/>
-      <c r="J6" s="386"/>
+      <c r="D6" s="378"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="378"/>
+      <c r="I6" s="378"/>
+      <c r="J6" s="379"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -15733,12 +15733,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="387" t="s">
+      <c r="K23" s="380" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="387"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387"/>
+      <c r="L23" s="380"/>
+      <c r="M23" s="380"/>
+      <c r="N23" s="380"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -15907,7 +15907,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="383" t="s">
+      <c r="I28" s="376" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15957,7 +15957,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="383"/>
+      <c r="I29" s="376"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -16005,7 +16005,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="383"/>
+      <c r="I30" s="376"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -16053,7 +16053,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="383"/>
+      <c r="I31" s="376"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -16115,7 +16115,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="383" t="s">
+      <c r="I33" s="376" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16163,7 +16163,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="383"/>
+      <c r="I34" s="376"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -16400,6 +16400,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16407,12 +16413,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16519,22 +16519,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="391" t="s">
+      <c r="E6" s="389" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="391"/>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="391"/>
-      <c r="N6" s="391"/>
-      <c r="O6" s="391"/>
-      <c r="P6" s="391"/>
-      <c r="Q6" s="391"/>
-      <c r="R6" s="391"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="389"/>
+      <c r="I6" s="389"/>
+      <c r="J6" s="389"/>
+      <c r="K6" s="389"/>
+      <c r="L6" s="389"/>
+      <c r="M6" s="389"/>
+      <c r="N6" s="389"/>
+      <c r="O6" s="389"/>
+      <c r="P6" s="389"/>
+      <c r="Q6" s="389"/>
+      <c r="R6" s="389"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="388" t="s">
@@ -17270,21 +17270,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="389" t="s">
+      <c r="H27" s="390" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="389"/>
-      <c r="J27" s="389"/>
-      <c r="K27" s="389"/>
-      <c r="L27" s="389"/>
-      <c r="M27" s="389"/>
-      <c r="N27" s="389"/>
-      <c r="O27" s="389"/>
-      <c r="P27" s="389"/>
-      <c r="Q27" s="389"/>
-      <c r="R27" s="389"/>
-      <c r="S27" s="389"/>
-      <c r="T27" s="389"/>
+      <c r="I27" s="390"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="390"/>
+      <c r="L27" s="390"/>
+      <c r="M27" s="390"/>
+      <c r="N27" s="390"/>
+      <c r="O27" s="390"/>
+      <c r="P27" s="390"/>
+      <c r="Q27" s="390"/>
+      <c r="R27" s="390"/>
+      <c r="S27" s="390"/>
+      <c r="T27" s="390"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17600,21 +17600,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="390" t="s">
+      <c r="F37" s="391" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="390"/>
-      <c r="H37" s="390"/>
-      <c r="I37" s="390"/>
-      <c r="J37" s="390"/>
-      <c r="K37" s="390"/>
-      <c r="L37" s="390"/>
-      <c r="M37" s="390"/>
-      <c r="N37" s="390"/>
-      <c r="O37" s="390"/>
-      <c r="P37" s="390"/>
-      <c r="Q37" s="390"/>
-      <c r="R37" s="390"/>
+      <c r="G37" s="391"/>
+      <c r="H37" s="391"/>
+      <c r="I37" s="391"/>
+      <c r="J37" s="391"/>
+      <c r="K37" s="391"/>
+      <c r="L37" s="391"/>
+      <c r="M37" s="391"/>
+      <c r="N37" s="391"/>
+      <c r="O37" s="391"/>
+      <c r="P37" s="391"/>
+      <c r="Q37" s="391"/>
+      <c r="R37" s="391"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17930,21 +17930,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="389" t="s">
+      <c r="F48" s="390" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="389"/>
-      <c r="H48" s="389"/>
-      <c r="I48" s="389"/>
-      <c r="J48" s="389"/>
-      <c r="K48" s="389"/>
-      <c r="L48" s="389"/>
-      <c r="M48" s="389"/>
-      <c r="N48" s="389"/>
-      <c r="O48" s="389"/>
-      <c r="P48" s="389"/>
-      <c r="Q48" s="389"/>
-      <c r="R48" s="389"/>
+      <c r="G48" s="390"/>
+      <c r="H48" s="390"/>
+      <c r="I48" s="390"/>
+      <c r="J48" s="390"/>
+      <c r="K48" s="390"/>
+      <c r="L48" s="390"/>
+      <c r="M48" s="390"/>
+      <c r="N48" s="390"/>
+      <c r="O48" s="390"/>
+      <c r="P48" s="390"/>
+      <c r="Q48" s="390"/>
+      <c r="R48" s="390"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18256,12 +18256,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18270,6 +18264,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22521,7 +22521,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22892,130 +22892,130 @@
         <v>216.8</v>
       </c>
       <c r="H11">
-        <v>205.08824545292171</v>
+        <v>221.2388066778216</v>
       </c>
       <c r="I11">
-        <v>194.54899559334319</v>
+        <v>221.86349004229669</v>
       </c>
       <c r="J11">
-        <v>197.82759010290039</v>
+        <v>234.39138633050541</v>
       </c>
       <c r="K11">
-        <v>201.1419882747505</v>
+        <v>247.1569560101569</v>
       </c>
       <c r="L11">
-        <v>204.49241388178211</v>
+        <v>260.1639705503635</v>
       </c>
       <c r="M11">
-        <v>205.5444242270961</v>
+        <v>272.23431764689792</v>
       </c>
       <c r="N11">
-        <v>215.81500173946711</v>
+        <v>293.69134259129783</v>
       </c>
       <c r="O11">
-        <v>226.09143780902031</v>
+        <v>314.10658648539982</v>
       </c>
       <c r="P11">
-        <v>236.37374708214861</v>
+        <v>334.67508713304738</v>
       </c>
       <c r="Q11">
-        <v>255.74027715387331</v>
+        <v>355.23230513680301</v>
       </c>
       <c r="R11">
-        <v>263.44759160026678</v>
+        <v>364.17283208422822</v>
       </c>
       <c r="S11">
-        <v>271.56345516923977</v>
+        <v>373.56443272323418</v>
       </c>
       <c r="T11">
-        <v>280.05072703146732</v>
+        <v>383.36610035458648</v>
       </c>
       <c r="U11">
-        <v>288.01802728313891</v>
+        <v>392.59367419665421</v>
       </c>
       <c r="V11">
-        <v>288.91839029917872</v>
+        <v>394.69632275445218</v>
       </c>
       <c r="W11">
-        <v>289.78161248589288</v>
+        <v>396.75796461301559</v>
       </c>
       <c r="X11">
-        <v>290.60769384328211</v>
+        <v>398.77859977234471</v>
       </c>
       <c r="Y11">
-        <v>291.43377520067099</v>
+        <v>400.7992349316736</v>
       </c>
       <c r="Z11">
-        <v>292.30398131342662</v>
+        <v>402.86399484636888</v>
       </c>
       <c r="AA11">
-        <v>293.17418742618202</v>
+        <v>404.92875476106428</v>
       </c>
       <c r="AB11">
-        <v>294.08153436826302</v>
+        <v>407.03452137499431</v>
       </c>
       <c r="AC11">
-        <v>294.98888131034357</v>
+        <v>409.14028798892389</v>
       </c>
       <c r="AD11">
-        <v>294.38010652389193</v>
+        <v>409.73379874423068</v>
       </c>
       <c r="AE11">
-        <v>293.77133173744051</v>
+        <v>410.32730949953748</v>
       </c>
       <c r="AF11">
-        <v>293.1996977803143</v>
+        <v>410.96182695407867</v>
       </c>
       <c r="AG11">
-        <v>292.66520465251352</v>
+        <v>411.63735110785461</v>
       </c>
       <c r="AH11">
-        <v>292.03214251474122</v>
+        <v>412.21430625165902</v>
       </c>
       <c r="AI11">
-        <v>291.39908037696858</v>
+        <v>412.79126139546281</v>
       </c>
       <c r="AJ11">
-        <v>290.80315906852138</v>
+        <v>413.40922323850202</v>
       </c>
       <c r="AK11">
-        <v>290.20723776007452</v>
+        <v>414.02718508154038</v>
       </c>
       <c r="AL11">
-        <v>289.24030329381378</v>
+        <v>414.27799963667508</v>
       </c>
       <c r="AM11">
-        <v>288.27336882755282</v>
+        <v>414.52881419180898</v>
       </c>
       <c r="AN11">
-        <v>287.30643436129151</v>
+        <v>414.77962874694288</v>
       </c>
       <c r="AO11">
-        <v>286.37664072435621</v>
+        <v>415.07145000131192</v>
       </c>
       <c r="AP11">
-        <v>284.82331709063999</v>
+        <v>414.74747299871819</v>
       </c>
       <c r="AQ11">
-        <v>283.30713428624921</v>
+        <v>414.4645026953591</v>
       </c>
       <c r="AR11">
-        <v>281.86523314050908</v>
+        <v>414.26354579046932</v>
       </c>
       <c r="AS11">
-        <v>280.49761365341982</v>
+        <v>414.1446022840484</v>
       </c>
       <c r="AT11">
-        <v>278.68189565661112</v>
+        <v>413.58529200772671</v>
       </c>
       <c r="AU11">
-        <v>276.94045931845392</v>
+        <v>413.10799512987472</v>
       </c>
       <c r="AV11">
-        <v>275.31044546827241</v>
+        <v>412.753718349726</v>
       </c>
       <c r="AW11">
-        <v>273.7175724474165</v>
+        <v>412.44044826881247</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.35">
@@ -24395,63 +24395,63 @@
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>196.35660236629698</v>
+        <v>203.30373636403667</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>197.3667580641972</v>
+        <v>212.73604422259623</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>207.22871659061335</v>
+        <v>229.50352103049025</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>217.09630058919853</v>
+        <v>245.45690363636706</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>226.96952412363308</v>
+        <v>261.53004790852276</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>245.5655491414949</v>
+        <v>277.59437541925513</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>252.96622503618792</v>
+        <v>284.58090214557228</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>260.75919576513252</v>
+        <v>291.91991798358265</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>268.90879816157889</v>
+        <v>299.57937846858704</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>276.55911622352312</v>
+        <v>306.79021644780005</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>277.42365794108554</v>
+        <v>308.43331986122229</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>278.25253649189762</v>
+        <v>310.04437880994516</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>279.04575187596004</v>
+        <v>311.62339329396889</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>279.83896726002212</v>
+        <v>313.20240777799245</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>280.67455187861759</v>
+        <v>314.81590331491952</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
@@ -24481,79 +24481,79 @@
       </c>
       <c r="I29" s="104">
         <f t="shared" si="23"/>
-        <v>205.08824545292171</v>
+        <v>221.2388066778216</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" si="23"/>
-        <v>194.54899559334319</v>
+        <v>221.86349004229669</v>
       </c>
       <c r="K29" s="149">
         <f t="shared" si="23"/>
-        <v>197.82759010290039</v>
+        <v>234.39138633050541</v>
       </c>
       <c r="L29" s="223">
         <f t="shared" si="23"/>
-        <v>201.1419882747505</v>
+        <v>247.1569560101569</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" si="23"/>
-        <v>204.49241388178211</v>
+        <v>260.1639705503635</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" si="23"/>
-        <v>205.5444242270961</v>
+        <v>272.23431764689792</v>
       </c>
       <c r="O29" s="149">
         <f t="shared" si="23"/>
-        <v>215.81500173946711</v>
+        <v>293.69134259129783</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" si="23"/>
-        <v>226.09143780902031</v>
+        <v>314.10658648539982</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="23"/>
-        <v>236.37374708214861</v>
+        <v>334.67508713304738</v>
       </c>
       <c r="R29" s="104">
         <f t="shared" si="23"/>
-        <v>255.74027715387331</v>
+        <v>355.23230513680301</v>
       </c>
       <c r="S29" s="149">
         <f t="shared" si="23"/>
-        <v>263.44759160026678</v>
+        <v>364.17283208422822</v>
       </c>
       <c r="T29" s="104">
         <f t="shared" si="23"/>
-        <v>271.56345516923977</v>
+        <v>373.56443272323418</v>
       </c>
       <c r="U29" s="104">
         <f t="shared" si="23"/>
-        <v>280.05072703146732</v>
+        <v>383.36610035458648</v>
       </c>
       <c r="V29" s="104">
         <f t="shared" si="23"/>
-        <v>288.01802728313891</v>
+        <v>392.59367419665421</v>
       </c>
       <c r="W29" s="149">
         <f t="shared" si="23"/>
-        <v>288.91839029917872</v>
+        <v>394.69632275445218</v>
       </c>
       <c r="X29" s="104">
         <f t="shared" si="23"/>
-        <v>289.78161248589288</v>
+        <v>396.75796461301559</v>
       </c>
       <c r="Y29" s="104">
         <f t="shared" si="23"/>
-        <v>290.60769384328211</v>
+        <v>398.77859977234471</v>
       </c>
       <c r="Z29" s="104">
         <f t="shared" si="23"/>
-        <v>291.43377520067099</v>
+        <v>400.7992349316736</v>
       </c>
       <c r="AA29" s="149">
         <f t="shared" si="23"/>
-        <v>292.30398131342662</v>
+        <v>402.86399484636888</v>
       </c>
       <c r="AB29" s="95"/>
     </row>
@@ -24572,63 +24572,63 @@
       <c r="L30" s="230"/>
       <c r="M30" s="230">
         <f t="shared" ref="M30" si="24">(M29/L29)-1</f>
-        <v>1.6657017442102129E-2</v>
+        <v>5.262653639281778E-2</v>
       </c>
       <c r="N30" s="230">
         <f t="shared" ref="N30" si="25">(N29/M29)-1</f>
-        <v>5.1444957069270991E-3</v>
+        <v>4.6395152530153361E-2</v>
       </c>
       <c r="O30" s="246">
         <f t="shared" ref="O30" si="26">(O29/N29)-1</f>
-        <v>4.9967677551902456E-2</v>
+        <v>7.8818222220722323E-2</v>
       </c>
       <c r="P30" s="230">
         <f t="shared" ref="P30" si="27">(P29/O29)-1</f>
-        <v>4.761687550320981E-2</v>
+        <v>6.951258322419096E-2</v>
       </c>
       <c r="Q30" s="230">
         <f t="shared" ref="Q30" si="28">(Q29/P29)-1</f>
-        <v>4.5478543428140616E-2</v>
+        <v>6.5482551250492849E-2</v>
       </c>
       <c r="R30" s="230">
         <f t="shared" ref="R30" si="29">(R29/Q29)-1</f>
-        <v>8.1931814809341308E-2</v>
+        <v>6.1424404725958226E-2</v>
       </c>
       <c r="S30" s="246">
         <f t="shared" ref="S30" si="30">(S29/R29)-1</f>
-        <v>3.0137272596119535E-2</v>
+        <v>2.5168113423643002E-2</v>
       </c>
       <c r="T30" s="230">
         <f t="shared" ref="T30" si="31">(T29/S29)-1</f>
-        <v>3.0806368430527753E-2</v>
+        <v>2.5788855761853746E-2</v>
       </c>
       <c r="U30" s="230">
         <f t="shared" ref="U30" si="32">(U29/T29)-1</f>
-        <v>3.1253365284140466E-2</v>
+        <v>2.6238224982767955E-2</v>
       </c>
       <c r="V30" s="230">
         <f t="shared" ref="V30" si="33">(V29/U29)-1</f>
-        <v>2.8449489619701396E-2</v>
+        <v>2.4069874288657367E-2</v>
       </c>
       <c r="W30" s="246">
         <f t="shared" ref="W30" si="34">(W29/V29)-1</f>
-        <v>3.1260647971687039E-3</v>
+        <v>5.3557881748873548E-3</v>
       </c>
       <c r="X30" s="230">
         <f t="shared" ref="X30" si="35">(X29/W29)-1</f>
-        <v>2.9877716881236971E-3</v>
+        <v>5.2233622147170866E-3</v>
       </c>
       <c r="Y30" s="230">
         <f t="shared" ref="Y30" si="36">(Y29/X29)-1</f>
-        <v>2.8507031564311003E-3</v>
+        <v>5.0928660280329385E-3</v>
       </c>
       <c r="Z30" s="230">
         <f t="shared" ref="Z30" si="37">(Z29/Y29)-1</f>
-        <v>2.8425997483547683E-3</v>
+        <v>5.0670601694333683E-3</v>
       </c>
       <c r="AA30" s="246">
         <f t="shared" ref="AA30" si="38">(AA29/Z29)-1</f>
-        <v>2.9859480499692115E-3</v>
+        <v>5.1516064272110196E-3</v>
       </c>
       <c r="AB30" s="243"/>
     </row>
@@ -24652,79 +24652,79 @@
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="42">I28-I29</f>
-        <v>-15.253798527921759</v>
+        <v>-31.404359752821648</v>
       </c>
       <c r="J31" s="217">
         <f t="shared" ref="J31" si="43">J28-J29</f>
-        <v>-3.9853764337182724</v>
+        <v>-31.299870882671769</v>
       </c>
       <c r="K31" s="150">
         <f t="shared" ref="K31:N31" si="44">K28-K29</f>
-        <v>-6.1647437995782752</v>
+        <v>-42.7285400271833</v>
       </c>
       <c r="L31" s="239">
         <f t="shared" si="44"/>
-        <v>-8.0025135083951398</v>
+        <v>-54.017481243801541</v>
       </c>
       <c r="M31" s="217">
         <f t="shared" si="44"/>
-        <v>-8.1358115154851305</v>
+        <v>-56.860234186326835</v>
       </c>
       <c r="N31" s="217">
         <f t="shared" si="44"/>
-        <v>-8.1776661628989018</v>
+        <v>-59.498273424301686</v>
       </c>
       <c r="O31" s="150">
         <f t="shared" ref="O31:AA31" si="45">O28-O29</f>
-        <v>-8.5862851488537615</v>
+        <v>-64.187821560807578</v>
       </c>
       <c r="P31" s="150">
         <f t="shared" si="45"/>
-        <v>-8.9951372198217712</v>
+        <v>-68.649682849032757</v>
       </c>
       <c r="Q31" s="150">
         <f t="shared" si="45"/>
-        <v>-9.4042229585155326</v>
+        <v>-73.145039224524623</v>
       </c>
       <c r="R31" s="150">
         <f t="shared" si="45"/>
-        <v>-10.174728012378409</v>
+        <v>-77.637929717547877</v>
       </c>
       <c r="S31" s="150">
         <f t="shared" si="45"/>
-        <v>-10.481366564078854</v>
+        <v>-79.591929938655937</v>
       </c>
       <c r="T31" s="150">
         <f t="shared" si="45"/>
-        <v>-10.804259404107256</v>
+        <v>-81.644514739651527</v>
       </c>
       <c r="U31" s="150">
         <f t="shared" si="45"/>
-        <v>-11.141928869888432</v>
+        <v>-83.786721885999441</v>
       </c>
       <c r="V31" s="150">
         <f t="shared" si="45"/>
-        <v>-11.458911059615787</v>
+        <v>-85.803457748854157</v>
       </c>
       <c r="W31" s="150">
         <f t="shared" si="45"/>
-        <v>-11.494732358093188</v>
+        <v>-86.263002893229896</v>
       </c>
       <c r="X31" s="150">
         <f t="shared" si="45"/>
-        <v>-11.529075993995264</v>
+        <v>-86.71358580307043</v>
       </c>
       <c r="Y31" s="150">
         <f t="shared" si="45"/>
-        <v>-11.56194196732207</v>
+        <v>-87.155206478375817</v>
       </c>
       <c r="Z31" s="150">
         <f t="shared" si="45"/>
-        <v>-11.594807940648877</v>
+        <v>-87.596827153681147</v>
       </c>
       <c r="AA31" s="150">
         <f t="shared" si="45"/>
-        <v>-11.629429434809026</v>
+        <v>-88.048091531449359</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
@@ -27373,7 +27373,7 @@
         <v>12.191000475937301</v>
       </c>
       <c r="C6">
-        <v>-15.253798527921759</v>
+        <v>-31.404359752821648</v>
       </c>
       <c r="D6">
         <v>-27.540460525652634</v>
@@ -27424,7 +27424,7 @@
         <v>8.0446176857163891</v>
       </c>
       <c r="C7">
-        <v>-3.9853764337182724</v>
+        <v>-31.299870882671769</v>
       </c>
       <c r="D7">
         <v>-27.939190811361868</v>
@@ -27475,7 +27475,7 @@
         <v>7.459524934636903</v>
       </c>
       <c r="C8">
-        <v>-6.1647437995782752</v>
+        <v>-42.7285400271833</v>
       </c>
       <c r="D8">
         <v>-28.310598840321973</v>
@@ -27526,7 +27526,7 @@
         <v>6.8744321835573885</v>
       </c>
       <c r="C9">
-        <v>-8.0025135083951398</v>
+        <v>-54.017481243801541</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -27577,7 +27577,7 @@
         <v>47.937274032360534</v>
       </c>
       <c r="C10">
-        <v>-8.1358115154851305</v>
+        <v>-56.860234186326835</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>47.35218128128102</v>
       </c>
       <c r="C11">
-        <v>-8.1776661628989018</v>
+        <v>-59.498273424301686</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>49.245298378709919</v>
       </c>
       <c r="C12">
-        <v>-8.5862851488537615</v>
+        <v>-64.187821560807578</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -27730,7 +27730,7 @@
         <v>48.706029963479324</v>
       </c>
       <c r="C13">
-        <v>-8.9951372198217712</v>
+        <v>-68.649682849032757</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>48.166761548248701</v>
       </c>
       <c r="C14">
-        <v>-9.4042229585155326</v>
+        <v>-73.145039224524623</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>47.627493133018078</v>
       </c>
       <c r="C15">
-        <v>-10.174728012378409</v>
+        <v>-77.637929717547877</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -27863,7 +27863,7 @@
         <v>47.909170525827903</v>
       </c>
       <c r="C16">
-        <v>-10.481366564078854</v>
+        <v>-79.591929938655937</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -27905,7 +27905,7 @@
         <v>48.190847918637644</v>
       </c>
       <c r="C17">
-        <v>-10.804259404107256</v>
+        <v>-81.644514739651527</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>48.472525311447384</v>
       </c>
       <c r="C18">
-        <v>-11.141928869888432</v>
+        <v>-83.786721885999441</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>48.754202704257182</v>
       </c>
       <c r="C19">
-        <v>-11.458911059615787</v>
+        <v>-85.803457748854157</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>49.478730408519482</v>
       </c>
       <c r="C20">
-        <v>-11.494732358093188</v>
+        <v>-86.263002893229896</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>50.203258112781867</v>
       </c>
       <c r="C21">
-        <v>-11.529075993995264</v>
+        <v>-86.71358580307043</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -28115,7 +28115,7 @@
         <v>50.927785817044168</v>
       </c>
       <c r="C22">
-        <v>-11.56194196732207</v>
+        <v>-87.155206478375817</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -28157,7 +28157,7 @@
         <v>51.652313521306496</v>
       </c>
       <c r="C23">
-        <v>-11.594807940648877</v>
+        <v>-87.596827153681147</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -28199,7 +28199,7 @@
         <v>52.373839507048018</v>
       </c>
       <c r="C24">
-        <v>-11.629429434809026</v>
+        <v>-88.048091531449359</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -33337,12 +33337,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33559,6 +33553,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
@@ -33568,23 +33568,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33601,4 +33584,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>